--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="9936" yWindow="372" windowWidth="9348" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$I$97</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="252">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>Linh Đàm</t>
-  </si>
-  <si>
-    <t>giảm giá</t>
   </si>
   <si>
     <t>Tâm Vp</t>
@@ -789,8 +786,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -1351,14 +1348,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2140,15 +2137,6 @@
     <xf numFmtId="167" fontId="29" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2158,17 +2146,11 @@
     <xf numFmtId="165" fontId="29" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="29" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2290,153 +2272,174 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2446,6 +2449,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2471,47 +2486,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2551,6 +2554,36 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2560,9 +2593,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2572,32 +2602,14 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2912,20 +2924,20 @@
       <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="6"/>
     <col min="11" max="11" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="12" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -2972,7 +2984,7 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -2992,17 +3004,17 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="377" t="s">
+      <c r="A4" s="370" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="377"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -3013,7 +3025,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="D5" s="13"/>
@@ -3023,31 +3035,31 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="368" t="s">
+    <row r="6" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="368" t="s">
+      <c r="B6" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="370" t="s">
+      <c r="C6" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="372"/>
-      <c r="F6" s="372"/>
-      <c r="G6" s="372" t="s">
+      <c r="E6" s="375"/>
+      <c r="F6" s="375"/>
+      <c r="G6" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="372"/>
-      <c r="I6" s="372"/>
-    </row>
-    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="369"/>
-      <c r="B7" s="369"/>
-      <c r="C7" s="371"/>
+      <c r="H6" s="375"/>
+      <c r="I6" s="375"/>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="372"/>
+      <c r="B7" s="372"/>
+      <c r="C7" s="374"/>
       <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>54</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -4508,7 +4520,7 @@
         <v>55</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -4527,7 +4539,7 @@
         <v>51</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -4546,7 +4558,7 @@
         <v>51</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -4565,7 +4577,7 @@
         <v>57</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -4767,12 +4779,12 @@
       </c>
       <c r="K96" s="83"/>
     </row>
-    <row r="97" spans="1:11" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="373" t="s">
+    <row r="97" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="376" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="374"/>
-      <c r="C97" s="375"/>
+      <c r="B97" s="377"/>
+      <c r="C97" s="378"/>
       <c r="D97" s="27">
         <f>SUM(D8:D96)</f>
         <v>0</v>
@@ -4799,11 +4811,11 @@
       </c>
       <c r="K97" s="29"/>
     </row>
-    <row r="100" spans="1:11" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="376" t="s">
+    <row r="100" spans="1:11" s="1" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="379" t="s">
         <v>59</v>
       </c>
-      <c r="B100" s="376"/>
+      <c r="B100" s="379"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -4811,38 +4823,38 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="367" t="s">
+    <row r="102" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A102" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="367"/>
-      <c r="C102" s="367"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="368" t="s">
+      <c r="B102" s="380"/>
+      <c r="C102" s="380"/>
+    </row>
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="368" t="s">
+      <c r="B103" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="370" t="s">
+      <c r="C103" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="372" t="s">
+      <c r="D103" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="372"/>
-      <c r="F103" s="372"/>
-      <c r="G103" s="372" t="s">
+      <c r="E103" s="375"/>
+      <c r="F103" s="375"/>
+      <c r="G103" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="372"/>
-      <c r="I103" s="372"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="369"/>
-      <c r="B104" s="369"/>
-      <c r="C104" s="371"/>
+      <c r="H103" s="375"/>
+      <c r="I103" s="375"/>
+    </row>
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="372"/>
+      <c r="B104" s="372"/>
+      <c r="C104" s="374"/>
       <c r="D104" s="14" t="s">
         <v>9</v>
       </c>
@@ -5318,7 +5330,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -5332,38 +5344,38 @@
         <v>8258199.5987900002</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="367" t="s">
+    <row r="131" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A131" s="380" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="367"/>
-      <c r="C131" s="367"/>
-    </row>
-    <row r="132" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="368" t="s">
+      <c r="B131" s="380"/>
+      <c r="C131" s="380"/>
+    </row>
+    <row r="132" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="368" t="s">
+      <c r="B132" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C132" s="370" t="s">
+      <c r="C132" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="372" t="s">
+      <c r="D132" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="372"/>
-      <c r="F132" s="372"/>
-      <c r="G132" s="372" t="s">
+      <c r="E132" s="375"/>
+      <c r="F132" s="375"/>
+      <c r="G132" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="372"/>
-      <c r="I132" s="372"/>
-    </row>
-    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="369"/>
-      <c r="B133" s="369"/>
-      <c r="C133" s="371"/>
+      <c r="H132" s="375"/>
+      <c r="I132" s="375"/>
+    </row>
+    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="372"/>
+      <c r="B133" s="372"/>
+      <c r="C133" s="374"/>
       <c r="D133" s="14" t="s">
         <v>9</v>
       </c>
@@ -5568,7 +5580,7 @@
         <v>57</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
@@ -5579,7 +5591,7 @@
       <c r="H143" s="16"/>
       <c r="I143" s="19"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -5608,38 +5620,38 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="367" t="s">
+    <row r="146" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A146" s="380" t="s">
         <v>60</v>
       </c>
-      <c r="B146" s="367"/>
-      <c r="C146" s="367"/>
-    </row>
-    <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="368" t="s">
+      <c r="B146" s="380"/>
+      <c r="C146" s="380"/>
+    </row>
+    <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="368" t="s">
+      <c r="B147" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="370" t="s">
+      <c r="C147" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="372" t="s">
+      <c r="D147" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="372"/>
-      <c r="F147" s="372"/>
-      <c r="G147" s="372" t="s">
+      <c r="E147" s="375"/>
+      <c r="F147" s="375"/>
+      <c r="G147" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H147" s="372"/>
-      <c r="I147" s="372"/>
-    </row>
-    <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="369"/>
-      <c r="B148" s="369"/>
-      <c r="C148" s="371"/>
+      <c r="H147" s="375"/>
+      <c r="I147" s="375"/>
+    </row>
+    <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="372"/>
+      <c r="B148" s="372"/>
+      <c r="C148" s="374"/>
       <c r="D148" s="14" t="s">
         <v>9</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>54</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
@@ -5773,7 +5785,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -5787,38 +5799,38 @@
         <v>27701111</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="367" t="s">
+    <row r="157" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A157" s="380" t="s">
         <v>61</v>
       </c>
-      <c r="B157" s="367"/>
-      <c r="C157" s="367"/>
-    </row>
-    <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="368" t="s">
+      <c r="B157" s="380"/>
+      <c r="C157" s="380"/>
+    </row>
+    <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="368" t="s">
+      <c r="B158" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="370" t="s">
+      <c r="C158" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="372" t="s">
+      <c r="D158" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="372"/>
-      <c r="F158" s="372"/>
-      <c r="G158" s="372" t="s">
+      <c r="E158" s="375"/>
+      <c r="F158" s="375"/>
+      <c r="G158" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H158" s="372"/>
-      <c r="I158" s="372"/>
-    </row>
-    <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="369"/>
-      <c r="B159" s="369"/>
-      <c r="C159" s="371"/>
+      <c r="H158" s="375"/>
+      <c r="I158" s="375"/>
+    </row>
+    <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="372"/>
+      <c r="B159" s="372"/>
+      <c r="C159" s="374"/>
       <c r="D159" s="14" t="s">
         <v>9</v>
       </c>
@@ -5876,7 +5888,7 @@
         <v>4248000</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -5890,38 +5902,38 @@
         <v>13248000</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="367" t="s">
+    <row r="164" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A164" s="380" t="s">
         <v>62</v>
       </c>
-      <c r="B164" s="367"/>
-      <c r="C164" s="367"/>
-    </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="368" t="s">
+      <c r="B164" s="380"/>
+      <c r="C164" s="380"/>
+    </row>
+    <row r="165" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="368" t="s">
+      <c r="B165" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="370" t="s">
+      <c r="C165" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="372" t="s">
+      <c r="D165" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="372"/>
-      <c r="F165" s="372"/>
-      <c r="G165" s="372" t="s">
+      <c r="E165" s="375"/>
+      <c r="F165" s="375"/>
+      <c r="G165" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="372"/>
-      <c r="I165" s="372"/>
-    </row>
-    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="369"/>
-      <c r="B166" s="369"/>
-      <c r="C166" s="371"/>
+      <c r="H165" s="375"/>
+      <c r="I165" s="375"/>
+    </row>
+    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="372"/>
+      <c r="B166" s="372"/>
+      <c r="C166" s="374"/>
       <c r="D166" s="14" t="s">
         <v>9</v>
       </c>
@@ -6468,38 +6480,38 @@
         <v>25992399.800000004</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="367" t="s">
+    <row r="196" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A196" s="380" t="s">
         <v>63</v>
       </c>
-      <c r="B196" s="367"/>
-      <c r="C196" s="367"/>
-    </row>
-    <row r="197" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="368" t="s">
+      <c r="B196" s="380"/>
+      <c r="C196" s="380"/>
+    </row>
+    <row r="197" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="368" t="s">
+      <c r="B197" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C197" s="370" t="s">
+      <c r="C197" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="372" t="s">
+      <c r="D197" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="372"/>
-      <c r="F197" s="372"/>
-      <c r="G197" s="372" t="s">
+      <c r="E197" s="375"/>
+      <c r="F197" s="375"/>
+      <c r="G197" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H197" s="372"/>
-      <c r="I197" s="372"/>
-    </row>
-    <row r="198" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="369"/>
-      <c r="B198" s="369"/>
-      <c r="C198" s="371"/>
+      <c r="H197" s="375"/>
+      <c r="I197" s="375"/>
+    </row>
+    <row r="198" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="372"/>
+      <c r="B198" s="372"/>
+      <c r="C198" s="374"/>
       <c r="D198" s="14" t="s">
         <v>9</v>
       </c>
@@ -6622,7 +6634,7 @@
         <v>55</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
@@ -6647,38 +6659,38 @@
         <v>9383000</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A207" s="367" t="s">
+    <row r="207" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A207" s="380" t="s">
         <v>64</v>
       </c>
-      <c r="B207" s="367"/>
-      <c r="C207" s="367"/>
-    </row>
-    <row r="208" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="368" t="s">
+      <c r="B207" s="380"/>
+      <c r="C207" s="380"/>
+    </row>
+    <row r="208" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B208" s="368" t="s">
+      <c r="B208" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C208" s="370" t="s">
+      <c r="C208" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="372" t="s">
+      <c r="D208" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E208" s="372"/>
-      <c r="F208" s="372"/>
-      <c r="G208" s="372" t="s">
+      <c r="E208" s="375"/>
+      <c r="F208" s="375"/>
+      <c r="G208" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H208" s="372"/>
-      <c r="I208" s="372"/>
-    </row>
-    <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="369"/>
-      <c r="B209" s="369"/>
-      <c r="C209" s="371"/>
+      <c r="H208" s="375"/>
+      <c r="I208" s="375"/>
+    </row>
+    <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="372"/>
+      <c r="B209" s="372"/>
+      <c r="C209" s="374"/>
       <c r="D209" s="14" t="s">
         <v>9</v>
       </c>
@@ -6734,38 +6746,38 @@
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I212" s="37"/>
     </row>
-    <row r="213" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A213" s="367" t="s">
+    <row r="213" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A213" s="380" t="s">
         <v>65</v>
       </c>
-      <c r="B213" s="367"/>
-      <c r="C213" s="367"/>
-    </row>
-    <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="368" t="s">
+      <c r="B213" s="380"/>
+      <c r="C213" s="380"/>
+    </row>
+    <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="368" t="s">
+      <c r="B214" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="370" t="s">
+      <c r="C214" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="372" t="s">
+      <c r="D214" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="E214" s="372"/>
-      <c r="F214" s="372"/>
-      <c r="G214" s="372" t="s">
+      <c r="E214" s="375"/>
+      <c r="F214" s="375"/>
+      <c r="G214" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="H214" s="372"/>
-      <c r="I214" s="372"/>
-    </row>
-    <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="369"/>
-      <c r="B215" s="369"/>
-      <c r="C215" s="371"/>
+      <c r="H214" s="375"/>
+      <c r="I214" s="375"/>
+    </row>
+    <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="372"/>
+      <c r="B215" s="372"/>
+      <c r="C215" s="374"/>
       <c r="D215" s="14" t="s">
         <v>9</v>
       </c>
@@ -6945,7 +6957,7 @@
         <v>51</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
@@ -6964,7 +6976,7 @@
         <v>51</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
@@ -7078,41 +7090,11 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="56">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:F214"/>
     <mergeCell ref="G214:I214"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A131:C131"/>
@@ -7129,11 +7111,41 @@
     <mergeCell ref="C208:C209"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="G208:I208"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7144,32 +7156,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="243" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="334" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="243" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="329" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="243" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="243" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="243" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="243" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="243" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="243" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="243" customWidth="1"/>
     <col min="7" max="7" width="5" style="243" customWidth="1"/>
     <col min="8" max="8" width="9" style="243" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="243" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="243" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="243" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="243" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="248" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="248" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="248" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" style="244" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="243" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="243" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="243" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="243" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="248" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="248" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="248" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" style="244" customWidth="1"/>
     <col min="17" max="16384" width="9" style="243"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="239" t="s">
         <v>0</v>
       </c>
@@ -7185,7 +7197,7 @@
       <c r="M1" s="246"/>
       <c r="N1" s="247"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="249" t="s">
         <v>2</v>
       </c>
@@ -7201,166 +7213,166 @@
       <c r="M2" s="246"/>
       <c r="N2" s="253"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="396" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="398" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="396"/>
-      <c r="C3" s="396"/>
-      <c r="D3" s="396"/>
-      <c r="E3" s="396"/>
-      <c r="F3" s="396"/>
-      <c r="G3" s="396"/>
-      <c r="H3" s="396"/>
-      <c r="I3" s="396"/>
-      <c r="J3" s="396"/>
-      <c r="K3" s="396"/>
-      <c r="L3" s="396"/>
-      <c r="M3" s="396"/>
-      <c r="N3" s="396"/>
-      <c r="O3" s="396"/>
-      <c r="P3" s="396"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="396" t="s">
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
+      <c r="O3" s="398"/>
+      <c r="P3" s="398"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="398" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="D4" s="396"/>
-      <c r="E4" s="396"/>
-      <c r="F4" s="396"/>
-      <c r="G4" s="396"/>
-      <c r="H4" s="396"/>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
-      <c r="L4" s="396"/>
-      <c r="M4" s="396"/>
-      <c r="N4" s="396"/>
-      <c r="O4" s="396"/>
-      <c r="P4" s="396"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="396"/>
-      <c r="B5" s="396"/>
-      <c r="C5" s="396"/>
-      <c r="D5" s="396"/>
-      <c r="E5" s="396"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
-    </row>
-    <row r="6" spans="1:16" s="254" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="398" t="s">
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="398"/>
+      <c r="M4" s="398"/>
+      <c r="N4" s="398"/>
+      <c r="O4" s="398"/>
+      <c r="P4" s="398"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="398"/>
+      <c r="B5" s="398"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="398"/>
+      <c r="J5" s="398"/>
+      <c r="K5" s="399"/>
+      <c r="L5" s="399"/>
+    </row>
+    <row r="6" spans="1:16" s="254" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="400" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="401" t="s">
+      <c r="B6" s="403" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="398" t="s">
+      <c r="C6" s="400" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="406" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="404"/>
-      <c r="F6" s="405" t="s">
+      <c r="E6" s="406"/>
+      <c r="F6" s="407" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="405"/>
-      <c r="H6" s="405"/>
-      <c r="I6" s="405"/>
-      <c r="J6" s="405"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="405"/>
-      <c r="M6" s="406"/>
-      <c r="N6" s="406"/>
-      <c r="O6" s="406"/>
-      <c r="P6" s="378" t="s">
+      <c r="G6" s="407"/>
+      <c r="H6" s="407"/>
+      <c r="I6" s="407"/>
+      <c r="J6" s="407"/>
+      <c r="K6" s="407"/>
+      <c r="L6" s="407"/>
+      <c r="M6" s="408"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="386" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="254" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="399"/>
-      <c r="B7" s="402"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="398" t="s">
+    <row r="7" spans="1:16" s="254" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="401"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="401"/>
+      <c r="D7" s="400" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="398" t="s">
+      <c r="E7" s="400" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="398" t="s">
+      <c r="F7" s="400" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="398" t="s">
+      <c r="G7" s="400" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="398" t="s">
+      <c r="H7" s="400" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="398" t="s">
+      <c r="I7" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="407" t="s">
+      <c r="J7" s="409" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="407"/>
-      <c r="L7" s="408" t="s">
+      <c r="K7" s="409"/>
+      <c r="L7" s="410" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="410" t="s">
+      <c r="M7" s="412" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="410" t="s">
+      <c r="N7" s="412" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="410" t="s">
+      <c r="O7" s="412" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="381"/>
-    </row>
-    <row r="8" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="400"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="400"/>
-      <c r="D8" s="400"/>
-      <c r="E8" s="400"/>
-      <c r="F8" s="400"/>
-      <c r="G8" s="400"/>
-      <c r="H8" s="400"/>
-      <c r="I8" s="400"/>
+      <c r="P7" s="397"/>
+    </row>
+    <row r="8" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="402"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="402"/>
+      <c r="E8" s="402"/>
+      <c r="F8" s="402"/>
+      <c r="G8" s="402"/>
+      <c r="H8" s="402"/>
+      <c r="I8" s="402"/>
       <c r="J8" s="255" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="409"/>
-      <c r="M8" s="411"/>
-      <c r="N8" s="411"/>
-      <c r="O8" s="411"/>
-      <c r="P8" s="379"/>
-    </row>
-    <row r="9" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="378">
+      <c r="L8" s="411"/>
+      <c r="M8" s="413"/>
+      <c r="N8" s="413"/>
+      <c r="O8" s="413"/>
+      <c r="P8" s="387"/>
+    </row>
+    <row r="9" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="381">
         <v>1</v>
       </c>
       <c r="B9" s="384">
         <v>43891</v>
       </c>
-      <c r="C9" s="378" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="378" t="s">
+      <c r="C9" s="381" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="381" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="378" t="s">
+      <c r="E9" s="381" t="s">
         <v>145</v>
       </c>
       <c r="F9" s="257" t="s">
@@ -7390,16 +7402,16 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O9" s="260"/>
-      <c r="P9" s="378" t="s">
+      <c r="P9" s="381" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="381"/>
-      <c r="B10" s="385"/>
-      <c r="C10" s="381"/>
-      <c r="D10" s="381"/>
-      <c r="E10" s="381"/>
+    <row r="10" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="382"/>
+      <c r="B10" s="388"/>
+      <c r="C10" s="382"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="382"/>
       <c r="F10" s="261" t="s">
         <v>100</v>
       </c>
@@ -7427,14 +7439,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="264"/>
-      <c r="P10" s="381"/>
-    </row>
-    <row r="11" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="381"/>
-      <c r="B11" s="385"/>
-      <c r="C11" s="381"/>
-      <c r="D11" s="381"/>
-      <c r="E11" s="381"/>
+      <c r="P10" s="382"/>
+    </row>
+    <row r="11" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="382"/>
+      <c r="B11" s="388"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="382"/>
       <c r="F11" s="261" t="s">
         <v>103</v>
       </c>
@@ -7462,14 +7474,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="264"/>
-      <c r="P11" s="381"/>
-    </row>
-    <row r="12" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="381"/>
-      <c r="B12" s="385"/>
-      <c r="C12" s="381"/>
-      <c r="D12" s="381"/>
-      <c r="E12" s="381"/>
+      <c r="P11" s="382"/>
+    </row>
+    <row r="12" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="382"/>
+      <c r="B12" s="388"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="382"/>
       <c r="F12" s="261" t="s">
         <v>108</v>
       </c>
@@ -7497,14 +7509,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="264"/>
-      <c r="P12" s="381"/>
-    </row>
-    <row r="13" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="381"/>
-      <c r="B13" s="385"/>
-      <c r="C13" s="381"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="381"/>
+      <c r="P12" s="382"/>
+    </row>
+    <row r="13" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="382"/>
+      <c r="B13" s="388"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="382"/>
+      <c r="E13" s="382"/>
       <c r="F13" s="261" t="s">
         <v>107</v>
       </c>
@@ -7532,14 +7544,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="264"/>
-      <c r="P13" s="381"/>
-    </row>
-    <row r="14" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="381"/>
-      <c r="B14" s="385"/>
-      <c r="C14" s="381"/>
-      <c r="D14" s="381"/>
-      <c r="E14" s="381"/>
+      <c r="P13" s="382"/>
+    </row>
+    <row r="14" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="382"/>
+      <c r="B14" s="388"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="382"/>
       <c r="F14" s="261" t="s">
         <v>101</v>
       </c>
@@ -7567,14 +7579,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="264"/>
-      <c r="P14" s="381"/>
-    </row>
-    <row r="15" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="381"/>
-      <c r="B15" s="385"/>
-      <c r="C15" s="381"/>
-      <c r="D15" s="381"/>
-      <c r="E15" s="381"/>
+      <c r="P14" s="382"/>
+    </row>
+    <row r="15" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="382"/>
+      <c r="B15" s="388"/>
+      <c r="C15" s="382"/>
+      <c r="D15" s="382"/>
+      <c r="E15" s="382"/>
       <c r="F15" s="261" t="s">
         <v>102</v>
       </c>
@@ -7602,14 +7614,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="264"/>
-      <c r="P15" s="381"/>
-    </row>
-    <row r="16" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="379"/>
-      <c r="B16" s="386"/>
-      <c r="C16" s="379"/>
-      <c r="D16" s="379"/>
-      <c r="E16" s="379"/>
+      <c r="P15" s="382"/>
+    </row>
+    <row r="16" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="383"/>
+      <c r="B16" s="385"/>
+      <c r="C16" s="383"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="383"/>
       <c r="F16" s="265" t="s">
         <v>131</v>
       </c>
@@ -7637,23 +7649,23 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="268"/>
-      <c r="P16" s="379"/>
-    </row>
-    <row r="17" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="378">
+      <c r="P16" s="383"/>
+    </row>
+    <row r="17" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="381">
         <v>2</v>
       </c>
       <c r="B17" s="384">
         <v>43891</v>
       </c>
-      <c r="C17" s="378" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="378" t="s">
+      <c r="C17" s="381" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="381" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="386" t="s">
         <v>168</v>
-      </c>
-      <c r="E17" s="393" t="s">
-        <v>169</v>
       </c>
       <c r="F17" s="269" t="s">
         <v>100</v>
@@ -7682,16 +7694,16 @@
         <f>L17</f>
         <v>2790000</v>
       </c>
-      <c r="P17" s="378" t="s">
+      <c r="P17" s="381" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="379"/>
-      <c r="B18" s="386"/>
-      <c r="C18" s="379"/>
-      <c r="D18" s="379"/>
-      <c r="E18" s="394"/>
+    <row r="18" spans="1:16" s="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="383"/>
+      <c r="B18" s="385"/>
+      <c r="C18" s="383"/>
+      <c r="D18" s="383"/>
+      <c r="E18" s="387"/>
       <c r="F18" s="272" t="s">
         <v>107</v>
       </c>
@@ -7719,9 +7731,9 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="381"/>
-    </row>
-    <row r="19" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="P18" s="382"/>
+    </row>
+    <row r="19" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="276">
         <v>3</v>
       </c>
@@ -7729,10 +7741,10 @@
         <v>43891</v>
       </c>
       <c r="C19" s="276" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="276" t="s">
         <v>213</v>
-      </c>
-      <c r="D19" s="276" t="s">
-        <v>214</v>
       </c>
       <c r="E19" s="276" t="s">
         <v>156</v>
@@ -7764,24 +7776,24 @@
         <f>L19</f>
         <v>2910000</v>
       </c>
-      <c r="P19" s="276" t="s">
+      <c r="P19" s="364" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="378">
+    <row r="20" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="381">
         <v>4</v>
       </c>
       <c r="B20" s="384">
         <v>43893</v>
       </c>
-      <c r="C20" s="378" t="s">
+      <c r="C20" s="381" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="381" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="378" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="378" t="s">
+      <c r="E20" s="381" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="257" t="s">
@@ -7811,16 +7823,16 @@
         <f>L20</f>
         <v>2790000</v>
       </c>
-      <c r="P20" s="378" t="s">
+      <c r="P20" s="381" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="381"/>
-      <c r="B21" s="385"/>
-      <c r="C21" s="381"/>
-      <c r="D21" s="381"/>
-      <c r="E21" s="381"/>
+    <row r="21" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="382"/>
+      <c r="B21" s="388"/>
+      <c r="C21" s="382"/>
+      <c r="D21" s="382"/>
+      <c r="E21" s="382"/>
       <c r="F21" s="261" t="s">
         <v>103</v>
       </c>
@@ -7848,14 +7860,14 @@
         <f>L21</f>
         <v>2850000</v>
       </c>
-      <c r="P21" s="381"/>
-    </row>
-    <row r="22" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="379"/>
-      <c r="B22" s="386"/>
-      <c r="C22" s="379"/>
-      <c r="D22" s="379"/>
-      <c r="E22" s="379"/>
+      <c r="P21" s="382"/>
+    </row>
+    <row r="22" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="383"/>
+      <c r="B22" s="385"/>
+      <c r="C22" s="383"/>
+      <c r="D22" s="383"/>
+      <c r="E22" s="383"/>
       <c r="F22" s="265" t="s">
         <v>108</v>
       </c>
@@ -7883,22 +7895,22 @@
         <f>L22</f>
         <v>4365000</v>
       </c>
-      <c r="P22" s="379"/>
+      <c r="P22" s="383"/>
     </row>
     <row r="23" spans="1:16" s="254" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="382">
+      <c r="A23" s="391">
         <v>5</v>
       </c>
-      <c r="B23" s="389">
+      <c r="B23" s="394">
         <v>43899</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="391" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="382" t="s">
+      <c r="D23" s="391" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="382"/>
+      <c r="E23" s="391"/>
       <c r="F23" s="257" t="s">
         <v>103</v>
       </c>
@@ -7926,16 +7938,16 @@
         <v>1068750</v>
       </c>
       <c r="O23" s="257"/>
-      <c r="P23" s="378" t="s">
+      <c r="P23" s="381" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
-      <c r="B24" s="390"/>
-      <c r="C24" s="388"/>
-      <c r="D24" s="388"/>
-      <c r="E24" s="388"/>
+    <row r="24" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="392"/>
+      <c r="B24" s="395"/>
+      <c r="C24" s="392"/>
+      <c r="D24" s="392"/>
+      <c r="E24" s="392"/>
       <c r="F24" s="261" t="s">
         <v>108</v>
       </c>
@@ -7963,14 +7975,14 @@
         <v>2182500</v>
       </c>
       <c r="O24" s="261"/>
-      <c r="P24" s="381"/>
-    </row>
-    <row r="25" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="383"/>
-      <c r="B25" s="391"/>
-      <c r="C25" s="383"/>
-      <c r="D25" s="383"/>
-      <c r="E25" s="383"/>
+      <c r="P24" s="382"/>
+    </row>
+    <row r="25" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="393"/>
+      <c r="B25" s="396"/>
+      <c r="C25" s="393"/>
+      <c r="D25" s="393"/>
+      <c r="E25" s="393"/>
       <c r="F25" s="265" t="s">
         <v>131</v>
       </c>
@@ -7998,9 +8010,9 @@
         <v>341250</v>
       </c>
       <c r="O25" s="265"/>
-      <c r="P25" s="379"/>
-    </row>
-    <row r="26" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="383"/>
+    </row>
+    <row r="26" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="284">
         <v>6</v>
       </c>
@@ -8039,11 +8051,11 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O26" s="286"/>
-      <c r="P26" s="284" t="s">
+      <c r="P26" s="363" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A27" s="276">
         <v>7</v>
       </c>
@@ -8082,22 +8094,22 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O27" s="278"/>
-      <c r="P27" s="276" t="s">
+      <c r="P27" s="364" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="378">
+    <row r="28" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="381">
         <v>8</v>
       </c>
       <c r="B28" s="384">
         <v>43900</v>
       </c>
-      <c r="C28" s="378" t="s">
+      <c r="C28" s="381" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="378"/>
-      <c r="E28" s="378"/>
+      <c r="D28" s="381"/>
+      <c r="E28" s="381"/>
       <c r="F28" s="257" t="s">
         <v>99</v>
       </c>
@@ -8125,16 +8137,16 @@
         <v>156350.00000000003</v>
       </c>
       <c r="O28" s="257"/>
-      <c r="P28" s="378" t="s">
+      <c r="P28" s="381" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="381"/>
-      <c r="B29" s="385"/>
-      <c r="C29" s="381"/>
-      <c r="D29" s="381"/>
-      <c r="E29" s="381"/>
+    <row r="29" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="382"/>
+      <c r="B29" s="388"/>
+      <c r="C29" s="382"/>
+      <c r="D29" s="382"/>
+      <c r="E29" s="382"/>
       <c r="F29" s="261" t="s">
         <v>100</v>
       </c>
@@ -8162,14 +8174,14 @@
         <v>2194800.0000000005</v>
       </c>
       <c r="O29" s="261"/>
-      <c r="P29" s="381"/>
-    </row>
-    <row r="30" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="379"/>
-      <c r="B30" s="386"/>
-      <c r="C30" s="379"/>
-      <c r="D30" s="379"/>
-      <c r="E30" s="379"/>
+      <c r="P29" s="382"/>
+    </row>
+    <row r="30" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="383"/>
+      <c r="B30" s="385"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="383"/>
       <c r="F30" s="265" t="s">
         <v>101</v>
       </c>
@@ -8197,9 +8209,9 @@
         <v>324500.00000000006</v>
       </c>
       <c r="O30" s="265"/>
-      <c r="P30" s="379"/>
-    </row>
-    <row r="31" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="P30" s="383"/>
+    </row>
+    <row r="31" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A31" s="284">
         <v>9</v>
       </c>
@@ -8228,7 +8240,7 @@
         <f t="shared" si="9"/>
         <v>16380000</v>
       </c>
-      <c r="J31" s="286">
+      <c r="J31" s="290">
         <v>200000</v>
       </c>
       <c r="K31" s="279">
@@ -8244,11 +8256,11 @@
         <v>9664200.0000000019</v>
       </c>
       <c r="O31" s="278"/>
-      <c r="P31" s="284" t="s">
+      <c r="P31" s="363" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="254" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="254" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A32" s="284">
         <v>10</v>
       </c>
@@ -8262,7 +8274,7 @@
         <v>136</v>
       </c>
       <c r="E32" s="295" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F32" s="286" t="s">
         <v>108</v>
@@ -8287,12 +8299,12 @@
       </c>
       <c r="M32" s="296"/>
       <c r="N32" s="296"/>
-      <c r="O32" s="413" t="s">
+      <c r="O32" s="389" t="s">
         <v>137</v>
       </c>
-      <c r="P32" s="414"/>
-    </row>
-    <row r="33" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="P32" s="472"/>
+    </row>
+    <row r="33" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33" s="276">
         <v>11</v>
       </c>
@@ -8333,11 +8345,11 @@
       </c>
       <c r="N33" s="280"/>
       <c r="O33" s="280"/>
-      <c r="P33" s="276" t="s">
+      <c r="P33" s="364" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A34" s="276">
         <v>12</v>
       </c>
@@ -8380,11 +8392,11 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O34" s="280"/>
-      <c r="P34" s="276" t="s">
+      <c r="P34" s="364" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="297">
         <v>13</v>
       </c>
@@ -8422,11 +8434,11 @@
         <f>L35</f>
         <v>805350.00000000012</v>
       </c>
-      <c r="P35" s="297" t="s">
+      <c r="P35" s="362" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="278">
         <v>14</v>
       </c>
@@ -8464,24 +8476,24 @@
         <v>156350.00000000003</v>
       </c>
       <c r="O36" s="278"/>
-      <c r="P36" s="278" t="s">
+      <c r="P36" s="364" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="378">
+    <row r="37" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="381">
         <v>15</v>
       </c>
       <c r="B37" s="384">
         <v>43903</v>
       </c>
-      <c r="C37" s="378" t="s">
+      <c r="C37" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="378" t="s">
+      <c r="D37" s="381" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="378" t="s">
+      <c r="E37" s="381" t="s">
         <v>148</v>
       </c>
       <c r="F37" s="257" t="s">
@@ -8511,16 +8523,16 @@
         <v>6867600.0000000009</v>
       </c>
       <c r="O37" s="260"/>
-      <c r="P37" s="378" t="s">
+      <c r="P37" s="381" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="379"/>
-      <c r="B38" s="386"/>
-      <c r="C38" s="379"/>
-      <c r="D38" s="379"/>
-      <c r="E38" s="379"/>
+    <row r="38" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="383"/>
+      <c r="B38" s="385"/>
+      <c r="C38" s="383"/>
+      <c r="D38" s="383"/>
+      <c r="E38" s="383"/>
       <c r="F38" s="265" t="s">
         <v>102</v>
       </c>
@@ -8548,9 +8560,9 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O38" s="268"/>
-      <c r="P38" s="379"/>
-    </row>
-    <row r="39" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="P38" s="383"/>
+    </row>
+    <row r="39" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="276">
         <v>16</v>
       </c>
@@ -8558,7 +8570,7 @@
         <v>43904</v>
       </c>
       <c r="C39" s="276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="276"/>
       <c r="E39" s="278"/>
@@ -8587,25 +8599,25 @@
       <c r="N39" s="280">
         <v>280250.00000000006</v>
       </c>
-      <c r="P39" s="276" t="s">
+      <c r="P39" s="364" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="254" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="378">
+    <row r="40" spans="1:16" s="254" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="381">
         <v>17</v>
       </c>
       <c r="B40" s="384">
         <v>43904</v>
       </c>
-      <c r="C40" s="378" t="s">
+      <c r="C40" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="378" t="s">
+      <c r="D40" s="381" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="393" t="s">
-        <v>216</v>
+      <c r="E40" s="386" t="s">
+        <v>215</v>
       </c>
       <c r="F40" s="257" t="s">
         <v>98</v>
@@ -8634,16 +8646,16 @@
         <f>L40</f>
         <v>7098000</v>
       </c>
-      <c r="P40" s="378" t="s">
+      <c r="P40" s="381" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="379"/>
-      <c r="B41" s="386"/>
-      <c r="C41" s="381"/>
-      <c r="D41" s="379"/>
-      <c r="E41" s="394"/>
+    <row r="41" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="383"/>
+      <c r="B41" s="385"/>
+      <c r="C41" s="382"/>
+      <c r="D41" s="383"/>
+      <c r="E41" s="387"/>
       <c r="F41" s="265" t="s">
         <v>100</v>
       </c>
@@ -8671,23 +8683,23 @@
         <f t="shared" ref="O41:O46" si="12">L41</f>
         <v>3627000</v>
       </c>
-      <c r="P41" s="381"/>
-    </row>
-    <row r="42" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="378">
+      <c r="P41" s="382"/>
+    </row>
+    <row r="42" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="381">
         <v>18</v>
       </c>
       <c r="B42" s="384">
         <v>43904</v>
       </c>
-      <c r="C42" s="378" t="s">
+      <c r="C42" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="378" t="s">
+      <c r="D42" s="381" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="393" t="s">
-        <v>216</v>
+      <c r="E42" s="386" t="s">
+        <v>215</v>
       </c>
       <c r="F42" s="257" t="s">
         <v>98</v>
@@ -8716,14 +8728,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P42" s="381"/>
-    </row>
-    <row r="43" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="379"/>
-      <c r="B43" s="386"/>
-      <c r="C43" s="381"/>
-      <c r="D43" s="379"/>
-      <c r="E43" s="394"/>
+      <c r="P42" s="382"/>
+    </row>
+    <row r="43" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="383"/>
+      <c r="B43" s="385"/>
+      <c r="C43" s="382"/>
+      <c r="D43" s="383"/>
+      <c r="E43" s="387"/>
       <c r="F43" s="265" t="s">
         <v>100</v>
       </c>
@@ -8751,22 +8763,22 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P43" s="381"/>
-    </row>
-    <row r="44" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="378">
+      <c r="P43" s="382"/>
+    </row>
+    <row r="44" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="381">
         <v>19</v>
       </c>
       <c r="B44" s="384">
         <v>43904</v>
       </c>
-      <c r="C44" s="378" t="s">
+      <c r="C44" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="378" t="s">
+      <c r="D44" s="381" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="393"/>
+      <c r="E44" s="386"/>
       <c r="F44" s="257" t="s">
         <v>100</v>
       </c>
@@ -8794,14 +8806,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P44" s="381"/>
-    </row>
-    <row r="45" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="381"/>
-      <c r="B45" s="385"/>
-      <c r="C45" s="381"/>
-      <c r="D45" s="381"/>
-      <c r="E45" s="412"/>
+      <c r="P44" s="382"/>
+    </row>
+    <row r="45" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="382"/>
+      <c r="B45" s="388"/>
+      <c r="C45" s="382"/>
+      <c r="D45" s="382"/>
+      <c r="E45" s="397"/>
       <c r="F45" s="261" t="s">
         <v>108</v>
       </c>
@@ -8829,14 +8841,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P45" s="381"/>
-    </row>
-    <row r="46" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="379"/>
-      <c r="B46" s="386"/>
-      <c r="C46" s="379"/>
-      <c r="D46" s="379"/>
-      <c r="E46" s="394"/>
+      <c r="P45" s="382"/>
+    </row>
+    <row r="46" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="383"/>
+      <c r="B46" s="385"/>
+      <c r="C46" s="383"/>
+      <c r="D46" s="383"/>
+      <c r="E46" s="387"/>
       <c r="F46" s="265" t="s">
         <v>102</v>
       </c>
@@ -8864,9 +8876,9 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P46" s="379"/>
-    </row>
-    <row r="47" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="P46" s="383"/>
+    </row>
+    <row r="47" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A47" s="276">
         <v>20</v>
       </c>
@@ -8874,7 +8886,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47" s="276" t="s">
         <v>154</v>
@@ -8907,11 +8919,11 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O47" s="280"/>
-      <c r="P47" s="276" t="s">
+      <c r="P47" s="364" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A48" s="276">
         <v>21</v>
       </c>
@@ -8954,11 +8966,11 @@
         <f>L48</f>
         <v>910000</v>
       </c>
-      <c r="P48" s="276" t="s">
+      <c r="P48" s="364" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="254" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="254" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A49" s="276">
         <v>22</v>
       </c>
@@ -9005,18 +9017,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="378">
+    <row r="50" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="381">
         <v>23</v>
       </c>
-      <c r="B50" s="395">
+      <c r="B50" s="414">
         <v>43907</v>
       </c>
-      <c r="C50" s="380" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="378"/>
-      <c r="E50" s="378"/>
+      <c r="C50" s="415" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="381"/>
+      <c r="E50" s="381"/>
       <c r="F50" s="257" t="s">
         <v>100</v>
       </c>
@@ -9044,16 +9056,16 @@
         <v>274350.00000000006</v>
       </c>
       <c r="O50" s="260"/>
-      <c r="P50" s="378" t="s">
+      <c r="P50" s="381" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="379"/>
-      <c r="B51" s="395"/>
-      <c r="C51" s="380"/>
-      <c r="D51" s="379"/>
-      <c r="E51" s="379"/>
+    <row r="51" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="383"/>
+      <c r="B51" s="414"/>
+      <c r="C51" s="415"/>
+      <c r="D51" s="383"/>
+      <c r="E51" s="383"/>
       <c r="F51" s="265" t="s">
         <v>102</v>
       </c>
@@ -9081,20 +9093,20 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O51" s="268"/>
-      <c r="P51" s="381"/>
-    </row>
-    <row r="52" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="382"/>
+    </row>
+    <row r="52" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="305">
         <v>24</v>
       </c>
       <c r="B52" s="384">
         <v>43908</v>
       </c>
-      <c r="C52" s="378" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" s="378"/>
-      <c r="E52" s="378"/>
+      <c r="C52" s="381" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="381"/>
+      <c r="E52" s="381"/>
       <c r="F52" s="257" t="s">
         <v>104</v>
       </c>
@@ -9122,16 +9134,16 @@
         <v>168150.00000000003</v>
       </c>
       <c r="O52" s="260"/>
-      <c r="P52" s="381"/>
-    </row>
-    <row r="53" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="382"/>
+    </row>
+    <row r="53" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="286">
         <v>25</v>
       </c>
-      <c r="B53" s="386"/>
-      <c r="C53" s="379"/>
-      <c r="D53" s="379"/>
-      <c r="E53" s="379"/>
+      <c r="B53" s="385"/>
+      <c r="C53" s="383"/>
+      <c r="D53" s="383"/>
+      <c r="E53" s="383"/>
       <c r="F53" s="265" t="s">
         <v>105</v>
       </c>
@@ -9159,9 +9171,9 @@
         <v>150450.00000000003</v>
       </c>
       <c r="O53" s="268"/>
-      <c r="P53" s="379"/>
-    </row>
-    <row r="54" spans="1:16" s="254" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P53" s="383"/>
+    </row>
+    <row r="54" spans="1:16" s="254" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="276">
         <v>26</v>
       </c>
@@ -9169,7 +9181,7 @@
         <v>43908</v>
       </c>
       <c r="C54" s="276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="284"/>
       <c r="E54" s="286"/>
@@ -9201,11 +9213,11 @@
       <c r="O54" s="290">
         <v>74200</v>
       </c>
-      <c r="P54" s="276" t="s">
+      <c r="P54" s="364" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A55" s="276">
         <v>27</v>
       </c>
@@ -9213,7 +9225,7 @@
         <v>43908</v>
       </c>
       <c r="C55" s="278" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" s="276" t="s">
         <v>162</v>
@@ -9246,21 +9258,21 @@
         <f>L55</f>
         <v>318500</v>
       </c>
-      <c r="P55" s="276" t="s">
+      <c r="P55" s="364" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="378">
+    <row r="56" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="381">
         <v>28</v>
       </c>
       <c r="B56" s="384">
         <v>43908</v>
       </c>
-      <c r="D56" s="378" t="s">
+      <c r="D56" s="381" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="378" t="s">
+      <c r="E56" s="381" t="s">
         <v>165</v>
       </c>
       <c r="F56" s="257" t="s">
@@ -9276,9 +9288,7 @@
         <f t="shared" ref="I56:I61" si="15">G56*H56</f>
         <v>4590000</v>
       </c>
-      <c r="J56" s="257" t="s">
-        <v>166</v>
-      </c>
+      <c r="J56" s="257"/>
       <c r="K56" s="259">
         <v>0.35</v>
       </c>
@@ -9292,18 +9302,18 @@
         <v>2662500</v>
       </c>
       <c r="O56" s="307"/>
-      <c r="P56" s="382" t="s">
+      <c r="P56" s="391" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="379"/>
-      <c r="B57" s="386"/>
+    <row r="57" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="383"/>
+      <c r="B57" s="385"/>
       <c r="C57" s="254" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="379"/>
-      <c r="E57" s="379"/>
+        <v>211</v>
+      </c>
+      <c r="D57" s="383"/>
+      <c r="E57" s="383"/>
       <c r="F57" s="265" t="s">
         <v>98</v>
       </c>
@@ -9317,7 +9327,7 @@
         <f t="shared" si="15"/>
         <v>1365000</v>
       </c>
-      <c r="J57" s="265">
+      <c r="J57" s="268">
         <v>321000</v>
       </c>
       <c r="K57" s="267">
@@ -9333,20 +9343,20 @@
         <v>887250</v>
       </c>
       <c r="O57" s="308"/>
-      <c r="P57" s="383"/>
-    </row>
-    <row r="58" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="378">
+      <c r="P57" s="393"/>
+    </row>
+    <row r="58" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="381">
         <v>29</v>
       </c>
       <c r="B58" s="384">
         <v>43909</v>
       </c>
-      <c r="C58" s="378" t="s">
+      <c r="C58" s="381" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="378"/>
-      <c r="E58" s="378"/>
+      <c r="D58" s="381"/>
+      <c r="E58" s="381"/>
       <c r="F58" s="269" t="s">
         <v>98</v>
       </c>
@@ -9374,16 +9384,16 @@
         <f t="shared" ref="O58:O61" si="16">L58</f>
         <v>268450.00000000006</v>
       </c>
-      <c r="P58" s="378" t="s">
+      <c r="P58" s="381" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="381"/>
-      <c r="B59" s="385"/>
-      <c r="C59" s="381"/>
-      <c r="D59" s="381"/>
-      <c r="E59" s="381"/>
+    <row r="59" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="382"/>
+      <c r="B59" s="388"/>
+      <c r="C59" s="382"/>
+      <c r="D59" s="382"/>
+      <c r="E59" s="382"/>
       <c r="F59" s="261" t="s">
         <v>100</v>
       </c>
@@ -9411,14 +9421,14 @@
         <f t="shared" si="16"/>
         <v>274350.00000000006</v>
       </c>
-      <c r="P59" s="381"/>
-    </row>
-    <row r="60" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="379"/>
-      <c r="B60" s="386"/>
-      <c r="C60" s="379"/>
-      <c r="D60" s="379"/>
-      <c r="E60" s="379"/>
+      <c r="P59" s="382"/>
+    </row>
+    <row r="60" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="383"/>
+      <c r="B60" s="385"/>
+      <c r="C60" s="383"/>
+      <c r="D60" s="383"/>
+      <c r="E60" s="383"/>
       <c r="F60" s="272" t="s">
         <v>107</v>
       </c>
@@ -9446,9 +9456,9 @@
         <f t="shared" si="16"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="P60" s="379"/>
-    </row>
-    <row r="61" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="P60" s="383"/>
+    </row>
+    <row r="61" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A61" s="276">
         <v>30</v>
       </c>
@@ -9456,7 +9466,7 @@
         <v>43909</v>
       </c>
       <c r="C61" s="276" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" s="276"/>
       <c r="E61" s="278"/>
@@ -9487,25 +9497,25 @@
         <f t="shared" si="16"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="P61" s="276" t="s">
+      <c r="P61" s="364" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="382">
+    <row r="62" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="391">
         <v>31</v>
       </c>
-      <c r="B62" s="389">
+      <c r="B62" s="394">
         <v>43912</v>
       </c>
-      <c r="C62" s="382" t="s">
+      <c r="C62" s="391" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="382" t="s">
+      <c r="D62" s="391" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="391" t="s">
         <v>170</v>
-      </c>
-      <c r="E62" s="382" t="s">
-        <v>171</v>
       </c>
       <c r="F62" s="257" t="s">
         <v>98</v>
@@ -9534,14 +9544,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O62" s="309"/>
-      <c r="P62" s="380"/>
-    </row>
-    <row r="63" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="388"/>
-      <c r="B63" s="390"/>
-      <c r="C63" s="388"/>
-      <c r="D63" s="388"/>
-      <c r="E63" s="388"/>
+      <c r="P62" s="415"/>
+    </row>
+    <row r="63" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="392"/>
+      <c r="B63" s="395"/>
+      <c r="C63" s="392"/>
+      <c r="D63" s="392"/>
+      <c r="E63" s="392"/>
       <c r="F63" s="261" t="s">
         <v>108</v>
       </c>
@@ -9569,14 +9579,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O63" s="310"/>
-      <c r="P63" s="380"/>
-    </row>
-    <row r="64" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="383"/>
-      <c r="B64" s="391"/>
-      <c r="C64" s="383"/>
-      <c r="D64" s="383"/>
-      <c r="E64" s="383"/>
+      <c r="P63" s="415"/>
+    </row>
+    <row r="64" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="393"/>
+      <c r="B64" s="396"/>
+      <c r="C64" s="393"/>
+      <c r="D64" s="393"/>
+      <c r="E64" s="393"/>
       <c r="F64" s="265" t="s">
         <v>131</v>
       </c>
@@ -9604,9 +9614,9 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O64" s="311"/>
-      <c r="P64" s="380"/>
-    </row>
-    <row r="65" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="415"/>
+    </row>
+    <row r="65" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="284">
         <v>32</v>
       </c>
@@ -9614,13 +9624,13 @@
         <v>43913</v>
       </c>
       <c r="C65" s="284" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="284" t="s">
         <v>172</v>
       </c>
-      <c r="D65" s="284" t="s">
+      <c r="E65" s="284" t="s">
         <v>173</v>
-      </c>
-      <c r="E65" s="284" t="s">
-        <v>174</v>
       </c>
       <c r="F65" s="286" t="s">
         <v>108</v>
@@ -9649,22 +9659,22 @@
         <f>L65</f>
         <v>858450.00000000012</v>
       </c>
-      <c r="P65" s="284"/>
-    </row>
-    <row r="66" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="378">
+      <c r="P65" s="363"/>
+    </row>
+    <row r="66" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="381">
         <v>33</v>
       </c>
       <c r="B66" s="384">
         <v>43913</v>
       </c>
-      <c r="C66" s="378" t="s">
+      <c r="C66" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="378" t="s">
+      <c r="D66" s="381" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="378" t="s">
+      <c r="E66" s="381" t="s">
         <v>145</v>
       </c>
       <c r="F66" s="257" t="s">
@@ -9694,14 +9704,14 @@
         <f>L66</f>
         <v>2684500.0000000005</v>
       </c>
-      <c r="P66" s="313"/>
-    </row>
-    <row r="67" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="381"/>
-      <c r="B67" s="385"/>
-      <c r="C67" s="381"/>
-      <c r="D67" s="381"/>
-      <c r="E67" s="381"/>
+      <c r="P66" s="366"/>
+    </row>
+    <row r="67" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="382"/>
+      <c r="B67" s="388"/>
+      <c r="C67" s="382"/>
+      <c r="D67" s="382"/>
+      <c r="E67" s="382"/>
       <c r="F67" s="261" t="s">
         <v>100</v>
       </c>
@@ -9729,14 +9739,14 @@
         <f>L67</f>
         <v>548700.00000000012</v>
       </c>
-      <c r="P67" s="261"/>
-    </row>
-    <row r="68" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="379"/>
-      <c r="B68" s="386"/>
-      <c r="C68" s="379"/>
-      <c r="D68" s="379"/>
-      <c r="E68" s="379"/>
+      <c r="P67" s="368"/>
+    </row>
+    <row r="68" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="383"/>
+      <c r="B68" s="385"/>
+      <c r="C68" s="383"/>
+      <c r="D68" s="383"/>
+      <c r="E68" s="383"/>
       <c r="F68" s="265" t="s">
         <v>101</v>
       </c>
@@ -9764,22 +9774,22 @@
         <f>L68</f>
         <v>1622500.0000000002</v>
       </c>
-      <c r="P68" s="265"/>
-    </row>
-    <row r="69" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="378">
+      <c r="P68" s="367"/>
+    </row>
+    <row r="69" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="381">
         <v>34</v>
       </c>
       <c r="B69" s="384">
         <v>43914</v>
       </c>
-      <c r="C69" s="378" t="s">
+      <c r="C69" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="378" t="s">
-        <v>175</v>
-      </c>
-      <c r="E69" s="378" t="s">
+      <c r="D69" s="381" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="381" t="s">
         <v>134</v>
       </c>
       <c r="F69" s="257" t="s">
@@ -9809,14 +9819,14 @@
         <f>L69</f>
         <v>6442800.0000000009</v>
       </c>
-      <c r="P69" s="257"/>
-    </row>
-    <row r="70" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="381"/>
-      <c r="B70" s="385"/>
-      <c r="C70" s="381"/>
-      <c r="D70" s="381"/>
-      <c r="E70" s="381"/>
+      <c r="P69" s="366"/>
+    </row>
+    <row r="70" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="382"/>
+      <c r="B70" s="388"/>
+      <c r="C70" s="382"/>
+      <c r="D70" s="382"/>
+      <c r="E70" s="382"/>
       <c r="F70" s="261" t="s">
         <v>100</v>
       </c>
@@ -9844,14 +9854,14 @@
         <f t="shared" ref="O70:O88" si="19">L70</f>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P70" s="314"/>
-    </row>
-    <row r="71" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="381"/>
-      <c r="B71" s="385"/>
-      <c r="C71" s="381"/>
-      <c r="D71" s="381"/>
-      <c r="E71" s="381"/>
+      <c r="P70" s="368"/>
+    </row>
+    <row r="71" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="382"/>
+      <c r="B71" s="388"/>
+      <c r="C71" s="382"/>
+      <c r="D71" s="382"/>
+      <c r="E71" s="382"/>
       <c r="F71" s="261" t="s">
         <v>108</v>
       </c>
@@ -9879,14 +9889,14 @@
         <f t="shared" si="19"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P71" s="315"/>
-    </row>
-    <row r="72" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="381"/>
-      <c r="B72" s="386"/>
-      <c r="C72" s="379"/>
-      <c r="D72" s="379"/>
-      <c r="E72" s="379"/>
+      <c r="P71" s="473"/>
+    </row>
+    <row r="72" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="382"/>
+      <c r="B72" s="385"/>
+      <c r="C72" s="383"/>
+      <c r="D72" s="383"/>
+      <c r="E72" s="383"/>
       <c r="F72" s="265" t="s">
         <v>107</v>
       </c>
@@ -9914,22 +9924,22 @@
         <f t="shared" si="19"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P72" s="316"/>
-    </row>
-    <row r="73" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="378">
+      <c r="P72" s="313"/>
+    </row>
+    <row r="73" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="381">
         <v>35</v>
       </c>
       <c r="B73" s="384">
         <v>43913</v>
       </c>
-      <c r="C73" s="378" t="s">
+      <c r="C73" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="378" t="s">
+      <c r="D73" s="381" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="378" t="s">
+      <c r="E73" s="381" t="s">
         <v>156</v>
       </c>
       <c r="F73" s="257" t="s">
@@ -9959,14 +9969,14 @@
         <f t="shared" si="19"/>
         <v>6584400.0000000009</v>
       </c>
-      <c r="P73" s="313"/>
-    </row>
-    <row r="74" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="379"/>
-      <c r="B74" s="386"/>
-      <c r="C74" s="379"/>
-      <c r="D74" s="379"/>
-      <c r="E74" s="379"/>
+      <c r="P73" s="366"/>
+    </row>
+    <row r="74" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="383"/>
+      <c r="B74" s="385"/>
+      <c r="C74" s="383"/>
+      <c r="D74" s="383"/>
+      <c r="E74" s="383"/>
       <c r="F74" s="265" t="s">
         <v>108</v>
       </c>
@@ -9994,9 +10004,9 @@
         <f t="shared" si="19"/>
         <v>6867600.0000000009</v>
       </c>
-      <c r="P74" s="265"/>
-    </row>
-    <row r="75" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="367"/>
+    </row>
+    <row r="75" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="278">
         <v>36</v>
       </c>
@@ -10007,7 +10017,7 @@
         <v>128</v>
       </c>
       <c r="D75" s="278" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E75" s="278"/>
       <c r="F75" s="278" t="s">
@@ -10037,9 +10047,9 @@
         <f t="shared" si="19"/>
         <v>2750000</v>
       </c>
-      <c r="P75" s="278"/>
-    </row>
-    <row r="76" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="364"/>
+    </row>
+    <row r="76" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="278">
         <v>37</v>
       </c>
@@ -10059,7 +10069,7 @@
       <c r="G76" s="297">
         <v>36</v>
       </c>
-      <c r="H76" s="317">
+      <c r="H76" s="314">
         <v>455000</v>
       </c>
       <c r="I76" s="299">
@@ -10080,23 +10090,23 @@
         <f t="shared" si="19"/>
         <v>9664200.0000000019</v>
       </c>
-      <c r="P76" s="297"/>
-    </row>
-    <row r="77" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="378">
+      <c r="P76" s="362"/>
+    </row>
+    <row r="77" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="381">
         <v>38</v>
       </c>
       <c r="B77" s="384">
         <v>43915</v>
       </c>
-      <c r="C77" s="378" t="s">
+      <c r="C77" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="378" t="s">
+      <c r="D77" s="381" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="381" t="s">
         <v>224</v>
-      </c>
-      <c r="E77" s="378" t="s">
-        <v>225</v>
       </c>
       <c r="F77" s="257" t="s">
         <v>98</v>
@@ -10125,14 +10135,14 @@
         <f t="shared" si="19"/>
         <v>5460000</v>
       </c>
-      <c r="P77" s="257"/>
-    </row>
-    <row r="78" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="381"/>
-      <c r="B78" s="385"/>
-      <c r="C78" s="381"/>
-      <c r="D78" s="381"/>
-      <c r="E78" s="381"/>
+      <c r="P77" s="366"/>
+    </row>
+    <row r="78" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="382"/>
+      <c r="B78" s="388"/>
+      <c r="C78" s="382"/>
+      <c r="D78" s="382"/>
+      <c r="E78" s="382"/>
       <c r="F78" s="261" t="s">
         <v>99</v>
       </c>
@@ -10160,14 +10170,14 @@
         <f t="shared" si="19"/>
         <v>6360000</v>
       </c>
-      <c r="P78" s="261"/>
-    </row>
-    <row r="79" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="381"/>
-      <c r="B79" s="385"/>
-      <c r="C79" s="381"/>
-      <c r="D79" s="381"/>
-      <c r="E79" s="381"/>
+      <c r="P78" s="368"/>
+    </row>
+    <row r="79" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="382"/>
+      <c r="B79" s="388"/>
+      <c r="C79" s="382"/>
+      <c r="D79" s="382"/>
+      <c r="E79" s="382"/>
       <c r="F79" s="261" t="s">
         <v>100</v>
       </c>
@@ -10195,14 +10205,14 @@
         <f t="shared" si="19"/>
         <v>5580000</v>
       </c>
-      <c r="P79" s="261"/>
-    </row>
-    <row r="80" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="381"/>
-      <c r="B80" s="385"/>
-      <c r="C80" s="381"/>
-      <c r="D80" s="381"/>
-      <c r="E80" s="381"/>
+      <c r="P79" s="368"/>
+    </row>
+    <row r="80" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="382"/>
+      <c r="B80" s="388"/>
+      <c r="C80" s="382"/>
+      <c r="D80" s="382"/>
+      <c r="E80" s="382"/>
       <c r="F80" s="261" t="s">
         <v>103</v>
       </c>
@@ -10230,14 +10240,14 @@
         <f t="shared" si="19"/>
         <v>11400000</v>
       </c>
-      <c r="P80" s="261"/>
-    </row>
-    <row r="81" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="381"/>
-      <c r="B81" s="385"/>
-      <c r="C81" s="381"/>
-      <c r="D81" s="381"/>
-      <c r="E81" s="381"/>
+      <c r="P80" s="368"/>
+    </row>
+    <row r="81" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="382"/>
+      <c r="B81" s="388"/>
+      <c r="C81" s="382"/>
+      <c r="D81" s="382"/>
+      <c r="E81" s="382"/>
       <c r="F81" s="261" t="s">
         <v>108</v>
       </c>
@@ -10265,14 +10275,14 @@
         <f t="shared" si="19"/>
         <v>17460000</v>
       </c>
-      <c r="P81" s="261"/>
-    </row>
-    <row r="82" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="381"/>
-      <c r="B82" s="385"/>
-      <c r="C82" s="381"/>
-      <c r="D82" s="381"/>
-      <c r="E82" s="381"/>
+      <c r="P81" s="368"/>
+    </row>
+    <row r="82" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="382"/>
+      <c r="B82" s="388"/>
+      <c r="C82" s="382"/>
+      <c r="D82" s="382"/>
+      <c r="E82" s="382"/>
       <c r="F82" s="261" t="s">
         <v>107</v>
       </c>
@@ -10300,14 +10310,14 @@
         <f t="shared" si="19"/>
         <v>11640000</v>
       </c>
-      <c r="P82" s="261"/>
-    </row>
-    <row r="83" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="381"/>
-      <c r="B83" s="385"/>
-      <c r="C83" s="381"/>
-      <c r="D83" s="381"/>
-      <c r="E83" s="381"/>
+      <c r="P82" s="368"/>
+    </row>
+    <row r="83" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="382"/>
+      <c r="B83" s="388"/>
+      <c r="C83" s="382"/>
+      <c r="D83" s="382"/>
+      <c r="E83" s="382"/>
       <c r="F83" s="261" t="s">
         <v>101</v>
       </c>
@@ -10335,14 +10345,14 @@
         <f t="shared" si="19"/>
         <v>39600000</v>
       </c>
-      <c r="P83" s="261"/>
-    </row>
-    <row r="84" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="381"/>
-      <c r="B84" s="385"/>
-      <c r="C84" s="381"/>
-      <c r="D84" s="381"/>
-      <c r="E84" s="381"/>
+      <c r="P83" s="368"/>
+    </row>
+    <row r="84" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="382"/>
+      <c r="B84" s="388"/>
+      <c r="C84" s="382"/>
+      <c r="D84" s="382"/>
+      <c r="E84" s="382"/>
       <c r="F84" s="261" t="s">
         <v>140</v>
       </c>
@@ -10370,14 +10380,14 @@
         <f t="shared" si="19"/>
         <v>25200000</v>
       </c>
-      <c r="P84" s="261"/>
-    </row>
-    <row r="85" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="381"/>
-      <c r="B85" s="385"/>
-      <c r="C85" s="381"/>
-      <c r="D85" s="381"/>
-      <c r="E85" s="381"/>
+      <c r="P84" s="368"/>
+    </row>
+    <row r="85" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="382"/>
+      <c r="B85" s="388"/>
+      <c r="C85" s="382"/>
+      <c r="D85" s="382"/>
+      <c r="E85" s="382"/>
       <c r="F85" s="261" t="s">
         <v>102</v>
       </c>
@@ -10405,14 +10415,14 @@
         <f t="shared" si="19"/>
         <v>16380000</v>
       </c>
-      <c r="P85" s="261"/>
-    </row>
-    <row r="86" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="379"/>
-      <c r="B86" s="386"/>
-      <c r="C86" s="379"/>
-      <c r="D86" s="379"/>
-      <c r="E86" s="379"/>
+      <c r="P85" s="368"/>
+    </row>
+    <row r="86" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="383"/>
+      <c r="B86" s="385"/>
+      <c r="C86" s="383"/>
+      <c r="D86" s="383"/>
+      <c r="E86" s="383"/>
       <c r="F86" s="265" t="s">
         <v>131</v>
       </c>
@@ -10440,22 +10450,22 @@
         <f t="shared" si="19"/>
         <v>5460000</v>
       </c>
-      <c r="P86" s="265"/>
-    </row>
-    <row r="87" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="378">
+      <c r="P86" s="367"/>
+    </row>
+    <row r="87" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="381">
         <v>39</v>
       </c>
       <c r="B87" s="384">
         <v>43915</v>
       </c>
-      <c r="C87" s="378" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87" s="378" t="s">
+      <c r="C87" s="381" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="381" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="378" t="s">
+      <c r="E87" s="381" t="s">
         <v>156</v>
       </c>
       <c r="F87" s="269" t="s">
@@ -10467,7 +10477,7 @@
       <c r="H87" s="258">
         <v>550000</v>
       </c>
-      <c r="I87" s="318">
+      <c r="I87" s="315">
         <f>G87*H87</f>
         <v>13200000</v>
       </c>
@@ -10485,14 +10495,14 @@
         <f t="shared" si="19"/>
         <v>7788000.0000000009</v>
       </c>
-      <c r="P87" s="319"/>
-    </row>
-    <row r="88" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="379"/>
-      <c r="B88" s="386"/>
-      <c r="C88" s="379"/>
-      <c r="D88" s="379"/>
-      <c r="E88" s="379"/>
+      <c r="P87" s="365"/>
+    </row>
+    <row r="88" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="383"/>
+      <c r="B88" s="385"/>
+      <c r="C88" s="383"/>
+      <c r="D88" s="383"/>
+      <c r="E88" s="383"/>
       <c r="F88" s="265" t="s">
         <v>131</v>
       </c>
@@ -10502,7 +10512,7 @@
       <c r="H88" s="266">
         <v>455000</v>
       </c>
-      <c r="I88" s="320">
+      <c r="I88" s="316">
         <f t="shared" ref="I88:I93" si="20">G88*H88</f>
         <v>5460000</v>
       </c>
@@ -10520,9 +10530,9 @@
         <f t="shared" si="19"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P88" s="265"/>
-    </row>
-    <row r="89" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P88" s="367"/>
+    </row>
+    <row r="89" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="272">
         <v>40</v>
       </c>
@@ -10531,7 +10541,7 @@
       </c>
       <c r="C89" s="272"/>
       <c r="D89" s="272" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E89" s="272"/>
       <c r="F89" s="272" t="s">
@@ -10543,7 +10553,7 @@
       <c r="H89" s="292">
         <v>455000</v>
       </c>
-      <c r="I89" s="321">
+      <c r="I89" s="317">
         <f t="shared" si="20"/>
         <v>910000</v>
       </c>
@@ -10561,20 +10571,20 @@
       </c>
       <c r="N89" s="274"/>
       <c r="O89" s="274"/>
-      <c r="P89" s="319"/>
-    </row>
-    <row r="90" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="378">
+      <c r="P89" s="365"/>
+    </row>
+    <row r="90" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="381">
         <v>41</v>
       </c>
       <c r="B90" s="384">
         <v>43917</v>
       </c>
-      <c r="C90" s="378" t="s">
-        <v>178</v>
+      <c r="C90" s="381" t="s">
+        <v>177</v>
       </c>
       <c r="D90" s="297"/>
-      <c r="E90" s="378"/>
+      <c r="E90" s="381"/>
       <c r="F90" s="257" t="s">
         <v>103</v>
       </c>
@@ -10584,7 +10594,7 @@
       <c r="H90" s="258">
         <v>475000</v>
       </c>
-      <c r="I90" s="318">
+      <c r="I90" s="315">
         <f t="shared" si="20"/>
         <v>475000</v>
       </c>
@@ -10602,13 +10612,13 @@
         <f>L90</f>
         <v>280250.00000000006</v>
       </c>
-      <c r="P90" s="257"/>
-    </row>
-    <row r="91" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="379"/>
-      <c r="B91" s="386"/>
-      <c r="C91" s="379"/>
-      <c r="E91" s="379"/>
+      <c r="P90" s="366"/>
+    </row>
+    <row r="91" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="383"/>
+      <c r="B91" s="385"/>
+      <c r="C91" s="383"/>
+      <c r="E91" s="383"/>
       <c r="F91" s="265" t="s">
         <v>108</v>
       </c>
@@ -10618,7 +10628,7 @@
       <c r="H91" s="266">
         <v>485000</v>
       </c>
-      <c r="I91" s="320">
+      <c r="I91" s="316">
         <f t="shared" si="20"/>
         <v>485000</v>
       </c>
@@ -10636,23 +10646,23 @@
         <f>L91</f>
         <v>286150.00000000006</v>
       </c>
-      <c r="P91" s="322"/>
-    </row>
-    <row r="92" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="378">
+      <c r="P91" s="367"/>
+    </row>
+    <row r="92" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="381">
         <v>42</v>
       </c>
       <c r="B92" s="384">
         <v>43921</v>
       </c>
-      <c r="C92" s="378" t="s">
+      <c r="C92" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="D92" s="378" t="s">
+      <c r="D92" s="381" t="s">
         <v>142</v>
       </c>
-      <c r="E92" s="378" t="s">
-        <v>217</v>
+      <c r="E92" s="381" t="s">
+        <v>216</v>
       </c>
       <c r="F92" s="269" t="s">
         <v>98</v>
@@ -10681,14 +10691,14 @@
         <f>L92</f>
         <v>295750</v>
       </c>
-      <c r="P92" s="323"/>
-    </row>
-    <row r="93" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="379"/>
-      <c r="B93" s="386"/>
-      <c r="C93" s="379"/>
-      <c r="D93" s="379"/>
-      <c r="E93" s="379"/>
+      <c r="P92" s="318"/>
+    </row>
+    <row r="93" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="383"/>
+      <c r="B93" s="385"/>
+      <c r="C93" s="383"/>
+      <c r="D93" s="383"/>
+      <c r="E93" s="383"/>
       <c r="F93" s="265" t="s">
         <v>102</v>
       </c>
@@ -10716,162 +10726,251 @@
         <f>L93</f>
         <v>295750</v>
       </c>
-      <c r="P93" s="322"/>
-    </row>
-    <row r="94" spans="1:16" s="329" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A94" s="392" t="s">
-        <v>219</v>
-      </c>
-      <c r="B94" s="392"/>
-      <c r="C94" s="392"/>
-      <c r="D94" s="392"/>
-      <c r="E94" s="392"/>
-      <c r="F94" s="392"/>
-      <c r="G94" s="324">
+      <c r="P93" s="367"/>
+    </row>
+    <row r="94" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A94" s="417" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" s="417"/>
+      <c r="C94" s="417"/>
+      <c r="D94" s="417"/>
+      <c r="E94" s="417"/>
+      <c r="F94" s="417"/>
+      <c r="G94" s="319">
         <f>SUM(G9:G93)</f>
         <v>951</v>
       </c>
-      <c r="H94" s="325"/>
-      <c r="I94" s="326">
+      <c r="H94" s="320"/>
+      <c r="I94" s="321">
         <f>SUM(I9:I93)</f>
         <v>443210000</v>
       </c>
-      <c r="J94" s="327"/>
-      <c r="K94" s="326"/>
-      <c r="L94" s="328">
+      <c r="J94" s="322"/>
+      <c r="K94" s="321"/>
+      <c r="L94" s="323">
         <f>SUM(L9:L93)</f>
         <v>321323650</v>
       </c>
-      <c r="M94" s="325"/>
-      <c r="N94" s="325"/>
-      <c r="O94" s="325"/>
-      <c r="P94" s="325"/>
-    </row>
-    <row r="95" spans="1:16" s="329" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A95" s="387" t="s">
-        <v>220</v>
-      </c>
-      <c r="B95" s="387"/>
-      <c r="C95" s="387"/>
-      <c r="D95" s="387"/>
-      <c r="E95" s="387"/>
-      <c r="F95" s="387"/>
-      <c r="G95" s="324">
+      <c r="M94" s="320"/>
+      <c r="N94" s="320"/>
+      <c r="O94" s="320"/>
+      <c r="P94" s="474"/>
+    </row>
+    <row r="95" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A95" s="416" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="416"/>
+      <c r="C95" s="416"/>
+      <c r="D95" s="416"/>
+      <c r="E95" s="416"/>
+      <c r="F95" s="416"/>
+      <c r="G95" s="319">
         <f>G94</f>
         <v>951</v>
       </c>
-      <c r="H95" s="330"/>
-      <c r="I95" s="326"/>
-      <c r="J95" s="330"/>
-      <c r="K95" s="326"/>
-      <c r="L95" s="328">
+      <c r="H95" s="325"/>
+      <c r="I95" s="321"/>
+      <c r="J95" s="325"/>
+      <c r="K95" s="321"/>
+      <c r="L95" s="323">
         <f>L94</f>
         <v>321323650</v>
       </c>
-      <c r="M95" s="330"/>
-      <c r="N95" s="330"/>
-      <c r="O95" s="330"/>
-      <c r="P95" s="330"/>
-    </row>
-    <row r="96" spans="1:16" s="329" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A96" s="387" t="s">
-        <v>221</v>
-      </c>
-      <c r="B96" s="387"/>
-      <c r="C96" s="387"/>
-      <c r="D96" s="387"/>
-      <c r="E96" s="387"/>
-      <c r="F96" s="387"/>
-      <c r="G96" s="331" t="s">
+      <c r="M95" s="325"/>
+      <c r="N95" s="325"/>
+      <c r="O95" s="325"/>
+      <c r="P95" s="369"/>
+    </row>
+    <row r="96" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A96" s="416" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="416"/>
+      <c r="C96" s="416"/>
+      <c r="D96" s="416"/>
+      <c r="E96" s="416"/>
+      <c r="F96" s="416"/>
+      <c r="G96" s="326" t="s">
         <v>141</v>
       </c>
-      <c r="H96" s="331"/>
-      <c r="I96" s="331"/>
-      <c r="J96" s="331"/>
-      <c r="K96" s="331"/>
-      <c r="L96" s="328">
+      <c r="H96" s="326"/>
+      <c r="I96" s="326"/>
+      <c r="J96" s="326"/>
+      <c r="K96" s="326"/>
+      <c r="L96" s="323">
         <f>SUM(M9:M93)</f>
         <v>536900.00000000012</v>
       </c>
-      <c r="M96" s="330"/>
-      <c r="N96" s="330"/>
-      <c r="O96" s="330"/>
-      <c r="P96" s="330"/>
-    </row>
-    <row r="97" spans="1:16" s="329" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A97" s="387" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" s="387"/>
-      <c r="C97" s="387"/>
-      <c r="D97" s="387"/>
-      <c r="E97" s="387"/>
-      <c r="F97" s="387"/>
-      <c r="G97" s="330"/>
-      <c r="H97" s="330"/>
-      <c r="I97" s="325"/>
-      <c r="J97" s="330"/>
-      <c r="K97" s="326"/>
-      <c r="L97" s="328">
+      <c r="M96" s="325"/>
+      <c r="N96" s="325"/>
+      <c r="O96" s="325"/>
+      <c r="P96" s="369"/>
+    </row>
+    <row r="97" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A97" s="416" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="416"/>
+      <c r="C97" s="416"/>
+      <c r="D97" s="416"/>
+      <c r="E97" s="416"/>
+      <c r="F97" s="416"/>
+      <c r="G97" s="325"/>
+      <c r="H97" s="325"/>
+      <c r="I97" s="320"/>
+      <c r="J97" s="325"/>
+      <c r="K97" s="321"/>
+      <c r="L97" s="323">
         <f>SUM(N9:N93)</f>
         <v>50990600.000000007</v>
       </c>
-      <c r="M97" s="330"/>
-      <c r="N97" s="330"/>
-      <c r="O97" s="330"/>
-      <c r="P97" s="330"/>
-    </row>
-    <row r="98" spans="1:16" s="329" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A98" s="387" t="s">
-        <v>223</v>
-      </c>
-      <c r="B98" s="387"/>
-      <c r="C98" s="387"/>
-      <c r="D98" s="387"/>
-      <c r="E98" s="387"/>
-      <c r="F98" s="387"/>
-      <c r="G98" s="330"/>
-      <c r="H98" s="330"/>
-      <c r="I98" s="325"/>
-      <c r="J98" s="330"/>
-      <c r="K98" s="326"/>
-      <c r="L98" s="328">
+      <c r="M97" s="325"/>
+      <c r="N97" s="325"/>
+      <c r="O97" s="325"/>
+      <c r="P97" s="369"/>
+    </row>
+    <row r="98" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A98" s="416" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" s="416"/>
+      <c r="C98" s="416"/>
+      <c r="D98" s="416"/>
+      <c r="E98" s="416"/>
+      <c r="F98" s="416"/>
+      <c r="G98" s="325"/>
+      <c r="H98" s="325"/>
+      <c r="I98" s="320"/>
+      <c r="J98" s="325"/>
+      <c r="K98" s="321"/>
+      <c r="L98" s="323">
         <f>SUM(O9:O93)</f>
         <v>264073150</v>
       </c>
-      <c r="M98" s="330"/>
-      <c r="N98" s="330"/>
-      <c r="O98" s="330"/>
-      <c r="P98" s="330"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B99" s="332"/>
-      <c r="C99" s="415"/>
-      <c r="D99" s="415"/>
-      <c r="L99" s="333"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L100" s="333"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L101" s="333"/>
+      <c r="M98" s="325"/>
+      <c r="N98" s="325"/>
+      <c r="O98" s="325"/>
+      <c r="P98" s="369"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B99" s="327"/>
+      <c r="C99" s="390"/>
+      <c r="D99" s="390"/>
+      <c r="L99" s="328"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L100" s="328"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L101" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="P62:P64"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="P58:P60"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="P40:P46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="D77:D86"/>
+    <mergeCell ref="E77:E86"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="P50:P53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="O32:P32"/>
@@ -10896,109 +10995,20 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="D77:D86"/>
-    <mergeCell ref="E77:E86"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="P40:P46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="P62:P64"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11013,17 +11023,17 @@
       <selection activeCell="F6" sqref="F1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="79" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="9.5546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -11036,7 +11046,7 @@
       <c r="F1" s="53"/>
       <c r="G1" s="53"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
@@ -11058,29 +11068,29 @@
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="416" t="s">
+    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="418" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="416"/>
-      <c r="C4" s="416"/>
-      <c r="D4" s="416"/>
-      <c r="E4" s="416"/>
+      <c r="B4" s="418"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="418"/>
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="417" t="s">
+      <c r="A5" s="419" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="417"/>
-      <c r="C5" s="417"/>
-      <c r="D5" s="417"/>
-      <c r="E5" s="417"/>
+      <c r="B5" s="419"/>
+      <c r="C5" s="419"/>
+      <c r="D5" s="419"/>
+      <c r="E5" s="419"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" s="219" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="219" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="224"/>
       <c r="B6" s="224"/>
       <c r="C6" s="224"/>
@@ -11089,7 +11099,7 @@
       <c r="F6" s="221"/>
       <c r="G6" s="221"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="222" t="s">
         <v>72</v>
       </c>
@@ -11097,10 +11107,10 @@
         <v>73</v>
       </c>
       <c r="C7" s="222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="222" t="s">
         <v>74</v>
@@ -11108,12 +11118,12 @@
       <c r="F7" s="220"/>
       <c r="G7" s="220"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="226">
         <v>1</v>
       </c>
       <c r="B8" s="227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="217">
         <f>'DOANH SỐ'!G94</f>
@@ -11127,12 +11137,12 @@
       <c r="F8" s="218"/>
       <c r="G8" s="218"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="229">
         <v>2</v>
       </c>
       <c r="B9" s="230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="230"/>
       <c r="D9" s="231">
@@ -11143,12 +11153,12 @@
       <c r="F9" s="218"/>
       <c r="G9" s="218"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="229">
         <v>3</v>
       </c>
       <c r="B10" s="230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="230"/>
       <c r="D10" s="231">
@@ -11159,12 +11169,12 @@
       <c r="F10" s="218"/>
       <c r="G10" s="218"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="229">
         <v>4</v>
       </c>
       <c r="B11" s="230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="225"/>
       <c r="D11" s="231">
@@ -11175,12 +11185,12 @@
       <c r="F11" s="218"/>
       <c r="G11" s="218"/>
     </row>
-    <row r="12" spans="1:7" s="219" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="219" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="145">
         <v>5</v>
       </c>
       <c r="B12" s="135" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="238"/>
       <c r="D12" s="147">
@@ -11191,10 +11201,10 @@
       <c r="F12" s="237"/>
       <c r="G12" s="237"/>
     </row>
-    <row r="13" spans="1:7" s="219" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="219" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="232"/>
       <c r="B13" s="234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="235"/>
       <c r="D13" s="236">
@@ -11205,7 +11215,7 @@
       <c r="F13" s="218"/>
       <c r="G13" s="218"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -11214,7 +11224,7 @@
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -11352,7 +11362,7 @@
       </c>
       <c r="E24" s="82"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="76"/>
       <c r="B25" s="77" t="s">
         <v>79</v>
@@ -11368,10 +11378,10 @@
       <c r="E25" s="76"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="418" t="s">
+      <c r="A26" s="420" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="418"/>
+      <c r="B26" s="420"/>
       <c r="C26" s="76"/>
       <c r="D26" s="70">
         <f>C25-D25</f>
@@ -11418,23 +11428,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="87"/>
-    <col min="5" max="5" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="87" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="87" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="87" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="87" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="87"/>
-    <col min="13" max="13" width="11.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="87"/>
+    <col min="5" max="5" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="87" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="87" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="87" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="87" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="87" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="87"/>
+    <col min="13" max="13" width="11.44140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -11445,7 +11455,7 @@
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
@@ -11456,7 +11466,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90"/>
@@ -11465,21 +11475,21 @@
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="422" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
-      <c r="F4" s="422"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
-      <c r="I4" s="422"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="428" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="428"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="428"/>
+      <c r="H4" s="428"/>
+      <c r="I4" s="428"/>
       <c r="J4" s="91"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -11491,34 +11501,34 @@
       <c r="I5" s="92"/>
       <c r="J5" s="91"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="429" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="424" t="s">
+      <c r="B6" s="430" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="423" t="s">
+      <c r="C6" s="429" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="425" t="s">
+      <c r="D6" s="431" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="425"/>
-      <c r="F6" s="425"/>
-      <c r="G6" s="425"/>
-      <c r="H6" s="426"/>
-      <c r="I6" s="423" t="s">
+      <c r="E6" s="431"/>
+      <c r="F6" s="431"/>
+      <c r="G6" s="431"/>
+      <c r="H6" s="432"/>
+      <c r="I6" s="429" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="420" t="s">
+      <c r="J6" s="426" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="423"/>
-      <c r="B7" s="424"/>
-      <c r="C7" s="423"/>
+    <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="429"/>
+      <c r="B7" s="430"/>
+      <c r="C7" s="429"/>
       <c r="D7" s="93" t="s">
         <v>92</v>
       </c>
@@ -11534,10 +11544,10 @@
       <c r="H7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="423"/>
-      <c r="J7" s="421"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="429"/>
+      <c r="J7" s="427"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="96">
         <v>1097</v>
       </c>
@@ -11569,12 +11579,12 @@
       </c>
       <c r="J8" s="150"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="137"/>
-      <c r="B9" s="419" t="s">
+      <c r="B9" s="425" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="419"/>
+      <c r="C9" s="425"/>
       <c r="D9" s="137"/>
       <c r="E9" s="137"/>
       <c r="F9" s="137"/>
@@ -11589,61 +11599,56 @@
       </c>
       <c r="J9" s="154"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="427" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="421" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="428"/>
-      <c r="C10" s="428"/>
-      <c r="D10" s="428"/>
-      <c r="E10" s="428"/>
-      <c r="F10" s="428"/>
-      <c r="G10" s="428"/>
-      <c r="H10" s="428"/>
-      <c r="I10" s="429"/>
+      <c r="B10" s="422"/>
+      <c r="C10" s="422"/>
+      <c r="D10" s="422"/>
+      <c r="E10" s="422"/>
+      <c r="F10" s="422"/>
+      <c r="G10" s="422"/>
+      <c r="H10" s="422"/>
+      <c r="I10" s="423"/>
       <c r="J10" s="155">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G11" s="156"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="430" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="424" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="430"/>
-      <c r="C12" s="430"/>
-      <c r="E12" s="430" t="s">
+      <c r="B12" s="424"/>
+      <c r="C12" s="424"/>
+      <c r="E12" s="424" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="430"/>
-      <c r="G12" s="430"/>
-      <c r="H12" s="430"/>
-      <c r="I12" s="430"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="430" t="s">
+      <c r="F12" s="424"/>
+      <c r="G12" s="424"/>
+      <c r="H12" s="424"/>
+      <c r="I12" s="424"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="424" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="430"/>
-      <c r="C17" s="430"/>
-      <c r="E17" s="430" t="s">
+      <c r="B17" s="424"/>
+      <c r="C17" s="424"/>
+      <c r="E17" s="424" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="430"/>
-      <c r="G17" s="430"/>
-      <c r="H17" s="430"/>
-      <c r="I17" s="430"/>
+      <c r="F17" s="424"/>
+      <c r="G17" s="424"/>
+      <c r="H17" s="424"/>
+      <c r="I17" s="424"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -11652,6 +11657,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11666,23 +11676,23 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="200" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="87"/>
-    <col min="5" max="5" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="87" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="87" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="87" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="87" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="87"/>
-    <col min="13" max="13" width="11.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="200" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="87"/>
+    <col min="5" max="5" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="87" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="87" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="87" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="87" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="87" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="87"/>
+    <col min="13" max="13" width="11.44140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -11693,7 +11703,7 @@
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
@@ -11704,7 +11714,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="89"/>
       <c r="B3" s="194"/>
       <c r="C3" s="90"/>
@@ -11713,21 +11723,21 @@
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="422" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
-      <c r="F4" s="422"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
-      <c r="I4" s="422"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="428" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="428"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="428"/>
+      <c r="H4" s="428"/>
+      <c r="I4" s="428"/>
       <c r="J4" s="91"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="195"/>
       <c r="C5" s="92"/>
@@ -11739,34 +11749,34 @@
       <c r="I5" s="92"/>
       <c r="J5" s="91"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="429" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="442" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="423" t="s">
+      <c r="C6" s="429" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="425" t="s">
+      <c r="D6" s="431" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="425"/>
-      <c r="F6" s="425"/>
-      <c r="G6" s="425"/>
-      <c r="H6" s="426"/>
-      <c r="I6" s="423" t="s">
+      <c r="E6" s="431"/>
+      <c r="F6" s="431"/>
+      <c r="G6" s="431"/>
+      <c r="H6" s="432"/>
+      <c r="I6" s="429" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="420" t="s">
+      <c r="J6" s="426" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="423"/>
-      <c r="B7" s="431"/>
-      <c r="C7" s="423"/>
+    <row r="7" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="429"/>
+      <c r="B7" s="442"/>
+      <c r="C7" s="429"/>
       <c r="D7" s="93" t="s">
         <v>92</v>
       </c>
@@ -11782,10 +11792,10 @@
       <c r="H7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="423"/>
-      <c r="J7" s="421"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="429"/>
+      <c r="J7" s="427"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="95">
         <v>1057</v>
       </c>
@@ -11817,7 +11827,7 @@
       </c>
       <c r="J8" s="101"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="95">
         <v>1058</v>
       </c>
@@ -11849,14 +11859,14 @@
       </c>
       <c r="J9" s="102"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="435">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="436">
         <v>1060</v>
       </c>
-      <c r="B10" s="438">
+      <c r="B10" s="439">
         <v>43900</v>
       </c>
-      <c r="C10" s="435" t="s">
+      <c r="C10" s="436" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="103" t="s">
@@ -11881,10 +11891,10 @@
       </c>
       <c r="J10" s="102"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
-      <c r="B11" s="439"/>
-      <c r="C11" s="436"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="437"/>
+      <c r="B11" s="440"/>
+      <c r="C11" s="437"/>
       <c r="D11" s="108" t="s">
         <v>100</v>
       </c>
@@ -11908,10 +11918,10 @@
       <c r="J11" s="102"/>
       <c r="M11" s="156"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="437"/>
-      <c r="B12" s="440"/>
-      <c r="C12" s="437"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="438"/>
+      <c r="B12" s="441"/>
+      <c r="C12" s="438"/>
       <c r="D12" s="113" t="s">
         <v>101</v>
       </c>
@@ -11935,7 +11945,7 @@
       <c r="J12" s="102"/>
       <c r="M12" s="156"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="95">
         <v>1064</v>
       </c>
@@ -11967,7 +11977,7 @@
       </c>
       <c r="J13" s="102"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="95">
         <v>1065</v>
       </c>
@@ -11999,7 +12009,7 @@
       </c>
       <c r="J14" s="102"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="95">
         <v>1068</v>
       </c>
@@ -12031,7 +12041,7 @@
       </c>
       <c r="J15" s="102"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="95">
         <v>1075</v>
       </c>
@@ -12063,7 +12073,7 @@
       </c>
       <c r="J16" s="102"/>
     </row>
-    <row r="17" spans="1:10" s="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201">
         <v>1078</v>
       </c>
@@ -12095,7 +12105,7 @@
       </c>
       <c r="J17" s="123"/>
     </row>
-    <row r="18" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="203"/>
       <c r="B18" s="206"/>
       <c r="C18" s="203"/>
@@ -12121,7 +12131,7 @@
       </c>
       <c r="J18" s="123"/>
     </row>
-    <row r="19" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="202">
         <v>1080</v>
       </c>
@@ -12151,7 +12161,7 @@
       </c>
       <c r="J19" s="123"/>
     </row>
-    <row r="20" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="203"/>
       <c r="B20" s="206"/>
       <c r="C20" s="203"/>
@@ -12177,7 +12187,7 @@
       </c>
       <c r="J20" s="123"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="95">
         <v>1079</v>
       </c>
@@ -12209,14 +12219,14 @@
       </c>
       <c r="J21" s="102"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="435">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="436">
         <v>1086</v>
       </c>
-      <c r="B22" s="438">
+      <c r="B22" s="439">
         <v>43909</v>
       </c>
-      <c r="C22" s="435" t="s">
+      <c r="C22" s="436" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="130" t="s">
@@ -12241,10 +12251,10 @@
       </c>
       <c r="J22" s="102"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="436"/>
-      <c r="B23" s="439"/>
-      <c r="C23" s="436"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="437"/>
+      <c r="B23" s="440"/>
+      <c r="C23" s="437"/>
       <c r="D23" s="130" t="s">
         <v>100</v>
       </c>
@@ -12267,10 +12277,10 @@
       </c>
       <c r="J23" s="102"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="437"/>
-      <c r="B24" s="440"/>
-      <c r="C24" s="437"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="438"/>
+      <c r="B24" s="441"/>
+      <c r="C24" s="438"/>
       <c r="D24" s="130" t="s">
         <v>107</v>
       </c>
@@ -12293,7 +12303,7 @@
       </c>
       <c r="J24" s="135"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="95">
         <v>1088</v>
       </c>
@@ -12376,7 +12386,7 @@
       <c r="I28" s="117"/>
       <c r="J28" s="102"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="140"/>
       <c r="B29" s="197"/>
       <c r="C29" s="95" t="s">
@@ -12398,7 +12408,7 @@
       </c>
       <c r="J29" s="102"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="108"/>
       <c r="B30" s="198"/>
       <c r="C30" s="95" t="s">
@@ -12420,7 +12430,7 @@
       </c>
       <c r="J30" s="102"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="108"/>
       <c r="B31" s="198"/>
       <c r="C31" s="95" t="s">
@@ -12442,7 +12452,7 @@
       </c>
       <c r="J31" s="102"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="108"/>
       <c r="B32" s="198"/>
       <c r="C32" s="95" t="s">
@@ -12464,7 +12474,7 @@
       </c>
       <c r="J32" s="102"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="108"/>
       <c r="B33" s="198"/>
       <c r="C33" s="95" t="s">
@@ -12486,7 +12496,7 @@
       </c>
       <c r="J33" s="102"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="145"/>
       <c r="B34" s="199"/>
       <c r="C34" s="95" t="s">
@@ -12508,14 +12518,14 @@
       </c>
       <c r="J34" s="135"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="435">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="436">
         <v>1122</v>
       </c>
-      <c r="B35" s="438">
+      <c r="B35" s="439">
         <v>43917</v>
       </c>
-      <c r="C35" s="435" t="s">
+      <c r="C35" s="436" t="s">
         <v>106</v>
       </c>
       <c r="D35" s="96" t="s">
@@ -12540,10 +12550,10 @@
       </c>
       <c r="J35" s="150"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="437"/>
-      <c r="B36" s="440"/>
-      <c r="C36" s="437"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="438"/>
+      <c r="B36" s="441"/>
+      <c r="C36" s="438"/>
       <c r="D36" s="96" t="s">
         <v>108</v>
       </c>
@@ -12566,44 +12576,44 @@
       </c>
       <c r="J36" s="150"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="432" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="433" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="433"/>
-      <c r="C37" s="433"/>
-      <c r="D37" s="433"/>
-      <c r="E37" s="433"/>
-      <c r="F37" s="433"/>
-      <c r="G37" s="433"/>
-      <c r="H37" s="433"/>
-      <c r="I37" s="434"/>
+      <c r="B37" s="434"/>
+      <c r="C37" s="434"/>
+      <c r="D37" s="434"/>
+      <c r="E37" s="434"/>
+      <c r="F37" s="434"/>
+      <c r="G37" s="434"/>
+      <c r="H37" s="434"/>
+      <c r="I37" s="435"/>
       <c r="J37" s="151">
         <v>7000000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="432" t="s">
+    <row r="38" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="433" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="433"/>
-      <c r="C38" s="433"/>
-      <c r="D38" s="433"/>
-      <c r="E38" s="433"/>
-      <c r="F38" s="433"/>
-      <c r="G38" s="433"/>
-      <c r="H38" s="433"/>
-      <c r="I38" s="434"/>
+      <c r="B38" s="434"/>
+      <c r="C38" s="434"/>
+      <c r="D38" s="434"/>
+      <c r="E38" s="434"/>
+      <c r="F38" s="434"/>
+      <c r="G38" s="434"/>
+      <c r="H38" s="434"/>
+      <c r="I38" s="435"/>
       <c r="J38" s="151">
         <v>2000000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="137"/>
-      <c r="B39" s="419" t="s">
+      <c r="B39" s="425" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="419"/>
+      <c r="C39" s="425"/>
       <c r="D39" s="137"/>
       <c r="E39" s="137"/>
       <c r="F39" s="137"/>
@@ -12621,61 +12631,62 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="427" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="421" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="428"/>
-      <c r="C40" s="428"/>
-      <c r="D40" s="428"/>
-      <c r="E40" s="428"/>
-      <c r="F40" s="428"/>
-      <c r="G40" s="428"/>
-      <c r="H40" s="428"/>
-      <c r="I40" s="429"/>
+      <c r="B40" s="422"/>
+      <c r="C40" s="422"/>
+      <c r="D40" s="422"/>
+      <c r="E40" s="422"/>
+      <c r="F40" s="422"/>
+      <c r="G40" s="422"/>
+      <c r="H40" s="422"/>
+      <c r="I40" s="423"/>
       <c r="J40" s="155">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G41" s="156"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="430" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="424" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="430"/>
-      <c r="C42" s="430"/>
-      <c r="E42" s="430" t="s">
+      <c r="B42" s="424"/>
+      <c r="C42" s="424"/>
+      <c r="E42" s="424" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="430"/>
-      <c r="G42" s="430"/>
-      <c r="H42" s="430"/>
-      <c r="I42" s="430"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="430" t="s">
+      <c r="F42" s="424"/>
+      <c r="G42" s="424"/>
+      <c r="H42" s="424"/>
+      <c r="I42" s="424"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="424" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="430"/>
-      <c r="C47" s="430"/>
-      <c r="E47" s="430" t="s">
+      <c r="B47" s="424"/>
+      <c r="C47" s="424"/>
+      <c r="E47" s="424" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="430"/>
-      <c r="G47" s="430"/>
-      <c r="H47" s="430"/>
-      <c r="I47" s="430"/>
+      <c r="F47" s="424"/>
+      <c r="G47" s="424"/>
+      <c r="H47" s="424"/>
+      <c r="I47" s="424"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="B39:C39"/>
@@ -12689,12 +12700,11 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.46" bottom="0.48" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12705,876 +12715,876 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="163" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="163" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="163" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="163" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="163" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="163" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="163" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="163" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="163" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="163" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="163" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="163" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="163" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="163" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="163" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" style="163" bestFit="1" customWidth="1"/>
     <col min="13" max="256" width="9" style="163"/>
-    <col min="257" max="257" width="5.28515625" style="163" customWidth="1"/>
-    <col min="258" max="258" width="14.28515625" style="163" customWidth="1"/>
-    <col min="259" max="259" width="9.7109375" style="163" customWidth="1"/>
-    <col min="260" max="260" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="5.33203125" style="163" customWidth="1"/>
+    <col min="258" max="258" width="14.33203125" style="163" customWidth="1"/>
+    <col min="259" max="259" width="9.6640625" style="163" customWidth="1"/>
+    <col min="260" max="260" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="6" style="163" customWidth="1"/>
-    <col min="262" max="262" width="12.85546875" style="163" customWidth="1"/>
-    <col min="263" max="263" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="12.140625" style="163" customWidth="1"/>
-    <col min="266" max="266" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="10.42578125" style="163" customWidth="1"/>
-    <col min="268" max="268" width="5.140625" style="163" customWidth="1"/>
+    <col min="262" max="262" width="12.88671875" style="163" customWidth="1"/>
+    <col min="263" max="263" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="12.109375" style="163" customWidth="1"/>
+    <col min="266" max="266" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="10.44140625" style="163" customWidth="1"/>
+    <col min="268" max="268" width="5.109375" style="163" customWidth="1"/>
     <col min="269" max="512" width="9" style="163"/>
-    <col min="513" max="513" width="5.28515625" style="163" customWidth="1"/>
-    <col min="514" max="514" width="14.28515625" style="163" customWidth="1"/>
-    <col min="515" max="515" width="9.7109375" style="163" customWidth="1"/>
-    <col min="516" max="516" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="5.33203125" style="163" customWidth="1"/>
+    <col min="514" max="514" width="14.33203125" style="163" customWidth="1"/>
+    <col min="515" max="515" width="9.6640625" style="163" customWidth="1"/>
+    <col min="516" max="516" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="517" max="517" width="6" style="163" customWidth="1"/>
-    <col min="518" max="518" width="12.85546875" style="163" customWidth="1"/>
-    <col min="519" max="519" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="12.140625" style="163" customWidth="1"/>
-    <col min="522" max="522" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="10.42578125" style="163" customWidth="1"/>
-    <col min="524" max="524" width="5.140625" style="163" customWidth="1"/>
+    <col min="518" max="518" width="12.88671875" style="163" customWidth="1"/>
+    <col min="519" max="519" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="12.109375" style="163" customWidth="1"/>
+    <col min="522" max="522" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="10.44140625" style="163" customWidth="1"/>
+    <col min="524" max="524" width="5.109375" style="163" customWidth="1"/>
     <col min="525" max="768" width="9" style="163"/>
-    <col min="769" max="769" width="5.28515625" style="163" customWidth="1"/>
-    <col min="770" max="770" width="14.28515625" style="163" customWidth="1"/>
-    <col min="771" max="771" width="9.7109375" style="163" customWidth="1"/>
-    <col min="772" max="772" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="5.33203125" style="163" customWidth="1"/>
+    <col min="770" max="770" width="14.33203125" style="163" customWidth="1"/>
+    <col min="771" max="771" width="9.6640625" style="163" customWidth="1"/>
+    <col min="772" max="772" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="6" style="163" customWidth="1"/>
-    <col min="774" max="774" width="12.85546875" style="163" customWidth="1"/>
-    <col min="775" max="775" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="12.140625" style="163" customWidth="1"/>
-    <col min="778" max="778" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="10.42578125" style="163" customWidth="1"/>
-    <col min="780" max="780" width="5.140625" style="163" customWidth="1"/>
+    <col min="774" max="774" width="12.88671875" style="163" customWidth="1"/>
+    <col min="775" max="775" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="12.109375" style="163" customWidth="1"/>
+    <col min="778" max="778" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="10.44140625" style="163" customWidth="1"/>
+    <col min="780" max="780" width="5.109375" style="163" customWidth="1"/>
     <col min="781" max="1024" width="9" style="163"/>
-    <col min="1025" max="1025" width="5.28515625" style="163" customWidth="1"/>
-    <col min="1026" max="1026" width="14.28515625" style="163" customWidth="1"/>
-    <col min="1027" max="1027" width="9.7109375" style="163" customWidth="1"/>
-    <col min="1028" max="1028" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="5.33203125" style="163" customWidth="1"/>
+    <col min="1026" max="1026" width="14.33203125" style="163" customWidth="1"/>
+    <col min="1027" max="1027" width="9.6640625" style="163" customWidth="1"/>
+    <col min="1028" max="1028" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="1029" max="1029" width="6" style="163" customWidth="1"/>
-    <col min="1030" max="1030" width="12.85546875" style="163" customWidth="1"/>
-    <col min="1031" max="1031" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="12.140625" style="163" customWidth="1"/>
-    <col min="1034" max="1034" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="10.42578125" style="163" customWidth="1"/>
-    <col min="1036" max="1036" width="5.140625" style="163" customWidth="1"/>
+    <col min="1030" max="1030" width="12.88671875" style="163" customWidth="1"/>
+    <col min="1031" max="1031" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="12.109375" style="163" customWidth="1"/>
+    <col min="1034" max="1034" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="10.44140625" style="163" customWidth="1"/>
+    <col min="1036" max="1036" width="5.109375" style="163" customWidth="1"/>
     <col min="1037" max="1280" width="9" style="163"/>
-    <col min="1281" max="1281" width="5.28515625" style="163" customWidth="1"/>
-    <col min="1282" max="1282" width="14.28515625" style="163" customWidth="1"/>
-    <col min="1283" max="1283" width="9.7109375" style="163" customWidth="1"/>
-    <col min="1284" max="1284" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="5.33203125" style="163" customWidth="1"/>
+    <col min="1282" max="1282" width="14.33203125" style="163" customWidth="1"/>
+    <col min="1283" max="1283" width="9.6640625" style="163" customWidth="1"/>
+    <col min="1284" max="1284" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="1285" max="1285" width="6" style="163" customWidth="1"/>
-    <col min="1286" max="1286" width="12.85546875" style="163" customWidth="1"/>
-    <col min="1287" max="1287" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="12.140625" style="163" customWidth="1"/>
-    <col min="1290" max="1290" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="10.42578125" style="163" customWidth="1"/>
-    <col min="1292" max="1292" width="5.140625" style="163" customWidth="1"/>
+    <col min="1286" max="1286" width="12.88671875" style="163" customWidth="1"/>
+    <col min="1287" max="1287" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="12.109375" style="163" customWidth="1"/>
+    <col min="1290" max="1290" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="10.44140625" style="163" customWidth="1"/>
+    <col min="1292" max="1292" width="5.109375" style="163" customWidth="1"/>
     <col min="1293" max="1536" width="9" style="163"/>
-    <col min="1537" max="1537" width="5.28515625" style="163" customWidth="1"/>
-    <col min="1538" max="1538" width="14.28515625" style="163" customWidth="1"/>
-    <col min="1539" max="1539" width="9.7109375" style="163" customWidth="1"/>
-    <col min="1540" max="1540" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="5.33203125" style="163" customWidth="1"/>
+    <col min="1538" max="1538" width="14.33203125" style="163" customWidth="1"/>
+    <col min="1539" max="1539" width="9.6640625" style="163" customWidth="1"/>
+    <col min="1540" max="1540" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="1541" max="1541" width="6" style="163" customWidth="1"/>
-    <col min="1542" max="1542" width="12.85546875" style="163" customWidth="1"/>
-    <col min="1543" max="1543" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="12.140625" style="163" customWidth="1"/>
-    <col min="1546" max="1546" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="10.42578125" style="163" customWidth="1"/>
-    <col min="1548" max="1548" width="5.140625" style="163" customWidth="1"/>
+    <col min="1542" max="1542" width="12.88671875" style="163" customWidth="1"/>
+    <col min="1543" max="1543" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="12.109375" style="163" customWidth="1"/>
+    <col min="1546" max="1546" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="10.44140625" style="163" customWidth="1"/>
+    <col min="1548" max="1548" width="5.109375" style="163" customWidth="1"/>
     <col min="1549" max="1792" width="9" style="163"/>
-    <col min="1793" max="1793" width="5.28515625" style="163" customWidth="1"/>
-    <col min="1794" max="1794" width="14.28515625" style="163" customWidth="1"/>
-    <col min="1795" max="1795" width="9.7109375" style="163" customWidth="1"/>
-    <col min="1796" max="1796" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="5.33203125" style="163" customWidth="1"/>
+    <col min="1794" max="1794" width="14.33203125" style="163" customWidth="1"/>
+    <col min="1795" max="1795" width="9.6640625" style="163" customWidth="1"/>
+    <col min="1796" max="1796" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="1797" max="1797" width="6" style="163" customWidth="1"/>
-    <col min="1798" max="1798" width="12.85546875" style="163" customWidth="1"/>
-    <col min="1799" max="1799" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="12.140625" style="163" customWidth="1"/>
-    <col min="1802" max="1802" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="10.42578125" style="163" customWidth="1"/>
-    <col min="1804" max="1804" width="5.140625" style="163" customWidth="1"/>
+    <col min="1798" max="1798" width="12.88671875" style="163" customWidth="1"/>
+    <col min="1799" max="1799" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="12.109375" style="163" customWidth="1"/>
+    <col min="1802" max="1802" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="10.44140625" style="163" customWidth="1"/>
+    <col min="1804" max="1804" width="5.109375" style="163" customWidth="1"/>
     <col min="1805" max="2048" width="9" style="163"/>
-    <col min="2049" max="2049" width="5.28515625" style="163" customWidth="1"/>
-    <col min="2050" max="2050" width="14.28515625" style="163" customWidth="1"/>
-    <col min="2051" max="2051" width="9.7109375" style="163" customWidth="1"/>
-    <col min="2052" max="2052" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="5.33203125" style="163" customWidth="1"/>
+    <col min="2050" max="2050" width="14.33203125" style="163" customWidth="1"/>
+    <col min="2051" max="2051" width="9.6640625" style="163" customWidth="1"/>
+    <col min="2052" max="2052" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="2053" max="2053" width="6" style="163" customWidth="1"/>
-    <col min="2054" max="2054" width="12.85546875" style="163" customWidth="1"/>
-    <col min="2055" max="2055" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="12.140625" style="163" customWidth="1"/>
-    <col min="2058" max="2058" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="10.42578125" style="163" customWidth="1"/>
-    <col min="2060" max="2060" width="5.140625" style="163" customWidth="1"/>
+    <col min="2054" max="2054" width="12.88671875" style="163" customWidth="1"/>
+    <col min="2055" max="2055" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="12.109375" style="163" customWidth="1"/>
+    <col min="2058" max="2058" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="10.44140625" style="163" customWidth="1"/>
+    <col min="2060" max="2060" width="5.109375" style="163" customWidth="1"/>
     <col min="2061" max="2304" width="9" style="163"/>
-    <col min="2305" max="2305" width="5.28515625" style="163" customWidth="1"/>
-    <col min="2306" max="2306" width="14.28515625" style="163" customWidth="1"/>
-    <col min="2307" max="2307" width="9.7109375" style="163" customWidth="1"/>
-    <col min="2308" max="2308" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="5.33203125" style="163" customWidth="1"/>
+    <col min="2306" max="2306" width="14.33203125" style="163" customWidth="1"/>
+    <col min="2307" max="2307" width="9.6640625" style="163" customWidth="1"/>
+    <col min="2308" max="2308" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="2309" max="2309" width="6" style="163" customWidth="1"/>
-    <col min="2310" max="2310" width="12.85546875" style="163" customWidth="1"/>
-    <col min="2311" max="2311" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="12.140625" style="163" customWidth="1"/>
-    <col min="2314" max="2314" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="10.42578125" style="163" customWidth="1"/>
-    <col min="2316" max="2316" width="5.140625" style="163" customWidth="1"/>
+    <col min="2310" max="2310" width="12.88671875" style="163" customWidth="1"/>
+    <col min="2311" max="2311" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="12.109375" style="163" customWidth="1"/>
+    <col min="2314" max="2314" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="10.44140625" style="163" customWidth="1"/>
+    <col min="2316" max="2316" width="5.109375" style="163" customWidth="1"/>
     <col min="2317" max="2560" width="9" style="163"/>
-    <col min="2561" max="2561" width="5.28515625" style="163" customWidth="1"/>
-    <col min="2562" max="2562" width="14.28515625" style="163" customWidth="1"/>
-    <col min="2563" max="2563" width="9.7109375" style="163" customWidth="1"/>
-    <col min="2564" max="2564" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="5.33203125" style="163" customWidth="1"/>
+    <col min="2562" max="2562" width="14.33203125" style="163" customWidth="1"/>
+    <col min="2563" max="2563" width="9.6640625" style="163" customWidth="1"/>
+    <col min="2564" max="2564" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="2565" max="2565" width="6" style="163" customWidth="1"/>
-    <col min="2566" max="2566" width="12.85546875" style="163" customWidth="1"/>
-    <col min="2567" max="2567" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="12.140625" style="163" customWidth="1"/>
-    <col min="2570" max="2570" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="10.42578125" style="163" customWidth="1"/>
-    <col min="2572" max="2572" width="5.140625" style="163" customWidth="1"/>
+    <col min="2566" max="2566" width="12.88671875" style="163" customWidth="1"/>
+    <col min="2567" max="2567" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="12.109375" style="163" customWidth="1"/>
+    <col min="2570" max="2570" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="10.44140625" style="163" customWidth="1"/>
+    <col min="2572" max="2572" width="5.109375" style="163" customWidth="1"/>
     <col min="2573" max="2816" width="9" style="163"/>
-    <col min="2817" max="2817" width="5.28515625" style="163" customWidth="1"/>
-    <col min="2818" max="2818" width="14.28515625" style="163" customWidth="1"/>
-    <col min="2819" max="2819" width="9.7109375" style="163" customWidth="1"/>
-    <col min="2820" max="2820" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="5.33203125" style="163" customWidth="1"/>
+    <col min="2818" max="2818" width="14.33203125" style="163" customWidth="1"/>
+    <col min="2819" max="2819" width="9.6640625" style="163" customWidth="1"/>
+    <col min="2820" max="2820" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="2821" max="2821" width="6" style="163" customWidth="1"/>
-    <col min="2822" max="2822" width="12.85546875" style="163" customWidth="1"/>
-    <col min="2823" max="2823" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="12.140625" style="163" customWidth="1"/>
-    <col min="2826" max="2826" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="10.42578125" style="163" customWidth="1"/>
-    <col min="2828" max="2828" width="5.140625" style="163" customWidth="1"/>
+    <col min="2822" max="2822" width="12.88671875" style="163" customWidth="1"/>
+    <col min="2823" max="2823" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="12.109375" style="163" customWidth="1"/>
+    <col min="2826" max="2826" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="10.44140625" style="163" customWidth="1"/>
+    <col min="2828" max="2828" width="5.109375" style="163" customWidth="1"/>
     <col min="2829" max="3072" width="9" style="163"/>
-    <col min="3073" max="3073" width="5.28515625" style="163" customWidth="1"/>
-    <col min="3074" max="3074" width="14.28515625" style="163" customWidth="1"/>
-    <col min="3075" max="3075" width="9.7109375" style="163" customWidth="1"/>
-    <col min="3076" max="3076" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="5.33203125" style="163" customWidth="1"/>
+    <col min="3074" max="3074" width="14.33203125" style="163" customWidth="1"/>
+    <col min="3075" max="3075" width="9.6640625" style="163" customWidth="1"/>
+    <col min="3076" max="3076" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="3077" max="3077" width="6" style="163" customWidth="1"/>
-    <col min="3078" max="3078" width="12.85546875" style="163" customWidth="1"/>
-    <col min="3079" max="3079" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="12.140625" style="163" customWidth="1"/>
-    <col min="3082" max="3082" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="10.42578125" style="163" customWidth="1"/>
-    <col min="3084" max="3084" width="5.140625" style="163" customWidth="1"/>
+    <col min="3078" max="3078" width="12.88671875" style="163" customWidth="1"/>
+    <col min="3079" max="3079" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="12.109375" style="163" customWidth="1"/>
+    <col min="3082" max="3082" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="10.44140625" style="163" customWidth="1"/>
+    <col min="3084" max="3084" width="5.109375" style="163" customWidth="1"/>
     <col min="3085" max="3328" width="9" style="163"/>
-    <col min="3329" max="3329" width="5.28515625" style="163" customWidth="1"/>
-    <col min="3330" max="3330" width="14.28515625" style="163" customWidth="1"/>
-    <col min="3331" max="3331" width="9.7109375" style="163" customWidth="1"/>
-    <col min="3332" max="3332" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="5.33203125" style="163" customWidth="1"/>
+    <col min="3330" max="3330" width="14.33203125" style="163" customWidth="1"/>
+    <col min="3331" max="3331" width="9.6640625" style="163" customWidth="1"/>
+    <col min="3332" max="3332" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="3333" max="3333" width="6" style="163" customWidth="1"/>
-    <col min="3334" max="3334" width="12.85546875" style="163" customWidth="1"/>
-    <col min="3335" max="3335" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="12.140625" style="163" customWidth="1"/>
-    <col min="3338" max="3338" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="10.42578125" style="163" customWidth="1"/>
-    <col min="3340" max="3340" width="5.140625" style="163" customWidth="1"/>
+    <col min="3334" max="3334" width="12.88671875" style="163" customWidth="1"/>
+    <col min="3335" max="3335" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="12.109375" style="163" customWidth="1"/>
+    <col min="3338" max="3338" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="10.44140625" style="163" customWidth="1"/>
+    <col min="3340" max="3340" width="5.109375" style="163" customWidth="1"/>
     <col min="3341" max="3584" width="9" style="163"/>
-    <col min="3585" max="3585" width="5.28515625" style="163" customWidth="1"/>
-    <col min="3586" max="3586" width="14.28515625" style="163" customWidth="1"/>
-    <col min="3587" max="3587" width="9.7109375" style="163" customWidth="1"/>
-    <col min="3588" max="3588" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="5.33203125" style="163" customWidth="1"/>
+    <col min="3586" max="3586" width="14.33203125" style="163" customWidth="1"/>
+    <col min="3587" max="3587" width="9.6640625" style="163" customWidth="1"/>
+    <col min="3588" max="3588" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="3589" max="3589" width="6" style="163" customWidth="1"/>
-    <col min="3590" max="3590" width="12.85546875" style="163" customWidth="1"/>
-    <col min="3591" max="3591" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="12.140625" style="163" customWidth="1"/>
-    <col min="3594" max="3594" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="10.42578125" style="163" customWidth="1"/>
-    <col min="3596" max="3596" width="5.140625" style="163" customWidth="1"/>
+    <col min="3590" max="3590" width="12.88671875" style="163" customWidth="1"/>
+    <col min="3591" max="3591" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="12.109375" style="163" customWidth="1"/>
+    <col min="3594" max="3594" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="10.44140625" style="163" customWidth="1"/>
+    <col min="3596" max="3596" width="5.109375" style="163" customWidth="1"/>
     <col min="3597" max="3840" width="9" style="163"/>
-    <col min="3841" max="3841" width="5.28515625" style="163" customWidth="1"/>
-    <col min="3842" max="3842" width="14.28515625" style="163" customWidth="1"/>
-    <col min="3843" max="3843" width="9.7109375" style="163" customWidth="1"/>
-    <col min="3844" max="3844" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="5.33203125" style="163" customWidth="1"/>
+    <col min="3842" max="3842" width="14.33203125" style="163" customWidth="1"/>
+    <col min="3843" max="3843" width="9.6640625" style="163" customWidth="1"/>
+    <col min="3844" max="3844" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="3845" max="3845" width="6" style="163" customWidth="1"/>
-    <col min="3846" max="3846" width="12.85546875" style="163" customWidth="1"/>
-    <col min="3847" max="3847" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="12.140625" style="163" customWidth="1"/>
-    <col min="3850" max="3850" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="10.42578125" style="163" customWidth="1"/>
-    <col min="3852" max="3852" width="5.140625" style="163" customWidth="1"/>
+    <col min="3846" max="3846" width="12.88671875" style="163" customWidth="1"/>
+    <col min="3847" max="3847" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="12.109375" style="163" customWidth="1"/>
+    <col min="3850" max="3850" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="10.44140625" style="163" customWidth="1"/>
+    <col min="3852" max="3852" width="5.109375" style="163" customWidth="1"/>
     <col min="3853" max="4096" width="9" style="163"/>
-    <col min="4097" max="4097" width="5.28515625" style="163" customWidth="1"/>
-    <col min="4098" max="4098" width="14.28515625" style="163" customWidth="1"/>
-    <col min="4099" max="4099" width="9.7109375" style="163" customWidth="1"/>
-    <col min="4100" max="4100" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="5.33203125" style="163" customWidth="1"/>
+    <col min="4098" max="4098" width="14.33203125" style="163" customWidth="1"/>
+    <col min="4099" max="4099" width="9.6640625" style="163" customWidth="1"/>
+    <col min="4100" max="4100" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="4101" max="4101" width="6" style="163" customWidth="1"/>
-    <col min="4102" max="4102" width="12.85546875" style="163" customWidth="1"/>
-    <col min="4103" max="4103" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="12.140625" style="163" customWidth="1"/>
-    <col min="4106" max="4106" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="10.42578125" style="163" customWidth="1"/>
-    <col min="4108" max="4108" width="5.140625" style="163" customWidth="1"/>
+    <col min="4102" max="4102" width="12.88671875" style="163" customWidth="1"/>
+    <col min="4103" max="4103" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="12.109375" style="163" customWidth="1"/>
+    <col min="4106" max="4106" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="10.44140625" style="163" customWidth="1"/>
+    <col min="4108" max="4108" width="5.109375" style="163" customWidth="1"/>
     <col min="4109" max="4352" width="9" style="163"/>
-    <col min="4353" max="4353" width="5.28515625" style="163" customWidth="1"/>
-    <col min="4354" max="4354" width="14.28515625" style="163" customWidth="1"/>
-    <col min="4355" max="4355" width="9.7109375" style="163" customWidth="1"/>
-    <col min="4356" max="4356" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="5.33203125" style="163" customWidth="1"/>
+    <col min="4354" max="4354" width="14.33203125" style="163" customWidth="1"/>
+    <col min="4355" max="4355" width="9.6640625" style="163" customWidth="1"/>
+    <col min="4356" max="4356" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="4357" max="4357" width="6" style="163" customWidth="1"/>
-    <col min="4358" max="4358" width="12.85546875" style="163" customWidth="1"/>
-    <col min="4359" max="4359" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="12.140625" style="163" customWidth="1"/>
-    <col min="4362" max="4362" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="10.42578125" style="163" customWidth="1"/>
-    <col min="4364" max="4364" width="5.140625" style="163" customWidth="1"/>
+    <col min="4358" max="4358" width="12.88671875" style="163" customWidth="1"/>
+    <col min="4359" max="4359" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="12.109375" style="163" customWidth="1"/>
+    <col min="4362" max="4362" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="10.44140625" style="163" customWidth="1"/>
+    <col min="4364" max="4364" width="5.109375" style="163" customWidth="1"/>
     <col min="4365" max="4608" width="9" style="163"/>
-    <col min="4609" max="4609" width="5.28515625" style="163" customWidth="1"/>
-    <col min="4610" max="4610" width="14.28515625" style="163" customWidth="1"/>
-    <col min="4611" max="4611" width="9.7109375" style="163" customWidth="1"/>
-    <col min="4612" max="4612" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="5.33203125" style="163" customWidth="1"/>
+    <col min="4610" max="4610" width="14.33203125" style="163" customWidth="1"/>
+    <col min="4611" max="4611" width="9.6640625" style="163" customWidth="1"/>
+    <col min="4612" max="4612" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="4613" max="4613" width="6" style="163" customWidth="1"/>
-    <col min="4614" max="4614" width="12.85546875" style="163" customWidth="1"/>
-    <col min="4615" max="4615" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="12.140625" style="163" customWidth="1"/>
-    <col min="4618" max="4618" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="10.42578125" style="163" customWidth="1"/>
-    <col min="4620" max="4620" width="5.140625" style="163" customWidth="1"/>
+    <col min="4614" max="4614" width="12.88671875" style="163" customWidth="1"/>
+    <col min="4615" max="4615" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="12.109375" style="163" customWidth="1"/>
+    <col min="4618" max="4618" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="10.44140625" style="163" customWidth="1"/>
+    <col min="4620" max="4620" width="5.109375" style="163" customWidth="1"/>
     <col min="4621" max="4864" width="9" style="163"/>
-    <col min="4865" max="4865" width="5.28515625" style="163" customWidth="1"/>
-    <col min="4866" max="4866" width="14.28515625" style="163" customWidth="1"/>
-    <col min="4867" max="4867" width="9.7109375" style="163" customWidth="1"/>
-    <col min="4868" max="4868" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="5.33203125" style="163" customWidth="1"/>
+    <col min="4866" max="4866" width="14.33203125" style="163" customWidth="1"/>
+    <col min="4867" max="4867" width="9.6640625" style="163" customWidth="1"/>
+    <col min="4868" max="4868" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="4869" max="4869" width="6" style="163" customWidth="1"/>
-    <col min="4870" max="4870" width="12.85546875" style="163" customWidth="1"/>
-    <col min="4871" max="4871" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="12.140625" style="163" customWidth="1"/>
-    <col min="4874" max="4874" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="10.42578125" style="163" customWidth="1"/>
-    <col min="4876" max="4876" width="5.140625" style="163" customWidth="1"/>
+    <col min="4870" max="4870" width="12.88671875" style="163" customWidth="1"/>
+    <col min="4871" max="4871" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="12.109375" style="163" customWidth="1"/>
+    <col min="4874" max="4874" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="10.44140625" style="163" customWidth="1"/>
+    <col min="4876" max="4876" width="5.109375" style="163" customWidth="1"/>
     <col min="4877" max="5120" width="9" style="163"/>
-    <col min="5121" max="5121" width="5.28515625" style="163" customWidth="1"/>
-    <col min="5122" max="5122" width="14.28515625" style="163" customWidth="1"/>
-    <col min="5123" max="5123" width="9.7109375" style="163" customWidth="1"/>
-    <col min="5124" max="5124" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="5.33203125" style="163" customWidth="1"/>
+    <col min="5122" max="5122" width="14.33203125" style="163" customWidth="1"/>
+    <col min="5123" max="5123" width="9.6640625" style="163" customWidth="1"/>
+    <col min="5124" max="5124" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="5125" max="5125" width="6" style="163" customWidth="1"/>
-    <col min="5126" max="5126" width="12.85546875" style="163" customWidth="1"/>
-    <col min="5127" max="5127" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="12.140625" style="163" customWidth="1"/>
-    <col min="5130" max="5130" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="10.42578125" style="163" customWidth="1"/>
-    <col min="5132" max="5132" width="5.140625" style="163" customWidth="1"/>
+    <col min="5126" max="5126" width="12.88671875" style="163" customWidth="1"/>
+    <col min="5127" max="5127" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="12.109375" style="163" customWidth="1"/>
+    <col min="5130" max="5130" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="10.44140625" style="163" customWidth="1"/>
+    <col min="5132" max="5132" width="5.109375" style="163" customWidth="1"/>
     <col min="5133" max="5376" width="9" style="163"/>
-    <col min="5377" max="5377" width="5.28515625" style="163" customWidth="1"/>
-    <col min="5378" max="5378" width="14.28515625" style="163" customWidth="1"/>
-    <col min="5379" max="5379" width="9.7109375" style="163" customWidth="1"/>
-    <col min="5380" max="5380" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="5.33203125" style="163" customWidth="1"/>
+    <col min="5378" max="5378" width="14.33203125" style="163" customWidth="1"/>
+    <col min="5379" max="5379" width="9.6640625" style="163" customWidth="1"/>
+    <col min="5380" max="5380" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="5381" max="5381" width="6" style="163" customWidth="1"/>
-    <col min="5382" max="5382" width="12.85546875" style="163" customWidth="1"/>
-    <col min="5383" max="5383" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="12.140625" style="163" customWidth="1"/>
-    <col min="5386" max="5386" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="10.42578125" style="163" customWidth="1"/>
-    <col min="5388" max="5388" width="5.140625" style="163" customWidth="1"/>
+    <col min="5382" max="5382" width="12.88671875" style="163" customWidth="1"/>
+    <col min="5383" max="5383" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="12.109375" style="163" customWidth="1"/>
+    <col min="5386" max="5386" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="10.44140625" style="163" customWidth="1"/>
+    <col min="5388" max="5388" width="5.109375" style="163" customWidth="1"/>
     <col min="5389" max="5632" width="9" style="163"/>
-    <col min="5633" max="5633" width="5.28515625" style="163" customWidth="1"/>
-    <col min="5634" max="5634" width="14.28515625" style="163" customWidth="1"/>
-    <col min="5635" max="5635" width="9.7109375" style="163" customWidth="1"/>
-    <col min="5636" max="5636" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="5.33203125" style="163" customWidth="1"/>
+    <col min="5634" max="5634" width="14.33203125" style="163" customWidth="1"/>
+    <col min="5635" max="5635" width="9.6640625" style="163" customWidth="1"/>
+    <col min="5636" max="5636" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="5637" max="5637" width="6" style="163" customWidth="1"/>
-    <col min="5638" max="5638" width="12.85546875" style="163" customWidth="1"/>
-    <col min="5639" max="5639" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="12.140625" style="163" customWidth="1"/>
-    <col min="5642" max="5642" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="10.42578125" style="163" customWidth="1"/>
-    <col min="5644" max="5644" width="5.140625" style="163" customWidth="1"/>
+    <col min="5638" max="5638" width="12.88671875" style="163" customWidth="1"/>
+    <col min="5639" max="5639" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="12.109375" style="163" customWidth="1"/>
+    <col min="5642" max="5642" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="10.44140625" style="163" customWidth="1"/>
+    <col min="5644" max="5644" width="5.109375" style="163" customWidth="1"/>
     <col min="5645" max="5888" width="9" style="163"/>
-    <col min="5889" max="5889" width="5.28515625" style="163" customWidth="1"/>
-    <col min="5890" max="5890" width="14.28515625" style="163" customWidth="1"/>
-    <col min="5891" max="5891" width="9.7109375" style="163" customWidth="1"/>
-    <col min="5892" max="5892" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="5.33203125" style="163" customWidth="1"/>
+    <col min="5890" max="5890" width="14.33203125" style="163" customWidth="1"/>
+    <col min="5891" max="5891" width="9.6640625" style="163" customWidth="1"/>
+    <col min="5892" max="5892" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="5893" max="5893" width="6" style="163" customWidth="1"/>
-    <col min="5894" max="5894" width="12.85546875" style="163" customWidth="1"/>
-    <col min="5895" max="5895" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="12.140625" style="163" customWidth="1"/>
-    <col min="5898" max="5898" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="10.42578125" style="163" customWidth="1"/>
-    <col min="5900" max="5900" width="5.140625" style="163" customWidth="1"/>
+    <col min="5894" max="5894" width="12.88671875" style="163" customWidth="1"/>
+    <col min="5895" max="5895" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="12.109375" style="163" customWidth="1"/>
+    <col min="5898" max="5898" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="10.44140625" style="163" customWidth="1"/>
+    <col min="5900" max="5900" width="5.109375" style="163" customWidth="1"/>
     <col min="5901" max="6144" width="9" style="163"/>
-    <col min="6145" max="6145" width="5.28515625" style="163" customWidth="1"/>
-    <col min="6146" max="6146" width="14.28515625" style="163" customWidth="1"/>
-    <col min="6147" max="6147" width="9.7109375" style="163" customWidth="1"/>
-    <col min="6148" max="6148" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="5.33203125" style="163" customWidth="1"/>
+    <col min="6146" max="6146" width="14.33203125" style="163" customWidth="1"/>
+    <col min="6147" max="6147" width="9.6640625" style="163" customWidth="1"/>
+    <col min="6148" max="6148" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="6149" max="6149" width="6" style="163" customWidth="1"/>
-    <col min="6150" max="6150" width="12.85546875" style="163" customWidth="1"/>
-    <col min="6151" max="6151" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="12.140625" style="163" customWidth="1"/>
-    <col min="6154" max="6154" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="10.42578125" style="163" customWidth="1"/>
-    <col min="6156" max="6156" width="5.140625" style="163" customWidth="1"/>
+    <col min="6150" max="6150" width="12.88671875" style="163" customWidth="1"/>
+    <col min="6151" max="6151" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="12.109375" style="163" customWidth="1"/>
+    <col min="6154" max="6154" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="10.44140625" style="163" customWidth="1"/>
+    <col min="6156" max="6156" width="5.109375" style="163" customWidth="1"/>
     <col min="6157" max="6400" width="9" style="163"/>
-    <col min="6401" max="6401" width="5.28515625" style="163" customWidth="1"/>
-    <col min="6402" max="6402" width="14.28515625" style="163" customWidth="1"/>
-    <col min="6403" max="6403" width="9.7109375" style="163" customWidth="1"/>
-    <col min="6404" max="6404" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="5.33203125" style="163" customWidth="1"/>
+    <col min="6402" max="6402" width="14.33203125" style="163" customWidth="1"/>
+    <col min="6403" max="6403" width="9.6640625" style="163" customWidth="1"/>
+    <col min="6404" max="6404" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="6405" max="6405" width="6" style="163" customWidth="1"/>
-    <col min="6406" max="6406" width="12.85546875" style="163" customWidth="1"/>
-    <col min="6407" max="6407" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="12.140625" style="163" customWidth="1"/>
-    <col min="6410" max="6410" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="10.42578125" style="163" customWidth="1"/>
-    <col min="6412" max="6412" width="5.140625" style="163" customWidth="1"/>
+    <col min="6406" max="6406" width="12.88671875" style="163" customWidth="1"/>
+    <col min="6407" max="6407" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="12.109375" style="163" customWidth="1"/>
+    <col min="6410" max="6410" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="10.44140625" style="163" customWidth="1"/>
+    <col min="6412" max="6412" width="5.109375" style="163" customWidth="1"/>
     <col min="6413" max="6656" width="9" style="163"/>
-    <col min="6657" max="6657" width="5.28515625" style="163" customWidth="1"/>
-    <col min="6658" max="6658" width="14.28515625" style="163" customWidth="1"/>
-    <col min="6659" max="6659" width="9.7109375" style="163" customWidth="1"/>
-    <col min="6660" max="6660" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="5.33203125" style="163" customWidth="1"/>
+    <col min="6658" max="6658" width="14.33203125" style="163" customWidth="1"/>
+    <col min="6659" max="6659" width="9.6640625" style="163" customWidth="1"/>
+    <col min="6660" max="6660" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="6661" max="6661" width="6" style="163" customWidth="1"/>
-    <col min="6662" max="6662" width="12.85546875" style="163" customWidth="1"/>
-    <col min="6663" max="6663" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="12.140625" style="163" customWidth="1"/>
-    <col min="6666" max="6666" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="10.42578125" style="163" customWidth="1"/>
-    <col min="6668" max="6668" width="5.140625" style="163" customWidth="1"/>
+    <col min="6662" max="6662" width="12.88671875" style="163" customWidth="1"/>
+    <col min="6663" max="6663" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="12.109375" style="163" customWidth="1"/>
+    <col min="6666" max="6666" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="10.44140625" style="163" customWidth="1"/>
+    <col min="6668" max="6668" width="5.109375" style="163" customWidth="1"/>
     <col min="6669" max="6912" width="9" style="163"/>
-    <col min="6913" max="6913" width="5.28515625" style="163" customWidth="1"/>
-    <col min="6914" max="6914" width="14.28515625" style="163" customWidth="1"/>
-    <col min="6915" max="6915" width="9.7109375" style="163" customWidth="1"/>
-    <col min="6916" max="6916" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="5.33203125" style="163" customWidth="1"/>
+    <col min="6914" max="6914" width="14.33203125" style="163" customWidth="1"/>
+    <col min="6915" max="6915" width="9.6640625" style="163" customWidth="1"/>
+    <col min="6916" max="6916" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="6917" max="6917" width="6" style="163" customWidth="1"/>
-    <col min="6918" max="6918" width="12.85546875" style="163" customWidth="1"/>
-    <col min="6919" max="6919" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="12.140625" style="163" customWidth="1"/>
-    <col min="6922" max="6922" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="10.42578125" style="163" customWidth="1"/>
-    <col min="6924" max="6924" width="5.140625" style="163" customWidth="1"/>
+    <col min="6918" max="6918" width="12.88671875" style="163" customWidth="1"/>
+    <col min="6919" max="6919" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="12.109375" style="163" customWidth="1"/>
+    <col min="6922" max="6922" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="10.44140625" style="163" customWidth="1"/>
+    <col min="6924" max="6924" width="5.109375" style="163" customWidth="1"/>
     <col min="6925" max="7168" width="9" style="163"/>
-    <col min="7169" max="7169" width="5.28515625" style="163" customWidth="1"/>
-    <col min="7170" max="7170" width="14.28515625" style="163" customWidth="1"/>
-    <col min="7171" max="7171" width="9.7109375" style="163" customWidth="1"/>
-    <col min="7172" max="7172" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="5.33203125" style="163" customWidth="1"/>
+    <col min="7170" max="7170" width="14.33203125" style="163" customWidth="1"/>
+    <col min="7171" max="7171" width="9.6640625" style="163" customWidth="1"/>
+    <col min="7172" max="7172" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="7173" max="7173" width="6" style="163" customWidth="1"/>
-    <col min="7174" max="7174" width="12.85546875" style="163" customWidth="1"/>
-    <col min="7175" max="7175" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="12.140625" style="163" customWidth="1"/>
-    <col min="7178" max="7178" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="10.42578125" style="163" customWidth="1"/>
-    <col min="7180" max="7180" width="5.140625" style="163" customWidth="1"/>
+    <col min="7174" max="7174" width="12.88671875" style="163" customWidth="1"/>
+    <col min="7175" max="7175" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="12.109375" style="163" customWidth="1"/>
+    <col min="7178" max="7178" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="10.44140625" style="163" customWidth="1"/>
+    <col min="7180" max="7180" width="5.109375" style="163" customWidth="1"/>
     <col min="7181" max="7424" width="9" style="163"/>
-    <col min="7425" max="7425" width="5.28515625" style="163" customWidth="1"/>
-    <col min="7426" max="7426" width="14.28515625" style="163" customWidth="1"/>
-    <col min="7427" max="7427" width="9.7109375" style="163" customWidth="1"/>
-    <col min="7428" max="7428" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="5.33203125" style="163" customWidth="1"/>
+    <col min="7426" max="7426" width="14.33203125" style="163" customWidth="1"/>
+    <col min="7427" max="7427" width="9.6640625" style="163" customWidth="1"/>
+    <col min="7428" max="7428" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="7429" max="7429" width="6" style="163" customWidth="1"/>
-    <col min="7430" max="7430" width="12.85546875" style="163" customWidth="1"/>
-    <col min="7431" max="7431" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="12.140625" style="163" customWidth="1"/>
-    <col min="7434" max="7434" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="10.42578125" style="163" customWidth="1"/>
-    <col min="7436" max="7436" width="5.140625" style="163" customWidth="1"/>
+    <col min="7430" max="7430" width="12.88671875" style="163" customWidth="1"/>
+    <col min="7431" max="7431" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="12.109375" style="163" customWidth="1"/>
+    <col min="7434" max="7434" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="10.44140625" style="163" customWidth="1"/>
+    <col min="7436" max="7436" width="5.109375" style="163" customWidth="1"/>
     <col min="7437" max="7680" width="9" style="163"/>
-    <col min="7681" max="7681" width="5.28515625" style="163" customWidth="1"/>
-    <col min="7682" max="7682" width="14.28515625" style="163" customWidth="1"/>
-    <col min="7683" max="7683" width="9.7109375" style="163" customWidth="1"/>
-    <col min="7684" max="7684" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="5.33203125" style="163" customWidth="1"/>
+    <col min="7682" max="7682" width="14.33203125" style="163" customWidth="1"/>
+    <col min="7683" max="7683" width="9.6640625" style="163" customWidth="1"/>
+    <col min="7684" max="7684" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="7685" max="7685" width="6" style="163" customWidth="1"/>
-    <col min="7686" max="7686" width="12.85546875" style="163" customWidth="1"/>
-    <col min="7687" max="7687" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="12.140625" style="163" customWidth="1"/>
-    <col min="7690" max="7690" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="10.42578125" style="163" customWidth="1"/>
-    <col min="7692" max="7692" width="5.140625" style="163" customWidth="1"/>
+    <col min="7686" max="7686" width="12.88671875" style="163" customWidth="1"/>
+    <col min="7687" max="7687" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="12.109375" style="163" customWidth="1"/>
+    <col min="7690" max="7690" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="10.44140625" style="163" customWidth="1"/>
+    <col min="7692" max="7692" width="5.109375" style="163" customWidth="1"/>
     <col min="7693" max="7936" width="9" style="163"/>
-    <col min="7937" max="7937" width="5.28515625" style="163" customWidth="1"/>
-    <col min="7938" max="7938" width="14.28515625" style="163" customWidth="1"/>
-    <col min="7939" max="7939" width="9.7109375" style="163" customWidth="1"/>
-    <col min="7940" max="7940" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="5.33203125" style="163" customWidth="1"/>
+    <col min="7938" max="7938" width="14.33203125" style="163" customWidth="1"/>
+    <col min="7939" max="7939" width="9.6640625" style="163" customWidth="1"/>
+    <col min="7940" max="7940" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="7941" max="7941" width="6" style="163" customWidth="1"/>
-    <col min="7942" max="7942" width="12.85546875" style="163" customWidth="1"/>
-    <col min="7943" max="7943" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="12.140625" style="163" customWidth="1"/>
-    <col min="7946" max="7946" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="10.42578125" style="163" customWidth="1"/>
-    <col min="7948" max="7948" width="5.140625" style="163" customWidth="1"/>
+    <col min="7942" max="7942" width="12.88671875" style="163" customWidth="1"/>
+    <col min="7943" max="7943" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="12.109375" style="163" customWidth="1"/>
+    <col min="7946" max="7946" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="10.44140625" style="163" customWidth="1"/>
+    <col min="7948" max="7948" width="5.109375" style="163" customWidth="1"/>
     <col min="7949" max="8192" width="9" style="163"/>
-    <col min="8193" max="8193" width="5.28515625" style="163" customWidth="1"/>
-    <col min="8194" max="8194" width="14.28515625" style="163" customWidth="1"/>
-    <col min="8195" max="8195" width="9.7109375" style="163" customWidth="1"/>
-    <col min="8196" max="8196" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="5.33203125" style="163" customWidth="1"/>
+    <col min="8194" max="8194" width="14.33203125" style="163" customWidth="1"/>
+    <col min="8195" max="8195" width="9.6640625" style="163" customWidth="1"/>
+    <col min="8196" max="8196" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="8197" max="8197" width="6" style="163" customWidth="1"/>
-    <col min="8198" max="8198" width="12.85546875" style="163" customWidth="1"/>
-    <col min="8199" max="8199" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="12.140625" style="163" customWidth="1"/>
-    <col min="8202" max="8202" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="10.42578125" style="163" customWidth="1"/>
-    <col min="8204" max="8204" width="5.140625" style="163" customWidth="1"/>
+    <col min="8198" max="8198" width="12.88671875" style="163" customWidth="1"/>
+    <col min="8199" max="8199" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="12.109375" style="163" customWidth="1"/>
+    <col min="8202" max="8202" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="10.44140625" style="163" customWidth="1"/>
+    <col min="8204" max="8204" width="5.109375" style="163" customWidth="1"/>
     <col min="8205" max="8448" width="9" style="163"/>
-    <col min="8449" max="8449" width="5.28515625" style="163" customWidth="1"/>
-    <col min="8450" max="8450" width="14.28515625" style="163" customWidth="1"/>
-    <col min="8451" max="8451" width="9.7109375" style="163" customWidth="1"/>
-    <col min="8452" max="8452" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="5.33203125" style="163" customWidth="1"/>
+    <col min="8450" max="8450" width="14.33203125" style="163" customWidth="1"/>
+    <col min="8451" max="8451" width="9.6640625" style="163" customWidth="1"/>
+    <col min="8452" max="8452" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="8453" max="8453" width="6" style="163" customWidth="1"/>
-    <col min="8454" max="8454" width="12.85546875" style="163" customWidth="1"/>
-    <col min="8455" max="8455" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="12.140625" style="163" customWidth="1"/>
-    <col min="8458" max="8458" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="10.42578125" style="163" customWidth="1"/>
-    <col min="8460" max="8460" width="5.140625" style="163" customWidth="1"/>
+    <col min="8454" max="8454" width="12.88671875" style="163" customWidth="1"/>
+    <col min="8455" max="8455" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="12.109375" style="163" customWidth="1"/>
+    <col min="8458" max="8458" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="10.44140625" style="163" customWidth="1"/>
+    <col min="8460" max="8460" width="5.109375" style="163" customWidth="1"/>
     <col min="8461" max="8704" width="9" style="163"/>
-    <col min="8705" max="8705" width="5.28515625" style="163" customWidth="1"/>
-    <col min="8706" max="8706" width="14.28515625" style="163" customWidth="1"/>
-    <col min="8707" max="8707" width="9.7109375" style="163" customWidth="1"/>
-    <col min="8708" max="8708" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="5.33203125" style="163" customWidth="1"/>
+    <col min="8706" max="8706" width="14.33203125" style="163" customWidth="1"/>
+    <col min="8707" max="8707" width="9.6640625" style="163" customWidth="1"/>
+    <col min="8708" max="8708" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="8709" max="8709" width="6" style="163" customWidth="1"/>
-    <col min="8710" max="8710" width="12.85546875" style="163" customWidth="1"/>
-    <col min="8711" max="8711" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="12.140625" style="163" customWidth="1"/>
-    <col min="8714" max="8714" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="10.42578125" style="163" customWidth="1"/>
-    <col min="8716" max="8716" width="5.140625" style="163" customWidth="1"/>
+    <col min="8710" max="8710" width="12.88671875" style="163" customWidth="1"/>
+    <col min="8711" max="8711" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="12.109375" style="163" customWidth="1"/>
+    <col min="8714" max="8714" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="10.44140625" style="163" customWidth="1"/>
+    <col min="8716" max="8716" width="5.109375" style="163" customWidth="1"/>
     <col min="8717" max="8960" width="9" style="163"/>
-    <col min="8961" max="8961" width="5.28515625" style="163" customWidth="1"/>
-    <col min="8962" max="8962" width="14.28515625" style="163" customWidth="1"/>
-    <col min="8963" max="8963" width="9.7109375" style="163" customWidth="1"/>
-    <col min="8964" max="8964" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="5.33203125" style="163" customWidth="1"/>
+    <col min="8962" max="8962" width="14.33203125" style="163" customWidth="1"/>
+    <col min="8963" max="8963" width="9.6640625" style="163" customWidth="1"/>
+    <col min="8964" max="8964" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="8965" max="8965" width="6" style="163" customWidth="1"/>
-    <col min="8966" max="8966" width="12.85546875" style="163" customWidth="1"/>
-    <col min="8967" max="8967" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="12.140625" style="163" customWidth="1"/>
-    <col min="8970" max="8970" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="10.42578125" style="163" customWidth="1"/>
-    <col min="8972" max="8972" width="5.140625" style="163" customWidth="1"/>
+    <col min="8966" max="8966" width="12.88671875" style="163" customWidth="1"/>
+    <col min="8967" max="8967" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="12.109375" style="163" customWidth="1"/>
+    <col min="8970" max="8970" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="10.44140625" style="163" customWidth="1"/>
+    <col min="8972" max="8972" width="5.109375" style="163" customWidth="1"/>
     <col min="8973" max="9216" width="9" style="163"/>
-    <col min="9217" max="9217" width="5.28515625" style="163" customWidth="1"/>
-    <col min="9218" max="9218" width="14.28515625" style="163" customWidth="1"/>
-    <col min="9219" max="9219" width="9.7109375" style="163" customWidth="1"/>
-    <col min="9220" max="9220" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="5.33203125" style="163" customWidth="1"/>
+    <col min="9218" max="9218" width="14.33203125" style="163" customWidth="1"/>
+    <col min="9219" max="9219" width="9.6640625" style="163" customWidth="1"/>
+    <col min="9220" max="9220" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="9221" max="9221" width="6" style="163" customWidth="1"/>
-    <col min="9222" max="9222" width="12.85546875" style="163" customWidth="1"/>
-    <col min="9223" max="9223" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="12.140625" style="163" customWidth="1"/>
-    <col min="9226" max="9226" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="10.42578125" style="163" customWidth="1"/>
-    <col min="9228" max="9228" width="5.140625" style="163" customWidth="1"/>
+    <col min="9222" max="9222" width="12.88671875" style="163" customWidth="1"/>
+    <col min="9223" max="9223" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="12.109375" style="163" customWidth="1"/>
+    <col min="9226" max="9226" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="10.44140625" style="163" customWidth="1"/>
+    <col min="9228" max="9228" width="5.109375" style="163" customWidth="1"/>
     <col min="9229" max="9472" width="9" style="163"/>
-    <col min="9473" max="9473" width="5.28515625" style="163" customWidth="1"/>
-    <col min="9474" max="9474" width="14.28515625" style="163" customWidth="1"/>
-    <col min="9475" max="9475" width="9.7109375" style="163" customWidth="1"/>
-    <col min="9476" max="9476" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="5.33203125" style="163" customWidth="1"/>
+    <col min="9474" max="9474" width="14.33203125" style="163" customWidth="1"/>
+    <col min="9475" max="9475" width="9.6640625" style="163" customWidth="1"/>
+    <col min="9476" max="9476" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="9477" max="9477" width="6" style="163" customWidth="1"/>
-    <col min="9478" max="9478" width="12.85546875" style="163" customWidth="1"/>
-    <col min="9479" max="9479" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="12.140625" style="163" customWidth="1"/>
-    <col min="9482" max="9482" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="10.42578125" style="163" customWidth="1"/>
-    <col min="9484" max="9484" width="5.140625" style="163" customWidth="1"/>
+    <col min="9478" max="9478" width="12.88671875" style="163" customWidth="1"/>
+    <col min="9479" max="9479" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="12.109375" style="163" customWidth="1"/>
+    <col min="9482" max="9482" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="10.44140625" style="163" customWidth="1"/>
+    <col min="9484" max="9484" width="5.109375" style="163" customWidth="1"/>
     <col min="9485" max="9728" width="9" style="163"/>
-    <col min="9729" max="9729" width="5.28515625" style="163" customWidth="1"/>
-    <col min="9730" max="9730" width="14.28515625" style="163" customWidth="1"/>
-    <col min="9731" max="9731" width="9.7109375" style="163" customWidth="1"/>
-    <col min="9732" max="9732" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="5.33203125" style="163" customWidth="1"/>
+    <col min="9730" max="9730" width="14.33203125" style="163" customWidth="1"/>
+    <col min="9731" max="9731" width="9.6640625" style="163" customWidth="1"/>
+    <col min="9732" max="9732" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="9733" max="9733" width="6" style="163" customWidth="1"/>
-    <col min="9734" max="9734" width="12.85546875" style="163" customWidth="1"/>
-    <col min="9735" max="9735" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="12.140625" style="163" customWidth="1"/>
-    <col min="9738" max="9738" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="10.42578125" style="163" customWidth="1"/>
-    <col min="9740" max="9740" width="5.140625" style="163" customWidth="1"/>
+    <col min="9734" max="9734" width="12.88671875" style="163" customWidth="1"/>
+    <col min="9735" max="9735" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="12.109375" style="163" customWidth="1"/>
+    <col min="9738" max="9738" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="10.44140625" style="163" customWidth="1"/>
+    <col min="9740" max="9740" width="5.109375" style="163" customWidth="1"/>
     <col min="9741" max="9984" width="9" style="163"/>
-    <col min="9985" max="9985" width="5.28515625" style="163" customWidth="1"/>
-    <col min="9986" max="9986" width="14.28515625" style="163" customWidth="1"/>
-    <col min="9987" max="9987" width="9.7109375" style="163" customWidth="1"/>
-    <col min="9988" max="9988" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="5.33203125" style="163" customWidth="1"/>
+    <col min="9986" max="9986" width="14.33203125" style="163" customWidth="1"/>
+    <col min="9987" max="9987" width="9.6640625" style="163" customWidth="1"/>
+    <col min="9988" max="9988" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="9989" max="9989" width="6" style="163" customWidth="1"/>
-    <col min="9990" max="9990" width="12.85546875" style="163" customWidth="1"/>
-    <col min="9991" max="9991" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="12.140625" style="163" customWidth="1"/>
-    <col min="9994" max="9994" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="10.42578125" style="163" customWidth="1"/>
-    <col min="9996" max="9996" width="5.140625" style="163" customWidth="1"/>
+    <col min="9990" max="9990" width="12.88671875" style="163" customWidth="1"/>
+    <col min="9991" max="9991" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="12.109375" style="163" customWidth="1"/>
+    <col min="9994" max="9994" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="10.44140625" style="163" customWidth="1"/>
+    <col min="9996" max="9996" width="5.109375" style="163" customWidth="1"/>
     <col min="9997" max="10240" width="9" style="163"/>
-    <col min="10241" max="10241" width="5.28515625" style="163" customWidth="1"/>
-    <col min="10242" max="10242" width="14.28515625" style="163" customWidth="1"/>
-    <col min="10243" max="10243" width="9.7109375" style="163" customWidth="1"/>
-    <col min="10244" max="10244" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="5.33203125" style="163" customWidth="1"/>
+    <col min="10242" max="10242" width="14.33203125" style="163" customWidth="1"/>
+    <col min="10243" max="10243" width="9.6640625" style="163" customWidth="1"/>
+    <col min="10244" max="10244" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="10245" max="10245" width="6" style="163" customWidth="1"/>
-    <col min="10246" max="10246" width="12.85546875" style="163" customWidth="1"/>
-    <col min="10247" max="10247" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="12.140625" style="163" customWidth="1"/>
-    <col min="10250" max="10250" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="10.42578125" style="163" customWidth="1"/>
-    <col min="10252" max="10252" width="5.140625" style="163" customWidth="1"/>
+    <col min="10246" max="10246" width="12.88671875" style="163" customWidth="1"/>
+    <col min="10247" max="10247" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="12.109375" style="163" customWidth="1"/>
+    <col min="10250" max="10250" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="10.44140625" style="163" customWidth="1"/>
+    <col min="10252" max="10252" width="5.109375" style="163" customWidth="1"/>
     <col min="10253" max="10496" width="9" style="163"/>
-    <col min="10497" max="10497" width="5.28515625" style="163" customWidth="1"/>
-    <col min="10498" max="10498" width="14.28515625" style="163" customWidth="1"/>
-    <col min="10499" max="10499" width="9.7109375" style="163" customWidth="1"/>
-    <col min="10500" max="10500" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="5.33203125" style="163" customWidth="1"/>
+    <col min="10498" max="10498" width="14.33203125" style="163" customWidth="1"/>
+    <col min="10499" max="10499" width="9.6640625" style="163" customWidth="1"/>
+    <col min="10500" max="10500" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="10501" max="10501" width="6" style="163" customWidth="1"/>
-    <col min="10502" max="10502" width="12.85546875" style="163" customWidth="1"/>
-    <col min="10503" max="10503" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="12.140625" style="163" customWidth="1"/>
-    <col min="10506" max="10506" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="10.42578125" style="163" customWidth="1"/>
-    <col min="10508" max="10508" width="5.140625" style="163" customWidth="1"/>
+    <col min="10502" max="10502" width="12.88671875" style="163" customWidth="1"/>
+    <col min="10503" max="10503" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="12.109375" style="163" customWidth="1"/>
+    <col min="10506" max="10506" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="10.44140625" style="163" customWidth="1"/>
+    <col min="10508" max="10508" width="5.109375" style="163" customWidth="1"/>
     <col min="10509" max="10752" width="9" style="163"/>
-    <col min="10753" max="10753" width="5.28515625" style="163" customWidth="1"/>
-    <col min="10754" max="10754" width="14.28515625" style="163" customWidth="1"/>
-    <col min="10755" max="10755" width="9.7109375" style="163" customWidth="1"/>
-    <col min="10756" max="10756" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="5.33203125" style="163" customWidth="1"/>
+    <col min="10754" max="10754" width="14.33203125" style="163" customWidth="1"/>
+    <col min="10755" max="10755" width="9.6640625" style="163" customWidth="1"/>
+    <col min="10756" max="10756" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="10757" max="10757" width="6" style="163" customWidth="1"/>
-    <col min="10758" max="10758" width="12.85546875" style="163" customWidth="1"/>
-    <col min="10759" max="10759" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="12.140625" style="163" customWidth="1"/>
-    <col min="10762" max="10762" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="10.42578125" style="163" customWidth="1"/>
-    <col min="10764" max="10764" width="5.140625" style="163" customWidth="1"/>
+    <col min="10758" max="10758" width="12.88671875" style="163" customWidth="1"/>
+    <col min="10759" max="10759" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="12.109375" style="163" customWidth="1"/>
+    <col min="10762" max="10762" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="10.44140625" style="163" customWidth="1"/>
+    <col min="10764" max="10764" width="5.109375" style="163" customWidth="1"/>
     <col min="10765" max="11008" width="9" style="163"/>
-    <col min="11009" max="11009" width="5.28515625" style="163" customWidth="1"/>
-    <col min="11010" max="11010" width="14.28515625" style="163" customWidth="1"/>
-    <col min="11011" max="11011" width="9.7109375" style="163" customWidth="1"/>
-    <col min="11012" max="11012" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="5.33203125" style="163" customWidth="1"/>
+    <col min="11010" max="11010" width="14.33203125" style="163" customWidth="1"/>
+    <col min="11011" max="11011" width="9.6640625" style="163" customWidth="1"/>
+    <col min="11012" max="11012" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="11013" max="11013" width="6" style="163" customWidth="1"/>
-    <col min="11014" max="11014" width="12.85546875" style="163" customWidth="1"/>
-    <col min="11015" max="11015" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="12.140625" style="163" customWidth="1"/>
-    <col min="11018" max="11018" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="10.42578125" style="163" customWidth="1"/>
-    <col min="11020" max="11020" width="5.140625" style="163" customWidth="1"/>
+    <col min="11014" max="11014" width="12.88671875" style="163" customWidth="1"/>
+    <col min="11015" max="11015" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="12.109375" style="163" customWidth="1"/>
+    <col min="11018" max="11018" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="10.44140625" style="163" customWidth="1"/>
+    <col min="11020" max="11020" width="5.109375" style="163" customWidth="1"/>
     <col min="11021" max="11264" width="9" style="163"/>
-    <col min="11265" max="11265" width="5.28515625" style="163" customWidth="1"/>
-    <col min="11266" max="11266" width="14.28515625" style="163" customWidth="1"/>
-    <col min="11267" max="11267" width="9.7109375" style="163" customWidth="1"/>
-    <col min="11268" max="11268" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="5.33203125" style="163" customWidth="1"/>
+    <col min="11266" max="11266" width="14.33203125" style="163" customWidth="1"/>
+    <col min="11267" max="11267" width="9.6640625" style="163" customWidth="1"/>
+    <col min="11268" max="11268" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="11269" max="11269" width="6" style="163" customWidth="1"/>
-    <col min="11270" max="11270" width="12.85546875" style="163" customWidth="1"/>
-    <col min="11271" max="11271" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="12.140625" style="163" customWidth="1"/>
-    <col min="11274" max="11274" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="10.42578125" style="163" customWidth="1"/>
-    <col min="11276" max="11276" width="5.140625" style="163" customWidth="1"/>
+    <col min="11270" max="11270" width="12.88671875" style="163" customWidth="1"/>
+    <col min="11271" max="11271" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="12.109375" style="163" customWidth="1"/>
+    <col min="11274" max="11274" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="10.44140625" style="163" customWidth="1"/>
+    <col min="11276" max="11276" width="5.109375" style="163" customWidth="1"/>
     <col min="11277" max="11520" width="9" style="163"/>
-    <col min="11521" max="11521" width="5.28515625" style="163" customWidth="1"/>
-    <col min="11522" max="11522" width="14.28515625" style="163" customWidth="1"/>
-    <col min="11523" max="11523" width="9.7109375" style="163" customWidth="1"/>
-    <col min="11524" max="11524" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="5.33203125" style="163" customWidth="1"/>
+    <col min="11522" max="11522" width="14.33203125" style="163" customWidth="1"/>
+    <col min="11523" max="11523" width="9.6640625" style="163" customWidth="1"/>
+    <col min="11524" max="11524" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="11525" max="11525" width="6" style="163" customWidth="1"/>
-    <col min="11526" max="11526" width="12.85546875" style="163" customWidth="1"/>
-    <col min="11527" max="11527" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="12.140625" style="163" customWidth="1"/>
-    <col min="11530" max="11530" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="10.42578125" style="163" customWidth="1"/>
-    <col min="11532" max="11532" width="5.140625" style="163" customWidth="1"/>
+    <col min="11526" max="11526" width="12.88671875" style="163" customWidth="1"/>
+    <col min="11527" max="11527" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="12.109375" style="163" customWidth="1"/>
+    <col min="11530" max="11530" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="10.44140625" style="163" customWidth="1"/>
+    <col min="11532" max="11532" width="5.109375" style="163" customWidth="1"/>
     <col min="11533" max="11776" width="9" style="163"/>
-    <col min="11777" max="11777" width="5.28515625" style="163" customWidth="1"/>
-    <col min="11778" max="11778" width="14.28515625" style="163" customWidth="1"/>
-    <col min="11779" max="11779" width="9.7109375" style="163" customWidth="1"/>
-    <col min="11780" max="11780" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="5.33203125" style="163" customWidth="1"/>
+    <col min="11778" max="11778" width="14.33203125" style="163" customWidth="1"/>
+    <col min="11779" max="11779" width="9.6640625" style="163" customWidth="1"/>
+    <col min="11780" max="11780" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="11781" max="11781" width="6" style="163" customWidth="1"/>
-    <col min="11782" max="11782" width="12.85546875" style="163" customWidth="1"/>
-    <col min="11783" max="11783" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="12.140625" style="163" customWidth="1"/>
-    <col min="11786" max="11786" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="10.42578125" style="163" customWidth="1"/>
-    <col min="11788" max="11788" width="5.140625" style="163" customWidth="1"/>
+    <col min="11782" max="11782" width="12.88671875" style="163" customWidth="1"/>
+    <col min="11783" max="11783" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="12.109375" style="163" customWidth="1"/>
+    <col min="11786" max="11786" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="10.44140625" style="163" customWidth="1"/>
+    <col min="11788" max="11788" width="5.109375" style="163" customWidth="1"/>
     <col min="11789" max="12032" width="9" style="163"/>
-    <col min="12033" max="12033" width="5.28515625" style="163" customWidth="1"/>
-    <col min="12034" max="12034" width="14.28515625" style="163" customWidth="1"/>
-    <col min="12035" max="12035" width="9.7109375" style="163" customWidth="1"/>
-    <col min="12036" max="12036" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="5.33203125" style="163" customWidth="1"/>
+    <col min="12034" max="12034" width="14.33203125" style="163" customWidth="1"/>
+    <col min="12035" max="12035" width="9.6640625" style="163" customWidth="1"/>
+    <col min="12036" max="12036" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="12037" max="12037" width="6" style="163" customWidth="1"/>
-    <col min="12038" max="12038" width="12.85546875" style="163" customWidth="1"/>
-    <col min="12039" max="12039" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="12.140625" style="163" customWidth="1"/>
-    <col min="12042" max="12042" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="10.42578125" style="163" customWidth="1"/>
-    <col min="12044" max="12044" width="5.140625" style="163" customWidth="1"/>
+    <col min="12038" max="12038" width="12.88671875" style="163" customWidth="1"/>
+    <col min="12039" max="12039" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="12.109375" style="163" customWidth="1"/>
+    <col min="12042" max="12042" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="10.44140625" style="163" customWidth="1"/>
+    <col min="12044" max="12044" width="5.109375" style="163" customWidth="1"/>
     <col min="12045" max="12288" width="9" style="163"/>
-    <col min="12289" max="12289" width="5.28515625" style="163" customWidth="1"/>
-    <col min="12290" max="12290" width="14.28515625" style="163" customWidth="1"/>
-    <col min="12291" max="12291" width="9.7109375" style="163" customWidth="1"/>
-    <col min="12292" max="12292" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="5.33203125" style="163" customWidth="1"/>
+    <col min="12290" max="12290" width="14.33203125" style="163" customWidth="1"/>
+    <col min="12291" max="12291" width="9.6640625" style="163" customWidth="1"/>
+    <col min="12292" max="12292" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="12293" max="12293" width="6" style="163" customWidth="1"/>
-    <col min="12294" max="12294" width="12.85546875" style="163" customWidth="1"/>
-    <col min="12295" max="12295" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="12.140625" style="163" customWidth="1"/>
-    <col min="12298" max="12298" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="10.42578125" style="163" customWidth="1"/>
-    <col min="12300" max="12300" width="5.140625" style="163" customWidth="1"/>
+    <col min="12294" max="12294" width="12.88671875" style="163" customWidth="1"/>
+    <col min="12295" max="12295" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="12.109375" style="163" customWidth="1"/>
+    <col min="12298" max="12298" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="10.44140625" style="163" customWidth="1"/>
+    <col min="12300" max="12300" width="5.109375" style="163" customWidth="1"/>
     <col min="12301" max="12544" width="9" style="163"/>
-    <col min="12545" max="12545" width="5.28515625" style="163" customWidth="1"/>
-    <col min="12546" max="12546" width="14.28515625" style="163" customWidth="1"/>
-    <col min="12547" max="12547" width="9.7109375" style="163" customWidth="1"/>
-    <col min="12548" max="12548" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="5.33203125" style="163" customWidth="1"/>
+    <col min="12546" max="12546" width="14.33203125" style="163" customWidth="1"/>
+    <col min="12547" max="12547" width="9.6640625" style="163" customWidth="1"/>
+    <col min="12548" max="12548" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="12549" max="12549" width="6" style="163" customWidth="1"/>
-    <col min="12550" max="12550" width="12.85546875" style="163" customWidth="1"/>
-    <col min="12551" max="12551" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="12.140625" style="163" customWidth="1"/>
-    <col min="12554" max="12554" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="10.42578125" style="163" customWidth="1"/>
-    <col min="12556" max="12556" width="5.140625" style="163" customWidth="1"/>
+    <col min="12550" max="12550" width="12.88671875" style="163" customWidth="1"/>
+    <col min="12551" max="12551" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="12.109375" style="163" customWidth="1"/>
+    <col min="12554" max="12554" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="10.44140625" style="163" customWidth="1"/>
+    <col min="12556" max="12556" width="5.109375" style="163" customWidth="1"/>
     <col min="12557" max="12800" width="9" style="163"/>
-    <col min="12801" max="12801" width="5.28515625" style="163" customWidth="1"/>
-    <col min="12802" max="12802" width="14.28515625" style="163" customWidth="1"/>
-    <col min="12803" max="12803" width="9.7109375" style="163" customWidth="1"/>
-    <col min="12804" max="12804" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="5.33203125" style="163" customWidth="1"/>
+    <col min="12802" max="12802" width="14.33203125" style="163" customWidth="1"/>
+    <col min="12803" max="12803" width="9.6640625" style="163" customWidth="1"/>
+    <col min="12804" max="12804" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="12805" max="12805" width="6" style="163" customWidth="1"/>
-    <col min="12806" max="12806" width="12.85546875" style="163" customWidth="1"/>
-    <col min="12807" max="12807" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="12.140625" style="163" customWidth="1"/>
-    <col min="12810" max="12810" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="10.42578125" style="163" customWidth="1"/>
-    <col min="12812" max="12812" width="5.140625" style="163" customWidth="1"/>
+    <col min="12806" max="12806" width="12.88671875" style="163" customWidth="1"/>
+    <col min="12807" max="12807" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="12.109375" style="163" customWidth="1"/>
+    <col min="12810" max="12810" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="10.44140625" style="163" customWidth="1"/>
+    <col min="12812" max="12812" width="5.109375" style="163" customWidth="1"/>
     <col min="12813" max="13056" width="9" style="163"/>
-    <col min="13057" max="13057" width="5.28515625" style="163" customWidth="1"/>
-    <col min="13058" max="13058" width="14.28515625" style="163" customWidth="1"/>
-    <col min="13059" max="13059" width="9.7109375" style="163" customWidth="1"/>
-    <col min="13060" max="13060" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="5.33203125" style="163" customWidth="1"/>
+    <col min="13058" max="13058" width="14.33203125" style="163" customWidth="1"/>
+    <col min="13059" max="13059" width="9.6640625" style="163" customWidth="1"/>
+    <col min="13060" max="13060" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="13061" max="13061" width="6" style="163" customWidth="1"/>
-    <col min="13062" max="13062" width="12.85546875" style="163" customWidth="1"/>
-    <col min="13063" max="13063" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="12.140625" style="163" customWidth="1"/>
-    <col min="13066" max="13066" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="10.42578125" style="163" customWidth="1"/>
-    <col min="13068" max="13068" width="5.140625" style="163" customWidth="1"/>
+    <col min="13062" max="13062" width="12.88671875" style="163" customWidth="1"/>
+    <col min="13063" max="13063" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="12.109375" style="163" customWidth="1"/>
+    <col min="13066" max="13066" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="10.44140625" style="163" customWidth="1"/>
+    <col min="13068" max="13068" width="5.109375" style="163" customWidth="1"/>
     <col min="13069" max="13312" width="9" style="163"/>
-    <col min="13313" max="13313" width="5.28515625" style="163" customWidth="1"/>
-    <col min="13314" max="13314" width="14.28515625" style="163" customWidth="1"/>
-    <col min="13315" max="13315" width="9.7109375" style="163" customWidth="1"/>
-    <col min="13316" max="13316" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="5.33203125" style="163" customWidth="1"/>
+    <col min="13314" max="13314" width="14.33203125" style="163" customWidth="1"/>
+    <col min="13315" max="13315" width="9.6640625" style="163" customWidth="1"/>
+    <col min="13316" max="13316" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="13317" max="13317" width="6" style="163" customWidth="1"/>
-    <col min="13318" max="13318" width="12.85546875" style="163" customWidth="1"/>
-    <col min="13319" max="13319" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="12.140625" style="163" customWidth="1"/>
-    <col min="13322" max="13322" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="10.42578125" style="163" customWidth="1"/>
-    <col min="13324" max="13324" width="5.140625" style="163" customWidth="1"/>
+    <col min="13318" max="13318" width="12.88671875" style="163" customWidth="1"/>
+    <col min="13319" max="13319" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="12.109375" style="163" customWidth="1"/>
+    <col min="13322" max="13322" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="10.44140625" style="163" customWidth="1"/>
+    <col min="13324" max="13324" width="5.109375" style="163" customWidth="1"/>
     <col min="13325" max="13568" width="9" style="163"/>
-    <col min="13569" max="13569" width="5.28515625" style="163" customWidth="1"/>
-    <col min="13570" max="13570" width="14.28515625" style="163" customWidth="1"/>
-    <col min="13571" max="13571" width="9.7109375" style="163" customWidth="1"/>
-    <col min="13572" max="13572" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="5.33203125" style="163" customWidth="1"/>
+    <col min="13570" max="13570" width="14.33203125" style="163" customWidth="1"/>
+    <col min="13571" max="13571" width="9.6640625" style="163" customWidth="1"/>
+    <col min="13572" max="13572" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="13573" max="13573" width="6" style="163" customWidth="1"/>
-    <col min="13574" max="13574" width="12.85546875" style="163" customWidth="1"/>
-    <col min="13575" max="13575" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="12.140625" style="163" customWidth="1"/>
-    <col min="13578" max="13578" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="10.42578125" style="163" customWidth="1"/>
-    <col min="13580" max="13580" width="5.140625" style="163" customWidth="1"/>
+    <col min="13574" max="13574" width="12.88671875" style="163" customWidth="1"/>
+    <col min="13575" max="13575" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="12.109375" style="163" customWidth="1"/>
+    <col min="13578" max="13578" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="10.44140625" style="163" customWidth="1"/>
+    <col min="13580" max="13580" width="5.109375" style="163" customWidth="1"/>
     <col min="13581" max="13824" width="9" style="163"/>
-    <col min="13825" max="13825" width="5.28515625" style="163" customWidth="1"/>
-    <col min="13826" max="13826" width="14.28515625" style="163" customWidth="1"/>
-    <col min="13827" max="13827" width="9.7109375" style="163" customWidth="1"/>
-    <col min="13828" max="13828" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="5.33203125" style="163" customWidth="1"/>
+    <col min="13826" max="13826" width="14.33203125" style="163" customWidth="1"/>
+    <col min="13827" max="13827" width="9.6640625" style="163" customWidth="1"/>
+    <col min="13828" max="13828" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="13829" max="13829" width="6" style="163" customWidth="1"/>
-    <col min="13830" max="13830" width="12.85546875" style="163" customWidth="1"/>
-    <col min="13831" max="13831" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="12.140625" style="163" customWidth="1"/>
-    <col min="13834" max="13834" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="10.42578125" style="163" customWidth="1"/>
-    <col min="13836" max="13836" width="5.140625" style="163" customWidth="1"/>
+    <col min="13830" max="13830" width="12.88671875" style="163" customWidth="1"/>
+    <col min="13831" max="13831" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="12.109375" style="163" customWidth="1"/>
+    <col min="13834" max="13834" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="10.44140625" style="163" customWidth="1"/>
+    <col min="13836" max="13836" width="5.109375" style="163" customWidth="1"/>
     <col min="13837" max="14080" width="9" style="163"/>
-    <col min="14081" max="14081" width="5.28515625" style="163" customWidth="1"/>
-    <col min="14082" max="14082" width="14.28515625" style="163" customWidth="1"/>
-    <col min="14083" max="14083" width="9.7109375" style="163" customWidth="1"/>
-    <col min="14084" max="14084" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="5.33203125" style="163" customWidth="1"/>
+    <col min="14082" max="14082" width="14.33203125" style="163" customWidth="1"/>
+    <col min="14083" max="14083" width="9.6640625" style="163" customWidth="1"/>
+    <col min="14084" max="14084" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="14085" max="14085" width="6" style="163" customWidth="1"/>
-    <col min="14086" max="14086" width="12.85546875" style="163" customWidth="1"/>
-    <col min="14087" max="14087" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="12.140625" style="163" customWidth="1"/>
-    <col min="14090" max="14090" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="10.42578125" style="163" customWidth="1"/>
-    <col min="14092" max="14092" width="5.140625" style="163" customWidth="1"/>
+    <col min="14086" max="14086" width="12.88671875" style="163" customWidth="1"/>
+    <col min="14087" max="14087" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="12.109375" style="163" customWidth="1"/>
+    <col min="14090" max="14090" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="10.44140625" style="163" customWidth="1"/>
+    <col min="14092" max="14092" width="5.109375" style="163" customWidth="1"/>
     <col min="14093" max="14336" width="9" style="163"/>
-    <col min="14337" max="14337" width="5.28515625" style="163" customWidth="1"/>
-    <col min="14338" max="14338" width="14.28515625" style="163" customWidth="1"/>
-    <col min="14339" max="14339" width="9.7109375" style="163" customWidth="1"/>
-    <col min="14340" max="14340" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="5.33203125" style="163" customWidth="1"/>
+    <col min="14338" max="14338" width="14.33203125" style="163" customWidth="1"/>
+    <col min="14339" max="14339" width="9.6640625" style="163" customWidth="1"/>
+    <col min="14340" max="14340" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="14341" max="14341" width="6" style="163" customWidth="1"/>
-    <col min="14342" max="14342" width="12.85546875" style="163" customWidth="1"/>
-    <col min="14343" max="14343" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="12.140625" style="163" customWidth="1"/>
-    <col min="14346" max="14346" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="10.42578125" style="163" customWidth="1"/>
-    <col min="14348" max="14348" width="5.140625" style="163" customWidth="1"/>
+    <col min="14342" max="14342" width="12.88671875" style="163" customWidth="1"/>
+    <col min="14343" max="14343" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="12.109375" style="163" customWidth="1"/>
+    <col min="14346" max="14346" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="10.44140625" style="163" customWidth="1"/>
+    <col min="14348" max="14348" width="5.109375" style="163" customWidth="1"/>
     <col min="14349" max="14592" width="9" style="163"/>
-    <col min="14593" max="14593" width="5.28515625" style="163" customWidth="1"/>
-    <col min="14594" max="14594" width="14.28515625" style="163" customWidth="1"/>
-    <col min="14595" max="14595" width="9.7109375" style="163" customWidth="1"/>
-    <col min="14596" max="14596" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="5.33203125" style="163" customWidth="1"/>
+    <col min="14594" max="14594" width="14.33203125" style="163" customWidth="1"/>
+    <col min="14595" max="14595" width="9.6640625" style="163" customWidth="1"/>
+    <col min="14596" max="14596" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="14597" max="14597" width="6" style="163" customWidth="1"/>
-    <col min="14598" max="14598" width="12.85546875" style="163" customWidth="1"/>
-    <col min="14599" max="14599" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="12.140625" style="163" customWidth="1"/>
-    <col min="14602" max="14602" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="10.42578125" style="163" customWidth="1"/>
-    <col min="14604" max="14604" width="5.140625" style="163" customWidth="1"/>
+    <col min="14598" max="14598" width="12.88671875" style="163" customWidth="1"/>
+    <col min="14599" max="14599" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="12.109375" style="163" customWidth="1"/>
+    <col min="14602" max="14602" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="10.44140625" style="163" customWidth="1"/>
+    <col min="14604" max="14604" width="5.109375" style="163" customWidth="1"/>
     <col min="14605" max="14848" width="9" style="163"/>
-    <col min="14849" max="14849" width="5.28515625" style="163" customWidth="1"/>
-    <col min="14850" max="14850" width="14.28515625" style="163" customWidth="1"/>
-    <col min="14851" max="14851" width="9.7109375" style="163" customWidth="1"/>
-    <col min="14852" max="14852" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="5.33203125" style="163" customWidth="1"/>
+    <col min="14850" max="14850" width="14.33203125" style="163" customWidth="1"/>
+    <col min="14851" max="14851" width="9.6640625" style="163" customWidth="1"/>
+    <col min="14852" max="14852" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="14853" max="14853" width="6" style="163" customWidth="1"/>
-    <col min="14854" max="14854" width="12.85546875" style="163" customWidth="1"/>
-    <col min="14855" max="14855" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="12.140625" style="163" customWidth="1"/>
-    <col min="14858" max="14858" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="10.42578125" style="163" customWidth="1"/>
-    <col min="14860" max="14860" width="5.140625" style="163" customWidth="1"/>
+    <col min="14854" max="14854" width="12.88671875" style="163" customWidth="1"/>
+    <col min="14855" max="14855" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="12.109375" style="163" customWidth="1"/>
+    <col min="14858" max="14858" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="10.44140625" style="163" customWidth="1"/>
+    <col min="14860" max="14860" width="5.109375" style="163" customWidth="1"/>
     <col min="14861" max="15104" width="9" style="163"/>
-    <col min="15105" max="15105" width="5.28515625" style="163" customWidth="1"/>
-    <col min="15106" max="15106" width="14.28515625" style="163" customWidth="1"/>
-    <col min="15107" max="15107" width="9.7109375" style="163" customWidth="1"/>
-    <col min="15108" max="15108" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="5.33203125" style="163" customWidth="1"/>
+    <col min="15106" max="15106" width="14.33203125" style="163" customWidth="1"/>
+    <col min="15107" max="15107" width="9.6640625" style="163" customWidth="1"/>
+    <col min="15108" max="15108" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="15109" max="15109" width="6" style="163" customWidth="1"/>
-    <col min="15110" max="15110" width="12.85546875" style="163" customWidth="1"/>
-    <col min="15111" max="15111" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="12.140625" style="163" customWidth="1"/>
-    <col min="15114" max="15114" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="10.42578125" style="163" customWidth="1"/>
-    <col min="15116" max="15116" width="5.140625" style="163" customWidth="1"/>
+    <col min="15110" max="15110" width="12.88671875" style="163" customWidth="1"/>
+    <col min="15111" max="15111" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="12.109375" style="163" customWidth="1"/>
+    <col min="15114" max="15114" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="10.44140625" style="163" customWidth="1"/>
+    <col min="15116" max="15116" width="5.109375" style="163" customWidth="1"/>
     <col min="15117" max="15360" width="9" style="163"/>
-    <col min="15361" max="15361" width="5.28515625" style="163" customWidth="1"/>
-    <col min="15362" max="15362" width="14.28515625" style="163" customWidth="1"/>
-    <col min="15363" max="15363" width="9.7109375" style="163" customWidth="1"/>
-    <col min="15364" max="15364" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="5.33203125" style="163" customWidth="1"/>
+    <col min="15362" max="15362" width="14.33203125" style="163" customWidth="1"/>
+    <col min="15363" max="15363" width="9.6640625" style="163" customWidth="1"/>
+    <col min="15364" max="15364" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="15365" max="15365" width="6" style="163" customWidth="1"/>
-    <col min="15366" max="15366" width="12.85546875" style="163" customWidth="1"/>
-    <col min="15367" max="15367" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="12.140625" style="163" customWidth="1"/>
-    <col min="15370" max="15370" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="10.42578125" style="163" customWidth="1"/>
-    <col min="15372" max="15372" width="5.140625" style="163" customWidth="1"/>
+    <col min="15366" max="15366" width="12.88671875" style="163" customWidth="1"/>
+    <col min="15367" max="15367" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="12.109375" style="163" customWidth="1"/>
+    <col min="15370" max="15370" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="10.44140625" style="163" customWidth="1"/>
+    <col min="15372" max="15372" width="5.109375" style="163" customWidth="1"/>
     <col min="15373" max="15616" width="9" style="163"/>
-    <col min="15617" max="15617" width="5.28515625" style="163" customWidth="1"/>
-    <col min="15618" max="15618" width="14.28515625" style="163" customWidth="1"/>
-    <col min="15619" max="15619" width="9.7109375" style="163" customWidth="1"/>
-    <col min="15620" max="15620" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="5.33203125" style="163" customWidth="1"/>
+    <col min="15618" max="15618" width="14.33203125" style="163" customWidth="1"/>
+    <col min="15619" max="15619" width="9.6640625" style="163" customWidth="1"/>
+    <col min="15620" max="15620" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="15621" max="15621" width="6" style="163" customWidth="1"/>
-    <col min="15622" max="15622" width="12.85546875" style="163" customWidth="1"/>
-    <col min="15623" max="15623" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="12.140625" style="163" customWidth="1"/>
-    <col min="15626" max="15626" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="10.42578125" style="163" customWidth="1"/>
-    <col min="15628" max="15628" width="5.140625" style="163" customWidth="1"/>
+    <col min="15622" max="15622" width="12.88671875" style="163" customWidth="1"/>
+    <col min="15623" max="15623" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="12.109375" style="163" customWidth="1"/>
+    <col min="15626" max="15626" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="10.44140625" style="163" customWidth="1"/>
+    <col min="15628" max="15628" width="5.109375" style="163" customWidth="1"/>
     <col min="15629" max="15872" width="9" style="163"/>
-    <col min="15873" max="15873" width="5.28515625" style="163" customWidth="1"/>
-    <col min="15874" max="15874" width="14.28515625" style="163" customWidth="1"/>
-    <col min="15875" max="15875" width="9.7109375" style="163" customWidth="1"/>
-    <col min="15876" max="15876" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="5.33203125" style="163" customWidth="1"/>
+    <col min="15874" max="15874" width="14.33203125" style="163" customWidth="1"/>
+    <col min="15875" max="15875" width="9.6640625" style="163" customWidth="1"/>
+    <col min="15876" max="15876" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="15877" max="15877" width="6" style="163" customWidth="1"/>
-    <col min="15878" max="15878" width="12.85546875" style="163" customWidth="1"/>
-    <col min="15879" max="15879" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="12.140625" style="163" customWidth="1"/>
-    <col min="15882" max="15882" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="10.42578125" style="163" customWidth="1"/>
-    <col min="15884" max="15884" width="5.140625" style="163" customWidth="1"/>
+    <col min="15878" max="15878" width="12.88671875" style="163" customWidth="1"/>
+    <col min="15879" max="15879" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="12.109375" style="163" customWidth="1"/>
+    <col min="15882" max="15882" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="10.44140625" style="163" customWidth="1"/>
+    <col min="15884" max="15884" width="5.109375" style="163" customWidth="1"/>
     <col min="15885" max="16128" width="9" style="163"/>
-    <col min="16129" max="16129" width="5.28515625" style="163" customWidth="1"/>
-    <col min="16130" max="16130" width="14.28515625" style="163" customWidth="1"/>
-    <col min="16131" max="16131" width="9.7109375" style="163" customWidth="1"/>
-    <col min="16132" max="16132" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="5.33203125" style="163" customWidth="1"/>
+    <col min="16130" max="16130" width="14.33203125" style="163" customWidth="1"/>
+    <col min="16131" max="16131" width="9.6640625" style="163" customWidth="1"/>
+    <col min="16132" max="16132" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
     <col min="16133" max="16133" width="6" style="163" customWidth="1"/>
-    <col min="16134" max="16134" width="12.85546875" style="163" customWidth="1"/>
-    <col min="16135" max="16135" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="12.140625" style="163" customWidth="1"/>
-    <col min="16138" max="16138" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="10.42578125" style="163" customWidth="1"/>
-    <col min="16140" max="16140" width="5.140625" style="163" customWidth="1"/>
+    <col min="16134" max="16134" width="12.88671875" style="163" customWidth="1"/>
+    <col min="16135" max="16135" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="12.109375" style="163" customWidth="1"/>
+    <col min="16138" max="16138" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="10.44140625" style="163" customWidth="1"/>
+    <col min="16140" max="16140" width="5.109375" style="163" customWidth="1"/>
     <col min="16141" max="16384" width="9" style="163"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="442" t="s">
+    <row r="1" spans="1:12" s="157" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="444" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="F1" s="443" t="s">
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="F1" s="445" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-    </row>
-    <row r="2" spans="1:12" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="444" t="s">
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
+      <c r="I1" s="445"/>
+      <c r="J1" s="445"/>
+      <c r="K1" s="445"/>
+    </row>
+    <row r="2" spans="1:12" s="157" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="446" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="444"/>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="F2" s="445" t="s">
+      <c r="B2" s="446"/>
+      <c r="C2" s="446"/>
+      <c r="D2" s="446"/>
+      <c r="F2" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="445"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="447"/>
+      <c r="I2" s="447"/>
+      <c r="J2" s="447"/>
+      <c r="K2" s="447"/>
     </row>
     <row r="3" spans="1:12" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="158"/>
@@ -13586,112 +13596,112 @@
       <c r="H3" s="159"/>
       <c r="I3" s="159"/>
     </row>
-    <row r="4" spans="1:12" s="161" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="446" t="s">
+    <row r="4" spans="1:12" s="161" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="448" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="448"/>
+      <c r="C4" s="448"/>
+      <c r="D4" s="448"/>
+      <c r="E4" s="448"/>
+      <c r="F4" s="448"/>
+      <c r="G4" s="448"/>
+      <c r="H4" s="448"/>
+      <c r="I4" s="448"/>
+      <c r="J4" s="448"/>
+      <c r="K4" s="448"/>
+      <c r="L4" s="448"/>
+    </row>
+    <row r="5" spans="1:12" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="449" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="446"/>
-      <c r="C4" s="446"/>
-      <c r="D4" s="446"/>
-      <c r="E4" s="446"/>
-      <c r="F4" s="446"/>
-      <c r="G4" s="446"/>
-      <c r="H4" s="446"/>
-      <c r="I4" s="446"/>
-      <c r="J4" s="446"/>
-      <c r="K4" s="446"/>
-      <c r="L4" s="446"/>
-    </row>
-    <row r="5" spans="1:12" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="447" t="s">
+      <c r="B5" s="449"/>
+      <c r="C5" s="449"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="449"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="449"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="449"/>
+      <c r="L5" s="449"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="450" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="447"/>
-      <c r="C5" s="447"/>
-      <c r="D5" s="447"/>
-      <c r="E5" s="447"/>
-      <c r="F5" s="447"/>
-      <c r="G5" s="447"/>
-      <c r="H5" s="447"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="447"/>
-      <c r="K5" s="447"/>
-      <c r="L5" s="447"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="448" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" s="448"/>
-      <c r="L6" s="448"/>
-    </row>
-    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="K6" s="450"/>
+      <c r="L6" s="450"/>
+    </row>
+    <row r="7" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="164" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="165" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="D7" s="165" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="E7" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="F7" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="G7" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="164" t="s">
+      <c r="H7" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="I7" s="164" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="164" t="s">
+      <c r="J7" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="164" t="s">
+      <c r="K7" s="166" t="s">
         <v>190</v>
-      </c>
-      <c r="K7" s="166" t="s">
-        <v>191</v>
       </c>
       <c r="L7" s="164" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="167"/>
       <c r="B8" s="168"/>
       <c r="C8" s="169"/>
       <c r="D8" s="169"/>
       <c r="E8" s="170"/>
       <c r="F8" s="171" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="G8" s="171" t="s">
+      <c r="H8" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="171" t="s">
-        <v>194</v>
-      </c>
       <c r="I8" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="172" t="s">
         <v>236</v>
-      </c>
-      <c r="J8" s="172" t="s">
-        <v>237</v>
       </c>
       <c r="K8" s="169"/>
       <c r="L8" s="170"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="449" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="450"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="451" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="452"/>
       <c r="C9" s="169"/>
       <c r="D9" s="169"/>
       <c r="E9" s="170"/>
@@ -13703,7 +13713,7 @@
       <c r="K9" s="169"/>
       <c r="L9" s="170"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="173">
         <v>1</v>
       </c>
@@ -13711,7 +13721,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="175">
         <v>15000000</v>
@@ -13735,15 +13745,15 @@
       <c r="K10" s="176"/>
       <c r="L10" s="173"/>
     </row>
-    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="173">
         <v>2</v>
       </c>
       <c r="B11" s="173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="174" t="s">
         <v>197</v>
-      </c>
-      <c r="C11" s="174" t="s">
-        <v>198</v>
       </c>
       <c r="D11" s="175">
         <v>10000000</v>
@@ -13770,15 +13780,15 @@
       <c r="K11" s="176"/>
       <c r="L11" s="173"/>
     </row>
-    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="173">
         <v>3</v>
       </c>
       <c r="B12" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="174" t="s">
         <v>234</v>
-      </c>
-      <c r="C12" s="174" t="s">
-        <v>235</v>
       </c>
       <c r="D12" s="175">
         <v>10000000</v>
@@ -13804,7 +13814,7 @@
       <c r="K12" s="176"/>
       <c r="L12" s="173"/>
     </row>
-    <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="173">
         <v>4</v>
       </c>
@@ -13812,7 +13822,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="175">
         <v>5000000</v>
@@ -13837,11 +13847,11 @@
       <c r="K13" s="176"/>
       <c r="L13" s="173"/>
     </row>
-    <row r="14" spans="1:12" s="181" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="451" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="452"/>
+    <row r="14" spans="1:12" s="181" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="453" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="454"/>
       <c r="C14" s="177"/>
       <c r="D14" s="178"/>
       <c r="E14" s="179"/>
@@ -13853,15 +13863,15 @@
       <c r="K14" s="179"/>
       <c r="L14" s="180"/>
     </row>
-    <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="182">
         <v>1</v>
       </c>
       <c r="B15" s="182" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="183" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="184">
         <v>10000000</v>
@@ -13883,15 +13893,15 @@
       <c r="K15" s="185"/>
       <c r="L15" s="182"/>
     </row>
-    <row r="16" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="186">
         <v>2</v>
       </c>
       <c r="B16" s="186" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="187" t="s">
         <v>202</v>
-      </c>
-      <c r="C16" s="187" t="s">
-        <v>203</v>
       </c>
       <c r="D16" s="188">
         <v>5000000</v>
@@ -13909,7 +13919,7 @@
       </c>
       <c r="H16" s="189"/>
       <c r="I16" s="189" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J16" s="189">
         <f>F16-G16-H16</f>
@@ -13918,31 +13928,31 @@
       <c r="K16" s="189"/>
       <c r="L16" s="186"/>
     </row>
-    <row r="19" spans="2:11" s="190" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="453" t="s">
+    <row r="19" spans="2:11" s="190" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="455" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="453"/>
-      <c r="D19" s="453"/>
-      <c r="H19" s="453" t="s">
+      <c r="C19" s="455"/>
+      <c r="D19" s="455"/>
+      <c r="H19" s="455" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="455"/>
+      <c r="J19" s="455"/>
+      <c r="K19" s="455"/>
+    </row>
+    <row r="20" spans="2:11" s="191" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="B20" s="443" t="s">
         <v>204</v>
       </c>
-      <c r="I19" s="453"/>
-      <c r="J19" s="453"/>
-      <c r="K19" s="453"/>
-    </row>
-    <row r="20" spans="2:11" s="191" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B20" s="441" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="441"/>
-      <c r="D20" s="441"/>
-      <c r="H20" s="441" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="441"/>
-      <c r="J20" s="441"/>
-      <c r="K20" s="441"/>
+      <c r="C20" s="443"/>
+      <c r="D20" s="443"/>
+      <c r="H20" s="443" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="443"/>
+      <c r="J20" s="443"/>
+      <c r="K20" s="443"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13973,161 +13983,161 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="336" customWidth="1"/>
-    <col min="2" max="2" width="12" style="336" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="336" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="336"/>
-    <col min="6" max="6" width="5.28515625" style="336" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="336"/>
-    <col min="9" max="9" width="12.42578125" style="336" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="336" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="336" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="336" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="336" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="336" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="336" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="336"/>
+    <col min="1" max="1" width="4" style="331" customWidth="1"/>
+    <col min="2" max="2" width="12" style="331" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="331" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="331"/>
+    <col min="6" max="6" width="5.33203125" style="331" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="331"/>
+    <col min="9" max="9" width="12.44140625" style="331" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="331" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="331" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="331" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="331" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" style="331" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="331" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="331"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="335" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="330" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="454" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="466" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="466"/>
+      <c r="C3" s="466"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="466"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="466"/>
+      <c r="I3" s="466"/>
+      <c r="J3" s="466"/>
+      <c r="K3" s="466"/>
+      <c r="L3" s="466"/>
+      <c r="M3" s="466"/>
+      <c r="N3" s="466"/>
+      <c r="O3" s="466"/>
+      <c r="P3" s="466"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="467" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="467"/>
+      <c r="C4" s="467"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="467"/>
+      <c r="F4" s="467"/>
+      <c r="G4" s="467"/>
+      <c r="H4" s="467"/>
+      <c r="I4" s="467"/>
+      <c r="J4" s="467"/>
+      <c r="K4" s="468"/>
+      <c r="L4" s="467"/>
+      <c r="M4" s="467"/>
+      <c r="N4" s="467"/>
+      <c r="O4" s="467"/>
+      <c r="P4" s="467"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="456" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="469" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="456" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="456" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="456"/>
+      <c r="F5" s="456"/>
+      <c r="G5" s="470" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="470"/>
+      <c r="I5" s="470"/>
+      <c r="J5" s="470"/>
+      <c r="K5" s="471"/>
+      <c r="L5" s="456" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="470" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="454"/>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="454"/>
-      <c r="I3" s="454"/>
-      <c r="J3" s="454"/>
-      <c r="K3" s="454"/>
-      <c r="L3" s="454"/>
-      <c r="M3" s="454"/>
-      <c r="N3" s="454"/>
-      <c r="O3" s="454"/>
-      <c r="P3" s="454"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="455" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="455"/>
-      <c r="C4" s="455"/>
-      <c r="D4" s="455"/>
-      <c r="E4" s="455"/>
-      <c r="F4" s="455"/>
-      <c r="G4" s="455"/>
-      <c r="H4" s="455"/>
-      <c r="I4" s="455"/>
-      <c r="J4" s="455"/>
-      <c r="K4" s="456"/>
-      <c r="L4" s="455"/>
-      <c r="M4" s="455"/>
-      <c r="N4" s="455"/>
-      <c r="O4" s="455"/>
-      <c r="P4" s="455"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="457" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="458" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="457" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="457" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="457"/>
-      <c r="F5" s="457"/>
-      <c r="G5" s="459" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="459"/>
-      <c r="I5" s="459"/>
-      <c r="J5" s="459"/>
-      <c r="K5" s="460"/>
-      <c r="L5" s="457" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="459" t="s">
+      <c r="N5" s="470"/>
+      <c r="O5" s="470"/>
+      <c r="P5" s="456" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="456"/>
+      <c r="B6" s="469"/>
+      <c r="C6" s="456"/>
+      <c r="D6" s="332" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="333" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="333" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="333" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="333" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="334" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="333" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="335" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="456"/>
+      <c r="M6" s="333" t="s">
+        <v>248</v>
+      </c>
+      <c r="N6" s="333" t="s">
+        <v>249</v>
+      </c>
+      <c r="O6" s="333" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" s="456"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="460">
+        <v>1</v>
+      </c>
+      <c r="B7" s="457">
+        <v>43899</v>
+      </c>
+      <c r="C7" s="460"/>
+      <c r="D7" s="460" t="s">
         <v>239</v>
       </c>
-      <c r="N5" s="459"/>
-      <c r="O5" s="459"/>
-      <c r="P5" s="457" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="457"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="457"/>
-      <c r="D6" s="337" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="338" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="338" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="338" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="338" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="339" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="338" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="340" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="457"/>
-      <c r="M6" s="338" t="s">
-        <v>249</v>
-      </c>
-      <c r="N6" s="338" t="s">
-        <v>250</v>
-      </c>
-      <c r="O6" s="338" t="s">
-        <v>251</v>
-      </c>
-      <c r="P6" s="457"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="464">
-        <v>1</v>
-      </c>
-      <c r="B7" s="461">
-        <v>43899</v>
-      </c>
-      <c r="C7" s="464"/>
-      <c r="D7" s="464" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" s="464"/>
-      <c r="F7" s="464"/>
+      <c r="E7" s="460"/>
+      <c r="F7" s="460"/>
       <c r="G7" s="74" t="s">
         <v>98</v>
       </c>
@@ -14141,383 +14151,383 @@
         <v>455000</v>
       </c>
       <c r="K7" s="74"/>
-      <c r="L7" s="341">
+      <c r="L7" s="336">
         <f>J7</f>
         <v>455000</v>
       </c>
       <c r="M7" s="74"/>
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
-      <c r="P7" s="467" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="465"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="465"/>
-      <c r="G8" s="342" t="s">
+      <c r="P7" s="463" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="461"/>
+      <c r="B8" s="458"/>
+      <c r="C8" s="461"/>
+      <c r="D8" s="461"/>
+      <c r="E8" s="461"/>
+      <c r="F8" s="461"/>
+      <c r="G8" s="337" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="342">
+      <c r="H8" s="337">
         <v>1</v>
       </c>
-      <c r="I8" s="343">
+      <c r="I8" s="338">
         <v>465000</v>
       </c>
-      <c r="J8" s="343">
+      <c r="J8" s="338">
         <v>465000</v>
       </c>
-      <c r="K8" s="342"/>
-      <c r="L8" s="344">
+      <c r="K8" s="337"/>
+      <c r="L8" s="339">
         <f t="shared" ref="L8:L15" si="0">J8</f>
         <v>465000</v>
       </c>
-      <c r="M8" s="342"/>
-      <c r="N8" s="342"/>
-      <c r="O8" s="342"/>
-      <c r="P8" s="468"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="465"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="465"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
-      <c r="F9" s="465"/>
-      <c r="G9" s="342" t="s">
+      <c r="M8" s="337"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="337"/>
+      <c r="P8" s="464"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="461"/>
+      <c r="B9" s="458"/>
+      <c r="C9" s="461"/>
+      <c r="D9" s="461"/>
+      <c r="E9" s="461"/>
+      <c r="F9" s="461"/>
+      <c r="G9" s="337" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="342">
+      <c r="H9" s="337">
         <v>1</v>
       </c>
-      <c r="I9" s="343">
+      <c r="I9" s="338">
         <v>475000</v>
       </c>
-      <c r="J9" s="343">
+      <c r="J9" s="338">
         <v>475000</v>
       </c>
-      <c r="K9" s="342"/>
-      <c r="L9" s="344">
+      <c r="K9" s="337"/>
+      <c r="L9" s="339">
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="M9" s="342"/>
-      <c r="N9" s="342"/>
-      <c r="O9" s="342"/>
-      <c r="P9" s="468"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="465"/>
-      <c r="B10" s="462"/>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="465"/>
-      <c r="G10" s="342" t="s">
+      <c r="M9" s="337"/>
+      <c r="N9" s="337"/>
+      <c r="O9" s="337"/>
+      <c r="P9" s="464"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="461"/>
+      <c r="B10" s="458"/>
+      <c r="C10" s="461"/>
+      <c r="D10" s="461"/>
+      <c r="E10" s="461"/>
+      <c r="F10" s="461"/>
+      <c r="G10" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="342">
+      <c r="H10" s="337">
         <v>1</v>
       </c>
-      <c r="I10" s="343">
+      <c r="I10" s="338">
         <v>485000</v>
       </c>
-      <c r="J10" s="343">
+      <c r="J10" s="338">
         <v>485000</v>
       </c>
-      <c r="K10" s="342"/>
-      <c r="L10" s="344">
+      <c r="K10" s="337"/>
+      <c r="L10" s="339">
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
-      <c r="M10" s="342"/>
-      <c r="N10" s="342"/>
-      <c r="O10" s="342"/>
-      <c r="P10" s="468"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="465"/>
-      <c r="B11" s="462"/>
-      <c r="C11" s="465"/>
-      <c r="D11" s="465"/>
-      <c r="E11" s="465"/>
-      <c r="F11" s="465"/>
-      <c r="G11" s="342" t="s">
+      <c r="M10" s="337"/>
+      <c r="N10" s="337"/>
+      <c r="O10" s="337"/>
+      <c r="P10" s="464"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="461"/>
+      <c r="B11" s="458"/>
+      <c r="C11" s="461"/>
+      <c r="D11" s="461"/>
+      <c r="E11" s="461"/>
+      <c r="F11" s="461"/>
+      <c r="G11" s="337" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="342">
+      <c r="H11" s="337">
         <v>1</v>
       </c>
-      <c r="I11" s="343">
+      <c r="I11" s="338">
         <v>485000</v>
       </c>
-      <c r="J11" s="343">
+      <c r="J11" s="338">
         <v>485000</v>
       </c>
-      <c r="K11" s="342"/>
-      <c r="L11" s="344">
+      <c r="K11" s="337"/>
+      <c r="L11" s="339">
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
-      <c r="M11" s="342"/>
-      <c r="N11" s="342"/>
-      <c r="O11" s="342"/>
-      <c r="P11" s="468"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="465"/>
-      <c r="B12" s="462"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="465"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="465"/>
-      <c r="G12" s="342" t="s">
+      <c r="M11" s="337"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="337"/>
+      <c r="P11" s="464"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="461"/>
+      <c r="B12" s="458"/>
+      <c r="C12" s="461"/>
+      <c r="D12" s="461"/>
+      <c r="E12" s="461"/>
+      <c r="F12" s="461"/>
+      <c r="G12" s="337" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="342">
+      <c r="H12" s="337">
         <v>1</v>
       </c>
-      <c r="I12" s="343">
+      <c r="I12" s="338">
         <v>550000</v>
       </c>
-      <c r="J12" s="343">
+      <c r="J12" s="338">
         <v>550000</v>
       </c>
-      <c r="K12" s="342"/>
-      <c r="L12" s="344">
+      <c r="K12" s="337"/>
+      <c r="L12" s="339">
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="M12" s="342"/>
-      <c r="N12" s="342"/>
-      <c r="O12" s="342"/>
-      <c r="P12" s="468"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="465"/>
-      <c r="B13" s="462"/>
-      <c r="C13" s="465"/>
-      <c r="D13" s="465"/>
-      <c r="E13" s="465"/>
-      <c r="F13" s="465"/>
-      <c r="G13" s="342" t="s">
+      <c r="M12" s="337"/>
+      <c r="N12" s="337"/>
+      <c r="O12" s="337"/>
+      <c r="P12" s="464"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="461"/>
+      <c r="B13" s="458"/>
+      <c r="C13" s="461"/>
+      <c r="D13" s="461"/>
+      <c r="E13" s="461"/>
+      <c r="F13" s="461"/>
+      <c r="G13" s="337" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="342">
+      <c r="H13" s="337">
         <v>1</v>
       </c>
-      <c r="I13" s="343">
+      <c r="I13" s="338">
         <v>450000</v>
       </c>
-      <c r="J13" s="343">
+      <c r="J13" s="338">
         <v>450000</v>
       </c>
-      <c r="K13" s="342"/>
-      <c r="L13" s="344">
+      <c r="K13" s="337"/>
+      <c r="L13" s="339">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="M13" s="342"/>
-      <c r="N13" s="342"/>
-      <c r="O13" s="342"/>
-      <c r="P13" s="468"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="465"/>
-      <c r="B14" s="462"/>
-      <c r="C14" s="465"/>
-      <c r="D14" s="465"/>
-      <c r="E14" s="465"/>
-      <c r="F14" s="465"/>
-      <c r="G14" s="342" t="s">
+      <c r="M13" s="337"/>
+      <c r="N13" s="337"/>
+      <c r="O13" s="337"/>
+      <c r="P13" s="464"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="461"/>
+      <c r="B14" s="458"/>
+      <c r="C14" s="461"/>
+      <c r="D14" s="461"/>
+      <c r="E14" s="461"/>
+      <c r="F14" s="461"/>
+      <c r="G14" s="337" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="342">
+      <c r="H14" s="337">
         <v>1</v>
       </c>
-      <c r="I14" s="343">
+      <c r="I14" s="338">
         <v>455000</v>
       </c>
-      <c r="J14" s="343">
+      <c r="J14" s="338">
         <v>455000</v>
       </c>
-      <c r="K14" s="342"/>
-      <c r="L14" s="344">
+      <c r="K14" s="337"/>
+      <c r="L14" s="339">
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="M14" s="342"/>
-      <c r="N14" s="342"/>
-      <c r="O14" s="342"/>
-      <c r="P14" s="468"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="466"/>
-      <c r="B15" s="463"/>
-      <c r="C15" s="466"/>
-      <c r="D15" s="466"/>
-      <c r="E15" s="466"/>
-      <c r="F15" s="466"/>
-      <c r="G15" s="345" t="s">
+      <c r="M14" s="337"/>
+      <c r="N14" s="337"/>
+      <c r="O14" s="337"/>
+      <c r="P14" s="464"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="462"/>
+      <c r="B15" s="459"/>
+      <c r="C15" s="462"/>
+      <c r="D15" s="462"/>
+      <c r="E15" s="462"/>
+      <c r="F15" s="462"/>
+      <c r="G15" s="340" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="345">
+      <c r="H15" s="340">
         <v>1</v>
       </c>
-      <c r="I15" s="346">
+      <c r="I15" s="341">
         <v>455000</v>
       </c>
-      <c r="J15" s="346">
+      <c r="J15" s="341">
         <v>455000</v>
       </c>
-      <c r="K15" s="345"/>
-      <c r="L15" s="347">
+      <c r="K15" s="340"/>
+      <c r="L15" s="342">
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="M15" s="345"/>
-      <c r="N15" s="345"/>
-      <c r="O15" s="345"/>
-      <c r="P15" s="469"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="464">
+      <c r="M15" s="340"/>
+      <c r="N15" s="340"/>
+      <c r="O15" s="340"/>
+      <c r="P15" s="465"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="460">
         <v>2</v>
       </c>
-      <c r="B16" s="461">
+      <c r="B16" s="457">
         <v>43908</v>
       </c>
-      <c r="C16" s="464"/>
-      <c r="D16" s="464" t="s">
+      <c r="C16" s="460"/>
+      <c r="D16" s="460" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="460" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="464" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="464"/>
-      <c r="G16" s="348" t="s">
+      <c r="F16" s="460"/>
+      <c r="G16" s="343" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="348">
+      <c r="H16" s="343">
         <v>24</v>
       </c>
-      <c r="I16" s="349">
+      <c r="I16" s="344">
         <v>550000</v>
       </c>
-      <c r="J16" s="349">
+      <c r="J16" s="344">
         <v>13200000</v>
       </c>
-      <c r="K16" s="350">
+      <c r="K16" s="345">
         <v>0.38</v>
       </c>
-      <c r="L16" s="341">
+      <c r="L16" s="336">
         <f>J16*(1-K16)</f>
         <v>8184000</v>
       </c>
-      <c r="M16" s="348"/>
-      <c r="N16" s="348"/>
-      <c r="O16" s="348"/>
-      <c r="P16" s="467" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="465"/>
-      <c r="B17" s="462"/>
-      <c r="C17" s="465"/>
-      <c r="D17" s="465"/>
-      <c r="E17" s="465"/>
-      <c r="F17" s="465"/>
-      <c r="G17" s="348" t="s">
+      <c r="M16" s="343"/>
+      <c r="N16" s="343"/>
+      <c r="O16" s="343"/>
+      <c r="P16" s="463" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="461"/>
+      <c r="B17" s="458"/>
+      <c r="C17" s="461"/>
+      <c r="D17" s="461"/>
+      <c r="E17" s="461"/>
+      <c r="F17" s="461"/>
+      <c r="G17" s="343" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="348">
+      <c r="H17" s="343">
         <v>19</v>
       </c>
-      <c r="I17" s="349">
+      <c r="I17" s="344">
         <v>255000</v>
       </c>
-      <c r="J17" s="349">
+      <c r="J17" s="344">
         <f>H17*I17</f>
         <v>4845000</v>
       </c>
-      <c r="K17" s="350">
+      <c r="K17" s="345">
         <v>0.38</v>
       </c>
-      <c r="L17" s="344">
+      <c r="L17" s="339">
         <f t="shared" ref="L17:L18" si="1">J17*(1-K17)</f>
         <v>3003900</v>
       </c>
-      <c r="M17" s="348"/>
-      <c r="N17" s="348"/>
-      <c r="O17" s="348"/>
-      <c r="P17" s="468"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="466"/>
-      <c r="B18" s="463"/>
-      <c r="C18" s="466"/>
-      <c r="D18" s="466"/>
-      <c r="E18" s="466"/>
-      <c r="F18" s="466"/>
-      <c r="G18" s="345" t="s">
+      <c r="M17" s="343"/>
+      <c r="N17" s="343"/>
+      <c r="O17" s="343"/>
+      <c r="P17" s="464"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="462"/>
+      <c r="B18" s="459"/>
+      <c r="C18" s="462"/>
+      <c r="D18" s="462"/>
+      <c r="E18" s="462"/>
+      <c r="F18" s="462"/>
+      <c r="G18" s="340" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="345">
+      <c r="H18" s="340">
         <v>4</v>
       </c>
-      <c r="I18" s="346">
+      <c r="I18" s="341">
         <v>455000</v>
       </c>
-      <c r="J18" s="346">
+      <c r="J18" s="341">
         <f>I18*H18</f>
         <v>1820000</v>
       </c>
-      <c r="K18" s="350">
+      <c r="K18" s="345">
         <v>0.38</v>
       </c>
-      <c r="L18" s="347">
+      <c r="L18" s="342">
         <f t="shared" si="1"/>
         <v>1128400</v>
       </c>
-      <c r="M18" s="345"/>
-      <c r="N18" s="345"/>
-      <c r="O18" s="345"/>
-      <c r="P18" s="469"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="464">
+      <c r="M18" s="340"/>
+      <c r="N18" s="340"/>
+      <c r="O18" s="340"/>
+      <c r="P18" s="465"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="460">
         <v>4</v>
       </c>
-      <c r="B19" s="461">
+      <c r="B19" s="457">
         <v>43864</v>
       </c>
-      <c r="C19" s="464"/>
-      <c r="D19" s="467" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="464"/>
-      <c r="F19" s="464"/>
+      <c r="C19" s="460"/>
+      <c r="D19" s="463" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="460"/>
+      <c r="F19" s="460"/>
       <c r="G19" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="352">
+      <c r="H19" s="347">
         <v>16</v>
       </c>
-      <c r="I19" s="353">
+      <c r="I19" s="348">
         <v>265000</v>
       </c>
       <c r="J19" s="75">
         <v>4240000</v>
       </c>
-      <c r="K19" s="351">
+      <c r="K19" s="346">
         <v>0.5</v>
       </c>
-      <c r="L19" s="341">
+      <c r="L19" s="336">
         <f t="shared" ref="L19:L22" si="2">J19*K19</f>
         <v>2120000</v>
       </c>
@@ -14526,211 +14536,226 @@
       <c r="O19" s="74"/>
       <c r="P19" s="74"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="465"/>
-      <c r="B20" s="462"/>
-      <c r="C20" s="465"/>
-      <c r="D20" s="468"/>
-      <c r="E20" s="465"/>
-      <c r="F20" s="465"/>
-      <c r="G20" s="342" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="461"/>
+      <c r="B20" s="458"/>
+      <c r="C20" s="461"/>
+      <c r="D20" s="464"/>
+      <c r="E20" s="461"/>
+      <c r="F20" s="461"/>
+      <c r="G20" s="337" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="354">
+      <c r="H20" s="349">
         <v>28</v>
       </c>
-      <c r="I20" s="355">
+      <c r="I20" s="350">
         <v>465000</v>
       </c>
-      <c r="J20" s="343">
+      <c r="J20" s="338">
         <v>13020000</v>
       </c>
-      <c r="K20" s="351">
+      <c r="K20" s="346">
         <v>0.5</v>
       </c>
-      <c r="L20" s="344">
+      <c r="L20" s="339">
         <f t="shared" si="2"/>
         <v>6510000</v>
       </c>
-      <c r="M20" s="342"/>
-      <c r="N20" s="342"/>
-      <c r="O20" s="342"/>
-      <c r="P20" s="342"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="465"/>
-      <c r="B21" s="462"/>
-      <c r="C21" s="465"/>
-      <c r="D21" s="468"/>
-      <c r="E21" s="465"/>
-      <c r="F21" s="465"/>
-      <c r="G21" s="342" t="s">
+      <c r="M20" s="337"/>
+      <c r="N20" s="337"/>
+      <c r="O20" s="337"/>
+      <c r="P20" s="337"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="461"/>
+      <c r="B21" s="458"/>
+      <c r="C21" s="461"/>
+      <c r="D21" s="464"/>
+      <c r="E21" s="461"/>
+      <c r="F21" s="461"/>
+      <c r="G21" s="337" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="354">
+      <c r="H21" s="349">
         <v>65</v>
       </c>
-      <c r="I21" s="355">
+      <c r="I21" s="350">
         <v>475000</v>
       </c>
-      <c r="J21" s="343">
+      <c r="J21" s="338">
         <v>30875000</v>
       </c>
-      <c r="K21" s="351">
+      <c r="K21" s="346">
         <v>0.5</v>
       </c>
-      <c r="L21" s="344">
+      <c r="L21" s="339">
         <f t="shared" si="2"/>
         <v>15437500</v>
       </c>
-      <c r="M21" s="342"/>
-      <c r="N21" s="342"/>
-      <c r="O21" s="342"/>
-      <c r="P21" s="342"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="466"/>
-      <c r="B22" s="463"/>
-      <c r="C22" s="466"/>
-      <c r="D22" s="469"/>
-      <c r="E22" s="466"/>
-      <c r="F22" s="466"/>
-      <c r="G22" s="345" t="s">
+      <c r="M21" s="337"/>
+      <c r="N21" s="337"/>
+      <c r="O21" s="337"/>
+      <c r="P21" s="337"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="462"/>
+      <c r="B22" s="459"/>
+      <c r="C22" s="462"/>
+      <c r="D22" s="465"/>
+      <c r="E22" s="462"/>
+      <c r="F22" s="462"/>
+      <c r="G22" s="340" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="345">
+      <c r="H22" s="340">
         <v>18</v>
       </c>
-      <c r="I22" s="346">
+      <c r="I22" s="341">
         <v>485000</v>
       </c>
-      <c r="J22" s="346">
+      <c r="J22" s="341">
         <v>8730000</v>
       </c>
-      <c r="K22" s="351">
+      <c r="K22" s="346">
         <v>0.5</v>
       </c>
-      <c r="L22" s="347">
+      <c r="L22" s="342">
         <f t="shared" si="2"/>
         <v>4365000</v>
       </c>
-      <c r="M22" s="345"/>
-      <c r="N22" s="345"/>
-      <c r="O22" s="345"/>
-      <c r="P22" s="345"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="356"/>
-      <c r="B23" s="357">
+      <c r="M22" s="340"/>
+      <c r="N22" s="340"/>
+      <c r="O22" s="340"/>
+      <c r="P22" s="340"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="351"/>
+      <c r="B23" s="352">
         <v>43891</v>
       </c>
-      <c r="C23" s="356"/>
-      <c r="D23" s="356" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" s="356"/>
-      <c r="F23" s="356"/>
-      <c r="G23" s="356" t="s">
+      <c r="C23" s="351"/>
+      <c r="D23" s="351" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="351"/>
+      <c r="F23" s="351"/>
+      <c r="G23" s="351" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="356">
+      <c r="H23" s="351">
         <v>30</v>
       </c>
-      <c r="I23" s="358">
+      <c r="I23" s="353">
         <v>450000</v>
       </c>
-      <c r="J23" s="358">
+      <c r="J23" s="353">
         <f>H23*I23</f>
         <v>13500000</v>
       </c>
-      <c r="K23" s="359">
+      <c r="K23" s="354">
         <v>0.5</v>
       </c>
-      <c r="L23" s="360">
+      <c r="L23" s="355">
         <f>J23*(1-K23)</f>
         <v>6750000</v>
       </c>
-      <c r="M23" s="356"/>
-      <c r="N23" s="356"/>
-      <c r="O23" s="356"/>
-      <c r="P23" s="356" t="s">
+      <c r="M23" s="351"/>
+      <c r="N23" s="351"/>
+      <c r="O23" s="351"/>
+      <c r="P23" s="351" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="365" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="457" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="457"/>
-      <c r="C24" s="457"/>
-      <c r="D24" s="457"/>
-      <c r="E24" s="457"/>
-      <c r="F24" s="457"/>
-      <c r="G24" s="361"/>
-      <c r="H24" s="362">
+    <row r="24" spans="1:16" s="360" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="456" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="456"/>
+      <c r="C24" s="456"/>
+      <c r="D24" s="456"/>
+      <c r="E24" s="456"/>
+      <c r="F24" s="456"/>
+      <c r="G24" s="356"/>
+      <c r="H24" s="357">
         <f>SUM(H7:H23)</f>
         <v>213</v>
       </c>
-      <c r="I24" s="363">
+      <c r="I24" s="358">
         <f>SUM(I7:I23)</f>
         <v>7675000</v>
       </c>
-      <c r="J24" s="364">
+      <c r="J24" s="359">
         <f>SUM(J7:J23)</f>
         <v>94505000</v>
       </c>
-      <c r="K24" s="361"/>
-      <c r="L24" s="364">
+      <c r="K24" s="356"/>
+      <c r="L24" s="359">
         <f>SUM(L7:L23)</f>
         <v>51773800</v>
       </c>
-      <c r="M24" s="361"/>
-      <c r="N24" s="361"/>
-      <c r="O24" s="361"/>
-      <c r="P24" s="361"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H25" s="366"/>
-      <c r="I25" s="366"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H26" s="366"/>
-      <c r="I26" s="366"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H27" s="366"/>
-      <c r="I27" s="366"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H28" s="366"/>
-      <c r="I28" s="366"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H29" s="366"/>
-      <c r="I29" s="366"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="366"/>
-      <c r="I30" s="366"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="366"/>
-      <c r="I31" s="366"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="366"/>
-      <c r="I32" s="366"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="366"/>
-      <c r="I33" s="366"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="366"/>
-      <c r="I34" s="366"/>
+      <c r="M24" s="356"/>
+      <c r="N24" s="356"/>
+      <c r="O24" s="356"/>
+      <c r="P24" s="356"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H25" s="361"/>
+      <c r="I25" s="361"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H26" s="361"/>
+      <c r="I26" s="361"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H27" s="361"/>
+      <c r="I27" s="361"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H28" s="361"/>
+      <c r="I28" s="361"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H29" s="361"/>
+      <c r="I29" s="361"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H30" s="361"/>
+      <c r="I30" s="361"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" s="361"/>
+      <c r="I31" s="361"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32" s="361"/>
+      <c r="I32" s="361"/>
+    </row>
+    <row r="33" spans="8:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H33" s="361"/>
+      <c r="I33" s="361"/>
+    </row>
+    <row r="34" spans="8:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H34" s="361"/>
+      <c r="I34" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P7:P15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -14747,21 +14772,6 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P7:P15"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="372" windowWidth="9348" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$I$97</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -2296,46 +2296,76 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="29" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,102 +2374,81 @@
     <xf numFmtId="166" fontId="29" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="29" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="29" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="29" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2449,6 +2458,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2461,29 +2494,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,9 +2524,6 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2554,9 +2563,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2583,33 +2610,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2626,6 +2626,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2674,7 +2677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2709,7 +2712,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2924,20 +2927,20 @@
       <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
     <col min="11" max="11" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="6"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -2984,7 +2987,7 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -3004,17 +3007,17 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="382" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
+      <c r="B4" s="382"/>
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -3025,7 +3028,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="D5" s="13"/>
@@ -3035,31 +3038,31 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="371" t="s">
+    <row r="6" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="371" t="s">
+      <c r="B6" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="373" t="s">
+      <c r="C6" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="375" t="s">
+      <c r="D6" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="375"/>
-      <c r="F6" s="375"/>
-      <c r="G6" s="375" t="s">
+      <c r="E6" s="377"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="375"/>
-      <c r="I6" s="375"/>
-    </row>
-    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="372"/>
-      <c r="B7" s="372"/>
-      <c r="C7" s="374"/>
+      <c r="H6" s="377"/>
+      <c r="I6" s="377"/>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="374"/>
+      <c r="B7" s="374"/>
+      <c r="C7" s="376"/>
       <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
@@ -4779,12 +4782,12 @@
       </c>
       <c r="K96" s="83"/>
     </row>
-    <row r="97" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="376" t="s">
+    <row r="97" spans="1:11" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="377"/>
-      <c r="C97" s="378"/>
+      <c r="B97" s="379"/>
+      <c r="C97" s="380"/>
       <c r="D97" s="27">
         <f>SUM(D8:D96)</f>
         <v>0</v>
@@ -4811,11 +4814,11 @@
       </c>
       <c r="K97" s="29"/>
     </row>
-    <row r="100" spans="1:11" s="1" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="379" t="s">
+    <row r="100" spans="1:11" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="B100" s="379"/>
+      <c r="B100" s="381"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -4823,38 +4826,38 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A102" s="380" t="s">
+    <row r="102" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="372" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="380"/>
-      <c r="C102" s="380"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="371" t="s">
+      <c r="B102" s="372"/>
+      <c r="C102" s="372"/>
+    </row>
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="371" t="s">
+      <c r="B103" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="373" t="s">
+      <c r="C103" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="375" t="s">
+      <c r="D103" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="375"/>
-      <c r="F103" s="375"/>
-      <c r="G103" s="375" t="s">
+      <c r="E103" s="377"/>
+      <c r="F103" s="377"/>
+      <c r="G103" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="375"/>
-      <c r="I103" s="375"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="372"/>
-      <c r="B104" s="372"/>
-      <c r="C104" s="374"/>
+      <c r="H103" s="377"/>
+      <c r="I103" s="377"/>
+    </row>
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="374"/>
+      <c r="B104" s="374"/>
+      <c r="C104" s="376"/>
       <c r="D104" s="14" t="s">
         <v>9</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -5344,38 +5347,38 @@
         <v>8258199.5987900002</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A131" s="380" t="s">
+    <row r="131" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="372" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="380"/>
-      <c r="C131" s="380"/>
-    </row>
-    <row r="132" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="371" t="s">
+      <c r="B131" s="372"/>
+      <c r="C131" s="372"/>
+    </row>
+    <row r="132" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="371" t="s">
+      <c r="B132" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C132" s="373" t="s">
+      <c r="C132" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="375" t="s">
+      <c r="D132" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="375"/>
-      <c r="F132" s="375"/>
-      <c r="G132" s="375" t="s">
+      <c r="E132" s="377"/>
+      <c r="F132" s="377"/>
+      <c r="G132" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="375"/>
-      <c r="I132" s="375"/>
-    </row>
-    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="372"/>
-      <c r="B133" s="372"/>
-      <c r="C133" s="374"/>
+      <c r="H132" s="377"/>
+      <c r="I132" s="377"/>
+    </row>
+    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="374"/>
+      <c r="B133" s="374"/>
+      <c r="C133" s="376"/>
       <c r="D133" s="14" t="s">
         <v>9</v>
       </c>
@@ -5591,7 +5594,7 @@
       <c r="H143" s="16"/>
       <c r="I143" s="19"/>
     </row>
-    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -5620,38 +5623,38 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A146" s="380" t="s">
+    <row r="146" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="372" t="s">
         <v>60</v>
       </c>
-      <c r="B146" s="380"/>
-      <c r="C146" s="380"/>
-    </row>
-    <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="371" t="s">
+      <c r="B146" s="372"/>
+      <c r="C146" s="372"/>
+    </row>
+    <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="371" t="s">
+      <c r="B147" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="373" t="s">
+      <c r="C147" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="375" t="s">
+      <c r="D147" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="375"/>
-      <c r="F147" s="375"/>
-      <c r="G147" s="375" t="s">
+      <c r="E147" s="377"/>
+      <c r="F147" s="377"/>
+      <c r="G147" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H147" s="375"/>
-      <c r="I147" s="375"/>
-    </row>
-    <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="372"/>
-      <c r="B148" s="372"/>
-      <c r="C148" s="374"/>
+      <c r="H147" s="377"/>
+      <c r="I147" s="377"/>
+    </row>
+    <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="374"/>
+      <c r="B148" s="374"/>
+      <c r="C148" s="376"/>
       <c r="D148" s="14" t="s">
         <v>9</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -5799,38 +5802,38 @@
         <v>27701111</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A157" s="380" t="s">
+    <row r="157" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="B157" s="380"/>
-      <c r="C157" s="380"/>
-    </row>
-    <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="371" t="s">
+      <c r="B157" s="372"/>
+      <c r="C157" s="372"/>
+    </row>
+    <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="371" t="s">
+      <c r="B158" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="373" t="s">
+      <c r="C158" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="375" t="s">
+      <c r="D158" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="375"/>
-      <c r="F158" s="375"/>
-      <c r="G158" s="375" t="s">
+      <c r="E158" s="377"/>
+      <c r="F158" s="377"/>
+      <c r="G158" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H158" s="375"/>
-      <c r="I158" s="375"/>
-    </row>
-    <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="372"/>
-      <c r="B159" s="372"/>
-      <c r="C159" s="374"/>
+      <c r="H158" s="377"/>
+      <c r="I158" s="377"/>
+    </row>
+    <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="374"/>
+      <c r="B159" s="374"/>
+      <c r="C159" s="376"/>
       <c r="D159" s="14" t="s">
         <v>9</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>4248000</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -5902,38 +5905,38 @@
         <v>13248000</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A164" s="380" t="s">
+    <row r="164" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A164" s="372" t="s">
         <v>62</v>
       </c>
-      <c r="B164" s="380"/>
-      <c r="C164" s="380"/>
-    </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="371" t="s">
+      <c r="B164" s="372"/>
+      <c r="C164" s="372"/>
+    </row>
+    <row r="165" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="371" t="s">
+      <c r="B165" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="373" t="s">
+      <c r="C165" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="375" t="s">
+      <c r="D165" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="375"/>
-      <c r="F165" s="375"/>
-      <c r="G165" s="375" t="s">
+      <c r="E165" s="377"/>
+      <c r="F165" s="377"/>
+      <c r="G165" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="375"/>
-      <c r="I165" s="375"/>
-    </row>
-    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="372"/>
-      <c r="B166" s="372"/>
-      <c r="C166" s="374"/>
+      <c r="H165" s="377"/>
+      <c r="I165" s="377"/>
+    </row>
+    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="374"/>
+      <c r="B166" s="374"/>
+      <c r="C166" s="376"/>
       <c r="D166" s="14" t="s">
         <v>9</v>
       </c>
@@ -6480,38 +6483,38 @@
         <v>25992399.800000004</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A196" s="380" t="s">
+    <row r="196" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="B196" s="380"/>
-      <c r="C196" s="380"/>
-    </row>
-    <row r="197" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="371" t="s">
+      <c r="B196" s="372"/>
+      <c r="C196" s="372"/>
+    </row>
+    <row r="197" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="371" t="s">
+      <c r="B197" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C197" s="373" t="s">
+      <c r="C197" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="375" t="s">
+      <c r="D197" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="375"/>
-      <c r="F197" s="375"/>
-      <c r="G197" s="375" t="s">
+      <c r="E197" s="377"/>
+      <c r="F197" s="377"/>
+      <c r="G197" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H197" s="375"/>
-      <c r="I197" s="375"/>
-    </row>
-    <row r="198" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="372"/>
-      <c r="B198" s="372"/>
-      <c r="C198" s="374"/>
+      <c r="H197" s="377"/>
+      <c r="I197" s="377"/>
+    </row>
+    <row r="198" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="374"/>
+      <c r="B198" s="374"/>
+      <c r="C198" s="376"/>
       <c r="D198" s="14" t="s">
         <v>9</v>
       </c>
@@ -6659,38 +6662,38 @@
         <v>9383000</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A207" s="380" t="s">
+    <row r="207" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A207" s="372" t="s">
         <v>64</v>
       </c>
-      <c r="B207" s="380"/>
-      <c r="C207" s="380"/>
-    </row>
-    <row r="208" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="371" t="s">
+      <c r="B207" s="372"/>
+      <c r="C207" s="372"/>
+    </row>
+    <row r="208" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B208" s="371" t="s">
+      <c r="B208" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C208" s="373" t="s">
+      <c r="C208" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="375" t="s">
+      <c r="D208" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E208" s="375"/>
-      <c r="F208" s="375"/>
-      <c r="G208" s="375" t="s">
+      <c r="E208" s="377"/>
+      <c r="F208" s="377"/>
+      <c r="G208" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H208" s="375"/>
-      <c r="I208" s="375"/>
-    </row>
-    <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="372"/>
-      <c r="B209" s="372"/>
-      <c r="C209" s="374"/>
+      <c r="H208" s="377"/>
+      <c r="I208" s="377"/>
+    </row>
+    <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="374"/>
+      <c r="B209" s="374"/>
+      <c r="C209" s="376"/>
       <c r="D209" s="14" t="s">
         <v>9</v>
       </c>
@@ -6746,38 +6749,38 @@
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I212" s="37"/>
     </row>
-    <row r="213" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A213" s="380" t="s">
+    <row r="213" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A213" s="372" t="s">
         <v>65</v>
       </c>
-      <c r="B213" s="380"/>
-      <c r="C213" s="380"/>
-    </row>
-    <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="371" t="s">
+      <c r="B213" s="372"/>
+      <c r="C213" s="372"/>
+    </row>
+    <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="371" t="s">
+      <c r="B214" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="373" t="s">
+      <c r="C214" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="375" t="s">
+      <c r="D214" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E214" s="375"/>
-      <c r="F214" s="375"/>
-      <c r="G214" s="375" t="s">
+      <c r="E214" s="377"/>
+      <c r="F214" s="377"/>
+      <c r="G214" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H214" s="375"/>
-      <c r="I214" s="375"/>
-    </row>
-    <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="372"/>
-      <c r="B215" s="372"/>
-      <c r="C215" s="374"/>
+      <c r="H214" s="377"/>
+      <c r="I214" s="377"/>
+    </row>
+    <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="374"/>
+      <c r="B215" s="374"/>
+      <c r="C215" s="376"/>
       <c r="D215" s="14" t="s">
         <v>9</v>
       </c>
@@ -7090,11 +7093,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="56">
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="G158:I158"/>
     <mergeCell ref="G214:I214"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A131:C131"/>
@@ -7111,41 +7144,11 @@
     <mergeCell ref="C208:C209"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="G208:I208"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:F214"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7156,32 +7159,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="243" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="329" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="243" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="329" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="243" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="243" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="243" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="243" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="243" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="243" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="243" customWidth="1"/>
     <col min="7" max="7" width="5" style="243" customWidth="1"/>
     <col min="8" max="8" width="9" style="243" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="243" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="243" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="243" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="243" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="248" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="248" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" style="248" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" style="244" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="243" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="243" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="243" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="243" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="248" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="248" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="248" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" style="244" customWidth="1"/>
     <col min="17" max="16384" width="9" style="243"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="239" t="s">
         <v>0</v>
       </c>
@@ -7197,7 +7200,7 @@
       <c r="M1" s="246"/>
       <c r="N1" s="247"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="249" t="s">
         <v>2</v>
       </c>
@@ -7213,166 +7216,166 @@
       <c r="M2" s="246"/>
       <c r="N2" s="253"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="398" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="400" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="398" t="s">
+      <c r="B3" s="400"/>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
+      <c r="F3" s="400"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="400"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
+      <c r="N3" s="400"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="400"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="400" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398"/>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="398"/>
-      <c r="M4" s="398"/>
-      <c r="N4" s="398"/>
-      <c r="O4" s="398"/>
-      <c r="P4" s="398"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="398"/>
-      <c r="B5" s="398"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="399"/>
-    </row>
-    <row r="6" spans="1:16" s="254" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="400" t="s">
+      <c r="B4" s="400"/>
+      <c r="C4" s="400"/>
+      <c r="D4" s="400"/>
+      <c r="E4" s="400"/>
+      <c r="F4" s="400"/>
+      <c r="G4" s="400"/>
+      <c r="H4" s="400"/>
+      <c r="I4" s="400"/>
+      <c r="J4" s="400"/>
+      <c r="K4" s="400"/>
+      <c r="L4" s="400"/>
+      <c r="M4" s="400"/>
+      <c r="N4" s="400"/>
+      <c r="O4" s="400"/>
+      <c r="P4" s="400"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="400"/>
+      <c r="B5" s="400"/>
+      <c r="C5" s="400"/>
+      <c r="D5" s="400"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="400"/>
+      <c r="I5" s="400"/>
+      <c r="J5" s="400"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="401"/>
+    </row>
+    <row r="6" spans="1:16" s="254" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="402" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="403" t="s">
+      <c r="B6" s="405" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="402" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="406" t="s">
+      <c r="D6" s="408" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="406"/>
-      <c r="F6" s="407" t="s">
+      <c r="E6" s="408"/>
+      <c r="F6" s="409" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="407"/>
-      <c r="H6" s="407"/>
-      <c r="I6" s="407"/>
-      <c r="J6" s="407"/>
-      <c r="K6" s="407"/>
-      <c r="L6" s="407"/>
-      <c r="M6" s="408"/>
-      <c r="N6" s="408"/>
-      <c r="O6" s="408"/>
-      <c r="P6" s="386" t="s">
+      <c r="G6" s="409"/>
+      <c r="H6" s="409"/>
+      <c r="I6" s="409"/>
+      <c r="J6" s="409"/>
+      <c r="K6" s="409"/>
+      <c r="L6" s="409"/>
+      <c r="M6" s="410"/>
+      <c r="N6" s="410"/>
+      <c r="O6" s="410"/>
+      <c r="P6" s="397" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="254" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="401"/>
-      <c r="B7" s="404"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="400" t="s">
+    <row r="7" spans="1:16" s="254" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="403"/>
+      <c r="B7" s="406"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="402" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="400" t="s">
+      <c r="E7" s="402" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="400" t="s">
+      <c r="F7" s="402" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="400" t="s">
+      <c r="G7" s="402" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="400" t="s">
+      <c r="H7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="402" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="409" t="s">
+      <c r="J7" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="409"/>
-      <c r="L7" s="410" t="s">
+      <c r="K7" s="412"/>
+      <c r="L7" s="413" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="412" t="s">
+      <c r="M7" s="415" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="412" t="s">
+      <c r="N7" s="415" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="412" t="s">
+      <c r="O7" s="415" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="397"/>
-    </row>
-    <row r="8" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="402"/>
-      <c r="B8" s="405"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="402"/>
-      <c r="F8" s="402"/>
-      <c r="G8" s="402"/>
-      <c r="H8" s="402"/>
-      <c r="I8" s="402"/>
+      <c r="P7" s="411"/>
+    </row>
+    <row r="8" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="404"/>
+      <c r="B8" s="407"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="404"/>
+      <c r="E8" s="404"/>
+      <c r="F8" s="404"/>
+      <c r="G8" s="404"/>
+      <c r="H8" s="404"/>
+      <c r="I8" s="404"/>
       <c r="J8" s="255" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="411"/>
-      <c r="M8" s="413"/>
-      <c r="N8" s="413"/>
-      <c r="O8" s="413"/>
-      <c r="P8" s="387"/>
-    </row>
-    <row r="9" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="381">
+      <c r="L8" s="414"/>
+      <c r="M8" s="416"/>
+      <c r="N8" s="416"/>
+      <c r="O8" s="416"/>
+      <c r="P8" s="398"/>
+    </row>
+    <row r="9" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="383">
         <v>1</v>
       </c>
-      <c r="B9" s="384">
+      <c r="B9" s="394">
         <v>43891</v>
       </c>
-      <c r="C9" s="381" t="s">
+      <c r="C9" s="383" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="381" t="s">
+      <c r="D9" s="383" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="381" t="s">
+      <c r="E9" s="383" t="s">
         <v>145</v>
       </c>
       <c r="F9" s="257" t="s">
@@ -7402,16 +7405,16 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O9" s="260"/>
-      <c r="P9" s="381" t="s">
+      <c r="P9" s="383" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="382"/>
-      <c r="B10" s="388"/>
-      <c r="C10" s="382"/>
-      <c r="D10" s="382"/>
-      <c r="E10" s="382"/>
+    <row r="10" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="386"/>
+      <c r="B10" s="417"/>
+      <c r="C10" s="386"/>
+      <c r="D10" s="386"/>
+      <c r="E10" s="386"/>
       <c r="F10" s="261" t="s">
         <v>100</v>
       </c>
@@ -7439,14 +7442,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="264"/>
-      <c r="P10" s="382"/>
-    </row>
-    <row r="11" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="382"/>
-      <c r="B11" s="388"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
+      <c r="P10" s="386"/>
+    </row>
+    <row r="11" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="386"/>
+      <c r="B11" s="417"/>
+      <c r="C11" s="386"/>
+      <c r="D11" s="386"/>
+      <c r="E11" s="386"/>
       <c r="F11" s="261" t="s">
         <v>103</v>
       </c>
@@ -7474,14 +7477,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="264"/>
-      <c r="P11" s="382"/>
-    </row>
-    <row r="12" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="382"/>
-      <c r="B12" s="388"/>
-      <c r="C12" s="382"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="382"/>
+      <c r="P11" s="386"/>
+    </row>
+    <row r="12" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="386"/>
+      <c r="B12" s="417"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="386"/>
       <c r="F12" s="261" t="s">
         <v>108</v>
       </c>
@@ -7509,14 +7512,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="264"/>
-      <c r="P12" s="382"/>
-    </row>
-    <row r="13" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="382"/>
-      <c r="B13" s="388"/>
-      <c r="C13" s="382"/>
-      <c r="D13" s="382"/>
-      <c r="E13" s="382"/>
+      <c r="P12" s="386"/>
+    </row>
+    <row r="13" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="386"/>
+      <c r="B13" s="417"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="386"/>
       <c r="F13" s="261" t="s">
         <v>107</v>
       </c>
@@ -7544,14 +7547,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="264"/>
-      <c r="P13" s="382"/>
-    </row>
-    <row r="14" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="382"/>
-      <c r="B14" s="388"/>
-      <c r="C14" s="382"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
+      <c r="P13" s="386"/>
+    </row>
+    <row r="14" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="386"/>
+      <c r="B14" s="417"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="386"/>
       <c r="F14" s="261" t="s">
         <v>101</v>
       </c>
@@ -7579,14 +7582,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="264"/>
-      <c r="P14" s="382"/>
-    </row>
-    <row r="15" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="382"/>
-      <c r="B15" s="388"/>
-      <c r="C15" s="382"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="382"/>
+      <c r="P14" s="386"/>
+    </row>
+    <row r="15" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="386"/>
+      <c r="B15" s="417"/>
+      <c r="C15" s="386"/>
+      <c r="D15" s="386"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="261" t="s">
         <v>102</v>
       </c>
@@ -7614,14 +7617,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="264"/>
-      <c r="P15" s="382"/>
-    </row>
-    <row r="16" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="383"/>
-      <c r="B16" s="385"/>
-      <c r="C16" s="383"/>
-      <c r="D16" s="383"/>
-      <c r="E16" s="383"/>
+      <c r="P15" s="386"/>
+    </row>
+    <row r="16" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="384"/>
+      <c r="B16" s="395"/>
+      <c r="C16" s="384"/>
+      <c r="D16" s="384"/>
+      <c r="E16" s="384"/>
       <c r="F16" s="265" t="s">
         <v>131</v>
       </c>
@@ -7649,22 +7652,22 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="268"/>
-      <c r="P16" s="383"/>
-    </row>
-    <row r="17" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="381">
+      <c r="P16" s="384"/>
+    </row>
+    <row r="17" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="383">
         <v>2</v>
       </c>
-      <c r="B17" s="384">
+      <c r="B17" s="394">
         <v>43891</v>
       </c>
-      <c r="C17" s="381" t="s">
+      <c r="C17" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="381" t="s">
+      <c r="D17" s="383" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="386" t="s">
+      <c r="E17" s="397" t="s">
         <v>168</v>
       </c>
       <c r="F17" s="269" t="s">
@@ -7694,16 +7697,16 @@
         <f>L17</f>
         <v>2790000</v>
       </c>
-      <c r="P17" s="381" t="s">
+      <c r="P17" s="383" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="383"/>
-      <c r="B18" s="385"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="383"/>
-      <c r="E18" s="387"/>
+    <row r="18" spans="1:16" s="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="384"/>
+      <c r="B18" s="395"/>
+      <c r="C18" s="384"/>
+      <c r="D18" s="384"/>
+      <c r="E18" s="398"/>
       <c r="F18" s="272" t="s">
         <v>107</v>
       </c>
@@ -7731,9 +7734,9 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="382"/>
-    </row>
-    <row r="19" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="P18" s="386"/>
+    </row>
+    <row r="19" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="276">
         <v>3</v>
       </c>
@@ -7780,20 +7783,20 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="381">
+    <row r="20" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="383">
         <v>4</v>
       </c>
-      <c r="B20" s="384">
+      <c r="B20" s="394">
         <v>43893</v>
       </c>
-      <c r="C20" s="381" t="s">
+      <c r="C20" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="381" t="s">
+      <c r="D20" s="383" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="383" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="257" t="s">
@@ -7823,16 +7826,16 @@
         <f>L20</f>
         <v>2790000</v>
       </c>
-      <c r="P20" s="381" t="s">
+      <c r="P20" s="383" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="382"/>
-      <c r="B21" s="388"/>
-      <c r="C21" s="382"/>
-      <c r="D21" s="382"/>
-      <c r="E21" s="382"/>
+    <row r="21" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="386"/>
+      <c r="B21" s="417"/>
+      <c r="C21" s="386"/>
+      <c r="D21" s="386"/>
+      <c r="E21" s="386"/>
       <c r="F21" s="261" t="s">
         <v>103</v>
       </c>
@@ -7860,14 +7863,14 @@
         <f>L21</f>
         <v>2850000</v>
       </c>
-      <c r="P21" s="382"/>
-    </row>
-    <row r="22" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="383"/>
-      <c r="B22" s="385"/>
-      <c r="C22" s="383"/>
-      <c r="D22" s="383"/>
-      <c r="E22" s="383"/>
+      <c r="P21" s="386"/>
+    </row>
+    <row r="22" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="384"/>
+      <c r="B22" s="395"/>
+      <c r="C22" s="384"/>
+      <c r="D22" s="384"/>
+      <c r="E22" s="384"/>
       <c r="F22" s="265" t="s">
         <v>108</v>
       </c>
@@ -7895,22 +7898,22 @@
         <f>L22</f>
         <v>4365000</v>
       </c>
-      <c r="P22" s="383"/>
+      <c r="P22" s="384"/>
     </row>
     <row r="23" spans="1:16" s="254" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="391">
+      <c r="A23" s="387">
         <v>5</v>
       </c>
-      <c r="B23" s="394">
+      <c r="B23" s="391">
         <v>43899</v>
       </c>
-      <c r="C23" s="391" t="s">
+      <c r="C23" s="387" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="391" t="s">
+      <c r="D23" s="387" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="391"/>
+      <c r="E23" s="387"/>
       <c r="F23" s="257" t="s">
         <v>103</v>
       </c>
@@ -7938,16 +7941,16 @@
         <v>1068750</v>
       </c>
       <c r="O23" s="257"/>
-      <c r="P23" s="381" t="s">
+      <c r="P23" s="383" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="392"/>
-      <c r="B24" s="395"/>
-      <c r="C24" s="392"/>
-      <c r="D24" s="392"/>
-      <c r="E24" s="392"/>
+    <row r="24" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="390"/>
+      <c r="B24" s="392"/>
+      <c r="C24" s="390"/>
+      <c r="D24" s="390"/>
+      <c r="E24" s="390"/>
       <c r="F24" s="261" t="s">
         <v>108</v>
       </c>
@@ -7975,14 +7978,14 @@
         <v>2182500</v>
       </c>
       <c r="O24" s="261"/>
-      <c r="P24" s="382"/>
-    </row>
-    <row r="25" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="393"/>
-      <c r="B25" s="396"/>
-      <c r="C25" s="393"/>
-      <c r="D25" s="393"/>
-      <c r="E25" s="393"/>
+      <c r="P24" s="386"/>
+    </row>
+    <row r="25" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="388"/>
+      <c r="B25" s="393"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="388"/>
+      <c r="E25" s="388"/>
       <c r="F25" s="265" t="s">
         <v>131</v>
       </c>
@@ -8010,9 +8013,9 @@
         <v>341250</v>
       </c>
       <c r="O25" s="265"/>
-      <c r="P25" s="383"/>
-    </row>
-    <row r="26" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="384"/>
+    </row>
+    <row r="26" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="284">
         <v>6</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="276">
         <v>7</v>
       </c>
@@ -8098,18 +8101,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="381">
+    <row r="28" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="383">
         <v>8</v>
       </c>
-      <c r="B28" s="384">
+      <c r="B28" s="394">
         <v>43900</v>
       </c>
-      <c r="C28" s="381" t="s">
+      <c r="C28" s="383" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="381"/>
-      <c r="E28" s="381"/>
+      <c r="D28" s="383"/>
+      <c r="E28" s="383"/>
       <c r="F28" s="257" t="s">
         <v>99</v>
       </c>
@@ -8137,16 +8140,16 @@
         <v>156350.00000000003</v>
       </c>
       <c r="O28" s="257"/>
-      <c r="P28" s="381" t="s">
+      <c r="P28" s="383" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="382"/>
-      <c r="B29" s="388"/>
-      <c r="C29" s="382"/>
-      <c r="D29" s="382"/>
-      <c r="E29" s="382"/>
+    <row r="29" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="386"/>
+      <c r="B29" s="417"/>
+      <c r="C29" s="386"/>
+      <c r="D29" s="386"/>
+      <c r="E29" s="386"/>
       <c r="F29" s="261" t="s">
         <v>100</v>
       </c>
@@ -8174,14 +8177,14 @@
         <v>2194800.0000000005</v>
       </c>
       <c r="O29" s="261"/>
-      <c r="P29" s="382"/>
-    </row>
-    <row r="30" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="383"/>
-      <c r="B30" s="385"/>
-      <c r="C30" s="383"/>
-      <c r="D30" s="383"/>
-      <c r="E30" s="383"/>
+      <c r="P29" s="386"/>
+    </row>
+    <row r="30" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="384"/>
+      <c r="B30" s="395"/>
+      <c r="C30" s="384"/>
+      <c r="D30" s="384"/>
+      <c r="E30" s="384"/>
       <c r="F30" s="265" t="s">
         <v>101</v>
       </c>
@@ -8209,9 +8212,9 @@
         <v>324500.00000000006</v>
       </c>
       <c r="O30" s="265"/>
-      <c r="P30" s="383"/>
-    </row>
-    <row r="31" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="P30" s="384"/>
+    </row>
+    <row r="31" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="284">
         <v>9</v>
       </c>
@@ -8260,7 +8263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="254" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="254" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="284">
         <v>10</v>
       </c>
@@ -8299,12 +8302,12 @@
       </c>
       <c r="M32" s="296"/>
       <c r="N32" s="296"/>
-      <c r="O32" s="389" t="s">
+      <c r="O32" s="418" t="s">
         <v>137</v>
       </c>
-      <c r="P32" s="472"/>
-    </row>
-    <row r="33" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="P32" s="419"/>
+    </row>
+    <row r="33" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="276">
         <v>11</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="276">
         <v>12</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="297">
         <v>13</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="278">
         <v>14</v>
       </c>
@@ -8480,20 +8483,20 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="381">
+    <row r="37" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="383">
         <v>15</v>
       </c>
-      <c r="B37" s="384">
+      <c r="B37" s="394">
         <v>43903</v>
       </c>
-      <c r="C37" s="381" t="s">
+      <c r="C37" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="381" t="s">
+      <c r="D37" s="383" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="381" t="s">
+      <c r="E37" s="383" t="s">
         <v>148</v>
       </c>
       <c r="F37" s="257" t="s">
@@ -8523,16 +8526,16 @@
         <v>6867600.0000000009</v>
       </c>
       <c r="O37" s="260"/>
-      <c r="P37" s="381" t="s">
+      <c r="P37" s="383" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="383"/>
-      <c r="B38" s="385"/>
-      <c r="C38" s="383"/>
-      <c r="D38" s="383"/>
-      <c r="E38" s="383"/>
+    <row r="38" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="384"/>
+      <c r="B38" s="395"/>
+      <c r="C38" s="384"/>
+      <c r="D38" s="384"/>
+      <c r="E38" s="384"/>
       <c r="F38" s="265" t="s">
         <v>102</v>
       </c>
@@ -8560,9 +8563,9 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O38" s="268"/>
-      <c r="P38" s="383"/>
-    </row>
-    <row r="39" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="P38" s="384"/>
+    </row>
+    <row r="39" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="276">
         <v>16</v>
       </c>
@@ -8603,20 +8606,20 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="254" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="381">
+    <row r="40" spans="1:16" s="254" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="383">
         <v>17</v>
       </c>
-      <c r="B40" s="384">
+      <c r="B40" s="394">
         <v>43904</v>
       </c>
-      <c r="C40" s="381" t="s">
+      <c r="C40" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="381" t="s">
+      <c r="D40" s="383" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="386" t="s">
+      <c r="E40" s="397" t="s">
         <v>215</v>
       </c>
       <c r="F40" s="257" t="s">
@@ -8646,16 +8649,16 @@
         <f>L40</f>
         <v>7098000</v>
       </c>
-      <c r="P40" s="381" t="s">
+      <c r="P40" s="383" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="383"/>
-      <c r="B41" s="385"/>
-      <c r="C41" s="382"/>
-      <c r="D41" s="383"/>
-      <c r="E41" s="387"/>
+    <row r="41" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="384"/>
+      <c r="B41" s="395"/>
+      <c r="C41" s="386"/>
+      <c r="D41" s="384"/>
+      <c r="E41" s="398"/>
       <c r="F41" s="265" t="s">
         <v>100</v>
       </c>
@@ -8683,22 +8686,22 @@
         <f t="shared" ref="O41:O46" si="12">L41</f>
         <v>3627000</v>
       </c>
-      <c r="P41" s="382"/>
-    </row>
-    <row r="42" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="381">
+      <c r="P41" s="386"/>
+    </row>
+    <row r="42" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="383">
         <v>18</v>
       </c>
-      <c r="B42" s="384">
+      <c r="B42" s="394">
         <v>43904</v>
       </c>
-      <c r="C42" s="381" t="s">
+      <c r="C42" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="381" t="s">
+      <c r="D42" s="383" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="386" t="s">
+      <c r="E42" s="397" t="s">
         <v>215</v>
       </c>
       <c r="F42" s="257" t="s">
@@ -8728,14 +8731,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P42" s="382"/>
-    </row>
-    <row r="43" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="383"/>
-      <c r="B43" s="385"/>
-      <c r="C43" s="382"/>
-      <c r="D43" s="383"/>
-      <c r="E43" s="387"/>
+      <c r="P42" s="386"/>
+    </row>
+    <row r="43" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="384"/>
+      <c r="B43" s="395"/>
+      <c r="C43" s="386"/>
+      <c r="D43" s="384"/>
+      <c r="E43" s="398"/>
       <c r="F43" s="265" t="s">
         <v>100</v>
       </c>
@@ -8763,22 +8766,22 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P43" s="382"/>
-    </row>
-    <row r="44" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="381">
+      <c r="P43" s="386"/>
+    </row>
+    <row r="44" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="383">
         <v>19</v>
       </c>
-      <c r="B44" s="384">
+      <c r="B44" s="394">
         <v>43904</v>
       </c>
-      <c r="C44" s="381" t="s">
+      <c r="C44" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="381" t="s">
+      <c r="D44" s="383" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="386"/>
+      <c r="E44" s="397"/>
       <c r="F44" s="257" t="s">
         <v>100</v>
       </c>
@@ -8806,14 +8809,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P44" s="382"/>
-    </row>
-    <row r="45" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="382"/>
-      <c r="B45" s="388"/>
-      <c r="C45" s="382"/>
-      <c r="D45" s="382"/>
-      <c r="E45" s="397"/>
+      <c r="P44" s="386"/>
+    </row>
+    <row r="45" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="386"/>
+      <c r="B45" s="417"/>
+      <c r="C45" s="386"/>
+      <c r="D45" s="386"/>
+      <c r="E45" s="411"/>
       <c r="F45" s="261" t="s">
         <v>108</v>
       </c>
@@ -8841,14 +8844,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P45" s="382"/>
-    </row>
-    <row r="46" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="383"/>
-      <c r="B46" s="385"/>
-      <c r="C46" s="383"/>
-      <c r="D46" s="383"/>
-      <c r="E46" s="387"/>
+      <c r="P45" s="386"/>
+    </row>
+    <row r="46" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="384"/>
+      <c r="B46" s="395"/>
+      <c r="C46" s="384"/>
+      <c r="D46" s="384"/>
+      <c r="E46" s="398"/>
       <c r="F46" s="265" t="s">
         <v>102</v>
       </c>
@@ -8876,9 +8879,9 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P46" s="383"/>
-    </row>
-    <row r="47" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="P46" s="384"/>
+    </row>
+    <row r="47" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A47" s="276">
         <v>20</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="276">
         <v>21</v>
       </c>
@@ -8970,7 +8973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="254" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="254" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="276">
         <v>22</v>
       </c>
@@ -9017,18 +9020,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="381">
+    <row r="50" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="383">
         <v>23</v>
       </c>
-      <c r="B50" s="414">
+      <c r="B50" s="399">
         <v>43907</v>
       </c>
-      <c r="C50" s="415" t="s">
+      <c r="C50" s="385" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="381"/>
-      <c r="E50" s="381"/>
+      <c r="D50" s="383"/>
+      <c r="E50" s="383"/>
       <c r="F50" s="257" t="s">
         <v>100</v>
       </c>
@@ -9056,16 +9059,16 @@
         <v>274350.00000000006</v>
       </c>
       <c r="O50" s="260"/>
-      <c r="P50" s="381" t="s">
+      <c r="P50" s="383" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="383"/>
-      <c r="B51" s="414"/>
-      <c r="C51" s="415"/>
-      <c r="D51" s="383"/>
-      <c r="E51" s="383"/>
+    <row r="51" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="384"/>
+      <c r="B51" s="399"/>
+      <c r="C51" s="385"/>
+      <c r="D51" s="384"/>
+      <c r="E51" s="384"/>
       <c r="F51" s="265" t="s">
         <v>102</v>
       </c>
@@ -9093,20 +9096,20 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O51" s="268"/>
-      <c r="P51" s="382"/>
-    </row>
-    <row r="52" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P51" s="386"/>
+    </row>
+    <row r="52" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="305">
         <v>24</v>
       </c>
-      <c r="B52" s="384">
+      <c r="B52" s="394">
         <v>43908</v>
       </c>
-      <c r="C52" s="381" t="s">
+      <c r="C52" s="383" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="381"/>
-      <c r="E52" s="381"/>
+      <c r="D52" s="383"/>
+      <c r="E52" s="383"/>
       <c r="F52" s="257" t="s">
         <v>104</v>
       </c>
@@ -9134,16 +9137,16 @@
         <v>168150.00000000003</v>
       </c>
       <c r="O52" s="260"/>
-      <c r="P52" s="382"/>
-    </row>
-    <row r="53" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P52" s="386"/>
+    </row>
+    <row r="53" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="286">
         <v>25</v>
       </c>
-      <c r="B53" s="385"/>
-      <c r="C53" s="383"/>
-      <c r="D53" s="383"/>
-      <c r="E53" s="383"/>
+      <c r="B53" s="395"/>
+      <c r="C53" s="384"/>
+      <c r="D53" s="384"/>
+      <c r="E53" s="384"/>
       <c r="F53" s="265" t="s">
         <v>105</v>
       </c>
@@ -9171,9 +9174,9 @@
         <v>150450.00000000003</v>
       </c>
       <c r="O53" s="268"/>
-      <c r="P53" s="383"/>
-    </row>
-    <row r="54" spans="1:16" s="254" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P53" s="384"/>
+    </row>
+    <row r="54" spans="1:16" s="254" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="276">
         <v>26</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="276">
         <v>27</v>
       </c>
@@ -9262,17 +9265,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="381">
+    <row r="56" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="383">
         <v>28</v>
       </c>
-      <c r="B56" s="384">
+      <c r="B56" s="394">
         <v>43908</v>
       </c>
-      <c r="D56" s="381" t="s">
+      <c r="D56" s="383" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="381" t="s">
+      <c r="E56" s="383" t="s">
         <v>165</v>
       </c>
       <c r="F56" s="257" t="s">
@@ -9302,18 +9305,18 @@
         <v>2662500</v>
       </c>
       <c r="O56" s="307"/>
-      <c r="P56" s="391" t="s">
+      <c r="P56" s="387" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="383"/>
-      <c r="B57" s="385"/>
+    <row r="57" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="384"/>
+      <c r="B57" s="395"/>
       <c r="C57" s="254" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="383"/>
-      <c r="E57" s="383"/>
+      <c r="D57" s="384"/>
+      <c r="E57" s="384"/>
       <c r="F57" s="265" t="s">
         <v>98</v>
       </c>
@@ -9343,20 +9346,20 @@
         <v>887250</v>
       </c>
       <c r="O57" s="308"/>
-      <c r="P57" s="393"/>
-    </row>
-    <row r="58" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="381">
+      <c r="P57" s="388"/>
+    </row>
+    <row r="58" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="383">
         <v>29</v>
       </c>
-      <c r="B58" s="384">
+      <c r="B58" s="394">
         <v>43909</v>
       </c>
-      <c r="C58" s="381" t="s">
+      <c r="C58" s="383" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="381"/>
-      <c r="E58" s="381"/>
+      <c r="D58" s="383"/>
+      <c r="E58" s="383"/>
       <c r="F58" s="269" t="s">
         <v>98</v>
       </c>
@@ -9384,16 +9387,16 @@
         <f t="shared" ref="O58:O61" si="16">L58</f>
         <v>268450.00000000006</v>
       </c>
-      <c r="P58" s="381" t="s">
+      <c r="P58" s="383" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="382"/>
-      <c r="B59" s="388"/>
-      <c r="C59" s="382"/>
-      <c r="D59" s="382"/>
-      <c r="E59" s="382"/>
+    <row r="59" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="386"/>
+      <c r="B59" s="417"/>
+      <c r="C59" s="386"/>
+      <c r="D59" s="386"/>
+      <c r="E59" s="386"/>
       <c r="F59" s="261" t="s">
         <v>100</v>
       </c>
@@ -9421,14 +9424,14 @@
         <f t="shared" si="16"/>
         <v>274350.00000000006</v>
       </c>
-      <c r="P59" s="382"/>
-    </row>
-    <row r="60" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="383"/>
-      <c r="B60" s="385"/>
-      <c r="C60" s="383"/>
-      <c r="D60" s="383"/>
-      <c r="E60" s="383"/>
+      <c r="P59" s="386"/>
+    </row>
+    <row r="60" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="384"/>
+      <c r="B60" s="395"/>
+      <c r="C60" s="384"/>
+      <c r="D60" s="384"/>
+      <c r="E60" s="384"/>
       <c r="F60" s="272" t="s">
         <v>107</v>
       </c>
@@ -9456,9 +9459,9 @@
         <f t="shared" si="16"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="P60" s="383"/>
-    </row>
-    <row r="61" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="P60" s="384"/>
+    </row>
+    <row r="61" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A61" s="276">
         <v>30</v>
       </c>
@@ -9501,20 +9504,20 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="391">
+    <row r="62" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="387">
         <v>31</v>
       </c>
-      <c r="B62" s="394">
+      <c r="B62" s="391">
         <v>43912</v>
       </c>
-      <c r="C62" s="391" t="s">
+      <c r="C62" s="387" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="391" t="s">
+      <c r="D62" s="387" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="391" t="s">
+      <c r="E62" s="387" t="s">
         <v>170</v>
       </c>
       <c r="F62" s="257" t="s">
@@ -9544,14 +9547,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O62" s="309"/>
-      <c r="P62" s="415"/>
-    </row>
-    <row r="63" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="392"/>
-      <c r="B63" s="395"/>
-      <c r="C63" s="392"/>
-      <c r="D63" s="392"/>
-      <c r="E63" s="392"/>
+      <c r="P62" s="385"/>
+    </row>
+    <row r="63" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="390"/>
+      <c r="B63" s="392"/>
+      <c r="C63" s="390"/>
+      <c r="D63" s="390"/>
+      <c r="E63" s="390"/>
       <c r="F63" s="261" t="s">
         <v>108</v>
       </c>
@@ -9579,14 +9582,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O63" s="310"/>
-      <c r="P63" s="415"/>
-    </row>
-    <row r="64" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="393"/>
-      <c r="B64" s="396"/>
-      <c r="C64" s="393"/>
-      <c r="D64" s="393"/>
-      <c r="E64" s="393"/>
+      <c r="P63" s="385"/>
+    </row>
+    <row r="64" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="388"/>
+      <c r="B64" s="393"/>
+      <c r="C64" s="388"/>
+      <c r="D64" s="388"/>
+      <c r="E64" s="388"/>
       <c r="F64" s="265" t="s">
         <v>131</v>
       </c>
@@ -9614,9 +9617,9 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O64" s="311"/>
-      <c r="P64" s="415"/>
-    </row>
-    <row r="65" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P64" s="385"/>
+    </row>
+    <row r="65" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="284">
         <v>32</v>
       </c>
@@ -9661,20 +9664,20 @@
       </c>
       <c r="P65" s="363"/>
     </row>
-    <row r="66" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="381">
+    <row r="66" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="383">
         <v>33</v>
       </c>
-      <c r="B66" s="384">
+      <c r="B66" s="394">
         <v>43913</v>
       </c>
-      <c r="C66" s="381" t="s">
+      <c r="C66" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="381" t="s">
+      <c r="D66" s="383" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="381" t="s">
+      <c r="E66" s="383" t="s">
         <v>145</v>
       </c>
       <c r="F66" s="257" t="s">
@@ -9706,12 +9709,12 @@
       </c>
       <c r="P66" s="366"/>
     </row>
-    <row r="67" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="382"/>
-      <c r="B67" s="388"/>
-      <c r="C67" s="382"/>
-      <c r="D67" s="382"/>
-      <c r="E67" s="382"/>
+    <row r="67" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="386"/>
+      <c r="B67" s="417"/>
+      <c r="C67" s="386"/>
+      <c r="D67" s="386"/>
+      <c r="E67" s="386"/>
       <c r="F67" s="261" t="s">
         <v>100</v>
       </c>
@@ -9741,12 +9744,12 @@
       </c>
       <c r="P67" s="368"/>
     </row>
-    <row r="68" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="383"/>
-      <c r="B68" s="385"/>
-      <c r="C68" s="383"/>
-      <c r="D68" s="383"/>
-      <c r="E68" s="383"/>
+    <row r="68" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="384"/>
+      <c r="B68" s="395"/>
+      <c r="C68" s="384"/>
+      <c r="D68" s="384"/>
+      <c r="E68" s="384"/>
       <c r="F68" s="265" t="s">
         <v>101</v>
       </c>
@@ -9776,20 +9779,20 @@
       </c>
       <c r="P68" s="367"/>
     </row>
-    <row r="69" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="381">
+    <row r="69" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="383">
         <v>34</v>
       </c>
-      <c r="B69" s="384">
+      <c r="B69" s="394">
         <v>43914</v>
       </c>
-      <c r="C69" s="381" t="s">
+      <c r="C69" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="381" t="s">
+      <c r="D69" s="383" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="381" t="s">
+      <c r="E69" s="383" t="s">
         <v>134</v>
       </c>
       <c r="F69" s="257" t="s">
@@ -9821,12 +9824,12 @@
       </c>
       <c r="P69" s="366"/>
     </row>
-    <row r="70" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="382"/>
-      <c r="B70" s="388"/>
-      <c r="C70" s="382"/>
-      <c r="D70" s="382"/>
-      <c r="E70" s="382"/>
+    <row r="70" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="386"/>
+      <c r="B70" s="417"/>
+      <c r="C70" s="386"/>
+      <c r="D70" s="386"/>
+      <c r="E70" s="386"/>
       <c r="F70" s="261" t="s">
         <v>100</v>
       </c>
@@ -9856,12 +9859,12 @@
       </c>
       <c r="P70" s="368"/>
     </row>
-    <row r="71" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="382"/>
-      <c r="B71" s="388"/>
-      <c r="C71" s="382"/>
-      <c r="D71" s="382"/>
-      <c r="E71" s="382"/>
+    <row r="71" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="386"/>
+      <c r="B71" s="417"/>
+      <c r="C71" s="386"/>
+      <c r="D71" s="386"/>
+      <c r="E71" s="386"/>
       <c r="F71" s="261" t="s">
         <v>108</v>
       </c>
@@ -9889,14 +9892,14 @@
         <f t="shared" si="19"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P71" s="473"/>
-    </row>
-    <row r="72" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="382"/>
-      <c r="B72" s="385"/>
-      <c r="C72" s="383"/>
-      <c r="D72" s="383"/>
-      <c r="E72" s="383"/>
+      <c r="P71" s="370"/>
+    </row>
+    <row r="72" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="386"/>
+      <c r="B72" s="395"/>
+      <c r="C72" s="384"/>
+      <c r="D72" s="384"/>
+      <c r="E72" s="384"/>
       <c r="F72" s="265" t="s">
         <v>107</v>
       </c>
@@ -9926,20 +9929,20 @@
       </c>
       <c r="P72" s="313"/>
     </row>
-    <row r="73" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="381">
+    <row r="73" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="383">
         <v>35</v>
       </c>
-      <c r="B73" s="384">
+      <c r="B73" s="394">
         <v>43913</v>
       </c>
-      <c r="C73" s="381" t="s">
+      <c r="C73" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="381" t="s">
+      <c r="D73" s="383" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="381" t="s">
+      <c r="E73" s="383" t="s">
         <v>156</v>
       </c>
       <c r="F73" s="257" t="s">
@@ -9971,12 +9974,12 @@
       </c>
       <c r="P73" s="366"/>
     </row>
-    <row r="74" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="383"/>
-      <c r="B74" s="385"/>
-      <c r="C74" s="383"/>
-      <c r="D74" s="383"/>
-      <c r="E74" s="383"/>
+    <row r="74" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="384"/>
+      <c r="B74" s="395"/>
+      <c r="C74" s="384"/>
+      <c r="D74" s="384"/>
+      <c r="E74" s="384"/>
       <c r="F74" s="265" t="s">
         <v>108</v>
       </c>
@@ -10006,7 +10009,7 @@
       </c>
       <c r="P74" s="367"/>
     </row>
-    <row r="75" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="278">
         <v>36</v>
       </c>
@@ -10049,7 +10052,7 @@
       </c>
       <c r="P75" s="364"/>
     </row>
-    <row r="76" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="278">
         <v>37</v>
       </c>
@@ -10092,20 +10095,20 @@
       </c>
       <c r="P76" s="362"/>
     </row>
-    <row r="77" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="381">
+    <row r="77" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="383">
         <v>38</v>
       </c>
-      <c r="B77" s="384">
+      <c r="B77" s="394">
         <v>43915</v>
       </c>
-      <c r="C77" s="381" t="s">
+      <c r="C77" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="381" t="s">
+      <c r="D77" s="383" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="381" t="s">
+      <c r="E77" s="383" t="s">
         <v>224</v>
       </c>
       <c r="F77" s="257" t="s">
@@ -10123,26 +10126,26 @@
       </c>
       <c r="J77" s="257"/>
       <c r="K77" s="259">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L77" s="260">
         <f t="shared" si="18"/>
-        <v>5460000</v>
+        <v>2730000</v>
       </c>
       <c r="M77" s="260"/>
       <c r="N77" s="260"/>
       <c r="O77" s="260">
         <f t="shared" si="19"/>
-        <v>5460000</v>
+        <v>2730000</v>
       </c>
       <c r="P77" s="366"/>
     </row>
-    <row r="78" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="382"/>
-      <c r="B78" s="388"/>
-      <c r="C78" s="382"/>
-      <c r="D78" s="382"/>
-      <c r="E78" s="382"/>
+    <row r="78" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="386"/>
+      <c r="B78" s="417"/>
+      <c r="C78" s="386"/>
+      <c r="D78" s="386"/>
+      <c r="E78" s="386"/>
       <c r="F78" s="261" t="s">
         <v>99</v>
       </c>
@@ -10157,27 +10160,27 @@
         <v>6360000</v>
       </c>
       <c r="J78" s="261"/>
-      <c r="K78" s="263">
-        <v>0</v>
+      <c r="K78" s="259">
+        <v>0.5</v>
       </c>
       <c r="L78" s="264">
         <f t="shared" si="18"/>
-        <v>6360000</v>
+        <v>3180000</v>
       </c>
       <c r="M78" s="264"/>
       <c r="N78" s="264"/>
       <c r="O78" s="264">
         <f t="shared" si="19"/>
-        <v>6360000</v>
+        <v>3180000</v>
       </c>
       <c r="P78" s="368"/>
     </row>
-    <row r="79" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="382"/>
-      <c r="B79" s="388"/>
-      <c r="C79" s="382"/>
-      <c r="D79" s="382"/>
-      <c r="E79" s="382"/>
+    <row r="79" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="386"/>
+      <c r="B79" s="417"/>
+      <c r="C79" s="386"/>
+      <c r="D79" s="386"/>
+      <c r="E79" s="386"/>
       <c r="F79" s="261" t="s">
         <v>100</v>
       </c>
@@ -10192,27 +10195,27 @@
         <v>5580000</v>
       </c>
       <c r="J79" s="261"/>
-      <c r="K79" s="263">
-        <v>0</v>
+      <c r="K79" s="259">
+        <v>0.5</v>
       </c>
       <c r="L79" s="264">
         <f t="shared" si="18"/>
-        <v>5580000</v>
+        <v>2790000</v>
       </c>
       <c r="M79" s="264"/>
       <c r="N79" s="264"/>
       <c r="O79" s="264">
         <f t="shared" si="19"/>
-        <v>5580000</v>
+        <v>2790000</v>
       </c>
       <c r="P79" s="368"/>
     </row>
-    <row r="80" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="382"/>
-      <c r="B80" s="388"/>
-      <c r="C80" s="382"/>
-      <c r="D80" s="382"/>
-      <c r="E80" s="382"/>
+    <row r="80" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="386"/>
+      <c r="B80" s="417"/>
+      <c r="C80" s="386"/>
+      <c r="D80" s="386"/>
+      <c r="E80" s="386"/>
       <c r="F80" s="261" t="s">
         <v>103</v>
       </c>
@@ -10227,27 +10230,27 @@
         <v>11400000</v>
       </c>
       <c r="J80" s="261"/>
-      <c r="K80" s="263">
-        <v>0</v>
+      <c r="K80" s="259">
+        <v>0.5</v>
       </c>
       <c r="L80" s="264">
         <f t="shared" si="18"/>
-        <v>11400000</v>
+        <v>5700000</v>
       </c>
       <c r="M80" s="264"/>
       <c r="N80" s="264"/>
       <c r="O80" s="264">
         <f t="shared" si="19"/>
-        <v>11400000</v>
+        <v>5700000</v>
       </c>
       <c r="P80" s="368"/>
     </row>
-    <row r="81" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="382"/>
-      <c r="B81" s="388"/>
-      <c r="C81" s="382"/>
-      <c r="D81" s="382"/>
-      <c r="E81" s="382"/>
+    <row r="81" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="386"/>
+      <c r="B81" s="417"/>
+      <c r="C81" s="386"/>
+      <c r="D81" s="386"/>
+      <c r="E81" s="386"/>
       <c r="F81" s="261" t="s">
         <v>108</v>
       </c>
@@ -10262,27 +10265,27 @@
         <v>17460000</v>
       </c>
       <c r="J81" s="261"/>
-      <c r="K81" s="263">
-        <v>0</v>
+      <c r="K81" s="259">
+        <v>0.5</v>
       </c>
       <c r="L81" s="264">
         <f t="shared" si="18"/>
-        <v>17460000</v>
+        <v>8730000</v>
       </c>
       <c r="M81" s="264"/>
       <c r="N81" s="264"/>
       <c r="O81" s="264">
         <f t="shared" si="19"/>
-        <v>17460000</v>
+        <v>8730000</v>
       </c>
       <c r="P81" s="368"/>
     </row>
-    <row r="82" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="382"/>
-      <c r="B82" s="388"/>
-      <c r="C82" s="382"/>
-      <c r="D82" s="382"/>
-      <c r="E82" s="382"/>
+    <row r="82" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="386"/>
+      <c r="B82" s="417"/>
+      <c r="C82" s="386"/>
+      <c r="D82" s="386"/>
+      <c r="E82" s="386"/>
       <c r="F82" s="261" t="s">
         <v>107</v>
       </c>
@@ -10297,27 +10300,27 @@
         <v>11640000</v>
       </c>
       <c r="J82" s="261"/>
-      <c r="K82" s="263">
-        <v>0</v>
+      <c r="K82" s="259">
+        <v>0.5</v>
       </c>
       <c r="L82" s="264">
         <f t="shared" si="18"/>
-        <v>11640000</v>
+        <v>5820000</v>
       </c>
       <c r="M82" s="264"/>
       <c r="N82" s="264"/>
       <c r="O82" s="264">
         <f t="shared" si="19"/>
-        <v>11640000</v>
+        <v>5820000</v>
       </c>
       <c r="P82" s="368"/>
     </row>
-    <row r="83" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="382"/>
-      <c r="B83" s="388"/>
-      <c r="C83" s="382"/>
-      <c r="D83" s="382"/>
-      <c r="E83" s="382"/>
+    <row r="83" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="386"/>
+      <c r="B83" s="417"/>
+      <c r="C83" s="386"/>
+      <c r="D83" s="386"/>
+      <c r="E83" s="386"/>
       <c r="F83" s="261" t="s">
         <v>101</v>
       </c>
@@ -10332,27 +10335,27 @@
         <v>39600000</v>
       </c>
       <c r="J83" s="261"/>
-      <c r="K83" s="263">
-        <v>0</v>
+      <c r="K83" s="259">
+        <v>0.5</v>
       </c>
       <c r="L83" s="264">
         <f t="shared" si="18"/>
-        <v>39600000</v>
+        <v>19800000</v>
       </c>
       <c r="M83" s="264"/>
       <c r="N83" s="264"/>
       <c r="O83" s="264">
         <f t="shared" si="19"/>
-        <v>39600000</v>
+        <v>19800000</v>
       </c>
       <c r="P83" s="368"/>
     </row>
-    <row r="84" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="382"/>
-      <c r="B84" s="388"/>
-      <c r="C84" s="382"/>
-      <c r="D84" s="382"/>
-      <c r="E84" s="382"/>
+    <row r="84" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="386"/>
+      <c r="B84" s="417"/>
+      <c r="C84" s="386"/>
+      <c r="D84" s="386"/>
+      <c r="E84" s="386"/>
       <c r="F84" s="261" t="s">
         <v>140</v>
       </c>
@@ -10367,27 +10370,27 @@
         <v>25200000</v>
       </c>
       <c r="J84" s="261"/>
-      <c r="K84" s="263">
-        <v>0</v>
+      <c r="K84" s="259">
+        <v>0.5</v>
       </c>
       <c r="L84" s="264">
         <f t="shared" si="18"/>
-        <v>25200000</v>
+        <v>12600000</v>
       </c>
       <c r="M84" s="264"/>
       <c r="N84" s="264"/>
       <c r="O84" s="264">
         <f t="shared" si="19"/>
-        <v>25200000</v>
+        <v>12600000</v>
       </c>
       <c r="P84" s="368"/>
     </row>
-    <row r="85" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="382"/>
-      <c r="B85" s="388"/>
-      <c r="C85" s="382"/>
-      <c r="D85" s="382"/>
-      <c r="E85" s="382"/>
+    <row r="85" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="386"/>
+      <c r="B85" s="417"/>
+      <c r="C85" s="386"/>
+      <c r="D85" s="386"/>
+      <c r="E85" s="386"/>
       <c r="F85" s="261" t="s">
         <v>102</v>
       </c>
@@ -10402,27 +10405,27 @@
         <v>16380000</v>
       </c>
       <c r="J85" s="261"/>
-      <c r="K85" s="263">
-        <v>0</v>
+      <c r="K85" s="259">
+        <v>0.5</v>
       </c>
       <c r="L85" s="264">
         <f t="shared" si="18"/>
-        <v>16380000</v>
+        <v>8190000</v>
       </c>
       <c r="M85" s="264"/>
       <c r="N85" s="264"/>
       <c r="O85" s="264">
         <f t="shared" si="19"/>
-        <v>16380000</v>
+        <v>8190000</v>
       </c>
       <c r="P85" s="368"/>
     </row>
-    <row r="86" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="383"/>
-      <c r="B86" s="385"/>
-      <c r="C86" s="383"/>
-      <c r="D86" s="383"/>
-      <c r="E86" s="383"/>
+    <row r="86" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="384"/>
+      <c r="B86" s="395"/>
+      <c r="C86" s="384"/>
+      <c r="D86" s="384"/>
+      <c r="E86" s="384"/>
       <c r="F86" s="265" t="s">
         <v>131</v>
       </c>
@@ -10437,35 +10440,35 @@
         <v>5460000</v>
       </c>
       <c r="J86" s="265"/>
-      <c r="K86" s="267">
-        <v>0</v>
+      <c r="K86" s="259">
+        <v>0.5</v>
       </c>
       <c r="L86" s="268">
         <f t="shared" si="18"/>
-        <v>5460000</v>
+        <v>2730000</v>
       </c>
       <c r="M86" s="268"/>
       <c r="N86" s="268"/>
       <c r="O86" s="268">
         <f t="shared" si="19"/>
-        <v>5460000</v>
+        <v>2730000</v>
       </c>
       <c r="P86" s="367"/>
     </row>
-    <row r="87" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="381">
+    <row r="87" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="383">
         <v>39</v>
       </c>
-      <c r="B87" s="384">
+      <c r="B87" s="394">
         <v>43915</v>
       </c>
-      <c r="C87" s="381" t="s">
+      <c r="C87" s="383" t="s">
         <v>211</v>
       </c>
-      <c r="D87" s="381" t="s">
+      <c r="D87" s="383" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="381" t="s">
+      <c r="E87" s="383" t="s">
         <v>156</v>
       </c>
       <c r="F87" s="269" t="s">
@@ -10497,12 +10500,12 @@
       </c>
       <c r="P87" s="365"/>
     </row>
-    <row r="88" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="383"/>
-      <c r="B88" s="385"/>
-      <c r="C88" s="383"/>
-      <c r="D88" s="383"/>
-      <c r="E88" s="383"/>
+    <row r="88" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="384"/>
+      <c r="B88" s="395"/>
+      <c r="C88" s="384"/>
+      <c r="D88" s="384"/>
+      <c r="E88" s="384"/>
       <c r="F88" s="265" t="s">
         <v>131</v>
       </c>
@@ -10532,7 +10535,7 @@
       </c>
       <c r="P88" s="367"/>
     </row>
-    <row r="89" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="272">
         <v>40</v>
       </c>
@@ -10573,18 +10576,18 @@
       <c r="O89" s="274"/>
       <c r="P89" s="365"/>
     </row>
-    <row r="90" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="381">
+    <row r="90" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="383">
         <v>41</v>
       </c>
-      <c r="B90" s="384">
+      <c r="B90" s="394">
         <v>43917</v>
       </c>
-      <c r="C90" s="381" t="s">
+      <c r="C90" s="383" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="297"/>
-      <c r="E90" s="381"/>
+      <c r="E90" s="383"/>
       <c r="F90" s="257" t="s">
         <v>103</v>
       </c>
@@ -10614,11 +10617,11 @@
       </c>
       <c r="P90" s="366"/>
     </row>
-    <row r="91" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="383"/>
-      <c r="B91" s="385"/>
-      <c r="C91" s="383"/>
-      <c r="E91" s="383"/>
+    <row r="91" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="384"/>
+      <c r="B91" s="395"/>
+      <c r="C91" s="384"/>
+      <c r="E91" s="384"/>
       <c r="F91" s="265" t="s">
         <v>108</v>
       </c>
@@ -10648,20 +10651,20 @@
       </c>
       <c r="P91" s="367"/>
     </row>
-    <row r="92" spans="1:16" s="254" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="381">
+    <row r="92" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="383">
         <v>42</v>
       </c>
-      <c r="B92" s="384">
+      <c r="B92" s="394">
         <v>43921</v>
       </c>
-      <c r="C92" s="381" t="s">
+      <c r="C92" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D92" s="381" t="s">
+      <c r="D92" s="383" t="s">
         <v>142</v>
       </c>
-      <c r="E92" s="381" t="s">
+      <c r="E92" s="383" t="s">
         <v>216</v>
       </c>
       <c r="F92" s="269" t="s">
@@ -10693,12 +10696,12 @@
       </c>
       <c r="P92" s="318"/>
     </row>
-    <row r="93" spans="1:16" s="254" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="383"/>
-      <c r="B93" s="385"/>
-      <c r="C93" s="383"/>
-      <c r="D93" s="383"/>
-      <c r="E93" s="383"/>
+    <row r="93" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="384"/>
+      <c r="B93" s="395"/>
+      <c r="C93" s="384"/>
+      <c r="D93" s="384"/>
+      <c r="E93" s="384"/>
       <c r="F93" s="265" t="s">
         <v>102</v>
       </c>
@@ -10728,15 +10731,15 @@
       </c>
       <c r="P93" s="367"/>
     </row>
-    <row r="94" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A94" s="417" t="s">
+    <row r="94" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A94" s="396" t="s">
         <v>218</v>
       </c>
-      <c r="B94" s="417"/>
-      <c r="C94" s="417"/>
-      <c r="D94" s="417"/>
-      <c r="E94" s="417"/>
-      <c r="F94" s="417"/>
+      <c r="B94" s="396"/>
+      <c r="C94" s="396"/>
+      <c r="D94" s="396"/>
+      <c r="E94" s="396"/>
+      <c r="F94" s="396"/>
       <c r="G94" s="319">
         <f>SUM(G9:G93)</f>
         <v>951</v>
@@ -10750,22 +10753,22 @@
       <c r="K94" s="321"/>
       <c r="L94" s="323">
         <f>SUM(L9:L93)</f>
-        <v>321323650</v>
+        <v>249053650</v>
       </c>
       <c r="M94" s="320"/>
       <c r="N94" s="320"/>
       <c r="O94" s="320"/>
-      <c r="P94" s="474"/>
-    </row>
-    <row r="95" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A95" s="416" t="s">
+      <c r="P94" s="371"/>
+    </row>
+    <row r="95" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A95" s="389" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="416"/>
-      <c r="C95" s="416"/>
-      <c r="D95" s="416"/>
-      <c r="E95" s="416"/>
-      <c r="F95" s="416"/>
+      <c r="B95" s="389"/>
+      <c r="C95" s="389"/>
+      <c r="D95" s="389"/>
+      <c r="E95" s="389"/>
+      <c r="F95" s="389"/>
       <c r="G95" s="319">
         <f>G94</f>
         <v>951</v>
@@ -10776,22 +10779,22 @@
       <c r="K95" s="321"/>
       <c r="L95" s="323">
         <f>L94</f>
-        <v>321323650</v>
+        <v>249053650</v>
       </c>
       <c r="M95" s="325"/>
       <c r="N95" s="325"/>
       <c r="O95" s="325"/>
       <c r="P95" s="369"/>
     </row>
-    <row r="96" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A96" s="416" t="s">
+    <row r="96" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A96" s="389" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="416"/>
-      <c r="C96" s="416"/>
-      <c r="D96" s="416"/>
-      <c r="E96" s="416"/>
-      <c r="F96" s="416"/>
+      <c r="B96" s="389"/>
+      <c r="C96" s="389"/>
+      <c r="D96" s="389"/>
+      <c r="E96" s="389"/>
+      <c r="F96" s="389"/>
       <c r="G96" s="326" t="s">
         <v>141</v>
       </c>
@@ -10808,15 +10811,15 @@
       <c r="O96" s="325"/>
       <c r="P96" s="369"/>
     </row>
-    <row r="97" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A97" s="416" t="s">
+    <row r="97" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A97" s="389" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="416"/>
-      <c r="C97" s="416"/>
-      <c r="D97" s="416"/>
-      <c r="E97" s="416"/>
-      <c r="F97" s="416"/>
+      <c r="B97" s="389"/>
+      <c r="C97" s="389"/>
+      <c r="D97" s="389"/>
+      <c r="E97" s="389"/>
+      <c r="F97" s="389"/>
       <c r="G97" s="325"/>
       <c r="H97" s="325"/>
       <c r="I97" s="320"/>
@@ -10831,15 +10834,15 @@
       <c r="O97" s="325"/>
       <c r="P97" s="369"/>
     </row>
-    <row r="98" spans="1:16" s="324" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A98" s="416" t="s">
+    <row r="98" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A98" s="389" t="s">
         <v>222</v>
       </c>
-      <c r="B98" s="416"/>
-      <c r="C98" s="416"/>
-      <c r="D98" s="416"/>
-      <c r="E98" s="416"/>
-      <c r="F98" s="416"/>
+      <c r="B98" s="389"/>
+      <c r="C98" s="389"/>
+      <c r="D98" s="389"/>
+      <c r="E98" s="389"/>
+      <c r="F98" s="389"/>
       <c r="G98" s="325"/>
       <c r="H98" s="325"/>
       <c r="I98" s="320"/>
@@ -10847,37 +10850,134 @@
       <c r="K98" s="321"/>
       <c r="L98" s="323">
         <f>SUM(O9:O93)</f>
-        <v>264073150</v>
+        <v>191803150</v>
       </c>
       <c r="M98" s="325"/>
       <c r="N98" s="325"/>
       <c r="O98" s="325"/>
       <c r="P98" s="369"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="327"/>
-      <c r="C99" s="390"/>
-      <c r="D99" s="390"/>
+      <c r="C99" s="420"/>
+      <c r="D99" s="420"/>
       <c r="L99" s="328"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L100" s="328"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L101" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="P62:P64"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="P50:P53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="D77:D86"/>
+    <mergeCell ref="E77:E86"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="P58:P60"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="P40:P46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="A97:F97"/>
     <mergeCell ref="A98:F98"/>
@@ -10902,113 +11002,16 @@
     <mergeCell ref="A94:F94"/>
     <mergeCell ref="A95:F95"/>
     <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="P40:P46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="D77:D86"/>
-    <mergeCell ref="E77:E86"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="P50:P53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="P62:P64"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="E58:E60"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11019,21 +11022,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="79" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="44"/>
+    <col min="1" max="1" width="9.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -11046,7 +11049,7 @@
       <c r="F1" s="53"/>
       <c r="G1" s="53"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
@@ -11068,29 +11071,29 @@
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="418" t="s">
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="421" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="418"/>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="418"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="421"/>
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="419" t="s">
+      <c r="A5" s="422" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="419"/>
-      <c r="C5" s="419"/>
-      <c r="D5" s="419"/>
-      <c r="E5" s="419"/>
+      <c r="B5" s="422"/>
+      <c r="C5" s="422"/>
+      <c r="D5" s="422"/>
+      <c r="E5" s="422"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" s="219" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="219" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="224"/>
       <c r="B6" s="224"/>
       <c r="C6" s="224"/>
@@ -11099,7 +11102,7 @@
       <c r="F6" s="221"/>
       <c r="G6" s="221"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="222" t="s">
         <v>72</v>
       </c>
@@ -11118,7 +11121,7 @@
       <c r="F7" s="220"/>
       <c r="G7" s="220"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="226">
         <v>1</v>
       </c>
@@ -11131,13 +11134,13 @@
       </c>
       <c r="D8" s="228">
         <f>'DOANH SỐ'!L94</f>
-        <v>321323650</v>
+        <v>249053650</v>
       </c>
       <c r="E8" s="227"/>
       <c r="F8" s="218"/>
       <c r="G8" s="218"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="229">
         <v>2</v>
       </c>
@@ -11153,7 +11156,7 @@
       <c r="F9" s="218"/>
       <c r="G9" s="218"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="229">
         <v>3</v>
       </c>
@@ -11169,7 +11172,7 @@
       <c r="F10" s="218"/>
       <c r="G10" s="218"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="229">
         <v>4</v>
       </c>
@@ -11185,7 +11188,7 @@
       <c r="F11" s="218"/>
       <c r="G11" s="218"/>
     </row>
-    <row r="12" spans="1:7" s="219" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="219" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="145">
         <v>5</v>
       </c>
@@ -11201,7 +11204,7 @@
       <c r="F12" s="237"/>
       <c r="G12" s="237"/>
     </row>
-    <row r="13" spans="1:7" s="219" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="219" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="232"/>
       <c r="B13" s="234" t="s">
         <v>231</v>
@@ -11209,13 +11212,13 @@
       <c r="C13" s="235"/>
       <c r="D13" s="236">
         <f>D8-D9-D10-D11-D12</f>
-        <v>212299350</v>
+        <v>140029350</v>
       </c>
       <c r="E13" s="233"/>
       <c r="F13" s="218"/>
       <c r="G13" s="218"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -11224,7 +11227,7 @@
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -11362,7 +11365,7 @@
       </c>
       <c r="E24" s="82"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
       <c r="B25" s="77" t="s">
         <v>79</v>
@@ -11378,10 +11381,10 @@
       <c r="E25" s="76"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="420" t="s">
+      <c r="A26" s="423" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="420"/>
+      <c r="B26" s="423"/>
       <c r="C26" s="76"/>
       <c r="D26" s="70">
         <f>C25-D25</f>
@@ -11428,23 +11431,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="87"/>
-    <col min="5" max="5" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="87" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="87" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="87" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="87"/>
-    <col min="13" max="13" width="11.44140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="87"/>
+    <col min="1" max="1" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="87"/>
+    <col min="5" max="5" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="87" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="87" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="87" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="87" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="87"/>
+    <col min="13" max="13" width="11.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -11455,7 +11458,7 @@
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
@@ -11466,7 +11469,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90"/>
@@ -11475,21 +11478,21 @@
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="428" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="427" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="428"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="428"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="428"/>
-      <c r="G4" s="428"/>
-      <c r="H4" s="428"/>
-      <c r="I4" s="428"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="427"/>
+      <c r="D4" s="427"/>
+      <c r="E4" s="427"/>
+      <c r="F4" s="427"/>
+      <c r="G4" s="427"/>
+      <c r="H4" s="427"/>
+      <c r="I4" s="427"/>
       <c r="J4" s="91"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -11501,34 +11504,34 @@
       <c r="I5" s="92"/>
       <c r="J5" s="91"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="429" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="428" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="430" t="s">
+      <c r="B6" s="429" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="429" t="s">
+      <c r="C6" s="428" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="431" t="s">
+      <c r="D6" s="430" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="431"/>
-      <c r="F6" s="431"/>
-      <c r="G6" s="431"/>
-      <c r="H6" s="432"/>
-      <c r="I6" s="429" t="s">
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="428" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="426" t="s">
+      <c r="J6" s="425" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="429"/>
-      <c r="B7" s="430"/>
-      <c r="C7" s="429"/>
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="428"/>
+      <c r="B7" s="429"/>
+      <c r="C7" s="428"/>
       <c r="D7" s="93" t="s">
         <v>92</v>
       </c>
@@ -11544,10 +11547,10 @@
       <c r="H7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="429"/>
-      <c r="J7" s="427"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="428"/>
+      <c r="J7" s="426"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
         <v>1097</v>
       </c>
@@ -11579,12 +11582,12 @@
       </c>
       <c r="J8" s="150"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="137"/>
-      <c r="B9" s="425" t="s">
+      <c r="B9" s="424" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="425"/>
+      <c r="C9" s="424"/>
       <c r="D9" s="137"/>
       <c r="E9" s="137"/>
       <c r="F9" s="137"/>
@@ -11599,56 +11602,61 @@
       </c>
       <c r="J9" s="154"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="421" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="432" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="422"/>
-      <c r="C10" s="422"/>
-      <c r="D10" s="422"/>
-      <c r="E10" s="422"/>
-      <c r="F10" s="422"/>
-      <c r="G10" s="422"/>
-      <c r="H10" s="422"/>
-      <c r="I10" s="423"/>
+      <c r="B10" s="433"/>
+      <c r="C10" s="433"/>
+      <c r="D10" s="433"/>
+      <c r="E10" s="433"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="433"/>
+      <c r="I10" s="434"/>
       <c r="J10" s="155">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="156"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="424" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="424"/>
-      <c r="C12" s="424"/>
-      <c r="E12" s="424" t="s">
+      <c r="B12" s="435"/>
+      <c r="C12" s="435"/>
+      <c r="E12" s="435" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="424"/>
-      <c r="G12" s="424"/>
-      <c r="H12" s="424"/>
-      <c r="I12" s="424"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="424" t="s">
+      <c r="F12" s="435"/>
+      <c r="G12" s="435"/>
+      <c r="H12" s="435"/>
+      <c r="I12" s="435"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="435" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="424"/>
-      <c r="C17" s="424"/>
-      <c r="E17" s="424" t="s">
+      <c r="B17" s="435"/>
+      <c r="C17" s="435"/>
+      <c r="E17" s="435" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="424"/>
-      <c r="G17" s="424"/>
-      <c r="H17" s="424"/>
-      <c r="I17" s="424"/>
+      <c r="F17" s="435"/>
+      <c r="G17" s="435"/>
+      <c r="H17" s="435"/>
+      <c r="I17" s="435"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -11657,11 +11665,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11676,23 +11679,23 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="200" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="87"/>
-    <col min="5" max="5" width="9.44140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="87" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="87" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="87" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="87"/>
-    <col min="13" max="13" width="11.44140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="87"/>
+    <col min="1" max="1" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="200" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="87"/>
+    <col min="5" max="5" width="9.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="87" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="87" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="87" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="87" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="87"/>
+    <col min="13" max="13" width="11.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -11703,7 +11706,7 @@
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
@@ -11714,7 +11717,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="89"/>
       <c r="B3" s="194"/>
       <c r="C3" s="90"/>
@@ -11723,21 +11726,21 @@
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="428" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="427" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="428"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="428"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="428"/>
-      <c r="G4" s="428"/>
-      <c r="H4" s="428"/>
-      <c r="I4" s="428"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="427"/>
+      <c r="D4" s="427"/>
+      <c r="E4" s="427"/>
+      <c r="F4" s="427"/>
+      <c r="G4" s="427"/>
+      <c r="H4" s="427"/>
+      <c r="I4" s="427"/>
       <c r="J4" s="91"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="195"/>
       <c r="C5" s="92"/>
@@ -11749,34 +11752,34 @@
       <c r="I5" s="92"/>
       <c r="J5" s="91"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="429" t="s">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="428" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="442" t="s">
+      <c r="B6" s="436" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="429" t="s">
+      <c r="C6" s="428" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="431" t="s">
+      <c r="D6" s="430" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="431"/>
-      <c r="F6" s="431"/>
-      <c r="G6" s="431"/>
-      <c r="H6" s="432"/>
-      <c r="I6" s="429" t="s">
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="428" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="426" t="s">
+      <c r="J6" s="425" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="429"/>
-      <c r="B7" s="442"/>
-      <c r="C7" s="429"/>
+    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="428"/>
+      <c r="B7" s="436"/>
+      <c r="C7" s="428"/>
       <c r="D7" s="93" t="s">
         <v>92</v>
       </c>
@@ -11792,10 +11795,10 @@
       <c r="H7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="429"/>
-      <c r="J7" s="427"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="428"/>
+      <c r="J7" s="426"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="95">
         <v>1057</v>
       </c>
@@ -11827,7 +11830,7 @@
       </c>
       <c r="J8" s="101"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="95">
         <v>1058</v>
       </c>
@@ -11859,14 +11862,14 @@
       </c>
       <c r="J9" s="102"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="436">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="440">
         <v>1060</v>
       </c>
-      <c r="B10" s="439">
+      <c r="B10" s="443">
         <v>43900</v>
       </c>
-      <c r="C10" s="436" t="s">
+      <c r="C10" s="440" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="103" t="s">
@@ -11891,10 +11894,10 @@
       </c>
       <c r="J10" s="102"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="437"/>
-      <c r="B11" s="440"/>
-      <c r="C11" s="437"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="441"/>
+      <c r="B11" s="444"/>
+      <c r="C11" s="441"/>
       <c r="D11" s="108" t="s">
         <v>100</v>
       </c>
@@ -11918,10 +11921,10 @@
       <c r="J11" s="102"/>
       <c r="M11" s="156"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="438"/>
-      <c r="B12" s="441"/>
-      <c r="C12" s="438"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="442"/>
+      <c r="B12" s="445"/>
+      <c r="C12" s="442"/>
       <c r="D12" s="113" t="s">
         <v>101</v>
       </c>
@@ -11945,7 +11948,7 @@
       <c r="J12" s="102"/>
       <c r="M12" s="156"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="95">
         <v>1064</v>
       </c>
@@ -11977,7 +11980,7 @@
       </c>
       <c r="J13" s="102"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="95">
         <v>1065</v>
       </c>
@@ -12009,7 +12012,7 @@
       </c>
       <c r="J14" s="102"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="95">
         <v>1068</v>
       </c>
@@ -12041,7 +12044,7 @@
       </c>
       <c r="J15" s="102"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="95">
         <v>1075</v>
       </c>
@@ -12073,7 +12076,7 @@
       </c>
       <c r="J16" s="102"/>
     </row>
-    <row r="17" spans="1:10" s="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="201">
         <v>1078</v>
       </c>
@@ -12105,7 +12108,7 @@
       </c>
       <c r="J17" s="123"/>
     </row>
-    <row r="18" spans="1:10" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="203"/>
       <c r="B18" s="206"/>
       <c r="C18" s="203"/>
@@ -12131,7 +12134,7 @@
       </c>
       <c r="J18" s="123"/>
     </row>
-    <row r="19" spans="1:10" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="202">
         <v>1080</v>
       </c>
@@ -12161,7 +12164,7 @@
       </c>
       <c r="J19" s="123"/>
     </row>
-    <row r="20" spans="1:10" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="203"/>
       <c r="B20" s="206"/>
       <c r="C20" s="203"/>
@@ -12187,7 +12190,7 @@
       </c>
       <c r="J20" s="123"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="95">
         <v>1079</v>
       </c>
@@ -12219,14 +12222,14 @@
       </c>
       <c r="J21" s="102"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="436">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="440">
         <v>1086</v>
       </c>
-      <c r="B22" s="439">
+      <c r="B22" s="443">
         <v>43909</v>
       </c>
-      <c r="C22" s="436" t="s">
+      <c r="C22" s="440" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="130" t="s">
@@ -12251,10 +12254,10 @@
       </c>
       <c r="J22" s="102"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="437"/>
-      <c r="B23" s="440"/>
-      <c r="C23" s="437"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="441"/>
+      <c r="B23" s="444"/>
+      <c r="C23" s="441"/>
       <c r="D23" s="130" t="s">
         <v>100</v>
       </c>
@@ -12277,10 +12280,10 @@
       </c>
       <c r="J23" s="102"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="438"/>
-      <c r="B24" s="441"/>
-      <c r="C24" s="438"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="442"/>
+      <c r="B24" s="445"/>
+      <c r="C24" s="442"/>
       <c r="D24" s="130" t="s">
         <v>107</v>
       </c>
@@ -12303,7 +12306,7 @@
       </c>
       <c r="J24" s="135"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="95">
         <v>1088</v>
       </c>
@@ -12386,7 +12389,7 @@
       <c r="I28" s="117"/>
       <c r="J28" s="102"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="140"/>
       <c r="B29" s="197"/>
       <c r="C29" s="95" t="s">
@@ -12408,7 +12411,7 @@
       </c>
       <c r="J29" s="102"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="108"/>
       <c r="B30" s="198"/>
       <c r="C30" s="95" t="s">
@@ -12430,7 +12433,7 @@
       </c>
       <c r="J30" s="102"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="108"/>
       <c r="B31" s="198"/>
       <c r="C31" s="95" t="s">
@@ -12452,7 +12455,7 @@
       </c>
       <c r="J31" s="102"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="108"/>
       <c r="B32" s="198"/>
       <c r="C32" s="95" t="s">
@@ -12474,7 +12477,7 @@
       </c>
       <c r="J32" s="102"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="108"/>
       <c r="B33" s="198"/>
       <c r="C33" s="95" t="s">
@@ -12496,7 +12499,7 @@
       </c>
       <c r="J33" s="102"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="145"/>
       <c r="B34" s="199"/>
       <c r="C34" s="95" t="s">
@@ -12518,14 +12521,14 @@
       </c>
       <c r="J34" s="135"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="436">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="440">
         <v>1122</v>
       </c>
-      <c r="B35" s="439">
+      <c r="B35" s="443">
         <v>43917</v>
       </c>
-      <c r="C35" s="436" t="s">
+      <c r="C35" s="440" t="s">
         <v>106</v>
       </c>
       <c r="D35" s="96" t="s">
@@ -12550,10 +12553,10 @@
       </c>
       <c r="J35" s="150"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="438"/>
-      <c r="B36" s="441"/>
-      <c r="C36" s="438"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="442"/>
+      <c r="B36" s="445"/>
+      <c r="C36" s="442"/>
       <c r="D36" s="96" t="s">
         <v>108</v>
       </c>
@@ -12576,44 +12579,44 @@
       </c>
       <c r="J36" s="150"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="433" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="437" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="434"/>
-      <c r="C37" s="434"/>
-      <c r="D37" s="434"/>
-      <c r="E37" s="434"/>
-      <c r="F37" s="434"/>
-      <c r="G37" s="434"/>
-      <c r="H37" s="434"/>
-      <c r="I37" s="435"/>
+      <c r="B37" s="438"/>
+      <c r="C37" s="438"/>
+      <c r="D37" s="438"/>
+      <c r="E37" s="438"/>
+      <c r="F37" s="438"/>
+      <c r="G37" s="438"/>
+      <c r="H37" s="438"/>
+      <c r="I37" s="439"/>
       <c r="J37" s="151">
         <v>7000000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="433" t="s">
+    <row r="38" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="437" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="434"/>
-      <c r="C38" s="434"/>
-      <c r="D38" s="434"/>
-      <c r="E38" s="434"/>
-      <c r="F38" s="434"/>
-      <c r="G38" s="434"/>
-      <c r="H38" s="434"/>
-      <c r="I38" s="435"/>
+      <c r="B38" s="438"/>
+      <c r="C38" s="438"/>
+      <c r="D38" s="438"/>
+      <c r="E38" s="438"/>
+      <c r="F38" s="438"/>
+      <c r="G38" s="438"/>
+      <c r="H38" s="438"/>
+      <c r="I38" s="439"/>
       <c r="J38" s="151">
         <v>2000000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="137"/>
-      <c r="B39" s="425" t="s">
+      <c r="B39" s="424" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="425"/>
+      <c r="C39" s="424"/>
       <c r="D39" s="137"/>
       <c r="E39" s="137"/>
       <c r="F39" s="137"/>
@@ -12631,62 +12634,61 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="421" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="432" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="422"/>
-      <c r="C40" s="422"/>
-      <c r="D40" s="422"/>
-      <c r="E40" s="422"/>
-      <c r="F40" s="422"/>
-      <c r="G40" s="422"/>
-      <c r="H40" s="422"/>
-      <c r="I40" s="423"/>
+      <c r="B40" s="433"/>
+      <c r="C40" s="433"/>
+      <c r="D40" s="433"/>
+      <c r="E40" s="433"/>
+      <c r="F40" s="433"/>
+      <c r="G40" s="433"/>
+      <c r="H40" s="433"/>
+      <c r="I40" s="434"/>
       <c r="J40" s="155">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G41" s="156"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="424" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="424"/>
-      <c r="C42" s="424"/>
-      <c r="E42" s="424" t="s">
+      <c r="B42" s="435"/>
+      <c r="C42" s="435"/>
+      <c r="E42" s="435" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="424"/>
-      <c r="G42" s="424"/>
-      <c r="H42" s="424"/>
-      <c r="I42" s="424"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="424" t="s">
+      <c r="F42" s="435"/>
+      <c r="G42" s="435"/>
+      <c r="H42" s="435"/>
+      <c r="I42" s="435"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="435" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="424"/>
-      <c r="C47" s="424"/>
-      <c r="E47" s="424" t="s">
+      <c r="B47" s="435"/>
+      <c r="C47" s="435"/>
+      <c r="E47" s="435" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="424"/>
-      <c r="G47" s="424"/>
-      <c r="H47" s="424"/>
-      <c r="I47" s="424"/>
+      <c r="F47" s="435"/>
+      <c r="G47" s="435"/>
+      <c r="H47" s="435"/>
+      <c r="I47" s="435"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="B39:C39"/>
@@ -12700,11 +12702,12 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.46" bottom="0.48" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12719,872 +12722,872 @@
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="163" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="163" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="163" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="163" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="163" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="163" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="163" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="163" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="163" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="163" customWidth="1"/>
-    <col min="9" max="10" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="163" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" style="163" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="163" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="163" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="163" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="163" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="163" bestFit="1" customWidth="1"/>
     <col min="13" max="256" width="9" style="163"/>
-    <col min="257" max="257" width="5.33203125" style="163" customWidth="1"/>
-    <col min="258" max="258" width="14.33203125" style="163" customWidth="1"/>
-    <col min="259" max="259" width="9.6640625" style="163" customWidth="1"/>
-    <col min="260" max="260" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="5.28515625" style="163" customWidth="1"/>
+    <col min="258" max="258" width="14.28515625" style="163" customWidth="1"/>
+    <col min="259" max="259" width="9.7109375" style="163" customWidth="1"/>
+    <col min="260" max="260" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="6" style="163" customWidth="1"/>
-    <col min="262" max="262" width="12.88671875" style="163" customWidth="1"/>
-    <col min="263" max="263" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="12.109375" style="163" customWidth="1"/>
-    <col min="266" max="266" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="10.44140625" style="163" customWidth="1"/>
-    <col min="268" max="268" width="5.109375" style="163" customWidth="1"/>
+    <col min="262" max="262" width="12.85546875" style="163" customWidth="1"/>
+    <col min="263" max="263" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="12.140625" style="163" customWidth="1"/>
+    <col min="266" max="266" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="10.42578125" style="163" customWidth="1"/>
+    <col min="268" max="268" width="5.140625" style="163" customWidth="1"/>
     <col min="269" max="512" width="9" style="163"/>
-    <col min="513" max="513" width="5.33203125" style="163" customWidth="1"/>
-    <col min="514" max="514" width="14.33203125" style="163" customWidth="1"/>
-    <col min="515" max="515" width="9.6640625" style="163" customWidth="1"/>
-    <col min="516" max="516" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="5.28515625" style="163" customWidth="1"/>
+    <col min="514" max="514" width="14.28515625" style="163" customWidth="1"/>
+    <col min="515" max="515" width="9.7109375" style="163" customWidth="1"/>
+    <col min="516" max="516" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="517" max="517" width="6" style="163" customWidth="1"/>
-    <col min="518" max="518" width="12.88671875" style="163" customWidth="1"/>
-    <col min="519" max="519" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="12.109375" style="163" customWidth="1"/>
-    <col min="522" max="522" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="10.44140625" style="163" customWidth="1"/>
-    <col min="524" max="524" width="5.109375" style="163" customWidth="1"/>
+    <col min="518" max="518" width="12.85546875" style="163" customWidth="1"/>
+    <col min="519" max="519" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="12.140625" style="163" customWidth="1"/>
+    <col min="522" max="522" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="10.42578125" style="163" customWidth="1"/>
+    <col min="524" max="524" width="5.140625" style="163" customWidth="1"/>
     <col min="525" max="768" width="9" style="163"/>
-    <col min="769" max="769" width="5.33203125" style="163" customWidth="1"/>
-    <col min="770" max="770" width="14.33203125" style="163" customWidth="1"/>
-    <col min="771" max="771" width="9.6640625" style="163" customWidth="1"/>
-    <col min="772" max="772" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="5.28515625" style="163" customWidth="1"/>
+    <col min="770" max="770" width="14.28515625" style="163" customWidth="1"/>
+    <col min="771" max="771" width="9.7109375" style="163" customWidth="1"/>
+    <col min="772" max="772" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="6" style="163" customWidth="1"/>
-    <col min="774" max="774" width="12.88671875" style="163" customWidth="1"/>
-    <col min="775" max="775" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="12.109375" style="163" customWidth="1"/>
-    <col min="778" max="778" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="10.44140625" style="163" customWidth="1"/>
-    <col min="780" max="780" width="5.109375" style="163" customWidth="1"/>
+    <col min="774" max="774" width="12.85546875" style="163" customWidth="1"/>
+    <col min="775" max="775" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="12.140625" style="163" customWidth="1"/>
+    <col min="778" max="778" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="10.42578125" style="163" customWidth="1"/>
+    <col min="780" max="780" width="5.140625" style="163" customWidth="1"/>
     <col min="781" max="1024" width="9" style="163"/>
-    <col min="1025" max="1025" width="5.33203125" style="163" customWidth="1"/>
-    <col min="1026" max="1026" width="14.33203125" style="163" customWidth="1"/>
-    <col min="1027" max="1027" width="9.6640625" style="163" customWidth="1"/>
-    <col min="1028" max="1028" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="5.28515625" style="163" customWidth="1"/>
+    <col min="1026" max="1026" width="14.28515625" style="163" customWidth="1"/>
+    <col min="1027" max="1027" width="9.7109375" style="163" customWidth="1"/>
+    <col min="1028" max="1028" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="1029" max="1029" width="6" style="163" customWidth="1"/>
-    <col min="1030" max="1030" width="12.88671875" style="163" customWidth="1"/>
-    <col min="1031" max="1031" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="12.109375" style="163" customWidth="1"/>
-    <col min="1034" max="1034" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="10.44140625" style="163" customWidth="1"/>
-    <col min="1036" max="1036" width="5.109375" style="163" customWidth="1"/>
+    <col min="1030" max="1030" width="12.85546875" style="163" customWidth="1"/>
+    <col min="1031" max="1031" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="12.140625" style="163" customWidth="1"/>
+    <col min="1034" max="1034" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="10.42578125" style="163" customWidth="1"/>
+    <col min="1036" max="1036" width="5.140625" style="163" customWidth="1"/>
     <col min="1037" max="1280" width="9" style="163"/>
-    <col min="1281" max="1281" width="5.33203125" style="163" customWidth="1"/>
-    <col min="1282" max="1282" width="14.33203125" style="163" customWidth="1"/>
-    <col min="1283" max="1283" width="9.6640625" style="163" customWidth="1"/>
-    <col min="1284" max="1284" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="5.28515625" style="163" customWidth="1"/>
+    <col min="1282" max="1282" width="14.28515625" style="163" customWidth="1"/>
+    <col min="1283" max="1283" width="9.7109375" style="163" customWidth="1"/>
+    <col min="1284" max="1284" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="1285" max="1285" width="6" style="163" customWidth="1"/>
-    <col min="1286" max="1286" width="12.88671875" style="163" customWidth="1"/>
-    <col min="1287" max="1287" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="12.109375" style="163" customWidth="1"/>
-    <col min="1290" max="1290" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="10.44140625" style="163" customWidth="1"/>
-    <col min="1292" max="1292" width="5.109375" style="163" customWidth="1"/>
+    <col min="1286" max="1286" width="12.85546875" style="163" customWidth="1"/>
+    <col min="1287" max="1287" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="12.140625" style="163" customWidth="1"/>
+    <col min="1290" max="1290" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="10.42578125" style="163" customWidth="1"/>
+    <col min="1292" max="1292" width="5.140625" style="163" customWidth="1"/>
     <col min="1293" max="1536" width="9" style="163"/>
-    <col min="1537" max="1537" width="5.33203125" style="163" customWidth="1"/>
-    <col min="1538" max="1538" width="14.33203125" style="163" customWidth="1"/>
-    <col min="1539" max="1539" width="9.6640625" style="163" customWidth="1"/>
-    <col min="1540" max="1540" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="5.28515625" style="163" customWidth="1"/>
+    <col min="1538" max="1538" width="14.28515625" style="163" customWidth="1"/>
+    <col min="1539" max="1539" width="9.7109375" style="163" customWidth="1"/>
+    <col min="1540" max="1540" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="1541" max="1541" width="6" style="163" customWidth="1"/>
-    <col min="1542" max="1542" width="12.88671875" style="163" customWidth="1"/>
-    <col min="1543" max="1543" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="12.109375" style="163" customWidth="1"/>
-    <col min="1546" max="1546" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="10.44140625" style="163" customWidth="1"/>
-    <col min="1548" max="1548" width="5.109375" style="163" customWidth="1"/>
+    <col min="1542" max="1542" width="12.85546875" style="163" customWidth="1"/>
+    <col min="1543" max="1543" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="12.140625" style="163" customWidth="1"/>
+    <col min="1546" max="1546" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="10.42578125" style="163" customWidth="1"/>
+    <col min="1548" max="1548" width="5.140625" style="163" customWidth="1"/>
     <col min="1549" max="1792" width="9" style="163"/>
-    <col min="1793" max="1793" width="5.33203125" style="163" customWidth="1"/>
-    <col min="1794" max="1794" width="14.33203125" style="163" customWidth="1"/>
-    <col min="1795" max="1795" width="9.6640625" style="163" customWidth="1"/>
-    <col min="1796" max="1796" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="5.28515625" style="163" customWidth="1"/>
+    <col min="1794" max="1794" width="14.28515625" style="163" customWidth="1"/>
+    <col min="1795" max="1795" width="9.7109375" style="163" customWidth="1"/>
+    <col min="1796" max="1796" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="1797" max="1797" width="6" style="163" customWidth="1"/>
-    <col min="1798" max="1798" width="12.88671875" style="163" customWidth="1"/>
-    <col min="1799" max="1799" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="12.109375" style="163" customWidth="1"/>
-    <col min="1802" max="1802" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="10.44140625" style="163" customWidth="1"/>
-    <col min="1804" max="1804" width="5.109375" style="163" customWidth="1"/>
+    <col min="1798" max="1798" width="12.85546875" style="163" customWidth="1"/>
+    <col min="1799" max="1799" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="12.140625" style="163" customWidth="1"/>
+    <col min="1802" max="1802" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="10.42578125" style="163" customWidth="1"/>
+    <col min="1804" max="1804" width="5.140625" style="163" customWidth="1"/>
     <col min="1805" max="2048" width="9" style="163"/>
-    <col min="2049" max="2049" width="5.33203125" style="163" customWidth="1"/>
-    <col min="2050" max="2050" width="14.33203125" style="163" customWidth="1"/>
-    <col min="2051" max="2051" width="9.6640625" style="163" customWidth="1"/>
-    <col min="2052" max="2052" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="5.28515625" style="163" customWidth="1"/>
+    <col min="2050" max="2050" width="14.28515625" style="163" customWidth="1"/>
+    <col min="2051" max="2051" width="9.7109375" style="163" customWidth="1"/>
+    <col min="2052" max="2052" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="2053" max="2053" width="6" style="163" customWidth="1"/>
-    <col min="2054" max="2054" width="12.88671875" style="163" customWidth="1"/>
-    <col min="2055" max="2055" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="12.109375" style="163" customWidth="1"/>
-    <col min="2058" max="2058" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="10.44140625" style="163" customWidth="1"/>
-    <col min="2060" max="2060" width="5.109375" style="163" customWidth="1"/>
+    <col min="2054" max="2054" width="12.85546875" style="163" customWidth="1"/>
+    <col min="2055" max="2055" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="12.140625" style="163" customWidth="1"/>
+    <col min="2058" max="2058" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="10.42578125" style="163" customWidth="1"/>
+    <col min="2060" max="2060" width="5.140625" style="163" customWidth="1"/>
     <col min="2061" max="2304" width="9" style="163"/>
-    <col min="2305" max="2305" width="5.33203125" style="163" customWidth="1"/>
-    <col min="2306" max="2306" width="14.33203125" style="163" customWidth="1"/>
-    <col min="2307" max="2307" width="9.6640625" style="163" customWidth="1"/>
-    <col min="2308" max="2308" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="5.28515625" style="163" customWidth="1"/>
+    <col min="2306" max="2306" width="14.28515625" style="163" customWidth="1"/>
+    <col min="2307" max="2307" width="9.7109375" style="163" customWidth="1"/>
+    <col min="2308" max="2308" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="2309" max="2309" width="6" style="163" customWidth="1"/>
-    <col min="2310" max="2310" width="12.88671875" style="163" customWidth="1"/>
-    <col min="2311" max="2311" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="12.109375" style="163" customWidth="1"/>
-    <col min="2314" max="2314" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="10.44140625" style="163" customWidth="1"/>
-    <col min="2316" max="2316" width="5.109375" style="163" customWidth="1"/>
+    <col min="2310" max="2310" width="12.85546875" style="163" customWidth="1"/>
+    <col min="2311" max="2311" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="12.140625" style="163" customWidth="1"/>
+    <col min="2314" max="2314" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="10.42578125" style="163" customWidth="1"/>
+    <col min="2316" max="2316" width="5.140625" style="163" customWidth="1"/>
     <col min="2317" max="2560" width="9" style="163"/>
-    <col min="2561" max="2561" width="5.33203125" style="163" customWidth="1"/>
-    <col min="2562" max="2562" width="14.33203125" style="163" customWidth="1"/>
-    <col min="2563" max="2563" width="9.6640625" style="163" customWidth="1"/>
-    <col min="2564" max="2564" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="5.28515625" style="163" customWidth="1"/>
+    <col min="2562" max="2562" width="14.28515625" style="163" customWidth="1"/>
+    <col min="2563" max="2563" width="9.7109375" style="163" customWidth="1"/>
+    <col min="2564" max="2564" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="2565" max="2565" width="6" style="163" customWidth="1"/>
-    <col min="2566" max="2566" width="12.88671875" style="163" customWidth="1"/>
-    <col min="2567" max="2567" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="12.109375" style="163" customWidth="1"/>
-    <col min="2570" max="2570" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="10.44140625" style="163" customWidth="1"/>
-    <col min="2572" max="2572" width="5.109375" style="163" customWidth="1"/>
+    <col min="2566" max="2566" width="12.85546875" style="163" customWidth="1"/>
+    <col min="2567" max="2567" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="12.140625" style="163" customWidth="1"/>
+    <col min="2570" max="2570" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="10.42578125" style="163" customWidth="1"/>
+    <col min="2572" max="2572" width="5.140625" style="163" customWidth="1"/>
     <col min="2573" max="2816" width="9" style="163"/>
-    <col min="2817" max="2817" width="5.33203125" style="163" customWidth="1"/>
-    <col min="2818" max="2818" width="14.33203125" style="163" customWidth="1"/>
-    <col min="2819" max="2819" width="9.6640625" style="163" customWidth="1"/>
-    <col min="2820" max="2820" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="5.28515625" style="163" customWidth="1"/>
+    <col min="2818" max="2818" width="14.28515625" style="163" customWidth="1"/>
+    <col min="2819" max="2819" width="9.7109375" style="163" customWidth="1"/>
+    <col min="2820" max="2820" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="2821" max="2821" width="6" style="163" customWidth="1"/>
-    <col min="2822" max="2822" width="12.88671875" style="163" customWidth="1"/>
-    <col min="2823" max="2823" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="12.109375" style="163" customWidth="1"/>
-    <col min="2826" max="2826" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="10.44140625" style="163" customWidth="1"/>
-    <col min="2828" max="2828" width="5.109375" style="163" customWidth="1"/>
+    <col min="2822" max="2822" width="12.85546875" style="163" customWidth="1"/>
+    <col min="2823" max="2823" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="12.140625" style="163" customWidth="1"/>
+    <col min="2826" max="2826" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="10.42578125" style="163" customWidth="1"/>
+    <col min="2828" max="2828" width="5.140625" style="163" customWidth="1"/>
     <col min="2829" max="3072" width="9" style="163"/>
-    <col min="3073" max="3073" width="5.33203125" style="163" customWidth="1"/>
-    <col min="3074" max="3074" width="14.33203125" style="163" customWidth="1"/>
-    <col min="3075" max="3075" width="9.6640625" style="163" customWidth="1"/>
-    <col min="3076" max="3076" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="5.28515625" style="163" customWidth="1"/>
+    <col min="3074" max="3074" width="14.28515625" style="163" customWidth="1"/>
+    <col min="3075" max="3075" width="9.7109375" style="163" customWidth="1"/>
+    <col min="3076" max="3076" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="3077" max="3077" width="6" style="163" customWidth="1"/>
-    <col min="3078" max="3078" width="12.88671875" style="163" customWidth="1"/>
-    <col min="3079" max="3079" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="12.109375" style="163" customWidth="1"/>
-    <col min="3082" max="3082" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="10.44140625" style="163" customWidth="1"/>
-    <col min="3084" max="3084" width="5.109375" style="163" customWidth="1"/>
+    <col min="3078" max="3078" width="12.85546875" style="163" customWidth="1"/>
+    <col min="3079" max="3079" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="12.140625" style="163" customWidth="1"/>
+    <col min="3082" max="3082" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="10.42578125" style="163" customWidth="1"/>
+    <col min="3084" max="3084" width="5.140625" style="163" customWidth="1"/>
     <col min="3085" max="3328" width="9" style="163"/>
-    <col min="3329" max="3329" width="5.33203125" style="163" customWidth="1"/>
-    <col min="3330" max="3330" width="14.33203125" style="163" customWidth="1"/>
-    <col min="3331" max="3331" width="9.6640625" style="163" customWidth="1"/>
-    <col min="3332" max="3332" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="5.28515625" style="163" customWidth="1"/>
+    <col min="3330" max="3330" width="14.28515625" style="163" customWidth="1"/>
+    <col min="3331" max="3331" width="9.7109375" style="163" customWidth="1"/>
+    <col min="3332" max="3332" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="3333" max="3333" width="6" style="163" customWidth="1"/>
-    <col min="3334" max="3334" width="12.88671875" style="163" customWidth="1"/>
-    <col min="3335" max="3335" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="12.109375" style="163" customWidth="1"/>
-    <col min="3338" max="3338" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="10.44140625" style="163" customWidth="1"/>
-    <col min="3340" max="3340" width="5.109375" style="163" customWidth="1"/>
+    <col min="3334" max="3334" width="12.85546875" style="163" customWidth="1"/>
+    <col min="3335" max="3335" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="12.140625" style="163" customWidth="1"/>
+    <col min="3338" max="3338" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="10.42578125" style="163" customWidth="1"/>
+    <col min="3340" max="3340" width="5.140625" style="163" customWidth="1"/>
     <col min="3341" max="3584" width="9" style="163"/>
-    <col min="3585" max="3585" width="5.33203125" style="163" customWidth="1"/>
-    <col min="3586" max="3586" width="14.33203125" style="163" customWidth="1"/>
-    <col min="3587" max="3587" width="9.6640625" style="163" customWidth="1"/>
-    <col min="3588" max="3588" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="5.28515625" style="163" customWidth="1"/>
+    <col min="3586" max="3586" width="14.28515625" style="163" customWidth="1"/>
+    <col min="3587" max="3587" width="9.7109375" style="163" customWidth="1"/>
+    <col min="3588" max="3588" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="3589" max="3589" width="6" style="163" customWidth="1"/>
-    <col min="3590" max="3590" width="12.88671875" style="163" customWidth="1"/>
-    <col min="3591" max="3591" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="12.109375" style="163" customWidth="1"/>
-    <col min="3594" max="3594" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="10.44140625" style="163" customWidth="1"/>
-    <col min="3596" max="3596" width="5.109375" style="163" customWidth="1"/>
+    <col min="3590" max="3590" width="12.85546875" style="163" customWidth="1"/>
+    <col min="3591" max="3591" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="12.140625" style="163" customWidth="1"/>
+    <col min="3594" max="3594" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="10.42578125" style="163" customWidth="1"/>
+    <col min="3596" max="3596" width="5.140625" style="163" customWidth="1"/>
     <col min="3597" max="3840" width="9" style="163"/>
-    <col min="3841" max="3841" width="5.33203125" style="163" customWidth="1"/>
-    <col min="3842" max="3842" width="14.33203125" style="163" customWidth="1"/>
-    <col min="3843" max="3843" width="9.6640625" style="163" customWidth="1"/>
-    <col min="3844" max="3844" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="5.28515625" style="163" customWidth="1"/>
+    <col min="3842" max="3842" width="14.28515625" style="163" customWidth="1"/>
+    <col min="3843" max="3843" width="9.7109375" style="163" customWidth="1"/>
+    <col min="3844" max="3844" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="3845" max="3845" width="6" style="163" customWidth="1"/>
-    <col min="3846" max="3846" width="12.88671875" style="163" customWidth="1"/>
-    <col min="3847" max="3847" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="12.109375" style="163" customWidth="1"/>
-    <col min="3850" max="3850" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="10.44140625" style="163" customWidth="1"/>
-    <col min="3852" max="3852" width="5.109375" style="163" customWidth="1"/>
+    <col min="3846" max="3846" width="12.85546875" style="163" customWidth="1"/>
+    <col min="3847" max="3847" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="12.140625" style="163" customWidth="1"/>
+    <col min="3850" max="3850" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="10.42578125" style="163" customWidth="1"/>
+    <col min="3852" max="3852" width="5.140625" style="163" customWidth="1"/>
     <col min="3853" max="4096" width="9" style="163"/>
-    <col min="4097" max="4097" width="5.33203125" style="163" customWidth="1"/>
-    <col min="4098" max="4098" width="14.33203125" style="163" customWidth="1"/>
-    <col min="4099" max="4099" width="9.6640625" style="163" customWidth="1"/>
-    <col min="4100" max="4100" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="5.28515625" style="163" customWidth="1"/>
+    <col min="4098" max="4098" width="14.28515625" style="163" customWidth="1"/>
+    <col min="4099" max="4099" width="9.7109375" style="163" customWidth="1"/>
+    <col min="4100" max="4100" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="4101" max="4101" width="6" style="163" customWidth="1"/>
-    <col min="4102" max="4102" width="12.88671875" style="163" customWidth="1"/>
-    <col min="4103" max="4103" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="12.109375" style="163" customWidth="1"/>
-    <col min="4106" max="4106" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="10.44140625" style="163" customWidth="1"/>
-    <col min="4108" max="4108" width="5.109375" style="163" customWidth="1"/>
+    <col min="4102" max="4102" width="12.85546875" style="163" customWidth="1"/>
+    <col min="4103" max="4103" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="12.140625" style="163" customWidth="1"/>
+    <col min="4106" max="4106" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="10.42578125" style="163" customWidth="1"/>
+    <col min="4108" max="4108" width="5.140625" style="163" customWidth="1"/>
     <col min="4109" max="4352" width="9" style="163"/>
-    <col min="4353" max="4353" width="5.33203125" style="163" customWidth="1"/>
-    <col min="4354" max="4354" width="14.33203125" style="163" customWidth="1"/>
-    <col min="4355" max="4355" width="9.6640625" style="163" customWidth="1"/>
-    <col min="4356" max="4356" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="5.28515625" style="163" customWidth="1"/>
+    <col min="4354" max="4354" width="14.28515625" style="163" customWidth="1"/>
+    <col min="4355" max="4355" width="9.7109375" style="163" customWidth="1"/>
+    <col min="4356" max="4356" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="4357" max="4357" width="6" style="163" customWidth="1"/>
-    <col min="4358" max="4358" width="12.88671875" style="163" customWidth="1"/>
-    <col min="4359" max="4359" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="12.109375" style="163" customWidth="1"/>
-    <col min="4362" max="4362" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="10.44140625" style="163" customWidth="1"/>
-    <col min="4364" max="4364" width="5.109375" style="163" customWidth="1"/>
+    <col min="4358" max="4358" width="12.85546875" style="163" customWidth="1"/>
+    <col min="4359" max="4359" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="12.140625" style="163" customWidth="1"/>
+    <col min="4362" max="4362" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="10.42578125" style="163" customWidth="1"/>
+    <col min="4364" max="4364" width="5.140625" style="163" customWidth="1"/>
     <col min="4365" max="4608" width="9" style="163"/>
-    <col min="4609" max="4609" width="5.33203125" style="163" customWidth="1"/>
-    <col min="4610" max="4610" width="14.33203125" style="163" customWidth="1"/>
-    <col min="4611" max="4611" width="9.6640625" style="163" customWidth="1"/>
-    <col min="4612" max="4612" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="5.28515625" style="163" customWidth="1"/>
+    <col min="4610" max="4610" width="14.28515625" style="163" customWidth="1"/>
+    <col min="4611" max="4611" width="9.7109375" style="163" customWidth="1"/>
+    <col min="4612" max="4612" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="4613" max="4613" width="6" style="163" customWidth="1"/>
-    <col min="4614" max="4614" width="12.88671875" style="163" customWidth="1"/>
-    <col min="4615" max="4615" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="12.109375" style="163" customWidth="1"/>
-    <col min="4618" max="4618" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="10.44140625" style="163" customWidth="1"/>
-    <col min="4620" max="4620" width="5.109375" style="163" customWidth="1"/>
+    <col min="4614" max="4614" width="12.85546875" style="163" customWidth="1"/>
+    <col min="4615" max="4615" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="12.140625" style="163" customWidth="1"/>
+    <col min="4618" max="4618" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="10.42578125" style="163" customWidth="1"/>
+    <col min="4620" max="4620" width="5.140625" style="163" customWidth="1"/>
     <col min="4621" max="4864" width="9" style="163"/>
-    <col min="4865" max="4865" width="5.33203125" style="163" customWidth="1"/>
-    <col min="4866" max="4866" width="14.33203125" style="163" customWidth="1"/>
-    <col min="4867" max="4867" width="9.6640625" style="163" customWidth="1"/>
-    <col min="4868" max="4868" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="5.28515625" style="163" customWidth="1"/>
+    <col min="4866" max="4866" width="14.28515625" style="163" customWidth="1"/>
+    <col min="4867" max="4867" width="9.7109375" style="163" customWidth="1"/>
+    <col min="4868" max="4868" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="4869" max="4869" width="6" style="163" customWidth="1"/>
-    <col min="4870" max="4870" width="12.88671875" style="163" customWidth="1"/>
-    <col min="4871" max="4871" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="12.109375" style="163" customWidth="1"/>
-    <col min="4874" max="4874" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="10.44140625" style="163" customWidth="1"/>
-    <col min="4876" max="4876" width="5.109375" style="163" customWidth="1"/>
+    <col min="4870" max="4870" width="12.85546875" style="163" customWidth="1"/>
+    <col min="4871" max="4871" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="12.140625" style="163" customWidth="1"/>
+    <col min="4874" max="4874" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="10.42578125" style="163" customWidth="1"/>
+    <col min="4876" max="4876" width="5.140625" style="163" customWidth="1"/>
     <col min="4877" max="5120" width="9" style="163"/>
-    <col min="5121" max="5121" width="5.33203125" style="163" customWidth="1"/>
-    <col min="5122" max="5122" width="14.33203125" style="163" customWidth="1"/>
-    <col min="5123" max="5123" width="9.6640625" style="163" customWidth="1"/>
-    <col min="5124" max="5124" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="5.28515625" style="163" customWidth="1"/>
+    <col min="5122" max="5122" width="14.28515625" style="163" customWidth="1"/>
+    <col min="5123" max="5123" width="9.7109375" style="163" customWidth="1"/>
+    <col min="5124" max="5124" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="5125" max="5125" width="6" style="163" customWidth="1"/>
-    <col min="5126" max="5126" width="12.88671875" style="163" customWidth="1"/>
-    <col min="5127" max="5127" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="12.109375" style="163" customWidth="1"/>
-    <col min="5130" max="5130" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="10.44140625" style="163" customWidth="1"/>
-    <col min="5132" max="5132" width="5.109375" style="163" customWidth="1"/>
+    <col min="5126" max="5126" width="12.85546875" style="163" customWidth="1"/>
+    <col min="5127" max="5127" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="12.140625" style="163" customWidth="1"/>
+    <col min="5130" max="5130" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="10.42578125" style="163" customWidth="1"/>
+    <col min="5132" max="5132" width="5.140625" style="163" customWidth="1"/>
     <col min="5133" max="5376" width="9" style="163"/>
-    <col min="5377" max="5377" width="5.33203125" style="163" customWidth="1"/>
-    <col min="5378" max="5378" width="14.33203125" style="163" customWidth="1"/>
-    <col min="5379" max="5379" width="9.6640625" style="163" customWidth="1"/>
-    <col min="5380" max="5380" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="5.28515625" style="163" customWidth="1"/>
+    <col min="5378" max="5378" width="14.28515625" style="163" customWidth="1"/>
+    <col min="5379" max="5379" width="9.7109375" style="163" customWidth="1"/>
+    <col min="5380" max="5380" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="5381" max="5381" width="6" style="163" customWidth="1"/>
-    <col min="5382" max="5382" width="12.88671875" style="163" customWidth="1"/>
-    <col min="5383" max="5383" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="12.109375" style="163" customWidth="1"/>
-    <col min="5386" max="5386" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="10.44140625" style="163" customWidth="1"/>
-    <col min="5388" max="5388" width="5.109375" style="163" customWidth="1"/>
+    <col min="5382" max="5382" width="12.85546875" style="163" customWidth="1"/>
+    <col min="5383" max="5383" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="12.140625" style="163" customWidth="1"/>
+    <col min="5386" max="5386" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="10.42578125" style="163" customWidth="1"/>
+    <col min="5388" max="5388" width="5.140625" style="163" customWidth="1"/>
     <col min="5389" max="5632" width="9" style="163"/>
-    <col min="5633" max="5633" width="5.33203125" style="163" customWidth="1"/>
-    <col min="5634" max="5634" width="14.33203125" style="163" customWidth="1"/>
-    <col min="5635" max="5635" width="9.6640625" style="163" customWidth="1"/>
-    <col min="5636" max="5636" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="5.28515625" style="163" customWidth="1"/>
+    <col min="5634" max="5634" width="14.28515625" style="163" customWidth="1"/>
+    <col min="5635" max="5635" width="9.7109375" style="163" customWidth="1"/>
+    <col min="5636" max="5636" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="5637" max="5637" width="6" style="163" customWidth="1"/>
-    <col min="5638" max="5638" width="12.88671875" style="163" customWidth="1"/>
-    <col min="5639" max="5639" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="12.109375" style="163" customWidth="1"/>
-    <col min="5642" max="5642" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="10.44140625" style="163" customWidth="1"/>
-    <col min="5644" max="5644" width="5.109375" style="163" customWidth="1"/>
+    <col min="5638" max="5638" width="12.85546875" style="163" customWidth="1"/>
+    <col min="5639" max="5639" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="12.140625" style="163" customWidth="1"/>
+    <col min="5642" max="5642" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="10.42578125" style="163" customWidth="1"/>
+    <col min="5644" max="5644" width="5.140625" style="163" customWidth="1"/>
     <col min="5645" max="5888" width="9" style="163"/>
-    <col min="5889" max="5889" width="5.33203125" style="163" customWidth="1"/>
-    <col min="5890" max="5890" width="14.33203125" style="163" customWidth="1"/>
-    <col min="5891" max="5891" width="9.6640625" style="163" customWidth="1"/>
-    <col min="5892" max="5892" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="5.28515625" style="163" customWidth="1"/>
+    <col min="5890" max="5890" width="14.28515625" style="163" customWidth="1"/>
+    <col min="5891" max="5891" width="9.7109375" style="163" customWidth="1"/>
+    <col min="5892" max="5892" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="5893" max="5893" width="6" style="163" customWidth="1"/>
-    <col min="5894" max="5894" width="12.88671875" style="163" customWidth="1"/>
-    <col min="5895" max="5895" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="12.109375" style="163" customWidth="1"/>
-    <col min="5898" max="5898" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="10.44140625" style="163" customWidth="1"/>
-    <col min="5900" max="5900" width="5.109375" style="163" customWidth="1"/>
+    <col min="5894" max="5894" width="12.85546875" style="163" customWidth="1"/>
+    <col min="5895" max="5895" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="12.140625" style="163" customWidth="1"/>
+    <col min="5898" max="5898" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="10.42578125" style="163" customWidth="1"/>
+    <col min="5900" max="5900" width="5.140625" style="163" customWidth="1"/>
     <col min="5901" max="6144" width="9" style="163"/>
-    <col min="6145" max="6145" width="5.33203125" style="163" customWidth="1"/>
-    <col min="6146" max="6146" width="14.33203125" style="163" customWidth="1"/>
-    <col min="6147" max="6147" width="9.6640625" style="163" customWidth="1"/>
-    <col min="6148" max="6148" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="5.28515625" style="163" customWidth="1"/>
+    <col min="6146" max="6146" width="14.28515625" style="163" customWidth="1"/>
+    <col min="6147" max="6147" width="9.7109375" style="163" customWidth="1"/>
+    <col min="6148" max="6148" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="6149" max="6149" width="6" style="163" customWidth="1"/>
-    <col min="6150" max="6150" width="12.88671875" style="163" customWidth="1"/>
-    <col min="6151" max="6151" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="12.109375" style="163" customWidth="1"/>
-    <col min="6154" max="6154" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="10.44140625" style="163" customWidth="1"/>
-    <col min="6156" max="6156" width="5.109375" style="163" customWidth="1"/>
+    <col min="6150" max="6150" width="12.85546875" style="163" customWidth="1"/>
+    <col min="6151" max="6151" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="12.140625" style="163" customWidth="1"/>
+    <col min="6154" max="6154" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="10.42578125" style="163" customWidth="1"/>
+    <col min="6156" max="6156" width="5.140625" style="163" customWidth="1"/>
     <col min="6157" max="6400" width="9" style="163"/>
-    <col min="6401" max="6401" width="5.33203125" style="163" customWidth="1"/>
-    <col min="6402" max="6402" width="14.33203125" style="163" customWidth="1"/>
-    <col min="6403" max="6403" width="9.6640625" style="163" customWidth="1"/>
-    <col min="6404" max="6404" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="5.28515625" style="163" customWidth="1"/>
+    <col min="6402" max="6402" width="14.28515625" style="163" customWidth="1"/>
+    <col min="6403" max="6403" width="9.7109375" style="163" customWidth="1"/>
+    <col min="6404" max="6404" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="6405" max="6405" width="6" style="163" customWidth="1"/>
-    <col min="6406" max="6406" width="12.88671875" style="163" customWidth="1"/>
-    <col min="6407" max="6407" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="12.109375" style="163" customWidth="1"/>
-    <col min="6410" max="6410" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="10.44140625" style="163" customWidth="1"/>
-    <col min="6412" max="6412" width="5.109375" style="163" customWidth="1"/>
+    <col min="6406" max="6406" width="12.85546875" style="163" customWidth="1"/>
+    <col min="6407" max="6407" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="12.140625" style="163" customWidth="1"/>
+    <col min="6410" max="6410" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="10.42578125" style="163" customWidth="1"/>
+    <col min="6412" max="6412" width="5.140625" style="163" customWidth="1"/>
     <col min="6413" max="6656" width="9" style="163"/>
-    <col min="6657" max="6657" width="5.33203125" style="163" customWidth="1"/>
-    <col min="6658" max="6658" width="14.33203125" style="163" customWidth="1"/>
-    <col min="6659" max="6659" width="9.6640625" style="163" customWidth="1"/>
-    <col min="6660" max="6660" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="5.28515625" style="163" customWidth="1"/>
+    <col min="6658" max="6658" width="14.28515625" style="163" customWidth="1"/>
+    <col min="6659" max="6659" width="9.7109375" style="163" customWidth="1"/>
+    <col min="6660" max="6660" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="6661" max="6661" width="6" style="163" customWidth="1"/>
-    <col min="6662" max="6662" width="12.88671875" style="163" customWidth="1"/>
-    <col min="6663" max="6663" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="12.109375" style="163" customWidth="1"/>
-    <col min="6666" max="6666" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="10.44140625" style="163" customWidth="1"/>
-    <col min="6668" max="6668" width="5.109375" style="163" customWidth="1"/>
+    <col min="6662" max="6662" width="12.85546875" style="163" customWidth="1"/>
+    <col min="6663" max="6663" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="12.140625" style="163" customWidth="1"/>
+    <col min="6666" max="6666" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="10.42578125" style="163" customWidth="1"/>
+    <col min="6668" max="6668" width="5.140625" style="163" customWidth="1"/>
     <col min="6669" max="6912" width="9" style="163"/>
-    <col min="6913" max="6913" width="5.33203125" style="163" customWidth="1"/>
-    <col min="6914" max="6914" width="14.33203125" style="163" customWidth="1"/>
-    <col min="6915" max="6915" width="9.6640625" style="163" customWidth="1"/>
-    <col min="6916" max="6916" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="5.28515625" style="163" customWidth="1"/>
+    <col min="6914" max="6914" width="14.28515625" style="163" customWidth="1"/>
+    <col min="6915" max="6915" width="9.7109375" style="163" customWidth="1"/>
+    <col min="6916" max="6916" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="6917" max="6917" width="6" style="163" customWidth="1"/>
-    <col min="6918" max="6918" width="12.88671875" style="163" customWidth="1"/>
-    <col min="6919" max="6919" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="12.109375" style="163" customWidth="1"/>
-    <col min="6922" max="6922" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="10.44140625" style="163" customWidth="1"/>
-    <col min="6924" max="6924" width="5.109375" style="163" customWidth="1"/>
+    <col min="6918" max="6918" width="12.85546875" style="163" customWidth="1"/>
+    <col min="6919" max="6919" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="12.140625" style="163" customWidth="1"/>
+    <col min="6922" max="6922" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="10.42578125" style="163" customWidth="1"/>
+    <col min="6924" max="6924" width="5.140625" style="163" customWidth="1"/>
     <col min="6925" max="7168" width="9" style="163"/>
-    <col min="7169" max="7169" width="5.33203125" style="163" customWidth="1"/>
-    <col min="7170" max="7170" width="14.33203125" style="163" customWidth="1"/>
-    <col min="7171" max="7171" width="9.6640625" style="163" customWidth="1"/>
-    <col min="7172" max="7172" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="5.28515625" style="163" customWidth="1"/>
+    <col min="7170" max="7170" width="14.28515625" style="163" customWidth="1"/>
+    <col min="7171" max="7171" width="9.7109375" style="163" customWidth="1"/>
+    <col min="7172" max="7172" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="7173" max="7173" width="6" style="163" customWidth="1"/>
-    <col min="7174" max="7174" width="12.88671875" style="163" customWidth="1"/>
-    <col min="7175" max="7175" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="12.109375" style="163" customWidth="1"/>
-    <col min="7178" max="7178" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="10.44140625" style="163" customWidth="1"/>
-    <col min="7180" max="7180" width="5.109375" style="163" customWidth="1"/>
+    <col min="7174" max="7174" width="12.85546875" style="163" customWidth="1"/>
+    <col min="7175" max="7175" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="12.140625" style="163" customWidth="1"/>
+    <col min="7178" max="7178" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="10.42578125" style="163" customWidth="1"/>
+    <col min="7180" max="7180" width="5.140625" style="163" customWidth="1"/>
     <col min="7181" max="7424" width="9" style="163"/>
-    <col min="7425" max="7425" width="5.33203125" style="163" customWidth="1"/>
-    <col min="7426" max="7426" width="14.33203125" style="163" customWidth="1"/>
-    <col min="7427" max="7427" width="9.6640625" style="163" customWidth="1"/>
-    <col min="7428" max="7428" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="5.28515625" style="163" customWidth="1"/>
+    <col min="7426" max="7426" width="14.28515625" style="163" customWidth="1"/>
+    <col min="7427" max="7427" width="9.7109375" style="163" customWidth="1"/>
+    <col min="7428" max="7428" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="7429" max="7429" width="6" style="163" customWidth="1"/>
-    <col min="7430" max="7430" width="12.88671875" style="163" customWidth="1"/>
-    <col min="7431" max="7431" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="12.109375" style="163" customWidth="1"/>
-    <col min="7434" max="7434" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="10.44140625" style="163" customWidth="1"/>
-    <col min="7436" max="7436" width="5.109375" style="163" customWidth="1"/>
+    <col min="7430" max="7430" width="12.85546875" style="163" customWidth="1"/>
+    <col min="7431" max="7431" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="12.140625" style="163" customWidth="1"/>
+    <col min="7434" max="7434" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="10.42578125" style="163" customWidth="1"/>
+    <col min="7436" max="7436" width="5.140625" style="163" customWidth="1"/>
     <col min="7437" max="7680" width="9" style="163"/>
-    <col min="7681" max="7681" width="5.33203125" style="163" customWidth="1"/>
-    <col min="7682" max="7682" width="14.33203125" style="163" customWidth="1"/>
-    <col min="7683" max="7683" width="9.6640625" style="163" customWidth="1"/>
-    <col min="7684" max="7684" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="5.28515625" style="163" customWidth="1"/>
+    <col min="7682" max="7682" width="14.28515625" style="163" customWidth="1"/>
+    <col min="7683" max="7683" width="9.7109375" style="163" customWidth="1"/>
+    <col min="7684" max="7684" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="7685" max="7685" width="6" style="163" customWidth="1"/>
-    <col min="7686" max="7686" width="12.88671875" style="163" customWidth="1"/>
-    <col min="7687" max="7687" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="12.109375" style="163" customWidth="1"/>
-    <col min="7690" max="7690" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="10.44140625" style="163" customWidth="1"/>
-    <col min="7692" max="7692" width="5.109375" style="163" customWidth="1"/>
+    <col min="7686" max="7686" width="12.85546875" style="163" customWidth="1"/>
+    <col min="7687" max="7687" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="12.140625" style="163" customWidth="1"/>
+    <col min="7690" max="7690" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="10.42578125" style="163" customWidth="1"/>
+    <col min="7692" max="7692" width="5.140625" style="163" customWidth="1"/>
     <col min="7693" max="7936" width="9" style="163"/>
-    <col min="7937" max="7937" width="5.33203125" style="163" customWidth="1"/>
-    <col min="7938" max="7938" width="14.33203125" style="163" customWidth="1"/>
-    <col min="7939" max="7939" width="9.6640625" style="163" customWidth="1"/>
-    <col min="7940" max="7940" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="5.28515625" style="163" customWidth="1"/>
+    <col min="7938" max="7938" width="14.28515625" style="163" customWidth="1"/>
+    <col min="7939" max="7939" width="9.7109375" style="163" customWidth="1"/>
+    <col min="7940" max="7940" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="7941" max="7941" width="6" style="163" customWidth="1"/>
-    <col min="7942" max="7942" width="12.88671875" style="163" customWidth="1"/>
-    <col min="7943" max="7943" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="12.109375" style="163" customWidth="1"/>
-    <col min="7946" max="7946" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="10.44140625" style="163" customWidth="1"/>
-    <col min="7948" max="7948" width="5.109375" style="163" customWidth="1"/>
+    <col min="7942" max="7942" width="12.85546875" style="163" customWidth="1"/>
+    <col min="7943" max="7943" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="12.140625" style="163" customWidth="1"/>
+    <col min="7946" max="7946" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="10.42578125" style="163" customWidth="1"/>
+    <col min="7948" max="7948" width="5.140625" style="163" customWidth="1"/>
     <col min="7949" max="8192" width="9" style="163"/>
-    <col min="8193" max="8193" width="5.33203125" style="163" customWidth="1"/>
-    <col min="8194" max="8194" width="14.33203125" style="163" customWidth="1"/>
-    <col min="8195" max="8195" width="9.6640625" style="163" customWidth="1"/>
-    <col min="8196" max="8196" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="5.28515625" style="163" customWidth="1"/>
+    <col min="8194" max="8194" width="14.28515625" style="163" customWidth="1"/>
+    <col min="8195" max="8195" width="9.7109375" style="163" customWidth="1"/>
+    <col min="8196" max="8196" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="8197" max="8197" width="6" style="163" customWidth="1"/>
-    <col min="8198" max="8198" width="12.88671875" style="163" customWidth="1"/>
-    <col min="8199" max="8199" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="12.109375" style="163" customWidth="1"/>
-    <col min="8202" max="8202" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="10.44140625" style="163" customWidth="1"/>
-    <col min="8204" max="8204" width="5.109375" style="163" customWidth="1"/>
+    <col min="8198" max="8198" width="12.85546875" style="163" customWidth="1"/>
+    <col min="8199" max="8199" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="12.140625" style="163" customWidth="1"/>
+    <col min="8202" max="8202" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="10.42578125" style="163" customWidth="1"/>
+    <col min="8204" max="8204" width="5.140625" style="163" customWidth="1"/>
     <col min="8205" max="8448" width="9" style="163"/>
-    <col min="8449" max="8449" width="5.33203125" style="163" customWidth="1"/>
-    <col min="8450" max="8450" width="14.33203125" style="163" customWidth="1"/>
-    <col min="8451" max="8451" width="9.6640625" style="163" customWidth="1"/>
-    <col min="8452" max="8452" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="5.28515625" style="163" customWidth="1"/>
+    <col min="8450" max="8450" width="14.28515625" style="163" customWidth="1"/>
+    <col min="8451" max="8451" width="9.7109375" style="163" customWidth="1"/>
+    <col min="8452" max="8452" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="8453" max="8453" width="6" style="163" customWidth="1"/>
-    <col min="8454" max="8454" width="12.88671875" style="163" customWidth="1"/>
-    <col min="8455" max="8455" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="12.109375" style="163" customWidth="1"/>
-    <col min="8458" max="8458" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="10.44140625" style="163" customWidth="1"/>
-    <col min="8460" max="8460" width="5.109375" style="163" customWidth="1"/>
+    <col min="8454" max="8454" width="12.85546875" style="163" customWidth="1"/>
+    <col min="8455" max="8455" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="12.140625" style="163" customWidth="1"/>
+    <col min="8458" max="8458" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="10.42578125" style="163" customWidth="1"/>
+    <col min="8460" max="8460" width="5.140625" style="163" customWidth="1"/>
     <col min="8461" max="8704" width="9" style="163"/>
-    <col min="8705" max="8705" width="5.33203125" style="163" customWidth="1"/>
-    <col min="8706" max="8706" width="14.33203125" style="163" customWidth="1"/>
-    <col min="8707" max="8707" width="9.6640625" style="163" customWidth="1"/>
-    <col min="8708" max="8708" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="5.28515625" style="163" customWidth="1"/>
+    <col min="8706" max="8706" width="14.28515625" style="163" customWidth="1"/>
+    <col min="8707" max="8707" width="9.7109375" style="163" customWidth="1"/>
+    <col min="8708" max="8708" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="8709" max="8709" width="6" style="163" customWidth="1"/>
-    <col min="8710" max="8710" width="12.88671875" style="163" customWidth="1"/>
-    <col min="8711" max="8711" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="12.109375" style="163" customWidth="1"/>
-    <col min="8714" max="8714" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="10.44140625" style="163" customWidth="1"/>
-    <col min="8716" max="8716" width="5.109375" style="163" customWidth="1"/>
+    <col min="8710" max="8710" width="12.85546875" style="163" customWidth="1"/>
+    <col min="8711" max="8711" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="12.140625" style="163" customWidth="1"/>
+    <col min="8714" max="8714" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="10.42578125" style="163" customWidth="1"/>
+    <col min="8716" max="8716" width="5.140625" style="163" customWidth="1"/>
     <col min="8717" max="8960" width="9" style="163"/>
-    <col min="8961" max="8961" width="5.33203125" style="163" customWidth="1"/>
-    <col min="8962" max="8962" width="14.33203125" style="163" customWidth="1"/>
-    <col min="8963" max="8963" width="9.6640625" style="163" customWidth="1"/>
-    <col min="8964" max="8964" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="5.28515625" style="163" customWidth="1"/>
+    <col min="8962" max="8962" width="14.28515625" style="163" customWidth="1"/>
+    <col min="8963" max="8963" width="9.7109375" style="163" customWidth="1"/>
+    <col min="8964" max="8964" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="8965" max="8965" width="6" style="163" customWidth="1"/>
-    <col min="8966" max="8966" width="12.88671875" style="163" customWidth="1"/>
-    <col min="8967" max="8967" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="12.109375" style="163" customWidth="1"/>
-    <col min="8970" max="8970" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="10.44140625" style="163" customWidth="1"/>
-    <col min="8972" max="8972" width="5.109375" style="163" customWidth="1"/>
+    <col min="8966" max="8966" width="12.85546875" style="163" customWidth="1"/>
+    <col min="8967" max="8967" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="12.140625" style="163" customWidth="1"/>
+    <col min="8970" max="8970" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="10.42578125" style="163" customWidth="1"/>
+    <col min="8972" max="8972" width="5.140625" style="163" customWidth="1"/>
     <col min="8973" max="9216" width="9" style="163"/>
-    <col min="9217" max="9217" width="5.33203125" style="163" customWidth="1"/>
-    <col min="9218" max="9218" width="14.33203125" style="163" customWidth="1"/>
-    <col min="9219" max="9219" width="9.6640625" style="163" customWidth="1"/>
-    <col min="9220" max="9220" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="5.28515625" style="163" customWidth="1"/>
+    <col min="9218" max="9218" width="14.28515625" style="163" customWidth="1"/>
+    <col min="9219" max="9219" width="9.7109375" style="163" customWidth="1"/>
+    <col min="9220" max="9220" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="9221" max="9221" width="6" style="163" customWidth="1"/>
-    <col min="9222" max="9222" width="12.88671875" style="163" customWidth="1"/>
-    <col min="9223" max="9223" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="12.109375" style="163" customWidth="1"/>
-    <col min="9226" max="9226" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="10.44140625" style="163" customWidth="1"/>
-    <col min="9228" max="9228" width="5.109375" style="163" customWidth="1"/>
+    <col min="9222" max="9222" width="12.85546875" style="163" customWidth="1"/>
+    <col min="9223" max="9223" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="12.140625" style="163" customWidth="1"/>
+    <col min="9226" max="9226" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="10.42578125" style="163" customWidth="1"/>
+    <col min="9228" max="9228" width="5.140625" style="163" customWidth="1"/>
     <col min="9229" max="9472" width="9" style="163"/>
-    <col min="9473" max="9473" width="5.33203125" style="163" customWidth="1"/>
-    <col min="9474" max="9474" width="14.33203125" style="163" customWidth="1"/>
-    <col min="9475" max="9475" width="9.6640625" style="163" customWidth="1"/>
-    <col min="9476" max="9476" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="5.28515625" style="163" customWidth="1"/>
+    <col min="9474" max="9474" width="14.28515625" style="163" customWidth="1"/>
+    <col min="9475" max="9475" width="9.7109375" style="163" customWidth="1"/>
+    <col min="9476" max="9476" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="9477" max="9477" width="6" style="163" customWidth="1"/>
-    <col min="9478" max="9478" width="12.88671875" style="163" customWidth="1"/>
-    <col min="9479" max="9479" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="12.109375" style="163" customWidth="1"/>
-    <col min="9482" max="9482" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="10.44140625" style="163" customWidth="1"/>
-    <col min="9484" max="9484" width="5.109375" style="163" customWidth="1"/>
+    <col min="9478" max="9478" width="12.85546875" style="163" customWidth="1"/>
+    <col min="9479" max="9479" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="12.140625" style="163" customWidth="1"/>
+    <col min="9482" max="9482" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="10.42578125" style="163" customWidth="1"/>
+    <col min="9484" max="9484" width="5.140625" style="163" customWidth="1"/>
     <col min="9485" max="9728" width="9" style="163"/>
-    <col min="9729" max="9729" width="5.33203125" style="163" customWidth="1"/>
-    <col min="9730" max="9730" width="14.33203125" style="163" customWidth="1"/>
-    <col min="9731" max="9731" width="9.6640625" style="163" customWidth="1"/>
-    <col min="9732" max="9732" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="5.28515625" style="163" customWidth="1"/>
+    <col min="9730" max="9730" width="14.28515625" style="163" customWidth="1"/>
+    <col min="9731" max="9731" width="9.7109375" style="163" customWidth="1"/>
+    <col min="9732" max="9732" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="9733" max="9733" width="6" style="163" customWidth="1"/>
-    <col min="9734" max="9734" width="12.88671875" style="163" customWidth="1"/>
-    <col min="9735" max="9735" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="12.109375" style="163" customWidth="1"/>
-    <col min="9738" max="9738" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="10.44140625" style="163" customWidth="1"/>
-    <col min="9740" max="9740" width="5.109375" style="163" customWidth="1"/>
+    <col min="9734" max="9734" width="12.85546875" style="163" customWidth="1"/>
+    <col min="9735" max="9735" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="12.140625" style="163" customWidth="1"/>
+    <col min="9738" max="9738" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="10.42578125" style="163" customWidth="1"/>
+    <col min="9740" max="9740" width="5.140625" style="163" customWidth="1"/>
     <col min="9741" max="9984" width="9" style="163"/>
-    <col min="9985" max="9985" width="5.33203125" style="163" customWidth="1"/>
-    <col min="9986" max="9986" width="14.33203125" style="163" customWidth="1"/>
-    <col min="9987" max="9987" width="9.6640625" style="163" customWidth="1"/>
-    <col min="9988" max="9988" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="5.28515625" style="163" customWidth="1"/>
+    <col min="9986" max="9986" width="14.28515625" style="163" customWidth="1"/>
+    <col min="9987" max="9987" width="9.7109375" style="163" customWidth="1"/>
+    <col min="9988" max="9988" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="9989" max="9989" width="6" style="163" customWidth="1"/>
-    <col min="9990" max="9990" width="12.88671875" style="163" customWidth="1"/>
-    <col min="9991" max="9991" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="12.109375" style="163" customWidth="1"/>
-    <col min="9994" max="9994" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="10.44140625" style="163" customWidth="1"/>
-    <col min="9996" max="9996" width="5.109375" style="163" customWidth="1"/>
+    <col min="9990" max="9990" width="12.85546875" style="163" customWidth="1"/>
+    <col min="9991" max="9991" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="12.140625" style="163" customWidth="1"/>
+    <col min="9994" max="9994" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="10.42578125" style="163" customWidth="1"/>
+    <col min="9996" max="9996" width="5.140625" style="163" customWidth="1"/>
     <col min="9997" max="10240" width="9" style="163"/>
-    <col min="10241" max="10241" width="5.33203125" style="163" customWidth="1"/>
-    <col min="10242" max="10242" width="14.33203125" style="163" customWidth="1"/>
-    <col min="10243" max="10243" width="9.6640625" style="163" customWidth="1"/>
-    <col min="10244" max="10244" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="5.28515625" style="163" customWidth="1"/>
+    <col min="10242" max="10242" width="14.28515625" style="163" customWidth="1"/>
+    <col min="10243" max="10243" width="9.7109375" style="163" customWidth="1"/>
+    <col min="10244" max="10244" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="10245" max="10245" width="6" style="163" customWidth="1"/>
-    <col min="10246" max="10246" width="12.88671875" style="163" customWidth="1"/>
-    <col min="10247" max="10247" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="12.109375" style="163" customWidth="1"/>
-    <col min="10250" max="10250" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="10.44140625" style="163" customWidth="1"/>
-    <col min="10252" max="10252" width="5.109375" style="163" customWidth="1"/>
+    <col min="10246" max="10246" width="12.85546875" style="163" customWidth="1"/>
+    <col min="10247" max="10247" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="12.140625" style="163" customWidth="1"/>
+    <col min="10250" max="10250" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="10.42578125" style="163" customWidth="1"/>
+    <col min="10252" max="10252" width="5.140625" style="163" customWidth="1"/>
     <col min="10253" max="10496" width="9" style="163"/>
-    <col min="10497" max="10497" width="5.33203125" style="163" customWidth="1"/>
-    <col min="10498" max="10498" width="14.33203125" style="163" customWidth="1"/>
-    <col min="10499" max="10499" width="9.6640625" style="163" customWidth="1"/>
-    <col min="10500" max="10500" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="5.28515625" style="163" customWidth="1"/>
+    <col min="10498" max="10498" width="14.28515625" style="163" customWidth="1"/>
+    <col min="10499" max="10499" width="9.7109375" style="163" customWidth="1"/>
+    <col min="10500" max="10500" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="10501" max="10501" width="6" style="163" customWidth="1"/>
-    <col min="10502" max="10502" width="12.88671875" style="163" customWidth="1"/>
-    <col min="10503" max="10503" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="12.109375" style="163" customWidth="1"/>
-    <col min="10506" max="10506" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="10.44140625" style="163" customWidth="1"/>
-    <col min="10508" max="10508" width="5.109375" style="163" customWidth="1"/>
+    <col min="10502" max="10502" width="12.85546875" style="163" customWidth="1"/>
+    <col min="10503" max="10503" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="12.140625" style="163" customWidth="1"/>
+    <col min="10506" max="10506" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="10.42578125" style="163" customWidth="1"/>
+    <col min="10508" max="10508" width="5.140625" style="163" customWidth="1"/>
     <col min="10509" max="10752" width="9" style="163"/>
-    <col min="10753" max="10753" width="5.33203125" style="163" customWidth="1"/>
-    <col min="10754" max="10754" width="14.33203125" style="163" customWidth="1"/>
-    <col min="10755" max="10755" width="9.6640625" style="163" customWidth="1"/>
-    <col min="10756" max="10756" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="5.28515625" style="163" customWidth="1"/>
+    <col min="10754" max="10754" width="14.28515625" style="163" customWidth="1"/>
+    <col min="10755" max="10755" width="9.7109375" style="163" customWidth="1"/>
+    <col min="10756" max="10756" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="10757" max="10757" width="6" style="163" customWidth="1"/>
-    <col min="10758" max="10758" width="12.88671875" style="163" customWidth="1"/>
-    <col min="10759" max="10759" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="12.109375" style="163" customWidth="1"/>
-    <col min="10762" max="10762" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="10.44140625" style="163" customWidth="1"/>
-    <col min="10764" max="10764" width="5.109375" style="163" customWidth="1"/>
+    <col min="10758" max="10758" width="12.85546875" style="163" customWidth="1"/>
+    <col min="10759" max="10759" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="12.140625" style="163" customWidth="1"/>
+    <col min="10762" max="10762" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="10.42578125" style="163" customWidth="1"/>
+    <col min="10764" max="10764" width="5.140625" style="163" customWidth="1"/>
     <col min="10765" max="11008" width="9" style="163"/>
-    <col min="11009" max="11009" width="5.33203125" style="163" customWidth="1"/>
-    <col min="11010" max="11010" width="14.33203125" style="163" customWidth="1"/>
-    <col min="11011" max="11011" width="9.6640625" style="163" customWidth="1"/>
-    <col min="11012" max="11012" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="5.28515625" style="163" customWidth="1"/>
+    <col min="11010" max="11010" width="14.28515625" style="163" customWidth="1"/>
+    <col min="11011" max="11011" width="9.7109375" style="163" customWidth="1"/>
+    <col min="11012" max="11012" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="11013" max="11013" width="6" style="163" customWidth="1"/>
-    <col min="11014" max="11014" width="12.88671875" style="163" customWidth="1"/>
-    <col min="11015" max="11015" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="12.109375" style="163" customWidth="1"/>
-    <col min="11018" max="11018" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="10.44140625" style="163" customWidth="1"/>
-    <col min="11020" max="11020" width="5.109375" style="163" customWidth="1"/>
+    <col min="11014" max="11014" width="12.85546875" style="163" customWidth="1"/>
+    <col min="11015" max="11015" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="12.140625" style="163" customWidth="1"/>
+    <col min="11018" max="11018" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="10.42578125" style="163" customWidth="1"/>
+    <col min="11020" max="11020" width="5.140625" style="163" customWidth="1"/>
     <col min="11021" max="11264" width="9" style="163"/>
-    <col min="11265" max="11265" width="5.33203125" style="163" customWidth="1"/>
-    <col min="11266" max="11266" width="14.33203125" style="163" customWidth="1"/>
-    <col min="11267" max="11267" width="9.6640625" style="163" customWidth="1"/>
-    <col min="11268" max="11268" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="5.28515625" style="163" customWidth="1"/>
+    <col min="11266" max="11266" width="14.28515625" style="163" customWidth="1"/>
+    <col min="11267" max="11267" width="9.7109375" style="163" customWidth="1"/>
+    <col min="11268" max="11268" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="11269" max="11269" width="6" style="163" customWidth="1"/>
-    <col min="11270" max="11270" width="12.88671875" style="163" customWidth="1"/>
-    <col min="11271" max="11271" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="12.109375" style="163" customWidth="1"/>
-    <col min="11274" max="11274" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="10.44140625" style="163" customWidth="1"/>
-    <col min="11276" max="11276" width="5.109375" style="163" customWidth="1"/>
+    <col min="11270" max="11270" width="12.85546875" style="163" customWidth="1"/>
+    <col min="11271" max="11271" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="12.140625" style="163" customWidth="1"/>
+    <col min="11274" max="11274" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="10.42578125" style="163" customWidth="1"/>
+    <col min="11276" max="11276" width="5.140625" style="163" customWidth="1"/>
     <col min="11277" max="11520" width="9" style="163"/>
-    <col min="11521" max="11521" width="5.33203125" style="163" customWidth="1"/>
-    <col min="11522" max="11522" width="14.33203125" style="163" customWidth="1"/>
-    <col min="11523" max="11523" width="9.6640625" style="163" customWidth="1"/>
-    <col min="11524" max="11524" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="5.28515625" style="163" customWidth="1"/>
+    <col min="11522" max="11522" width="14.28515625" style="163" customWidth="1"/>
+    <col min="11523" max="11523" width="9.7109375" style="163" customWidth="1"/>
+    <col min="11524" max="11524" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="11525" max="11525" width="6" style="163" customWidth="1"/>
-    <col min="11526" max="11526" width="12.88671875" style="163" customWidth="1"/>
-    <col min="11527" max="11527" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="12.109375" style="163" customWidth="1"/>
-    <col min="11530" max="11530" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="10.44140625" style="163" customWidth="1"/>
-    <col min="11532" max="11532" width="5.109375" style="163" customWidth="1"/>
+    <col min="11526" max="11526" width="12.85546875" style="163" customWidth="1"/>
+    <col min="11527" max="11527" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="12.140625" style="163" customWidth="1"/>
+    <col min="11530" max="11530" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="10.42578125" style="163" customWidth="1"/>
+    <col min="11532" max="11532" width="5.140625" style="163" customWidth="1"/>
     <col min="11533" max="11776" width="9" style="163"/>
-    <col min="11777" max="11777" width="5.33203125" style="163" customWidth="1"/>
-    <col min="11778" max="11778" width="14.33203125" style="163" customWidth="1"/>
-    <col min="11779" max="11779" width="9.6640625" style="163" customWidth="1"/>
-    <col min="11780" max="11780" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="5.28515625" style="163" customWidth="1"/>
+    <col min="11778" max="11778" width="14.28515625" style="163" customWidth="1"/>
+    <col min="11779" max="11779" width="9.7109375" style="163" customWidth="1"/>
+    <col min="11780" max="11780" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="11781" max="11781" width="6" style="163" customWidth="1"/>
-    <col min="11782" max="11782" width="12.88671875" style="163" customWidth="1"/>
-    <col min="11783" max="11783" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="12.109375" style="163" customWidth="1"/>
-    <col min="11786" max="11786" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="10.44140625" style="163" customWidth="1"/>
-    <col min="11788" max="11788" width="5.109375" style="163" customWidth="1"/>
+    <col min="11782" max="11782" width="12.85546875" style="163" customWidth="1"/>
+    <col min="11783" max="11783" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="12.140625" style="163" customWidth="1"/>
+    <col min="11786" max="11786" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="10.42578125" style="163" customWidth="1"/>
+    <col min="11788" max="11788" width="5.140625" style="163" customWidth="1"/>
     <col min="11789" max="12032" width="9" style="163"/>
-    <col min="12033" max="12033" width="5.33203125" style="163" customWidth="1"/>
-    <col min="12034" max="12034" width="14.33203125" style="163" customWidth="1"/>
-    <col min="12035" max="12035" width="9.6640625" style="163" customWidth="1"/>
-    <col min="12036" max="12036" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="5.28515625" style="163" customWidth="1"/>
+    <col min="12034" max="12034" width="14.28515625" style="163" customWidth="1"/>
+    <col min="12035" max="12035" width="9.7109375" style="163" customWidth="1"/>
+    <col min="12036" max="12036" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="12037" max="12037" width="6" style="163" customWidth="1"/>
-    <col min="12038" max="12038" width="12.88671875" style="163" customWidth="1"/>
-    <col min="12039" max="12039" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="12.109375" style="163" customWidth="1"/>
-    <col min="12042" max="12042" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="10.44140625" style="163" customWidth="1"/>
-    <col min="12044" max="12044" width="5.109375" style="163" customWidth="1"/>
+    <col min="12038" max="12038" width="12.85546875" style="163" customWidth="1"/>
+    <col min="12039" max="12039" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="12.140625" style="163" customWidth="1"/>
+    <col min="12042" max="12042" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="10.42578125" style="163" customWidth="1"/>
+    <col min="12044" max="12044" width="5.140625" style="163" customWidth="1"/>
     <col min="12045" max="12288" width="9" style="163"/>
-    <col min="12289" max="12289" width="5.33203125" style="163" customWidth="1"/>
-    <col min="12290" max="12290" width="14.33203125" style="163" customWidth="1"/>
-    <col min="12291" max="12291" width="9.6640625" style="163" customWidth="1"/>
-    <col min="12292" max="12292" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="5.28515625" style="163" customWidth="1"/>
+    <col min="12290" max="12290" width="14.28515625" style="163" customWidth="1"/>
+    <col min="12291" max="12291" width="9.7109375" style="163" customWidth="1"/>
+    <col min="12292" max="12292" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="12293" max="12293" width="6" style="163" customWidth="1"/>
-    <col min="12294" max="12294" width="12.88671875" style="163" customWidth="1"/>
-    <col min="12295" max="12295" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="12.109375" style="163" customWidth="1"/>
-    <col min="12298" max="12298" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="10.44140625" style="163" customWidth="1"/>
-    <col min="12300" max="12300" width="5.109375" style="163" customWidth="1"/>
+    <col min="12294" max="12294" width="12.85546875" style="163" customWidth="1"/>
+    <col min="12295" max="12295" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="12.140625" style="163" customWidth="1"/>
+    <col min="12298" max="12298" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="10.42578125" style="163" customWidth="1"/>
+    <col min="12300" max="12300" width="5.140625" style="163" customWidth="1"/>
     <col min="12301" max="12544" width="9" style="163"/>
-    <col min="12545" max="12545" width="5.33203125" style="163" customWidth="1"/>
-    <col min="12546" max="12546" width="14.33203125" style="163" customWidth="1"/>
-    <col min="12547" max="12547" width="9.6640625" style="163" customWidth="1"/>
-    <col min="12548" max="12548" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="5.28515625" style="163" customWidth="1"/>
+    <col min="12546" max="12546" width="14.28515625" style="163" customWidth="1"/>
+    <col min="12547" max="12547" width="9.7109375" style="163" customWidth="1"/>
+    <col min="12548" max="12548" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="12549" max="12549" width="6" style="163" customWidth="1"/>
-    <col min="12550" max="12550" width="12.88671875" style="163" customWidth="1"/>
-    <col min="12551" max="12551" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="12.109375" style="163" customWidth="1"/>
-    <col min="12554" max="12554" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="10.44140625" style="163" customWidth="1"/>
-    <col min="12556" max="12556" width="5.109375" style="163" customWidth="1"/>
+    <col min="12550" max="12550" width="12.85546875" style="163" customWidth="1"/>
+    <col min="12551" max="12551" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="12.140625" style="163" customWidth="1"/>
+    <col min="12554" max="12554" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="10.42578125" style="163" customWidth="1"/>
+    <col min="12556" max="12556" width="5.140625" style="163" customWidth="1"/>
     <col min="12557" max="12800" width="9" style="163"/>
-    <col min="12801" max="12801" width="5.33203125" style="163" customWidth="1"/>
-    <col min="12802" max="12802" width="14.33203125" style="163" customWidth="1"/>
-    <col min="12803" max="12803" width="9.6640625" style="163" customWidth="1"/>
-    <col min="12804" max="12804" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="5.28515625" style="163" customWidth="1"/>
+    <col min="12802" max="12802" width="14.28515625" style="163" customWidth="1"/>
+    <col min="12803" max="12803" width="9.7109375" style="163" customWidth="1"/>
+    <col min="12804" max="12804" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="12805" max="12805" width="6" style="163" customWidth="1"/>
-    <col min="12806" max="12806" width="12.88671875" style="163" customWidth="1"/>
-    <col min="12807" max="12807" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="12.109375" style="163" customWidth="1"/>
-    <col min="12810" max="12810" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="10.44140625" style="163" customWidth="1"/>
-    <col min="12812" max="12812" width="5.109375" style="163" customWidth="1"/>
+    <col min="12806" max="12806" width="12.85546875" style="163" customWidth="1"/>
+    <col min="12807" max="12807" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="12.140625" style="163" customWidth="1"/>
+    <col min="12810" max="12810" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="10.42578125" style="163" customWidth="1"/>
+    <col min="12812" max="12812" width="5.140625" style="163" customWidth="1"/>
     <col min="12813" max="13056" width="9" style="163"/>
-    <col min="13057" max="13057" width="5.33203125" style="163" customWidth="1"/>
-    <col min="13058" max="13058" width="14.33203125" style="163" customWidth="1"/>
-    <col min="13059" max="13059" width="9.6640625" style="163" customWidth="1"/>
-    <col min="13060" max="13060" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="5.28515625" style="163" customWidth="1"/>
+    <col min="13058" max="13058" width="14.28515625" style="163" customWidth="1"/>
+    <col min="13059" max="13059" width="9.7109375" style="163" customWidth="1"/>
+    <col min="13060" max="13060" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="13061" max="13061" width="6" style="163" customWidth="1"/>
-    <col min="13062" max="13062" width="12.88671875" style="163" customWidth="1"/>
-    <col min="13063" max="13063" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="12.109375" style="163" customWidth="1"/>
-    <col min="13066" max="13066" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="10.44140625" style="163" customWidth="1"/>
-    <col min="13068" max="13068" width="5.109375" style="163" customWidth="1"/>
+    <col min="13062" max="13062" width="12.85546875" style="163" customWidth="1"/>
+    <col min="13063" max="13063" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="12.140625" style="163" customWidth="1"/>
+    <col min="13066" max="13066" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="10.42578125" style="163" customWidth="1"/>
+    <col min="13068" max="13068" width="5.140625" style="163" customWidth="1"/>
     <col min="13069" max="13312" width="9" style="163"/>
-    <col min="13313" max="13313" width="5.33203125" style="163" customWidth="1"/>
-    <col min="13314" max="13314" width="14.33203125" style="163" customWidth="1"/>
-    <col min="13315" max="13315" width="9.6640625" style="163" customWidth="1"/>
-    <col min="13316" max="13316" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="5.28515625" style="163" customWidth="1"/>
+    <col min="13314" max="13314" width="14.28515625" style="163" customWidth="1"/>
+    <col min="13315" max="13315" width="9.7109375" style="163" customWidth="1"/>
+    <col min="13316" max="13316" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="13317" max="13317" width="6" style="163" customWidth="1"/>
-    <col min="13318" max="13318" width="12.88671875" style="163" customWidth="1"/>
-    <col min="13319" max="13319" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="12.109375" style="163" customWidth="1"/>
-    <col min="13322" max="13322" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="10.44140625" style="163" customWidth="1"/>
-    <col min="13324" max="13324" width="5.109375" style="163" customWidth="1"/>
+    <col min="13318" max="13318" width="12.85546875" style="163" customWidth="1"/>
+    <col min="13319" max="13319" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="12.140625" style="163" customWidth="1"/>
+    <col min="13322" max="13322" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="10.42578125" style="163" customWidth="1"/>
+    <col min="13324" max="13324" width="5.140625" style="163" customWidth="1"/>
     <col min="13325" max="13568" width="9" style="163"/>
-    <col min="13569" max="13569" width="5.33203125" style="163" customWidth="1"/>
-    <col min="13570" max="13570" width="14.33203125" style="163" customWidth="1"/>
-    <col min="13571" max="13571" width="9.6640625" style="163" customWidth="1"/>
-    <col min="13572" max="13572" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="5.28515625" style="163" customWidth="1"/>
+    <col min="13570" max="13570" width="14.28515625" style="163" customWidth="1"/>
+    <col min="13571" max="13571" width="9.7109375" style="163" customWidth="1"/>
+    <col min="13572" max="13572" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="13573" max="13573" width="6" style="163" customWidth="1"/>
-    <col min="13574" max="13574" width="12.88671875" style="163" customWidth="1"/>
-    <col min="13575" max="13575" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="12.109375" style="163" customWidth="1"/>
-    <col min="13578" max="13578" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="10.44140625" style="163" customWidth="1"/>
-    <col min="13580" max="13580" width="5.109375" style="163" customWidth="1"/>
+    <col min="13574" max="13574" width="12.85546875" style="163" customWidth="1"/>
+    <col min="13575" max="13575" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="12.140625" style="163" customWidth="1"/>
+    <col min="13578" max="13578" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="10.42578125" style="163" customWidth="1"/>
+    <col min="13580" max="13580" width="5.140625" style="163" customWidth="1"/>
     <col min="13581" max="13824" width="9" style="163"/>
-    <col min="13825" max="13825" width="5.33203125" style="163" customWidth="1"/>
-    <col min="13826" max="13826" width="14.33203125" style="163" customWidth="1"/>
-    <col min="13827" max="13827" width="9.6640625" style="163" customWidth="1"/>
-    <col min="13828" max="13828" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="5.28515625" style="163" customWidth="1"/>
+    <col min="13826" max="13826" width="14.28515625" style="163" customWidth="1"/>
+    <col min="13827" max="13827" width="9.7109375" style="163" customWidth="1"/>
+    <col min="13828" max="13828" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="13829" max="13829" width="6" style="163" customWidth="1"/>
-    <col min="13830" max="13830" width="12.88671875" style="163" customWidth="1"/>
-    <col min="13831" max="13831" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="12.109375" style="163" customWidth="1"/>
-    <col min="13834" max="13834" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="10.44140625" style="163" customWidth="1"/>
-    <col min="13836" max="13836" width="5.109375" style="163" customWidth="1"/>
+    <col min="13830" max="13830" width="12.85546875" style="163" customWidth="1"/>
+    <col min="13831" max="13831" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="12.140625" style="163" customWidth="1"/>
+    <col min="13834" max="13834" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="10.42578125" style="163" customWidth="1"/>
+    <col min="13836" max="13836" width="5.140625" style="163" customWidth="1"/>
     <col min="13837" max="14080" width="9" style="163"/>
-    <col min="14081" max="14081" width="5.33203125" style="163" customWidth="1"/>
-    <col min="14082" max="14082" width="14.33203125" style="163" customWidth="1"/>
-    <col min="14083" max="14083" width="9.6640625" style="163" customWidth="1"/>
-    <col min="14084" max="14084" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="5.28515625" style="163" customWidth="1"/>
+    <col min="14082" max="14082" width="14.28515625" style="163" customWidth="1"/>
+    <col min="14083" max="14083" width="9.7109375" style="163" customWidth="1"/>
+    <col min="14084" max="14084" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="14085" max="14085" width="6" style="163" customWidth="1"/>
-    <col min="14086" max="14086" width="12.88671875" style="163" customWidth="1"/>
-    <col min="14087" max="14087" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="12.109375" style="163" customWidth="1"/>
-    <col min="14090" max="14090" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="10.44140625" style="163" customWidth="1"/>
-    <col min="14092" max="14092" width="5.109375" style="163" customWidth="1"/>
+    <col min="14086" max="14086" width="12.85546875" style="163" customWidth="1"/>
+    <col min="14087" max="14087" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="12.140625" style="163" customWidth="1"/>
+    <col min="14090" max="14090" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="10.42578125" style="163" customWidth="1"/>
+    <col min="14092" max="14092" width="5.140625" style="163" customWidth="1"/>
     <col min="14093" max="14336" width="9" style="163"/>
-    <col min="14337" max="14337" width="5.33203125" style="163" customWidth="1"/>
-    <col min="14338" max="14338" width="14.33203125" style="163" customWidth="1"/>
-    <col min="14339" max="14339" width="9.6640625" style="163" customWidth="1"/>
-    <col min="14340" max="14340" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="5.28515625" style="163" customWidth="1"/>
+    <col min="14338" max="14338" width="14.28515625" style="163" customWidth="1"/>
+    <col min="14339" max="14339" width="9.7109375" style="163" customWidth="1"/>
+    <col min="14340" max="14340" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="14341" max="14341" width="6" style="163" customWidth="1"/>
-    <col min="14342" max="14342" width="12.88671875" style="163" customWidth="1"/>
-    <col min="14343" max="14343" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="12.109375" style="163" customWidth="1"/>
-    <col min="14346" max="14346" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="10.44140625" style="163" customWidth="1"/>
-    <col min="14348" max="14348" width="5.109375" style="163" customWidth="1"/>
+    <col min="14342" max="14342" width="12.85546875" style="163" customWidth="1"/>
+    <col min="14343" max="14343" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="12.140625" style="163" customWidth="1"/>
+    <col min="14346" max="14346" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="10.42578125" style="163" customWidth="1"/>
+    <col min="14348" max="14348" width="5.140625" style="163" customWidth="1"/>
     <col min="14349" max="14592" width="9" style="163"/>
-    <col min="14593" max="14593" width="5.33203125" style="163" customWidth="1"/>
-    <col min="14594" max="14594" width="14.33203125" style="163" customWidth="1"/>
-    <col min="14595" max="14595" width="9.6640625" style="163" customWidth="1"/>
-    <col min="14596" max="14596" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="5.28515625" style="163" customWidth="1"/>
+    <col min="14594" max="14594" width="14.28515625" style="163" customWidth="1"/>
+    <col min="14595" max="14595" width="9.7109375" style="163" customWidth="1"/>
+    <col min="14596" max="14596" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="14597" max="14597" width="6" style="163" customWidth="1"/>
-    <col min="14598" max="14598" width="12.88671875" style="163" customWidth="1"/>
-    <col min="14599" max="14599" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="12.109375" style="163" customWidth="1"/>
-    <col min="14602" max="14602" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="10.44140625" style="163" customWidth="1"/>
-    <col min="14604" max="14604" width="5.109375" style="163" customWidth="1"/>
+    <col min="14598" max="14598" width="12.85546875" style="163" customWidth="1"/>
+    <col min="14599" max="14599" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="12.140625" style="163" customWidth="1"/>
+    <col min="14602" max="14602" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="10.42578125" style="163" customWidth="1"/>
+    <col min="14604" max="14604" width="5.140625" style="163" customWidth="1"/>
     <col min="14605" max="14848" width="9" style="163"/>
-    <col min="14849" max="14849" width="5.33203125" style="163" customWidth="1"/>
-    <col min="14850" max="14850" width="14.33203125" style="163" customWidth="1"/>
-    <col min="14851" max="14851" width="9.6640625" style="163" customWidth="1"/>
-    <col min="14852" max="14852" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="5.28515625" style="163" customWidth="1"/>
+    <col min="14850" max="14850" width="14.28515625" style="163" customWidth="1"/>
+    <col min="14851" max="14851" width="9.7109375" style="163" customWidth="1"/>
+    <col min="14852" max="14852" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="14853" max="14853" width="6" style="163" customWidth="1"/>
-    <col min="14854" max="14854" width="12.88671875" style="163" customWidth="1"/>
-    <col min="14855" max="14855" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="12.109375" style="163" customWidth="1"/>
-    <col min="14858" max="14858" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="10.44140625" style="163" customWidth="1"/>
-    <col min="14860" max="14860" width="5.109375" style="163" customWidth="1"/>
+    <col min="14854" max="14854" width="12.85546875" style="163" customWidth="1"/>
+    <col min="14855" max="14855" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="12.140625" style="163" customWidth="1"/>
+    <col min="14858" max="14858" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="10.42578125" style="163" customWidth="1"/>
+    <col min="14860" max="14860" width="5.140625" style="163" customWidth="1"/>
     <col min="14861" max="15104" width="9" style="163"/>
-    <col min="15105" max="15105" width="5.33203125" style="163" customWidth="1"/>
-    <col min="15106" max="15106" width="14.33203125" style="163" customWidth="1"/>
-    <col min="15107" max="15107" width="9.6640625" style="163" customWidth="1"/>
-    <col min="15108" max="15108" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="5.28515625" style="163" customWidth="1"/>
+    <col min="15106" max="15106" width="14.28515625" style="163" customWidth="1"/>
+    <col min="15107" max="15107" width="9.7109375" style="163" customWidth="1"/>
+    <col min="15108" max="15108" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="15109" max="15109" width="6" style="163" customWidth="1"/>
-    <col min="15110" max="15110" width="12.88671875" style="163" customWidth="1"/>
-    <col min="15111" max="15111" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="12.109375" style="163" customWidth="1"/>
-    <col min="15114" max="15114" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="10.44140625" style="163" customWidth="1"/>
-    <col min="15116" max="15116" width="5.109375" style="163" customWidth="1"/>
+    <col min="15110" max="15110" width="12.85546875" style="163" customWidth="1"/>
+    <col min="15111" max="15111" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="12.140625" style="163" customWidth="1"/>
+    <col min="15114" max="15114" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="10.42578125" style="163" customWidth="1"/>
+    <col min="15116" max="15116" width="5.140625" style="163" customWidth="1"/>
     <col min="15117" max="15360" width="9" style="163"/>
-    <col min="15361" max="15361" width="5.33203125" style="163" customWidth="1"/>
-    <col min="15362" max="15362" width="14.33203125" style="163" customWidth="1"/>
-    <col min="15363" max="15363" width="9.6640625" style="163" customWidth="1"/>
-    <col min="15364" max="15364" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="5.28515625" style="163" customWidth="1"/>
+    <col min="15362" max="15362" width="14.28515625" style="163" customWidth="1"/>
+    <col min="15363" max="15363" width="9.7109375" style="163" customWidth="1"/>
+    <col min="15364" max="15364" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="15365" max="15365" width="6" style="163" customWidth="1"/>
-    <col min="15366" max="15366" width="12.88671875" style="163" customWidth="1"/>
-    <col min="15367" max="15367" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="12.109375" style="163" customWidth="1"/>
-    <col min="15370" max="15370" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="10.44140625" style="163" customWidth="1"/>
-    <col min="15372" max="15372" width="5.109375" style="163" customWidth="1"/>
+    <col min="15366" max="15366" width="12.85546875" style="163" customWidth="1"/>
+    <col min="15367" max="15367" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="12.140625" style="163" customWidth="1"/>
+    <col min="15370" max="15370" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="10.42578125" style="163" customWidth="1"/>
+    <col min="15372" max="15372" width="5.140625" style="163" customWidth="1"/>
     <col min="15373" max="15616" width="9" style="163"/>
-    <col min="15617" max="15617" width="5.33203125" style="163" customWidth="1"/>
-    <col min="15618" max="15618" width="14.33203125" style="163" customWidth="1"/>
-    <col min="15619" max="15619" width="9.6640625" style="163" customWidth="1"/>
-    <col min="15620" max="15620" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="5.28515625" style="163" customWidth="1"/>
+    <col min="15618" max="15618" width="14.28515625" style="163" customWidth="1"/>
+    <col min="15619" max="15619" width="9.7109375" style="163" customWidth="1"/>
+    <col min="15620" max="15620" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="15621" max="15621" width="6" style="163" customWidth="1"/>
-    <col min="15622" max="15622" width="12.88671875" style="163" customWidth="1"/>
-    <col min="15623" max="15623" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="12.109375" style="163" customWidth="1"/>
-    <col min="15626" max="15626" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="10.44140625" style="163" customWidth="1"/>
-    <col min="15628" max="15628" width="5.109375" style="163" customWidth="1"/>
+    <col min="15622" max="15622" width="12.85546875" style="163" customWidth="1"/>
+    <col min="15623" max="15623" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="12.140625" style="163" customWidth="1"/>
+    <col min="15626" max="15626" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="10.42578125" style="163" customWidth="1"/>
+    <col min="15628" max="15628" width="5.140625" style="163" customWidth="1"/>
     <col min="15629" max="15872" width="9" style="163"/>
-    <col min="15873" max="15873" width="5.33203125" style="163" customWidth="1"/>
-    <col min="15874" max="15874" width="14.33203125" style="163" customWidth="1"/>
-    <col min="15875" max="15875" width="9.6640625" style="163" customWidth="1"/>
-    <col min="15876" max="15876" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="5.28515625" style="163" customWidth="1"/>
+    <col min="15874" max="15874" width="14.28515625" style="163" customWidth="1"/>
+    <col min="15875" max="15875" width="9.7109375" style="163" customWidth="1"/>
+    <col min="15876" max="15876" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="15877" max="15877" width="6" style="163" customWidth="1"/>
-    <col min="15878" max="15878" width="12.88671875" style="163" customWidth="1"/>
-    <col min="15879" max="15879" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="12.109375" style="163" customWidth="1"/>
-    <col min="15882" max="15882" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="10.44140625" style="163" customWidth="1"/>
-    <col min="15884" max="15884" width="5.109375" style="163" customWidth="1"/>
+    <col min="15878" max="15878" width="12.85546875" style="163" customWidth="1"/>
+    <col min="15879" max="15879" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="12.140625" style="163" customWidth="1"/>
+    <col min="15882" max="15882" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="10.42578125" style="163" customWidth="1"/>
+    <col min="15884" max="15884" width="5.140625" style="163" customWidth="1"/>
     <col min="15885" max="16128" width="9" style="163"/>
-    <col min="16129" max="16129" width="5.33203125" style="163" customWidth="1"/>
-    <col min="16130" max="16130" width="14.33203125" style="163" customWidth="1"/>
-    <col min="16131" max="16131" width="9.6640625" style="163" customWidth="1"/>
-    <col min="16132" max="16132" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="5.28515625" style="163" customWidth="1"/>
+    <col min="16130" max="16130" width="14.28515625" style="163" customWidth="1"/>
+    <col min="16131" max="16131" width="9.7109375" style="163" customWidth="1"/>
+    <col min="16132" max="16132" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
     <col min="16133" max="16133" width="6" style="163" customWidth="1"/>
-    <col min="16134" max="16134" width="12.88671875" style="163" customWidth="1"/>
-    <col min="16135" max="16135" width="11.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="12.109375" style="163" customWidth="1"/>
-    <col min="16138" max="16138" width="12.6640625" style="163" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="10.44140625" style="163" customWidth="1"/>
-    <col min="16140" max="16140" width="5.109375" style="163" customWidth="1"/>
+    <col min="16134" max="16134" width="12.85546875" style="163" customWidth="1"/>
+    <col min="16135" max="16135" width="11.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="12.140625" style="163" customWidth="1"/>
+    <col min="16138" max="16138" width="12.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="10.42578125" style="163" customWidth="1"/>
+    <col min="16140" max="16140" width="5.140625" style="163" customWidth="1"/>
     <col min="16141" max="16384" width="9" style="163"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="157" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="444" t="s">
+    <row r="1" spans="1:12" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="447" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="444"/>
-      <c r="C1" s="444"/>
-      <c r="D1" s="444"/>
-      <c r="F1" s="445" t="s">
+      <c r="B1" s="447"/>
+      <c r="C1" s="447"/>
+      <c r="D1" s="447"/>
+      <c r="F1" s="448" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="445"/>
-      <c r="J1" s="445"/>
-      <c r="K1" s="445"/>
-    </row>
-    <row r="2" spans="1:12" s="157" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="446" t="s">
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="448"/>
+      <c r="K1" s="448"/>
+    </row>
+    <row r="2" spans="1:12" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="449" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="446"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
-      <c r="F2" s="447" t="s">
+      <c r="B2" s="449"/>
+      <c r="C2" s="449"/>
+      <c r="D2" s="449"/>
+      <c r="F2" s="450" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="447"/>
-      <c r="H2" s="447"/>
-      <c r="I2" s="447"/>
-      <c r="J2" s="447"/>
-      <c r="K2" s="447"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="450"/>
+      <c r="K2" s="450"/>
     </row>
     <row r="3" spans="1:12" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="158"/>
@@ -13596,46 +13599,46 @@
       <c r="H3" s="159"/>
       <c r="I3" s="159"/>
     </row>
-    <row r="4" spans="1:12" s="161" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="448" t="s">
+    <row r="4" spans="1:12" s="161" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="451" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="448"/>
-      <c r="C4" s="448"/>
-      <c r="D4" s="448"/>
-      <c r="E4" s="448"/>
-      <c r="F4" s="448"/>
-      <c r="G4" s="448"/>
-      <c r="H4" s="448"/>
-      <c r="I4" s="448"/>
-      <c r="J4" s="448"/>
-      <c r="K4" s="448"/>
-      <c r="L4" s="448"/>
-    </row>
-    <row r="5" spans="1:12" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="449" t="s">
+      <c r="B4" s="451"/>
+      <c r="C4" s="451"/>
+      <c r="D4" s="451"/>
+      <c r="E4" s="451"/>
+      <c r="F4" s="451"/>
+      <c r="G4" s="451"/>
+      <c r="H4" s="451"/>
+      <c r="I4" s="451"/>
+      <c r="J4" s="451"/>
+      <c r="K4" s="451"/>
+      <c r="L4" s="451"/>
+    </row>
+    <row r="5" spans="1:12" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="452" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="449"/>
-      <c r="C5" s="449"/>
-      <c r="D5" s="449"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="449"/>
-      <c r="G5" s="449"/>
-      <c r="H5" s="449"/>
-      <c r="I5" s="449"/>
-      <c r="J5" s="449"/>
-      <c r="K5" s="449"/>
-      <c r="L5" s="449"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J6" s="450" t="s">
+      <c r="B5" s="452"/>
+      <c r="C5" s="452"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="452"/>
+      <c r="F5" s="452"/>
+      <c r="G5" s="452"/>
+      <c r="H5" s="452"/>
+      <c r="I5" s="452"/>
+      <c r="J5" s="452"/>
+      <c r="K5" s="452"/>
+      <c r="L5" s="452"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="453" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="450"/>
-      <c r="L6" s="450"/>
-    </row>
-    <row r="7" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="K6" s="453"/>
+      <c r="L6" s="453"/>
+    </row>
+    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="164" t="s">
         <v>72</v>
       </c>
@@ -13673,7 +13676,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="167"/>
       <c r="B8" s="168"/>
       <c r="C8" s="169"/>
@@ -13697,11 +13700,11 @@
       <c r="K8" s="169"/>
       <c r="L8" s="170"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="451" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="452"/>
+      <c r="B9" s="455"/>
       <c r="C9" s="169"/>
       <c r="D9" s="169"/>
       <c r="E9" s="170"/>
@@ -13713,7 +13716,7 @@
       <c r="K9" s="169"/>
       <c r="L9" s="170"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="173">
         <v>1</v>
       </c>
@@ -13745,7 +13748,7 @@
       <c r="K10" s="176"/>
       <c r="L10" s="173"/>
     </row>
-    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="173">
         <v>2</v>
       </c>
@@ -13780,7 +13783,7 @@
       <c r="K11" s="176"/>
       <c r="L11" s="173"/>
     </row>
-    <row r="12" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="173">
         <v>3</v>
       </c>
@@ -13814,7 +13817,7 @@
       <c r="K12" s="176"/>
       <c r="L12" s="173"/>
     </row>
-    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="173">
         <v>4</v>
       </c>
@@ -13847,11 +13850,11 @@
       <c r="K13" s="176"/>
       <c r="L13" s="173"/>
     </row>
-    <row r="14" spans="1:12" s="181" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="453" t="s">
+    <row r="14" spans="1:12" s="181" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="456" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="454"/>
+      <c r="B14" s="457"/>
       <c r="C14" s="177"/>
       <c r="D14" s="178"/>
       <c r="E14" s="179"/>
@@ -13863,7 +13866,7 @@
       <c r="K14" s="179"/>
       <c r="L14" s="180"/>
     </row>
-    <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="182">
         <v>1</v>
       </c>
@@ -13893,7 +13896,7 @@
       <c r="K15" s="185"/>
       <c r="L15" s="182"/>
     </row>
-    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="186">
         <v>2</v>
       </c>
@@ -13928,31 +13931,31 @@
       <c r="K16" s="189"/>
       <c r="L16" s="186"/>
     </row>
-    <row r="19" spans="2:11" s="190" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="455" t="s">
+    <row r="19" spans="2:11" s="190" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="458" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="455"/>
-      <c r="D19" s="455"/>
-      <c r="H19" s="455" t="s">
+      <c r="C19" s="458"/>
+      <c r="D19" s="458"/>
+      <c r="H19" s="458" t="s">
         <v>203</v>
       </c>
-      <c r="I19" s="455"/>
-      <c r="J19" s="455"/>
-      <c r="K19" s="455"/>
-    </row>
-    <row r="20" spans="2:11" s="191" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="B20" s="443" t="s">
+      <c r="I19" s="458"/>
+      <c r="J19" s="458"/>
+      <c r="K19" s="458"/>
+    </row>
+    <row r="20" spans="2:11" s="191" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B20" s="446" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="443"/>
-      <c r="D20" s="443"/>
-      <c r="H20" s="443" t="s">
+      <c r="C20" s="446"/>
+      <c r="D20" s="446"/>
+      <c r="H20" s="446" t="s">
         <v>204</v>
       </c>
-      <c r="I20" s="443"/>
-      <c r="J20" s="443"/>
-      <c r="K20" s="443"/>
+      <c r="I20" s="446"/>
+      <c r="J20" s="446"/>
+      <c r="K20" s="446"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13983,112 +13986,112 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="331" customWidth="1"/>
     <col min="2" max="2" width="12" style="331" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="331" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="331"/>
-    <col min="6" max="6" width="5.33203125" style="331" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="331"/>
-    <col min="9" max="9" width="12.44140625" style="331" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="331" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="331" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="331" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" style="331" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" style="331" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="331" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="331"/>
+    <col min="3" max="3" width="6.140625" style="331" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="331"/>
+    <col min="6" max="6" width="5.28515625" style="331" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="331"/>
+    <col min="9" max="9" width="12.42578125" style="331" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="331" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="331" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="331" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="331" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="331" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="331" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="331"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="330" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="466" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="459" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="466"/>
-      <c r="C3" s="466"/>
-      <c r="D3" s="466"/>
-      <c r="E3" s="466"/>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="466"/>
-      <c r="I3" s="466"/>
-      <c r="J3" s="466"/>
-      <c r="K3" s="466"/>
-      <c r="L3" s="466"/>
-      <c r="M3" s="466"/>
-      <c r="N3" s="466"/>
-      <c r="O3" s="466"/>
-      <c r="P3" s="466"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="467" t="s">
+      <c r="B3" s="459"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
+      <c r="E3" s="459"/>
+      <c r="F3" s="459"/>
+      <c r="G3" s="459"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="459"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="459"/>
+      <c r="M3" s="459"/>
+      <c r="N3" s="459"/>
+      <c r="O3" s="459"/>
+      <c r="P3" s="459"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="460" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="467"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="467"/>
-      <c r="E4" s="467"/>
-      <c r="F4" s="467"/>
-      <c r="G4" s="467"/>
-      <c r="H4" s="467"/>
-      <c r="I4" s="467"/>
-      <c r="J4" s="467"/>
-      <c r="K4" s="468"/>
-      <c r="L4" s="467"/>
-      <c r="M4" s="467"/>
-      <c r="N4" s="467"/>
-      <c r="O4" s="467"/>
-      <c r="P4" s="467"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="456" t="s">
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
+      <c r="D4" s="460"/>
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460"/>
+      <c r="H4" s="460"/>
+      <c r="I4" s="460"/>
+      <c r="J4" s="460"/>
+      <c r="K4" s="461"/>
+      <c r="L4" s="460"/>
+      <c r="M4" s="460"/>
+      <c r="N4" s="460"/>
+      <c r="O4" s="460"/>
+      <c r="P4" s="460"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="462" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="469" t="s">
+      <c r="B5" s="463" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="456" t="s">
+      <c r="C5" s="462" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="456" t="s">
+      <c r="D5" s="462" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="456"/>
-      <c r="F5" s="456"/>
-      <c r="G5" s="470" t="s">
+      <c r="E5" s="462"/>
+      <c r="F5" s="462"/>
+      <c r="G5" s="464" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="470"/>
-      <c r="I5" s="470"/>
-      <c r="J5" s="470"/>
-      <c r="K5" s="471"/>
-      <c r="L5" s="456" t="s">
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="464"/>
+      <c r="K5" s="465"/>
+      <c r="L5" s="462" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="470" t="s">
+      <c r="M5" s="464" t="s">
         <v>238</v>
       </c>
-      <c r="N5" s="470"/>
-      <c r="O5" s="470"/>
-      <c r="P5" s="456" t="s">
+      <c r="N5" s="464"/>
+      <c r="O5" s="464"/>
+      <c r="P5" s="462" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="456"/>
-      <c r="B6" s="469"/>
-      <c r="C6" s="456"/>
+    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="462"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="332" t="s">
         <v>119</v>
       </c>
@@ -14113,7 +14116,7 @@
       <c r="K6" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="456"/>
+      <c r="L6" s="462"/>
       <c r="M6" s="333" t="s">
         <v>248</v>
       </c>
@@ -14123,21 +14126,21 @@
       <c r="O6" s="333" t="s">
         <v>250</v>
       </c>
-      <c r="P6" s="456"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="460">
+      <c r="P6" s="462"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="469">
         <v>1</v>
       </c>
-      <c r="B7" s="457">
+      <c r="B7" s="466">
         <v>43899</v>
       </c>
-      <c r="C7" s="460"/>
-      <c r="D7" s="460" t="s">
+      <c r="C7" s="469"/>
+      <c r="D7" s="469" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="460"/>
-      <c r="F7" s="460"/>
+      <c r="E7" s="469"/>
+      <c r="F7" s="469"/>
       <c r="G7" s="74" t="s">
         <v>98</v>
       </c>
@@ -14158,17 +14161,17 @@
       <c r="M7" s="74"/>
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
-      <c r="P7" s="463" t="s">
+      <c r="P7" s="472" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="461"/>
-      <c r="B8" s="458"/>
-      <c r="C8" s="461"/>
-      <c r="D8" s="461"/>
-      <c r="E8" s="461"/>
-      <c r="F8" s="461"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="470"/>
+      <c r="B8" s="467"/>
+      <c r="C8" s="470"/>
+      <c r="D8" s="470"/>
+      <c r="E8" s="470"/>
+      <c r="F8" s="470"/>
       <c r="G8" s="337" t="s">
         <v>100</v>
       </c>
@@ -14189,15 +14192,15 @@
       <c r="M8" s="337"/>
       <c r="N8" s="337"/>
       <c r="O8" s="337"/>
-      <c r="P8" s="464"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="461"/>
-      <c r="B9" s="458"/>
-      <c r="C9" s="461"/>
-      <c r="D9" s="461"/>
-      <c r="E9" s="461"/>
-      <c r="F9" s="461"/>
+      <c r="P8" s="473"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="470"/>
+      <c r="B9" s="467"/>
+      <c r="C9" s="470"/>
+      <c r="D9" s="470"/>
+      <c r="E9" s="470"/>
+      <c r="F9" s="470"/>
       <c r="G9" s="337" t="s">
         <v>103</v>
       </c>
@@ -14218,15 +14221,15 @@
       <c r="M9" s="337"/>
       <c r="N9" s="337"/>
       <c r="O9" s="337"/>
-      <c r="P9" s="464"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="461"/>
-      <c r="B10" s="458"/>
-      <c r="C10" s="461"/>
-      <c r="D10" s="461"/>
-      <c r="E10" s="461"/>
-      <c r="F10" s="461"/>
+      <c r="P9" s="473"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="470"/>
+      <c r="B10" s="467"/>
+      <c r="C10" s="470"/>
+      <c r="D10" s="470"/>
+      <c r="E10" s="470"/>
+      <c r="F10" s="470"/>
       <c r="G10" s="337" t="s">
         <v>108</v>
       </c>
@@ -14247,15 +14250,15 @@
       <c r="M10" s="337"/>
       <c r="N10" s="337"/>
       <c r="O10" s="337"/>
-      <c r="P10" s="464"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="461"/>
-      <c r="B11" s="458"/>
-      <c r="C11" s="461"/>
-      <c r="D11" s="461"/>
-      <c r="E11" s="461"/>
-      <c r="F11" s="461"/>
+      <c r="P10" s="473"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="470"/>
+      <c r="B11" s="467"/>
+      <c r="C11" s="470"/>
+      <c r="D11" s="470"/>
+      <c r="E11" s="470"/>
+      <c r="F11" s="470"/>
       <c r="G11" s="337" t="s">
         <v>107</v>
       </c>
@@ -14276,15 +14279,15 @@
       <c r="M11" s="337"/>
       <c r="N11" s="337"/>
       <c r="O11" s="337"/>
-      <c r="P11" s="464"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="461"/>
-      <c r="B12" s="458"/>
-      <c r="C12" s="461"/>
-      <c r="D12" s="461"/>
-      <c r="E12" s="461"/>
-      <c r="F12" s="461"/>
+      <c r="P11" s="473"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="470"/>
+      <c r="B12" s="467"/>
+      <c r="C12" s="470"/>
+      <c r="D12" s="470"/>
+      <c r="E12" s="470"/>
+      <c r="F12" s="470"/>
       <c r="G12" s="337" t="s">
         <v>101</v>
       </c>
@@ -14305,15 +14308,15 @@
       <c r="M12" s="337"/>
       <c r="N12" s="337"/>
       <c r="O12" s="337"/>
-      <c r="P12" s="464"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="461"/>
-      <c r="B13" s="458"/>
-      <c r="C13" s="461"/>
-      <c r="D13" s="461"/>
-      <c r="E13" s="461"/>
-      <c r="F13" s="461"/>
+      <c r="P12" s="473"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="470"/>
+      <c r="B13" s="467"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="470"/>
+      <c r="E13" s="470"/>
+      <c r="F13" s="470"/>
       <c r="G13" s="337" t="s">
         <v>140</v>
       </c>
@@ -14334,15 +14337,15 @@
       <c r="M13" s="337"/>
       <c r="N13" s="337"/>
       <c r="O13" s="337"/>
-      <c r="P13" s="464"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="461"/>
-      <c r="B14" s="458"/>
-      <c r="C14" s="461"/>
-      <c r="D14" s="461"/>
-      <c r="E14" s="461"/>
-      <c r="F14" s="461"/>
+      <c r="P13" s="473"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="470"/>
+      <c r="B14" s="467"/>
+      <c r="C14" s="470"/>
+      <c r="D14" s="470"/>
+      <c r="E14" s="470"/>
+      <c r="F14" s="470"/>
       <c r="G14" s="337" t="s">
         <v>102</v>
       </c>
@@ -14363,15 +14366,15 @@
       <c r="M14" s="337"/>
       <c r="N14" s="337"/>
       <c r="O14" s="337"/>
-      <c r="P14" s="464"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="462"/>
-      <c r="B15" s="459"/>
-      <c r="C15" s="462"/>
-      <c r="D15" s="462"/>
-      <c r="E15" s="462"/>
-      <c r="F15" s="462"/>
+      <c r="P14" s="473"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="471"/>
+      <c r="B15" s="468"/>
+      <c r="C15" s="471"/>
+      <c r="D15" s="471"/>
+      <c r="E15" s="471"/>
+      <c r="F15" s="471"/>
       <c r="G15" s="340" t="s">
         <v>131</v>
       </c>
@@ -14392,23 +14395,23 @@
       <c r="M15" s="340"/>
       <c r="N15" s="340"/>
       <c r="O15" s="340"/>
-      <c r="P15" s="465"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="460">
+      <c r="P15" s="474"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="469">
         <v>2</v>
       </c>
-      <c r="B16" s="457">
+      <c r="B16" s="466">
         <v>43908</v>
       </c>
-      <c r="C16" s="460"/>
-      <c r="D16" s="460" t="s">
+      <c r="C16" s="469"/>
+      <c r="D16" s="469" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="460" t="s">
+      <c r="E16" s="469" t="s">
         <v>241</v>
       </c>
-      <c r="F16" s="460"/>
+      <c r="F16" s="469"/>
       <c r="G16" s="343" t="s">
         <v>101</v>
       </c>
@@ -14431,17 +14434,17 @@
       <c r="M16" s="343"/>
       <c r="N16" s="343"/>
       <c r="O16" s="343"/>
-      <c r="P16" s="463" t="s">
+      <c r="P16" s="472" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="461"/>
-      <c r="B17" s="458"/>
-      <c r="C17" s="461"/>
-      <c r="D17" s="461"/>
-      <c r="E17" s="461"/>
-      <c r="F17" s="461"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="470"/>
+      <c r="B17" s="467"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="470"/>
+      <c r="E17" s="470"/>
+      <c r="F17" s="470"/>
       <c r="G17" s="343" t="s">
         <v>105</v>
       </c>
@@ -14465,15 +14468,15 @@
       <c r="M17" s="343"/>
       <c r="N17" s="343"/>
       <c r="O17" s="343"/>
-      <c r="P17" s="464"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="462"/>
-      <c r="B18" s="459"/>
-      <c r="C18" s="462"/>
-      <c r="D18" s="462"/>
-      <c r="E18" s="462"/>
-      <c r="F18" s="462"/>
+      <c r="P17" s="473"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="471"/>
+      <c r="B18" s="468"/>
+      <c r="C18" s="471"/>
+      <c r="D18" s="471"/>
+      <c r="E18" s="471"/>
+      <c r="F18" s="471"/>
       <c r="G18" s="340" t="s">
         <v>98</v>
       </c>
@@ -14497,21 +14500,21 @@
       <c r="M18" s="340"/>
       <c r="N18" s="340"/>
       <c r="O18" s="340"/>
-      <c r="P18" s="465"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="460">
+      <c r="P18" s="474"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="469">
         <v>4</v>
       </c>
-      <c r="B19" s="457">
+      <c r="B19" s="466">
         <v>43864</v>
       </c>
-      <c r="C19" s="460"/>
-      <c r="D19" s="463" t="s">
+      <c r="C19" s="469"/>
+      <c r="D19" s="472" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="460"/>
-      <c r="F19" s="460"/>
+      <c r="E19" s="469"/>
+      <c r="F19" s="469"/>
       <c r="G19" s="74" t="s">
         <v>99</v>
       </c>
@@ -14536,13 +14539,13 @@
       <c r="O19" s="74"/>
       <c r="P19" s="74"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="461"/>
-      <c r="B20" s="458"/>
-      <c r="C20" s="461"/>
-      <c r="D20" s="464"/>
-      <c r="E20" s="461"/>
-      <c r="F20" s="461"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="470"/>
+      <c r="B20" s="467"/>
+      <c r="C20" s="470"/>
+      <c r="D20" s="473"/>
+      <c r="E20" s="470"/>
+      <c r="F20" s="470"/>
       <c r="G20" s="337" t="s">
         <v>100</v>
       </c>
@@ -14567,13 +14570,13 @@
       <c r="O20" s="337"/>
       <c r="P20" s="337"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="461"/>
-      <c r="B21" s="458"/>
-      <c r="C21" s="461"/>
-      <c r="D21" s="464"/>
-      <c r="E21" s="461"/>
-      <c r="F21" s="461"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="470"/>
+      <c r="B21" s="467"/>
+      <c r="C21" s="470"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="470"/>
+      <c r="F21" s="470"/>
       <c r="G21" s="337" t="s">
         <v>103</v>
       </c>
@@ -14598,13 +14601,13 @@
       <c r="O21" s="337"/>
       <c r="P21" s="337"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="462"/>
-      <c r="B22" s="459"/>
-      <c r="C22" s="462"/>
-      <c r="D22" s="465"/>
-      <c r="E22" s="462"/>
-      <c r="F22" s="462"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="471"/>
+      <c r="B22" s="468"/>
+      <c r="C22" s="471"/>
+      <c r="D22" s="474"/>
+      <c r="E22" s="471"/>
+      <c r="F22" s="471"/>
       <c r="G22" s="340" t="s">
         <v>108</v>
       </c>
@@ -14629,7 +14632,7 @@
       <c r="O22" s="340"/>
       <c r="P22" s="340"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="351"/>
       <c r="B23" s="352">
         <v>43891</v>
@@ -14667,15 +14670,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="360" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="456" t="s">
+    <row r="24" spans="1:16" s="360" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="462" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="456"/>
-      <c r="C24" s="456"/>
-      <c r="D24" s="456"/>
-      <c r="E24" s="456"/>
-      <c r="F24" s="456"/>
+      <c r="B24" s="462"/>
+      <c r="C24" s="462"/>
+      <c r="D24" s="462"/>
+      <c r="E24" s="462"/>
+      <c r="F24" s="462"/>
       <c r="G24" s="356"/>
       <c r="H24" s="357">
         <f>SUM(H7:H23)</f>
@@ -14699,63 +14702,48 @@
       <c r="O24" s="356"/>
       <c r="P24" s="356"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H25" s="361"/>
       <c r="I25" s="361"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H26" s="361"/>
       <c r="I26" s="361"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H27" s="361"/>
       <c r="I27" s="361"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H28" s="361"/>
       <c r="I28" s="361"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H29" s="361"/>
       <c r="I29" s="361"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H30" s="361"/>
       <c r="I30" s="361"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H31" s="361"/>
       <c r="I31" s="361"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H32" s="361"/>
       <c r="I32" s="361"/>
     </row>
-    <row r="33" spans="8:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="361"/>
       <c r="I33" s="361"/>
     </row>
-    <row r="34" spans="8:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="361"/>
       <c r="I34" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P7:P15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -14772,6 +14760,21 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P7:P15"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Hàng khách trả" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$I$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$I$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="253">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Nhập hàng 100T</t>
   </si>
 </sst>
 </file>
@@ -2302,153 +2305,153 @@
     <xf numFmtId="165" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2458,6 +2461,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2483,47 +2498,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2563,6 +2566,36 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2572,9 +2605,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2583,33 +2613,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2921,10 +2924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R232"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,17 +3011,17 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="382" t="s">
+      <c r="A4" s="372" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="372"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="372"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -3059,7 +3063,7 @@
       <c r="H6" s="377"/>
       <c r="I6" s="377"/>
     </row>
-    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="374"/>
       <c r="B7" s="374"/>
       <c r="C7" s="376"/>
@@ -3082,7 +3086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43774</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43867</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>433000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43867</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>43870</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>3560000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>43886</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>43886</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>43891</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>43892</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>43893</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>1153846</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>43893</v>
       </c>
@@ -3272,7 +3276,7 @@
         <v>846154</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>43893</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>426000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>43894</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>43894</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>43895</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>1013359.59879</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>43895</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>43895</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>1273000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>43895</v>
       </c>
@@ -3405,7 +3409,7 @@
         <v>1761800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>43895</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>43895</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>43897</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>43898</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>43898</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>43898</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>43898</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>43899</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>43900</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>450000.1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>43900</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>43900</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>2255600</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>43901</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>43901</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>43901</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>43901</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>43901</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>3740000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>43901</v>
       </c>
@@ -3732,7 +3736,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>44138</v>
+        <v>43901</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>57</v>
@@ -3749,7 +3753,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>43902</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43902</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>43902</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>487000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>43902</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>43903</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>43903</v>
       </c>
@@ -3905,7 +3909,7 @@
         <v>532000</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>43903</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>43904</v>
       </c>
@@ -3943,7 +3947,7 @@
         <v>399999.6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>43904</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>450000.1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>43905</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>982000</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>43906</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>43906</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>43906</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>43906</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>43906</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>43906</v>
       </c>
@@ -4095,7 +4099,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>43906</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>43906</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>43906</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>43908</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>43909</v>
       </c>
@@ -4230,7 +4234,7 @@
       <c r="H67" s="16"/>
       <c r="I67" s="19"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>43910</v>
       </c>
@@ -4268,7 +4272,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>43910</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>1014600</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>43911</v>
       </c>
@@ -4306,7 +4310,7 @@
         <v>610000</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>43913</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>43915</v>
       </c>
@@ -4344,7 +4348,7 @@
         <v>1153000</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>43915</v>
       </c>
@@ -4363,7 +4367,7 @@
         <v>2601111</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>43889</v>
       </c>
@@ -4384,22 +4388,23 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="18">
-        <v>3274000</v>
-      </c>
+      <c r="F76" s="18"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
-      <c r="I76" s="19"/>
+      <c r="I76" s="19">
+        <f>100*1650000</f>
+        <v>165000000</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
@@ -4409,12 +4414,12 @@
         <v>57</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="18">
-        <v>15800000</v>
+        <v>3274000</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -4425,29 +4430,29 @@
         <v>43917</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="18">
+        <v>15800000</v>
+      </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
-      <c r="I78" s="19">
-        <v>15800000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>43917</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -4455,56 +4460,56 @@
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="19">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15800000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>43917</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="18">
-        <v>536000</v>
-      </c>
+      <c r="F80" s="18"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
-      <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I80" s="19">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>43917</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="18"/>
+      <c r="F81" s="18">
+        <v>536000</v>
+      </c>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
-      <c r="I81" s="19">
-        <v>4100000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -4512,18 +4517,18 @@
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="19">
-        <v>4200000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4100000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>43918</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -4531,18 +4536,18 @@
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="19">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -4550,18 +4555,18 @@
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="19">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -4569,48 +4574,48 @@
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="19">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="18">
-        <v>536900</v>
-      </c>
+      <c r="F86" s="18"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
-      <c r="I86" s="19"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I86" s="19">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>43921</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="18"/>
+      <c r="F87" s="18">
+        <v>536900</v>
+      </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="I87" s="19">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>43921</v>
       </c>
@@ -4626,10 +4631,10 @@
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="19">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>43921</v>
       </c>
@@ -4645,10 +4650,10 @@
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="19">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>43921</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>53</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -4664,10 +4669,10 @@
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
       <c r="I90" s="19">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>43921</v>
       </c>
@@ -4686,15 +4691,15 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>43921</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -4702,10 +4707,10 @@
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="19">
-        <v>460000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>43921</v>
       </c>
@@ -4713,7 +4718,7 @@
         <v>51</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -4721,18 +4726,18 @@
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="19">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>43921</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -4740,18 +4745,18 @@
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="19">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>43921</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -4759,141 +4764,141 @@
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="19">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
+        <v>43921</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="19">
         <v>3000000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="22">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
         <v>43921</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B97" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C97" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="26">
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="26">
         <v>4248000</v>
       </c>
-      <c r="K96" s="83"/>
-    </row>
-    <row r="97" spans="1:11" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="378" t="s">
+      <c r="K97" s="83"/>
+    </row>
+    <row r="98" spans="1:11" s="28" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="379"/>
-      <c r="C97" s="380"/>
-      <c r="D97" s="27">
-        <f>SUM(D8:D96)</f>
+      <c r="B98" s="379"/>
+      <c r="C98" s="380"/>
+      <c r="D98" s="27">
+        <f>SUM(D8:D97)</f>
         <v>0</v>
       </c>
-      <c r="E97" s="27">
-        <f t="shared" ref="E97:H97" si="0">SUM(E8:E96)</f>
+      <c r="E98" s="27">
+        <f t="shared" ref="E98:H98" si="0">SUM(E8:E97)</f>
         <v>0</v>
       </c>
-      <c r="F97" s="27">
+      <c r="F98" s="27">
         <f t="shared" si="0"/>
         <v>54050900</v>
       </c>
-      <c r="G97" s="27">
+      <c r="G98" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H97" s="27">
+      <c r="H98" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I97" s="27">
-        <f>SUM(I8:I96)</f>
-        <v>146242710.39879</v>
-      </c>
-      <c r="K97" s="29"/>
-    </row>
-    <row r="100" spans="1:11" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="381" t="s">
+      <c r="I98" s="27">
+        <f>SUM(I8:I97)</f>
+        <v>311242710.39879</v>
+      </c>
+      <c r="K98" s="29"/>
+    </row>
+    <row r="101" spans="1:11" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="B100" s="381"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="102" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="372" t="s">
+      <c r="B101" s="381"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="103" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="382" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="372"/>
-      <c r="C102" s="372"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="373" t="s">
+      <c r="B103" s="382"/>
+      <c r="C103" s="382"/>
+    </row>
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="373" t="s">
+      <c r="B104" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="375" t="s">
+      <c r="C104" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="377" t="s">
+      <c r="D104" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="377"/>
-      <c r="F103" s="377"/>
-      <c r="G103" s="377" t="s">
+      <c r="E104" s="377"/>
+      <c r="F104" s="377"/>
+      <c r="G104" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="377"/>
-      <c r="I103" s="377"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="374"/>
-      <c r="B104" s="374"/>
-      <c r="C104" s="376"/>
-      <c r="D104" s="14" t="s">
+      <c r="H104" s="377"/>
+      <c r="I104" s="377"/>
+    </row>
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="374"/>
+      <c r="B105" s="374"/>
+      <c r="C105" s="376"/>
+      <c r="D105" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E105" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F105" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G105" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H105" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="14" t="s">
+      <c r="I105" s="14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="15">
-        <v>43886</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="18">
-        <v>60000</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4912,12 +4917,12 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
       <c r="I106" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>53</v>
@@ -4930,19 +4935,19 @@
       <c r="F107" s="18"/>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
-      <c r="I107" s="19">
+      <c r="I107" s="18">
         <v>40000</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="20" t="s">
-        <v>19</v>
+      <c r="C108" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -4950,7 +4955,7 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
       <c r="I108" s="19">
-        <v>1013359.59879</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4960,8 +4965,8 @@
       <c r="B109" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>15</v>
+      <c r="C109" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
@@ -4969,12 +4974,12 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="19">
-        <v>35000</v>
+        <v>1013359.59879</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>53</v>
@@ -4988,18 +4993,18 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
       <c r="I110" s="19">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -5007,7 +5012,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="19">
-        <v>950000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5018,7 +5023,7 @@
         <v>53</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -5026,7 +5031,7 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="19">
-        <v>35000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -5045,7 +5050,7 @@
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="19">
-        <v>65000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5064,12 +5069,12 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
       <c r="I114" s="19">
-        <v>40000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
-        <v>43901</v>
+        <v>43898</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>53</v>
@@ -5083,18 +5088,18 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="19">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -5102,18 +5107,18 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="19">
-        <v>516240</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -5121,7 +5126,7 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="19">
-        <v>245000</v>
+        <v>516240</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5132,7 +5137,7 @@
         <v>53</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -5140,7 +5145,7 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="19">
-        <v>60000</v>
+        <v>245000</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5159,7 +5164,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
       <c r="I119" s="19">
-        <v>90000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5178,7 +5183,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
       <c r="I120" s="19">
-        <v>75000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5197,18 +5202,18 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
       <c r="I121" s="19">
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -5216,18 +5221,18 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
       <c r="I122" s="19">
-        <v>1014600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
-        <v>43889</v>
+        <v>43910</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
@@ -5235,18 +5240,18 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
       <c r="I123" s="19">
-        <v>814000</v>
+        <v>1014600</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
-        <v>43921</v>
+        <v>43889</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
@@ -5254,7 +5259,7 @@
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
       <c r="I124" s="19">
-        <v>10000</v>
+        <v>814000</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5273,7 +5278,7 @@
       <c r="G125" s="16"/>
       <c r="H125" s="16"/>
       <c r="I125" s="19">
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5292,7 +5297,7 @@
       <c r="G126" s="16"/>
       <c r="H126" s="16"/>
       <c r="I126" s="19">
-        <v>45000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5303,7 +5308,7 @@
         <v>53</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
@@ -5311,131 +5316,129 @@
       <c r="G127" s="16"/>
       <c r="H127" s="16"/>
       <c r="I127" s="19">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="15">
+        <v>43921</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="19">
         <v>1500000</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="30">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="30">
         <v>43921</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B129" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C129" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="34">
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="34">
         <v>1500000</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="43">
-        <f>SUM(I105:I128)</f>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="43">
+        <f>SUM(I106:I129)</f>
         <v>8258199.5987900002</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="372" t="s">
+    <row r="132" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="382" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="372"/>
-      <c r="C131" s="372"/>
-    </row>
-    <row r="132" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="373" t="s">
+      <c r="B132" s="382"/>
+      <c r="C132" s="382"/>
+    </row>
+    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="373" t="s">
+      <c r="B133" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C132" s="375" t="s">
+      <c r="C133" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="377" t="s">
+      <c r="D133" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="377"/>
-      <c r="F132" s="377"/>
-      <c r="G132" s="377" t="s">
+      <c r="E133" s="377"/>
+      <c r="F133" s="377"/>
+      <c r="G133" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="377"/>
-      <c r="I132" s="377"/>
-    </row>
-    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="374"/>
-      <c r="B133" s="374"/>
-      <c r="C133" s="376"/>
-      <c r="D133" s="14" t="s">
+      <c r="H133" s="377"/>
+      <c r="I133" s="377"/>
+    </row>
+    <row r="134" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="374"/>
+      <c r="B134" s="374"/>
+      <c r="C134" s="376"/>
+      <c r="D134" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E134" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F134" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G134" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H133" s="14" t="s">
+      <c r="H134" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I133" s="14" t="s">
+      <c r="I134" s="14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="15">
-        <v>44138</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="19">
-        <v>9450000</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="18">
-        <v>11874000</v>
-      </c>
+      <c r="F135" s="18"/>
       <c r="G135" s="16"/>
       <c r="H135" s="16"/>
       <c r="I135" s="19">
-        <v>0</v>
+        <v>9450000</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5446,12 +5449,12 @@
         <v>57</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
       <c r="F136" s="18">
-        <v>9480000</v>
+        <v>11874000</v>
       </c>
       <c r="G136" s="16"/>
       <c r="H136" s="16"/>
@@ -5461,18 +5464,18 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
-        <v>43908</v>
+        <v>43903</v>
       </c>
       <c r="B137" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="18">
-        <v>7000000</v>
+        <v>9480000</v>
       </c>
       <c r="G137" s="16"/>
       <c r="H137" s="16"/>
@@ -5482,37 +5485,39 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="18">
-        <v>3550000</v>
+        <v>7000000</v>
       </c>
       <c r="G138" s="16"/>
       <c r="H138" s="16"/>
-      <c r="I138" s="19"/>
+      <c r="I138" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
       <c r="F139" s="18">
-        <v>2000000</v>
+        <v>3550000</v>
       </c>
       <c r="G139" s="16"/>
       <c r="H139" s="16"/>
@@ -5520,18 +5525,18 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="18">
-        <v>3274000</v>
+        <v>2000000</v>
       </c>
       <c r="G140" s="16"/>
       <c r="H140" s="16"/>
@@ -5539,22 +5544,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
-      <c r="F141" s="18">
-        <v>536000</v>
-      </c>
+      <c r="F141" s="18"/>
       <c r="G141" s="16"/>
       <c r="H141" s="16"/>
-      <c r="I141" s="19"/>
+      <c r="I141" s="19">
+        <v>165000000</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
@@ -5564,12 +5569,12 @@
         <v>57</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
       <c r="F142" s="18">
-        <v>15800000</v>
+        <v>3274000</v>
       </c>
       <c r="G142" s="16"/>
       <c r="H142" s="16"/>
@@ -5577,150 +5582,150 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
       <c r="F143" s="18">
-        <v>536900</v>
+        <v>15800000</v>
       </c>
       <c r="G143" s="16"/>
       <c r="H143" s="16"/>
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36">
-        <f>SUM(D136:D142)</f>
+      <c r="A144" s="15">
+        <v>43917</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="18">
+        <v>536000</v>
+      </c>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="19"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="15">
+        <v>43921</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="18">
+        <v>536900</v>
+      </c>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="19"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36">
+        <f>SUM(D137:D143)</f>
         <v>0</v>
       </c>
-      <c r="E144" s="36">
-        <f t="shared" ref="E144:H144" si="1">SUM(E136:E142)</f>
+      <c r="E146" s="36">
+        <f t="shared" ref="E146:H146" si="1">SUM(E137:E143)</f>
         <v>0</v>
       </c>
-      <c r="F144" s="27">
-        <f>SUBTOTAL(9,F134:F143)</f>
+      <c r="F146" s="27">
+        <f>SUBTOTAL(9,F135:F145)</f>
         <v>54050900</v>
       </c>
-      <c r="G144" s="36">
+      <c r="G146" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H144" s="36">
+      <c r="H146" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I144" s="41">
-        <f>SUBTOTAL(9,I134:I142)</f>
-        <v>9450000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="372" t="s">
+      <c r="I146" s="41">
+        <f>SUBTOTAL(9,I135:I145)</f>
+        <v>174450000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="382" t="s">
         <v>60</v>
       </c>
-      <c r="B146" s="372"/>
-      <c r="C146" s="372"/>
-    </row>
-    <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="373" t="s">
+      <c r="B148" s="382"/>
+      <c r="C148" s="382"/>
+    </row>
+    <row r="149" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="373" t="s">
+      <c r="B149" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="375" t="s">
+      <c r="C149" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="377" t="s">
+      <c r="D149" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="377"/>
-      <c r="F147" s="377"/>
-      <c r="G147" s="377" t="s">
+      <c r="E149" s="377"/>
+      <c r="F149" s="377"/>
+      <c r="G149" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H147" s="377"/>
-      <c r="I147" s="377"/>
-    </row>
-    <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="374"/>
-      <c r="B148" s="374"/>
-      <c r="C148" s="376"/>
-      <c r="D148" s="14" t="s">
+      <c r="H149" s="377"/>
+      <c r="I149" s="377"/>
+    </row>
+    <row r="150" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="374"/>
+      <c r="B150" s="374"/>
+      <c r="C150" s="376"/>
+      <c r="D150" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E150" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F150" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G148" s="14" t="s">
+      <c r="G150" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H148" s="14" t="s">
+      <c r="H150" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I148" s="14" t="s">
+      <c r="I150" s="14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="15">
-        <v>43893</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="19">
-        <v>1153846</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="15">
-        <v>43893</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="19">
-        <v>846154</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
-        <v>43900</v>
+        <v>43893</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C151" s="21" t="s">
-        <v>22</v>
+      <c r="C151" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
@@ -5728,18 +5733,18 @@
       <c r="G151" s="16"/>
       <c r="H151" s="16"/>
       <c r="I151" s="19">
-        <v>8000000</v>
+        <v>1153846</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
@@ -5747,37 +5752,37 @@
       <c r="G152" s="16"/>
       <c r="H152" s="16"/>
       <c r="I152" s="19">
-        <v>11000000</v>
+        <v>846154</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="30">
-        <v>43915</v>
-      </c>
-      <c r="B153" s="31" t="s">
+      <c r="A153" s="15">
+        <v>43900</v>
+      </c>
+      <c r="B153" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C153" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="34">
-        <v>2601111</v>
+      <c r="C153" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="19">
+        <v>8000000</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
-        <v>43917</v>
+        <v>43901</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
@@ -5785,218 +5790,218 @@
       <c r="G154" s="16"/>
       <c r="H154" s="16"/>
       <c r="I154" s="19">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="30">
+        <v>43915</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="34">
+        <v>2601111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="15">
+        <v>43917</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="19">
         <v>4100000</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="41">
-        <f>SUM(I149:I154)</f>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="36"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="41">
+        <f>SUM(I151:I156)</f>
         <v>27701111</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="372" t="s">
+    <row r="159" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A159" s="382" t="s">
         <v>61</v>
       </c>
-      <c r="B157" s="372"/>
-      <c r="C157" s="372"/>
-    </row>
-    <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="373" t="s">
+      <c r="B159" s="382"/>
+      <c r="C159" s="382"/>
+    </row>
+    <row r="160" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="373" t="s">
+      <c r="B160" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="375" t="s">
+      <c r="C160" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="377" t="s">
+      <c r="D160" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="377"/>
-      <c r="F158" s="377"/>
-      <c r="G158" s="377" t="s">
+      <c r="E160" s="377"/>
+      <c r="F160" s="377"/>
+      <c r="G160" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H158" s="377"/>
-      <c r="I158" s="377"/>
-    </row>
-    <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="374"/>
-      <c r="B159" s="374"/>
-      <c r="C159" s="376"/>
-      <c r="D159" s="14" t="s">
+      <c r="H160" s="377"/>
+      <c r="I160" s="377"/>
+    </row>
+    <row r="161" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="374"/>
+      <c r="B161" s="374"/>
+      <c r="C161" s="376"/>
+      <c r="D161" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="E161" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F159" s="14" t="s">
+      <c r="F161" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G159" s="14" t="s">
+      <c r="G161" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H159" s="14" t="s">
+      <c r="H161" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I159" s="14" t="s">
+      <c r="I161" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="15">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="15">
         <v>43902</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B162" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C162" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="19">
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="19">
         <v>9000000</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="22">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="22">
         <v>43921</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B163" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C161" s="24" t="s">
+      <c r="C163" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="26">
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="26">
         <v>4248000</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="36"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="36"/>
-      <c r="E162" s="36"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="41">
-        <f>SUM(I160:I161)</f>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="41">
+        <f>SUM(I162:I163)</f>
         <v>13248000</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="372" t="s">
+    <row r="166" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A166" s="382" t="s">
         <v>62</v>
       </c>
-      <c r="B164" s="372"/>
-      <c r="C164" s="372"/>
-    </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="373" t="s">
+      <c r="B166" s="382"/>
+      <c r="C166" s="382"/>
+    </row>
+    <row r="167" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="373" t="s">
+      <c r="B167" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="375" t="s">
+      <c r="C167" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="377" t="s">
+      <c r="D167" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="377"/>
-      <c r="F165" s="377"/>
-      <c r="G165" s="377" t="s">
+      <c r="E167" s="377"/>
+      <c r="F167" s="377"/>
+      <c r="G167" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="377"/>
-      <c r="I165" s="377"/>
-    </row>
-    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="374"/>
-      <c r="B166" s="374"/>
-      <c r="C166" s="376"/>
-      <c r="D166" s="14" t="s">
+      <c r="H167" s="377"/>
+      <c r="I167" s="377"/>
+    </row>
+    <row r="168" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="374"/>
+      <c r="B168" s="374"/>
+      <c r="C168" s="376"/>
+      <c r="D168" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="E168" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="14" t="s">
+      <c r="F168" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G166" s="14" t="s">
+      <c r="G168" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H166" s="14" t="s">
+      <c r="H168" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I166" s="14" t="s">
+      <c r="I168" s="14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="15">
-        <v>43867</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="18">
-        <v>433000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="15">
-        <v>43867</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="18">
-        <v>1100000</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>52</v>
@@ -6010,18 +6015,18 @@
       <c r="G169" s="16"/>
       <c r="H169" s="16"/>
       <c r="I169" s="18">
-        <v>3560000</v>
+        <v>433000</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
-        <v>43891</v>
+        <v>43867</v>
       </c>
       <c r="B170" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
@@ -6029,12 +6034,12 @@
       <c r="G170" s="16"/>
       <c r="H170" s="16"/>
       <c r="I170" s="18">
-        <v>6500000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
-        <v>43892</v>
+        <v>43870</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>52</v>
@@ -6047,13 +6052,13 @@
       <c r="F171" s="18"/>
       <c r="G171" s="16"/>
       <c r="H171" s="16"/>
-      <c r="I171" s="19">
-        <v>118000</v>
+      <c r="I171" s="18">
+        <v>3560000</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="B172" s="16" t="s">
         <v>52</v>
@@ -6066,19 +6071,19 @@
       <c r="F172" s="18"/>
       <c r="G172" s="16"/>
       <c r="H172" s="16"/>
-      <c r="I172" s="19">
-        <v>426000</v>
+      <c r="I172" s="18">
+        <v>6500000</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="B173" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
@@ -6086,12 +6091,12 @@
       <c r="G173" s="16"/>
       <c r="H173" s="16"/>
       <c r="I173" s="19">
-        <v>500000</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="B174" s="16" t="s">
         <v>52</v>
@@ -6105,7 +6110,7 @@
       <c r="G174" s="16"/>
       <c r="H174" s="16"/>
       <c r="I174" s="19">
-        <v>1273000</v>
+        <v>426000</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6116,7 +6121,7 @@
         <v>52</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
@@ -6124,7 +6129,7 @@
       <c r="G175" s="16"/>
       <c r="H175" s="16"/>
       <c r="I175" s="19">
-        <v>1761800</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6143,18 +6148,18 @@
       <c r="G176" s="16"/>
       <c r="H176" s="16"/>
       <c r="I176" s="19">
-        <v>60000</v>
+        <v>1273000</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C177" s="21" t="s">
-        <v>13</v>
+      <c r="C177" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -6162,18 +6167,18 @@
       <c r="G177" s="16"/>
       <c r="H177" s="16"/>
       <c r="I177" s="19">
-        <v>300000</v>
+        <v>1761800</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
-        <v>43900</v>
+        <v>43895</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C178" s="21" t="s">
-        <v>14</v>
+      <c r="C178" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
@@ -6181,18 +6186,18 @@
       <c r="G178" s="16"/>
       <c r="H178" s="16"/>
       <c r="I178" s="19">
-        <v>450000.1</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B179" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C179" s="17" t="s">
-        <v>23</v>
+      <c r="C179" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -6200,18 +6205,18 @@
       <c r="G179" s="16"/>
       <c r="H179" s="16"/>
       <c r="I179" s="19">
-        <v>2255600</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C180" s="17" t="s">
-        <v>28</v>
+      <c r="C180" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
@@ -6219,18 +6224,18 @@
       <c r="G180" s="16"/>
       <c r="H180" s="16"/>
       <c r="I180" s="19">
-        <v>2750000</v>
+        <v>450000.1</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B181" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -6238,18 +6243,18 @@
       <c r="G181" s="16"/>
       <c r="H181" s="16"/>
       <c r="I181" s="19">
-        <v>195000</v>
+        <v>2255600</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B182" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -6257,18 +6262,18 @@
       <c r="G182" s="16"/>
       <c r="H182" s="16"/>
       <c r="I182" s="19">
-        <v>487000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B183" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -6276,12 +6281,12 @@
       <c r="G183" s="16"/>
       <c r="H183" s="16"/>
       <c r="I183" s="19">
-        <v>450000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B184" s="16" t="s">
         <v>52</v>
@@ -6295,7 +6300,7 @@
       <c r="G184" s="16"/>
       <c r="H184" s="16"/>
       <c r="I184" s="19">
-        <v>532000</v>
+        <v>487000</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6306,7 +6311,7 @@
         <v>52</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -6314,18 +6319,18 @@
       <c r="G185" s="16"/>
       <c r="H185" s="16"/>
       <c r="I185" s="19">
-        <v>150000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B186" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -6333,18 +6338,18 @@
       <c r="G186" s="16"/>
       <c r="H186" s="16"/>
       <c r="I186" s="19">
-        <v>399999.6</v>
+        <v>532000</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B187" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -6352,18 +6357,18 @@
       <c r="G187" s="16"/>
       <c r="H187" s="16"/>
       <c r="I187" s="19">
-        <v>450000.1</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B188" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -6371,18 +6376,18 @@
       <c r="G188" s="16"/>
       <c r="H188" s="16"/>
       <c r="I188" s="19">
-        <v>982000</v>
+        <v>399999.6</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
@@ -6390,12 +6395,12 @@
       <c r="G189" s="16"/>
       <c r="H189" s="16"/>
       <c r="I189" s="19">
-        <v>196000</v>
+        <v>450000.1</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B190" s="16" t="s">
         <v>52</v>
@@ -6409,7 +6414,7 @@
       <c r="G190" s="16"/>
       <c r="H190" s="16"/>
       <c r="I190" s="19">
-        <v>28000</v>
+        <v>982000</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6420,7 +6425,7 @@
         <v>52</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
@@ -6428,7 +6433,7 @@
       <c r="G191" s="16"/>
       <c r="H191" s="16"/>
       <c r="I191" s="19">
-        <v>480000</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6447,140 +6452,140 @@
       <c r="G192" s="16"/>
       <c r="H192" s="16"/>
       <c r="I192" s="19">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="15">
+        <v>43906</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="19">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="15">
+        <v>43906</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="19">
         <v>25000</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="30">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="30">
         <v>43921</v>
       </c>
-      <c r="B193" s="31" t="s">
+      <c r="B195" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C193" s="32" t="s">
+      <c r="C195" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D193" s="31"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="31"/>
-      <c r="H193" s="31"/>
-      <c r="I193" s="34">
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="31"/>
+      <c r="I195" s="34">
         <v>130000</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="35"/>
-      <c r="C194" s="35"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="35"/>
-      <c r="G194" s="35"/>
-      <c r="H194" s="35"/>
-      <c r="I194" s="41">
-        <f>SUM(I167:I193)</f>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="35"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="35"/>
+      <c r="D196" s="35"/>
+      <c r="E196" s="35"/>
+      <c r="F196" s="35"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="35"/>
+      <c r="I196" s="41">
+        <f>SUM(I169:I195)</f>
         <v>25992399.800000004</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="372" t="s">
+    <row r="198" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A198" s="382" t="s">
         <v>63</v>
       </c>
-      <c r="B196" s="372"/>
-      <c r="C196" s="372"/>
-    </row>
-    <row r="197" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="373" t="s">
+      <c r="B198" s="382"/>
+      <c r="C198" s="382"/>
+    </row>
+    <row r="199" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="373" t="s">
+      <c r="B199" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C197" s="375" t="s">
+      <c r="C199" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="377" t="s">
+      <c r="D199" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="377"/>
-      <c r="F197" s="377"/>
-      <c r="G197" s="377" t="s">
+      <c r="E199" s="377"/>
+      <c r="F199" s="377"/>
+      <c r="G199" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H197" s="377"/>
-      <c r="I197" s="377"/>
-    </row>
-    <row r="198" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="374"/>
-      <c r="B198" s="374"/>
-      <c r="C198" s="376"/>
-      <c r="D198" s="14" t="s">
+      <c r="H199" s="377"/>
+      <c r="I199" s="377"/>
+    </row>
+    <row r="200" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="374"/>
+      <c r="B200" s="374"/>
+      <c r="C200" s="376"/>
+      <c r="D200" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E198" s="14" t="s">
+      <c r="E200" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F198" s="14" t="s">
+      <c r="F200" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G198" s="14" t="s">
+      <c r="G200" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H198" s="14" t="s">
+      <c r="H200" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I198" s="14" t="s">
+      <c r="I200" s="14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="15">
-        <v>43901</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D199" s="16"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="16"/>
-      <c r="I199" s="19">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="15">
-        <v>43908</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="16"/>
-      <c r="I200" s="19">
-        <v>1000000</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
-        <v>43910</v>
+        <v>43901</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
@@ -6588,18 +6593,18 @@
       <c r="G201" s="16"/>
       <c r="H201" s="16"/>
       <c r="I201" s="19">
-        <v>3600000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
-        <v>43915</v>
+        <v>43908</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
@@ -6607,18 +6612,18 @@
       <c r="G202" s="16"/>
       <c r="H202" s="16"/>
       <c r="I202" s="19">
-        <v>1153000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
@@ -6626,18 +6631,18 @@
       <c r="G203" s="16"/>
       <c r="H203" s="16"/>
       <c r="I203" s="19">
-        <v>500000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
@@ -6645,227 +6650,227 @@
       <c r="G204" s="16"/>
       <c r="H204" s="16"/>
       <c r="I204" s="19">
+        <v>1153000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="15">
+        <v>43917</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="19">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="15">
+        <v>43918</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="19">
         <v>130000</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="36"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="36"/>
-      <c r="H205" s="36"/>
-      <c r="I205" s="41">
-        <f>SUM(I199:I204)</f>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="36"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="36"/>
+      <c r="D207" s="36"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="36"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="41">
+        <f>SUM(I201:I206)</f>
         <v>9383000</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A207" s="372" t="s">
+    <row r="209" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A209" s="382" t="s">
         <v>64</v>
       </c>
-      <c r="B207" s="372"/>
-      <c r="C207" s="372"/>
-    </row>
-    <row r="208" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="373" t="s">
+      <c r="B209" s="382"/>
+      <c r="C209" s="382"/>
+    </row>
+    <row r="210" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B208" s="373" t="s">
+      <c r="B210" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C208" s="375" t="s">
+      <c r="C210" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="377" t="s">
+      <c r="D210" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E208" s="377"/>
-      <c r="F208" s="377"/>
-      <c r="G208" s="377" t="s">
+      <c r="E210" s="377"/>
+      <c r="F210" s="377"/>
+      <c r="G210" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H208" s="377"/>
-      <c r="I208" s="377"/>
-    </row>
-    <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="374"/>
-      <c r="B209" s="374"/>
-      <c r="C209" s="376"/>
-      <c r="D209" s="14" t="s">
+      <c r="H210" s="377"/>
+      <c r="I210" s="377"/>
+    </row>
+    <row r="211" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="374"/>
+      <c r="B211" s="374"/>
+      <c r="C211" s="376"/>
+      <c r="D211" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E209" s="14" t="s">
+      <c r="E211" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F209" s="14" t="s">
+      <c r="F211" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G209" s="14" t="s">
+      <c r="G211" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H209" s="14" t="s">
+      <c r="H211" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I209" s="14" t="s">
+      <c r="I211" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="30">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="30">
         <v>43901</v>
       </c>
-      <c r="B210" s="31" t="s">
+      <c r="B212" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C210" s="32" t="s">
+      <c r="C212" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D210" s="31"/>
-      <c r="E210" s="31"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="31"/>
-      <c r="H210" s="31"/>
-      <c r="I210" s="34">
+      <c r="D212" s="31"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="33"/>
+      <c r="G212" s="31"/>
+      <c r="H212" s="31"/>
+      <c r="I212" s="34">
         <v>200000</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="38"/>
-      <c r="B211" s="35"/>
-      <c r="C211" s="39"/>
-      <c r="D211" s="35"/>
-      <c r="E211" s="35"/>
-      <c r="F211" s="40"/>
-      <c r="G211" s="35"/>
-      <c r="H211" s="35"/>
-      <c r="I211" s="42">
-        <f>I210</f>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="38"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="39"/>
+      <c r="D213" s="35"/>
+      <c r="E213" s="35"/>
+      <c r="F213" s="40"/>
+      <c r="G213" s="35"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="42">
+        <f>I212</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I212" s="37"/>
-    </row>
-    <row r="213" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A213" s="372" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I214" s="37"/>
+    </row>
+    <row r="215" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A215" s="382" t="s">
         <v>65</v>
       </c>
-      <c r="B213" s="372"/>
-      <c r="C213" s="372"/>
-    </row>
-    <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="373" t="s">
+      <c r="B215" s="382"/>
+      <c r="C215" s="382"/>
+    </row>
+    <row r="216" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="373" t="s">
+      <c r="B216" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="375" t="s">
+      <c r="C216" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="377" t="s">
+      <c r="D216" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="E214" s="377"/>
-      <c r="F214" s="377"/>
-      <c r="G214" s="377" t="s">
+      <c r="E216" s="377"/>
+      <c r="F216" s="377"/>
+      <c r="G216" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H214" s="377"/>
-      <c r="I214" s="377"/>
-    </row>
-    <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="374"/>
-      <c r="B215" s="374"/>
-      <c r="C215" s="376"/>
-      <c r="D215" s="14" t="s">
+      <c r="H216" s="377"/>
+      <c r="I216" s="377"/>
+    </row>
+    <row r="217" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="374"/>
+      <c r="B217" s="374"/>
+      <c r="C217" s="376"/>
+      <c r="D217" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E215" s="14" t="s">
+      <c r="E217" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F215" s="14" t="s">
+      <c r="F217" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G215" s="14" t="s">
+      <c r="G217" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H215" s="14" t="s">
+      <c r="H217" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I215" s="14" t="s">
+      <c r="I217" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="15">
+    <row r="218" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="15">
         <v>43774</v>
-      </c>
-      <c r="B216" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="16"/>
-      <c r="E216" s="16"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16"/>
-      <c r="I216" s="18">
-        <v>7750000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="15">
-        <v>43894</v>
-      </c>
-      <c r="B217" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D217" s="16"/>
-      <c r="E217" s="16"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="16"/>
-      <c r="I217" s="19">
-        <v>11200000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="15">
-        <v>43901</v>
       </c>
       <c r="B218" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
       <c r="F218" s="18"/>
       <c r="G218" s="16"/>
       <c r="H218" s="16"/>
-      <c r="I218" s="19">
-        <v>3740000</v>
+      <c r="I218" s="18">
+        <v>7750000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
-        <v>43909</v>
+        <v>43894</v>
       </c>
       <c r="B219" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D219" s="16"/>
       <c r="E219" s="16"/>
@@ -6873,18 +6878,18 @@
       <c r="G219" s="16"/>
       <c r="H219" s="16"/>
       <c r="I219" s="19">
-        <v>3740000</v>
+        <v>11200000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
-        <v>43911</v>
+        <v>43901</v>
       </c>
       <c r="B220" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D220" s="16"/>
       <c r="E220" s="16"/>
@@ -6892,18 +6897,18 @@
       <c r="G220" s="16"/>
       <c r="H220" s="16"/>
       <c r="I220" s="19">
-        <v>610000</v>
+        <v>3740000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="15">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="B221" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D221" s="16"/>
       <c r="E221" s="16"/>
@@ -6911,18 +6916,18 @@
       <c r="G221" s="16"/>
       <c r="H221" s="16"/>
       <c r="I221" s="19">
-        <v>500000</v>
+        <v>3740000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="15">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="B222" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D222" s="16"/>
       <c r="E222" s="16"/>
@@ -6930,18 +6935,18 @@
       <c r="G222" s="16"/>
       <c r="H222" s="16"/>
       <c r="I222" s="19">
-        <v>15800000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D223" s="16"/>
       <c r="E223" s="16"/>
@@ -6949,18 +6954,18 @@
       <c r="G223" s="16"/>
       <c r="H223" s="16"/>
       <c r="I223" s="19">
-        <v>4200000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="15">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B224" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
@@ -6968,18 +6973,18 @@
       <c r="G224" s="16"/>
       <c r="H224" s="16"/>
       <c r="I224" s="19">
-        <v>100000</v>
+        <v>15800000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B225" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
@@ -6987,18 +6992,18 @@
       <c r="G225" s="16"/>
       <c r="H225" s="16"/>
       <c r="I225" s="19">
-        <v>700000</v>
+        <v>4200000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B226" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
@@ -7006,18 +7011,18 @@
       <c r="G226" s="16"/>
       <c r="H226" s="16"/>
       <c r="I226" s="19">
-        <v>460000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="15">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B227" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
@@ -7025,7 +7030,7 @@
       <c r="G227" s="16"/>
       <c r="H227" s="16"/>
       <c r="I227" s="19">
-        <v>210000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7036,7 +7041,7 @@
         <v>51</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
@@ -7044,111 +7049,154 @@
       <c r="G228" s="16"/>
       <c r="H228" s="16"/>
       <c r="I228" s="19">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="15">
+        <v>43921</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D229" s="16"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="18"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="16"/>
+      <c r="I229" s="19">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="15">
+        <v>43921</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="19">
         <v>3000000</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="35"/>
-      <c r="B229" s="35"/>
-      <c r="C229" s="35"/>
-      <c r="D229" s="35"/>
-      <c r="E229" s="35"/>
-      <c r="F229" s="35"/>
-      <c r="G229" s="35"/>
-      <c r="H229" s="35"/>
-      <c r="I229" s="41">
-        <f>SUM(I216:I228)</f>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="35"/>
+      <c r="D231" s="35"/>
+      <c r="E231" s="35"/>
+      <c r="F231" s="35"/>
+      <c r="G231" s="35"/>
+      <c r="H231" s="35"/>
+      <c r="I231" s="41">
+        <f>SUM(I218:I230)</f>
         <v>52010000</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="45" t="s">
+    <row r="233" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C231" s="46"/>
-      <c r="F231" s="45" t="s">
+      <c r="C233" s="46"/>
+      <c r="F233" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G231" s="46"/>
-      <c r="H231" s="46"/>
-      <c r="I231" s="46"/>
-    </row>
-    <row r="232" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="47" t="s">
+      <c r="G233" s="46"/>
+      <c r="H233" s="46"/>
+      <c r="I233" s="46"/>
+    </row>
+    <row r="234" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C232" s="48"/>
-      <c r="F232" s="47" t="s">
+      <c r="C234" s="48"/>
+      <c r="F234" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G232" s="48"/>
-      <c r="H232" s="48"/>
-      <c r="I232" s="48"/>
+      <c r="G234" s="48"/>
+      <c r="H234" s="48"/>
+      <c r="I234" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:I97">
+  <autoFilter ref="A6:I98">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hàng hóa"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="G216:I216"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="G199:I199"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="G210:I210"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="G167:I167"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="G214:I214"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="G197:I197"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="G208:I208"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:F214"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7217,109 +7265,109 @@
       <c r="N2" s="253"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="400" t="s">
+      <c r="A3" s="401" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
-      <c r="H3" s="400"/>
-      <c r="I3" s="400"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
-      <c r="N3" s="400"/>
-      <c r="O3" s="400"/>
-      <c r="P3" s="400"/>
+      <c r="B3" s="401"/>
+      <c r="C3" s="401"/>
+      <c r="D3" s="401"/>
+      <c r="E3" s="401"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="401"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
+      <c r="K3" s="401"/>
+      <c r="L3" s="401"/>
+      <c r="M3" s="401"/>
+      <c r="N3" s="401"/>
+      <c r="O3" s="401"/>
+      <c r="P3" s="401"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="400" t="s">
+      <c r="A4" s="401" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
-      <c r="F4" s="400"/>
-      <c r="G4" s="400"/>
-      <c r="H4" s="400"/>
-      <c r="I4" s="400"/>
-      <c r="J4" s="400"/>
-      <c r="K4" s="400"/>
-      <c r="L4" s="400"/>
-      <c r="M4" s="400"/>
-      <c r="N4" s="400"/>
-      <c r="O4" s="400"/>
-      <c r="P4" s="400"/>
+      <c r="B4" s="401"/>
+      <c r="C4" s="401"/>
+      <c r="D4" s="401"/>
+      <c r="E4" s="401"/>
+      <c r="F4" s="401"/>
+      <c r="G4" s="401"/>
+      <c r="H4" s="401"/>
+      <c r="I4" s="401"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
+      <c r="N4" s="401"/>
+      <c r="O4" s="401"/>
+      <c r="P4" s="401"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="400"/>
-      <c r="B5" s="400"/>
-      <c r="C5" s="400"/>
-      <c r="D5" s="400"/>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="400"/>
-      <c r="J5" s="400"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="401"/>
+      <c r="A5" s="401"/>
+      <c r="B5" s="401"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="402"/>
     </row>
     <row r="6" spans="1:16" s="254" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="402" t="s">
+      <c r="A6" s="403" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="405" t="s">
+      <c r="B6" s="406" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="402" t="s">
+      <c r="C6" s="403" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="408" t="s">
+      <c r="D6" s="409" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="408"/>
-      <c r="F6" s="409" t="s">
+      <c r="E6" s="409"/>
+      <c r="F6" s="410" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="409"/>
-      <c r="H6" s="409"/>
-      <c r="I6" s="409"/>
-      <c r="J6" s="409"/>
-      <c r="K6" s="409"/>
-      <c r="L6" s="409"/>
-      <c r="M6" s="410"/>
-      <c r="N6" s="410"/>
-      <c r="O6" s="410"/>
-      <c r="P6" s="397" t="s">
+      <c r="G6" s="410"/>
+      <c r="H6" s="410"/>
+      <c r="I6" s="410"/>
+      <c r="J6" s="410"/>
+      <c r="K6" s="410"/>
+      <c r="L6" s="410"/>
+      <c r="M6" s="411"/>
+      <c r="N6" s="411"/>
+      <c r="O6" s="411"/>
+      <c r="P6" s="388" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="254" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="403"/>
-      <c r="B7" s="406"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="402" t="s">
+      <c r="A7" s="404"/>
+      <c r="B7" s="407"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="403" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="402" t="s">
+      <c r="E7" s="403" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="402" t="s">
+      <c r="F7" s="403" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="402" t="s">
+      <c r="G7" s="403" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="402" t="s">
+      <c r="H7" s="403" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="403" t="s">
         <v>122</v>
       </c>
       <c r="J7" s="412" t="s">
@@ -7338,18 +7386,18 @@
       <c r="O7" s="415" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="411"/>
+      <c r="P7" s="400"/>
     </row>
     <row r="8" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="404"/>
-      <c r="B8" s="407"/>
-      <c r="C8" s="404"/>
-      <c r="D8" s="404"/>
-      <c r="E8" s="404"/>
-      <c r="F8" s="404"/>
-      <c r="G8" s="404"/>
-      <c r="H8" s="404"/>
-      <c r="I8" s="404"/>
+      <c r="A8" s="405"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="405"/>
+      <c r="F8" s="405"/>
+      <c r="G8" s="405"/>
+      <c r="H8" s="405"/>
+      <c r="I8" s="405"/>
       <c r="J8" s="255" t="s">
         <v>51</v>
       </c>
@@ -7360,13 +7408,13 @@
       <c r="M8" s="416"/>
       <c r="N8" s="416"/>
       <c r="O8" s="416"/>
-      <c r="P8" s="398"/>
+      <c r="P8" s="389"/>
     </row>
     <row r="9" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="383">
         <v>1</v>
       </c>
-      <c r="B9" s="394">
+      <c r="B9" s="386">
         <v>43891</v>
       </c>
       <c r="C9" s="383" t="s">
@@ -7410,11 +7458,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="386"/>
-      <c r="B10" s="417"/>
-      <c r="C10" s="386"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="386"/>
+      <c r="A10" s="384"/>
+      <c r="B10" s="390"/>
+      <c r="C10" s="384"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="384"/>
       <c r="F10" s="261" t="s">
         <v>100</v>
       </c>
@@ -7442,14 +7490,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="264"/>
-      <c r="P10" s="386"/>
+      <c r="P10" s="384"/>
     </row>
     <row r="11" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
-      <c r="B11" s="417"/>
-      <c r="C11" s="386"/>
-      <c r="D11" s="386"/>
-      <c r="E11" s="386"/>
+      <c r="A11" s="384"/>
+      <c r="B11" s="390"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="384"/>
+      <c r="E11" s="384"/>
       <c r="F11" s="261" t="s">
         <v>103</v>
       </c>
@@ -7477,14 +7525,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="264"/>
-      <c r="P11" s="386"/>
+      <c r="P11" s="384"/>
     </row>
     <row r="12" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
-      <c r="B12" s="417"/>
-      <c r="C12" s="386"/>
-      <c r="D12" s="386"/>
-      <c r="E12" s="386"/>
+      <c r="A12" s="384"/>
+      <c r="B12" s="390"/>
+      <c r="C12" s="384"/>
+      <c r="D12" s="384"/>
+      <c r="E12" s="384"/>
       <c r="F12" s="261" t="s">
         <v>108</v>
       </c>
@@ -7512,14 +7560,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="264"/>
-      <c r="P12" s="386"/>
+      <c r="P12" s="384"/>
     </row>
     <row r="13" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="386"/>
-      <c r="B13" s="417"/>
-      <c r="C13" s="386"/>
-      <c r="D13" s="386"/>
-      <c r="E13" s="386"/>
+      <c r="A13" s="384"/>
+      <c r="B13" s="390"/>
+      <c r="C13" s="384"/>
+      <c r="D13" s="384"/>
+      <c r="E13" s="384"/>
       <c r="F13" s="261" t="s">
         <v>107</v>
       </c>
@@ -7547,14 +7595,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="264"/>
-      <c r="P13" s="386"/>
+      <c r="P13" s="384"/>
     </row>
     <row r="14" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="386"/>
-      <c r="B14" s="417"/>
-      <c r="C14" s="386"/>
-      <c r="D14" s="386"/>
-      <c r="E14" s="386"/>
+      <c r="A14" s="384"/>
+      <c r="B14" s="390"/>
+      <c r="C14" s="384"/>
+      <c r="D14" s="384"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="261" t="s">
         <v>101</v>
       </c>
@@ -7582,14 +7630,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="264"/>
-      <c r="P14" s="386"/>
+      <c r="P14" s="384"/>
     </row>
     <row r="15" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="386"/>
-      <c r="B15" s="417"/>
-      <c r="C15" s="386"/>
-      <c r="D15" s="386"/>
-      <c r="E15" s="386"/>
+      <c r="A15" s="384"/>
+      <c r="B15" s="390"/>
+      <c r="C15" s="384"/>
+      <c r="D15" s="384"/>
+      <c r="E15" s="384"/>
       <c r="F15" s="261" t="s">
         <v>102</v>
       </c>
@@ -7617,14 +7665,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="264"/>
-      <c r="P15" s="386"/>
+      <c r="P15" s="384"/>
     </row>
     <row r="16" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="384"/>
-      <c r="B16" s="395"/>
-      <c r="C16" s="384"/>
-      <c r="D16" s="384"/>
-      <c r="E16" s="384"/>
+      <c r="A16" s="385"/>
+      <c r="B16" s="387"/>
+      <c r="C16" s="385"/>
+      <c r="D16" s="385"/>
+      <c r="E16" s="385"/>
       <c r="F16" s="265" t="s">
         <v>131</v>
       </c>
@@ -7652,13 +7700,13 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="268"/>
-      <c r="P16" s="384"/>
+      <c r="P16" s="385"/>
     </row>
     <row r="17" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="383">
         <v>2</v>
       </c>
-      <c r="B17" s="394">
+      <c r="B17" s="386">
         <v>43891</v>
       </c>
       <c r="C17" s="383" t="s">
@@ -7667,7 +7715,7 @@
       <c r="D17" s="383" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="397" t="s">
+      <c r="E17" s="388" t="s">
         <v>168</v>
       </c>
       <c r="F17" s="269" t="s">
@@ -7702,11 +7750,11 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="384"/>
-      <c r="B18" s="395"/>
-      <c r="C18" s="384"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="398"/>
+      <c r="A18" s="385"/>
+      <c r="B18" s="387"/>
+      <c r="C18" s="385"/>
+      <c r="D18" s="385"/>
+      <c r="E18" s="389"/>
       <c r="F18" s="272" t="s">
         <v>107</v>
       </c>
@@ -7734,7 +7782,7 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="386"/>
+      <c r="P18" s="384"/>
     </row>
     <row r="19" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="276">
@@ -7787,7 +7835,7 @@
       <c r="A20" s="383">
         <v>4</v>
       </c>
-      <c r="B20" s="394">
+      <c r="B20" s="386">
         <v>43893</v>
       </c>
       <c r="C20" s="383" t="s">
@@ -7831,11 +7879,11 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="386"/>
-      <c r="B21" s="417"/>
-      <c r="C21" s="386"/>
-      <c r="D21" s="386"/>
-      <c r="E21" s="386"/>
+      <c r="A21" s="384"/>
+      <c r="B21" s="390"/>
+      <c r="C21" s="384"/>
+      <c r="D21" s="384"/>
+      <c r="E21" s="384"/>
       <c r="F21" s="261" t="s">
         <v>103</v>
       </c>
@@ -7863,14 +7911,14 @@
         <f>L21</f>
         <v>2850000</v>
       </c>
-      <c r="P21" s="386"/>
+      <c r="P21" s="384"/>
     </row>
     <row r="22" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="384"/>
-      <c r="B22" s="395"/>
-      <c r="C22" s="384"/>
-      <c r="D22" s="384"/>
-      <c r="E22" s="384"/>
+      <c r="A22" s="385"/>
+      <c r="B22" s="387"/>
+      <c r="C22" s="385"/>
+      <c r="D22" s="385"/>
+      <c r="E22" s="385"/>
       <c r="F22" s="265" t="s">
         <v>108</v>
       </c>
@@ -7898,22 +7946,22 @@
         <f>L22</f>
         <v>4365000</v>
       </c>
-      <c r="P22" s="384"/>
+      <c r="P22" s="385"/>
     </row>
     <row r="23" spans="1:16" s="254" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="387">
+      <c r="A23" s="394">
         <v>5</v>
       </c>
-      <c r="B23" s="391">
+      <c r="B23" s="397">
         <v>43899</v>
       </c>
-      <c r="C23" s="387" t="s">
+      <c r="C23" s="394" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="387" t="s">
+      <c r="D23" s="394" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="387"/>
+      <c r="E23" s="394"/>
       <c r="F23" s="257" t="s">
         <v>103</v>
       </c>
@@ -7946,11 +7994,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="390"/>
-      <c r="B24" s="392"/>
-      <c r="C24" s="390"/>
-      <c r="D24" s="390"/>
-      <c r="E24" s="390"/>
+      <c r="A24" s="395"/>
+      <c r="B24" s="398"/>
+      <c r="C24" s="395"/>
+      <c r="D24" s="395"/>
+      <c r="E24" s="395"/>
       <c r="F24" s="261" t="s">
         <v>108</v>
       </c>
@@ -7978,14 +8026,14 @@
         <v>2182500</v>
       </c>
       <c r="O24" s="261"/>
-      <c r="P24" s="386"/>
+      <c r="P24" s="384"/>
     </row>
     <row r="25" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="388"/>
-      <c r="B25" s="393"/>
-      <c r="C25" s="388"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="388"/>
+      <c r="A25" s="396"/>
+      <c r="B25" s="399"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="396"/>
+      <c r="E25" s="396"/>
       <c r="F25" s="265" t="s">
         <v>131</v>
       </c>
@@ -8013,7 +8061,7 @@
         <v>341250</v>
       </c>
       <c r="O25" s="265"/>
-      <c r="P25" s="384"/>
+      <c r="P25" s="385"/>
     </row>
     <row r="26" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="284">
@@ -8105,7 +8153,7 @@
       <c r="A28" s="383">
         <v>8</v>
       </c>
-      <c r="B28" s="394">
+      <c r="B28" s="386">
         <v>43900</v>
       </c>
       <c r="C28" s="383" t="s">
@@ -8145,11 +8193,11 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="386"/>
-      <c r="B29" s="417"/>
-      <c r="C29" s="386"/>
-      <c r="D29" s="386"/>
-      <c r="E29" s="386"/>
+      <c r="A29" s="384"/>
+      <c r="B29" s="390"/>
+      <c r="C29" s="384"/>
+      <c r="D29" s="384"/>
+      <c r="E29" s="384"/>
       <c r="F29" s="261" t="s">
         <v>100</v>
       </c>
@@ -8177,14 +8225,14 @@
         <v>2194800.0000000005</v>
       </c>
       <c r="O29" s="261"/>
-      <c r="P29" s="386"/>
+      <c r="P29" s="384"/>
     </row>
     <row r="30" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="384"/>
-      <c r="B30" s="395"/>
-      <c r="C30" s="384"/>
-      <c r="D30" s="384"/>
-      <c r="E30" s="384"/>
+      <c r="A30" s="385"/>
+      <c r="B30" s="387"/>
+      <c r="C30" s="385"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="385"/>
       <c r="F30" s="265" t="s">
         <v>101</v>
       </c>
@@ -8212,7 +8260,7 @@
         <v>324500.00000000006</v>
       </c>
       <c r="O30" s="265"/>
-      <c r="P30" s="384"/>
+      <c r="P30" s="385"/>
     </row>
     <row r="31" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="284">
@@ -8302,10 +8350,10 @@
       </c>
       <c r="M32" s="296"/>
       <c r="N32" s="296"/>
-      <c r="O32" s="418" t="s">
+      <c r="O32" s="391" t="s">
         <v>137</v>
       </c>
-      <c r="P32" s="419"/>
+      <c r="P32" s="392"/>
     </row>
     <row r="33" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="276">
@@ -8487,7 +8535,7 @@
       <c r="A37" s="383">
         <v>15</v>
       </c>
-      <c r="B37" s="394">
+      <c r="B37" s="386">
         <v>43903</v>
       </c>
       <c r="C37" s="383" t="s">
@@ -8531,11 +8579,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="384"/>
-      <c r="B38" s="395"/>
-      <c r="C38" s="384"/>
-      <c r="D38" s="384"/>
-      <c r="E38" s="384"/>
+      <c r="A38" s="385"/>
+      <c r="B38" s="387"/>
+      <c r="C38" s="385"/>
+      <c r="D38" s="385"/>
+      <c r="E38" s="385"/>
       <c r="F38" s="265" t="s">
         <v>102</v>
       </c>
@@ -8563,7 +8611,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O38" s="268"/>
-      <c r="P38" s="384"/>
+      <c r="P38" s="385"/>
     </row>
     <row r="39" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="276">
@@ -8610,7 +8658,7 @@
       <c r="A40" s="383">
         <v>17</v>
       </c>
-      <c r="B40" s="394">
+      <c r="B40" s="386">
         <v>43904</v>
       </c>
       <c r="C40" s="383" t="s">
@@ -8619,7 +8667,7 @@
       <c r="D40" s="383" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="397" t="s">
+      <c r="E40" s="388" t="s">
         <v>215</v>
       </c>
       <c r="F40" s="257" t="s">
@@ -8654,11 +8702,11 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="384"/>
-      <c r="B41" s="395"/>
-      <c r="C41" s="386"/>
-      <c r="D41" s="384"/>
-      <c r="E41" s="398"/>
+      <c r="A41" s="385"/>
+      <c r="B41" s="387"/>
+      <c r="C41" s="384"/>
+      <c r="D41" s="385"/>
+      <c r="E41" s="389"/>
       <c r="F41" s="265" t="s">
         <v>100</v>
       </c>
@@ -8686,13 +8734,13 @@
         <f t="shared" ref="O41:O46" si="12">L41</f>
         <v>3627000</v>
       </c>
-      <c r="P41" s="386"/>
+      <c r="P41" s="384"/>
     </row>
     <row r="42" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="383">
         <v>18</v>
       </c>
-      <c r="B42" s="394">
+      <c r="B42" s="386">
         <v>43904</v>
       </c>
       <c r="C42" s="383" t="s">
@@ -8701,7 +8749,7 @@
       <c r="D42" s="383" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="397" t="s">
+      <c r="E42" s="388" t="s">
         <v>215</v>
       </c>
       <c r="F42" s="257" t="s">
@@ -8731,14 +8779,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P42" s="386"/>
+      <c r="P42" s="384"/>
     </row>
     <row r="43" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="384"/>
-      <c r="B43" s="395"/>
-      <c r="C43" s="386"/>
-      <c r="D43" s="384"/>
-      <c r="E43" s="398"/>
+      <c r="A43" s="385"/>
+      <c r="B43" s="387"/>
+      <c r="C43" s="384"/>
+      <c r="D43" s="385"/>
+      <c r="E43" s="389"/>
       <c r="F43" s="265" t="s">
         <v>100</v>
       </c>
@@ -8766,13 +8814,13 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P43" s="386"/>
+      <c r="P43" s="384"/>
     </row>
     <row r="44" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="383">
         <v>19</v>
       </c>
-      <c r="B44" s="394">
+      <c r="B44" s="386">
         <v>43904</v>
       </c>
       <c r="C44" s="383" t="s">
@@ -8781,7 +8829,7 @@
       <c r="D44" s="383" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="397"/>
+      <c r="E44" s="388"/>
       <c r="F44" s="257" t="s">
         <v>100</v>
       </c>
@@ -8809,14 +8857,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P44" s="386"/>
+      <c r="P44" s="384"/>
     </row>
     <row r="45" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="386"/>
-      <c r="B45" s="417"/>
-      <c r="C45" s="386"/>
-      <c r="D45" s="386"/>
-      <c r="E45" s="411"/>
+      <c r="A45" s="384"/>
+      <c r="B45" s="390"/>
+      <c r="C45" s="384"/>
+      <c r="D45" s="384"/>
+      <c r="E45" s="400"/>
       <c r="F45" s="261" t="s">
         <v>108</v>
       </c>
@@ -8844,14 +8892,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P45" s="386"/>
+      <c r="P45" s="384"/>
     </row>
     <row r="46" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="384"/>
-      <c r="B46" s="395"/>
-      <c r="C46" s="384"/>
-      <c r="D46" s="384"/>
-      <c r="E46" s="398"/>
+      <c r="A46" s="385"/>
+      <c r="B46" s="387"/>
+      <c r="C46" s="385"/>
+      <c r="D46" s="385"/>
+      <c r="E46" s="389"/>
       <c r="F46" s="265" t="s">
         <v>102</v>
       </c>
@@ -8879,7 +8927,7 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P46" s="384"/>
+      <c r="P46" s="385"/>
     </row>
     <row r="47" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A47" s="276">
@@ -9024,10 +9072,10 @@
       <c r="A50" s="383">
         <v>23</v>
       </c>
-      <c r="B50" s="399">
+      <c r="B50" s="417">
         <v>43907</v>
       </c>
-      <c r="C50" s="385" t="s">
+      <c r="C50" s="418" t="s">
         <v>214</v>
       </c>
       <c r="D50" s="383"/>
@@ -9064,11 +9112,11 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="384"/>
-      <c r="B51" s="399"/>
-      <c r="C51" s="385"/>
-      <c r="D51" s="384"/>
-      <c r="E51" s="384"/>
+      <c r="A51" s="385"/>
+      <c r="B51" s="417"/>
+      <c r="C51" s="418"/>
+      <c r="D51" s="385"/>
+      <c r="E51" s="385"/>
       <c r="F51" s="265" t="s">
         <v>102</v>
       </c>
@@ -9096,13 +9144,13 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O51" s="268"/>
-      <c r="P51" s="386"/>
+      <c r="P51" s="384"/>
     </row>
     <row r="52" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="305">
         <v>24</v>
       </c>
-      <c r="B52" s="394">
+      <c r="B52" s="386">
         <v>43908</v>
       </c>
       <c r="C52" s="383" t="s">
@@ -9137,16 +9185,16 @@
         <v>168150.00000000003</v>
       </c>
       <c r="O52" s="260"/>
-      <c r="P52" s="386"/>
+      <c r="P52" s="384"/>
     </row>
     <row r="53" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="286">
         <v>25</v>
       </c>
-      <c r="B53" s="395"/>
-      <c r="C53" s="384"/>
-      <c r="D53" s="384"/>
-      <c r="E53" s="384"/>
+      <c r="B53" s="387"/>
+      <c r="C53" s="385"/>
+      <c r="D53" s="385"/>
+      <c r="E53" s="385"/>
       <c r="F53" s="265" t="s">
         <v>105</v>
       </c>
@@ -9174,7 +9222,7 @@
         <v>150450.00000000003</v>
       </c>
       <c r="O53" s="268"/>
-      <c r="P53" s="384"/>
+      <c r="P53" s="385"/>
     </row>
     <row r="54" spans="1:16" s="254" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="276">
@@ -9269,7 +9317,7 @@
       <c r="A56" s="383">
         <v>28</v>
       </c>
-      <c r="B56" s="394">
+      <c r="B56" s="386">
         <v>43908</v>
       </c>
       <c r="D56" s="383" t="s">
@@ -9305,18 +9353,18 @@
         <v>2662500</v>
       </c>
       <c r="O56" s="307"/>
-      <c r="P56" s="387" t="s">
+      <c r="P56" s="394" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="384"/>
-      <c r="B57" s="395"/>
+      <c r="A57" s="385"/>
+      <c r="B57" s="387"/>
       <c r="C57" s="254" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="384"/>
-      <c r="E57" s="384"/>
+      <c r="D57" s="385"/>
+      <c r="E57" s="385"/>
       <c r="F57" s="265" t="s">
         <v>98</v>
       </c>
@@ -9346,13 +9394,13 @@
         <v>887250</v>
       </c>
       <c r="O57" s="308"/>
-      <c r="P57" s="388"/>
+      <c r="P57" s="396"/>
     </row>
     <row r="58" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A58" s="383">
         <v>29</v>
       </c>
-      <c r="B58" s="394">
+      <c r="B58" s="386">
         <v>43909</v>
       </c>
       <c r="C58" s="383" t="s">
@@ -9392,11 +9440,11 @@
       </c>
     </row>
     <row r="59" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="386"/>
-      <c r="B59" s="417"/>
-      <c r="C59" s="386"/>
-      <c r="D59" s="386"/>
-      <c r="E59" s="386"/>
+      <c r="A59" s="384"/>
+      <c r="B59" s="390"/>
+      <c r="C59" s="384"/>
+      <c r="D59" s="384"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="261" t="s">
         <v>100</v>
       </c>
@@ -9424,14 +9472,14 @@
         <f t="shared" si="16"/>
         <v>274350.00000000006</v>
       </c>
-      <c r="P59" s="386"/>
+      <c r="P59" s="384"/>
     </row>
     <row r="60" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="384"/>
-      <c r="B60" s="395"/>
-      <c r="C60" s="384"/>
-      <c r="D60" s="384"/>
-      <c r="E60" s="384"/>
+      <c r="A60" s="385"/>
+      <c r="B60" s="387"/>
+      <c r="C60" s="385"/>
+      <c r="D60" s="385"/>
+      <c r="E60" s="385"/>
       <c r="F60" s="272" t="s">
         <v>107</v>
       </c>
@@ -9459,7 +9507,7 @@
         <f t="shared" si="16"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="P60" s="384"/>
+      <c r="P60" s="385"/>
     </row>
     <row r="61" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A61" s="276">
@@ -9505,19 +9553,19 @@
       </c>
     </row>
     <row r="62" spans="1:16" s="254" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="387">
+      <c r="A62" s="394">
         <v>31</v>
       </c>
-      <c r="B62" s="391">
+      <c r="B62" s="397">
         <v>43912</v>
       </c>
-      <c r="C62" s="387" t="s">
+      <c r="C62" s="394" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="387" t="s">
+      <c r="D62" s="394" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="387" t="s">
+      <c r="E62" s="394" t="s">
         <v>170</v>
       </c>
       <c r="F62" s="257" t="s">
@@ -9547,14 +9595,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O62" s="309"/>
-      <c r="P62" s="385"/>
+      <c r="P62" s="418"/>
     </row>
     <row r="63" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="390"/>
-      <c r="B63" s="392"/>
-      <c r="C63" s="390"/>
-      <c r="D63" s="390"/>
-      <c r="E63" s="390"/>
+      <c r="A63" s="395"/>
+      <c r="B63" s="398"/>
+      <c r="C63" s="395"/>
+      <c r="D63" s="395"/>
+      <c r="E63" s="395"/>
       <c r="F63" s="261" t="s">
         <v>108</v>
       </c>
@@ -9582,14 +9630,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O63" s="310"/>
-      <c r="P63" s="385"/>
+      <c r="P63" s="418"/>
     </row>
     <row r="64" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="388"/>
-      <c r="B64" s="393"/>
-      <c r="C64" s="388"/>
-      <c r="D64" s="388"/>
-      <c r="E64" s="388"/>
+      <c r="A64" s="396"/>
+      <c r="B64" s="399"/>
+      <c r="C64" s="396"/>
+      <c r="D64" s="396"/>
+      <c r="E64" s="396"/>
       <c r="F64" s="265" t="s">
         <v>131</v>
       </c>
@@ -9617,7 +9665,7 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O64" s="311"/>
-      <c r="P64" s="385"/>
+      <c r="P64" s="418"/>
     </row>
     <row r="65" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="284">
@@ -9668,7 +9716,7 @@
       <c r="A66" s="383">
         <v>33</v>
       </c>
-      <c r="B66" s="394">
+      <c r="B66" s="386">
         <v>43913</v>
       </c>
       <c r="C66" s="383" t="s">
@@ -9710,11 +9758,11 @@
       <c r="P66" s="366"/>
     </row>
     <row r="67" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="386"/>
-      <c r="B67" s="417"/>
-      <c r="C67" s="386"/>
-      <c r="D67" s="386"/>
-      <c r="E67" s="386"/>
+      <c r="A67" s="384"/>
+      <c r="B67" s="390"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="384"/>
+      <c r="E67" s="384"/>
       <c r="F67" s="261" t="s">
         <v>100</v>
       </c>
@@ -9745,11 +9793,11 @@
       <c r="P67" s="368"/>
     </row>
     <row r="68" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="384"/>
-      <c r="B68" s="395"/>
-      <c r="C68" s="384"/>
-      <c r="D68" s="384"/>
-      <c r="E68" s="384"/>
+      <c r="A68" s="385"/>
+      <c r="B68" s="387"/>
+      <c r="C68" s="385"/>
+      <c r="D68" s="385"/>
+      <c r="E68" s="385"/>
       <c r="F68" s="265" t="s">
         <v>101</v>
       </c>
@@ -9783,7 +9831,7 @@
       <c r="A69" s="383">
         <v>34</v>
       </c>
-      <c r="B69" s="394">
+      <c r="B69" s="386">
         <v>43914</v>
       </c>
       <c r="C69" s="383" t="s">
@@ -9825,11 +9873,11 @@
       <c r="P69" s="366"/>
     </row>
     <row r="70" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="386"/>
-      <c r="B70" s="417"/>
-      <c r="C70" s="386"/>
-      <c r="D70" s="386"/>
-      <c r="E70" s="386"/>
+      <c r="A70" s="384"/>
+      <c r="B70" s="390"/>
+      <c r="C70" s="384"/>
+      <c r="D70" s="384"/>
+      <c r="E70" s="384"/>
       <c r="F70" s="261" t="s">
         <v>100</v>
       </c>
@@ -9860,11 +9908,11 @@
       <c r="P70" s="368"/>
     </row>
     <row r="71" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="386"/>
-      <c r="B71" s="417"/>
-      <c r="C71" s="386"/>
-      <c r="D71" s="386"/>
-      <c r="E71" s="386"/>
+      <c r="A71" s="384"/>
+      <c r="B71" s="390"/>
+      <c r="C71" s="384"/>
+      <c r="D71" s="384"/>
+      <c r="E71" s="384"/>
       <c r="F71" s="261" t="s">
         <v>108</v>
       </c>
@@ -9895,11 +9943,11 @@
       <c r="P71" s="370"/>
     </row>
     <row r="72" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="386"/>
-      <c r="B72" s="395"/>
-      <c r="C72" s="384"/>
-      <c r="D72" s="384"/>
-      <c r="E72" s="384"/>
+      <c r="A72" s="384"/>
+      <c r="B72" s="387"/>
+      <c r="C72" s="385"/>
+      <c r="D72" s="385"/>
+      <c r="E72" s="385"/>
       <c r="F72" s="265" t="s">
         <v>107</v>
       </c>
@@ -9933,7 +9981,7 @@
       <c r="A73" s="383">
         <v>35</v>
       </c>
-      <c r="B73" s="394">
+      <c r="B73" s="386">
         <v>43913</v>
       </c>
       <c r="C73" s="383" t="s">
@@ -9975,11 +10023,11 @@
       <c r="P73" s="366"/>
     </row>
     <row r="74" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="384"/>
-      <c r="B74" s="395"/>
-      <c r="C74" s="384"/>
-      <c r="D74" s="384"/>
-      <c r="E74" s="384"/>
+      <c r="A74" s="385"/>
+      <c r="B74" s="387"/>
+      <c r="C74" s="385"/>
+      <c r="D74" s="385"/>
+      <c r="E74" s="385"/>
       <c r="F74" s="265" t="s">
         <v>108</v>
       </c>
@@ -10099,7 +10147,7 @@
       <c r="A77" s="383">
         <v>38</v>
       </c>
-      <c r="B77" s="394">
+      <c r="B77" s="386">
         <v>43915</v>
       </c>
       <c r="C77" s="383" t="s">
@@ -10141,11 +10189,11 @@
       <c r="P77" s="366"/>
     </row>
     <row r="78" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="386"/>
-      <c r="B78" s="417"/>
-      <c r="C78" s="386"/>
-      <c r="D78" s="386"/>
-      <c r="E78" s="386"/>
+      <c r="A78" s="384"/>
+      <c r="B78" s="390"/>
+      <c r="C78" s="384"/>
+      <c r="D78" s="384"/>
+      <c r="E78" s="384"/>
       <c r="F78" s="261" t="s">
         <v>99</v>
       </c>
@@ -10176,11 +10224,11 @@
       <c r="P78" s="368"/>
     </row>
     <row r="79" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="386"/>
-      <c r="B79" s="417"/>
-      <c r="C79" s="386"/>
-      <c r="D79" s="386"/>
-      <c r="E79" s="386"/>
+      <c r="A79" s="384"/>
+      <c r="B79" s="390"/>
+      <c r="C79" s="384"/>
+      <c r="D79" s="384"/>
+      <c r="E79" s="384"/>
       <c r="F79" s="261" t="s">
         <v>100</v>
       </c>
@@ -10211,11 +10259,11 @@
       <c r="P79" s="368"/>
     </row>
     <row r="80" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="386"/>
-      <c r="B80" s="417"/>
-      <c r="C80" s="386"/>
-      <c r="D80" s="386"/>
-      <c r="E80" s="386"/>
+      <c r="A80" s="384"/>
+      <c r="B80" s="390"/>
+      <c r="C80" s="384"/>
+      <c r="D80" s="384"/>
+      <c r="E80" s="384"/>
       <c r="F80" s="261" t="s">
         <v>103</v>
       </c>
@@ -10246,11 +10294,11 @@
       <c r="P80" s="368"/>
     </row>
     <row r="81" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="386"/>
-      <c r="B81" s="417"/>
-      <c r="C81" s="386"/>
-      <c r="D81" s="386"/>
-      <c r="E81" s="386"/>
+      <c r="A81" s="384"/>
+      <c r="B81" s="390"/>
+      <c r="C81" s="384"/>
+      <c r="D81" s="384"/>
+      <c r="E81" s="384"/>
       <c r="F81" s="261" t="s">
         <v>108</v>
       </c>
@@ -10281,11 +10329,11 @@
       <c r="P81" s="368"/>
     </row>
     <row r="82" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="386"/>
-      <c r="B82" s="417"/>
-      <c r="C82" s="386"/>
-      <c r="D82" s="386"/>
-      <c r="E82" s="386"/>
+      <c r="A82" s="384"/>
+      <c r="B82" s="390"/>
+      <c r="C82" s="384"/>
+      <c r="D82" s="384"/>
+      <c r="E82" s="384"/>
       <c r="F82" s="261" t="s">
         <v>107</v>
       </c>
@@ -10316,11 +10364,11 @@
       <c r="P82" s="368"/>
     </row>
     <row r="83" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="386"/>
-      <c r="B83" s="417"/>
-      <c r="C83" s="386"/>
-      <c r="D83" s="386"/>
-      <c r="E83" s="386"/>
+      <c r="A83" s="384"/>
+      <c r="B83" s="390"/>
+      <c r="C83" s="384"/>
+      <c r="D83" s="384"/>
+      <c r="E83" s="384"/>
       <c r="F83" s="261" t="s">
         <v>101</v>
       </c>
@@ -10351,11 +10399,11 @@
       <c r="P83" s="368"/>
     </row>
     <row r="84" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="386"/>
-      <c r="B84" s="417"/>
-      <c r="C84" s="386"/>
-      <c r="D84" s="386"/>
-      <c r="E84" s="386"/>
+      <c r="A84" s="384"/>
+      <c r="B84" s="390"/>
+      <c r="C84" s="384"/>
+      <c r="D84" s="384"/>
+      <c r="E84" s="384"/>
       <c r="F84" s="261" t="s">
         <v>140</v>
       </c>
@@ -10386,11 +10434,11 @@
       <c r="P84" s="368"/>
     </row>
     <row r="85" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="386"/>
-      <c r="B85" s="417"/>
-      <c r="C85" s="386"/>
-      <c r="D85" s="386"/>
-      <c r="E85" s="386"/>
+      <c r="A85" s="384"/>
+      <c r="B85" s="390"/>
+      <c r="C85" s="384"/>
+      <c r="D85" s="384"/>
+      <c r="E85" s="384"/>
       <c r="F85" s="261" t="s">
         <v>102</v>
       </c>
@@ -10421,11 +10469,11 @@
       <c r="P85" s="368"/>
     </row>
     <row r="86" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="384"/>
-      <c r="B86" s="395"/>
-      <c r="C86" s="384"/>
-      <c r="D86" s="384"/>
-      <c r="E86" s="384"/>
+      <c r="A86" s="385"/>
+      <c r="B86" s="387"/>
+      <c r="C86" s="385"/>
+      <c r="D86" s="385"/>
+      <c r="E86" s="385"/>
       <c r="F86" s="265" t="s">
         <v>131</v>
       </c>
@@ -10459,7 +10507,7 @@
       <c r="A87" s="383">
         <v>39</v>
       </c>
-      <c r="B87" s="394">
+      <c r="B87" s="386">
         <v>43915</v>
       </c>
       <c r="C87" s="383" t="s">
@@ -10501,11 +10549,11 @@
       <c r="P87" s="365"/>
     </row>
     <row r="88" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="384"/>
-      <c r="B88" s="395"/>
-      <c r="C88" s="384"/>
-      <c r="D88" s="384"/>
-      <c r="E88" s="384"/>
+      <c r="A88" s="385"/>
+      <c r="B88" s="387"/>
+      <c r="C88" s="385"/>
+      <c r="D88" s="385"/>
+      <c r="E88" s="385"/>
       <c r="F88" s="265" t="s">
         <v>131</v>
       </c>
@@ -10580,7 +10628,7 @@
       <c r="A90" s="383">
         <v>41</v>
       </c>
-      <c r="B90" s="394">
+      <c r="B90" s="386">
         <v>43917</v>
       </c>
       <c r="C90" s="383" t="s">
@@ -10618,10 +10666,10 @@
       <c r="P90" s="366"/>
     </row>
     <row r="91" spans="1:16" s="254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="384"/>
-      <c r="B91" s="395"/>
-      <c r="C91" s="384"/>
-      <c r="E91" s="384"/>
+      <c r="A91" s="385"/>
+      <c r="B91" s="387"/>
+      <c r="C91" s="385"/>
+      <c r="E91" s="385"/>
       <c r="F91" s="265" t="s">
         <v>108</v>
       </c>
@@ -10655,7 +10703,7 @@
       <c r="A92" s="383">
         <v>42</v>
       </c>
-      <c r="B92" s="394">
+      <c r="B92" s="386">
         <v>43921</v>
       </c>
       <c r="C92" s="383" t="s">
@@ -10697,11 +10745,11 @@
       <c r="P92" s="318"/>
     </row>
     <row r="93" spans="1:16" s="254" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="384"/>
-      <c r="B93" s="395"/>
-      <c r="C93" s="384"/>
-      <c r="D93" s="384"/>
-      <c r="E93" s="384"/>
+      <c r="A93" s="385"/>
+      <c r="B93" s="387"/>
+      <c r="C93" s="385"/>
+      <c r="D93" s="385"/>
+      <c r="E93" s="385"/>
       <c r="F93" s="265" t="s">
         <v>102</v>
       </c>
@@ -10732,14 +10780,14 @@
       <c r="P93" s="367"/>
     </row>
     <row r="94" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A94" s="396" t="s">
+      <c r="A94" s="420" t="s">
         <v>218</v>
       </c>
-      <c r="B94" s="396"/>
-      <c r="C94" s="396"/>
-      <c r="D94" s="396"/>
-      <c r="E94" s="396"/>
-      <c r="F94" s="396"/>
+      <c r="B94" s="420"/>
+      <c r="C94" s="420"/>
+      <c r="D94" s="420"/>
+      <c r="E94" s="420"/>
+      <c r="F94" s="420"/>
       <c r="G94" s="319">
         <f>SUM(G9:G93)</f>
         <v>951</v>
@@ -10761,14 +10809,14 @@
       <c r="P94" s="371"/>
     </row>
     <row r="95" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A95" s="389" t="s">
+      <c r="A95" s="419" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="389"/>
-      <c r="C95" s="389"/>
-      <c r="D95" s="389"/>
-      <c r="E95" s="389"/>
-      <c r="F95" s="389"/>
+      <c r="B95" s="419"/>
+      <c r="C95" s="419"/>
+      <c r="D95" s="419"/>
+      <c r="E95" s="419"/>
+      <c r="F95" s="419"/>
       <c r="G95" s="319">
         <f>G94</f>
         <v>951</v>
@@ -10787,14 +10835,14 @@
       <c r="P95" s="369"/>
     </row>
     <row r="96" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A96" s="389" t="s">
+      <c r="A96" s="419" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="389"/>
-      <c r="C96" s="389"/>
-      <c r="D96" s="389"/>
-      <c r="E96" s="389"/>
-      <c r="F96" s="389"/>
+      <c r="B96" s="419"/>
+      <c r="C96" s="419"/>
+      <c r="D96" s="419"/>
+      <c r="E96" s="419"/>
+      <c r="F96" s="419"/>
       <c r="G96" s="326" t="s">
         <v>141</v>
       </c>
@@ -10812,14 +10860,14 @@
       <c r="P96" s="369"/>
     </row>
     <row r="97" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A97" s="389" t="s">
+      <c r="A97" s="419" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="389"/>
-      <c r="C97" s="389"/>
-      <c r="D97" s="389"/>
-      <c r="E97" s="389"/>
-      <c r="F97" s="389"/>
+      <c r="B97" s="419"/>
+      <c r="C97" s="419"/>
+      <c r="D97" s="419"/>
+      <c r="E97" s="419"/>
+      <c r="F97" s="419"/>
       <c r="G97" s="325"/>
       <c r="H97" s="325"/>
       <c r="I97" s="320"/>
@@ -10835,14 +10883,14 @@
       <c r="P97" s="369"/>
     </row>
     <row r="98" spans="1:16" s="324" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A98" s="389" t="s">
+      <c r="A98" s="419" t="s">
         <v>222</v>
       </c>
-      <c r="B98" s="389"/>
-      <c r="C98" s="389"/>
-      <c r="D98" s="389"/>
-      <c r="E98" s="389"/>
-      <c r="F98" s="389"/>
+      <c r="B98" s="419"/>
+      <c r="C98" s="419"/>
+      <c r="D98" s="419"/>
+      <c r="E98" s="419"/>
+      <c r="F98" s="419"/>
       <c r="G98" s="325"/>
       <c r="H98" s="325"/>
       <c r="I98" s="320"/>
@@ -10859,8 +10907,8 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="327"/>
-      <c r="C99" s="420"/>
-      <c r="D99" s="420"/>
+      <c r="C99" s="393"/>
+      <c r="D99" s="393"/>
       <c r="L99" s="328"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -10871,20 +10919,109 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="P62:P64"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="P58:P60"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="P40:P46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="D77:D86"/>
+    <mergeCell ref="E77:E86"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="P50:P53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="O32:P32"/>
@@ -10909,109 +11046,20 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="D77:D86"/>
-    <mergeCell ref="E77:E86"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="P40:P46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="P62:P64"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11022,7 +11070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -11261,12 +11309,12 @@
         <v>77</v>
       </c>
       <c r="C17" s="75">
-        <f>'THU CHI'!F144</f>
+        <f>'THU CHI'!F146</f>
         <v>54050900</v>
       </c>
       <c r="D17" s="192">
-        <f>'THU CHI'!I144</f>
-        <v>9450000</v>
+        <f>'THU CHI'!I146</f>
+        <v>174450000</v>
       </c>
       <c r="E17" s="80"/>
     </row>
@@ -11279,7 +11327,7 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="66">
-        <f>'THU CHI'!I129</f>
+        <f>'THU CHI'!I130</f>
         <v>8258199.5987900002</v>
       </c>
       <c r="E18" s="81"/>
@@ -11293,7 +11341,7 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="66">
-        <f>'THU CHI'!I155</f>
+        <f>'THU CHI'!I157</f>
         <v>27701111</v>
       </c>
       <c r="E19" s="81"/>
@@ -11333,7 +11381,7 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="66">
-        <f>'THU CHI'!I205</f>
+        <f>'THU CHI'!I207</f>
         <v>9383000</v>
       </c>
       <c r="E22" s="81"/>
@@ -11360,7 +11408,7 @@
       </c>
       <c r="C24" s="67"/>
       <c r="D24" s="68">
-        <f>'THU CHI'!I229</f>
+        <f>'THU CHI'!I231</f>
         <v>52010000</v>
       </c>
       <c r="E24" s="82"/>
@@ -11376,7 +11424,7 @@
       </c>
       <c r="D25" s="70">
         <f>SUM(D17:D24)</f>
-        <v>146242710.59878999</v>
+        <v>311242710.59878999</v>
       </c>
       <c r="E25" s="76"/>
     </row>
@@ -11388,7 +11436,7 @@
       <c r="C26" s="76"/>
       <c r="D26" s="70">
         <f>C25-D25</f>
-        <v>-92191810.59878999</v>
+        <v>-257191810.59878999</v>
       </c>
       <c r="E26" s="76"/>
     </row>
@@ -11479,17 +11527,17 @@
       <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="427" t="s">
+      <c r="A4" s="431" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="427"/>
-      <c r="C4" s="427"/>
-      <c r="D4" s="427"/>
-      <c r="E4" s="427"/>
-      <c r="F4" s="427"/>
-      <c r="G4" s="427"/>
-      <c r="H4" s="427"/>
-      <c r="I4" s="427"/>
+      <c r="B4" s="431"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
       <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11505,33 +11553,33 @@
       <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="428" t="s">
+      <c r="A6" s="432" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="429" t="s">
+      <c r="B6" s="433" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="428" t="s">
+      <c r="C6" s="432" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="430" t="s">
+      <c r="D6" s="434" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="428" t="s">
+      <c r="E6" s="434"/>
+      <c r="F6" s="434"/>
+      <c r="G6" s="434"/>
+      <c r="H6" s="435"/>
+      <c r="I6" s="432" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="425" t="s">
+      <c r="J6" s="429" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="428"/>
-      <c r="B7" s="429"/>
-      <c r="C7" s="428"/>
+      <c r="A7" s="432"/>
+      <c r="B7" s="433"/>
+      <c r="C7" s="432"/>
       <c r="D7" s="93" t="s">
         <v>92</v>
       </c>
@@ -11547,8 +11595,8 @@
       <c r="H7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="428"/>
-      <c r="J7" s="426"/>
+      <c r="I7" s="432"/>
+      <c r="J7" s="430"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
@@ -11584,10 +11632,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="137"/>
-      <c r="B9" s="424" t="s">
+      <c r="B9" s="428" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="424"/>
+      <c r="C9" s="428"/>
       <c r="D9" s="137"/>
       <c r="E9" s="137"/>
       <c r="F9" s="137"/>
@@ -11603,17 +11651,17 @@
       <c r="J9" s="154"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="432" t="s">
+      <c r="A10" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="433"/>
-      <c r="C10" s="433"/>
-      <c r="D10" s="433"/>
-      <c r="E10" s="433"/>
-      <c r="F10" s="433"/>
-      <c r="G10" s="433"/>
-      <c r="H10" s="433"/>
-      <c r="I10" s="434"/>
+      <c r="B10" s="425"/>
+      <c r="C10" s="425"/>
+      <c r="D10" s="425"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="425"/>
+      <c r="G10" s="425"/>
+      <c r="H10" s="425"/>
+      <c r="I10" s="426"/>
       <c r="J10" s="155">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
@@ -11623,40 +11671,35 @@
       <c r="G11" s="156"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="435" t="s">
+      <c r="A12" s="427" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="435"/>
-      <c r="C12" s="435"/>
-      <c r="E12" s="435" t="s">
+      <c r="B12" s="427"/>
+      <c r="C12" s="427"/>
+      <c r="E12" s="427" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="435"/>
-      <c r="G12" s="435"/>
-      <c r="H12" s="435"/>
-      <c r="I12" s="435"/>
+      <c r="F12" s="427"/>
+      <c r="G12" s="427"/>
+      <c r="H12" s="427"/>
+      <c r="I12" s="427"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="435" t="s">
+      <c r="A17" s="427" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="435"/>
-      <c r="C17" s="435"/>
-      <c r="E17" s="435" t="s">
+      <c r="B17" s="427"/>
+      <c r="C17" s="427"/>
+      <c r="E17" s="427" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="435"/>
-      <c r="G17" s="435"/>
-      <c r="H17" s="435"/>
-      <c r="I17" s="435"/>
+      <c r="F17" s="427"/>
+      <c r="G17" s="427"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="427"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -11665,6 +11708,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11727,17 +11775,17 @@
       <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="427" t="s">
+      <c r="A4" s="431" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="427"/>
-      <c r="C4" s="427"/>
-      <c r="D4" s="427"/>
-      <c r="E4" s="427"/>
-      <c r="F4" s="427"/>
-      <c r="G4" s="427"/>
-      <c r="H4" s="427"/>
-      <c r="I4" s="427"/>
+      <c r="B4" s="431"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
       <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -11753,33 +11801,33 @@
       <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="428" t="s">
+      <c r="A6" s="432" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="436" t="s">
+      <c r="B6" s="445" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="428" t="s">
+      <c r="C6" s="432" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="430" t="s">
+      <c r="D6" s="434" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="428" t="s">
+      <c r="E6" s="434"/>
+      <c r="F6" s="434"/>
+      <c r="G6" s="434"/>
+      <c r="H6" s="435"/>
+      <c r="I6" s="432" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="425" t="s">
+      <c r="J6" s="429" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="428"/>
-      <c r="B7" s="436"/>
-      <c r="C7" s="428"/>
+      <c r="A7" s="432"/>
+      <c r="B7" s="445"/>
+      <c r="C7" s="432"/>
       <c r="D7" s="93" t="s">
         <v>92</v>
       </c>
@@ -11795,8 +11843,8 @@
       <c r="H7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="428"/>
-      <c r="J7" s="426"/>
+      <c r="I7" s="432"/>
+      <c r="J7" s="430"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="95">
@@ -11863,13 +11911,13 @@
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="440">
+      <c r="A10" s="439">
         <v>1060</v>
       </c>
-      <c r="B10" s="443">
+      <c r="B10" s="442">
         <v>43900</v>
       </c>
-      <c r="C10" s="440" t="s">
+      <c r="C10" s="439" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="103" t="s">
@@ -11895,9 +11943,9 @@
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="441"/>
-      <c r="B11" s="444"/>
-      <c r="C11" s="441"/>
+      <c r="A11" s="440"/>
+      <c r="B11" s="443"/>
+      <c r="C11" s="440"/>
       <c r="D11" s="108" t="s">
         <v>100</v>
       </c>
@@ -11922,9 +11970,9 @@
       <c r="M11" s="156"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="442"/>
-      <c r="B12" s="445"/>
-      <c r="C12" s="442"/>
+      <c r="A12" s="441"/>
+      <c r="B12" s="444"/>
+      <c r="C12" s="441"/>
       <c r="D12" s="113" t="s">
         <v>101</v>
       </c>
@@ -12223,13 +12271,13 @@
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="440">
+      <c r="A22" s="439">
         <v>1086</v>
       </c>
-      <c r="B22" s="443">
+      <c r="B22" s="442">
         <v>43909</v>
       </c>
-      <c r="C22" s="440" t="s">
+      <c r="C22" s="439" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="130" t="s">
@@ -12255,9 +12303,9 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="441"/>
-      <c r="B23" s="444"/>
-      <c r="C23" s="441"/>
+      <c r="A23" s="440"/>
+      <c r="B23" s="443"/>
+      <c r="C23" s="440"/>
       <c r="D23" s="130" t="s">
         <v>100</v>
       </c>
@@ -12281,9 +12329,9 @@
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="442"/>
-      <c r="B24" s="445"/>
-      <c r="C24" s="442"/>
+      <c r="A24" s="441"/>
+      <c r="B24" s="444"/>
+      <c r="C24" s="441"/>
       <c r="D24" s="130" t="s">
         <v>107</v>
       </c>
@@ -12522,13 +12570,13 @@
       <c r="J34" s="135"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="440">
+      <c r="A35" s="439">
         <v>1122</v>
       </c>
-      <c r="B35" s="443">
+      <c r="B35" s="442">
         <v>43917</v>
       </c>
-      <c r="C35" s="440" t="s">
+      <c r="C35" s="439" t="s">
         <v>106</v>
       </c>
       <c r="D35" s="96" t="s">
@@ -12554,9 +12602,9 @@
       <c r="J35" s="150"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="442"/>
-      <c r="B36" s="445"/>
-      <c r="C36" s="442"/>
+      <c r="A36" s="441"/>
+      <c r="B36" s="444"/>
+      <c r="C36" s="441"/>
       <c r="D36" s="96" t="s">
         <v>108</v>
       </c>
@@ -12580,43 +12628,43 @@
       <c r="J36" s="150"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="437" t="s">
+      <c r="A37" s="436" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="438"/>
-      <c r="C37" s="438"/>
-      <c r="D37" s="438"/>
-      <c r="E37" s="438"/>
-      <c r="F37" s="438"/>
-      <c r="G37" s="438"/>
-      <c r="H37" s="438"/>
-      <c r="I37" s="439"/>
+      <c r="B37" s="437"/>
+      <c r="C37" s="437"/>
+      <c r="D37" s="437"/>
+      <c r="E37" s="437"/>
+      <c r="F37" s="437"/>
+      <c r="G37" s="437"/>
+      <c r="H37" s="437"/>
+      <c r="I37" s="438"/>
       <c r="J37" s="151">
         <v>7000000</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="437" t="s">
+      <c r="A38" s="436" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="438"/>
-      <c r="C38" s="438"/>
-      <c r="D38" s="438"/>
-      <c r="E38" s="438"/>
-      <c r="F38" s="438"/>
-      <c r="G38" s="438"/>
-      <c r="H38" s="438"/>
-      <c r="I38" s="439"/>
+      <c r="B38" s="437"/>
+      <c r="C38" s="437"/>
+      <c r="D38" s="437"/>
+      <c r="E38" s="437"/>
+      <c r="F38" s="437"/>
+      <c r="G38" s="437"/>
+      <c r="H38" s="437"/>
+      <c r="I38" s="438"/>
       <c r="J38" s="151">
         <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="137"/>
-      <c r="B39" s="424" t="s">
+      <c r="B39" s="428" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="424"/>
+      <c r="C39" s="428"/>
       <c r="D39" s="137"/>
       <c r="E39" s="137"/>
       <c r="F39" s="137"/>
@@ -12635,17 +12683,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="432" t="s">
+      <c r="A40" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="433"/>
-      <c r="C40" s="433"/>
-      <c r="D40" s="433"/>
-      <c r="E40" s="433"/>
-      <c r="F40" s="433"/>
-      <c r="G40" s="433"/>
-      <c r="H40" s="433"/>
-      <c r="I40" s="434"/>
+      <c r="B40" s="425"/>
+      <c r="C40" s="425"/>
+      <c r="D40" s="425"/>
+      <c r="E40" s="425"/>
+      <c r="F40" s="425"/>
+      <c r="G40" s="425"/>
+      <c r="H40" s="425"/>
+      <c r="I40" s="426"/>
       <c r="J40" s="155">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
@@ -12655,40 +12703,41 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="435" t="s">
+      <c r="A42" s="427" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="435"/>
-      <c r="C42" s="435"/>
-      <c r="E42" s="435" t="s">
+      <c r="B42" s="427"/>
+      <c r="C42" s="427"/>
+      <c r="E42" s="427" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="435"/>
-      <c r="G42" s="435"/>
-      <c r="H42" s="435"/>
-      <c r="I42" s="435"/>
+      <c r="F42" s="427"/>
+      <c r="G42" s="427"/>
+      <c r="H42" s="427"/>
+      <c r="I42" s="427"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="435" t="s">
+      <c r="A47" s="427" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="435"/>
-      <c r="C47" s="435"/>
-      <c r="E47" s="435" t="s">
+      <c r="B47" s="427"/>
+      <c r="C47" s="427"/>
+      <c r="E47" s="427" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="435"/>
-      <c r="G47" s="435"/>
-      <c r="H47" s="435"/>
-      <c r="I47" s="435"/>
+      <c r="F47" s="427"/>
+      <c r="G47" s="427"/>
+      <c r="H47" s="427"/>
+      <c r="I47" s="427"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="B39:C39"/>
@@ -12702,12 +12751,11 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.46" bottom="0.48" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14015,83 +14063,83 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="459" t="s">
+      <c r="A3" s="469" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="459"/>
-      <c r="C3" s="459"/>
-      <c r="D3" s="459"/>
-      <c r="E3" s="459"/>
-      <c r="F3" s="459"/>
-      <c r="G3" s="459"/>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="459"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="459"/>
-      <c r="M3" s="459"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="459"/>
-      <c r="P3" s="459"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="469"/>
+      <c r="K3" s="469"/>
+      <c r="L3" s="469"/>
+      <c r="M3" s="469"/>
+      <c r="N3" s="469"/>
+      <c r="O3" s="469"/>
+      <c r="P3" s="469"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="470" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
-      <c r="D4" s="460"/>
-      <c r="E4" s="460"/>
-      <c r="F4" s="460"/>
-      <c r="G4" s="460"/>
-      <c r="H4" s="460"/>
-      <c r="I4" s="460"/>
-      <c r="J4" s="460"/>
-      <c r="K4" s="461"/>
-      <c r="L4" s="460"/>
-      <c r="M4" s="460"/>
-      <c r="N4" s="460"/>
-      <c r="O4" s="460"/>
-      <c r="P4" s="460"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="470"/>
+      <c r="F4" s="470"/>
+      <c r="G4" s="470"/>
+      <c r="H4" s="470"/>
+      <c r="I4" s="470"/>
+      <c r="J4" s="470"/>
+      <c r="K4" s="471"/>
+      <c r="L4" s="470"/>
+      <c r="M4" s="470"/>
+      <c r="N4" s="470"/>
+      <c r="O4" s="470"/>
+      <c r="P4" s="470"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="462" t="s">
+      <c r="A5" s="459" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="463" t="s">
+      <c r="B5" s="472" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="462" t="s">
+      <c r="C5" s="459" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="462" t="s">
+      <c r="D5" s="459" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="462"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="464" t="s">
+      <c r="E5" s="459"/>
+      <c r="F5" s="459"/>
+      <c r="G5" s="473" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="464"/>
-      <c r="I5" s="464"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="462" t="s">
+      <c r="H5" s="473"/>
+      <c r="I5" s="473"/>
+      <c r="J5" s="473"/>
+      <c r="K5" s="474"/>
+      <c r="L5" s="459" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="464" t="s">
+      <c r="M5" s="473" t="s">
         <v>238</v>
       </c>
-      <c r="N5" s="464"/>
-      <c r="O5" s="464"/>
-      <c r="P5" s="462" t="s">
+      <c r="N5" s="473"/>
+      <c r="O5" s="473"/>
+      <c r="P5" s="459" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="462"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="459"/>
+      <c r="B6" s="472"/>
+      <c r="C6" s="459"/>
       <c r="D6" s="332" t="s">
         <v>119</v>
       </c>
@@ -14116,7 +14164,7 @@
       <c r="K6" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="462"/>
+      <c r="L6" s="459"/>
       <c r="M6" s="333" t="s">
         <v>248</v>
       </c>
@@ -14126,21 +14174,21 @@
       <c r="O6" s="333" t="s">
         <v>250</v>
       </c>
-      <c r="P6" s="462"/>
+      <c r="P6" s="459"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="469">
+      <c r="A7" s="463">
         <v>1</v>
       </c>
-      <c r="B7" s="466">
+      <c r="B7" s="460">
         <v>43899</v>
       </c>
-      <c r="C7" s="469"/>
-      <c r="D7" s="469" t="s">
+      <c r="C7" s="463"/>
+      <c r="D7" s="463" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
+      <c r="E7" s="463"/>
+      <c r="F7" s="463"/>
       <c r="G7" s="74" t="s">
         <v>98</v>
       </c>
@@ -14161,17 +14209,17 @@
       <c r="M7" s="74"/>
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
-      <c r="P7" s="472" t="s">
+      <c r="P7" s="466" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="470"/>
-      <c r="B8" s="467"/>
-      <c r="C8" s="470"/>
-      <c r="D8" s="470"/>
-      <c r="E8" s="470"/>
-      <c r="F8" s="470"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="464"/>
+      <c r="D8" s="464"/>
+      <c r="E8" s="464"/>
+      <c r="F8" s="464"/>
       <c r="G8" s="337" t="s">
         <v>100</v>
       </c>
@@ -14192,15 +14240,15 @@
       <c r="M8" s="337"/>
       <c r="N8" s="337"/>
       <c r="O8" s="337"/>
-      <c r="P8" s="473"/>
+      <c r="P8" s="467"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="470"/>
-      <c r="B9" s="467"/>
-      <c r="C9" s="470"/>
-      <c r="D9" s="470"/>
-      <c r="E9" s="470"/>
-      <c r="F9" s="470"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="464"/>
+      <c r="D9" s="464"/>
+      <c r="E9" s="464"/>
+      <c r="F9" s="464"/>
       <c r="G9" s="337" t="s">
         <v>103</v>
       </c>
@@ -14221,15 +14269,15 @@
       <c r="M9" s="337"/>
       <c r="N9" s="337"/>
       <c r="O9" s="337"/>
-      <c r="P9" s="473"/>
+      <c r="P9" s="467"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="470"/>
-      <c r="B10" s="467"/>
-      <c r="C10" s="470"/>
-      <c r="D10" s="470"/>
-      <c r="E10" s="470"/>
-      <c r="F10" s="470"/>
+      <c r="A10" s="464"/>
+      <c r="B10" s="461"/>
+      <c r="C10" s="464"/>
+      <c r="D10" s="464"/>
+      <c r="E10" s="464"/>
+      <c r="F10" s="464"/>
       <c r="G10" s="337" t="s">
         <v>108</v>
       </c>
@@ -14250,15 +14298,15 @@
       <c r="M10" s="337"/>
       <c r="N10" s="337"/>
       <c r="O10" s="337"/>
-      <c r="P10" s="473"/>
+      <c r="P10" s="467"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="470"/>
-      <c r="B11" s="467"/>
-      <c r="C11" s="470"/>
-      <c r="D11" s="470"/>
-      <c r="E11" s="470"/>
-      <c r="F11" s="470"/>
+      <c r="A11" s="464"/>
+      <c r="B11" s="461"/>
+      <c r="C11" s="464"/>
+      <c r="D11" s="464"/>
+      <c r="E11" s="464"/>
+      <c r="F11" s="464"/>
       <c r="G11" s="337" t="s">
         <v>107</v>
       </c>
@@ -14279,15 +14327,15 @@
       <c r="M11" s="337"/>
       <c r="N11" s="337"/>
       <c r="O11" s="337"/>
-      <c r="P11" s="473"/>
+      <c r="P11" s="467"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="470"/>
-      <c r="B12" s="467"/>
-      <c r="C12" s="470"/>
-      <c r="D12" s="470"/>
-      <c r="E12" s="470"/>
-      <c r="F12" s="470"/>
+      <c r="A12" s="464"/>
+      <c r="B12" s="461"/>
+      <c r="C12" s="464"/>
+      <c r="D12" s="464"/>
+      <c r="E12" s="464"/>
+      <c r="F12" s="464"/>
       <c r="G12" s="337" t="s">
         <v>101</v>
       </c>
@@ -14308,15 +14356,15 @@
       <c r="M12" s="337"/>
       <c r="N12" s="337"/>
       <c r="O12" s="337"/>
-      <c r="P12" s="473"/>
+      <c r="P12" s="467"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="470"/>
-      <c r="B13" s="467"/>
-      <c r="C13" s="470"/>
-      <c r="D13" s="470"/>
-      <c r="E13" s="470"/>
-      <c r="F13" s="470"/>
+      <c r="A13" s="464"/>
+      <c r="B13" s="461"/>
+      <c r="C13" s="464"/>
+      <c r="D13" s="464"/>
+      <c r="E13" s="464"/>
+      <c r="F13" s="464"/>
       <c r="G13" s="337" t="s">
         <v>140</v>
       </c>
@@ -14337,15 +14385,15 @@
       <c r="M13" s="337"/>
       <c r="N13" s="337"/>
       <c r="O13" s="337"/>
-      <c r="P13" s="473"/>
+      <c r="P13" s="467"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="470"/>
-      <c r="B14" s="467"/>
-      <c r="C14" s="470"/>
-      <c r="D14" s="470"/>
-      <c r="E14" s="470"/>
-      <c r="F14" s="470"/>
+      <c r="A14" s="464"/>
+      <c r="B14" s="461"/>
+      <c r="C14" s="464"/>
+      <c r="D14" s="464"/>
+      <c r="E14" s="464"/>
+      <c r="F14" s="464"/>
       <c r="G14" s="337" t="s">
         <v>102</v>
       </c>
@@ -14366,15 +14414,15 @@
       <c r="M14" s="337"/>
       <c r="N14" s="337"/>
       <c r="O14" s="337"/>
-      <c r="P14" s="473"/>
+      <c r="P14" s="467"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="471"/>
-      <c r="B15" s="468"/>
-      <c r="C15" s="471"/>
-      <c r="D15" s="471"/>
-      <c r="E15" s="471"/>
-      <c r="F15" s="471"/>
+      <c r="A15" s="465"/>
+      <c r="B15" s="462"/>
+      <c r="C15" s="465"/>
+      <c r="D15" s="465"/>
+      <c r="E15" s="465"/>
+      <c r="F15" s="465"/>
       <c r="G15" s="340" t="s">
         <v>131</v>
       </c>
@@ -14395,23 +14443,23 @@
       <c r="M15" s="340"/>
       <c r="N15" s="340"/>
       <c r="O15" s="340"/>
-      <c r="P15" s="474"/>
+      <c r="P15" s="468"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="469">
+      <c r="A16" s="463">
         <v>2</v>
       </c>
-      <c r="B16" s="466">
+      <c r="B16" s="460">
         <v>43908</v>
       </c>
-      <c r="C16" s="469"/>
-      <c r="D16" s="469" t="s">
+      <c r="C16" s="463"/>
+      <c r="D16" s="463" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="469" t="s">
+      <c r="E16" s="463" t="s">
         <v>241</v>
       </c>
-      <c r="F16" s="469"/>
+      <c r="F16" s="463"/>
       <c r="G16" s="343" t="s">
         <v>101</v>
       </c>
@@ -14434,17 +14482,17 @@
       <c r="M16" s="343"/>
       <c r="N16" s="343"/>
       <c r="O16" s="343"/>
-      <c r="P16" s="472" t="s">
+      <c r="P16" s="466" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="470"/>
-      <c r="B17" s="467"/>
-      <c r="C17" s="470"/>
-      <c r="D17" s="470"/>
-      <c r="E17" s="470"/>
-      <c r="F17" s="470"/>
+      <c r="A17" s="464"/>
+      <c r="B17" s="461"/>
+      <c r="C17" s="464"/>
+      <c r="D17" s="464"/>
+      <c r="E17" s="464"/>
+      <c r="F17" s="464"/>
       <c r="G17" s="343" t="s">
         <v>105</v>
       </c>
@@ -14468,15 +14516,15 @@
       <c r="M17" s="343"/>
       <c r="N17" s="343"/>
       <c r="O17" s="343"/>
-      <c r="P17" s="473"/>
+      <c r="P17" s="467"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="471"/>
-      <c r="B18" s="468"/>
-      <c r="C18" s="471"/>
-      <c r="D18" s="471"/>
-      <c r="E18" s="471"/>
-      <c r="F18" s="471"/>
+      <c r="A18" s="465"/>
+      <c r="B18" s="462"/>
+      <c r="C18" s="465"/>
+      <c r="D18" s="465"/>
+      <c r="E18" s="465"/>
+      <c r="F18" s="465"/>
       <c r="G18" s="340" t="s">
         <v>98</v>
       </c>
@@ -14500,21 +14548,21 @@
       <c r="M18" s="340"/>
       <c r="N18" s="340"/>
       <c r="O18" s="340"/>
-      <c r="P18" s="474"/>
+      <c r="P18" s="468"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="469">
+      <c r="A19" s="463">
         <v>4</v>
       </c>
-      <c r="B19" s="466">
+      <c r="B19" s="460">
         <v>43864</v>
       </c>
-      <c r="C19" s="469"/>
-      <c r="D19" s="472" t="s">
+      <c r="C19" s="463"/>
+      <c r="D19" s="466" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="469"/>
-      <c r="F19" s="469"/>
+      <c r="E19" s="463"/>
+      <c r="F19" s="463"/>
       <c r="G19" s="74" t="s">
         <v>99</v>
       </c>
@@ -14540,12 +14588,12 @@
       <c r="P19" s="74"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="470"/>
-      <c r="B20" s="467"/>
-      <c r="C20" s="470"/>
-      <c r="D20" s="473"/>
-      <c r="E20" s="470"/>
-      <c r="F20" s="470"/>
+      <c r="A20" s="464"/>
+      <c r="B20" s="461"/>
+      <c r="C20" s="464"/>
+      <c r="D20" s="467"/>
+      <c r="E20" s="464"/>
+      <c r="F20" s="464"/>
       <c r="G20" s="337" t="s">
         <v>100</v>
       </c>
@@ -14571,12 +14619,12 @@
       <c r="P20" s="337"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="470"/>
-      <c r="B21" s="467"/>
-      <c r="C21" s="470"/>
-      <c r="D21" s="473"/>
-      <c r="E21" s="470"/>
-      <c r="F21" s="470"/>
+      <c r="A21" s="464"/>
+      <c r="B21" s="461"/>
+      <c r="C21" s="464"/>
+      <c r="D21" s="467"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="464"/>
       <c r="G21" s="337" t="s">
         <v>103</v>
       </c>
@@ -14602,12 +14650,12 @@
       <c r="P21" s="337"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="471"/>
-      <c r="B22" s="468"/>
-      <c r="C22" s="471"/>
-      <c r="D22" s="474"/>
-      <c r="E22" s="471"/>
-      <c r="F22" s="471"/>
+      <c r="A22" s="465"/>
+      <c r="B22" s="462"/>
+      <c r="C22" s="465"/>
+      <c r="D22" s="468"/>
+      <c r="E22" s="465"/>
+      <c r="F22" s="465"/>
       <c r="G22" s="340" t="s">
         <v>108</v>
       </c>
@@ -14671,14 +14719,14 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="360" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="462" t="s">
+      <c r="A24" s="459" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="462"/>
-      <c r="C24" s="462"/>
-      <c r="D24" s="462"/>
-      <c r="E24" s="462"/>
-      <c r="F24" s="462"/>
+      <c r="B24" s="459"/>
+      <c r="C24" s="459"/>
+      <c r="D24" s="459"/>
+      <c r="E24" s="459"/>
+      <c r="F24" s="459"/>
       <c r="G24" s="356"/>
       <c r="H24" s="357">
         <f>SUM(H7:H23)</f>
@@ -14744,6 +14792,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P7:P15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -14760,21 +14823,6 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P7:P15"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2562,6 +2562,45 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2571,44 +2610,35 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2619,14 +2649,17 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2634,102 +2667,69 @@
     <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2745,9 +2745,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2775,22 +2793,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2805,29 +2829,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2855,9 +2858,6 @@
     </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3208,10 +3208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,16 +3292,16 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="392" t="s">
+      <c r="A4" s="399" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="392"/>
-      <c r="C4" s="392"/>
-      <c r="D4" s="392"/>
-      <c r="E4" s="392"/>
-      <c r="F4" s="392"/>
-      <c r="G4" s="392"/>
-      <c r="H4" s="392"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3312,32 +3313,32 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="390" t="s">
+      <c r="B5" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="395" t="s">
+      <c r="D5" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="397" t="s">
+      <c r="E5" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="398"/>
-      <c r="G5" s="397" t="s">
+      <c r="F5" s="392"/>
+      <c r="G5" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="398"/>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="394"/>
-      <c r="B6" s="391"/>
-      <c r="C6" s="394"/>
-      <c r="D6" s="396"/>
+      <c r="H5" s="392"/>
+    </row>
+    <row r="6" spans="1:17" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="388"/>
+      <c r="B6" s="394"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="390"/>
       <c r="E6" s="12" t="s">
         <v>239</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43774</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43867</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>433000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43867</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43870</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>3560000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43886</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43886</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43891</v>
       </c>
@@ -3511,7 +3512,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43892</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43893</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>1153846</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43893</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>846154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43893</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>426000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43894</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>43894</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43895</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>1013359.59879</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>43895</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43895</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>1273000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43895</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>1761800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43895</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43895</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43897</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43898</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43898</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43898</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43898</v>
       </c>
@@ -3873,7 +3874,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43899</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43900</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>450000.1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43900</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43900</v>
       </c>
@@ -3993,7 +3994,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43901</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>43901</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>43901</v>
       </c>
@@ -4052,7 +4053,7 @@
       </c>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>43901</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>43901</v>
       </c>
@@ -4092,7 +4093,7 @@
       </c>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43901</v>
       </c>
@@ -4172,7 +4173,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>43902</v>
       </c>
@@ -4192,7 +4193,7 @@
       </c>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>43902</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>43902</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>487000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>43902</v>
       </c>
@@ -4272,7 +4273,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>43903</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>43903</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>532000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>43903</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>43904</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>399999.6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>43904</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>450000.1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>43905</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>982000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>43906</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>43906</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>43906</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>43906</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>43906</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>43906</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>43906</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43906</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43906</v>
       </c>
@@ -4654,7 +4655,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>43908</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>43909</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>3740000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>43910</v>
       </c>
@@ -4734,7 +4735,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>43910</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>1014600</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>43911</v>
       </c>
@@ -4794,7 +4795,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>43913</v>
       </c>
@@ -4854,7 +4855,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>43915</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>1153000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>43915</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>2601111</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>43889</v>
       </c>
@@ -4975,7 +4976,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>43914</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>43917</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>43917</v>
       </c>
@@ -5055,7 +5056,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>43917</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>4423007</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>43918</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>43918</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>43919</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>43920</v>
       </c>
@@ -5195,7 +5196,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>43921</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>43921</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>43921</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>43921</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>43921</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>43921</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>43921</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>43921</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>43921</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>43921</v>
       </c>
@@ -5396,13 +5397,13 @@
       </c>
       <c r="J108" s="79"/>
     </row>
-    <row r="109" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="399" t="s">
+    <row r="109" spans="1:10" s="26" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="400"/>
-      <c r="C109" s="400"/>
-      <c r="D109" s="401"/>
+      <c r="B109" s="396"/>
+      <c r="C109" s="396"/>
+      <c r="D109" s="397"/>
       <c r="E109" s="25">
         <f>SUM(E7:E108)</f>
         <v>14303450</v>
@@ -5421,12 +5422,12 @@
       </c>
       <c r="J109" s="27"/>
     </row>
-    <row r="110" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="402" t="s">
+    <row r="110" spans="1:10" s="1" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="402"/>
-      <c r="C110" s="402"/>
+      <c r="B110" s="398"/>
+      <c r="C110" s="398"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5441,32 +5442,32 @@
       <c r="D112" s="386"/>
     </row>
     <row r="113" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="393" t="s">
+      <c r="A113" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="390" t="s">
+      <c r="B113" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="393" t="s">
+      <c r="C113" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="395" t="s">
+      <c r="D113" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="397" t="s">
+      <c r="E113" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="398"/>
-      <c r="G113" s="397" t="s">
+      <c r="F113" s="392"/>
+      <c r="G113" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="398"/>
+      <c r="H113" s="392"/>
     </row>
     <row r="114" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="394"/>
-      <c r="B114" s="391"/>
-      <c r="C114" s="394"/>
-      <c r="D114" s="396"/>
+      <c r="A114" s="388"/>
+      <c r="B114" s="394"/>
+      <c r="C114" s="388"/>
+      <c r="D114" s="390"/>
       <c r="E114" s="12" t="s">
         <v>239</v>
       </c>
@@ -5484,7 +5485,7 @@
       <c r="A115" s="13">
         <v>43886</v>
       </c>
-      <c r="B115" s="387" t="s">
+      <c r="B115" s="400" t="s">
         <v>306</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -5504,7 +5505,7 @@
       <c r="A116" s="13">
         <v>43886</v>
       </c>
-      <c r="B116" s="388"/>
+      <c r="B116" s="401"/>
       <c r="C116" s="14" t="s">
         <v>48</v>
       </c>
@@ -5522,7 +5523,7 @@
       <c r="A117" s="13">
         <v>43894</v>
       </c>
-      <c r="B117" s="388"/>
+      <c r="B117" s="401"/>
       <c r="C117" s="14" t="s">
         <v>48</v>
       </c>
@@ -5540,7 +5541,7 @@
       <c r="A118" s="13">
         <v>43895</v>
       </c>
-      <c r="B118" s="388"/>
+      <c r="B118" s="401"/>
       <c r="C118" s="14" t="s">
         <v>48</v>
       </c>
@@ -5558,7 +5559,7 @@
       <c r="A119" s="13">
         <v>43895</v>
       </c>
-      <c r="B119" s="388"/>
+      <c r="B119" s="401"/>
       <c r="C119" s="14" t="s">
         <v>48</v>
       </c>
@@ -5576,7 +5577,7 @@
       <c r="A120" s="13">
         <v>43897</v>
       </c>
-      <c r="B120" s="388"/>
+      <c r="B120" s="401"/>
       <c r="C120" s="14" t="s">
         <v>48</v>
       </c>
@@ -5594,7 +5595,7 @@
       <c r="A121" s="13">
         <v>43898</v>
       </c>
-      <c r="B121" s="388"/>
+      <c r="B121" s="401"/>
       <c r="C121" s="14" t="s">
         <v>48</v>
       </c>
@@ -5612,7 +5613,7 @@
       <c r="A122" s="13">
         <v>43898</v>
       </c>
-      <c r="B122" s="388"/>
+      <c r="B122" s="401"/>
       <c r="C122" s="14" t="s">
         <v>48</v>
       </c>
@@ -5630,7 +5631,7 @@
       <c r="A123" s="13">
         <v>43898</v>
       </c>
-      <c r="B123" s="388"/>
+      <c r="B123" s="401"/>
       <c r="C123" s="14" t="s">
         <v>48</v>
       </c>
@@ -5648,7 +5649,7 @@
       <c r="A124" s="13">
         <v>43898</v>
       </c>
-      <c r="B124" s="388"/>
+      <c r="B124" s="401"/>
       <c r="C124" s="14" t="s">
         <v>48</v>
       </c>
@@ -5666,7 +5667,7 @@
       <c r="A125" s="13">
         <v>43901</v>
       </c>
-      <c r="B125" s="388"/>
+      <c r="B125" s="401"/>
       <c r="C125" s="14" t="s">
         <v>48</v>
       </c>
@@ -5684,7 +5685,7 @@
       <c r="A126" s="13">
         <v>43902</v>
       </c>
-      <c r="B126" s="388"/>
+      <c r="B126" s="401"/>
       <c r="C126" s="14" t="s">
         <v>48</v>
       </c>
@@ -5702,7 +5703,7 @@
       <c r="A127" s="13">
         <v>43906</v>
       </c>
-      <c r="B127" s="388"/>
+      <c r="B127" s="401"/>
       <c r="C127" s="14" t="s">
         <v>48</v>
       </c>
@@ -5720,7 +5721,7 @@
       <c r="A128" s="13">
         <v>43906</v>
       </c>
-      <c r="B128" s="388"/>
+      <c r="B128" s="401"/>
       <c r="C128" s="14" t="s">
         <v>48</v>
       </c>
@@ -5738,7 +5739,7 @@
       <c r="A129" s="13">
         <v>43906</v>
       </c>
-      <c r="B129" s="388"/>
+      <c r="B129" s="401"/>
       <c r="C129" s="14" t="s">
         <v>48</v>
       </c>
@@ -5756,7 +5757,7 @@
       <c r="A130" s="13">
         <v>43906</v>
       </c>
-      <c r="B130" s="388"/>
+      <c r="B130" s="401"/>
       <c r="C130" s="14" t="s">
         <v>48</v>
       </c>
@@ -5774,7 +5775,7 @@
       <c r="A131" s="13">
         <v>43906</v>
       </c>
-      <c r="B131" s="388"/>
+      <c r="B131" s="401"/>
       <c r="C131" s="14" t="s">
         <v>48</v>
       </c>
@@ -5792,7 +5793,7 @@
       <c r="A132" s="13">
         <v>43910</v>
       </c>
-      <c r="B132" s="388"/>
+      <c r="B132" s="401"/>
       <c r="C132" s="14" t="s">
         <v>48</v>
       </c>
@@ -5810,7 +5811,7 @@
       <c r="A133" s="13">
         <v>43889</v>
       </c>
-      <c r="B133" s="388"/>
+      <c r="B133" s="401"/>
       <c r="C133" s="14" t="s">
         <v>48</v>
       </c>
@@ -5828,7 +5829,7 @@
       <c r="A134" s="13">
         <v>43921</v>
       </c>
-      <c r="B134" s="388"/>
+      <c r="B134" s="401"/>
       <c r="C134" s="14" t="s">
         <v>48</v>
       </c>
@@ -5846,7 +5847,7 @@
       <c r="A135" s="13">
         <v>43921</v>
       </c>
-      <c r="B135" s="388"/>
+      <c r="B135" s="401"/>
       <c r="C135" s="14" t="s">
         <v>48</v>
       </c>
@@ -5864,7 +5865,7 @@
       <c r="A136" s="13">
         <v>43921</v>
       </c>
-      <c r="B136" s="388"/>
+      <c r="B136" s="401"/>
       <c r="C136" s="14" t="s">
         <v>48</v>
       </c>
@@ -5882,7 +5883,7 @@
       <c r="A137" s="13">
         <v>43921</v>
       </c>
-      <c r="B137" s="388"/>
+      <c r="B137" s="401"/>
       <c r="C137" s="14" t="s">
         <v>48</v>
       </c>
@@ -5900,7 +5901,7 @@
       <c r="A138" s="28">
         <v>43921</v>
       </c>
-      <c r="B138" s="389"/>
+      <c r="B138" s="402"/>
       <c r="C138" s="29" t="s">
         <v>48</v>
       </c>
@@ -5937,32 +5938,32 @@
       <c r="D141" s="386"/>
     </row>
     <row r="142" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="393" t="s">
+      <c r="A142" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="390" t="s">
+      <c r="B142" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C142" s="393" t="s">
+      <c r="C142" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="395" t="s">
+      <c r="D142" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="397" t="s">
+      <c r="E142" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="398"/>
-      <c r="G142" s="397" t="s">
+      <c r="F142" s="392"/>
+      <c r="G142" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="398"/>
+      <c r="H142" s="392"/>
     </row>
     <row r="143" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="394"/>
-      <c r="B143" s="391"/>
-      <c r="C143" s="394"/>
-      <c r="D143" s="396"/>
+      <c r="A143" s="388"/>
+      <c r="B143" s="394"/>
+      <c r="C143" s="388"/>
+      <c r="D143" s="390"/>
       <c r="E143" s="12" t="s">
         <v>239</v>
       </c>
@@ -6450,32 +6451,32 @@
       <c r="D167" s="386"/>
     </row>
     <row r="168" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="393" t="s">
+      <c r="A168" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="390" t="s">
+      <c r="B168" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C168" s="393" t="s">
+      <c r="C168" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="395" t="s">
+      <c r="D168" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="397" t="s">
+      <c r="E168" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F168" s="398"/>
-      <c r="G168" s="397" t="s">
+      <c r="F168" s="392"/>
+      <c r="G168" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H168" s="398"/>
+      <c r="H168" s="392"/>
     </row>
     <row r="169" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="394"/>
-      <c r="B169" s="391"/>
-      <c r="C169" s="394"/>
-      <c r="D169" s="396"/>
+      <c r="A169" s="388"/>
+      <c r="B169" s="394"/>
+      <c r="C169" s="388"/>
+      <c r="D169" s="390"/>
       <c r="E169" s="12" t="s">
         <v>239</v>
       </c>
@@ -6631,32 +6632,32 @@
       <c r="D178" s="386"/>
     </row>
     <row r="179" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="393" t="s">
+      <c r="A179" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="390" t="s">
+      <c r="B179" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C179" s="393" t="s">
+      <c r="C179" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="395" t="s">
+      <c r="D179" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E179" s="397" t="s">
+      <c r="E179" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F179" s="398"/>
-      <c r="G179" s="397" t="s">
+      <c r="F179" s="392"/>
+      <c r="G179" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H179" s="398"/>
+      <c r="H179" s="392"/>
     </row>
     <row r="180" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="394"/>
-      <c r="B180" s="391"/>
-      <c r="C180" s="394"/>
-      <c r="D180" s="396"/>
+      <c r="A180" s="388"/>
+      <c r="B180" s="394"/>
+      <c r="C180" s="388"/>
+      <c r="D180" s="390"/>
       <c r="E180" s="12" t="s">
         <v>239</v>
       </c>
@@ -6732,32 +6733,32 @@
       <c r="D186" s="386"/>
     </row>
     <row r="187" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="393" t="s">
+      <c r="A187" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B187" s="390" t="s">
+      <c r="B187" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C187" s="393" t="s">
+      <c r="C187" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="395" t="s">
+      <c r="D187" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="397" t="s">
+      <c r="E187" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="398"/>
-      <c r="G187" s="397" t="s">
+      <c r="F187" s="392"/>
+      <c r="G187" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="398"/>
+      <c r="H187" s="392"/>
     </row>
     <row r="188" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="394"/>
-      <c r="B188" s="391"/>
-      <c r="C188" s="394"/>
-      <c r="D188" s="396"/>
+      <c r="A188" s="388"/>
+      <c r="B188" s="394"/>
+      <c r="C188" s="388"/>
+      <c r="D188" s="390"/>
       <c r="E188" s="12" t="s">
         <v>239</v>
       </c>
@@ -6775,7 +6776,7 @@
       <c r="A189" s="13">
         <v>43867</v>
       </c>
-      <c r="B189" s="387" t="s">
+      <c r="B189" s="400" t="s">
         <v>307</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -6795,7 +6796,7 @@
       <c r="A190" s="13">
         <v>43867</v>
       </c>
-      <c r="B190" s="388"/>
+      <c r="B190" s="401"/>
       <c r="C190" s="14" t="s">
         <v>47</v>
       </c>
@@ -6813,7 +6814,7 @@
       <c r="A191" s="13">
         <v>43870</v>
       </c>
-      <c r="B191" s="388"/>
+      <c r="B191" s="401"/>
       <c r="C191" s="14" t="s">
         <v>47</v>
       </c>
@@ -6831,7 +6832,7 @@
       <c r="A192" s="13">
         <v>43891</v>
       </c>
-      <c r="B192" s="388"/>
+      <c r="B192" s="401"/>
       <c r="C192" s="14" t="s">
         <v>47</v>
       </c>
@@ -6849,7 +6850,7 @@
       <c r="A193" s="13">
         <v>43892</v>
       </c>
-      <c r="B193" s="388"/>
+      <c r="B193" s="401"/>
       <c r="C193" s="14" t="s">
         <v>47</v>
       </c>
@@ -6867,7 +6868,7 @@
       <c r="A194" s="13">
         <v>43893</v>
       </c>
-      <c r="B194" s="388"/>
+      <c r="B194" s="401"/>
       <c r="C194" s="14" t="s">
         <v>47</v>
       </c>
@@ -6885,7 +6886,7 @@
       <c r="A195" s="13">
         <v>43895</v>
       </c>
-      <c r="B195" s="388"/>
+      <c r="B195" s="401"/>
       <c r="C195" s="14" t="s">
         <v>47</v>
       </c>
@@ -6903,7 +6904,7 @@
       <c r="A196" s="13">
         <v>43895</v>
       </c>
-      <c r="B196" s="388"/>
+      <c r="B196" s="401"/>
       <c r="C196" s="14" t="s">
         <v>47</v>
       </c>
@@ -6921,7 +6922,7 @@
       <c r="A197" s="13">
         <v>43895</v>
       </c>
-      <c r="B197" s="388"/>
+      <c r="B197" s="401"/>
       <c r="C197" s="14" t="s">
         <v>47</v>
       </c>
@@ -6939,7 +6940,7 @@
       <c r="A198" s="13">
         <v>43895</v>
       </c>
-      <c r="B198" s="388"/>
+      <c r="B198" s="401"/>
       <c r="C198" s="14" t="s">
         <v>47</v>
       </c>
@@ -6957,7 +6958,7 @@
       <c r="A199" s="13">
         <v>43899</v>
       </c>
-      <c r="B199" s="388"/>
+      <c r="B199" s="401"/>
       <c r="C199" s="14" t="s">
         <v>47</v>
       </c>
@@ -6975,7 +6976,7 @@
       <c r="A200" s="13">
         <v>43900</v>
       </c>
-      <c r="B200" s="388"/>
+      <c r="B200" s="401"/>
       <c r="C200" s="14" t="s">
         <v>47</v>
       </c>
@@ -6993,7 +6994,7 @@
       <c r="A201" s="13">
         <v>43900</v>
       </c>
-      <c r="B201" s="388"/>
+      <c r="B201" s="401"/>
       <c r="C201" s="14" t="s">
         <v>47</v>
       </c>
@@ -7011,7 +7012,7 @@
       <c r="A202" s="13">
         <v>43902</v>
       </c>
-      <c r="B202" s="388"/>
+      <c r="B202" s="401"/>
       <c r="C202" s="14" t="s">
         <v>47</v>
       </c>
@@ -7029,7 +7030,7 @@
       <c r="A203" s="13">
         <v>43902</v>
       </c>
-      <c r="B203" s="388"/>
+      <c r="B203" s="401"/>
       <c r="C203" s="14" t="s">
         <v>47</v>
       </c>
@@ -7047,7 +7048,7 @@
       <c r="A204" s="13">
         <v>43903</v>
       </c>
-      <c r="B204" s="388"/>
+      <c r="B204" s="401"/>
       <c r="C204" s="14" t="s">
         <v>47</v>
       </c>
@@ -7065,7 +7066,7 @@
       <c r="A205" s="13">
         <v>43903</v>
       </c>
-      <c r="B205" s="388"/>
+      <c r="B205" s="401"/>
       <c r="C205" s="14" t="s">
         <v>47</v>
       </c>
@@ -7083,7 +7084,7 @@
       <c r="A206" s="13">
         <v>43903</v>
       </c>
-      <c r="B206" s="388"/>
+      <c r="B206" s="401"/>
       <c r="C206" s="14" t="s">
         <v>47</v>
       </c>
@@ -7101,7 +7102,7 @@
       <c r="A207" s="13">
         <v>43904</v>
       </c>
-      <c r="B207" s="388"/>
+      <c r="B207" s="401"/>
       <c r="C207" s="14" t="s">
         <v>47</v>
       </c>
@@ -7119,7 +7120,7 @@
       <c r="A208" s="13">
         <v>43904</v>
       </c>
-      <c r="B208" s="388"/>
+      <c r="B208" s="401"/>
       <c r="C208" s="14" t="s">
         <v>47</v>
       </c>
@@ -7137,7 +7138,7 @@
       <c r="A209" s="13">
         <v>43905</v>
       </c>
-      <c r="B209" s="388"/>
+      <c r="B209" s="401"/>
       <c r="C209" s="14" t="s">
         <v>47</v>
       </c>
@@ -7155,7 +7156,7 @@
       <c r="A210" s="13">
         <v>43906</v>
       </c>
-      <c r="B210" s="388"/>
+      <c r="B210" s="401"/>
       <c r="C210" s="14" t="s">
         <v>47</v>
       </c>
@@ -7173,7 +7174,7 @@
       <c r="A211" s="13">
         <v>43906</v>
       </c>
-      <c r="B211" s="388"/>
+      <c r="B211" s="401"/>
       <c r="C211" s="14" t="s">
         <v>47</v>
       </c>
@@ -7191,7 +7192,7 @@
       <c r="A212" s="13">
         <v>43906</v>
       </c>
-      <c r="B212" s="388"/>
+      <c r="B212" s="401"/>
       <c r="C212" s="14" t="s">
         <v>47</v>
       </c>
@@ -7209,7 +7210,7 @@
       <c r="A213" s="13">
         <v>43906</v>
       </c>
-      <c r="B213" s="388"/>
+      <c r="B213" s="401"/>
       <c r="C213" s="14" t="s">
         <v>47</v>
       </c>
@@ -7227,7 +7228,7 @@
       <c r="A214" s="28">
         <v>43921</v>
       </c>
-      <c r="B214" s="389"/>
+      <c r="B214" s="402"/>
       <c r="C214" s="29" t="s">
         <v>47</v>
       </c>
@@ -7263,32 +7264,32 @@
       <c r="D217" s="386"/>
     </row>
     <row r="218" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="393" t="s">
+      <c r="A218" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="390" t="s">
+      <c r="B218" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C218" s="393" t="s">
+      <c r="C218" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="395" t="s">
+      <c r="D218" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="397" t="s">
+      <c r="E218" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="398"/>
-      <c r="G218" s="397" t="s">
+      <c r="F218" s="392"/>
+      <c r="G218" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H218" s="398"/>
+      <c r="H218" s="392"/>
     </row>
     <row r="219" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="394"/>
-      <c r="B219" s="391"/>
-      <c r="C219" s="394"/>
-      <c r="D219" s="396"/>
+      <c r="A219" s="388"/>
+      <c r="B219" s="394"/>
+      <c r="C219" s="388"/>
+      <c r="D219" s="390"/>
       <c r="E219" s="12" t="s">
         <v>239</v>
       </c>
@@ -7444,32 +7445,32 @@
       <c r="D228" s="386"/>
     </row>
     <row r="229" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="393" t="s">
+      <c r="A229" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="390" t="s">
+      <c r="B229" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C229" s="393" t="s">
+      <c r="C229" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="395" t="s">
+      <c r="D229" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E229" s="397" t="s">
+      <c r="E229" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F229" s="398"/>
-      <c r="G229" s="397" t="s">
+      <c r="F229" s="392"/>
+      <c r="G229" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H229" s="398"/>
+      <c r="H229" s="392"/>
     </row>
     <row r="230" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="394"/>
-      <c r="B230" s="391"/>
-      <c r="C230" s="394"/>
-      <c r="D230" s="396"/>
+      <c r="A230" s="388"/>
+      <c r="B230" s="394"/>
+      <c r="C230" s="388"/>
+      <c r="D230" s="390"/>
       <c r="E230" s="12" t="s">
         <v>239</v>
       </c>
@@ -7548,32 +7549,32 @@
       <c r="D235" s="386"/>
     </row>
     <row r="236" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="393" t="s">
+      <c r="A236" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="390" t="s">
+      <c r="B236" s="393" t="s">
         <v>253</v>
       </c>
-      <c r="C236" s="393" t="s">
+      <c r="C236" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="395" t="s">
+      <c r="D236" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E236" s="397" t="s">
+      <c r="E236" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="F236" s="398"/>
-      <c r="G236" s="397" t="s">
+      <c r="F236" s="392"/>
+      <c r="G236" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="H236" s="398"/>
+      <c r="H236" s="392"/>
     </row>
     <row r="237" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="394"/>
-      <c r="B237" s="391"/>
-      <c r="C237" s="394"/>
-      <c r="D237" s="396"/>
+      <c r="A237" s="388"/>
+      <c r="B237" s="394"/>
+      <c r="C237" s="388"/>
+      <c r="D237" s="390"/>
       <c r="E237" s="12" t="s">
         <v>239</v>
       </c>
@@ -7906,39 +7907,41 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:H110">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Hàng hóa"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="67">
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="B189:B214"/>
+    <mergeCell ref="B115:B138"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:F113"/>
     <mergeCell ref="E187:F187"/>
     <mergeCell ref="G187:H187"/>
     <mergeCell ref="G142:H142"/>
@@ -7951,32 +7954,35 @@
     <mergeCell ref="C142:C143"/>
     <mergeCell ref="D142:D143"/>
     <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="B189:B214"/>
-    <mergeCell ref="B115:B138"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="B236:B237"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7987,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67:M69"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8045,165 +8051,165 @@
       <c r="N2" s="281"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="422" t="s">
+      <c r="A3" s="425" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="422"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="422"/>
-      <c r="I3" s="422"/>
-      <c r="J3" s="422"/>
-      <c r="K3" s="422"/>
-      <c r="L3" s="422"/>
-      <c r="M3" s="422"/>
-      <c r="N3" s="422"/>
-      <c r="O3" s="422"/>
-      <c r="P3" s="422"/>
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
+      <c r="H3" s="425"/>
+      <c r="I3" s="425"/>
+      <c r="J3" s="425"/>
+      <c r="K3" s="425"/>
+      <c r="L3" s="425"/>
+      <c r="M3" s="425"/>
+      <c r="N3" s="425"/>
+      <c r="O3" s="425"/>
+      <c r="P3" s="425"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="422" t="s">
+      <c r="A4" s="425" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
-      <c r="F4" s="422"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
-      <c r="I4" s="422"/>
-      <c r="J4" s="422"/>
-      <c r="K4" s="422"/>
-      <c r="L4" s="422"/>
-      <c r="M4" s="422"/>
-      <c r="N4" s="422"/>
-      <c r="O4" s="422"/>
-      <c r="P4" s="422"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="425"/>
+      <c r="J4" s="425"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="425"/>
+      <c r="M4" s="425"/>
+      <c r="N4" s="425"/>
+      <c r="O4" s="425"/>
+      <c r="P4" s="425"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="422"/>
-      <c r="B5" s="422"/>
-      <c r="C5" s="422"/>
-      <c r="D5" s="422"/>
-      <c r="E5" s="422"/>
-      <c r="F5" s="422"/>
-      <c r="G5" s="422"/>
-      <c r="H5" s="422"/>
-      <c r="I5" s="422"/>
-      <c r="J5" s="422"/>
-      <c r="K5" s="423"/>
-      <c r="L5" s="423"/>
+      <c r="A5" s="425"/>
+      <c r="B5" s="425"/>
+      <c r="C5" s="425"/>
+      <c r="D5" s="425"/>
+      <c r="E5" s="425"/>
+      <c r="F5" s="425"/>
+      <c r="G5" s="425"/>
+      <c r="H5" s="425"/>
+      <c r="I5" s="425"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="426"/>
+      <c r="L5" s="426"/>
     </row>
     <row r="6" spans="1:16" s="282" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="427" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="427" t="s">
+      <c r="B6" s="430" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="424" t="s">
+      <c r="C6" s="427" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="430" t="s">
+      <c r="D6" s="433" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="431" t="s">
+      <c r="E6" s="433"/>
+      <c r="F6" s="434" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="431"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="431"/>
-      <c r="J6" s="431"/>
-      <c r="K6" s="431"/>
-      <c r="L6" s="431"/>
-      <c r="M6" s="432"/>
-      <c r="N6" s="432"/>
-      <c r="O6" s="432"/>
-      <c r="P6" s="406" t="s">
+      <c r="G6" s="434"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="434"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="434"/>
+      <c r="L6" s="434"/>
+      <c r="M6" s="435"/>
+      <c r="N6" s="435"/>
+      <c r="O6" s="435"/>
+      <c r="P6" s="403" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="282" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="425"/>
-      <c r="B7" s="428"/>
-      <c r="C7" s="425"/>
-      <c r="D7" s="424" t="s">
+      <c r="A7" s="428"/>
+      <c r="B7" s="431"/>
+      <c r="C7" s="428"/>
+      <c r="D7" s="427" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="424" t="s">
+      <c r="E7" s="427" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="424" t="s">
+      <c r="F7" s="427" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="424" t="s">
+      <c r="G7" s="427" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="424" t="s">
+      <c r="H7" s="427" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="424" t="s">
+      <c r="I7" s="427" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="433" t="s">
+      <c r="J7" s="436" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="433"/>
-      <c r="L7" s="434" t="s">
+      <c r="K7" s="436"/>
+      <c r="L7" s="437" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="436" t="s">
+      <c r="M7" s="439" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="436" t="s">
+      <c r="N7" s="439" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="436" t="s">
+      <c r="O7" s="439" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="407"/>
+      <c r="P7" s="406"/>
     </row>
     <row r="8" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="426"/>
-      <c r="B8" s="429"/>
-      <c r="C8" s="426"/>
-      <c r="D8" s="426"/>
-      <c r="E8" s="426"/>
-      <c r="F8" s="426"/>
-      <c r="G8" s="426"/>
-      <c r="H8" s="426"/>
-      <c r="I8" s="426"/>
+      <c r="A8" s="429"/>
+      <c r="B8" s="432"/>
+      <c r="C8" s="429"/>
+      <c r="D8" s="429"/>
+      <c r="E8" s="429"/>
+      <c r="F8" s="429"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="429"/>
       <c r="J8" s="283" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="435"/>
-      <c r="M8" s="437"/>
-      <c r="N8" s="437"/>
-      <c r="O8" s="437"/>
-      <c r="P8" s="408"/>
+      <c r="L8" s="438"/>
+      <c r="M8" s="440"/>
+      <c r="N8" s="440"/>
+      <c r="O8" s="440"/>
+      <c r="P8" s="404"/>
     </row>
     <row r="9" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="403">
+      <c r="A9" s="413">
         <v>1089</v>
       </c>
-      <c r="B9" s="409">
+      <c r="B9" s="420">
         <v>43891</v>
       </c>
-      <c r="C9" s="406" t="s">
+      <c r="C9" s="403" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="406" t="s">
+      <c r="D9" s="403" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="406" t="s">
+      <c r="E9" s="403" t="s">
         <v>138</v>
       </c>
       <c r="F9" s="285" t="s">
@@ -8233,16 +8239,16 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O9" s="287"/>
-      <c r="P9" s="403" t="s">
+      <c r="P9" s="413" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
-      <c r="B10" s="411"/>
-      <c r="C10" s="407"/>
-      <c r="D10" s="407"/>
-      <c r="E10" s="407"/>
+      <c r="A10" s="414"/>
+      <c r="B10" s="441"/>
+      <c r="C10" s="406"/>
+      <c r="D10" s="406"/>
+      <c r="E10" s="406"/>
       <c r="F10" s="288" t="s">
         <v>93</v>
       </c>
@@ -8270,14 +8276,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="290"/>
-      <c r="P10" s="404"/>
+      <c r="P10" s="414"/>
     </row>
     <row r="11" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="411"/>
-      <c r="C11" s="407"/>
-      <c r="D11" s="407"/>
-      <c r="E11" s="407"/>
+      <c r="A11" s="414"/>
+      <c r="B11" s="441"/>
+      <c r="C11" s="406"/>
+      <c r="D11" s="406"/>
+      <c r="E11" s="406"/>
       <c r="F11" s="288" t="s">
         <v>96</v>
       </c>
@@ -8305,14 +8311,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="290"/>
-      <c r="P11" s="404"/>
+      <c r="P11" s="414"/>
     </row>
     <row r="12" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
-      <c r="B12" s="411"/>
-      <c r="C12" s="407"/>
-      <c r="D12" s="407"/>
-      <c r="E12" s="407"/>
+      <c r="A12" s="414"/>
+      <c r="B12" s="441"/>
+      <c r="C12" s="406"/>
+      <c r="D12" s="406"/>
+      <c r="E12" s="406"/>
       <c r="F12" s="288" t="s">
         <v>101</v>
       </c>
@@ -8340,14 +8346,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="290"/>
-      <c r="P12" s="404"/>
+      <c r="P12" s="414"/>
     </row>
     <row r="13" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="411"/>
-      <c r="C13" s="407"/>
-      <c r="D13" s="407"/>
-      <c r="E13" s="407"/>
+      <c r="A13" s="414"/>
+      <c r="B13" s="441"/>
+      <c r="C13" s="406"/>
+      <c r="D13" s="406"/>
+      <c r="E13" s="406"/>
       <c r="F13" s="288" t="s">
         <v>100</v>
       </c>
@@ -8375,14 +8381,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="290"/>
-      <c r="P13" s="404"/>
+      <c r="P13" s="414"/>
     </row>
     <row r="14" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
-      <c r="B14" s="411"/>
-      <c r="C14" s="407"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="407"/>
+      <c r="A14" s="414"/>
+      <c r="B14" s="441"/>
+      <c r="C14" s="406"/>
+      <c r="D14" s="406"/>
+      <c r="E14" s="406"/>
       <c r="F14" s="288" t="s">
         <v>94</v>
       </c>
@@ -8410,14 +8416,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="290"/>
-      <c r="P14" s="404"/>
+      <c r="P14" s="414"/>
     </row>
     <row r="15" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
-      <c r="B15" s="411"/>
-      <c r="C15" s="407"/>
-      <c r="D15" s="407"/>
-      <c r="E15" s="407"/>
+      <c r="A15" s="414"/>
+      <c r="B15" s="441"/>
+      <c r="C15" s="406"/>
+      <c r="D15" s="406"/>
+      <c r="E15" s="406"/>
       <c r="F15" s="288" t="s">
         <v>95</v>
       </c>
@@ -8445,14 +8451,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="290"/>
-      <c r="P15" s="404"/>
+      <c r="P15" s="414"/>
     </row>
     <row r="16" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
-      <c r="B16" s="410"/>
-      <c r="C16" s="408"/>
-      <c r="D16" s="408"/>
-      <c r="E16" s="408"/>
+      <c r="A16" s="415"/>
+      <c r="B16" s="421"/>
+      <c r="C16" s="404"/>
+      <c r="D16" s="404"/>
+      <c r="E16" s="404"/>
       <c r="F16" s="291" t="s">
         <v>124</v>
       </c>
@@ -8480,20 +8486,20 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="293"/>
-      <c r="P16" s="405"/>
+      <c r="P16" s="415"/>
     </row>
     <row r="17" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="403">
+      <c r="A17" s="413">
         <v>1102</v>
       </c>
-      <c r="B17" s="409">
+      <c r="B17" s="420">
         <v>43891</v>
       </c>
-      <c r="C17" s="406"/>
-      <c r="D17" s="406" t="s">
+      <c r="C17" s="403"/>
+      <c r="D17" s="403" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="406" t="s">
+      <c r="E17" s="403" t="s">
         <v>160</v>
       </c>
       <c r="F17" s="294" t="s">
@@ -8523,16 +8529,16 @@
         <f>L17</f>
         <v>2790000</v>
       </c>
-      <c r="P17" s="403" t="s">
+      <c r="P17" s="413" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="282" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
-      <c r="B18" s="410"/>
-      <c r="C18" s="408"/>
-      <c r="D18" s="408"/>
-      <c r="E18" s="408"/>
+      <c r="A18" s="415"/>
+      <c r="B18" s="421"/>
+      <c r="C18" s="404"/>
+      <c r="D18" s="404"/>
+      <c r="E18" s="404"/>
       <c r="F18" s="296" t="s">
         <v>100</v>
       </c>
@@ -8560,7 +8566,7 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="404"/>
+      <c r="P18" s="414"/>
     </row>
     <row r="19" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="299">
@@ -8608,17 +8614,17 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="403">
+      <c r="A20" s="413">
         <v>1108</v>
       </c>
-      <c r="B20" s="409">
+      <c r="B20" s="420">
         <v>43893</v>
       </c>
-      <c r="C20" s="406"/>
-      <c r="D20" s="406" t="s">
+      <c r="C20" s="403"/>
+      <c r="D20" s="403" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="406" t="s">
+      <c r="E20" s="403" t="s">
         <v>149</v>
       </c>
       <c r="F20" s="285" t="s">
@@ -8648,16 +8654,16 @@
         <f>L20</f>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P20" s="403" t="s">
+      <c r="P20" s="413" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
-      <c r="B21" s="411"/>
-      <c r="C21" s="407"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="407"/>
+      <c r="A21" s="414"/>
+      <c r="B21" s="441"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="406"/>
+      <c r="E21" s="406"/>
       <c r="F21" s="288" t="s">
         <v>96</v>
       </c>
@@ -8685,14 +8691,14 @@
         <f>L21</f>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P21" s="404"/>
+      <c r="P21" s="414"/>
     </row>
     <row r="22" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
-      <c r="B22" s="410"/>
-      <c r="C22" s="408"/>
-      <c r="D22" s="408"/>
-      <c r="E22" s="408"/>
+      <c r="A22" s="415"/>
+      <c r="B22" s="421"/>
+      <c r="C22" s="404"/>
+      <c r="D22" s="404"/>
+      <c r="E22" s="404"/>
       <c r="F22" s="291" t="s">
         <v>101</v>
       </c>
@@ -8720,7 +8726,7 @@
         <f>L22</f>
         <v>5150700.0000000009</v>
       </c>
-      <c r="P22" s="405"/>
+      <c r="P22" s="415"/>
     </row>
     <row r="23" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="380">
@@ -8764,19 +8770,19 @@
       <c r="P23" s="380"/>
     </row>
     <row r="24" spans="1:16" s="282" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="413">
+      <c r="A24" s="407">
         <v>1056</v>
       </c>
-      <c r="B24" s="416">
+      <c r="B24" s="417">
         <v>43899</v>
       </c>
-      <c r="C24" s="419" t="s">
+      <c r="C24" s="410" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="419" t="s">
+      <c r="D24" s="410" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="419"/>
+      <c r="E24" s="410"/>
       <c r="F24" s="285" t="s">
         <v>96</v>
       </c>
@@ -8804,16 +8810,16 @@
         <v>840750.00000000012</v>
       </c>
       <c r="O24" s="285"/>
-      <c r="P24" s="403" t="s">
+      <c r="P24" s="413" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="414"/>
-      <c r="B25" s="417"/>
-      <c r="C25" s="420"/>
-      <c r="D25" s="420"/>
-      <c r="E25" s="420"/>
+      <c r="A25" s="416"/>
+      <c r="B25" s="418"/>
+      <c r="C25" s="411"/>
+      <c r="D25" s="411"/>
+      <c r="E25" s="411"/>
       <c r="F25" s="288" t="s">
         <v>101</v>
       </c>
@@ -8841,14 +8847,14 @@
         <v>1716900.0000000002</v>
       </c>
       <c r="O25" s="288"/>
-      <c r="P25" s="404"/>
+      <c r="P25" s="414"/>
     </row>
     <row r="26" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="415"/>
-      <c r="B26" s="418"/>
-      <c r="C26" s="421"/>
-      <c r="D26" s="421"/>
-      <c r="E26" s="421"/>
+      <c r="A26" s="408"/>
+      <c r="B26" s="419"/>
+      <c r="C26" s="412"/>
+      <c r="D26" s="412"/>
+      <c r="E26" s="412"/>
       <c r="F26" s="291" t="s">
         <v>124</v>
       </c>
@@ -8876,7 +8882,7 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O26" s="291"/>
-      <c r="P26" s="405"/>
+      <c r="P26" s="415"/>
     </row>
     <row r="27" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="307">
@@ -8965,17 +8971,17 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="403">
+      <c r="A29" s="413">
         <v>1060</v>
       </c>
-      <c r="B29" s="409">
+      <c r="B29" s="420">
         <v>43900</v>
       </c>
-      <c r="C29" s="406" t="s">
+      <c r="C29" s="403" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="406"/>
-      <c r="E29" s="406"/>
+      <c r="D29" s="403"/>
+      <c r="E29" s="403"/>
       <c r="F29" s="285" t="s">
         <v>92</v>
       </c>
@@ -9003,16 +9009,16 @@
         <v>156350.00000000003</v>
       </c>
       <c r="O29" s="285"/>
-      <c r="P29" s="403" t="s">
+      <c r="P29" s="413" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="404"/>
-      <c r="B30" s="411"/>
-      <c r="C30" s="407"/>
-      <c r="D30" s="407"/>
-      <c r="E30" s="407"/>
+      <c r="A30" s="414"/>
+      <c r="B30" s="441"/>
+      <c r="C30" s="406"/>
+      <c r="D30" s="406"/>
+      <c r="E30" s="406"/>
       <c r="F30" s="288" t="s">
         <v>93</v>
       </c>
@@ -9040,14 +9046,14 @@
         <v>2194800.0000000005</v>
       </c>
       <c r="O30" s="288"/>
-      <c r="P30" s="404"/>
+      <c r="P30" s="414"/>
     </row>
     <row r="31" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="405"/>
-      <c r="B31" s="410"/>
-      <c r="C31" s="408"/>
-      <c r="D31" s="408"/>
-      <c r="E31" s="408"/>
+      <c r="A31" s="415"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="404"/>
+      <c r="D31" s="404"/>
+      <c r="E31" s="404"/>
       <c r="F31" s="291" t="s">
         <v>94</v>
       </c>
@@ -9075,7 +9081,7 @@
         <v>324500.00000000006</v>
       </c>
       <c r="O31" s="291"/>
-      <c r="P31" s="405"/>
+      <c r="P31" s="415"/>
     </row>
     <row r="32" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="307">
@@ -9347,19 +9353,19 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="403">
+      <c r="A38" s="413">
         <v>1073</v>
       </c>
-      <c r="B38" s="409">
+      <c r="B38" s="420">
         <v>43905</v>
       </c>
-      <c r="C38" s="406" t="s">
+      <c r="C38" s="403" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="406" t="s">
+      <c r="D38" s="403" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="406" t="s">
+      <c r="E38" s="403" t="s">
         <v>141</v>
       </c>
       <c r="F38" s="285" t="s">
@@ -9389,16 +9395,16 @@
         <v>6867600.0000000009</v>
       </c>
       <c r="O38" s="287"/>
-      <c r="P38" s="403" t="s">
+      <c r="P38" s="413" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="405"/>
-      <c r="B39" s="410"/>
-      <c r="C39" s="408"/>
-      <c r="D39" s="408"/>
-      <c r="E39" s="408"/>
+      <c r="A39" s="415"/>
+      <c r="B39" s="421"/>
+      <c r="C39" s="404"/>
+      <c r="D39" s="404"/>
+      <c r="E39" s="404"/>
       <c r="F39" s="291" t="s">
         <v>95</v>
       </c>
@@ -9426,7 +9432,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O39" s="293"/>
-      <c r="P39" s="405"/>
+      <c r="P39" s="415"/>
     </row>
     <row r="40" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="299">
@@ -9470,17 +9476,17 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="282" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="403">
+      <c r="A41" s="413">
         <v>1069</v>
       </c>
-      <c r="B41" s="409">
+      <c r="B41" s="420">
         <v>43904</v>
       </c>
-      <c r="C41" s="406"/>
-      <c r="D41" s="406" t="s">
+      <c r="C41" s="403"/>
+      <c r="D41" s="403" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="406" t="s">
+      <c r="E41" s="403" t="s">
         <v>206</v>
       </c>
       <c r="F41" s="285" t="s">
@@ -9510,16 +9516,16 @@
         <f>L41</f>
         <v>7098000</v>
       </c>
-      <c r="P41" s="403" t="s">
+      <c r="P41" s="413" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="405"/>
-      <c r="B42" s="410"/>
-      <c r="C42" s="407"/>
-      <c r="D42" s="408"/>
-      <c r="E42" s="408"/>
+      <c r="A42" s="415"/>
+      <c r="B42" s="421"/>
+      <c r="C42" s="406"/>
+      <c r="D42" s="404"/>
+      <c r="E42" s="404"/>
       <c r="F42" s="291" t="s">
         <v>93</v>
       </c>
@@ -9547,20 +9553,20 @@
         <f t="shared" ref="O42:O47" si="12">L42</f>
         <v>3627000</v>
       </c>
-      <c r="P42" s="404"/>
+      <c r="P42" s="414"/>
     </row>
     <row r="43" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="403">
+      <c r="A43" s="413">
         <v>1070</v>
       </c>
-      <c r="B43" s="409">
+      <c r="B43" s="420">
         <v>43904</v>
       </c>
-      <c r="C43" s="406"/>
-      <c r="D43" s="406" t="s">
+      <c r="C43" s="403"/>
+      <c r="D43" s="403" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="406" t="s">
+      <c r="E43" s="403" t="s">
         <v>206</v>
       </c>
       <c r="F43" s="285" t="s">
@@ -9590,14 +9596,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P43" s="404"/>
+      <c r="P43" s="414"/>
     </row>
     <row r="44" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="405"/>
-      <c r="B44" s="410"/>
-      <c r="C44" s="407"/>
-      <c r="D44" s="408"/>
-      <c r="E44" s="408"/>
+      <c r="A44" s="415"/>
+      <c r="B44" s="421"/>
+      <c r="C44" s="406"/>
+      <c r="D44" s="404"/>
+      <c r="E44" s="404"/>
       <c r="F44" s="291" t="s">
         <v>93</v>
       </c>
@@ -9625,20 +9631,20 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P44" s="404"/>
+      <c r="P44" s="414"/>
     </row>
     <row r="45" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="403">
+      <c r="A45" s="413">
         <v>1072</v>
       </c>
-      <c r="B45" s="409">
+      <c r="B45" s="420">
         <v>43904</v>
       </c>
-      <c r="C45" s="406"/>
-      <c r="D45" s="406" t="s">
+      <c r="C45" s="403"/>
+      <c r="D45" s="403" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="406"/>
+      <c r="E45" s="403"/>
       <c r="F45" s="285" t="s">
         <v>93</v>
       </c>
@@ -9666,14 +9672,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P45" s="404"/>
+      <c r="P45" s="414"/>
     </row>
     <row r="46" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="404"/>
-      <c r="B46" s="411"/>
-      <c r="C46" s="407"/>
-      <c r="D46" s="407"/>
-      <c r="E46" s="407"/>
+      <c r="A46" s="414"/>
+      <c r="B46" s="441"/>
+      <c r="C46" s="406"/>
+      <c r="D46" s="406"/>
+      <c r="E46" s="406"/>
       <c r="F46" s="288" t="s">
         <v>101</v>
       </c>
@@ -9701,14 +9707,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P46" s="404"/>
+      <c r="P46" s="414"/>
     </row>
     <row r="47" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="405"/>
-      <c r="B47" s="410"/>
-      <c r="C47" s="408"/>
-      <c r="D47" s="408"/>
-      <c r="E47" s="408"/>
+      <c r="A47" s="415"/>
+      <c r="B47" s="421"/>
+      <c r="C47" s="404"/>
+      <c r="D47" s="404"/>
+      <c r="E47" s="404"/>
       <c r="F47" s="291" t="s">
         <v>95</v>
       </c>
@@ -9736,7 +9742,7 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P47" s="405"/>
+      <c r="P47" s="415"/>
     </row>
     <row r="48" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="299">
@@ -9878,17 +9884,17 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="403">
+      <c r="A51" s="413">
         <v>1078</v>
       </c>
-      <c r="B51" s="438">
+      <c r="B51" s="423">
         <v>43907</v>
       </c>
-      <c r="C51" s="439" t="s">
+      <c r="C51" s="424" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="406"/>
-      <c r="E51" s="406"/>
+      <c r="D51" s="403"/>
+      <c r="E51" s="403"/>
       <c r="F51" s="285" t="s">
         <v>93</v>
       </c>
@@ -9916,16 +9922,16 @@
         <v>274350.00000000006</v>
       </c>
       <c r="O51" s="287"/>
-      <c r="P51" s="403" t="s">
+      <c r="P51" s="413" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="405"/>
-      <c r="B52" s="438"/>
-      <c r="C52" s="439"/>
-      <c r="D52" s="408"/>
-      <c r="E52" s="408"/>
+      <c r="A52" s="415"/>
+      <c r="B52" s="423"/>
+      <c r="C52" s="424"/>
+      <c r="D52" s="404"/>
+      <c r="E52" s="404"/>
       <c r="F52" s="291" t="s">
         <v>95</v>
       </c>
@@ -9953,20 +9959,20 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O52" s="293"/>
-      <c r="P52" s="404"/>
+      <c r="P52" s="414"/>
     </row>
     <row r="53" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="403">
+      <c r="A53" s="413">
         <v>1080</v>
       </c>
-      <c r="B53" s="409">
+      <c r="B53" s="420">
         <v>43908</v>
       </c>
-      <c r="C53" s="406" t="s">
+      <c r="C53" s="403" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="406"/>
-      <c r="E53" s="406"/>
+      <c r="D53" s="403"/>
+      <c r="E53" s="403"/>
       <c r="F53" s="285" t="s">
         <v>97</v>
       </c>
@@ -9994,14 +10000,14 @@
         <v>168150.00000000003</v>
       </c>
       <c r="O53" s="287"/>
-      <c r="P53" s="404"/>
+      <c r="P53" s="414"/>
     </row>
     <row r="54" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="405"/>
-      <c r="B54" s="410"/>
-      <c r="C54" s="408"/>
-      <c r="D54" s="408"/>
-      <c r="E54" s="408"/>
+      <c r="A54" s="415"/>
+      <c r="B54" s="421"/>
+      <c r="C54" s="404"/>
+      <c r="D54" s="404"/>
+      <c r="E54" s="404"/>
       <c r="F54" s="291" t="s">
         <v>98</v>
       </c>
@@ -10029,7 +10035,7 @@
         <v>150450.00000000003</v>
       </c>
       <c r="O54" s="293"/>
-      <c r="P54" s="405"/>
+      <c r="P54" s="415"/>
     </row>
     <row r="55" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="299">
@@ -10120,17 +10126,17 @@
       </c>
     </row>
     <row r="57" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="403">
+      <c r="A57" s="413">
         <v>1091</v>
       </c>
-      <c r="B57" s="409">
+      <c r="B57" s="420">
         <v>43908</v>
       </c>
       <c r="C57" s="330"/>
-      <c r="D57" s="406" t="s">
+      <c r="D57" s="403" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="406" t="s">
+      <c r="E57" s="403" t="s">
         <v>158</v>
       </c>
       <c r="F57" s="285" t="s">
@@ -10160,18 +10166,18 @@
         <v>2708100.0000000005</v>
       </c>
       <c r="O57" s="331"/>
-      <c r="P57" s="413" t="s">
+      <c r="P57" s="407" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="405"/>
-      <c r="B58" s="410"/>
+      <c r="A58" s="415"/>
+      <c r="B58" s="421"/>
       <c r="C58" s="330" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="408"/>
-      <c r="E58" s="408"/>
+      <c r="D58" s="404"/>
+      <c r="E58" s="404"/>
       <c r="F58" s="291" t="s">
         <v>91</v>
       </c>
@@ -10199,20 +10205,20 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O58" s="332"/>
-      <c r="P58" s="415"/>
+      <c r="P58" s="408"/>
     </row>
     <row r="59" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="403">
+      <c r="A59" s="413">
         <v>1086</v>
       </c>
-      <c r="B59" s="409">
+      <c r="B59" s="420">
         <v>43909</v>
       </c>
-      <c r="C59" s="406" t="s">
+      <c r="C59" s="403" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="406"/>
-      <c r="E59" s="406"/>
+      <c r="D59" s="403"/>
+      <c r="E59" s="403"/>
       <c r="F59" s="294" t="s">
         <v>91</v>
       </c>
@@ -10240,16 +10246,16 @@
       </c>
       <c r="N59" s="295"/>
       <c r="O59" s="303"/>
-      <c r="P59" s="403" t="s">
+      <c r="P59" s="413" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="404"/>
-      <c r="B60" s="411"/>
-      <c r="C60" s="407"/>
-      <c r="D60" s="407"/>
-      <c r="E60" s="407"/>
+      <c r="A60" s="414"/>
+      <c r="B60" s="441"/>
+      <c r="C60" s="406"/>
+      <c r="D60" s="406"/>
+      <c r="E60" s="406"/>
       <c r="F60" s="288" t="s">
         <v>93</v>
       </c>
@@ -10277,14 +10283,14 @@
       </c>
       <c r="N60" s="290"/>
       <c r="O60" s="303"/>
-      <c r="P60" s="404"/>
+      <c r="P60" s="414"/>
     </row>
     <row r="61" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="405"/>
-      <c r="B61" s="410"/>
-      <c r="C61" s="408"/>
-      <c r="D61" s="408"/>
-      <c r="E61" s="408"/>
+      <c r="A61" s="415"/>
+      <c r="B61" s="421"/>
+      <c r="C61" s="404"/>
+      <c r="D61" s="404"/>
+      <c r="E61" s="404"/>
       <c r="F61" s="296" t="s">
         <v>100</v>
       </c>
@@ -10312,7 +10318,7 @@
       </c>
       <c r="N61" s="297"/>
       <c r="O61" s="303"/>
-      <c r="P61" s="405"/>
+      <c r="P61" s="415"/>
     </row>
     <row r="62" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="299">
@@ -10358,17 +10364,17 @@
       </c>
     </row>
     <row r="63" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="413">
+      <c r="A63" s="407">
         <v>1094</v>
       </c>
-      <c r="B63" s="416">
+      <c r="B63" s="417">
         <v>43912</v>
       </c>
-      <c r="C63" s="419"/>
-      <c r="D63" s="419" t="s">
+      <c r="C63" s="410"/>
+      <c r="D63" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="419" t="s">
+      <c r="E63" s="410" t="s">
         <v>162</v>
       </c>
       <c r="F63" s="285" t="s">
@@ -10398,14 +10404,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O63" s="333"/>
-      <c r="P63" s="442"/>
+      <c r="P63" s="405"/>
     </row>
     <row r="64" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="414"/>
-      <c r="B64" s="417"/>
-      <c r="C64" s="420"/>
-      <c r="D64" s="420"/>
-      <c r="E64" s="420"/>
+      <c r="A64" s="416"/>
+      <c r="B64" s="418"/>
+      <c r="C64" s="411"/>
+      <c r="D64" s="411"/>
+      <c r="E64" s="411"/>
       <c r="F64" s="288" t="s">
         <v>101</v>
       </c>
@@ -10433,14 +10439,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O64" s="334"/>
-      <c r="P64" s="442"/>
+      <c r="P64" s="405"/>
     </row>
     <row r="65" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="415"/>
-      <c r="B65" s="418"/>
-      <c r="C65" s="421"/>
-      <c r="D65" s="421"/>
-      <c r="E65" s="421"/>
+      <c r="A65" s="408"/>
+      <c r="B65" s="419"/>
+      <c r="C65" s="412"/>
+      <c r="D65" s="412"/>
+      <c r="E65" s="412"/>
       <c r="F65" s="291" t="s">
         <v>124</v>
       </c>
@@ -10468,7 +10474,7 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O65" s="335"/>
-      <c r="P65" s="442"/>
+      <c r="P65" s="405"/>
     </row>
     <row r="66" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="307">
@@ -10516,19 +10522,19 @@
       <c r="P66" s="307"/>
     </row>
     <row r="67" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="403">
+      <c r="A67" s="413">
         <v>1095</v>
       </c>
-      <c r="B67" s="409">
+      <c r="B67" s="420">
         <v>43913</v>
       </c>
-      <c r="C67" s="406" t="s">
+      <c r="C67" s="403" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="406" t="s">
+      <c r="D67" s="403" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="406" t="s">
+      <c r="E67" s="403" t="s">
         <v>138</v>
       </c>
       <c r="F67" s="285" t="s">
@@ -10561,11 +10567,11 @@
       <c r="P67" s="337"/>
     </row>
     <row r="68" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="404"/>
-      <c r="B68" s="411"/>
-      <c r="C68" s="407"/>
-      <c r="D68" s="407"/>
-      <c r="E68" s="407"/>
+      <c r="A68" s="414"/>
+      <c r="B68" s="441"/>
+      <c r="C68" s="406"/>
+      <c r="D68" s="406"/>
+      <c r="E68" s="406"/>
       <c r="F68" s="288" t="s">
         <v>93</v>
       </c>
@@ -10596,11 +10602,11 @@
       <c r="P68" s="338"/>
     </row>
     <row r="69" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="405"/>
-      <c r="B69" s="410"/>
-      <c r="C69" s="408"/>
-      <c r="D69" s="408"/>
-      <c r="E69" s="408"/>
+      <c r="A69" s="415"/>
+      <c r="B69" s="421"/>
+      <c r="C69" s="404"/>
+      <c r="D69" s="404"/>
+      <c r="E69" s="404"/>
       <c r="F69" s="291" t="s">
         <v>94</v>
       </c>
@@ -10631,17 +10637,17 @@
       <c r="P69" s="339"/>
     </row>
     <row r="70" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="403">
+      <c r="A70" s="413">
         <v>1111</v>
       </c>
-      <c r="B70" s="409">
+      <c r="B70" s="420">
         <v>43914</v>
       </c>
-      <c r="C70" s="406"/>
-      <c r="D70" s="406" t="s">
+      <c r="C70" s="403"/>
+      <c r="D70" s="403" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="406" t="s">
+      <c r="E70" s="403" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="285" t="s">
@@ -10676,11 +10682,11 @@
       <c r="P70" s="337"/>
     </row>
     <row r="71" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="404"/>
-      <c r="B71" s="411"/>
-      <c r="C71" s="407"/>
-      <c r="D71" s="407"/>
-      <c r="E71" s="407"/>
+      <c r="A71" s="414"/>
+      <c r="B71" s="441"/>
+      <c r="C71" s="406"/>
+      <c r="D71" s="406"/>
+      <c r="E71" s="406"/>
       <c r="F71" s="288" t="s">
         <v>93</v>
       </c>
@@ -10711,11 +10717,11 @@
       <c r="P71" s="338"/>
     </row>
     <row r="72" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="404"/>
-      <c r="B72" s="411"/>
-      <c r="C72" s="407"/>
-      <c r="D72" s="407"/>
-      <c r="E72" s="407"/>
+      <c r="A72" s="414"/>
+      <c r="B72" s="441"/>
+      <c r="C72" s="406"/>
+      <c r="D72" s="406"/>
+      <c r="E72" s="406"/>
       <c r="F72" s="288" t="s">
         <v>101</v>
       </c>
@@ -10746,11 +10752,11 @@
       <c r="P72" s="340"/>
     </row>
     <row r="73" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="404"/>
-      <c r="B73" s="410"/>
-      <c r="C73" s="408"/>
-      <c r="D73" s="408"/>
-      <c r="E73" s="408"/>
+      <c r="A73" s="414"/>
+      <c r="B73" s="421"/>
+      <c r="C73" s="404"/>
+      <c r="D73" s="404"/>
+      <c r="E73" s="404"/>
       <c r="F73" s="291" t="s">
         <v>100</v>
       </c>
@@ -10781,17 +10787,17 @@
       <c r="P73" s="341"/>
     </row>
     <row r="74" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="403">
+      <c r="A74" s="413">
         <v>1099</v>
       </c>
-      <c r="B74" s="409">
+      <c r="B74" s="420">
         <v>43913</v>
       </c>
-      <c r="C74" s="406"/>
-      <c r="D74" s="406" t="s">
+      <c r="C74" s="403"/>
+      <c r="D74" s="403" t="s">
         <v>146</v>
       </c>
-      <c r="E74" s="406" t="s">
+      <c r="E74" s="403" t="s">
         <v>149</v>
       </c>
       <c r="F74" s="285" t="s">
@@ -10824,11 +10830,11 @@
       <c r="P74" s="337"/>
     </row>
     <row r="75" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="405"/>
-      <c r="B75" s="410"/>
-      <c r="C75" s="408"/>
-      <c r="D75" s="408"/>
-      <c r="E75" s="408"/>
+      <c r="A75" s="415"/>
+      <c r="B75" s="421"/>
+      <c r="C75" s="404"/>
+      <c r="D75" s="404"/>
+      <c r="E75" s="404"/>
       <c r="F75" s="291" t="s">
         <v>101</v>
       </c>
@@ -10942,17 +10948,17 @@
       <c r="P77" s="327"/>
     </row>
     <row r="78" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="403">
+      <c r="A78" s="413">
         <v>1118</v>
       </c>
-      <c r="B78" s="409">
+      <c r="B78" s="420">
         <v>43915</v>
       </c>
-      <c r="C78" s="406"/>
-      <c r="D78" s="406" t="s">
+      <c r="C78" s="403"/>
+      <c r="D78" s="403" t="s">
         <v>214</v>
       </c>
-      <c r="E78" s="406" t="s">
+      <c r="E78" s="403" t="s">
         <v>215</v>
       </c>
       <c r="F78" s="285" t="s">
@@ -10985,11 +10991,11 @@
       <c r="P78" s="337"/>
     </row>
     <row r="79" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="404"/>
-      <c r="B79" s="411"/>
-      <c r="C79" s="407"/>
-      <c r="D79" s="407"/>
-      <c r="E79" s="407"/>
+      <c r="A79" s="414"/>
+      <c r="B79" s="441"/>
+      <c r="C79" s="406"/>
+      <c r="D79" s="406"/>
+      <c r="E79" s="406"/>
       <c r="F79" s="288" t="s">
         <v>92</v>
       </c>
@@ -11020,11 +11026,11 @@
       <c r="P79" s="338"/>
     </row>
     <row r="80" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="404"/>
-      <c r="B80" s="411"/>
-      <c r="C80" s="407"/>
-      <c r="D80" s="407"/>
-      <c r="E80" s="407"/>
+      <c r="A80" s="414"/>
+      <c r="B80" s="441"/>
+      <c r="C80" s="406"/>
+      <c r="D80" s="406"/>
+      <c r="E80" s="406"/>
       <c r="F80" s="288" t="s">
         <v>93</v>
       </c>
@@ -11055,11 +11061,11 @@
       <c r="P80" s="338"/>
     </row>
     <row r="81" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="404"/>
-      <c r="B81" s="411"/>
-      <c r="C81" s="407"/>
-      <c r="D81" s="407"/>
-      <c r="E81" s="407"/>
+      <c r="A81" s="414"/>
+      <c r="B81" s="441"/>
+      <c r="C81" s="406"/>
+      <c r="D81" s="406"/>
+      <c r="E81" s="406"/>
       <c r="F81" s="288" t="s">
         <v>96</v>
       </c>
@@ -11090,11 +11096,11 @@
       <c r="P81" s="338"/>
     </row>
     <row r="82" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="404"/>
-      <c r="B82" s="411"/>
-      <c r="C82" s="407"/>
-      <c r="D82" s="407"/>
-      <c r="E82" s="407"/>
+      <c r="A82" s="414"/>
+      <c r="B82" s="441"/>
+      <c r="C82" s="406"/>
+      <c r="D82" s="406"/>
+      <c r="E82" s="406"/>
       <c r="F82" s="288" t="s">
         <v>101</v>
       </c>
@@ -11125,11 +11131,11 @@
       <c r="P82" s="338"/>
     </row>
     <row r="83" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="404"/>
-      <c r="B83" s="411"/>
-      <c r="C83" s="407"/>
-      <c r="D83" s="407"/>
-      <c r="E83" s="407"/>
+      <c r="A83" s="414"/>
+      <c r="B83" s="441"/>
+      <c r="C83" s="406"/>
+      <c r="D83" s="406"/>
+      <c r="E83" s="406"/>
       <c r="F83" s="288" t="s">
         <v>100</v>
       </c>
@@ -11160,11 +11166,11 @@
       <c r="P83" s="338"/>
     </row>
     <row r="84" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="404"/>
-      <c r="B84" s="411"/>
-      <c r="C84" s="407"/>
-      <c r="D84" s="407"/>
-      <c r="E84" s="407"/>
+      <c r="A84" s="414"/>
+      <c r="B84" s="441"/>
+      <c r="C84" s="406"/>
+      <c r="D84" s="406"/>
+      <c r="E84" s="406"/>
       <c r="F84" s="288" t="s">
         <v>94</v>
       </c>
@@ -11195,11 +11201,11 @@
       <c r="P84" s="338"/>
     </row>
     <row r="85" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="404"/>
-      <c r="B85" s="411"/>
-      <c r="C85" s="407"/>
-      <c r="D85" s="407"/>
-      <c r="E85" s="407"/>
+      <c r="A85" s="414"/>
+      <c r="B85" s="441"/>
+      <c r="C85" s="406"/>
+      <c r="D85" s="406"/>
+      <c r="E85" s="406"/>
       <c r="F85" s="288" t="s">
         <v>133</v>
       </c>
@@ -11230,11 +11236,11 @@
       <c r="P85" s="338"/>
     </row>
     <row r="86" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="404"/>
-      <c r="B86" s="411"/>
-      <c r="C86" s="407"/>
-      <c r="D86" s="407"/>
-      <c r="E86" s="407"/>
+      <c r="A86" s="414"/>
+      <c r="B86" s="441"/>
+      <c r="C86" s="406"/>
+      <c r="D86" s="406"/>
+      <c r="E86" s="406"/>
       <c r="F86" s="288" t="s">
         <v>95</v>
       </c>
@@ -11265,11 +11271,11 @@
       <c r="P86" s="338"/>
     </row>
     <row r="87" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="405"/>
-      <c r="B87" s="410"/>
-      <c r="C87" s="408"/>
-      <c r="D87" s="408"/>
-      <c r="E87" s="408"/>
+      <c r="A87" s="415"/>
+      <c r="B87" s="421"/>
+      <c r="C87" s="404"/>
+      <c r="D87" s="404"/>
+      <c r="E87" s="404"/>
       <c r="F87" s="291" t="s">
         <v>124</v>
       </c>
@@ -11300,17 +11306,17 @@
       <c r="P87" s="339"/>
     </row>
     <row r="88" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="403">
+      <c r="A88" s="413">
         <v>1119</v>
       </c>
-      <c r="B88" s="409">
+      <c r="B88" s="420">
         <v>43915</v>
       </c>
-      <c r="C88" s="406"/>
-      <c r="D88" s="406" t="s">
+      <c r="C88" s="403"/>
+      <c r="D88" s="403" t="s">
         <v>146</v>
       </c>
-      <c r="E88" s="406" t="s">
+      <c r="E88" s="403" t="s">
         <v>149</v>
       </c>
       <c r="F88" s="294" t="s">
@@ -11343,11 +11349,11 @@
       <c r="P88" s="344"/>
     </row>
     <row r="89" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="405"/>
-      <c r="B89" s="410"/>
-      <c r="C89" s="408"/>
-      <c r="D89" s="408"/>
-      <c r="E89" s="408"/>
+      <c r="A89" s="415"/>
+      <c r="B89" s="421"/>
+      <c r="C89" s="404"/>
+      <c r="D89" s="404"/>
+      <c r="E89" s="404"/>
       <c r="F89" s="291" t="s">
         <v>124</v>
       </c>
@@ -11459,17 +11465,17 @@
       <c r="P91" s="344"/>
     </row>
     <row r="92" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="403">
+      <c r="A92" s="413">
         <v>1122</v>
       </c>
-      <c r="B92" s="409">
+      <c r="B92" s="420">
         <v>43917</v>
       </c>
-      <c r="C92" s="406" t="s">
+      <c r="C92" s="403" t="s">
         <v>169</v>
       </c>
       <c r="D92" s="324"/>
-      <c r="E92" s="406"/>
+      <c r="E92" s="403"/>
       <c r="F92" s="285" t="s">
         <v>96</v>
       </c>
@@ -11500,11 +11506,11 @@
       <c r="P92" s="337"/>
     </row>
     <row r="93" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="405"/>
-      <c r="B93" s="410"/>
-      <c r="C93" s="408"/>
+      <c r="A93" s="415"/>
+      <c r="B93" s="421"/>
+      <c r="C93" s="404"/>
       <c r="D93" s="330"/>
-      <c r="E93" s="408"/>
+      <c r="E93" s="404"/>
       <c r="F93" s="291" t="s">
         <v>101</v>
       </c>
@@ -11535,19 +11541,19 @@
       <c r="P93" s="339"/>
     </row>
     <row r="94" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="403">
+      <c r="A94" s="413">
         <v>1126</v>
       </c>
-      <c r="B94" s="409">
+      <c r="B94" s="420">
         <v>43921</v>
       </c>
-      <c r="C94" s="406" t="s">
+      <c r="C94" s="403" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="406" t="s">
+      <c r="D94" s="403" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="406" t="s">
+      <c r="E94" s="403" t="s">
         <v>207</v>
       </c>
       <c r="F94" s="294" t="s">
@@ -11580,11 +11586,11 @@
       <c r="P94" s="348"/>
     </row>
     <row r="95" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="405"/>
-      <c r="B95" s="410"/>
-      <c r="C95" s="408"/>
-      <c r="D95" s="408"/>
-      <c r="E95" s="408"/>
+      <c r="A95" s="415"/>
+      <c r="B95" s="421"/>
+      <c r="C95" s="404"/>
+      <c r="D95" s="404"/>
+      <c r="E95" s="404"/>
       <c r="F95" s="291" t="s">
         <v>95</v>
       </c>
@@ -11615,14 +11621,14 @@
       <c r="P95" s="339"/>
     </row>
     <row r="96" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="441" t="s">
+      <c r="A96" s="422" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="441"/>
-      <c r="C96" s="441"/>
-      <c r="D96" s="441"/>
-      <c r="E96" s="441"/>
-      <c r="F96" s="441"/>
+      <c r="B96" s="422"/>
+      <c r="C96" s="422"/>
+      <c r="D96" s="422"/>
+      <c r="E96" s="422"/>
+      <c r="F96" s="422"/>
       <c r="G96" s="349">
         <f>SUM(G9:G95)</f>
         <v>953</v>
@@ -11644,14 +11650,14 @@
       <c r="P96" s="355"/>
     </row>
     <row r="97" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="440" t="s">
+      <c r="A97" s="409" t="s">
         <v>210</v>
       </c>
-      <c r="B97" s="440"/>
-      <c r="C97" s="440"/>
-      <c r="D97" s="440"/>
-      <c r="E97" s="440"/>
-      <c r="F97" s="440"/>
+      <c r="B97" s="409"/>
+      <c r="C97" s="409"/>
+      <c r="D97" s="409"/>
+      <c r="E97" s="409"/>
+      <c r="F97" s="409"/>
       <c r="G97" s="349">
         <f>G96</f>
         <v>953</v>
@@ -11670,14 +11676,14 @@
       <c r="P97" s="359"/>
     </row>
     <row r="98" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="440" t="s">
+      <c r="A98" s="409" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="440"/>
-      <c r="C98" s="440"/>
-      <c r="D98" s="440"/>
-      <c r="E98" s="440"/>
-      <c r="F98" s="440"/>
+      <c r="B98" s="409"/>
+      <c r="C98" s="409"/>
+      <c r="D98" s="409"/>
+      <c r="E98" s="409"/>
+      <c r="F98" s="409"/>
       <c r="G98" s="360" t="s">
         <v>134</v>
       </c>
@@ -11695,14 +11701,14 @@
       <c r="P98" s="359"/>
     </row>
     <row r="99" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="440" t="s">
+      <c r="A99" s="409" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="440"/>
-      <c r="C99" s="440"/>
-      <c r="D99" s="440"/>
-      <c r="E99" s="440"/>
-      <c r="F99" s="440"/>
+      <c r="B99" s="409"/>
+      <c r="C99" s="409"/>
+      <c r="D99" s="409"/>
+      <c r="E99" s="409"/>
+      <c r="F99" s="409"/>
       <c r="G99" s="357"/>
       <c r="H99" s="357"/>
       <c r="I99" s="350"/>
@@ -11718,14 +11724,14 @@
       <c r="P99" s="359"/>
     </row>
     <row r="100" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="440" t="s">
+      <c r="A100" s="409" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="440"/>
-      <c r="C100" s="440"/>
-      <c r="D100" s="440"/>
-      <c r="E100" s="440"/>
-      <c r="F100" s="440"/>
+      <c r="B100" s="409"/>
+      <c r="C100" s="409"/>
+      <c r="D100" s="409"/>
+      <c r="E100" s="409"/>
+      <c r="F100" s="409"/>
       <c r="G100" s="357"/>
       <c r="H100" s="357"/>
       <c r="I100" s="350"/>
@@ -11742,8 +11748,8 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="361"/>
-      <c r="C101" s="412"/>
-      <c r="D101" s="412"/>
+      <c r="C101" s="442"/>
+      <c r="D101" s="442"/>
       <c r="L101" s="362"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -11754,16 +11760,113 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="P63:P65"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="D78:D87"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="P41:P47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A100:F100"/>
@@ -11788,113 +11891,16 @@
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="A97:F97"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="P41:P47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="P63:P65"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E59:E61"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -12305,8 +12311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12338,83 +12344,83 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="458" t="s">
+      <c r="A3" s="448" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="458"/>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458"/>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="458"/>
-      <c r="O3" s="458"/>
-      <c r="P3" s="458"/>
+      <c r="B3" s="448"/>
+      <c r="C3" s="448"/>
+      <c r="D3" s="448"/>
+      <c r="E3" s="448"/>
+      <c r="F3" s="448"/>
+      <c r="G3" s="448"/>
+      <c r="H3" s="448"/>
+      <c r="I3" s="448"/>
+      <c r="J3" s="448"/>
+      <c r="K3" s="448"/>
+      <c r="L3" s="448"/>
+      <c r="M3" s="448"/>
+      <c r="N3" s="448"/>
+      <c r="O3" s="448"/>
+      <c r="P3" s="448"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="459" t="s">
+      <c r="A4" s="449" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="459"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="459"/>
-      <c r="E4" s="459"/>
-      <c r="F4" s="459"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="459"/>
-      <c r="I4" s="459"/>
-      <c r="J4" s="459"/>
-      <c r="K4" s="460"/>
-      <c r="L4" s="459"/>
-      <c r="M4" s="459"/>
-      <c r="N4" s="459"/>
-      <c r="O4" s="459"/>
-      <c r="P4" s="459"/>
+      <c r="B4" s="449"/>
+      <c r="C4" s="449"/>
+      <c r="D4" s="449"/>
+      <c r="E4" s="449"/>
+      <c r="F4" s="449"/>
+      <c r="G4" s="449"/>
+      <c r="H4" s="449"/>
+      <c r="I4" s="449"/>
+      <c r="J4" s="449"/>
+      <c r="K4" s="450"/>
+      <c r="L4" s="449"/>
+      <c r="M4" s="449"/>
+      <c r="N4" s="449"/>
+      <c r="O4" s="449"/>
+      <c r="P4" s="449"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="448" t="s">
+      <c r="A5" s="451" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="461" t="s">
+      <c r="B5" s="452" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="448" t="s">
+      <c r="C5" s="451" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="448" t="s">
+      <c r="D5" s="451" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="448"/>
-      <c r="F5" s="448"/>
-      <c r="G5" s="462" t="s">
+      <c r="E5" s="451"/>
+      <c r="F5" s="451"/>
+      <c r="G5" s="453" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="462"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="462"/>
-      <c r="K5" s="463"/>
-      <c r="L5" s="448" t="s">
+      <c r="H5" s="453"/>
+      <c r="I5" s="453"/>
+      <c r="J5" s="453"/>
+      <c r="K5" s="454"/>
+      <c r="L5" s="451" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="462" t="s">
+      <c r="M5" s="453" t="s">
         <v>228</v>
       </c>
-      <c r="N5" s="462"/>
-      <c r="O5" s="462"/>
-      <c r="P5" s="448" t="s">
+      <c r="N5" s="453"/>
+      <c r="O5" s="453"/>
+      <c r="P5" s="451" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="448"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="448"/>
+      <c r="A6" s="451"/>
+      <c r="B6" s="452"/>
+      <c r="C6" s="451"/>
       <c r="D6" s="236" t="s">
         <v>112</v>
       </c>
@@ -12439,7 +12445,7 @@
       <c r="K6" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="448"/>
+      <c r="L6" s="451"/>
       <c r="M6" s="237" t="s">
         <v>238</v>
       </c>
@@ -12449,21 +12455,21 @@
       <c r="O6" s="237" t="s">
         <v>240</v>
       </c>
-      <c r="P6" s="448"/>
+      <c r="P6" s="451"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="452">
+      <c r="A7" s="458">
         <v>1105</v>
       </c>
-      <c r="B7" s="449">
+      <c r="B7" s="455">
         <v>43899</v>
       </c>
-      <c r="C7" s="452"/>
-      <c r="D7" s="452" t="s">
+      <c r="C7" s="458"/>
+      <c r="D7" s="458" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
       <c r="G7" s="70" t="s">
         <v>91</v>
       </c>
@@ -12486,17 +12492,17 @@
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="455" t="s">
+      <c r="P7" s="461" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="453"/>
-      <c r="B8" s="450"/>
-      <c r="C8" s="453"/>
-      <c r="D8" s="453"/>
-      <c r="E8" s="453"/>
-      <c r="F8" s="453"/>
+      <c r="A8" s="459"/>
+      <c r="B8" s="456"/>
+      <c r="C8" s="459"/>
+      <c r="D8" s="459"/>
+      <c r="E8" s="459"/>
+      <c r="F8" s="459"/>
       <c r="G8" s="241" t="s">
         <v>93</v>
       </c>
@@ -12519,15 +12525,15 @@
       <c r="M8" s="241"/>
       <c r="N8" s="241"/>
       <c r="O8" s="241"/>
-      <c r="P8" s="456"/>
+      <c r="P8" s="462"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="453"/>
-      <c r="B9" s="450"/>
-      <c r="C9" s="453"/>
-      <c r="D9" s="453"/>
-      <c r="E9" s="453"/>
-      <c r="F9" s="453"/>
+      <c r="A9" s="459"/>
+      <c r="B9" s="456"/>
+      <c r="C9" s="459"/>
+      <c r="D9" s="459"/>
+      <c r="E9" s="459"/>
+      <c r="F9" s="459"/>
       <c r="G9" s="241" t="s">
         <v>96</v>
       </c>
@@ -12550,15 +12556,15 @@
       <c r="M9" s="241"/>
       <c r="N9" s="241"/>
       <c r="O9" s="241"/>
-      <c r="P9" s="456"/>
+      <c r="P9" s="462"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="453"/>
-      <c r="B10" s="450"/>
-      <c r="C10" s="453"/>
-      <c r="D10" s="453"/>
-      <c r="E10" s="453"/>
-      <c r="F10" s="453"/>
+      <c r="A10" s="459"/>
+      <c r="B10" s="456"/>
+      <c r="C10" s="459"/>
+      <c r="D10" s="459"/>
+      <c r="E10" s="459"/>
+      <c r="F10" s="459"/>
       <c r="G10" s="241" t="s">
         <v>101</v>
       </c>
@@ -12581,15 +12587,15 @@
       <c r="M10" s="241"/>
       <c r="N10" s="241"/>
       <c r="O10" s="241"/>
-      <c r="P10" s="456"/>
+      <c r="P10" s="462"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="453"/>
-      <c r="B11" s="450"/>
-      <c r="C11" s="453"/>
-      <c r="D11" s="453"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="453"/>
+      <c r="A11" s="459"/>
+      <c r="B11" s="456"/>
+      <c r="C11" s="459"/>
+      <c r="D11" s="459"/>
+      <c r="E11" s="459"/>
+      <c r="F11" s="459"/>
       <c r="G11" s="241" t="s">
         <v>100</v>
       </c>
@@ -12612,15 +12618,15 @@
       <c r="M11" s="241"/>
       <c r="N11" s="241"/>
       <c r="O11" s="241"/>
-      <c r="P11" s="456"/>
+      <c r="P11" s="462"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="453"/>
-      <c r="B12" s="450"/>
-      <c r="C12" s="453"/>
-      <c r="D12" s="453"/>
-      <c r="E12" s="453"/>
-      <c r="F12" s="453"/>
+      <c r="A12" s="459"/>
+      <c r="B12" s="456"/>
+      <c r="C12" s="459"/>
+      <c r="D12" s="459"/>
+      <c r="E12" s="459"/>
+      <c r="F12" s="459"/>
       <c r="G12" s="241" t="s">
         <v>94</v>
       </c>
@@ -12643,15 +12649,15 @@
       <c r="M12" s="241"/>
       <c r="N12" s="241"/>
       <c r="O12" s="241"/>
-      <c r="P12" s="456"/>
+      <c r="P12" s="462"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="453"/>
-      <c r="B13" s="450"/>
-      <c r="C13" s="453"/>
-      <c r="D13" s="453"/>
-      <c r="E13" s="453"/>
-      <c r="F13" s="453"/>
+      <c r="A13" s="459"/>
+      <c r="B13" s="456"/>
+      <c r="C13" s="459"/>
+      <c r="D13" s="459"/>
+      <c r="E13" s="459"/>
+      <c r="F13" s="459"/>
       <c r="G13" s="241" t="s">
         <v>133</v>
       </c>
@@ -12674,15 +12680,15 @@
       <c r="M13" s="241"/>
       <c r="N13" s="241"/>
       <c r="O13" s="241"/>
-      <c r="P13" s="456"/>
+      <c r="P13" s="462"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="453"/>
-      <c r="B14" s="450"/>
-      <c r="C14" s="453"/>
-      <c r="D14" s="453"/>
-      <c r="E14" s="453"/>
-      <c r="F14" s="453"/>
+      <c r="A14" s="459"/>
+      <c r="B14" s="456"/>
+      <c r="C14" s="459"/>
+      <c r="D14" s="459"/>
+      <c r="E14" s="459"/>
+      <c r="F14" s="459"/>
       <c r="G14" s="241" t="s">
         <v>95</v>
       </c>
@@ -12705,15 +12711,15 @@
       <c r="M14" s="241"/>
       <c r="N14" s="241"/>
       <c r="O14" s="241"/>
-      <c r="P14" s="456"/>
+      <c r="P14" s="462"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="454"/>
-      <c r="B15" s="451"/>
-      <c r="C15" s="454"/>
-      <c r="D15" s="454"/>
-      <c r="E15" s="454"/>
-      <c r="F15" s="454"/>
+      <c r="A15" s="460"/>
+      <c r="B15" s="457"/>
+      <c r="C15" s="460"/>
+      <c r="D15" s="460"/>
+      <c r="E15" s="460"/>
+      <c r="F15" s="460"/>
       <c r="G15" s="244" t="s">
         <v>124</v>
       </c>
@@ -12736,23 +12742,23 @@
       <c r="M15" s="244"/>
       <c r="N15" s="244"/>
       <c r="O15" s="244"/>
-      <c r="P15" s="457"/>
+      <c r="P15" s="463"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="452">
+      <c r="A16" s="458">
         <v>1085</v>
       </c>
-      <c r="B16" s="449">
+      <c r="B16" s="455">
         <v>43908</v>
       </c>
-      <c r="C16" s="452"/>
-      <c r="D16" s="452" t="s">
+      <c r="C16" s="458"/>
+      <c r="D16" s="458" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="452" t="s">
+      <c r="E16" s="458" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="452"/>
+      <c r="F16" s="458"/>
       <c r="G16" s="247" t="s">
         <v>94</v>
       </c>
@@ -12775,17 +12781,17 @@
       <c r="M16" s="247"/>
       <c r="N16" s="247"/>
       <c r="O16" s="247"/>
-      <c r="P16" s="455" t="s">
+      <c r="P16" s="461" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="453"/>
-      <c r="B17" s="450"/>
-      <c r="C17" s="453"/>
-      <c r="D17" s="453"/>
-      <c r="E17" s="453"/>
-      <c r="F17" s="453"/>
+      <c r="A17" s="459"/>
+      <c r="B17" s="456"/>
+      <c r="C17" s="459"/>
+      <c r="D17" s="459"/>
+      <c r="E17" s="459"/>
+      <c r="F17" s="459"/>
       <c r="G17" s="247" t="s">
         <v>98</v>
       </c>
@@ -12809,15 +12815,15 @@
       <c r="M17" s="247"/>
       <c r="N17" s="247"/>
       <c r="O17" s="247"/>
-      <c r="P17" s="456"/>
+      <c r="P17" s="462"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="454"/>
-      <c r="B18" s="451"/>
-      <c r="C18" s="454"/>
-      <c r="D18" s="454"/>
-      <c r="E18" s="454"/>
-      <c r="F18" s="454"/>
+      <c r="A18" s="460"/>
+      <c r="B18" s="457"/>
+      <c r="C18" s="460"/>
+      <c r="D18" s="460"/>
+      <c r="E18" s="460"/>
+      <c r="F18" s="460"/>
       <c r="G18" s="244" t="s">
         <v>91</v>
       </c>
@@ -12841,21 +12847,21 @@
       <c r="M18" s="244"/>
       <c r="N18" s="244"/>
       <c r="O18" s="244"/>
-      <c r="P18" s="457"/>
+      <c r="P18" s="463"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="452">
+      <c r="A19" s="458">
         <v>1107</v>
       </c>
-      <c r="B19" s="449">
+      <c r="B19" s="455">
         <v>43864</v>
       </c>
-      <c r="C19" s="452"/>
-      <c r="D19" s="455" t="s">
+      <c r="C19" s="458"/>
+      <c r="D19" s="461" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="452"/>
-      <c r="F19" s="452"/>
+      <c r="E19" s="458"/>
+      <c r="F19" s="458"/>
       <c r="G19" s="70" t="s">
         <v>92</v>
       </c>
@@ -12881,12 +12887,12 @@
       <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="453"/>
-      <c r="B20" s="450"/>
-      <c r="C20" s="453"/>
-      <c r="D20" s="456"/>
-      <c r="E20" s="453"/>
-      <c r="F20" s="453"/>
+      <c r="A20" s="459"/>
+      <c r="B20" s="456"/>
+      <c r="C20" s="459"/>
+      <c r="D20" s="462"/>
+      <c r="E20" s="459"/>
+      <c r="F20" s="459"/>
       <c r="G20" s="241" t="s">
         <v>93</v>
       </c>
@@ -12912,12 +12918,12 @@
       <c r="P20" s="241"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="453"/>
-      <c r="B21" s="450"/>
-      <c r="C21" s="453"/>
-      <c r="D21" s="456"/>
-      <c r="E21" s="453"/>
-      <c r="F21" s="453"/>
+      <c r="A21" s="459"/>
+      <c r="B21" s="456"/>
+      <c r="C21" s="459"/>
+      <c r="D21" s="462"/>
+      <c r="E21" s="459"/>
+      <c r="F21" s="459"/>
       <c r="G21" s="241" t="s">
         <v>96</v>
       </c>
@@ -12943,12 +12949,12 @@
       <c r="P21" s="241"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="454"/>
-      <c r="B22" s="451"/>
-      <c r="C22" s="454"/>
-      <c r="D22" s="457"/>
-      <c r="E22" s="454"/>
-      <c r="F22" s="454"/>
+      <c r="A22" s="460"/>
+      <c r="B22" s="457"/>
+      <c r="C22" s="460"/>
+      <c r="D22" s="463"/>
+      <c r="E22" s="460"/>
+      <c r="F22" s="460"/>
       <c r="G22" s="244" t="s">
         <v>101</v>
       </c>
@@ -13014,14 +13020,14 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="264" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="448" t="s">
+      <c r="A24" s="451" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="448"/>
-      <c r="C24" s="448"/>
-      <c r="D24" s="448"/>
-      <c r="E24" s="448"/>
-      <c r="F24" s="448"/>
+      <c r="B24" s="451"/>
+      <c r="C24" s="451"/>
+      <c r="D24" s="451"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="451"/>
       <c r="G24" s="260"/>
       <c r="H24" s="261">
         <f>SUM(H7:H23)</f>
@@ -13087,21 +13093,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P7:P15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -13118,6 +13109,21 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P7:P15"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13180,17 +13186,17 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="471" t="s">
+      <c r="A4" s="467" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="471"/>
-      <c r="C4" s="471"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="471"/>
-      <c r="F4" s="471"/>
-      <c r="G4" s="471"/>
-      <c r="H4" s="471"/>
-      <c r="I4" s="471"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="467"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="467"/>
+      <c r="F4" s="467"/>
+      <c r="G4" s="467"/>
+      <c r="H4" s="467"/>
+      <c r="I4" s="467"/>
       <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13206,33 +13212,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="472" t="s">
+      <c r="A6" s="468" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="469" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="472" t="s">
+      <c r="C6" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="474" t="s">
+      <c r="D6" s="470" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="474"/>
-      <c r="F6" s="474"/>
-      <c r="G6" s="474"/>
-      <c r="H6" s="475"/>
-      <c r="I6" s="472" t="s">
+      <c r="E6" s="470"/>
+      <c r="F6" s="470"/>
+      <c r="G6" s="470"/>
+      <c r="H6" s="471"/>
+      <c r="I6" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="469" t="s">
+      <c r="J6" s="465" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="472"/>
-      <c r="B7" s="473"/>
-      <c r="C7" s="472"/>
+      <c r="A7" s="468"/>
+      <c r="B7" s="469"/>
+      <c r="C7" s="468"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13248,8 +13254,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="472"/>
-      <c r="J7" s="470"/>
+      <c r="I7" s="468"/>
+      <c r="J7" s="466"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
@@ -13285,10 +13291,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="133"/>
-      <c r="B9" s="468" t="s">
+      <c r="B9" s="464" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="468"/>
+      <c r="C9" s="464"/>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
@@ -13304,17 +13310,17 @@
       <c r="J9" s="150"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="464" t="s">
+      <c r="A10" s="472" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="465"/>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="465"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="465"/>
-      <c r="I10" s="466"/>
+      <c r="B10" s="473"/>
+      <c r="C10" s="473"/>
+      <c r="D10" s="473"/>
+      <c r="E10" s="473"/>
+      <c r="F10" s="473"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="473"/>
+      <c r="I10" s="474"/>
       <c r="J10" s="151">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
@@ -13324,35 +13330,40 @@
       <c r="G11" s="152"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="467" t="s">
+      <c r="A12" s="475" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="467"/>
-      <c r="C12" s="467"/>
-      <c r="E12" s="467" t="s">
+      <c r="B12" s="475"/>
+      <c r="C12" s="475"/>
+      <c r="E12" s="475" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="467"/>
-      <c r="G12" s="467"/>
-      <c r="H12" s="467"/>
-      <c r="I12" s="467"/>
+      <c r="F12" s="475"/>
+      <c r="G12" s="475"/>
+      <c r="H12" s="475"/>
+      <c r="I12" s="475"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="467" t="s">
+      <c r="A17" s="475" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="467"/>
-      <c r="C17" s="467"/>
-      <c r="E17" s="467" t="s">
+      <c r="B17" s="475"/>
+      <c r="C17" s="475"/>
+      <c r="E17" s="475" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="467"/>
-      <c r="G17" s="467"/>
-      <c r="H17" s="467"/>
-      <c r="I17" s="467"/>
+      <c r="F17" s="475"/>
+      <c r="G17" s="475"/>
+      <c r="H17" s="475"/>
+      <c r="I17" s="475"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -13361,11 +13372,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13428,17 +13434,17 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="471" t="s">
+      <c r="A4" s="467" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="471"/>
-      <c r="C4" s="471"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="471"/>
-      <c r="F4" s="471"/>
-      <c r="G4" s="471"/>
-      <c r="H4" s="471"/>
-      <c r="I4" s="471"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="467"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="467"/>
+      <c r="F4" s="467"/>
+      <c r="G4" s="467"/>
+      <c r="H4" s="467"/>
+      <c r="I4" s="467"/>
       <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -13454,33 +13460,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="472" t="s">
+      <c r="A6" s="468" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="485" t="s">
+      <c r="B6" s="476" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="472" t="s">
+      <c r="C6" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="474" t="s">
+      <c r="D6" s="470" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="474"/>
-      <c r="F6" s="474"/>
-      <c r="G6" s="474"/>
-      <c r="H6" s="475"/>
-      <c r="I6" s="472" t="s">
+      <c r="E6" s="470"/>
+      <c r="F6" s="470"/>
+      <c r="G6" s="470"/>
+      <c r="H6" s="471"/>
+      <c r="I6" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="469" t="s">
+      <c r="J6" s="465" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="472"/>
-      <c r="B7" s="485"/>
-      <c r="C7" s="472"/>
+      <c r="A7" s="468"/>
+      <c r="B7" s="476"/>
+      <c r="C7" s="468"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13496,8 +13502,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="472"/>
-      <c r="J7" s="470"/>
+      <c r="I7" s="468"/>
+      <c r="J7" s="466"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
@@ -13564,13 +13570,13 @@
       <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="479">
+      <c r="A10" s="480">
         <v>1060</v>
       </c>
-      <c r="B10" s="482">
+      <c r="B10" s="483">
         <v>43900</v>
       </c>
-      <c r="C10" s="479" t="s">
+      <c r="C10" s="480" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="99" t="s">
@@ -13596,9 +13602,9 @@
       <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="480"/>
-      <c r="B11" s="483"/>
-      <c r="C11" s="480"/>
+      <c r="A11" s="481"/>
+      <c r="B11" s="484"/>
+      <c r="C11" s="481"/>
       <c r="D11" s="104" t="s">
         <v>93</v>
       </c>
@@ -13623,9 +13629,9 @@
       <c r="M11" s="152"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="481"/>
-      <c r="B12" s="484"/>
-      <c r="C12" s="481"/>
+      <c r="A12" s="482"/>
+      <c r="B12" s="485"/>
+      <c r="C12" s="482"/>
       <c r="D12" s="109" t="s">
         <v>94</v>
       </c>
@@ -13924,13 +13930,13 @@
       <c r="J21" s="98"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="479">
+      <c r="A22" s="480">
         <v>1086</v>
       </c>
-      <c r="B22" s="482">
+      <c r="B22" s="483">
         <v>43909</v>
       </c>
-      <c r="C22" s="479" t="s">
+      <c r="C22" s="480" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="126" t="s">
@@ -13956,9 +13962,9 @@
       <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="480"/>
-      <c r="B23" s="483"/>
-      <c r="C23" s="480"/>
+      <c r="A23" s="481"/>
+      <c r="B23" s="484"/>
+      <c r="C23" s="481"/>
       <c r="D23" s="126" t="s">
         <v>93</v>
       </c>
@@ -13982,9 +13988,9 @@
       <c r="J23" s="98"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="481"/>
-      <c r="B24" s="484"/>
-      <c r="C24" s="481"/>
+      <c r="A24" s="482"/>
+      <c r="B24" s="485"/>
+      <c r="C24" s="482"/>
       <c r="D24" s="126" t="s">
         <v>100</v>
       </c>
@@ -14223,13 +14229,13 @@
       <c r="J34" s="131"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="479">
+      <c r="A35" s="480">
         <v>1122</v>
       </c>
-      <c r="B35" s="482">
+      <c r="B35" s="483">
         <v>43917</v>
       </c>
-      <c r="C35" s="479" t="s">
+      <c r="C35" s="480" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="92" t="s">
@@ -14255,9 +14261,9 @@
       <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="481"/>
-      <c r="B36" s="484"/>
-      <c r="C36" s="481"/>
+      <c r="A36" s="482"/>
+      <c r="B36" s="485"/>
+      <c r="C36" s="482"/>
       <c r="D36" s="92" t="s">
         <v>101</v>
       </c>
@@ -14281,43 +14287,43 @@
       <c r="J36" s="146"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="476" t="s">
+      <c r="A37" s="477" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="477"/>
-      <c r="C37" s="477"/>
-      <c r="D37" s="477"/>
-      <c r="E37" s="477"/>
-      <c r="F37" s="477"/>
-      <c r="G37" s="477"/>
-      <c r="H37" s="477"/>
-      <c r="I37" s="478"/>
+      <c r="B37" s="478"/>
+      <c r="C37" s="478"/>
+      <c r="D37" s="478"/>
+      <c r="E37" s="478"/>
+      <c r="F37" s="478"/>
+      <c r="G37" s="478"/>
+      <c r="H37" s="478"/>
+      <c r="I37" s="479"/>
       <c r="J37" s="147">
         <v>7000000</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="476" t="s">
+      <c r="A38" s="477" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="477"/>
-      <c r="C38" s="477"/>
-      <c r="D38" s="477"/>
-      <c r="E38" s="477"/>
-      <c r="F38" s="477"/>
-      <c r="G38" s="477"/>
-      <c r="H38" s="477"/>
-      <c r="I38" s="478"/>
+      <c r="B38" s="478"/>
+      <c r="C38" s="478"/>
+      <c r="D38" s="478"/>
+      <c r="E38" s="478"/>
+      <c r="F38" s="478"/>
+      <c r="G38" s="478"/>
+      <c r="H38" s="478"/>
+      <c r="I38" s="479"/>
       <c r="J38" s="147">
         <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="133"/>
-      <c r="B39" s="468" t="s">
+      <c r="B39" s="464" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="468"/>
+      <c r="C39" s="464"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
@@ -14336,17 +14342,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="464" t="s">
+      <c r="A40" s="472" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="465"/>
-      <c r="C40" s="465"/>
-      <c r="D40" s="465"/>
-      <c r="E40" s="465"/>
-      <c r="F40" s="465"/>
-      <c r="G40" s="465"/>
-      <c r="H40" s="465"/>
-      <c r="I40" s="466"/>
+      <c r="B40" s="473"/>
+      <c r="C40" s="473"/>
+      <c r="D40" s="473"/>
+      <c r="E40" s="473"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="473"/>
+      <c r="H40" s="473"/>
+      <c r="I40" s="474"/>
       <c r="J40" s="151">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
@@ -14356,41 +14362,40 @@
       <c r="G41" s="152"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="467" t="s">
+      <c r="A42" s="475" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="467"/>
-      <c r="C42" s="467"/>
-      <c r="E42" s="467" t="s">
+      <c r="B42" s="475"/>
+      <c r="C42" s="475"/>
+      <c r="E42" s="475" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="467"/>
-      <c r="G42" s="467"/>
-      <c r="H42" s="467"/>
-      <c r="I42" s="467"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="475"/>
+      <c r="H42" s="475"/>
+      <c r="I42" s="475"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="467" t="s">
+      <c r="A47" s="475" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="467"/>
-      <c r="C47" s="467"/>
-      <c r="E47" s="467" t="s">
+      <c r="B47" s="475"/>
+      <c r="C47" s="475"/>
+      <c r="E47" s="475" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="467"/>
-      <c r="G47" s="467"/>
-      <c r="H47" s="467"/>
-      <c r="I47" s="467"/>
+      <c r="F47" s="475"/>
+      <c r="G47" s="475"/>
+      <c r="H47" s="475"/>
+      <c r="I47" s="475"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="B39:C39"/>
@@ -14404,11 +14409,12 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.46" bottom="0.48" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
@@ -2562,6 +2562,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2574,18 +2589,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2598,138 +2610,126 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2745,6 +2745,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2754,9 +2784,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2766,32 +2793,17 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2818,46 +2830,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3292,16 +3292,16 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="396" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
+      <c r="E4" s="396"/>
+      <c r="F4" s="396"/>
+      <c r="G4" s="396"/>
+      <c r="H4" s="396"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3313,32 +3313,32 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="387" t="s">
+      <c r="A5" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="393" t="s">
+      <c r="B5" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="389" t="s">
+      <c r="D5" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="391" t="s">
+      <c r="E5" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="392"/>
-      <c r="G5" s="391" t="s">
+      <c r="F5" s="398"/>
+      <c r="G5" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="392"/>
+      <c r="H5" s="398"/>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="388"/>
-      <c r="B6" s="394"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="390"/>
+      <c r="A6" s="393"/>
+      <c r="B6" s="391"/>
+      <c r="C6" s="393"/>
+      <c r="D6" s="395"/>
       <c r="E6" s="12" t="s">
         <v>239</v>
       </c>
@@ -5398,12 +5398,12 @@
       <c r="J108" s="79"/>
     </row>
     <row r="109" spans="1:10" s="26" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="395" t="s">
+      <c r="A109" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="396"/>
-      <c r="C109" s="396"/>
-      <c r="D109" s="397"/>
+      <c r="B109" s="400"/>
+      <c r="C109" s="400"/>
+      <c r="D109" s="401"/>
       <c r="E109" s="25">
         <f>SUM(E7:E108)</f>
         <v>14303450</v>
@@ -5423,11 +5423,11 @@
       <c r="J109" s="27"/>
     </row>
     <row r="110" spans="1:10" s="1" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="398" t="s">
+      <c r="A110" s="402" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="398"/>
-      <c r="C110" s="398"/>
+      <c r="B110" s="402"/>
+      <c r="C110" s="402"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5442,32 +5442,32 @@
       <c r="D112" s="386"/>
     </row>
     <row r="113" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="387" t="s">
+      <c r="A113" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="393" t="s">
+      <c r="B113" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="387" t="s">
+      <c r="C113" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="389" t="s">
+      <c r="D113" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="391" t="s">
+      <c r="E113" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="392"/>
-      <c r="G113" s="391" t="s">
+      <c r="F113" s="398"/>
+      <c r="G113" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="392"/>
+      <c r="H113" s="398"/>
     </row>
     <row r="114" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="388"/>
-      <c r="B114" s="394"/>
-      <c r="C114" s="388"/>
-      <c r="D114" s="390"/>
+      <c r="A114" s="393"/>
+      <c r="B114" s="391"/>
+      <c r="C114" s="393"/>
+      <c r="D114" s="395"/>
       <c r="E114" s="12" t="s">
         <v>239</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="A115" s="13">
         <v>43886</v>
       </c>
-      <c r="B115" s="400" t="s">
+      <c r="B115" s="387" t="s">
         <v>306</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -5505,7 +5505,7 @@
       <c r="A116" s="13">
         <v>43886</v>
       </c>
-      <c r="B116" s="401"/>
+      <c r="B116" s="388"/>
       <c r="C116" s="14" t="s">
         <v>48</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="A117" s="13">
         <v>43894</v>
       </c>
-      <c r="B117" s="401"/>
+      <c r="B117" s="388"/>
       <c r="C117" s="14" t="s">
         <v>48</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="A118" s="13">
         <v>43895</v>
       </c>
-      <c r="B118" s="401"/>
+      <c r="B118" s="388"/>
       <c r="C118" s="14" t="s">
         <v>48</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="A119" s="13">
         <v>43895</v>
       </c>
-      <c r="B119" s="401"/>
+      <c r="B119" s="388"/>
       <c r="C119" s="14" t="s">
         <v>48</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="A120" s="13">
         <v>43897</v>
       </c>
-      <c r="B120" s="401"/>
+      <c r="B120" s="388"/>
       <c r="C120" s="14" t="s">
         <v>48</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="A121" s="13">
         <v>43898</v>
       </c>
-      <c r="B121" s="401"/>
+      <c r="B121" s="388"/>
       <c r="C121" s="14" t="s">
         <v>48</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="A122" s="13">
         <v>43898</v>
       </c>
-      <c r="B122" s="401"/>
+      <c r="B122" s="388"/>
       <c r="C122" s="14" t="s">
         <v>48</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="A123" s="13">
         <v>43898</v>
       </c>
-      <c r="B123" s="401"/>
+      <c r="B123" s="388"/>
       <c r="C123" s="14" t="s">
         <v>48</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="A124" s="13">
         <v>43898</v>
       </c>
-      <c r="B124" s="401"/>
+      <c r="B124" s="388"/>
       <c r="C124" s="14" t="s">
         <v>48</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="A125" s="13">
         <v>43901</v>
       </c>
-      <c r="B125" s="401"/>
+      <c r="B125" s="388"/>
       <c r="C125" s="14" t="s">
         <v>48</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="A126" s="13">
         <v>43902</v>
       </c>
-      <c r="B126" s="401"/>
+      <c r="B126" s="388"/>
       <c r="C126" s="14" t="s">
         <v>48</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="A127" s="13">
         <v>43906</v>
       </c>
-      <c r="B127" s="401"/>
+      <c r="B127" s="388"/>
       <c r="C127" s="14" t="s">
         <v>48</v>
       </c>
@@ -5721,7 +5721,7 @@
       <c r="A128" s="13">
         <v>43906</v>
       </c>
-      <c r="B128" s="401"/>
+      <c r="B128" s="388"/>
       <c r="C128" s="14" t="s">
         <v>48</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="A129" s="13">
         <v>43906</v>
       </c>
-      <c r="B129" s="401"/>
+      <c r="B129" s="388"/>
       <c r="C129" s="14" t="s">
         <v>48</v>
       </c>
@@ -5757,7 +5757,7 @@
       <c r="A130" s="13">
         <v>43906</v>
       </c>
-      <c r="B130" s="401"/>
+      <c r="B130" s="388"/>
       <c r="C130" s="14" t="s">
         <v>48</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="A131" s="13">
         <v>43906</v>
       </c>
-      <c r="B131" s="401"/>
+      <c r="B131" s="388"/>
       <c r="C131" s="14" t="s">
         <v>48</v>
       </c>
@@ -5793,7 +5793,7 @@
       <c r="A132" s="13">
         <v>43910</v>
       </c>
-      <c r="B132" s="401"/>
+      <c r="B132" s="388"/>
       <c r="C132" s="14" t="s">
         <v>48</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="A133" s="13">
         <v>43889</v>
       </c>
-      <c r="B133" s="401"/>
+      <c r="B133" s="388"/>
       <c r="C133" s="14" t="s">
         <v>48</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="A134" s="13">
         <v>43921</v>
       </c>
-      <c r="B134" s="401"/>
+      <c r="B134" s="388"/>
       <c r="C134" s="14" t="s">
         <v>48</v>
       </c>
@@ -5847,7 +5847,7 @@
       <c r="A135" s="13">
         <v>43921</v>
       </c>
-      <c r="B135" s="401"/>
+      <c r="B135" s="388"/>
       <c r="C135" s="14" t="s">
         <v>48</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="A136" s="13">
         <v>43921</v>
       </c>
-      <c r="B136" s="401"/>
+      <c r="B136" s="388"/>
       <c r="C136" s="14" t="s">
         <v>48</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="A137" s="13">
         <v>43921</v>
       </c>
-      <c r="B137" s="401"/>
+      <c r="B137" s="388"/>
       <c r="C137" s="14" t="s">
         <v>48</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="A138" s="28">
         <v>43921</v>
       </c>
-      <c r="B138" s="402"/>
+      <c r="B138" s="389"/>
       <c r="C138" s="29" t="s">
         <v>48</v>
       </c>
@@ -5938,32 +5938,32 @@
       <c r="D141" s="386"/>
     </row>
     <row r="142" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="387" t="s">
+      <c r="A142" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="393" t="s">
+      <c r="B142" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C142" s="387" t="s">
+      <c r="C142" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="389" t="s">
+      <c r="D142" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="391" t="s">
+      <c r="E142" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="392"/>
-      <c r="G142" s="391" t="s">
+      <c r="F142" s="398"/>
+      <c r="G142" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="392"/>
+      <c r="H142" s="398"/>
     </row>
     <row r="143" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="388"/>
-      <c r="B143" s="394"/>
-      <c r="C143" s="388"/>
-      <c r="D143" s="390"/>
+      <c r="A143" s="393"/>
+      <c r="B143" s="391"/>
+      <c r="C143" s="393"/>
+      <c r="D143" s="395"/>
       <c r="E143" s="12" t="s">
         <v>239</v>
       </c>
@@ -6451,32 +6451,32 @@
       <c r="D167" s="386"/>
     </row>
     <row r="168" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="387" t="s">
+      <c r="A168" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="393" t="s">
+      <c r="B168" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C168" s="387" t="s">
+      <c r="C168" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="389" t="s">
+      <c r="D168" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="391" t="s">
+      <c r="E168" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F168" s="392"/>
-      <c r="G168" s="391" t="s">
+      <c r="F168" s="398"/>
+      <c r="G168" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H168" s="392"/>
+      <c r="H168" s="398"/>
     </row>
     <row r="169" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="388"/>
-      <c r="B169" s="394"/>
-      <c r="C169" s="388"/>
-      <c r="D169" s="390"/>
+      <c r="A169" s="393"/>
+      <c r="B169" s="391"/>
+      <c r="C169" s="393"/>
+      <c r="D169" s="395"/>
       <c r="E169" s="12" t="s">
         <v>239</v>
       </c>
@@ -6632,32 +6632,32 @@
       <c r="D178" s="386"/>
     </row>
     <row r="179" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="387" t="s">
+      <c r="A179" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="393" t="s">
+      <c r="B179" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C179" s="387" t="s">
+      <c r="C179" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="389" t="s">
+      <c r="D179" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E179" s="391" t="s">
+      <c r="E179" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F179" s="392"/>
-      <c r="G179" s="391" t="s">
+      <c r="F179" s="398"/>
+      <c r="G179" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H179" s="392"/>
+      <c r="H179" s="398"/>
     </row>
     <row r="180" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="388"/>
-      <c r="B180" s="394"/>
-      <c r="C180" s="388"/>
-      <c r="D180" s="390"/>
+      <c r="A180" s="393"/>
+      <c r="B180" s="391"/>
+      <c r="C180" s="393"/>
+      <c r="D180" s="395"/>
       <c r="E180" s="12" t="s">
         <v>239</v>
       </c>
@@ -6733,32 +6733,32 @@
       <c r="D186" s="386"/>
     </row>
     <row r="187" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="387" t="s">
+      <c r="A187" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B187" s="393" t="s">
+      <c r="B187" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C187" s="387" t="s">
+      <c r="C187" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="389" t="s">
+      <c r="D187" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="391" t="s">
+      <c r="E187" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="392"/>
-      <c r="G187" s="391" t="s">
+      <c r="F187" s="398"/>
+      <c r="G187" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="392"/>
+      <c r="H187" s="398"/>
     </row>
     <row r="188" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="388"/>
-      <c r="B188" s="394"/>
-      <c r="C188" s="388"/>
-      <c r="D188" s="390"/>
+      <c r="A188" s="393"/>
+      <c r="B188" s="391"/>
+      <c r="C188" s="393"/>
+      <c r="D188" s="395"/>
       <c r="E188" s="12" t="s">
         <v>239</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="A189" s="13">
         <v>43867</v>
       </c>
-      <c r="B189" s="400" t="s">
+      <c r="B189" s="387" t="s">
         <v>307</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -6796,7 +6796,7 @@
       <c r="A190" s="13">
         <v>43867</v>
       </c>
-      <c r="B190" s="401"/>
+      <c r="B190" s="388"/>
       <c r="C190" s="14" t="s">
         <v>47</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="A191" s="13">
         <v>43870</v>
       </c>
-      <c r="B191" s="401"/>
+      <c r="B191" s="388"/>
       <c r="C191" s="14" t="s">
         <v>47</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="A192" s="13">
         <v>43891</v>
       </c>
-      <c r="B192" s="401"/>
+      <c r="B192" s="388"/>
       <c r="C192" s="14" t="s">
         <v>47</v>
       </c>
@@ -6850,7 +6850,7 @@
       <c r="A193" s="13">
         <v>43892</v>
       </c>
-      <c r="B193" s="401"/>
+      <c r="B193" s="388"/>
       <c r="C193" s="14" t="s">
         <v>47</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="A194" s="13">
         <v>43893</v>
       </c>
-      <c r="B194" s="401"/>
+      <c r="B194" s="388"/>
       <c r="C194" s="14" t="s">
         <v>47</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="A195" s="13">
         <v>43895</v>
       </c>
-      <c r="B195" s="401"/>
+      <c r="B195" s="388"/>
       <c r="C195" s="14" t="s">
         <v>47</v>
       </c>
@@ -6904,7 +6904,7 @@
       <c r="A196" s="13">
         <v>43895</v>
       </c>
-      <c r="B196" s="401"/>
+      <c r="B196" s="388"/>
       <c r="C196" s="14" t="s">
         <v>47</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="A197" s="13">
         <v>43895</v>
       </c>
-      <c r="B197" s="401"/>
+      <c r="B197" s="388"/>
       <c r="C197" s="14" t="s">
         <v>47</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="A198" s="13">
         <v>43895</v>
       </c>
-      <c r="B198" s="401"/>
+      <c r="B198" s="388"/>
       <c r="C198" s="14" t="s">
         <v>47</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="A199" s="13">
         <v>43899</v>
       </c>
-      <c r="B199" s="401"/>
+      <c r="B199" s="388"/>
       <c r="C199" s="14" t="s">
         <v>47</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="A200" s="13">
         <v>43900</v>
       </c>
-      <c r="B200" s="401"/>
+      <c r="B200" s="388"/>
       <c r="C200" s="14" t="s">
         <v>47</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="A201" s="13">
         <v>43900</v>
       </c>
-      <c r="B201" s="401"/>
+      <c r="B201" s="388"/>
       <c r="C201" s="14" t="s">
         <v>47</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="A202" s="13">
         <v>43902</v>
       </c>
-      <c r="B202" s="401"/>
+      <c r="B202" s="388"/>
       <c r="C202" s="14" t="s">
         <v>47</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="A203" s="13">
         <v>43902</v>
       </c>
-      <c r="B203" s="401"/>
+      <c r="B203" s="388"/>
       <c r="C203" s="14" t="s">
         <v>47</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="A204" s="13">
         <v>43903</v>
       </c>
-      <c r="B204" s="401"/>
+      <c r="B204" s="388"/>
       <c r="C204" s="14" t="s">
         <v>47</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="A205" s="13">
         <v>43903</v>
       </c>
-      <c r="B205" s="401"/>
+      <c r="B205" s="388"/>
       <c r="C205" s="14" t="s">
         <v>47</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="A206" s="13">
         <v>43903</v>
       </c>
-      <c r="B206" s="401"/>
+      <c r="B206" s="388"/>
       <c r="C206" s="14" t="s">
         <v>47</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="A207" s="13">
         <v>43904</v>
       </c>
-      <c r="B207" s="401"/>
+      <c r="B207" s="388"/>
       <c r="C207" s="14" t="s">
         <v>47</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="A208" s="13">
         <v>43904</v>
       </c>
-      <c r="B208" s="401"/>
+      <c r="B208" s="388"/>
       <c r="C208" s="14" t="s">
         <v>47</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="A209" s="13">
         <v>43905</v>
       </c>
-      <c r="B209" s="401"/>
+      <c r="B209" s="388"/>
       <c r="C209" s="14" t="s">
         <v>47</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="A210" s="13">
         <v>43906</v>
       </c>
-      <c r="B210" s="401"/>
+      <c r="B210" s="388"/>
       <c r="C210" s="14" t="s">
         <v>47</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="A211" s="13">
         <v>43906</v>
       </c>
-      <c r="B211" s="401"/>
+      <c r="B211" s="388"/>
       <c r="C211" s="14" t="s">
         <v>47</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="A212" s="13">
         <v>43906</v>
       </c>
-      <c r="B212" s="401"/>
+      <c r="B212" s="388"/>
       <c r="C212" s="14" t="s">
         <v>47</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="A213" s="13">
         <v>43906</v>
       </c>
-      <c r="B213" s="401"/>
+      <c r="B213" s="388"/>
       <c r="C213" s="14" t="s">
         <v>47</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="A214" s="28">
         <v>43921</v>
       </c>
-      <c r="B214" s="402"/>
+      <c r="B214" s="389"/>
       <c r="C214" s="29" t="s">
         <v>47</v>
       </c>
@@ -7264,32 +7264,32 @@
       <c r="D217" s="386"/>
     </row>
     <row r="218" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="387" t="s">
+      <c r="A218" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="393" t="s">
+      <c r="B218" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C218" s="387" t="s">
+      <c r="C218" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="389" t="s">
+      <c r="D218" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="391" t="s">
+      <c r="E218" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="392"/>
-      <c r="G218" s="391" t="s">
+      <c r="F218" s="398"/>
+      <c r="G218" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H218" s="392"/>
+      <c r="H218" s="398"/>
     </row>
     <row r="219" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="388"/>
-      <c r="B219" s="394"/>
-      <c r="C219" s="388"/>
-      <c r="D219" s="390"/>
+      <c r="A219" s="393"/>
+      <c r="B219" s="391"/>
+      <c r="C219" s="393"/>
+      <c r="D219" s="395"/>
       <c r="E219" s="12" t="s">
         <v>239</v>
       </c>
@@ -7445,32 +7445,32 @@
       <c r="D228" s="386"/>
     </row>
     <row r="229" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="387" t="s">
+      <c r="A229" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="393" t="s">
+      <c r="B229" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C229" s="387" t="s">
+      <c r="C229" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="389" t="s">
+      <c r="D229" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E229" s="391" t="s">
+      <c r="E229" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F229" s="392"/>
-      <c r="G229" s="391" t="s">
+      <c r="F229" s="398"/>
+      <c r="G229" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H229" s="392"/>
+      <c r="H229" s="398"/>
     </row>
     <row r="230" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="388"/>
-      <c r="B230" s="394"/>
-      <c r="C230" s="388"/>
-      <c r="D230" s="390"/>
+      <c r="A230" s="393"/>
+      <c r="B230" s="391"/>
+      <c r="C230" s="393"/>
+      <c r="D230" s="395"/>
       <c r="E230" s="12" t="s">
         <v>239</v>
       </c>
@@ -7549,32 +7549,32 @@
       <c r="D235" s="386"/>
     </row>
     <row r="236" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="387" t="s">
+      <c r="A236" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="393" t="s">
+      <c r="B236" s="390" t="s">
         <v>253</v>
       </c>
-      <c r="C236" s="387" t="s">
+      <c r="C236" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="389" t="s">
+      <c r="D236" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="E236" s="391" t="s">
+      <c r="E236" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="F236" s="392"/>
-      <c r="G236" s="391" t="s">
+      <c r="F236" s="398"/>
+      <c r="G236" s="397" t="s">
         <v>8</v>
       </c>
-      <c r="H236" s="392"/>
+      <c r="H236" s="398"/>
     </row>
     <row r="237" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="388"/>
-      <c r="B237" s="394"/>
-      <c r="C237" s="388"/>
-      <c r="D237" s="390"/>
+      <c r="A237" s="393"/>
+      <c r="B237" s="391"/>
+      <c r="C237" s="393"/>
+      <c r="D237" s="395"/>
       <c r="E237" s="12" t="s">
         <v>239</v>
       </c>
@@ -7916,50 +7916,13 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="67">
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="B189:B214"/>
-    <mergeCell ref="B115:B138"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="B236:B237"/>
     <mergeCell ref="E218:F218"/>
     <mergeCell ref="G218:H218"/>
     <mergeCell ref="B218:B219"/>
@@ -7976,13 +7939,50 @@
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="C187:C188"/>
     <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="B189:B214"/>
+    <mergeCell ref="B115:B138"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7993,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88:G89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8051,165 +8051,165 @@
       <c r="N2" s="281"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="425" t="s">
+      <c r="A3" s="422" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="425"/>
-      <c r="F3" s="425"/>
-      <c r="G3" s="425"/>
-      <c r="H3" s="425"/>
-      <c r="I3" s="425"/>
-      <c r="J3" s="425"/>
-      <c r="K3" s="425"/>
-      <c r="L3" s="425"/>
-      <c r="M3" s="425"/>
-      <c r="N3" s="425"/>
-      <c r="O3" s="425"/>
-      <c r="P3" s="425"/>
+      <c r="B3" s="422"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
+      <c r="F3" s="422"/>
+      <c r="G3" s="422"/>
+      <c r="H3" s="422"/>
+      <c r="I3" s="422"/>
+      <c r="J3" s="422"/>
+      <c r="K3" s="422"/>
+      <c r="L3" s="422"/>
+      <c r="M3" s="422"/>
+      <c r="N3" s="422"/>
+      <c r="O3" s="422"/>
+      <c r="P3" s="422"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="422" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="425"/>
-      <c r="K4" s="425"/>
-      <c r="L4" s="425"/>
-      <c r="M4" s="425"/>
-      <c r="N4" s="425"/>
-      <c r="O4" s="425"/>
-      <c r="P4" s="425"/>
+      <c r="B4" s="422"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="422"/>
+      <c r="F4" s="422"/>
+      <c r="G4" s="422"/>
+      <c r="H4" s="422"/>
+      <c r="I4" s="422"/>
+      <c r="J4" s="422"/>
+      <c r="K4" s="422"/>
+      <c r="L4" s="422"/>
+      <c r="M4" s="422"/>
+      <c r="N4" s="422"/>
+      <c r="O4" s="422"/>
+      <c r="P4" s="422"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="425"/>
-      <c r="B5" s="425"/>
-      <c r="C5" s="425"/>
-      <c r="D5" s="425"/>
-      <c r="E5" s="425"/>
-      <c r="F5" s="425"/>
-      <c r="G5" s="425"/>
-      <c r="H5" s="425"/>
-      <c r="I5" s="425"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="426"/>
-      <c r="L5" s="426"/>
+      <c r="A5" s="422"/>
+      <c r="B5" s="422"/>
+      <c r="C5" s="422"/>
+      <c r="D5" s="422"/>
+      <c r="E5" s="422"/>
+      <c r="F5" s="422"/>
+      <c r="G5" s="422"/>
+      <c r="H5" s="422"/>
+      <c r="I5" s="422"/>
+      <c r="J5" s="422"/>
+      <c r="K5" s="423"/>
+      <c r="L5" s="423"/>
     </row>
     <row r="6" spans="1:16" s="282" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="427" t="s">
+      <c r="A6" s="424" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="430" t="s">
+      <c r="B6" s="427" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="427" t="s">
+      <c r="C6" s="424" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="433" t="s">
+      <c r="D6" s="430" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="433"/>
-      <c r="F6" s="434" t="s">
+      <c r="E6" s="430"/>
+      <c r="F6" s="431" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="434"/>
-      <c r="H6" s="434"/>
-      <c r="I6" s="434"/>
-      <c r="J6" s="434"/>
-      <c r="K6" s="434"/>
-      <c r="L6" s="434"/>
-      <c r="M6" s="435"/>
-      <c r="N6" s="435"/>
-      <c r="O6" s="435"/>
-      <c r="P6" s="403" t="s">
+      <c r="G6" s="431"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="431"/>
+      <c r="J6" s="431"/>
+      <c r="K6" s="431"/>
+      <c r="L6" s="431"/>
+      <c r="M6" s="432"/>
+      <c r="N6" s="432"/>
+      <c r="O6" s="432"/>
+      <c r="P6" s="406" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="282" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="428"/>
-      <c r="B7" s="431"/>
-      <c r="C7" s="428"/>
-      <c r="D7" s="427" t="s">
+      <c r="A7" s="425"/>
+      <c r="B7" s="428"/>
+      <c r="C7" s="425"/>
+      <c r="D7" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="427" t="s">
+      <c r="E7" s="424" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="427" t="s">
+      <c r="F7" s="424" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="427" t="s">
+      <c r="G7" s="424" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="427" t="s">
+      <c r="H7" s="424" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="427" t="s">
+      <c r="I7" s="424" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="436" t="s">
+      <c r="J7" s="433" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="436"/>
-      <c r="L7" s="437" t="s">
+      <c r="K7" s="433"/>
+      <c r="L7" s="434" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="439" t="s">
+      <c r="M7" s="436" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="439" t="s">
+      <c r="N7" s="436" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="439" t="s">
+      <c r="O7" s="436" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="406"/>
+      <c r="P7" s="407"/>
     </row>
     <row r="8" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="429"/>
-      <c r="B8" s="432"/>
-      <c r="C8" s="429"/>
-      <c r="D8" s="429"/>
-      <c r="E8" s="429"/>
-      <c r="F8" s="429"/>
-      <c r="G8" s="429"/>
-      <c r="H8" s="429"/>
-      <c r="I8" s="429"/>
+      <c r="A8" s="426"/>
+      <c r="B8" s="429"/>
+      <c r="C8" s="426"/>
+      <c r="D8" s="426"/>
+      <c r="E8" s="426"/>
+      <c r="F8" s="426"/>
+      <c r="G8" s="426"/>
+      <c r="H8" s="426"/>
+      <c r="I8" s="426"/>
       <c r="J8" s="283" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="438"/>
-      <c r="M8" s="440"/>
-      <c r="N8" s="440"/>
-      <c r="O8" s="440"/>
-      <c r="P8" s="404"/>
+      <c r="L8" s="435"/>
+      <c r="M8" s="437"/>
+      <c r="N8" s="437"/>
+      <c r="O8" s="437"/>
+      <c r="P8" s="408"/>
     </row>
     <row r="9" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="413">
+      <c r="A9" s="403">
         <v>1089</v>
       </c>
-      <c r="B9" s="420">
+      <c r="B9" s="409">
         <v>43891</v>
       </c>
-      <c r="C9" s="403" t="s">
+      <c r="C9" s="406" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="403" t="s">
+      <c r="D9" s="406" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="403" t="s">
+      <c r="E9" s="406" t="s">
         <v>138</v>
       </c>
       <c r="F9" s="285" t="s">
@@ -8239,16 +8239,16 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O9" s="287"/>
-      <c r="P9" s="413" t="s">
+      <c r="P9" s="403" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="414"/>
-      <c r="B10" s="441"/>
-      <c r="C10" s="406"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="406"/>
+      <c r="A10" s="404"/>
+      <c r="B10" s="411"/>
+      <c r="C10" s="407"/>
+      <c r="D10" s="407"/>
+      <c r="E10" s="407"/>
       <c r="F10" s="288" t="s">
         <v>93</v>
       </c>
@@ -8276,14 +8276,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="290"/>
-      <c r="P10" s="414"/>
+      <c r="P10" s="404"/>
     </row>
     <row r="11" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="414"/>
-      <c r="B11" s="441"/>
-      <c r="C11" s="406"/>
-      <c r="D11" s="406"/>
-      <c r="E11" s="406"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="411"/>
+      <c r="C11" s="407"/>
+      <c r="D11" s="407"/>
+      <c r="E11" s="407"/>
       <c r="F11" s="288" t="s">
         <v>96</v>
       </c>
@@ -8311,14 +8311,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="290"/>
-      <c r="P11" s="414"/>
+      <c r="P11" s="404"/>
     </row>
     <row r="12" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="414"/>
-      <c r="B12" s="441"/>
-      <c r="C12" s="406"/>
-      <c r="D12" s="406"/>
-      <c r="E12" s="406"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="411"/>
+      <c r="C12" s="407"/>
+      <c r="D12" s="407"/>
+      <c r="E12" s="407"/>
       <c r="F12" s="288" t="s">
         <v>101</v>
       </c>
@@ -8346,14 +8346,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="290"/>
-      <c r="P12" s="414"/>
+      <c r="P12" s="404"/>
     </row>
     <row r="13" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="414"/>
-      <c r="B13" s="441"/>
-      <c r="C13" s="406"/>
-      <c r="D13" s="406"/>
-      <c r="E13" s="406"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="411"/>
+      <c r="C13" s="407"/>
+      <c r="D13" s="407"/>
+      <c r="E13" s="407"/>
       <c r="F13" s="288" t="s">
         <v>100</v>
       </c>
@@ -8381,14 +8381,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="290"/>
-      <c r="P13" s="414"/>
+      <c r="P13" s="404"/>
     </row>
     <row r="14" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="414"/>
-      <c r="B14" s="441"/>
-      <c r="C14" s="406"/>
-      <c r="D14" s="406"/>
-      <c r="E14" s="406"/>
+      <c r="A14" s="404"/>
+      <c r="B14" s="411"/>
+      <c r="C14" s="407"/>
+      <c r="D14" s="407"/>
+      <c r="E14" s="407"/>
       <c r="F14" s="288" t="s">
         <v>94</v>
       </c>
@@ -8416,14 +8416,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="290"/>
-      <c r="P14" s="414"/>
+      <c r="P14" s="404"/>
     </row>
     <row r="15" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="414"/>
-      <c r="B15" s="441"/>
-      <c r="C15" s="406"/>
-      <c r="D15" s="406"/>
-      <c r="E15" s="406"/>
+      <c r="A15" s="404"/>
+      <c r="B15" s="411"/>
+      <c r="C15" s="407"/>
+      <c r="D15" s="407"/>
+      <c r="E15" s="407"/>
       <c r="F15" s="288" t="s">
         <v>95</v>
       </c>
@@ -8451,14 +8451,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="290"/>
-      <c r="P15" s="414"/>
+      <c r="P15" s="404"/>
     </row>
     <row r="16" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="415"/>
-      <c r="B16" s="421"/>
-      <c r="C16" s="404"/>
-      <c r="D16" s="404"/>
-      <c r="E16" s="404"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="410"/>
+      <c r="C16" s="408"/>
+      <c r="D16" s="408"/>
+      <c r="E16" s="408"/>
       <c r="F16" s="291" t="s">
         <v>124</v>
       </c>
@@ -8486,20 +8486,20 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="293"/>
-      <c r="P16" s="415"/>
+      <c r="P16" s="405"/>
     </row>
     <row r="17" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="413">
+      <c r="A17" s="403">
         <v>1102</v>
       </c>
-      <c r="B17" s="420">
+      <c r="B17" s="409">
         <v>43891</v>
       </c>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403" t="s">
+      <c r="C17" s="406"/>
+      <c r="D17" s="406" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="403" t="s">
+      <c r="E17" s="406" t="s">
         <v>160</v>
       </c>
       <c r="F17" s="294" t="s">
@@ -8529,16 +8529,16 @@
         <f>L17</f>
         <v>2790000</v>
       </c>
-      <c r="P17" s="413" t="s">
+      <c r="P17" s="403" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="282" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="415"/>
-      <c r="B18" s="421"/>
-      <c r="C18" s="404"/>
-      <c r="D18" s="404"/>
-      <c r="E18" s="404"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="410"/>
+      <c r="C18" s="408"/>
+      <c r="D18" s="408"/>
+      <c r="E18" s="408"/>
       <c r="F18" s="296" t="s">
         <v>100</v>
       </c>
@@ -8566,7 +8566,7 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="414"/>
+      <c r="P18" s="404"/>
     </row>
     <row r="19" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="299">
@@ -8614,17 +8614,17 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="413">
+      <c r="A20" s="403">
         <v>1108</v>
       </c>
-      <c r="B20" s="420">
+      <c r="B20" s="409">
         <v>43893</v>
       </c>
-      <c r="C20" s="403"/>
-      <c r="D20" s="403" t="s">
+      <c r="C20" s="406"/>
+      <c r="D20" s="406" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="403" t="s">
+      <c r="E20" s="406" t="s">
         <v>149</v>
       </c>
       <c r="F20" s="285" t="s">
@@ -8654,16 +8654,16 @@
         <f>L20</f>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P20" s="413" t="s">
+      <c r="P20" s="403" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="414"/>
-      <c r="B21" s="441"/>
-      <c r="C21" s="406"/>
-      <c r="D21" s="406"/>
-      <c r="E21" s="406"/>
+      <c r="A21" s="404"/>
+      <c r="B21" s="411"/>
+      <c r="C21" s="407"/>
+      <c r="D21" s="407"/>
+      <c r="E21" s="407"/>
       <c r="F21" s="288" t="s">
         <v>96</v>
       </c>
@@ -8691,14 +8691,14 @@
         <f>L21</f>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P21" s="414"/>
+      <c r="P21" s="404"/>
     </row>
     <row r="22" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="415"/>
-      <c r="B22" s="421"/>
-      <c r="C22" s="404"/>
-      <c r="D22" s="404"/>
-      <c r="E22" s="404"/>
+      <c r="A22" s="405"/>
+      <c r="B22" s="410"/>
+      <c r="C22" s="408"/>
+      <c r="D22" s="408"/>
+      <c r="E22" s="408"/>
       <c r="F22" s="291" t="s">
         <v>101</v>
       </c>
@@ -8726,7 +8726,7 @@
         <f>L22</f>
         <v>5150700.0000000009</v>
       </c>
-      <c r="P22" s="415"/>
+      <c r="P22" s="405"/>
     </row>
     <row r="23" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="380">
@@ -8770,19 +8770,19 @@
       <c r="P23" s="380"/>
     </row>
     <row r="24" spans="1:16" s="282" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="407">
+      <c r="A24" s="413">
         <v>1056</v>
       </c>
-      <c r="B24" s="417">
+      <c r="B24" s="416">
         <v>43899</v>
       </c>
-      <c r="C24" s="410" t="s">
+      <c r="C24" s="419" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="410" t="s">
+      <c r="D24" s="419" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="410"/>
+      <c r="E24" s="419"/>
       <c r="F24" s="285" t="s">
         <v>96</v>
       </c>
@@ -8810,16 +8810,16 @@
         <v>840750.00000000012</v>
       </c>
       <c r="O24" s="285"/>
-      <c r="P24" s="413" t="s">
+      <c r="P24" s="403" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="416"/>
-      <c r="B25" s="418"/>
-      <c r="C25" s="411"/>
-      <c r="D25" s="411"/>
-      <c r="E25" s="411"/>
+      <c r="A25" s="414"/>
+      <c r="B25" s="417"/>
+      <c r="C25" s="420"/>
+      <c r="D25" s="420"/>
+      <c r="E25" s="420"/>
       <c r="F25" s="288" t="s">
         <v>101</v>
       </c>
@@ -8847,14 +8847,14 @@
         <v>1716900.0000000002</v>
       </c>
       <c r="O25" s="288"/>
-      <c r="P25" s="414"/>
+      <c r="P25" s="404"/>
     </row>
     <row r="26" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="408"/>
-      <c r="B26" s="419"/>
-      <c r="C26" s="412"/>
-      <c r="D26" s="412"/>
-      <c r="E26" s="412"/>
+      <c r="A26" s="415"/>
+      <c r="B26" s="418"/>
+      <c r="C26" s="421"/>
+      <c r="D26" s="421"/>
+      <c r="E26" s="421"/>
       <c r="F26" s="291" t="s">
         <v>124</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O26" s="291"/>
-      <c r="P26" s="415"/>
+      <c r="P26" s="405"/>
     </row>
     <row r="27" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="307">
@@ -8971,17 +8971,17 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="413">
+      <c r="A29" s="403">
         <v>1060</v>
       </c>
-      <c r="B29" s="420">
+      <c r="B29" s="409">
         <v>43900</v>
       </c>
-      <c r="C29" s="403" t="s">
+      <c r="C29" s="406" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="403"/>
-      <c r="E29" s="403"/>
+      <c r="D29" s="406"/>
+      <c r="E29" s="406"/>
       <c r="F29" s="285" t="s">
         <v>92</v>
       </c>
@@ -9009,16 +9009,16 @@
         <v>156350.00000000003</v>
       </c>
       <c r="O29" s="285"/>
-      <c r="P29" s="413" t="s">
+      <c r="P29" s="403" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="414"/>
-      <c r="B30" s="441"/>
-      <c r="C30" s="406"/>
-      <c r="D30" s="406"/>
-      <c r="E30" s="406"/>
+      <c r="A30" s="404"/>
+      <c r="B30" s="411"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="407"/>
+      <c r="E30" s="407"/>
       <c r="F30" s="288" t="s">
         <v>93</v>
       </c>
@@ -9046,14 +9046,14 @@
         <v>2194800.0000000005</v>
       </c>
       <c r="O30" s="288"/>
-      <c r="P30" s="414"/>
+      <c r="P30" s="404"/>
     </row>
     <row r="31" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="415"/>
-      <c r="B31" s="421"/>
-      <c r="C31" s="404"/>
-      <c r="D31" s="404"/>
-      <c r="E31" s="404"/>
+      <c r="A31" s="405"/>
+      <c r="B31" s="410"/>
+      <c r="C31" s="408"/>
+      <c r="D31" s="408"/>
+      <c r="E31" s="408"/>
       <c r="F31" s="291" t="s">
         <v>94</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>324500.00000000006</v>
       </c>
       <c r="O31" s="291"/>
-      <c r="P31" s="415"/>
+      <c r="P31" s="405"/>
     </row>
     <row r="32" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="307">
@@ -9353,19 +9353,19 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="413">
+      <c r="A38" s="403">
         <v>1073</v>
       </c>
-      <c r="B38" s="420">
+      <c r="B38" s="409">
         <v>43905</v>
       </c>
-      <c r="C38" s="403" t="s">
+      <c r="C38" s="406" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="403" t="s">
+      <c r="D38" s="406" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="403" t="s">
+      <c r="E38" s="406" t="s">
         <v>141</v>
       </c>
       <c r="F38" s="285" t="s">
@@ -9395,16 +9395,16 @@
         <v>6867600.0000000009</v>
       </c>
       <c r="O38" s="287"/>
-      <c r="P38" s="413" t="s">
+      <c r="P38" s="403" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="415"/>
-      <c r="B39" s="421"/>
-      <c r="C39" s="404"/>
-      <c r="D39" s="404"/>
-      <c r="E39" s="404"/>
+      <c r="A39" s="405"/>
+      <c r="B39" s="410"/>
+      <c r="C39" s="408"/>
+      <c r="D39" s="408"/>
+      <c r="E39" s="408"/>
       <c r="F39" s="291" t="s">
         <v>95</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O39" s="293"/>
-      <c r="P39" s="415"/>
+      <c r="P39" s="405"/>
     </row>
     <row r="40" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="299">
@@ -9476,17 +9476,17 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="282" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="413">
+      <c r="A41" s="403">
         <v>1069</v>
       </c>
-      <c r="B41" s="420">
+      <c r="B41" s="409">
         <v>43904</v>
       </c>
-      <c r="C41" s="403"/>
-      <c r="D41" s="403" t="s">
+      <c r="C41" s="406"/>
+      <c r="D41" s="406" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="403" t="s">
+      <c r="E41" s="406" t="s">
         <v>206</v>
       </c>
       <c r="F41" s="285" t="s">
@@ -9516,16 +9516,16 @@
         <f>L41</f>
         <v>7098000</v>
       </c>
-      <c r="P41" s="413" t="s">
+      <c r="P41" s="403" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="415"/>
-      <c r="B42" s="421"/>
-      <c r="C42" s="406"/>
-      <c r="D42" s="404"/>
-      <c r="E42" s="404"/>
+      <c r="A42" s="405"/>
+      <c r="B42" s="410"/>
+      <c r="C42" s="407"/>
+      <c r="D42" s="408"/>
+      <c r="E42" s="408"/>
       <c r="F42" s="291" t="s">
         <v>93</v>
       </c>
@@ -9553,20 +9553,20 @@
         <f t="shared" ref="O42:O47" si="12">L42</f>
         <v>3627000</v>
       </c>
-      <c r="P42" s="414"/>
+      <c r="P42" s="404"/>
     </row>
     <row r="43" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="413">
+      <c r="A43" s="403">
         <v>1070</v>
       </c>
-      <c r="B43" s="420">
+      <c r="B43" s="409">
         <v>43904</v>
       </c>
-      <c r="C43" s="403"/>
-      <c r="D43" s="403" t="s">
+      <c r="C43" s="406"/>
+      <c r="D43" s="406" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="403" t="s">
+      <c r="E43" s="406" t="s">
         <v>206</v>
       </c>
       <c r="F43" s="285" t="s">
@@ -9596,14 +9596,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P43" s="414"/>
+      <c r="P43" s="404"/>
     </row>
     <row r="44" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="415"/>
-      <c r="B44" s="421"/>
-      <c r="C44" s="406"/>
-      <c r="D44" s="404"/>
-      <c r="E44" s="404"/>
+      <c r="A44" s="405"/>
+      <c r="B44" s="410"/>
+      <c r="C44" s="407"/>
+      <c r="D44" s="408"/>
+      <c r="E44" s="408"/>
       <c r="F44" s="291" t="s">
         <v>93</v>
       </c>
@@ -9631,20 +9631,20 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P44" s="414"/>
+      <c r="P44" s="404"/>
     </row>
     <row r="45" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="413">
+      <c r="A45" s="403">
         <v>1072</v>
       </c>
-      <c r="B45" s="420">
+      <c r="B45" s="409">
         <v>43904</v>
       </c>
-      <c r="C45" s="403"/>
-      <c r="D45" s="403" t="s">
+      <c r="C45" s="406"/>
+      <c r="D45" s="406" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="403"/>
+      <c r="E45" s="406"/>
       <c r="F45" s="285" t="s">
         <v>93</v>
       </c>
@@ -9672,14 +9672,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P45" s="414"/>
+      <c r="P45" s="404"/>
     </row>
     <row r="46" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="414"/>
-      <c r="B46" s="441"/>
-      <c r="C46" s="406"/>
-      <c r="D46" s="406"/>
-      <c r="E46" s="406"/>
+      <c r="A46" s="404"/>
+      <c r="B46" s="411"/>
+      <c r="C46" s="407"/>
+      <c r="D46" s="407"/>
+      <c r="E46" s="407"/>
       <c r="F46" s="288" t="s">
         <v>101</v>
       </c>
@@ -9707,14 +9707,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P46" s="414"/>
+      <c r="P46" s="404"/>
     </row>
     <row r="47" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="415"/>
-      <c r="B47" s="421"/>
-      <c r="C47" s="404"/>
-      <c r="D47" s="404"/>
-      <c r="E47" s="404"/>
+      <c r="A47" s="405"/>
+      <c r="B47" s="410"/>
+      <c r="C47" s="408"/>
+      <c r="D47" s="408"/>
+      <c r="E47" s="408"/>
       <c r="F47" s="291" t="s">
         <v>95</v>
       </c>
@@ -9742,7 +9742,7 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P47" s="415"/>
+      <c r="P47" s="405"/>
     </row>
     <row r="48" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="299">
@@ -9884,17 +9884,17 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="413">
+      <c r="A51" s="403">
         <v>1078</v>
       </c>
-      <c r="B51" s="423">
+      <c r="B51" s="438">
         <v>43907</v>
       </c>
-      <c r="C51" s="424" t="s">
+      <c r="C51" s="439" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="403"/>
-      <c r="E51" s="403"/>
+      <c r="D51" s="406"/>
+      <c r="E51" s="406"/>
       <c r="F51" s="285" t="s">
         <v>93</v>
       </c>
@@ -9922,16 +9922,16 @@
         <v>274350.00000000006</v>
       </c>
       <c r="O51" s="287"/>
-      <c r="P51" s="413" t="s">
+      <c r="P51" s="403" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="415"/>
-      <c r="B52" s="423"/>
-      <c r="C52" s="424"/>
-      <c r="D52" s="404"/>
-      <c r="E52" s="404"/>
+      <c r="A52" s="405"/>
+      <c r="B52" s="438"/>
+      <c r="C52" s="439"/>
+      <c r="D52" s="408"/>
+      <c r="E52" s="408"/>
       <c r="F52" s="291" t="s">
         <v>95</v>
       </c>
@@ -9959,20 +9959,20 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O52" s="293"/>
-      <c r="P52" s="414"/>
+      <c r="P52" s="404"/>
     </row>
     <row r="53" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="413">
+      <c r="A53" s="403">
         <v>1080</v>
       </c>
-      <c r="B53" s="420">
+      <c r="B53" s="409">
         <v>43908</v>
       </c>
-      <c r="C53" s="403" t="s">
+      <c r="C53" s="406" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="403"/>
-      <c r="E53" s="403"/>
+      <c r="D53" s="406"/>
+      <c r="E53" s="406"/>
       <c r="F53" s="285" t="s">
         <v>97</v>
       </c>
@@ -10000,14 +10000,14 @@
         <v>168150.00000000003</v>
       </c>
       <c r="O53" s="287"/>
-      <c r="P53" s="414"/>
+      <c r="P53" s="404"/>
     </row>
     <row r="54" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="415"/>
-      <c r="B54" s="421"/>
-      <c r="C54" s="404"/>
-      <c r="D54" s="404"/>
-      <c r="E54" s="404"/>
+      <c r="A54" s="405"/>
+      <c r="B54" s="410"/>
+      <c r="C54" s="408"/>
+      <c r="D54" s="408"/>
+      <c r="E54" s="408"/>
       <c r="F54" s="291" t="s">
         <v>98</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>150450.00000000003</v>
       </c>
       <c r="O54" s="293"/>
-      <c r="P54" s="415"/>
+      <c r="P54" s="405"/>
     </row>
     <row r="55" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="299">
@@ -10126,17 +10126,17 @@
       </c>
     </row>
     <row r="57" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="413">
+      <c r="A57" s="403">
         <v>1091</v>
       </c>
-      <c r="B57" s="420">
+      <c r="B57" s="409">
         <v>43908</v>
       </c>
       <c r="C57" s="330"/>
-      <c r="D57" s="403" t="s">
+      <c r="D57" s="406" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="403" t="s">
+      <c r="E57" s="406" t="s">
         <v>158</v>
       </c>
       <c r="F57" s="285" t="s">
@@ -10166,18 +10166,18 @@
         <v>2708100.0000000005</v>
       </c>
       <c r="O57" s="331"/>
-      <c r="P57" s="407" t="s">
+      <c r="P57" s="413" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="415"/>
-      <c r="B58" s="421"/>
+      <c r="A58" s="405"/>
+      <c r="B58" s="410"/>
       <c r="C58" s="330" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="404"/>
-      <c r="E58" s="404"/>
+      <c r="D58" s="408"/>
+      <c r="E58" s="408"/>
       <c r="F58" s="291" t="s">
         <v>91</v>
       </c>
@@ -10205,20 +10205,20 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O58" s="332"/>
-      <c r="P58" s="408"/>
+      <c r="P58" s="415"/>
     </row>
     <row r="59" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="413">
+      <c r="A59" s="403">
         <v>1086</v>
       </c>
-      <c r="B59" s="420">
+      <c r="B59" s="409">
         <v>43909</v>
       </c>
-      <c r="C59" s="403" t="s">
+      <c r="C59" s="406" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="403"/>
-      <c r="E59" s="403"/>
+      <c r="D59" s="406"/>
+      <c r="E59" s="406"/>
       <c r="F59" s="294" t="s">
         <v>91</v>
       </c>
@@ -10246,16 +10246,16 @@
       </c>
       <c r="N59" s="295"/>
       <c r="O59" s="303"/>
-      <c r="P59" s="413" t="s">
+      <c r="P59" s="403" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="414"/>
-      <c r="B60" s="441"/>
-      <c r="C60" s="406"/>
-      <c r="D60" s="406"/>
-      <c r="E60" s="406"/>
+      <c r="A60" s="404"/>
+      <c r="B60" s="411"/>
+      <c r="C60" s="407"/>
+      <c r="D60" s="407"/>
+      <c r="E60" s="407"/>
       <c r="F60" s="288" t="s">
         <v>93</v>
       </c>
@@ -10283,14 +10283,14 @@
       </c>
       <c r="N60" s="290"/>
       <c r="O60" s="303"/>
-      <c r="P60" s="414"/>
+      <c r="P60" s="404"/>
     </row>
     <row r="61" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="415"/>
-      <c r="B61" s="421"/>
-      <c r="C61" s="404"/>
-      <c r="D61" s="404"/>
-      <c r="E61" s="404"/>
+      <c r="A61" s="405"/>
+      <c r="B61" s="410"/>
+      <c r="C61" s="408"/>
+      <c r="D61" s="408"/>
+      <c r="E61" s="408"/>
       <c r="F61" s="296" t="s">
         <v>100</v>
       </c>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="N61" s="297"/>
       <c r="O61" s="303"/>
-      <c r="P61" s="415"/>
+      <c r="P61" s="405"/>
     </row>
     <row r="62" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="299">
@@ -10364,17 +10364,17 @@
       </c>
     </row>
     <row r="63" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="407">
+      <c r="A63" s="413">
         <v>1094</v>
       </c>
-      <c r="B63" s="417">
+      <c r="B63" s="416">
         <v>43912</v>
       </c>
-      <c r="C63" s="410"/>
-      <c r="D63" s="410" t="s">
+      <c r="C63" s="419"/>
+      <c r="D63" s="419" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="410" t="s">
+      <c r="E63" s="419" t="s">
         <v>162</v>
       </c>
       <c r="F63" s="285" t="s">
@@ -10404,14 +10404,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O63" s="333"/>
-      <c r="P63" s="405"/>
+      <c r="P63" s="442"/>
     </row>
     <row r="64" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="416"/>
-      <c r="B64" s="418"/>
-      <c r="C64" s="411"/>
-      <c r="D64" s="411"/>
-      <c r="E64" s="411"/>
+      <c r="A64" s="414"/>
+      <c r="B64" s="417"/>
+      <c r="C64" s="420"/>
+      <c r="D64" s="420"/>
+      <c r="E64" s="420"/>
       <c r="F64" s="288" t="s">
         <v>101</v>
       </c>
@@ -10439,14 +10439,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O64" s="334"/>
-      <c r="P64" s="405"/>
+      <c r="P64" s="442"/>
     </row>
     <row r="65" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="408"/>
-      <c r="B65" s="419"/>
-      <c r="C65" s="412"/>
-      <c r="D65" s="412"/>
-      <c r="E65" s="412"/>
+      <c r="A65" s="415"/>
+      <c r="B65" s="418"/>
+      <c r="C65" s="421"/>
+      <c r="D65" s="421"/>
+      <c r="E65" s="421"/>
       <c r="F65" s="291" t="s">
         <v>124</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O65" s="335"/>
-      <c r="P65" s="405"/>
+      <c r="P65" s="442"/>
     </row>
     <row r="66" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="307">
@@ -10522,19 +10522,19 @@
       <c r="P66" s="307"/>
     </row>
     <row r="67" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="413">
+      <c r="A67" s="403">
         <v>1095</v>
       </c>
-      <c r="B67" s="420">
+      <c r="B67" s="409">
         <v>43913</v>
       </c>
-      <c r="C67" s="403" t="s">
+      <c r="C67" s="406" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="403" t="s">
+      <c r="D67" s="406" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="403" t="s">
+      <c r="E67" s="406" t="s">
         <v>138</v>
       </c>
       <c r="F67" s="285" t="s">
@@ -10567,11 +10567,11 @@
       <c r="P67" s="337"/>
     </row>
     <row r="68" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="414"/>
-      <c r="B68" s="441"/>
-      <c r="C68" s="406"/>
-      <c r="D68" s="406"/>
-      <c r="E68" s="406"/>
+      <c r="A68" s="404"/>
+      <c r="B68" s="411"/>
+      <c r="C68" s="407"/>
+      <c r="D68" s="407"/>
+      <c r="E68" s="407"/>
       <c r="F68" s="288" t="s">
         <v>93</v>
       </c>
@@ -10602,11 +10602,11 @@
       <c r="P68" s="338"/>
     </row>
     <row r="69" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="415"/>
-      <c r="B69" s="421"/>
-      <c r="C69" s="404"/>
-      <c r="D69" s="404"/>
-      <c r="E69" s="404"/>
+      <c r="A69" s="405"/>
+      <c r="B69" s="410"/>
+      <c r="C69" s="408"/>
+      <c r="D69" s="408"/>
+      <c r="E69" s="408"/>
       <c r="F69" s="291" t="s">
         <v>94</v>
       </c>
@@ -10637,17 +10637,17 @@
       <c r="P69" s="339"/>
     </row>
     <row r="70" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="413">
+      <c r="A70" s="403">
         <v>1111</v>
       </c>
-      <c r="B70" s="420">
+      <c r="B70" s="409">
         <v>43914</v>
       </c>
-      <c r="C70" s="403"/>
-      <c r="D70" s="403" t="s">
+      <c r="C70" s="406"/>
+      <c r="D70" s="406" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="403" t="s">
+      <c r="E70" s="406" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="285" t="s">
@@ -10682,11 +10682,11 @@
       <c r="P70" s="337"/>
     </row>
     <row r="71" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="414"/>
-      <c r="B71" s="441"/>
-      <c r="C71" s="406"/>
-      <c r="D71" s="406"/>
-      <c r="E71" s="406"/>
+      <c r="A71" s="404"/>
+      <c r="B71" s="411"/>
+      <c r="C71" s="407"/>
+      <c r="D71" s="407"/>
+      <c r="E71" s="407"/>
       <c r="F71" s="288" t="s">
         <v>93</v>
       </c>
@@ -10717,11 +10717,11 @@
       <c r="P71" s="338"/>
     </row>
     <row r="72" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="414"/>
-      <c r="B72" s="441"/>
-      <c r="C72" s="406"/>
-      <c r="D72" s="406"/>
-      <c r="E72" s="406"/>
+      <c r="A72" s="404"/>
+      <c r="B72" s="411"/>
+      <c r="C72" s="407"/>
+      <c r="D72" s="407"/>
+      <c r="E72" s="407"/>
       <c r="F72" s="288" t="s">
         <v>101</v>
       </c>
@@ -10752,11 +10752,11 @@
       <c r="P72" s="340"/>
     </row>
     <row r="73" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="414"/>
-      <c r="B73" s="421"/>
-      <c r="C73" s="404"/>
-      <c r="D73" s="404"/>
-      <c r="E73" s="404"/>
+      <c r="A73" s="404"/>
+      <c r="B73" s="410"/>
+      <c r="C73" s="408"/>
+      <c r="D73" s="408"/>
+      <c r="E73" s="408"/>
       <c r="F73" s="291" t="s">
         <v>100</v>
       </c>
@@ -10787,17 +10787,17 @@
       <c r="P73" s="341"/>
     </row>
     <row r="74" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="413">
+      <c r="A74" s="403">
         <v>1099</v>
       </c>
-      <c r="B74" s="420">
+      <c r="B74" s="409">
         <v>43913</v>
       </c>
-      <c r="C74" s="403"/>
-      <c r="D74" s="403" t="s">
+      <c r="C74" s="406"/>
+      <c r="D74" s="406" t="s">
         <v>146</v>
       </c>
-      <c r="E74" s="403" t="s">
+      <c r="E74" s="406" t="s">
         <v>149</v>
       </c>
       <c r="F74" s="285" t="s">
@@ -10830,11 +10830,11 @@
       <c r="P74" s="337"/>
     </row>
     <row r="75" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="415"/>
-      <c r="B75" s="421"/>
-      <c r="C75" s="404"/>
-      <c r="D75" s="404"/>
-      <c r="E75" s="404"/>
+      <c r="A75" s="405"/>
+      <c r="B75" s="410"/>
+      <c r="C75" s="408"/>
+      <c r="D75" s="408"/>
+      <c r="E75" s="408"/>
       <c r="F75" s="291" t="s">
         <v>101</v>
       </c>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="76" spans="1:16" s="282" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="302">
-        <v>36</v>
+        <v>1100</v>
       </c>
       <c r="B76" s="328">
         <v>43914</v>
@@ -10948,17 +10948,17 @@
       <c r="P77" s="327"/>
     </row>
     <row r="78" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="413">
+      <c r="A78" s="403">
         <v>1118</v>
       </c>
-      <c r="B78" s="420">
+      <c r="B78" s="409">
         <v>43915</v>
       </c>
-      <c r="C78" s="403"/>
-      <c r="D78" s="403" t="s">
+      <c r="C78" s="406"/>
+      <c r="D78" s="406" t="s">
         <v>214</v>
       </c>
-      <c r="E78" s="403" t="s">
+      <c r="E78" s="406" t="s">
         <v>215</v>
       </c>
       <c r="F78" s="285" t="s">
@@ -10991,11 +10991,11 @@
       <c r="P78" s="337"/>
     </row>
     <row r="79" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="414"/>
-      <c r="B79" s="441"/>
-      <c r="C79" s="406"/>
-      <c r="D79" s="406"/>
-      <c r="E79" s="406"/>
+      <c r="A79" s="404"/>
+      <c r="B79" s="411"/>
+      <c r="C79" s="407"/>
+      <c r="D79" s="407"/>
+      <c r="E79" s="407"/>
       <c r="F79" s="288" t="s">
         <v>92</v>
       </c>
@@ -11026,11 +11026,11 @@
       <c r="P79" s="338"/>
     </row>
     <row r="80" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="414"/>
-      <c r="B80" s="441"/>
-      <c r="C80" s="406"/>
-      <c r="D80" s="406"/>
-      <c r="E80" s="406"/>
+      <c r="A80" s="404"/>
+      <c r="B80" s="411"/>
+      <c r="C80" s="407"/>
+      <c r="D80" s="407"/>
+      <c r="E80" s="407"/>
       <c r="F80" s="288" t="s">
         <v>93</v>
       </c>
@@ -11061,11 +11061,11 @@
       <c r="P80" s="338"/>
     </row>
     <row r="81" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="414"/>
-      <c r="B81" s="441"/>
-      <c r="C81" s="406"/>
-      <c r="D81" s="406"/>
-      <c r="E81" s="406"/>
+      <c r="A81" s="404"/>
+      <c r="B81" s="411"/>
+      <c r="C81" s="407"/>
+      <c r="D81" s="407"/>
+      <c r="E81" s="407"/>
       <c r="F81" s="288" t="s">
         <v>96</v>
       </c>
@@ -11096,11 +11096,11 @@
       <c r="P81" s="338"/>
     </row>
     <row r="82" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="414"/>
-      <c r="B82" s="441"/>
-      <c r="C82" s="406"/>
-      <c r="D82" s="406"/>
-      <c r="E82" s="406"/>
+      <c r="A82" s="404"/>
+      <c r="B82" s="411"/>
+      <c r="C82" s="407"/>
+      <c r="D82" s="407"/>
+      <c r="E82" s="407"/>
       <c r="F82" s="288" t="s">
         <v>101</v>
       </c>
@@ -11131,11 +11131,11 @@
       <c r="P82" s="338"/>
     </row>
     <row r="83" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="414"/>
-      <c r="B83" s="441"/>
-      <c r="C83" s="406"/>
-      <c r="D83" s="406"/>
-      <c r="E83" s="406"/>
+      <c r="A83" s="404"/>
+      <c r="B83" s="411"/>
+      <c r="C83" s="407"/>
+      <c r="D83" s="407"/>
+      <c r="E83" s="407"/>
       <c r="F83" s="288" t="s">
         <v>100</v>
       </c>
@@ -11166,11 +11166,11 @@
       <c r="P83" s="338"/>
     </row>
     <row r="84" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="414"/>
-      <c r="B84" s="441"/>
-      <c r="C84" s="406"/>
-      <c r="D84" s="406"/>
-      <c r="E84" s="406"/>
+      <c r="A84" s="404"/>
+      <c r="B84" s="411"/>
+      <c r="C84" s="407"/>
+      <c r="D84" s="407"/>
+      <c r="E84" s="407"/>
       <c r="F84" s="288" t="s">
         <v>94</v>
       </c>
@@ -11201,11 +11201,11 @@
       <c r="P84" s="338"/>
     </row>
     <row r="85" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="414"/>
-      <c r="B85" s="441"/>
-      <c r="C85" s="406"/>
-      <c r="D85" s="406"/>
-      <c r="E85" s="406"/>
+      <c r="A85" s="404"/>
+      <c r="B85" s="411"/>
+      <c r="C85" s="407"/>
+      <c r="D85" s="407"/>
+      <c r="E85" s="407"/>
       <c r="F85" s="288" t="s">
         <v>133</v>
       </c>
@@ -11236,11 +11236,11 @@
       <c r="P85" s="338"/>
     </row>
     <row r="86" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="414"/>
-      <c r="B86" s="441"/>
-      <c r="C86" s="406"/>
-      <c r="D86" s="406"/>
-      <c r="E86" s="406"/>
+      <c r="A86" s="404"/>
+      <c r="B86" s="411"/>
+      <c r="C86" s="407"/>
+      <c r="D86" s="407"/>
+      <c r="E86" s="407"/>
       <c r="F86" s="288" t="s">
         <v>95</v>
       </c>
@@ -11271,11 +11271,11 @@
       <c r="P86" s="338"/>
     </row>
     <row r="87" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="415"/>
-      <c r="B87" s="421"/>
-      <c r="C87" s="404"/>
-      <c r="D87" s="404"/>
-      <c r="E87" s="404"/>
+      <c r="A87" s="405"/>
+      <c r="B87" s="410"/>
+      <c r="C87" s="408"/>
+      <c r="D87" s="408"/>
+      <c r="E87" s="408"/>
       <c r="F87" s="291" t="s">
         <v>124</v>
       </c>
@@ -11306,17 +11306,17 @@
       <c r="P87" s="339"/>
     </row>
     <row r="88" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="413">
+      <c r="A88" s="403">
         <v>1119</v>
       </c>
-      <c r="B88" s="420">
+      <c r="B88" s="409">
         <v>43915</v>
       </c>
-      <c r="C88" s="403"/>
-      <c r="D88" s="403" t="s">
+      <c r="C88" s="406"/>
+      <c r="D88" s="406" t="s">
         <v>146</v>
       </c>
-      <c r="E88" s="403" t="s">
+      <c r="E88" s="406" t="s">
         <v>149</v>
       </c>
       <c r="F88" s="294" t="s">
@@ -11349,11 +11349,11 @@
       <c r="P88" s="344"/>
     </row>
     <row r="89" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="415"/>
-      <c r="B89" s="421"/>
-      <c r="C89" s="404"/>
-      <c r="D89" s="404"/>
-      <c r="E89" s="404"/>
+      <c r="A89" s="405"/>
+      <c r="B89" s="410"/>
+      <c r="C89" s="408"/>
+      <c r="D89" s="408"/>
+      <c r="E89" s="408"/>
       <c r="F89" s="291" t="s">
         <v>124</v>
       </c>
@@ -11465,17 +11465,17 @@
       <c r="P91" s="344"/>
     </row>
     <row r="92" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="413">
+      <c r="A92" s="403">
         <v>1122</v>
       </c>
-      <c r="B92" s="420">
+      <c r="B92" s="409">
         <v>43917</v>
       </c>
-      <c r="C92" s="403" t="s">
+      <c r="C92" s="406" t="s">
         <v>169</v>
       </c>
       <c r="D92" s="324"/>
-      <c r="E92" s="403"/>
+      <c r="E92" s="406"/>
       <c r="F92" s="285" t="s">
         <v>96</v>
       </c>
@@ -11506,11 +11506,11 @@
       <c r="P92" s="337"/>
     </row>
     <row r="93" spans="1:16" s="282" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="415"/>
-      <c r="B93" s="421"/>
-      <c r="C93" s="404"/>
+      <c r="A93" s="405"/>
+      <c r="B93" s="410"/>
+      <c r="C93" s="408"/>
       <c r="D93" s="330"/>
-      <c r="E93" s="404"/>
+      <c r="E93" s="408"/>
       <c r="F93" s="291" t="s">
         <v>101</v>
       </c>
@@ -11541,19 +11541,19 @@
       <c r="P93" s="339"/>
     </row>
     <row r="94" spans="1:16" s="282" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="413">
+      <c r="A94" s="403">
         <v>1126</v>
       </c>
-      <c r="B94" s="420">
+      <c r="B94" s="409">
         <v>43921</v>
       </c>
-      <c r="C94" s="403" t="s">
+      <c r="C94" s="406" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="403" t="s">
+      <c r="D94" s="406" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="403" t="s">
+      <c r="E94" s="406" t="s">
         <v>207</v>
       </c>
       <c r="F94" s="294" t="s">
@@ -11586,11 +11586,11 @@
       <c r="P94" s="348"/>
     </row>
     <row r="95" spans="1:16" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="415"/>
-      <c r="B95" s="421"/>
-      <c r="C95" s="404"/>
-      <c r="D95" s="404"/>
-      <c r="E95" s="404"/>
+      <c r="A95" s="405"/>
+      <c r="B95" s="410"/>
+      <c r="C95" s="408"/>
+      <c r="D95" s="408"/>
+      <c r="E95" s="408"/>
       <c r="F95" s="291" t="s">
         <v>95</v>
       </c>
@@ -11621,14 +11621,14 @@
       <c r="P95" s="339"/>
     </row>
     <row r="96" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="422" t="s">
+      <c r="A96" s="441" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="422"/>
-      <c r="C96" s="422"/>
-      <c r="D96" s="422"/>
-      <c r="E96" s="422"/>
-      <c r="F96" s="422"/>
+      <c r="B96" s="441"/>
+      <c r="C96" s="441"/>
+      <c r="D96" s="441"/>
+      <c r="E96" s="441"/>
+      <c r="F96" s="441"/>
       <c r="G96" s="349">
         <f>SUM(G9:G95)</f>
         <v>953</v>
@@ -11650,14 +11650,14 @@
       <c r="P96" s="355"/>
     </row>
     <row r="97" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="409" t="s">
+      <c r="A97" s="440" t="s">
         <v>210</v>
       </c>
-      <c r="B97" s="409"/>
-      <c r="C97" s="409"/>
-      <c r="D97" s="409"/>
-      <c r="E97" s="409"/>
-      <c r="F97" s="409"/>
+      <c r="B97" s="440"/>
+      <c r="C97" s="440"/>
+      <c r="D97" s="440"/>
+      <c r="E97" s="440"/>
+      <c r="F97" s="440"/>
       <c r="G97" s="349">
         <f>G96</f>
         <v>953</v>
@@ -11676,14 +11676,14 @@
       <c r="P97" s="359"/>
     </row>
     <row r="98" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="409" t="s">
+      <c r="A98" s="440" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="409"/>
-      <c r="C98" s="409"/>
-      <c r="D98" s="409"/>
-      <c r="E98" s="409"/>
-      <c r="F98" s="409"/>
+      <c r="B98" s="440"/>
+      <c r="C98" s="440"/>
+      <c r="D98" s="440"/>
+      <c r="E98" s="440"/>
+      <c r="F98" s="440"/>
       <c r="G98" s="360" t="s">
         <v>134</v>
       </c>
@@ -11701,14 +11701,14 @@
       <c r="P98" s="359"/>
     </row>
     <row r="99" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="409" t="s">
+      <c r="A99" s="440" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="409"/>
-      <c r="C99" s="409"/>
-      <c r="D99" s="409"/>
-      <c r="E99" s="409"/>
-      <c r="F99" s="409"/>
+      <c r="B99" s="440"/>
+      <c r="C99" s="440"/>
+      <c r="D99" s="440"/>
+      <c r="E99" s="440"/>
+      <c r="F99" s="440"/>
       <c r="G99" s="357"/>
       <c r="H99" s="357"/>
       <c r="I99" s="350"/>
@@ -11724,14 +11724,14 @@
       <c r="P99" s="359"/>
     </row>
     <row r="100" spans="1:16" s="356" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="409" t="s">
+      <c r="A100" s="440" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="409"/>
-      <c r="C100" s="409"/>
-      <c r="D100" s="409"/>
-      <c r="E100" s="409"/>
-      <c r="F100" s="409"/>
+      <c r="B100" s="440"/>
+      <c r="C100" s="440"/>
+      <c r="D100" s="440"/>
+      <c r="E100" s="440"/>
+      <c r="F100" s="440"/>
       <c r="G100" s="357"/>
       <c r="H100" s="357"/>
       <c r="I100" s="350"/>
@@ -11748,8 +11748,8 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="361"/>
-      <c r="C101" s="442"/>
-      <c r="D101" s="442"/>
+      <c r="C101" s="412"/>
+      <c r="D101" s="412"/>
       <c r="L101" s="362"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -11760,20 +11760,109 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="P63:P65"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="P41:P47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="D78:D87"/>
+    <mergeCell ref="E78:E87"/>
     <mergeCell ref="P51:P54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C101:D101"/>
@@ -11798,109 +11887,20 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="P41:P47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="P63:P65"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -12311,7 +12311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -12344,83 +12344,83 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="448" t="s">
+      <c r="A3" s="458" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="448"/>
-      <c r="C3" s="448"/>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="448"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="448"/>
-      <c r="J3" s="448"/>
-      <c r="K3" s="448"/>
-      <c r="L3" s="448"/>
-      <c r="M3" s="448"/>
-      <c r="N3" s="448"/>
-      <c r="O3" s="448"/>
-      <c r="P3" s="448"/>
+      <c r="B3" s="458"/>
+      <c r="C3" s="458"/>
+      <c r="D3" s="458"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="458"/>
+      <c r="G3" s="458"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="458"/>
+      <c r="K3" s="458"/>
+      <c r="L3" s="458"/>
+      <c r="M3" s="458"/>
+      <c r="N3" s="458"/>
+      <c r="O3" s="458"/>
+      <c r="P3" s="458"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="459" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="449"/>
-      <c r="C4" s="449"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="449"/>
-      <c r="F4" s="449"/>
-      <c r="G4" s="449"/>
-      <c r="H4" s="449"/>
-      <c r="I4" s="449"/>
-      <c r="J4" s="449"/>
-      <c r="K4" s="450"/>
-      <c r="L4" s="449"/>
-      <c r="M4" s="449"/>
-      <c r="N4" s="449"/>
-      <c r="O4" s="449"/>
-      <c r="P4" s="449"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="459"/>
+      <c r="G4" s="459"/>
+      <c r="H4" s="459"/>
+      <c r="I4" s="459"/>
+      <c r="J4" s="459"/>
+      <c r="K4" s="460"/>
+      <c r="L4" s="459"/>
+      <c r="M4" s="459"/>
+      <c r="N4" s="459"/>
+      <c r="O4" s="459"/>
+      <c r="P4" s="459"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="451" t="s">
+      <c r="A5" s="448" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="461" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="451" t="s">
+      <c r="C5" s="448" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="451" t="s">
+      <c r="D5" s="448" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="451"/>
-      <c r="F5" s="451"/>
-      <c r="G5" s="453" t="s">
+      <c r="E5" s="448"/>
+      <c r="F5" s="448"/>
+      <c r="G5" s="462" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="453"/>
-      <c r="I5" s="453"/>
-      <c r="J5" s="453"/>
-      <c r="K5" s="454"/>
-      <c r="L5" s="451" t="s">
+      <c r="H5" s="462"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="462"/>
+      <c r="K5" s="463"/>
+      <c r="L5" s="448" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="453" t="s">
+      <c r="M5" s="462" t="s">
         <v>228</v>
       </c>
-      <c r="N5" s="453"/>
-      <c r="O5" s="453"/>
-      <c r="P5" s="451" t="s">
+      <c r="N5" s="462"/>
+      <c r="O5" s="462"/>
+      <c r="P5" s="448" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="451"/>
-      <c r="B6" s="452"/>
-      <c r="C6" s="451"/>
+      <c r="A6" s="448"/>
+      <c r="B6" s="461"/>
+      <c r="C6" s="448"/>
       <c r="D6" s="236" t="s">
         <v>112</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="K6" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="451"/>
+      <c r="L6" s="448"/>
       <c r="M6" s="237" t="s">
         <v>238</v>
       </c>
@@ -12455,21 +12455,21 @@
       <c r="O6" s="237" t="s">
         <v>240</v>
       </c>
-      <c r="P6" s="451"/>
+      <c r="P6" s="448"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="458">
+      <c r="A7" s="452">
         <v>1105</v>
       </c>
-      <c r="B7" s="455">
+      <c r="B7" s="449">
         <v>43899</v>
       </c>
-      <c r="C7" s="458"/>
-      <c r="D7" s="458" t="s">
+      <c r="C7" s="452"/>
+      <c r="D7" s="452" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="458"/>
-      <c r="F7" s="458"/>
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
       <c r="G7" s="70" t="s">
         <v>91</v>
       </c>
@@ -12492,17 +12492,17 @@
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="461" t="s">
+      <c r="P7" s="455" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="459"/>
-      <c r="B8" s="456"/>
-      <c r="C8" s="459"/>
-      <c r="D8" s="459"/>
-      <c r="E8" s="459"/>
-      <c r="F8" s="459"/>
+      <c r="A8" s="453"/>
+      <c r="B8" s="450"/>
+      <c r="C8" s="453"/>
+      <c r="D8" s="453"/>
+      <c r="E8" s="453"/>
+      <c r="F8" s="453"/>
       <c r="G8" s="241" t="s">
         <v>93</v>
       </c>
@@ -12525,15 +12525,15 @@
       <c r="M8" s="241"/>
       <c r="N8" s="241"/>
       <c r="O8" s="241"/>
-      <c r="P8" s="462"/>
+      <c r="P8" s="456"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="459"/>
-      <c r="B9" s="456"/>
-      <c r="C9" s="459"/>
-      <c r="D9" s="459"/>
-      <c r="E9" s="459"/>
-      <c r="F9" s="459"/>
+      <c r="A9" s="453"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="453"/>
+      <c r="D9" s="453"/>
+      <c r="E9" s="453"/>
+      <c r="F9" s="453"/>
       <c r="G9" s="241" t="s">
         <v>96</v>
       </c>
@@ -12556,15 +12556,15 @@
       <c r="M9" s="241"/>
       <c r="N9" s="241"/>
       <c r="O9" s="241"/>
-      <c r="P9" s="462"/>
+      <c r="P9" s="456"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="459"/>
-      <c r="B10" s="456"/>
-      <c r="C10" s="459"/>
-      <c r="D10" s="459"/>
-      <c r="E10" s="459"/>
-      <c r="F10" s="459"/>
+      <c r="A10" s="453"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="453"/>
+      <c r="D10" s="453"/>
+      <c r="E10" s="453"/>
+      <c r="F10" s="453"/>
       <c r="G10" s="241" t="s">
         <v>101</v>
       </c>
@@ -12587,15 +12587,15 @@
       <c r="M10" s="241"/>
       <c r="N10" s="241"/>
       <c r="O10" s="241"/>
-      <c r="P10" s="462"/>
+      <c r="P10" s="456"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="459"/>
-      <c r="B11" s="456"/>
-      <c r="C11" s="459"/>
-      <c r="D11" s="459"/>
-      <c r="E11" s="459"/>
-      <c r="F11" s="459"/>
+      <c r="A11" s="453"/>
+      <c r="B11" s="450"/>
+      <c r="C11" s="453"/>
+      <c r="D11" s="453"/>
+      <c r="E11" s="453"/>
+      <c r="F11" s="453"/>
       <c r="G11" s="241" t="s">
         <v>100</v>
       </c>
@@ -12618,15 +12618,15 @@
       <c r="M11" s="241"/>
       <c r="N11" s="241"/>
       <c r="O11" s="241"/>
-      <c r="P11" s="462"/>
+      <c r="P11" s="456"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="459"/>
-      <c r="B12" s="456"/>
-      <c r="C12" s="459"/>
-      <c r="D12" s="459"/>
-      <c r="E12" s="459"/>
-      <c r="F12" s="459"/>
+      <c r="A12" s="453"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="453"/>
+      <c r="D12" s="453"/>
+      <c r="E12" s="453"/>
+      <c r="F12" s="453"/>
       <c r="G12" s="241" t="s">
         <v>94</v>
       </c>
@@ -12649,15 +12649,15 @@
       <c r="M12" s="241"/>
       <c r="N12" s="241"/>
       <c r="O12" s="241"/>
-      <c r="P12" s="462"/>
+      <c r="P12" s="456"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="459"/>
-      <c r="B13" s="456"/>
-      <c r="C13" s="459"/>
-      <c r="D13" s="459"/>
-      <c r="E13" s="459"/>
-      <c r="F13" s="459"/>
+      <c r="A13" s="453"/>
+      <c r="B13" s="450"/>
+      <c r="C13" s="453"/>
+      <c r="D13" s="453"/>
+      <c r="E13" s="453"/>
+      <c r="F13" s="453"/>
       <c r="G13" s="241" t="s">
         <v>133</v>
       </c>
@@ -12680,15 +12680,15 @@
       <c r="M13" s="241"/>
       <c r="N13" s="241"/>
       <c r="O13" s="241"/>
-      <c r="P13" s="462"/>
+      <c r="P13" s="456"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="459"/>
-      <c r="B14" s="456"/>
-      <c r="C14" s="459"/>
-      <c r="D14" s="459"/>
-      <c r="E14" s="459"/>
-      <c r="F14" s="459"/>
+      <c r="A14" s="453"/>
+      <c r="B14" s="450"/>
+      <c r="C14" s="453"/>
+      <c r="D14" s="453"/>
+      <c r="E14" s="453"/>
+      <c r="F14" s="453"/>
       <c r="G14" s="241" t="s">
         <v>95</v>
       </c>
@@ -12711,15 +12711,15 @@
       <c r="M14" s="241"/>
       <c r="N14" s="241"/>
       <c r="O14" s="241"/>
-      <c r="P14" s="462"/>
+      <c r="P14" s="456"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="460"/>
-      <c r="B15" s="457"/>
-      <c r="C15" s="460"/>
-      <c r="D15" s="460"/>
-      <c r="E15" s="460"/>
-      <c r="F15" s="460"/>
+      <c r="A15" s="454"/>
+      <c r="B15" s="451"/>
+      <c r="C15" s="454"/>
+      <c r="D15" s="454"/>
+      <c r="E15" s="454"/>
+      <c r="F15" s="454"/>
       <c r="G15" s="244" t="s">
         <v>124</v>
       </c>
@@ -12742,23 +12742,23 @@
       <c r="M15" s="244"/>
       <c r="N15" s="244"/>
       <c r="O15" s="244"/>
-      <c r="P15" s="463"/>
+      <c r="P15" s="457"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="458">
+      <c r="A16" s="452">
         <v>1085</v>
       </c>
-      <c r="B16" s="455">
+      <c r="B16" s="449">
         <v>43908</v>
       </c>
-      <c r="C16" s="458"/>
-      <c r="D16" s="458" t="s">
+      <c r="C16" s="452"/>
+      <c r="D16" s="452" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="458" t="s">
+      <c r="E16" s="452" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="458"/>
+      <c r="F16" s="452"/>
       <c r="G16" s="247" t="s">
         <v>94</v>
       </c>
@@ -12781,17 +12781,17 @@
       <c r="M16" s="247"/>
       <c r="N16" s="247"/>
       <c r="O16" s="247"/>
-      <c r="P16" s="461" t="s">
+      <c r="P16" s="455" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="459"/>
-      <c r="B17" s="456"/>
-      <c r="C17" s="459"/>
-      <c r="D17" s="459"/>
-      <c r="E17" s="459"/>
-      <c r="F17" s="459"/>
+      <c r="A17" s="453"/>
+      <c r="B17" s="450"/>
+      <c r="C17" s="453"/>
+      <c r="D17" s="453"/>
+      <c r="E17" s="453"/>
+      <c r="F17" s="453"/>
       <c r="G17" s="247" t="s">
         <v>98</v>
       </c>
@@ -12815,15 +12815,15 @@
       <c r="M17" s="247"/>
       <c r="N17" s="247"/>
       <c r="O17" s="247"/>
-      <c r="P17" s="462"/>
+      <c r="P17" s="456"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="460"/>
-      <c r="B18" s="457"/>
-      <c r="C18" s="460"/>
-      <c r="D18" s="460"/>
-      <c r="E18" s="460"/>
-      <c r="F18" s="460"/>
+      <c r="A18" s="454"/>
+      <c r="B18" s="451"/>
+      <c r="C18" s="454"/>
+      <c r="D18" s="454"/>
+      <c r="E18" s="454"/>
+      <c r="F18" s="454"/>
       <c r="G18" s="244" t="s">
         <v>91</v>
       </c>
@@ -12847,21 +12847,21 @@
       <c r="M18" s="244"/>
       <c r="N18" s="244"/>
       <c r="O18" s="244"/>
-      <c r="P18" s="463"/>
+      <c r="P18" s="457"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="458">
+      <c r="A19" s="452">
         <v>1107</v>
       </c>
-      <c r="B19" s="455">
+      <c r="B19" s="449">
         <v>43864</v>
       </c>
-      <c r="C19" s="458"/>
-      <c r="D19" s="461" t="s">
+      <c r="C19" s="452"/>
+      <c r="D19" s="455" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="458"/>
-      <c r="F19" s="458"/>
+      <c r="E19" s="452"/>
+      <c r="F19" s="452"/>
       <c r="G19" s="70" t="s">
         <v>92</v>
       </c>
@@ -12887,12 +12887,12 @@
       <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="459"/>
-      <c r="B20" s="456"/>
-      <c r="C20" s="459"/>
-      <c r="D20" s="462"/>
-      <c r="E20" s="459"/>
-      <c r="F20" s="459"/>
+      <c r="A20" s="453"/>
+      <c r="B20" s="450"/>
+      <c r="C20" s="453"/>
+      <c r="D20" s="456"/>
+      <c r="E20" s="453"/>
+      <c r="F20" s="453"/>
       <c r="G20" s="241" t="s">
         <v>93</v>
       </c>
@@ -12918,12 +12918,12 @@
       <c r="P20" s="241"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="459"/>
-      <c r="B21" s="456"/>
-      <c r="C21" s="459"/>
-      <c r="D21" s="462"/>
-      <c r="E21" s="459"/>
-      <c r="F21" s="459"/>
+      <c r="A21" s="453"/>
+      <c r="B21" s="450"/>
+      <c r="C21" s="453"/>
+      <c r="D21" s="456"/>
+      <c r="E21" s="453"/>
+      <c r="F21" s="453"/>
       <c r="G21" s="241" t="s">
         <v>96</v>
       </c>
@@ -12949,12 +12949,12 @@
       <c r="P21" s="241"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="460"/>
-      <c r="B22" s="457"/>
-      <c r="C22" s="460"/>
-      <c r="D22" s="463"/>
-      <c r="E22" s="460"/>
-      <c r="F22" s="460"/>
+      <c r="A22" s="454"/>
+      <c r="B22" s="451"/>
+      <c r="C22" s="454"/>
+      <c r="D22" s="457"/>
+      <c r="E22" s="454"/>
+      <c r="F22" s="454"/>
       <c r="G22" s="244" t="s">
         <v>101</v>
       </c>
@@ -13020,14 +13020,14 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="264" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="451" t="s">
+      <c r="A24" s="448" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="451"/>
-      <c r="C24" s="451"/>
-      <c r="D24" s="451"/>
-      <c r="E24" s="451"/>
-      <c r="F24" s="451"/>
+      <c r="B24" s="448"/>
+      <c r="C24" s="448"/>
+      <c r="D24" s="448"/>
+      <c r="E24" s="448"/>
+      <c r="F24" s="448"/>
       <c r="G24" s="260"/>
       <c r="H24" s="261">
         <f>SUM(H7:H23)</f>
@@ -13093,6 +13093,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P7:P15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -13109,21 +13124,6 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P7:P15"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13186,17 +13186,17 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="467" t="s">
+      <c r="A4" s="471" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="467"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="467"/>
-      <c r="E4" s="467"/>
-      <c r="F4" s="467"/>
-      <c r="G4" s="467"/>
-      <c r="H4" s="467"/>
-      <c r="I4" s="467"/>
+      <c r="B4" s="471"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="471"/>
+      <c r="E4" s="471"/>
+      <c r="F4" s="471"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
+      <c r="I4" s="471"/>
       <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13212,33 +13212,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="468" t="s">
+      <c r="A6" s="472" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="469" t="s">
+      <c r="B6" s="473" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="468" t="s">
+      <c r="C6" s="472" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="470" t="s">
+      <c r="D6" s="474" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="470"/>
-      <c r="F6" s="470"/>
-      <c r="G6" s="470"/>
-      <c r="H6" s="471"/>
-      <c r="I6" s="468" t="s">
+      <c r="E6" s="474"/>
+      <c r="F6" s="474"/>
+      <c r="G6" s="474"/>
+      <c r="H6" s="475"/>
+      <c r="I6" s="472" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="465" t="s">
+      <c r="J6" s="469" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="468"/>
-      <c r="B7" s="469"/>
-      <c r="C7" s="468"/>
+      <c r="A7" s="472"/>
+      <c r="B7" s="473"/>
+      <c r="C7" s="472"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13254,8 +13254,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="468"/>
-      <c r="J7" s="466"/>
+      <c r="I7" s="472"/>
+      <c r="J7" s="470"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
@@ -13291,10 +13291,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="133"/>
-      <c r="B9" s="464" t="s">
+      <c r="B9" s="468" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="464"/>
+      <c r="C9" s="468"/>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
@@ -13310,17 +13310,17 @@
       <c r="J9" s="150"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="472" t="s">
+      <c r="A10" s="464" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="473"/>
-      <c r="C10" s="473"/>
-      <c r="D10" s="473"/>
-      <c r="E10" s="473"/>
-      <c r="F10" s="473"/>
-      <c r="G10" s="473"/>
-      <c r="H10" s="473"/>
-      <c r="I10" s="474"/>
+      <c r="B10" s="465"/>
+      <c r="C10" s="465"/>
+      <c r="D10" s="465"/>
+      <c r="E10" s="465"/>
+      <c r="F10" s="465"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="465"/>
+      <c r="I10" s="466"/>
       <c r="J10" s="151">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
@@ -13330,40 +13330,35 @@
       <c r="G11" s="152"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="475" t="s">
+      <c r="A12" s="467" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="475"/>
-      <c r="C12" s="475"/>
-      <c r="E12" s="475" t="s">
+      <c r="B12" s="467"/>
+      <c r="C12" s="467"/>
+      <c r="E12" s="467" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="475"/>
-      <c r="G12" s="475"/>
-      <c r="H12" s="475"/>
-      <c r="I12" s="475"/>
+      <c r="F12" s="467"/>
+      <c r="G12" s="467"/>
+      <c r="H12" s="467"/>
+      <c r="I12" s="467"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="475" t="s">
+      <c r="A17" s="467" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="475"/>
-      <c r="C17" s="475"/>
-      <c r="E17" s="475" t="s">
+      <c r="B17" s="467"/>
+      <c r="C17" s="467"/>
+      <c r="E17" s="467" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="475"/>
-      <c r="G17" s="475"/>
-      <c r="H17" s="475"/>
-      <c r="I17" s="475"/>
+      <c r="F17" s="467"/>
+      <c r="G17" s="467"/>
+      <c r="H17" s="467"/>
+      <c r="I17" s="467"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -13372,6 +13367,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13434,17 +13434,17 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="467" t="s">
+      <c r="A4" s="471" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="467"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="467"/>
-      <c r="E4" s="467"/>
-      <c r="F4" s="467"/>
-      <c r="G4" s="467"/>
-      <c r="H4" s="467"/>
-      <c r="I4" s="467"/>
+      <c r="B4" s="471"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="471"/>
+      <c r="E4" s="471"/>
+      <c r="F4" s="471"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
+      <c r="I4" s="471"/>
       <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -13460,33 +13460,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="468" t="s">
+      <c r="A6" s="472" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="476" t="s">
+      <c r="B6" s="485" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="468" t="s">
+      <c r="C6" s="472" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="470" t="s">
+      <c r="D6" s="474" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="470"/>
-      <c r="F6" s="470"/>
-      <c r="G6" s="470"/>
-      <c r="H6" s="471"/>
-      <c r="I6" s="468" t="s">
+      <c r="E6" s="474"/>
+      <c r="F6" s="474"/>
+      <c r="G6" s="474"/>
+      <c r="H6" s="475"/>
+      <c r="I6" s="472" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="465" t="s">
+      <c r="J6" s="469" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="468"/>
-      <c r="B7" s="476"/>
-      <c r="C7" s="468"/>
+      <c r="A7" s="472"/>
+      <c r="B7" s="485"/>
+      <c r="C7" s="472"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13502,8 +13502,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="468"/>
-      <c r="J7" s="466"/>
+      <c r="I7" s="472"/>
+      <c r="J7" s="470"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
@@ -13570,13 +13570,13 @@
       <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="480">
+      <c r="A10" s="479">
         <v>1060</v>
       </c>
-      <c r="B10" s="483">
+      <c r="B10" s="482">
         <v>43900</v>
       </c>
-      <c r="C10" s="480" t="s">
+      <c r="C10" s="479" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="99" t="s">
@@ -13602,9 +13602,9 @@
       <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="481"/>
-      <c r="B11" s="484"/>
-      <c r="C11" s="481"/>
+      <c r="A11" s="480"/>
+      <c r="B11" s="483"/>
+      <c r="C11" s="480"/>
       <c r="D11" s="104" t="s">
         <v>93</v>
       </c>
@@ -13629,9 +13629,9 @@
       <c r="M11" s="152"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="482"/>
-      <c r="B12" s="485"/>
-      <c r="C12" s="482"/>
+      <c r="A12" s="481"/>
+      <c r="B12" s="484"/>
+      <c r="C12" s="481"/>
       <c r="D12" s="109" t="s">
         <v>94</v>
       </c>
@@ -13930,13 +13930,13 @@
       <c r="J21" s="98"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="480">
+      <c r="A22" s="479">
         <v>1086</v>
       </c>
-      <c r="B22" s="483">
+      <c r="B22" s="482">
         <v>43909</v>
       </c>
-      <c r="C22" s="480" t="s">
+      <c r="C22" s="479" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="126" t="s">
@@ -13962,9 +13962,9 @@
       <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="481"/>
-      <c r="B23" s="484"/>
-      <c r="C23" s="481"/>
+      <c r="A23" s="480"/>
+      <c r="B23" s="483"/>
+      <c r="C23" s="480"/>
       <c r="D23" s="126" t="s">
         <v>93</v>
       </c>
@@ -13988,9 +13988,9 @@
       <c r="J23" s="98"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="482"/>
-      <c r="B24" s="485"/>
-      <c r="C24" s="482"/>
+      <c r="A24" s="481"/>
+      <c r="B24" s="484"/>
+      <c r="C24" s="481"/>
       <c r="D24" s="126" t="s">
         <v>100</v>
       </c>
@@ -14229,13 +14229,13 @@
       <c r="J34" s="131"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="480">
+      <c r="A35" s="479">
         <v>1122</v>
       </c>
-      <c r="B35" s="483">
+      <c r="B35" s="482">
         <v>43917</v>
       </c>
-      <c r="C35" s="480" t="s">
+      <c r="C35" s="479" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="92" t="s">
@@ -14261,9 +14261,9 @@
       <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="482"/>
-      <c r="B36" s="485"/>
-      <c r="C36" s="482"/>
+      <c r="A36" s="481"/>
+      <c r="B36" s="484"/>
+      <c r="C36" s="481"/>
       <c r="D36" s="92" t="s">
         <v>101</v>
       </c>
@@ -14287,43 +14287,43 @@
       <c r="J36" s="146"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="477" t="s">
+      <c r="A37" s="476" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="478"/>
-      <c r="C37" s="478"/>
-      <c r="D37" s="478"/>
-      <c r="E37" s="478"/>
-      <c r="F37" s="478"/>
-      <c r="G37" s="478"/>
-      <c r="H37" s="478"/>
-      <c r="I37" s="479"/>
+      <c r="B37" s="477"/>
+      <c r="C37" s="477"/>
+      <c r="D37" s="477"/>
+      <c r="E37" s="477"/>
+      <c r="F37" s="477"/>
+      <c r="G37" s="477"/>
+      <c r="H37" s="477"/>
+      <c r="I37" s="478"/>
       <c r="J37" s="147">
         <v>7000000</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="477" t="s">
+      <c r="A38" s="476" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="478"/>
-      <c r="C38" s="478"/>
-      <c r="D38" s="478"/>
-      <c r="E38" s="478"/>
-      <c r="F38" s="478"/>
-      <c r="G38" s="478"/>
-      <c r="H38" s="478"/>
-      <c r="I38" s="479"/>
+      <c r="B38" s="477"/>
+      <c r="C38" s="477"/>
+      <c r="D38" s="477"/>
+      <c r="E38" s="477"/>
+      <c r="F38" s="477"/>
+      <c r="G38" s="477"/>
+      <c r="H38" s="477"/>
+      <c r="I38" s="478"/>
       <c r="J38" s="147">
         <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="133"/>
-      <c r="B39" s="464" t="s">
+      <c r="B39" s="468" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="464"/>
+      <c r="C39" s="468"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
@@ -14342,17 +14342,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="472" t="s">
+      <c r="A40" s="464" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="473"/>
-      <c r="C40" s="473"/>
-      <c r="D40" s="473"/>
-      <c r="E40" s="473"/>
-      <c r="F40" s="473"/>
-      <c r="G40" s="473"/>
-      <c r="H40" s="473"/>
-      <c r="I40" s="474"/>
+      <c r="B40" s="465"/>
+      <c r="C40" s="465"/>
+      <c r="D40" s="465"/>
+      <c r="E40" s="465"/>
+      <c r="F40" s="465"/>
+      <c r="G40" s="465"/>
+      <c r="H40" s="465"/>
+      <c r="I40" s="466"/>
       <c r="J40" s="151">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
@@ -14362,40 +14362,41 @@
       <c r="G41" s="152"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="475" t="s">
+      <c r="A42" s="467" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="475"/>
-      <c r="C42" s="475"/>
-      <c r="E42" s="475" t="s">
+      <c r="B42" s="467"/>
+      <c r="C42" s="467"/>
+      <c r="E42" s="467" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="475"/>
-      <c r="H42" s="475"/>
-      <c r="I42" s="475"/>
+      <c r="F42" s="467"/>
+      <c r="G42" s="467"/>
+      <c r="H42" s="467"/>
+      <c r="I42" s="467"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="475" t="s">
+      <c r="A47" s="467" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="475"/>
-      <c r="C47" s="475"/>
-      <c r="E47" s="475" t="s">
+      <c r="B47" s="467"/>
+      <c r="C47" s="467"/>
+      <c r="E47" s="467" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="475"/>
-      <c r="G47" s="475"/>
-      <c r="H47" s="475"/>
-      <c r="I47" s="475"/>
+      <c r="F47" s="467"/>
+      <c r="G47" s="467"/>
+      <c r="H47" s="467"/>
+      <c r="I47" s="467"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="B39:C39"/>
@@ -14409,12 +14410,11 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.46" bottom="0.48" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="691" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="691"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="340">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -995,6 +995,54 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:H-NNM032020/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Chị Minh Hà Nam (A Lâm) TT tiền hàng 1089</t>
+  </si>
+  <si>
+    <t>Minh Anh (A.Lâm) thanh toán tiền hàng 1056</t>
+  </si>
+  <si>
+    <t>Chị huệ điện biên thanh toán tiền hàng 1092</t>
+  </si>
+  <si>
+    <t>Chị Yến Thanh trì (A L) TT tiền hàng 1066</t>
+  </si>
+  <si>
+    <t>Chị Quân thanh toán tiền hàng 1128</t>
+  </si>
+  <si>
+    <t>Chị Trường Biển Đỏ thanh toán tiền hàng 1073</t>
+  </si>
+  <si>
+    <t>Chị Thúy VP (A L) TT tiền hàng 1076</t>
+  </si>
+  <si>
+    <t>Chị Xuân (A L) TT tiền hàng 1082</t>
+  </si>
+  <si>
+    <t>Chị Hảo (AL) TT tiền hàng 1091</t>
+  </si>
+  <si>
+    <t>Chị Phương yen châu (AL) TT tiền hàng 1094</t>
+  </si>
+  <si>
+    <t>Em Hằng thanh toán tiền hàng 1097</t>
+  </si>
+  <si>
+    <t>Chị Minh Hà Nam (A Lâm) TT tiền hàng 1095</t>
+  </si>
+  <si>
+    <t>Chị huệ điện biên thanh toán tiền hàng 1111</t>
+  </si>
+  <si>
+    <t>Anh Thưởng (AL) TT tiền hàng 1100</t>
+  </si>
+  <si>
+    <t>Anh Tùng CTV thanh toán tiền hàng 1120</t>
+  </si>
+  <si>
+    <t>Chị Quân thanh toán tiền hàng 1126</t>
   </si>
 </sst>
 </file>
@@ -2465,9 +2513,144 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2477,44 +2660,35 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2525,14 +2699,17 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2540,102 +2717,69 @@
     <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,9 +2789,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2675,22 +2837,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2705,29 +2873,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2738,12 +2897,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2762,102 +2939,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2867,54 +2963,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3228,15 +3276,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q255"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -3309,16 +3357,16 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="393" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="356"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="356"/>
-      <c r="E4" s="356"/>
-      <c r="F4" s="356"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="356"/>
+      <c r="B4" s="393"/>
+      <c r="C4" s="393"/>
+      <c r="D4" s="393"/>
+      <c r="E4" s="393"/>
+      <c r="F4" s="393"/>
+      <c r="G4" s="393"/>
+      <c r="H4" s="393"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3330,32 +3378,32 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="350" t="s">
+      <c r="B5" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="352" t="s">
+      <c r="C5" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="354" t="s">
+      <c r="D5" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="357" t="s">
+      <c r="E5" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="358"/>
-      <c r="G5" s="357" t="s">
+      <c r="F5" s="386"/>
+      <c r="G5" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="358"/>
+      <c r="H5" s="386"/>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="353"/>
-      <c r="B6" s="351"/>
-      <c r="C6" s="353"/>
-      <c r="D6" s="355"/>
+      <c r="A6" s="382"/>
+      <c r="B6" s="388"/>
+      <c r="C6" s="382"/>
+      <c r="D6" s="384"/>
       <c r="E6" s="12" t="s">
         <v>236</v>
       </c>
@@ -3520,7 +3568,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
@@ -3882,7 +3930,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16">
@@ -4002,7 +4050,7 @@
         <v>52</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>28</v>
+        <v>326</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16">
@@ -4161,7 +4209,7 @@
         <v>52</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16">
@@ -4181,7 +4229,7 @@
         <v>52</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16">
@@ -4281,7 +4329,7 @@
         <v>52</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16">
@@ -4601,7 +4649,7 @@
         <v>52</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="E68" s="16">
         <v>910000</v>
@@ -4643,7 +4691,7 @@
         <v>52</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="E70" s="16">
         <v>268450</v>
@@ -4663,7 +4711,7 @@
         <v>52</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E71" s="16">
         <v>3513450</v>
@@ -4803,7 +4851,7 @@
         <v>52</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16">
@@ -4843,7 +4891,7 @@
         <v>52</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="E80" s="16">
         <v>858450</v>
@@ -4863,7 +4911,7 @@
         <v>52</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="E81" s="16">
         <v>4855700</v>
@@ -4943,7 +4991,7 @@
         <v>52</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16">
@@ -4984,7 +5032,7 @@
         <v>52</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="E87" s="16">
         <v>1622500</v>
@@ -5064,7 +5112,7 @@
         <v>52</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="16">
@@ -5184,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="E97" s="16">
         <v>536900</v>
@@ -5415,12 +5463,12 @@
       <c r="J108" s="79"/>
     </row>
     <row r="109" spans="1:10" s="26" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="359" t="s">
+      <c r="A109" s="389" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="360"/>
-      <c r="C109" s="360"/>
-      <c r="D109" s="361"/>
+      <c r="B109" s="390"/>
+      <c r="C109" s="390"/>
+      <c r="D109" s="391"/>
       <c r="E109" s="25">
         <f>SUM(E7:E108)</f>
         <v>14303450</v>
@@ -5440,51 +5488,51 @@
       <c r="J109" s="27"/>
     </row>
     <row r="110" spans="1:10" s="1" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="362" t="s">
+      <c r="A110" s="392" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="362"/>
-      <c r="C110" s="362"/>
+      <c r="B110" s="392"/>
+      <c r="C110" s="392"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="346" t="s">
+      <c r="A112" s="380" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="346"/>
-      <c r="C112" s="346"/>
-      <c r="D112" s="346"/>
+      <c r="B112" s="380"/>
+      <c r="C112" s="380"/>
+      <c r="D112" s="380"/>
     </row>
     <row r="113" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="352" t="s">
+      <c r="A113" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="350" t="s">
+      <c r="B113" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="352" t="s">
+      <c r="C113" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="354" t="s">
+      <c r="D113" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="357" t="s">
+      <c r="E113" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="358"/>
-      <c r="G113" s="357" t="s">
+      <c r="F113" s="386"/>
+      <c r="G113" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="358"/>
+      <c r="H113" s="386"/>
     </row>
     <row r="114" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="353"/>
-      <c r="B114" s="351"/>
-      <c r="C114" s="353"/>
-      <c r="D114" s="355"/>
+      <c r="A114" s="382"/>
+      <c r="B114" s="388"/>
+      <c r="C114" s="382"/>
+      <c r="D114" s="384"/>
       <c r="E114" s="12" t="s">
         <v>236</v>
       </c>
@@ -5502,7 +5550,7 @@
       <c r="A115" s="13">
         <v>43886</v>
       </c>
-      <c r="B115" s="347" t="s">
+      <c r="B115" s="394" t="s">
         <v>302</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -5522,7 +5570,7 @@
       <c r="A116" s="13">
         <v>43886</v>
       </c>
-      <c r="B116" s="348"/>
+      <c r="B116" s="395"/>
       <c r="C116" s="14" t="s">
         <v>48</v>
       </c>
@@ -5540,7 +5588,7 @@
       <c r="A117" s="13">
         <v>43894</v>
       </c>
-      <c r="B117" s="348"/>
+      <c r="B117" s="395"/>
       <c r="C117" s="14" t="s">
         <v>48</v>
       </c>
@@ -5558,7 +5606,7 @@
       <c r="A118" s="13">
         <v>43895</v>
       </c>
-      <c r="B118" s="348"/>
+      <c r="B118" s="395"/>
       <c r="C118" s="14" t="s">
         <v>48</v>
       </c>
@@ -5576,7 +5624,7 @@
       <c r="A119" s="13">
         <v>43895</v>
       </c>
-      <c r="B119" s="348"/>
+      <c r="B119" s="395"/>
       <c r="C119" s="14" t="s">
         <v>48</v>
       </c>
@@ -5594,7 +5642,7 @@
       <c r="A120" s="13">
         <v>43897</v>
       </c>
-      <c r="B120" s="348"/>
+      <c r="B120" s="395"/>
       <c r="C120" s="14" t="s">
         <v>48</v>
       </c>
@@ -5612,7 +5660,7 @@
       <c r="A121" s="13">
         <v>43898</v>
       </c>
-      <c r="B121" s="348"/>
+      <c r="B121" s="395"/>
       <c r="C121" s="14" t="s">
         <v>48</v>
       </c>
@@ -5630,7 +5678,7 @@
       <c r="A122" s="13">
         <v>43898</v>
       </c>
-      <c r="B122" s="348"/>
+      <c r="B122" s="395"/>
       <c r="C122" s="14" t="s">
         <v>48</v>
       </c>
@@ -5648,7 +5696,7 @@
       <c r="A123" s="13">
         <v>43898</v>
       </c>
-      <c r="B123" s="348"/>
+      <c r="B123" s="395"/>
       <c r="C123" s="14" t="s">
         <v>48</v>
       </c>
@@ -5666,7 +5714,7 @@
       <c r="A124" s="13">
         <v>43898</v>
       </c>
-      <c r="B124" s="348"/>
+      <c r="B124" s="395"/>
       <c r="C124" s="14" t="s">
         <v>48</v>
       </c>
@@ -5684,7 +5732,7 @@
       <c r="A125" s="13">
         <v>43901</v>
       </c>
-      <c r="B125" s="348"/>
+      <c r="B125" s="395"/>
       <c r="C125" s="14" t="s">
         <v>48</v>
       </c>
@@ -5702,7 +5750,7 @@
       <c r="A126" s="13">
         <v>43902</v>
       </c>
-      <c r="B126" s="348"/>
+      <c r="B126" s="395"/>
       <c r="C126" s="14" t="s">
         <v>48</v>
       </c>
@@ -5720,7 +5768,7 @@
       <c r="A127" s="13">
         <v>43906</v>
       </c>
-      <c r="B127" s="348"/>
+      <c r="B127" s="395"/>
       <c r="C127" s="14" t="s">
         <v>48</v>
       </c>
@@ -5738,7 +5786,7 @@
       <c r="A128" s="13">
         <v>43906</v>
       </c>
-      <c r="B128" s="348"/>
+      <c r="B128" s="395"/>
       <c r="C128" s="14" t="s">
         <v>48</v>
       </c>
@@ -5756,7 +5804,7 @@
       <c r="A129" s="13">
         <v>43906</v>
       </c>
-      <c r="B129" s="348"/>
+      <c r="B129" s="395"/>
       <c r="C129" s="14" t="s">
         <v>48</v>
       </c>
@@ -5774,7 +5822,7 @@
       <c r="A130" s="13">
         <v>43906</v>
       </c>
-      <c r="B130" s="348"/>
+      <c r="B130" s="395"/>
       <c r="C130" s="14" t="s">
         <v>48</v>
       </c>
@@ -5792,7 +5840,7 @@
       <c r="A131" s="13">
         <v>43906</v>
       </c>
-      <c r="B131" s="348"/>
+      <c r="B131" s="395"/>
       <c r="C131" s="14" t="s">
         <v>48</v>
       </c>
@@ -5810,7 +5858,7 @@
       <c r="A132" s="13">
         <v>43910</v>
       </c>
-      <c r="B132" s="348"/>
+      <c r="B132" s="395"/>
       <c r="C132" s="14" t="s">
         <v>48</v>
       </c>
@@ -5828,7 +5876,7 @@
       <c r="A133" s="13">
         <v>43889</v>
       </c>
-      <c r="B133" s="348"/>
+      <c r="B133" s="395"/>
       <c r="C133" s="14" t="s">
         <v>48</v>
       </c>
@@ -5846,7 +5894,7 @@
       <c r="A134" s="13">
         <v>43921</v>
       </c>
-      <c r="B134" s="348"/>
+      <c r="B134" s="395"/>
       <c r="C134" s="14" t="s">
         <v>48</v>
       </c>
@@ -5864,7 +5912,7 @@
       <c r="A135" s="13">
         <v>43921</v>
       </c>
-      <c r="B135" s="348"/>
+      <c r="B135" s="395"/>
       <c r="C135" s="14" t="s">
         <v>48</v>
       </c>
@@ -5882,7 +5930,7 @@
       <c r="A136" s="13">
         <v>43921</v>
       </c>
-      <c r="B136" s="348"/>
+      <c r="B136" s="395"/>
       <c r="C136" s="14" t="s">
         <v>48</v>
       </c>
@@ -5900,7 +5948,7 @@
       <c r="A137" s="13">
         <v>43921</v>
       </c>
-      <c r="B137" s="348"/>
+      <c r="B137" s="395"/>
       <c r="C137" s="14" t="s">
         <v>48</v>
       </c>
@@ -5918,7 +5966,7 @@
       <c r="A138" s="28">
         <v>43921</v>
       </c>
-      <c r="B138" s="349"/>
+      <c r="B138" s="396"/>
       <c r="C138" s="29" t="s">
         <v>48</v>
       </c>
@@ -5947,40 +5995,40 @@
     </row>
     <row r="140" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A141" s="346" t="s">
+      <c r="A141" s="380" t="s">
         <v>52</v>
       </c>
-      <c r="B141" s="346"/>
-      <c r="C141" s="346"/>
-      <c r="D141" s="346"/>
+      <c r="B141" s="380"/>
+      <c r="C141" s="380"/>
+      <c r="D141" s="380"/>
     </row>
     <row r="142" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="352" t="s">
+      <c r="A142" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="350" t="s">
+      <c r="B142" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C142" s="352" t="s">
+      <c r="C142" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="354" t="s">
+      <c r="D142" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="357" t="s">
+      <c r="E142" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="358"/>
-      <c r="G142" s="357" t="s">
+      <c r="F142" s="386"/>
+      <c r="G142" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="358"/>
+      <c r="H142" s="386"/>
     </row>
     <row r="143" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="353"/>
-      <c r="B143" s="351"/>
-      <c r="C143" s="353"/>
-      <c r="D143" s="355"/>
+      <c r="A143" s="382"/>
+      <c r="B143" s="388"/>
+      <c r="C143" s="382"/>
+      <c r="D143" s="384"/>
       <c r="E143" s="12" t="s">
         <v>236</v>
       </c>
@@ -6460,40 +6508,40 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="346" t="s">
+      <c r="A167" s="380" t="s">
         <v>55</v>
       </c>
-      <c r="B167" s="346"/>
-      <c r="C167" s="346"/>
-      <c r="D167" s="346"/>
+      <c r="B167" s="380"/>
+      <c r="C167" s="380"/>
+      <c r="D167" s="380"/>
     </row>
     <row r="168" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="352" t="s">
+      <c r="A168" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="350" t="s">
+      <c r="B168" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C168" s="352" t="s">
+      <c r="C168" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="354" t="s">
+      <c r="D168" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="357" t="s">
+      <c r="E168" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F168" s="358"/>
-      <c r="G168" s="357" t="s">
+      <c r="F168" s="386"/>
+      <c r="G168" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H168" s="358"/>
+      <c r="H168" s="386"/>
     </row>
     <row r="169" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="353"/>
-      <c r="B169" s="351"/>
-      <c r="C169" s="353"/>
-      <c r="D169" s="355"/>
+      <c r="A169" s="382"/>
+      <c r="B169" s="388"/>
+      <c r="C169" s="382"/>
+      <c r="D169" s="384"/>
       <c r="E169" s="12" t="s">
         <v>236</v>
       </c>
@@ -6641,40 +6689,40 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="346" t="s">
+      <c r="A178" s="380" t="s">
         <v>56</v>
       </c>
-      <c r="B178" s="346"/>
-      <c r="C178" s="346"/>
-      <c r="D178" s="346"/>
+      <c r="B178" s="380"/>
+      <c r="C178" s="380"/>
+      <c r="D178" s="380"/>
     </row>
     <row r="179" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="352" t="s">
+      <c r="A179" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="350" t="s">
+      <c r="B179" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C179" s="352" t="s">
+      <c r="C179" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="354" t="s">
+      <c r="D179" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E179" s="357" t="s">
+      <c r="E179" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F179" s="358"/>
-      <c r="G179" s="357" t="s">
+      <c r="F179" s="386"/>
+      <c r="G179" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H179" s="358"/>
+      <c r="H179" s="386"/>
     </row>
     <row r="180" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="353"/>
-      <c r="B180" s="351"/>
-      <c r="C180" s="353"/>
-      <c r="D180" s="355"/>
+      <c r="A180" s="382"/>
+      <c r="B180" s="388"/>
+      <c r="C180" s="382"/>
+      <c r="D180" s="384"/>
       <c r="E180" s="12" t="s">
         <v>236</v>
       </c>
@@ -6742,40 +6790,40 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="346" t="s">
+      <c r="A186" s="380" t="s">
         <v>57</v>
       </c>
-      <c r="B186" s="346"/>
-      <c r="C186" s="346"/>
-      <c r="D186" s="346"/>
+      <c r="B186" s="380"/>
+      <c r="C186" s="380"/>
+      <c r="D186" s="380"/>
     </row>
     <row r="187" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="352" t="s">
+      <c r="A187" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B187" s="350" t="s">
+      <c r="B187" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C187" s="352" t="s">
+      <c r="C187" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="354" t="s">
+      <c r="D187" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="357" t="s">
+      <c r="E187" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="358"/>
-      <c r="G187" s="357" t="s">
+      <c r="F187" s="386"/>
+      <c r="G187" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="358"/>
+      <c r="H187" s="386"/>
     </row>
     <row r="188" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="353"/>
-      <c r="B188" s="351"/>
-      <c r="C188" s="353"/>
-      <c r="D188" s="355"/>
+      <c r="A188" s="382"/>
+      <c r="B188" s="388"/>
+      <c r="C188" s="382"/>
+      <c r="D188" s="384"/>
       <c r="E188" s="12" t="s">
         <v>236</v>
       </c>
@@ -6793,7 +6841,7 @@
       <c r="A189" s="13">
         <v>43867</v>
       </c>
-      <c r="B189" s="347" t="s">
+      <c r="B189" s="394" t="s">
         <v>303</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -6813,7 +6861,7 @@
       <c r="A190" s="13">
         <v>43867</v>
       </c>
-      <c r="B190" s="348"/>
+      <c r="B190" s="395"/>
       <c r="C190" s="14" t="s">
         <v>47</v>
       </c>
@@ -6831,7 +6879,7 @@
       <c r="A191" s="13">
         <v>43870</v>
       </c>
-      <c r="B191" s="348"/>
+      <c r="B191" s="395"/>
       <c r="C191" s="14" t="s">
         <v>47</v>
       </c>
@@ -6849,7 +6897,7 @@
       <c r="A192" s="13">
         <v>43891</v>
       </c>
-      <c r="B192" s="348"/>
+      <c r="B192" s="395"/>
       <c r="C192" s="14" t="s">
         <v>47</v>
       </c>
@@ -6867,7 +6915,7 @@
       <c r="A193" s="13">
         <v>43892</v>
       </c>
-      <c r="B193" s="348"/>
+      <c r="B193" s="395"/>
       <c r="C193" s="14" t="s">
         <v>47</v>
       </c>
@@ -6885,7 +6933,7 @@
       <c r="A194" s="13">
         <v>43893</v>
       </c>
-      <c r="B194" s="348"/>
+      <c r="B194" s="395"/>
       <c r="C194" s="14" t="s">
         <v>47</v>
       </c>
@@ -6903,7 +6951,7 @@
       <c r="A195" s="13">
         <v>43895</v>
       </c>
-      <c r="B195" s="348"/>
+      <c r="B195" s="395"/>
       <c r="C195" s="14" t="s">
         <v>47</v>
       </c>
@@ -6921,7 +6969,7 @@
       <c r="A196" s="13">
         <v>43895</v>
       </c>
-      <c r="B196" s="348"/>
+      <c r="B196" s="395"/>
       <c r="C196" s="14" t="s">
         <v>47</v>
       </c>
@@ -6939,7 +6987,7 @@
       <c r="A197" s="13">
         <v>43895</v>
       </c>
-      <c r="B197" s="348"/>
+      <c r="B197" s="395"/>
       <c r="C197" s="14" t="s">
         <v>47</v>
       </c>
@@ -6957,7 +7005,7 @@
       <c r="A198" s="13">
         <v>43895</v>
       </c>
-      <c r="B198" s="348"/>
+      <c r="B198" s="395"/>
       <c r="C198" s="14" t="s">
         <v>47</v>
       </c>
@@ -6975,7 +7023,7 @@
       <c r="A199" s="13">
         <v>43899</v>
       </c>
-      <c r="B199" s="348"/>
+      <c r="B199" s="395"/>
       <c r="C199" s="14" t="s">
         <v>47</v>
       </c>
@@ -6993,7 +7041,7 @@
       <c r="A200" s="13">
         <v>43900</v>
       </c>
-      <c r="B200" s="348"/>
+      <c r="B200" s="395"/>
       <c r="C200" s="14" t="s">
         <v>47</v>
       </c>
@@ -7011,7 +7059,7 @@
       <c r="A201" s="13">
         <v>43900</v>
       </c>
-      <c r="B201" s="348"/>
+      <c r="B201" s="395"/>
       <c r="C201" s="14" t="s">
         <v>47</v>
       </c>
@@ -7029,7 +7077,7 @@
       <c r="A202" s="13">
         <v>43902</v>
       </c>
-      <c r="B202" s="348"/>
+      <c r="B202" s="395"/>
       <c r="C202" s="14" t="s">
         <v>47</v>
       </c>
@@ -7047,7 +7095,7 @@
       <c r="A203" s="13">
         <v>43902</v>
       </c>
-      <c r="B203" s="348"/>
+      <c r="B203" s="395"/>
       <c r="C203" s="14" t="s">
         <v>47</v>
       </c>
@@ -7065,7 +7113,7 @@
       <c r="A204" s="13">
         <v>43903</v>
       </c>
-      <c r="B204" s="348"/>
+      <c r="B204" s="395"/>
       <c r="C204" s="14" t="s">
         <v>47</v>
       </c>
@@ -7083,7 +7131,7 @@
       <c r="A205" s="13">
         <v>43903</v>
       </c>
-      <c r="B205" s="348"/>
+      <c r="B205" s="395"/>
       <c r="C205" s="14" t="s">
         <v>47</v>
       </c>
@@ -7101,7 +7149,7 @@
       <c r="A206" s="13">
         <v>43903</v>
       </c>
-      <c r="B206" s="348"/>
+      <c r="B206" s="395"/>
       <c r="C206" s="14" t="s">
         <v>47</v>
       </c>
@@ -7119,7 +7167,7 @@
       <c r="A207" s="13">
         <v>43904</v>
       </c>
-      <c r="B207" s="348"/>
+      <c r="B207" s="395"/>
       <c r="C207" s="14" t="s">
         <v>47</v>
       </c>
@@ -7137,7 +7185,7 @@
       <c r="A208" s="13">
         <v>43904</v>
       </c>
-      <c r="B208" s="348"/>
+      <c r="B208" s="395"/>
       <c r="C208" s="14" t="s">
         <v>47</v>
       </c>
@@ -7155,7 +7203,7 @@
       <c r="A209" s="13">
         <v>43905</v>
       </c>
-      <c r="B209" s="348"/>
+      <c r="B209" s="395"/>
       <c r="C209" s="14" t="s">
         <v>47</v>
       </c>
@@ -7173,7 +7221,7 @@
       <c r="A210" s="13">
         <v>43906</v>
       </c>
-      <c r="B210" s="348"/>
+      <c r="B210" s="395"/>
       <c r="C210" s="14" t="s">
         <v>47</v>
       </c>
@@ -7191,7 +7239,7 @@
       <c r="A211" s="13">
         <v>43906</v>
       </c>
-      <c r="B211" s="348"/>
+      <c r="B211" s="395"/>
       <c r="C211" s="14" t="s">
         <v>47</v>
       </c>
@@ -7209,7 +7257,7 @@
       <c r="A212" s="13">
         <v>43906</v>
       </c>
-      <c r="B212" s="348"/>
+      <c r="B212" s="395"/>
       <c r="C212" s="14" t="s">
         <v>47</v>
       </c>
@@ -7227,7 +7275,7 @@
       <c r="A213" s="13">
         <v>43906</v>
       </c>
-      <c r="B213" s="348"/>
+      <c r="B213" s="395"/>
       <c r="C213" s="14" t="s">
         <v>47</v>
       </c>
@@ -7245,7 +7293,7 @@
       <c r="A214" s="28">
         <v>43921</v>
       </c>
-      <c r="B214" s="349"/>
+      <c r="B214" s="396"/>
       <c r="C214" s="29" t="s">
         <v>47</v>
       </c>
@@ -7273,40 +7321,40 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A217" s="346" t="s">
+      <c r="A217" s="380" t="s">
         <v>58</v>
       </c>
-      <c r="B217" s="346"/>
-      <c r="C217" s="346"/>
-      <c r="D217" s="346"/>
+      <c r="B217" s="380"/>
+      <c r="C217" s="380"/>
+      <c r="D217" s="380"/>
     </row>
     <row r="218" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="352" t="s">
+      <c r="A218" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="350" t="s">
+      <c r="B218" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C218" s="352" t="s">
+      <c r="C218" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="354" t="s">
+      <c r="D218" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="357" t="s">
+      <c r="E218" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="358"/>
-      <c r="G218" s="357" t="s">
+      <c r="F218" s="386"/>
+      <c r="G218" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H218" s="358"/>
+      <c r="H218" s="386"/>
     </row>
     <row r="219" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="353"/>
-      <c r="B219" s="351"/>
-      <c r="C219" s="353"/>
-      <c r="D219" s="355"/>
+      <c r="A219" s="382"/>
+      <c r="B219" s="388"/>
+      <c r="C219" s="382"/>
+      <c r="D219" s="384"/>
       <c r="E219" s="12" t="s">
         <v>236</v>
       </c>
@@ -7454,40 +7502,40 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A228" s="346" t="s">
+      <c r="A228" s="380" t="s">
         <v>59</v>
       </c>
-      <c r="B228" s="346"/>
-      <c r="C228" s="346"/>
-      <c r="D228" s="346"/>
+      <c r="B228" s="380"/>
+      <c r="C228" s="380"/>
+      <c r="D228" s="380"/>
     </row>
     <row r="229" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="352" t="s">
+      <c r="A229" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="350" t="s">
+      <c r="B229" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C229" s="352" t="s">
+      <c r="C229" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="354" t="s">
+      <c r="D229" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E229" s="357" t="s">
+      <c r="E229" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F229" s="358"/>
-      <c r="G229" s="357" t="s">
+      <c r="F229" s="386"/>
+      <c r="G229" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H229" s="358"/>
+      <c r="H229" s="386"/>
     </row>
     <row r="230" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="353"/>
-      <c r="B230" s="351"/>
-      <c r="C230" s="353"/>
-      <c r="D230" s="355"/>
+      <c r="A230" s="382"/>
+      <c r="B230" s="388"/>
+      <c r="C230" s="382"/>
+      <c r="D230" s="384"/>
       <c r="E230" s="12" t="s">
         <v>236</v>
       </c>
@@ -7558,40 +7606,40 @@
       <c r="H234" s="35"/>
     </row>
     <row r="235" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A235" s="346" t="s">
+      <c r="A235" s="380" t="s">
         <v>60</v>
       </c>
-      <c r="B235" s="346"/>
-      <c r="C235" s="346"/>
-      <c r="D235" s="346"/>
+      <c r="B235" s="380"/>
+      <c r="C235" s="380"/>
+      <c r="D235" s="380"/>
     </row>
     <row r="236" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="352" t="s">
+      <c r="A236" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="350" t="s">
+      <c r="B236" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="C236" s="352" t="s">
+      <c r="C236" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="354" t="s">
+      <c r="D236" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="E236" s="357" t="s">
+      <c r="E236" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="F236" s="358"/>
-      <c r="G236" s="357" t="s">
+      <c r="F236" s="386"/>
+      <c r="G236" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="H236" s="358"/>
+      <c r="H236" s="386"/>
     </row>
     <row r="237" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="353"/>
-      <c r="B237" s="351"/>
-      <c r="C237" s="353"/>
-      <c r="D237" s="355"/>
+      <c r="A237" s="382"/>
+      <c r="B237" s="388"/>
+      <c r="C237" s="382"/>
+      <c r="D237" s="384"/>
       <c r="E237" s="12" t="s">
         <v>236</v>
       </c>
@@ -7933,13 +7981,50 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="67">
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="B189:B214"/>
+    <mergeCell ref="B115:B138"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="B229:B230"/>
     <mergeCell ref="E218:F218"/>
     <mergeCell ref="G218:H218"/>
     <mergeCell ref="B218:B219"/>
@@ -7956,50 +8041,13 @@
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="C187:C188"/>
     <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="B189:B214"/>
-    <mergeCell ref="B115:B138"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="B236:B237"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8010,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78:D87"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8068,165 +8116,165 @@
       <c r="N2" s="232"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="382" t="s">
+      <c r="A3" s="419" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="382"/>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="382"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="382"/>
-      <c r="P3" s="382"/>
+      <c r="B3" s="419"/>
+      <c r="C3" s="419"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="419"/>
+      <c r="F3" s="419"/>
+      <c r="G3" s="419"/>
+      <c r="H3" s="419"/>
+      <c r="I3" s="419"/>
+      <c r="J3" s="419"/>
+      <c r="K3" s="419"/>
+      <c r="L3" s="419"/>
+      <c r="M3" s="419"/>
+      <c r="N3" s="419"/>
+      <c r="O3" s="419"/>
+      <c r="P3" s="419"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="382" t="s">
+      <c r="A4" s="419" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="382"/>
-      <c r="L4" s="382"/>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="419"/>
+      <c r="I4" s="419"/>
+      <c r="J4" s="419"/>
+      <c r="K4" s="419"/>
+      <c r="L4" s="419"/>
+      <c r="M4" s="419"/>
+      <c r="N4" s="419"/>
+      <c r="O4" s="419"/>
+      <c r="P4" s="419"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="382"/>
-      <c r="B5" s="382"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="382"/>
-      <c r="K5" s="383"/>
-      <c r="L5" s="383"/>
+      <c r="A5" s="419"/>
+      <c r="B5" s="419"/>
+      <c r="C5" s="419"/>
+      <c r="D5" s="419"/>
+      <c r="E5" s="419"/>
+      <c r="F5" s="419"/>
+      <c r="G5" s="419"/>
+      <c r="H5" s="419"/>
+      <c r="I5" s="419"/>
+      <c r="J5" s="419"/>
+      <c r="K5" s="420"/>
+      <c r="L5" s="420"/>
     </row>
     <row r="6" spans="1:16" s="233" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="384" t="s">
+      <c r="A6" s="421" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="387" t="s">
+      <c r="B6" s="424" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="384" t="s">
+      <c r="C6" s="421" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="390" t="s">
+      <c r="D6" s="427" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="390"/>
-      <c r="F6" s="391" t="s">
+      <c r="E6" s="427"/>
+      <c r="F6" s="428" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="392"/>
-      <c r="N6" s="392"/>
-      <c r="O6" s="392"/>
-      <c r="P6" s="366" t="s">
+      <c r="G6" s="428"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="428"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="428"/>
+      <c r="L6" s="428"/>
+      <c r="M6" s="429"/>
+      <c r="N6" s="429"/>
+      <c r="O6" s="429"/>
+      <c r="P6" s="397" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="233" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="385"/>
-      <c r="B7" s="388"/>
-      <c r="C7" s="385"/>
-      <c r="D7" s="384" t="s">
+      <c r="A7" s="422"/>
+      <c r="B7" s="425"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="421" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="384" t="s">
+      <c r="E7" s="421" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="384" t="s">
+      <c r="F7" s="421" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="384" t="s">
+      <c r="G7" s="421" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="384" t="s">
+      <c r="H7" s="421" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="384" t="s">
+      <c r="I7" s="421" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="393" t="s">
+      <c r="J7" s="430" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="393"/>
-      <c r="L7" s="394" t="s">
+      <c r="K7" s="430"/>
+      <c r="L7" s="431" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="396" t="s">
+      <c r="M7" s="433" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="396" t="s">
+      <c r="N7" s="433" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="396" t="s">
+      <c r="O7" s="433" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="367"/>
+      <c r="P7" s="400"/>
     </row>
     <row r="8" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="386"/>
-      <c r="B8" s="389"/>
-      <c r="C8" s="386"/>
-      <c r="D8" s="386"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="386"/>
-      <c r="G8" s="386"/>
-      <c r="H8" s="386"/>
-      <c r="I8" s="386"/>
+      <c r="A8" s="423"/>
+      <c r="B8" s="426"/>
+      <c r="C8" s="423"/>
+      <c r="D8" s="423"/>
+      <c r="E8" s="423"/>
+      <c r="F8" s="423"/>
+      <c r="G8" s="423"/>
+      <c r="H8" s="423"/>
+      <c r="I8" s="423"/>
       <c r="J8" s="234" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="235" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="395"/>
-      <c r="M8" s="397"/>
-      <c r="N8" s="397"/>
-      <c r="O8" s="397"/>
-      <c r="P8" s="368"/>
+      <c r="L8" s="432"/>
+      <c r="M8" s="434"/>
+      <c r="N8" s="434"/>
+      <c r="O8" s="434"/>
+      <c r="P8" s="398"/>
     </row>
     <row r="9" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="363">
+      <c r="A9" s="407">
         <v>1089</v>
       </c>
-      <c r="B9" s="369">
+      <c r="B9" s="414">
         <v>43891</v>
       </c>
-      <c r="C9" s="366" t="s">
+      <c r="C9" s="397" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="366" t="s">
+      <c r="D9" s="397" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="366" t="s">
+      <c r="E9" s="397" t="s">
         <v>138</v>
       </c>
       <c r="F9" s="236" t="s">
@@ -8256,16 +8304,16 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O9" s="238"/>
-      <c r="P9" s="363" t="s">
+      <c r="P9" s="407" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="364"/>
-      <c r="B10" s="371"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
+      <c r="A10" s="408"/>
+      <c r="B10" s="435"/>
+      <c r="C10" s="400"/>
+      <c r="D10" s="400"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="239" t="s">
         <v>93</v>
       </c>
@@ -8293,14 +8341,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="241"/>
-      <c r="P10" s="364"/>
+      <c r="P10" s="408"/>
     </row>
     <row r="11" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="364"/>
-      <c r="B11" s="371"/>
-      <c r="C11" s="367"/>
-      <c r="D11" s="367"/>
-      <c r="E11" s="367"/>
+      <c r="A11" s="408"/>
+      <c r="B11" s="435"/>
+      <c r="C11" s="400"/>
+      <c r="D11" s="400"/>
+      <c r="E11" s="400"/>
       <c r="F11" s="239" t="s">
         <v>96</v>
       </c>
@@ -8328,14 +8376,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="241"/>
-      <c r="P11" s="364"/>
+      <c r="P11" s="408"/>
     </row>
     <row r="12" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="364"/>
-      <c r="B12" s="371"/>
-      <c r="C12" s="367"/>
-      <c r="D12" s="367"/>
-      <c r="E12" s="367"/>
+      <c r="A12" s="408"/>
+      <c r="B12" s="435"/>
+      <c r="C12" s="400"/>
+      <c r="D12" s="400"/>
+      <c r="E12" s="400"/>
       <c r="F12" s="239" t="s">
         <v>101</v>
       </c>
@@ -8363,14 +8411,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="241"/>
-      <c r="P12" s="364"/>
+      <c r="P12" s="408"/>
     </row>
     <row r="13" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="364"/>
-      <c r="B13" s="371"/>
-      <c r="C13" s="367"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="367"/>
+      <c r="A13" s="408"/>
+      <c r="B13" s="435"/>
+      <c r="C13" s="400"/>
+      <c r="D13" s="400"/>
+      <c r="E13" s="400"/>
       <c r="F13" s="239" t="s">
         <v>100</v>
       </c>
@@ -8398,14 +8446,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="241"/>
-      <c r="P13" s="364"/>
+      <c r="P13" s="408"/>
     </row>
     <row r="14" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="364"/>
-      <c r="B14" s="371"/>
-      <c r="C14" s="367"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
+      <c r="A14" s="408"/>
+      <c r="B14" s="435"/>
+      <c r="C14" s="400"/>
+      <c r="D14" s="400"/>
+      <c r="E14" s="400"/>
       <c r="F14" s="239" t="s">
         <v>94</v>
       </c>
@@ -8433,14 +8481,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="241"/>
-      <c r="P14" s="364"/>
+      <c r="P14" s="408"/>
     </row>
     <row r="15" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="364"/>
-      <c r="B15" s="371"/>
-      <c r="C15" s="367"/>
-      <c r="D15" s="367"/>
-      <c r="E15" s="367"/>
+      <c r="A15" s="408"/>
+      <c r="B15" s="435"/>
+      <c r="C15" s="400"/>
+      <c r="D15" s="400"/>
+      <c r="E15" s="400"/>
       <c r="F15" s="239" t="s">
         <v>95</v>
       </c>
@@ -8468,14 +8516,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="241"/>
-      <c r="P15" s="364"/>
+      <c r="P15" s="408"/>
     </row>
     <row r="16" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="365"/>
-      <c r="B16" s="370"/>
-      <c r="C16" s="368"/>
-      <c r="D16" s="368"/>
-      <c r="E16" s="368"/>
+      <c r="A16" s="409"/>
+      <c r="B16" s="415"/>
+      <c r="C16" s="398"/>
+      <c r="D16" s="398"/>
+      <c r="E16" s="398"/>
       <c r="F16" s="242" t="s">
         <v>124</v>
       </c>
@@ -8503,20 +8551,20 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="244"/>
-      <c r="P16" s="365"/>
+      <c r="P16" s="409"/>
     </row>
     <row r="17" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="363">
+      <c r="A17" s="407">
         <v>1102</v>
       </c>
-      <c r="B17" s="369">
+      <c r="B17" s="414">
         <v>43891</v>
       </c>
-      <c r="C17" s="366"/>
-      <c r="D17" s="366" t="s">
+      <c r="C17" s="397"/>
+      <c r="D17" s="397" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="366" t="s">
+      <c r="E17" s="397" t="s">
         <v>160</v>
       </c>
       <c r="F17" s="245" t="s">
@@ -8546,16 +8594,16 @@
         <f>L17</f>
         <v>2790000</v>
       </c>
-      <c r="P17" s="363" t="s">
+      <c r="P17" s="407" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="233" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="365"/>
-      <c r="B18" s="370"/>
-      <c r="C18" s="368"/>
-      <c r="D18" s="368"/>
-      <c r="E18" s="368"/>
+      <c r="A18" s="409"/>
+      <c r="B18" s="415"/>
+      <c r="C18" s="398"/>
+      <c r="D18" s="398"/>
+      <c r="E18" s="398"/>
       <c r="F18" s="247" t="s">
         <v>100</v>
       </c>
@@ -8583,7 +8631,7 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="364"/>
+      <c r="P18" s="408"/>
     </row>
     <row r="19" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="250">
@@ -8631,17 +8679,17 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="363">
+      <c r="A20" s="407">
         <v>1108</v>
       </c>
-      <c r="B20" s="369">
+      <c r="B20" s="414">
         <v>43893</v>
       </c>
-      <c r="C20" s="366"/>
-      <c r="D20" s="366" t="s">
+      <c r="C20" s="397"/>
+      <c r="D20" s="397" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="397" t="s">
         <v>149</v>
       </c>
       <c r="F20" s="236" t="s">
@@ -8671,16 +8719,16 @@
         <f>L20</f>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P20" s="363" t="s">
+      <c r="P20" s="407" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="364"/>
-      <c r="B21" s="371"/>
-      <c r="C21" s="367"/>
-      <c r="D21" s="367"/>
-      <c r="E21" s="367"/>
+      <c r="A21" s="408"/>
+      <c r="B21" s="435"/>
+      <c r="C21" s="400"/>
+      <c r="D21" s="400"/>
+      <c r="E21" s="400"/>
       <c r="F21" s="239" t="s">
         <v>96</v>
       </c>
@@ -8708,14 +8756,14 @@
         <f>L21</f>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P21" s="364"/>
+      <c r="P21" s="408"/>
     </row>
     <row r="22" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="365"/>
-      <c r="B22" s="370"/>
-      <c r="C22" s="368"/>
-      <c r="D22" s="368"/>
-      <c r="E22" s="368"/>
+      <c r="A22" s="409"/>
+      <c r="B22" s="415"/>
+      <c r="C22" s="398"/>
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
       <c r="F22" s="242" t="s">
         <v>101</v>
       </c>
@@ -8743,7 +8791,7 @@
         <f>L22</f>
         <v>5150700.0000000009</v>
       </c>
-      <c r="P22" s="365"/>
+      <c r="P22" s="409"/>
     </row>
     <row r="23" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="330">
@@ -8787,19 +8835,19 @@
       <c r="P23" s="330"/>
     </row>
     <row r="24" spans="1:16" s="233" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="373">
+      <c r="A24" s="401">
         <v>1056</v>
       </c>
-      <c r="B24" s="376">
+      <c r="B24" s="411">
         <v>43899</v>
       </c>
-      <c r="C24" s="379" t="s">
+      <c r="C24" s="404" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="379" t="s">
+      <c r="D24" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="379"/>
+      <c r="E24" s="404"/>
       <c r="F24" s="236" t="s">
         <v>96</v>
       </c>
@@ -8827,16 +8875,16 @@
         <v>840750.00000000012</v>
       </c>
       <c r="O24" s="236"/>
-      <c r="P24" s="363" t="s">
+      <c r="P24" s="407" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="374"/>
-      <c r="B25" s="377"/>
-      <c r="C25" s="380"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="380"/>
+      <c r="A25" s="410"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="405"/>
+      <c r="E25" s="405"/>
       <c r="F25" s="239" t="s">
         <v>101</v>
       </c>
@@ -8864,14 +8912,14 @@
         <v>1716900.0000000002</v>
       </c>
       <c r="O25" s="239"/>
-      <c r="P25" s="364"/>
+      <c r="P25" s="408"/>
     </row>
     <row r="26" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="375"/>
-      <c r="B26" s="378"/>
-      <c r="C26" s="381"/>
-      <c r="D26" s="381"/>
-      <c r="E26" s="381"/>
+      <c r="A26" s="402"/>
+      <c r="B26" s="413"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="406"/>
+      <c r="E26" s="406"/>
       <c r="F26" s="242" t="s">
         <v>124</v>
       </c>
@@ -8899,7 +8947,7 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O26" s="242"/>
-      <c r="P26" s="365"/>
+      <c r="P26" s="409"/>
     </row>
     <row r="27" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="258">
@@ -8988,17 +9036,17 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="363">
+      <c r="A29" s="407">
         <v>1060</v>
       </c>
-      <c r="B29" s="369">
+      <c r="B29" s="414">
         <v>43900</v>
       </c>
-      <c r="C29" s="366" t="s">
+      <c r="C29" s="397" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="366"/>
-      <c r="E29" s="366"/>
+      <c r="D29" s="397"/>
+      <c r="E29" s="397"/>
       <c r="F29" s="236" t="s">
         <v>92</v>
       </c>
@@ -9026,16 +9074,16 @@
         <v>156350.00000000003</v>
       </c>
       <c r="O29" s="236"/>
-      <c r="P29" s="363" t="s">
+      <c r="P29" s="407" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="364"/>
-      <c r="B30" s="371"/>
-      <c r="C30" s="367"/>
-      <c r="D30" s="367"/>
-      <c r="E30" s="367"/>
+      <c r="A30" s="408"/>
+      <c r="B30" s="435"/>
+      <c r="C30" s="400"/>
+      <c r="D30" s="400"/>
+      <c r="E30" s="400"/>
       <c r="F30" s="239" t="s">
         <v>93</v>
       </c>
@@ -9063,14 +9111,14 @@
         <v>2194800.0000000005</v>
       </c>
       <c r="O30" s="239"/>
-      <c r="P30" s="364"/>
+      <c r="P30" s="408"/>
     </row>
     <row r="31" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="365"/>
-      <c r="B31" s="370"/>
-      <c r="C31" s="368"/>
-      <c r="D31" s="368"/>
-      <c r="E31" s="368"/>
+      <c r="A31" s="409"/>
+      <c r="B31" s="415"/>
+      <c r="C31" s="398"/>
+      <c r="D31" s="398"/>
+      <c r="E31" s="398"/>
       <c r="F31" s="242" t="s">
         <v>94</v>
       </c>
@@ -9098,7 +9146,7 @@
         <v>324500.00000000006</v>
       </c>
       <c r="O31" s="242"/>
-      <c r="P31" s="365"/>
+      <c r="P31" s="409"/>
     </row>
     <row r="32" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="258">
@@ -9370,19 +9418,19 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="363">
+      <c r="A38" s="407">
         <v>1073</v>
       </c>
-      <c r="B38" s="369">
+      <c r="B38" s="414">
         <v>43905</v>
       </c>
-      <c r="C38" s="366" t="s">
+      <c r="C38" s="397" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="366" t="s">
+      <c r="D38" s="397" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="366" t="s">
+      <c r="E38" s="397" t="s">
         <v>141</v>
       </c>
       <c r="F38" s="236" t="s">
@@ -9412,16 +9460,16 @@
         <v>6867600.0000000009</v>
       </c>
       <c r="O38" s="238"/>
-      <c r="P38" s="363" t="s">
+      <c r="P38" s="407" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="365"/>
-      <c r="B39" s="370"/>
-      <c r="C39" s="368"/>
-      <c r="D39" s="368"/>
-      <c r="E39" s="368"/>
+      <c r="A39" s="409"/>
+      <c r="B39" s="415"/>
+      <c r="C39" s="398"/>
+      <c r="D39" s="398"/>
+      <c r="E39" s="398"/>
       <c r="F39" s="242" t="s">
         <v>95</v>
       </c>
@@ -9449,7 +9497,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O39" s="244"/>
-      <c r="P39" s="365"/>
+      <c r="P39" s="409"/>
     </row>
     <row r="40" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="250">
@@ -9493,17 +9541,17 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="233" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="363">
+      <c r="A41" s="407">
         <v>1069</v>
       </c>
-      <c r="B41" s="369">
+      <c r="B41" s="414">
         <v>43904</v>
       </c>
-      <c r="C41" s="366"/>
-      <c r="D41" s="366" t="s">
+      <c r="C41" s="397"/>
+      <c r="D41" s="397" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="366" t="s">
+      <c r="E41" s="397" t="s">
         <v>205</v>
       </c>
       <c r="F41" s="236" t="s">
@@ -9533,16 +9581,16 @@
         <f>L41</f>
         <v>7098000</v>
       </c>
-      <c r="P41" s="363" t="s">
+      <c r="P41" s="407" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="365"/>
-      <c r="B42" s="370"/>
-      <c r="C42" s="367"/>
-      <c r="D42" s="368"/>
-      <c r="E42" s="368"/>
+      <c r="A42" s="409"/>
+      <c r="B42" s="415"/>
+      <c r="C42" s="400"/>
+      <c r="D42" s="398"/>
+      <c r="E42" s="398"/>
       <c r="F42" s="242" t="s">
         <v>93</v>
       </c>
@@ -9570,20 +9618,20 @@
         <f t="shared" ref="O42:O47" si="12">L42</f>
         <v>3627000</v>
       </c>
-      <c r="P42" s="364"/>
+      <c r="P42" s="408"/>
     </row>
     <row r="43" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="363">
+      <c r="A43" s="407">
         <v>1070</v>
       </c>
-      <c r="B43" s="369">
+      <c r="B43" s="414">
         <v>43904</v>
       </c>
-      <c r="C43" s="366"/>
-      <c r="D43" s="366" t="s">
+      <c r="C43" s="397"/>
+      <c r="D43" s="397" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="366" t="s">
+      <c r="E43" s="397" t="s">
         <v>205</v>
       </c>
       <c r="F43" s="236" t="s">
@@ -9613,14 +9661,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P43" s="364"/>
+      <c r="P43" s="408"/>
     </row>
     <row r="44" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="365"/>
-      <c r="B44" s="370"/>
-      <c r="C44" s="367"/>
-      <c r="D44" s="368"/>
-      <c r="E44" s="368"/>
+      <c r="A44" s="409"/>
+      <c r="B44" s="415"/>
+      <c r="C44" s="400"/>
+      <c r="D44" s="398"/>
+      <c r="E44" s="398"/>
       <c r="F44" s="242" t="s">
         <v>93</v>
       </c>
@@ -9648,20 +9696,20 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P44" s="364"/>
+      <c r="P44" s="408"/>
     </row>
     <row r="45" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="363">
+      <c r="A45" s="407">
         <v>1072</v>
       </c>
-      <c r="B45" s="369">
+      <c r="B45" s="414">
         <v>43904</v>
       </c>
-      <c r="C45" s="366"/>
-      <c r="D45" s="366" t="s">
+      <c r="C45" s="397"/>
+      <c r="D45" s="397" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="366"/>
+      <c r="E45" s="397"/>
       <c r="F45" s="236" t="s">
         <v>93</v>
       </c>
@@ -9689,14 +9737,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P45" s="364"/>
+      <c r="P45" s="408"/>
     </row>
     <row r="46" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="364"/>
-      <c r="B46" s="371"/>
-      <c r="C46" s="367"/>
-      <c r="D46" s="367"/>
-      <c r="E46" s="367"/>
+      <c r="A46" s="408"/>
+      <c r="B46" s="435"/>
+      <c r="C46" s="400"/>
+      <c r="D46" s="400"/>
+      <c r="E46" s="400"/>
       <c r="F46" s="239" t="s">
         <v>101</v>
       </c>
@@ -9724,14 +9772,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P46" s="364"/>
+      <c r="P46" s="408"/>
     </row>
     <row r="47" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="365"/>
-      <c r="B47" s="370"/>
-      <c r="C47" s="368"/>
-      <c r="D47" s="368"/>
-      <c r="E47" s="368"/>
+      <c r="A47" s="409"/>
+      <c r="B47" s="415"/>
+      <c r="C47" s="398"/>
+      <c r="D47" s="398"/>
+      <c r="E47" s="398"/>
       <c r="F47" s="242" t="s">
         <v>95</v>
       </c>
@@ -9759,7 +9807,7 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P47" s="365"/>
+      <c r="P47" s="409"/>
     </row>
     <row r="48" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="250">
@@ -9901,17 +9949,17 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="363">
+      <c r="A51" s="407">
         <v>1078</v>
       </c>
-      <c r="B51" s="398">
+      <c r="B51" s="417">
         <v>43907</v>
       </c>
-      <c r="C51" s="399" t="s">
+      <c r="C51" s="418" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="366"/>
-      <c r="E51" s="366"/>
+      <c r="D51" s="397"/>
+      <c r="E51" s="397"/>
       <c r="F51" s="236" t="s">
         <v>93</v>
       </c>
@@ -9939,16 +9987,16 @@
         <v>274350.00000000006</v>
       </c>
       <c r="O51" s="238"/>
-      <c r="P51" s="363" t="s">
+      <c r="P51" s="407" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="365"/>
-      <c r="B52" s="398"/>
-      <c r="C52" s="399"/>
-      <c r="D52" s="368"/>
-      <c r="E52" s="368"/>
+      <c r="A52" s="409"/>
+      <c r="B52" s="417"/>
+      <c r="C52" s="418"/>
+      <c r="D52" s="398"/>
+      <c r="E52" s="398"/>
       <c r="F52" s="242" t="s">
         <v>95</v>
       </c>
@@ -9976,20 +10024,20 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O52" s="244"/>
-      <c r="P52" s="364"/>
+      <c r="P52" s="408"/>
     </row>
     <row r="53" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="363">
+      <c r="A53" s="407">
         <v>1080</v>
       </c>
-      <c r="B53" s="369">
+      <c r="B53" s="414">
         <v>43908</v>
       </c>
-      <c r="C53" s="366" t="s">
+      <c r="C53" s="397" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="366"/>
-      <c r="E53" s="366"/>
+      <c r="D53" s="397"/>
+      <c r="E53" s="397"/>
       <c r="F53" s="236" t="s">
         <v>97</v>
       </c>
@@ -10017,14 +10065,14 @@
         <v>168150.00000000003</v>
       </c>
       <c r="O53" s="238"/>
-      <c r="P53" s="364"/>
+      <c r="P53" s="408"/>
     </row>
     <row r="54" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="365"/>
-      <c r="B54" s="370"/>
-      <c r="C54" s="368"/>
-      <c r="D54" s="368"/>
-      <c r="E54" s="368"/>
+      <c r="A54" s="409"/>
+      <c r="B54" s="415"/>
+      <c r="C54" s="398"/>
+      <c r="D54" s="398"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="242" t="s">
         <v>98</v>
       </c>
@@ -10052,7 +10100,7 @@
         <v>150450.00000000003</v>
       </c>
       <c r="O54" s="244"/>
-      <c r="P54" s="365"/>
+      <c r="P54" s="409"/>
     </row>
     <row r="55" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="250">
@@ -10143,17 +10191,17 @@
       </c>
     </row>
     <row r="57" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="363">
+      <c r="A57" s="407">
         <v>1091</v>
       </c>
-      <c r="B57" s="369">
+      <c r="B57" s="414">
         <v>43908</v>
       </c>
       <c r="C57" s="281"/>
-      <c r="D57" s="366" t="s">
+      <c r="D57" s="397" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="366" t="s">
+      <c r="E57" s="397" t="s">
         <v>158</v>
       </c>
       <c r="F57" s="236" t="s">
@@ -10183,18 +10231,18 @@
         <v>2708100.0000000005</v>
       </c>
       <c r="O57" s="282"/>
-      <c r="P57" s="373" t="s">
+      <c r="P57" s="401" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="365"/>
-      <c r="B58" s="370"/>
+      <c r="A58" s="409"/>
+      <c r="B58" s="415"/>
       <c r="C58" s="281" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="368"/>
-      <c r="E58" s="368"/>
+      <c r="D58" s="398"/>
+      <c r="E58" s="398"/>
       <c r="F58" s="242" t="s">
         <v>91</v>
       </c>
@@ -10222,20 +10270,20 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O58" s="283"/>
-      <c r="P58" s="375"/>
+      <c r="P58" s="402"/>
     </row>
     <row r="59" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="363">
+      <c r="A59" s="407">
         <v>1086</v>
       </c>
-      <c r="B59" s="369">
+      <c r="B59" s="414">
         <v>43909</v>
       </c>
-      <c r="C59" s="366" t="s">
+      <c r="C59" s="397" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="366"/>
-      <c r="E59" s="366"/>
+      <c r="D59" s="397"/>
+      <c r="E59" s="397"/>
       <c r="F59" s="245" t="s">
         <v>91</v>
       </c>
@@ -10263,16 +10311,16 @@
       </c>
       <c r="N59" s="246"/>
       <c r="O59" s="254"/>
-      <c r="P59" s="363" t="s">
+      <c r="P59" s="407" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="364"/>
-      <c r="B60" s="371"/>
-      <c r="C60" s="367"/>
-      <c r="D60" s="367"/>
-      <c r="E60" s="367"/>
+      <c r="A60" s="408"/>
+      <c r="B60" s="435"/>
+      <c r="C60" s="400"/>
+      <c r="D60" s="400"/>
+      <c r="E60" s="400"/>
       <c r="F60" s="239" t="s">
         <v>93</v>
       </c>
@@ -10300,14 +10348,14 @@
       </c>
       <c r="N60" s="241"/>
       <c r="O60" s="254"/>
-      <c r="P60" s="364"/>
+      <c r="P60" s="408"/>
     </row>
     <row r="61" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="365"/>
-      <c r="B61" s="370"/>
-      <c r="C61" s="368"/>
-      <c r="D61" s="368"/>
-      <c r="E61" s="368"/>
+      <c r="A61" s="409"/>
+      <c r="B61" s="415"/>
+      <c r="C61" s="398"/>
+      <c r="D61" s="398"/>
+      <c r="E61" s="398"/>
       <c r="F61" s="247" t="s">
         <v>100</v>
       </c>
@@ -10335,7 +10383,7 @@
       </c>
       <c r="N61" s="248"/>
       <c r="O61" s="254"/>
-      <c r="P61" s="365"/>
+      <c r="P61" s="409"/>
     </row>
     <row r="62" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="250">
@@ -10381,17 +10429,17 @@
       </c>
     </row>
     <row r="63" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="373">
+      <c r="A63" s="401">
         <v>1094</v>
       </c>
-      <c r="B63" s="376">
+      <c r="B63" s="411">
         <v>43912</v>
       </c>
-      <c r="C63" s="379"/>
-      <c r="D63" s="379" t="s">
+      <c r="C63" s="404"/>
+      <c r="D63" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="379" t="s">
+      <c r="E63" s="404" t="s">
         <v>162</v>
       </c>
       <c r="F63" s="236" t="s">
@@ -10421,14 +10469,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O63" s="284"/>
-      <c r="P63" s="402"/>
+      <c r="P63" s="399"/>
     </row>
     <row r="64" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="374"/>
-      <c r="B64" s="377"/>
-      <c r="C64" s="380"/>
-      <c r="D64" s="380"/>
-      <c r="E64" s="380"/>
+      <c r="A64" s="410"/>
+      <c r="B64" s="412"/>
+      <c r="C64" s="405"/>
+      <c r="D64" s="405"/>
+      <c r="E64" s="405"/>
       <c r="F64" s="239" t="s">
         <v>101</v>
       </c>
@@ -10456,14 +10504,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O64" s="285"/>
-      <c r="P64" s="402"/>
+      <c r="P64" s="399"/>
     </row>
     <row r="65" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="375"/>
-      <c r="B65" s="378"/>
-      <c r="C65" s="381"/>
-      <c r="D65" s="381"/>
-      <c r="E65" s="381"/>
+      <c r="A65" s="402"/>
+      <c r="B65" s="413"/>
+      <c r="C65" s="406"/>
+      <c r="D65" s="406"/>
+      <c r="E65" s="406"/>
       <c r="F65" s="242" t="s">
         <v>124</v>
       </c>
@@ -10491,7 +10539,7 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O65" s="286"/>
-      <c r="P65" s="402"/>
+      <c r="P65" s="399"/>
     </row>
     <row r="66" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="258">
@@ -10539,19 +10587,19 @@
       <c r="P66" s="258"/>
     </row>
     <row r="67" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="363">
+      <c r="A67" s="407">
         <v>1095</v>
       </c>
-      <c r="B67" s="369">
+      <c r="B67" s="414">
         <v>43913</v>
       </c>
-      <c r="C67" s="366" t="s">
+      <c r="C67" s="397" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="366" t="s">
+      <c r="D67" s="397" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="366" t="s">
+      <c r="E67" s="397" t="s">
         <v>138</v>
       </c>
       <c r="F67" s="236" t="s">
@@ -10584,11 +10632,11 @@
       <c r="P67" s="288"/>
     </row>
     <row r="68" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="364"/>
-      <c r="B68" s="371"/>
-      <c r="C68" s="367"/>
-      <c r="D68" s="367"/>
-      <c r="E68" s="367"/>
+      <c r="A68" s="408"/>
+      <c r="B68" s="435"/>
+      <c r="C68" s="400"/>
+      <c r="D68" s="400"/>
+      <c r="E68" s="400"/>
       <c r="F68" s="239" t="s">
         <v>93</v>
       </c>
@@ -10619,11 +10667,11 @@
       <c r="P68" s="289"/>
     </row>
     <row r="69" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="365"/>
-      <c r="B69" s="370"/>
-      <c r="C69" s="368"/>
-      <c r="D69" s="368"/>
-      <c r="E69" s="368"/>
+      <c r="A69" s="409"/>
+      <c r="B69" s="415"/>
+      <c r="C69" s="398"/>
+      <c r="D69" s="398"/>
+      <c r="E69" s="398"/>
       <c r="F69" s="242" t="s">
         <v>94</v>
       </c>
@@ -10654,17 +10702,17 @@
       <c r="P69" s="290"/>
     </row>
     <row r="70" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="363">
+      <c r="A70" s="407">
         <v>1111</v>
       </c>
-      <c r="B70" s="369">
+      <c r="B70" s="414">
         <v>43914</v>
       </c>
-      <c r="C70" s="366"/>
-      <c r="D70" s="366" t="s">
+      <c r="C70" s="397"/>
+      <c r="D70" s="397" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="366" t="s">
+      <c r="E70" s="397" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="236" t="s">
@@ -10699,11 +10747,11 @@
       <c r="P70" s="288"/>
     </row>
     <row r="71" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="364"/>
-      <c r="B71" s="371"/>
-      <c r="C71" s="367"/>
-      <c r="D71" s="367"/>
-      <c r="E71" s="367"/>
+      <c r="A71" s="408"/>
+      <c r="B71" s="435"/>
+      <c r="C71" s="400"/>
+      <c r="D71" s="400"/>
+      <c r="E71" s="400"/>
       <c r="F71" s="239" t="s">
         <v>93</v>
       </c>
@@ -10734,11 +10782,11 @@
       <c r="P71" s="289"/>
     </row>
     <row r="72" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="364"/>
-      <c r="B72" s="371"/>
-      <c r="C72" s="367"/>
-      <c r="D72" s="367"/>
-      <c r="E72" s="367"/>
+      <c r="A72" s="408"/>
+      <c r="B72" s="435"/>
+      <c r="C72" s="400"/>
+      <c r="D72" s="400"/>
+      <c r="E72" s="400"/>
       <c r="F72" s="239" t="s">
         <v>101</v>
       </c>
@@ -10769,11 +10817,11 @@
       <c r="P72" s="291"/>
     </row>
     <row r="73" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="364"/>
-      <c r="B73" s="370"/>
-      <c r="C73" s="368"/>
-      <c r="D73" s="368"/>
-      <c r="E73" s="368"/>
+      <c r="A73" s="408"/>
+      <c r="B73" s="415"/>
+      <c r="C73" s="398"/>
+      <c r="D73" s="398"/>
+      <c r="E73" s="398"/>
       <c r="F73" s="242" t="s">
         <v>100</v>
       </c>
@@ -10804,17 +10852,17 @@
       <c r="P73" s="292"/>
     </row>
     <row r="74" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="363">
+      <c r="A74" s="407">
         <v>1099</v>
       </c>
-      <c r="B74" s="369">
+      <c r="B74" s="414">
         <v>43913</v>
       </c>
-      <c r="C74" s="366"/>
-      <c r="D74" s="366" t="s">
+      <c r="C74" s="397"/>
+      <c r="D74" s="397" t="s">
         <v>146</v>
       </c>
-      <c r="E74" s="366" t="s">
+      <c r="E74" s="397" t="s">
         <v>149</v>
       </c>
       <c r="F74" s="236" t="s">
@@ -10847,11 +10895,11 @@
       <c r="P74" s="288"/>
     </row>
     <row r="75" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="365"/>
-      <c r="B75" s="370"/>
-      <c r="C75" s="368"/>
-      <c r="D75" s="368"/>
-      <c r="E75" s="368"/>
+      <c r="A75" s="409"/>
+      <c r="B75" s="415"/>
+      <c r="C75" s="398"/>
+      <c r="D75" s="398"/>
+      <c r="E75" s="398"/>
       <c r="F75" s="242" t="s">
         <v>101</v>
       </c>
@@ -10965,17 +11013,17 @@
       <c r="P77" s="278"/>
     </row>
     <row r="78" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="363">
+      <c r="A78" s="407">
         <v>1118</v>
       </c>
-      <c r="B78" s="369">
+      <c r="B78" s="414">
         <v>43915</v>
       </c>
-      <c r="C78" s="366"/>
-      <c r="D78" s="366" t="s">
+      <c r="C78" s="397"/>
+      <c r="D78" s="397" t="s">
         <v>213</v>
       </c>
-      <c r="E78" s="366" t="s">
+      <c r="E78" s="397" t="s">
         <v>214</v>
       </c>
       <c r="F78" s="236" t="s">
@@ -11008,11 +11056,11 @@
       <c r="P78" s="288"/>
     </row>
     <row r="79" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="364"/>
-      <c r="B79" s="371"/>
-      <c r="C79" s="367"/>
-      <c r="D79" s="367"/>
-      <c r="E79" s="367"/>
+      <c r="A79" s="408"/>
+      <c r="B79" s="435"/>
+      <c r="C79" s="400"/>
+      <c r="D79" s="400"/>
+      <c r="E79" s="400"/>
       <c r="F79" s="239" t="s">
         <v>92</v>
       </c>
@@ -11043,11 +11091,11 @@
       <c r="P79" s="289"/>
     </row>
     <row r="80" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="364"/>
-      <c r="B80" s="371"/>
-      <c r="C80" s="367"/>
-      <c r="D80" s="367"/>
-      <c r="E80" s="367"/>
+      <c r="A80" s="408"/>
+      <c r="B80" s="435"/>
+      <c r="C80" s="400"/>
+      <c r="D80" s="400"/>
+      <c r="E80" s="400"/>
       <c r="F80" s="239" t="s">
         <v>93</v>
       </c>
@@ -11078,11 +11126,11 @@
       <c r="P80" s="289"/>
     </row>
     <row r="81" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="364"/>
-      <c r="B81" s="371"/>
-      <c r="C81" s="367"/>
-      <c r="D81" s="367"/>
-      <c r="E81" s="367"/>
+      <c r="A81" s="408"/>
+      <c r="B81" s="435"/>
+      <c r="C81" s="400"/>
+      <c r="D81" s="400"/>
+      <c r="E81" s="400"/>
       <c r="F81" s="239" t="s">
         <v>96</v>
       </c>
@@ -11113,11 +11161,11 @@
       <c r="P81" s="289"/>
     </row>
     <row r="82" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="364"/>
-      <c r="B82" s="371"/>
-      <c r="C82" s="367"/>
-      <c r="D82" s="367"/>
-      <c r="E82" s="367"/>
+      <c r="A82" s="408"/>
+      <c r="B82" s="435"/>
+      <c r="C82" s="400"/>
+      <c r="D82" s="400"/>
+      <c r="E82" s="400"/>
       <c r="F82" s="239" t="s">
         <v>101</v>
       </c>
@@ -11148,11 +11196,11 @@
       <c r="P82" s="289"/>
     </row>
     <row r="83" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="364"/>
-      <c r="B83" s="371"/>
-      <c r="C83" s="367"/>
-      <c r="D83" s="367"/>
-      <c r="E83" s="367"/>
+      <c r="A83" s="408"/>
+      <c r="B83" s="435"/>
+      <c r="C83" s="400"/>
+      <c r="D83" s="400"/>
+      <c r="E83" s="400"/>
       <c r="F83" s="239" t="s">
         <v>100</v>
       </c>
@@ -11183,11 +11231,11 @@
       <c r="P83" s="289"/>
     </row>
     <row r="84" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="364"/>
-      <c r="B84" s="371"/>
-      <c r="C84" s="367"/>
-      <c r="D84" s="367"/>
-      <c r="E84" s="367"/>
+      <c r="A84" s="408"/>
+      <c r="B84" s="435"/>
+      <c r="C84" s="400"/>
+      <c r="D84" s="400"/>
+      <c r="E84" s="400"/>
       <c r="F84" s="239" t="s">
         <v>94</v>
       </c>
@@ -11218,11 +11266,11 @@
       <c r="P84" s="289"/>
     </row>
     <row r="85" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="364"/>
-      <c r="B85" s="371"/>
-      <c r="C85" s="367"/>
-      <c r="D85" s="367"/>
-      <c r="E85" s="367"/>
+      <c r="A85" s="408"/>
+      <c r="B85" s="435"/>
+      <c r="C85" s="400"/>
+      <c r="D85" s="400"/>
+      <c r="E85" s="400"/>
       <c r="F85" s="239" t="s">
         <v>133</v>
       </c>
@@ -11253,11 +11301,11 @@
       <c r="P85" s="289"/>
     </row>
     <row r="86" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="364"/>
-      <c r="B86" s="371"/>
-      <c r="C86" s="367"/>
-      <c r="D86" s="367"/>
-      <c r="E86" s="367"/>
+      <c r="A86" s="408"/>
+      <c r="B86" s="435"/>
+      <c r="C86" s="400"/>
+      <c r="D86" s="400"/>
+      <c r="E86" s="400"/>
       <c r="F86" s="239" t="s">
         <v>95</v>
       </c>
@@ -11288,11 +11336,11 @@
       <c r="P86" s="289"/>
     </row>
     <row r="87" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="365"/>
-      <c r="B87" s="370"/>
-      <c r="C87" s="368"/>
-      <c r="D87" s="368"/>
-      <c r="E87" s="368"/>
+      <c r="A87" s="409"/>
+      <c r="B87" s="415"/>
+      <c r="C87" s="398"/>
+      <c r="D87" s="398"/>
+      <c r="E87" s="398"/>
       <c r="F87" s="242" t="s">
         <v>124</v>
       </c>
@@ -11323,17 +11371,17 @@
       <c r="P87" s="290"/>
     </row>
     <row r="88" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="363">
+      <c r="A88" s="407">
         <v>1119</v>
       </c>
-      <c r="B88" s="369">
+      <c r="B88" s="414">
         <v>43915</v>
       </c>
-      <c r="C88" s="366"/>
-      <c r="D88" s="366" t="s">
+      <c r="C88" s="397"/>
+      <c r="D88" s="397" t="s">
         <v>146</v>
       </c>
-      <c r="E88" s="366" t="s">
+      <c r="E88" s="397" t="s">
         <v>149</v>
       </c>
       <c r="F88" s="245" t="s">
@@ -11366,11 +11414,11 @@
       <c r="P88" s="295"/>
     </row>
     <row r="89" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="365"/>
-      <c r="B89" s="370"/>
-      <c r="C89" s="368"/>
-      <c r="D89" s="368"/>
-      <c r="E89" s="368"/>
+      <c r="A89" s="409"/>
+      <c r="B89" s="415"/>
+      <c r="C89" s="398"/>
+      <c r="D89" s="398"/>
+      <c r="E89" s="398"/>
       <c r="F89" s="242" t="s">
         <v>124</v>
       </c>
@@ -11482,17 +11530,17 @@
       <c r="P91" s="295"/>
     </row>
     <row r="92" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="363">
+      <c r="A92" s="407">
         <v>1122</v>
       </c>
-      <c r="B92" s="369">
+      <c r="B92" s="414">
         <v>43917</v>
       </c>
-      <c r="C92" s="366" t="s">
+      <c r="C92" s="397" t="s">
         <v>169</v>
       </c>
       <c r="D92" s="275"/>
-      <c r="E92" s="366"/>
+      <c r="E92" s="397"/>
       <c r="F92" s="236" t="s">
         <v>96</v>
       </c>
@@ -11523,11 +11571,11 @@
       <c r="P92" s="288"/>
     </row>
     <row r="93" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="365"/>
-      <c r="B93" s="370"/>
-      <c r="C93" s="368"/>
+      <c r="A93" s="409"/>
+      <c r="B93" s="415"/>
+      <c r="C93" s="398"/>
       <c r="D93" s="281"/>
-      <c r="E93" s="368"/>
+      <c r="E93" s="398"/>
       <c r="F93" s="242" t="s">
         <v>101</v>
       </c>
@@ -11558,19 +11606,19 @@
       <c r="P93" s="290"/>
     </row>
     <row r="94" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="363">
+      <c r="A94" s="407">
         <v>1126</v>
       </c>
-      <c r="B94" s="369">
+      <c r="B94" s="414">
         <v>43921</v>
       </c>
-      <c r="C94" s="366" t="s">
+      <c r="C94" s="397" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="366" t="s">
+      <c r="D94" s="397" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="366" t="s">
+      <c r="E94" s="397" t="s">
         <v>206</v>
       </c>
       <c r="F94" s="245" t="s">
@@ -11603,11 +11651,11 @@
       <c r="P94" s="299"/>
     </row>
     <row r="95" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="365"/>
-      <c r="B95" s="370"/>
-      <c r="C95" s="368"/>
-      <c r="D95" s="368"/>
-      <c r="E95" s="368"/>
+      <c r="A95" s="409"/>
+      <c r="B95" s="415"/>
+      <c r="C95" s="398"/>
+      <c r="D95" s="398"/>
+      <c r="E95" s="398"/>
       <c r="F95" s="242" t="s">
         <v>95</v>
       </c>
@@ -11638,14 +11686,14 @@
       <c r="P95" s="290"/>
     </row>
     <row r="96" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="401" t="s">
+      <c r="A96" s="416" t="s">
         <v>208</v>
       </c>
-      <c r="B96" s="401"/>
-      <c r="C96" s="401"/>
-      <c r="D96" s="401"/>
-      <c r="E96" s="401"/>
-      <c r="F96" s="401"/>
+      <c r="B96" s="416"/>
+      <c r="C96" s="416"/>
+      <c r="D96" s="416"/>
+      <c r="E96" s="416"/>
+      <c r="F96" s="416"/>
       <c r="G96" s="300">
         <f>SUM(G9:G95)</f>
         <v>953</v>
@@ -11667,14 +11715,14 @@
       <c r="P96" s="306"/>
     </row>
     <row r="97" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="400" t="s">
+      <c r="A97" s="403" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="400"/>
-      <c r="C97" s="400"/>
-      <c r="D97" s="400"/>
-      <c r="E97" s="400"/>
-      <c r="F97" s="400"/>
+      <c r="B97" s="403"/>
+      <c r="C97" s="403"/>
+      <c r="D97" s="403"/>
+      <c r="E97" s="403"/>
+      <c r="F97" s="403"/>
       <c r="G97" s="300">
         <f>G96</f>
         <v>953</v>
@@ -11693,14 +11741,14 @@
       <c r="P97" s="310"/>
     </row>
     <row r="98" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="400" t="s">
+      <c r="A98" s="403" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="400"/>
-      <c r="C98" s="400"/>
-      <c r="D98" s="400"/>
-      <c r="E98" s="400"/>
-      <c r="F98" s="400"/>
+      <c r="B98" s="403"/>
+      <c r="C98" s="403"/>
+      <c r="D98" s="403"/>
+      <c r="E98" s="403"/>
+      <c r="F98" s="403"/>
       <c r="G98" s="311" t="s">
         <v>134</v>
       </c>
@@ -11718,14 +11766,14 @@
       <c r="P98" s="310"/>
     </row>
     <row r="99" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="400" t="s">
+      <c r="A99" s="403" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="400"/>
-      <c r="C99" s="400"/>
-      <c r="D99" s="400"/>
-      <c r="E99" s="400"/>
-      <c r="F99" s="400"/>
+      <c r="B99" s="403"/>
+      <c r="C99" s="403"/>
+      <c r="D99" s="403"/>
+      <c r="E99" s="403"/>
+      <c r="F99" s="403"/>
       <c r="G99" s="308"/>
       <c r="H99" s="308"/>
       <c r="I99" s="301"/>
@@ -11741,14 +11789,14 @@
       <c r="P99" s="310"/>
     </row>
     <row r="100" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="400" t="s">
+      <c r="A100" s="403" t="s">
         <v>212</v>
       </c>
-      <c r="B100" s="400"/>
-      <c r="C100" s="400"/>
-      <c r="D100" s="400"/>
-      <c r="E100" s="400"/>
-      <c r="F100" s="400"/>
+      <c r="B100" s="403"/>
+      <c r="C100" s="403"/>
+      <c r="D100" s="403"/>
+      <c r="E100" s="403"/>
+      <c r="F100" s="403"/>
       <c r="G100" s="308"/>
       <c r="H100" s="308"/>
       <c r="I100" s="301"/>
@@ -11765,8 +11813,8 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="312"/>
-      <c r="C101" s="372"/>
-      <c r="D101" s="372"/>
+      <c r="C101" s="436"/>
+      <c r="D101" s="436"/>
       <c r="L101" s="313"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -11777,16 +11825,113 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="P63:P65"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="D78:D87"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="P41:P47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A100:F100"/>
@@ -11811,113 +11956,16 @@
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="A97:F97"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="P41:P47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="P63:P65"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E59:E61"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11980,24 +12028,24 @@
       <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="403" t="s">
+      <c r="A4" s="437" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="403"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="403"/>
+      <c r="B4" s="437"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="437"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="404" t="s">
+      <c r="A5" s="438" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="404"/>
-      <c r="C5" s="404"/>
-      <c r="D5" s="404"/>
-      <c r="E5" s="404"/>
+      <c r="B5" s="438"/>
+      <c r="C5" s="438"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="438"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
@@ -12303,10 +12351,10 @@
       <c r="E26" s="72"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="405" t="s">
+      <c r="A27" s="439" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="405"/>
+      <c r="B27" s="439"/>
       <c r="C27" s="72"/>
       <c r="D27" s="66">
         <f>C26-D26</f>
@@ -12382,83 +12430,83 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="440" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="416"/>
-      <c r="C3" s="416"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="416"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="416"/>
-      <c r="H3" s="416"/>
-      <c r="I3" s="416"/>
-      <c r="J3" s="416"/>
-      <c r="K3" s="416"/>
-      <c r="L3" s="416"/>
-      <c r="M3" s="416"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="416"/>
-      <c r="P3" s="416"/>
+      <c r="B3" s="440"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
+      <c r="I3" s="440"/>
+      <c r="J3" s="440"/>
+      <c r="K3" s="440"/>
+      <c r="L3" s="440"/>
+      <c r="M3" s="440"/>
+      <c r="N3" s="440"/>
+      <c r="O3" s="440"/>
+      <c r="P3" s="440"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="417" t="s">
+      <c r="A4" s="441" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="417"/>
-      <c r="C4" s="417"/>
-      <c r="D4" s="417"/>
-      <c r="E4" s="417"/>
-      <c r="F4" s="417"/>
-      <c r="G4" s="417"/>
-      <c r="H4" s="417"/>
-      <c r="I4" s="417"/>
-      <c r="J4" s="417"/>
-      <c r="K4" s="418"/>
-      <c r="L4" s="417"/>
-      <c r="M4" s="417"/>
-      <c r="N4" s="417"/>
-      <c r="O4" s="417"/>
-      <c r="P4" s="417"/>
+      <c r="B4" s="441"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="441"/>
+      <c r="F4" s="441"/>
+      <c r="G4" s="441"/>
+      <c r="H4" s="441"/>
+      <c r="I4" s="441"/>
+      <c r="J4" s="441"/>
+      <c r="K4" s="442"/>
+      <c r="L4" s="441"/>
+      <c r="M4" s="441"/>
+      <c r="N4" s="441"/>
+      <c r="O4" s="441"/>
+      <c r="P4" s="441"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="406" t="s">
+      <c r="A5" s="443" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="419" t="s">
+      <c r="B5" s="444" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="406" t="s">
+      <c r="C5" s="443" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="406" t="s">
+      <c r="D5" s="443" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="406"/>
-      <c r="F5" s="406"/>
-      <c r="G5" s="420" t="s">
+      <c r="E5" s="443"/>
+      <c r="F5" s="443"/>
+      <c r="G5" s="445" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="420"/>
-      <c r="I5" s="420"/>
-      <c r="J5" s="420"/>
-      <c r="K5" s="421"/>
-      <c r="L5" s="406" t="s">
+      <c r="H5" s="445"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="445"/>
+      <c r="K5" s="446"/>
+      <c r="L5" s="443" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="420" t="s">
+      <c r="M5" s="445" t="s">
         <v>226</v>
       </c>
-      <c r="N5" s="420"/>
-      <c r="O5" s="420"/>
-      <c r="P5" s="406" t="s">
+      <c r="N5" s="445"/>
+      <c r="O5" s="445"/>
+      <c r="P5" s="443" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="406"/>
-      <c r="B6" s="419"/>
-      <c r="C6" s="406"/>
+      <c r="A6" s="443"/>
+      <c r="B6" s="444"/>
+      <c r="C6" s="443"/>
       <c r="D6" s="187" t="s">
         <v>112</v>
       </c>
@@ -12483,7 +12531,7 @@
       <c r="K6" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="406"/>
+      <c r="L6" s="443"/>
       <c r="M6" s="188" t="s">
         <v>235</v>
       </c>
@@ -12493,21 +12541,21 @@
       <c r="O6" s="188" t="s">
         <v>237</v>
       </c>
-      <c r="P6" s="406"/>
+      <c r="P6" s="443"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="410">
+      <c r="A7" s="450">
         <v>1105</v>
       </c>
-      <c r="B7" s="407">
+      <c r="B7" s="447">
         <v>43899</v>
       </c>
-      <c r="C7" s="410"/>
-      <c r="D7" s="410" t="s">
+      <c r="C7" s="450"/>
+      <c r="D7" s="450" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="410"/>
-      <c r="F7" s="410"/>
+      <c r="E7" s="450"/>
+      <c r="F7" s="450"/>
       <c r="G7" s="70" t="s">
         <v>91</v>
       </c>
@@ -12530,17 +12578,17 @@
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="413" t="s">
+      <c r="P7" s="453" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="411"/>
-      <c r="B8" s="408"/>
-      <c r="C8" s="411"/>
-      <c r="D8" s="411"/>
-      <c r="E8" s="411"/>
-      <c r="F8" s="411"/>
+      <c r="A8" s="451"/>
+      <c r="B8" s="448"/>
+      <c r="C8" s="451"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="451"/>
+      <c r="F8" s="451"/>
       <c r="G8" s="192" t="s">
         <v>93</v>
       </c>
@@ -12563,15 +12611,15 @@
       <c r="M8" s="192"/>
       <c r="N8" s="192"/>
       <c r="O8" s="192"/>
-      <c r="P8" s="414"/>
+      <c r="P8" s="454"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="411"/>
-      <c r="B9" s="408"/>
-      <c r="C9" s="411"/>
-      <c r="D9" s="411"/>
-      <c r="E9" s="411"/>
-      <c r="F9" s="411"/>
+      <c r="A9" s="451"/>
+      <c r="B9" s="448"/>
+      <c r="C9" s="451"/>
+      <c r="D9" s="451"/>
+      <c r="E9" s="451"/>
+      <c r="F9" s="451"/>
       <c r="G9" s="192" t="s">
         <v>96</v>
       </c>
@@ -12594,15 +12642,15 @@
       <c r="M9" s="192"/>
       <c r="N9" s="192"/>
       <c r="O9" s="192"/>
-      <c r="P9" s="414"/>
+      <c r="P9" s="454"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="411"/>
-      <c r="B10" s="408"/>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="411"/>
+      <c r="A10" s="451"/>
+      <c r="B10" s="448"/>
+      <c r="C10" s="451"/>
+      <c r="D10" s="451"/>
+      <c r="E10" s="451"/>
+      <c r="F10" s="451"/>
       <c r="G10" s="192" t="s">
         <v>101</v>
       </c>
@@ -12625,15 +12673,15 @@
       <c r="M10" s="192"/>
       <c r="N10" s="192"/>
       <c r="O10" s="192"/>
-      <c r="P10" s="414"/>
+      <c r="P10" s="454"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="411"/>
-      <c r="B11" s="408"/>
-      <c r="C11" s="411"/>
-      <c r="D11" s="411"/>
-      <c r="E11" s="411"/>
-      <c r="F11" s="411"/>
+      <c r="A11" s="451"/>
+      <c r="B11" s="448"/>
+      <c r="C11" s="451"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="451"/>
+      <c r="F11" s="451"/>
       <c r="G11" s="192" t="s">
         <v>100</v>
       </c>
@@ -12656,15 +12704,15 @@
       <c r="M11" s="192"/>
       <c r="N11" s="192"/>
       <c r="O11" s="192"/>
-      <c r="P11" s="414"/>
+      <c r="P11" s="454"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="411"/>
-      <c r="B12" s="408"/>
-      <c r="C12" s="411"/>
-      <c r="D12" s="411"/>
-      <c r="E12" s="411"/>
-      <c r="F12" s="411"/>
+      <c r="A12" s="451"/>
+      <c r="B12" s="448"/>
+      <c r="C12" s="451"/>
+      <c r="D12" s="451"/>
+      <c r="E12" s="451"/>
+      <c r="F12" s="451"/>
       <c r="G12" s="192" t="s">
         <v>94</v>
       </c>
@@ -12687,15 +12735,15 @@
       <c r="M12" s="192"/>
       <c r="N12" s="192"/>
       <c r="O12" s="192"/>
-      <c r="P12" s="414"/>
+      <c r="P12" s="454"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="411"/>
-      <c r="B13" s="408"/>
-      <c r="C13" s="411"/>
-      <c r="D13" s="411"/>
-      <c r="E13" s="411"/>
-      <c r="F13" s="411"/>
+      <c r="A13" s="451"/>
+      <c r="B13" s="448"/>
+      <c r="C13" s="451"/>
+      <c r="D13" s="451"/>
+      <c r="E13" s="451"/>
+      <c r="F13" s="451"/>
       <c r="G13" s="192" t="s">
         <v>133</v>
       </c>
@@ -12718,15 +12766,15 @@
       <c r="M13" s="192"/>
       <c r="N13" s="192"/>
       <c r="O13" s="192"/>
-      <c r="P13" s="414"/>
+      <c r="P13" s="454"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="411"/>
-      <c r="B14" s="408"/>
-      <c r="C14" s="411"/>
-      <c r="D14" s="411"/>
-      <c r="E14" s="411"/>
-      <c r="F14" s="411"/>
+      <c r="A14" s="451"/>
+      <c r="B14" s="448"/>
+      <c r="C14" s="451"/>
+      <c r="D14" s="451"/>
+      <c r="E14" s="451"/>
+      <c r="F14" s="451"/>
       <c r="G14" s="192" t="s">
         <v>95</v>
       </c>
@@ -12749,15 +12797,15 @@
       <c r="M14" s="192"/>
       <c r="N14" s="192"/>
       <c r="O14" s="192"/>
-      <c r="P14" s="414"/>
+      <c r="P14" s="454"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
-      <c r="B15" s="409"/>
-      <c r="C15" s="412"/>
-      <c r="D15" s="412"/>
-      <c r="E15" s="412"/>
-      <c r="F15" s="412"/>
+      <c r="A15" s="452"/>
+      <c r="B15" s="449"/>
+      <c r="C15" s="452"/>
+      <c r="D15" s="452"/>
+      <c r="E15" s="452"/>
+      <c r="F15" s="452"/>
       <c r="G15" s="195" t="s">
         <v>124</v>
       </c>
@@ -12780,23 +12828,23 @@
       <c r="M15" s="195"/>
       <c r="N15" s="195"/>
       <c r="O15" s="195"/>
-      <c r="P15" s="415"/>
+      <c r="P15" s="455"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="410">
+      <c r="A16" s="450">
         <v>1085</v>
       </c>
-      <c r="B16" s="407">
+      <c r="B16" s="447">
         <v>43908</v>
       </c>
-      <c r="C16" s="410"/>
-      <c r="D16" s="410" t="s">
+      <c r="C16" s="450"/>
+      <c r="D16" s="450" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="410" t="s">
+      <c r="E16" s="450" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="410"/>
+      <c r="F16" s="450"/>
       <c r="G16" s="198" t="s">
         <v>94</v>
       </c>
@@ -12819,17 +12867,17 @@
       <c r="M16" s="198"/>
       <c r="N16" s="198"/>
       <c r="O16" s="198"/>
-      <c r="P16" s="413" t="s">
+      <c r="P16" s="453" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="411"/>
-      <c r="B17" s="408"/>
-      <c r="C17" s="411"/>
-      <c r="D17" s="411"/>
-      <c r="E17" s="411"/>
-      <c r="F17" s="411"/>
+      <c r="A17" s="451"/>
+      <c r="B17" s="448"/>
+      <c r="C17" s="451"/>
+      <c r="D17" s="451"/>
+      <c r="E17" s="451"/>
+      <c r="F17" s="451"/>
       <c r="G17" s="198" t="s">
         <v>98</v>
       </c>
@@ -12853,15 +12901,15 @@
       <c r="M17" s="198"/>
       <c r="N17" s="198"/>
       <c r="O17" s="198"/>
-      <c r="P17" s="414"/>
+      <c r="P17" s="454"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="412"/>
-      <c r="B18" s="409"/>
-      <c r="C18" s="412"/>
-      <c r="D18" s="412"/>
-      <c r="E18" s="412"/>
-      <c r="F18" s="412"/>
+      <c r="A18" s="452"/>
+      <c r="B18" s="449"/>
+      <c r="C18" s="452"/>
+      <c r="D18" s="452"/>
+      <c r="E18" s="452"/>
+      <c r="F18" s="452"/>
       <c r="G18" s="195" t="s">
         <v>91</v>
       </c>
@@ -12885,21 +12933,21 @@
       <c r="M18" s="195"/>
       <c r="N18" s="195"/>
       <c r="O18" s="195"/>
-      <c r="P18" s="415"/>
+      <c r="P18" s="455"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="410">
+      <c r="A19" s="450">
         <v>1107</v>
       </c>
-      <c r="B19" s="407">
+      <c r="B19" s="447">
         <v>43864</v>
       </c>
-      <c r="C19" s="410"/>
-      <c r="D19" s="413" t="s">
+      <c r="C19" s="450"/>
+      <c r="D19" s="453" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="410"/>
-      <c r="F19" s="410"/>
+      <c r="E19" s="450"/>
+      <c r="F19" s="450"/>
       <c r="G19" s="70" t="s">
         <v>92</v>
       </c>
@@ -12925,12 +12973,12 @@
       <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="411"/>
-      <c r="B20" s="408"/>
-      <c r="C20" s="411"/>
-      <c r="D20" s="414"/>
-      <c r="E20" s="411"/>
-      <c r="F20" s="411"/>
+      <c r="A20" s="451"/>
+      <c r="B20" s="448"/>
+      <c r="C20" s="451"/>
+      <c r="D20" s="454"/>
+      <c r="E20" s="451"/>
+      <c r="F20" s="451"/>
       <c r="G20" s="192" t="s">
         <v>93</v>
       </c>
@@ -12956,12 +13004,12 @@
       <c r="P20" s="192"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="411"/>
-      <c r="B21" s="408"/>
-      <c r="C21" s="411"/>
-      <c r="D21" s="414"/>
-      <c r="E21" s="411"/>
-      <c r="F21" s="411"/>
+      <c r="A21" s="451"/>
+      <c r="B21" s="448"/>
+      <c r="C21" s="451"/>
+      <c r="D21" s="454"/>
+      <c r="E21" s="451"/>
+      <c r="F21" s="451"/>
       <c r="G21" s="192" t="s">
         <v>96</v>
       </c>
@@ -12987,12 +13035,12 @@
       <c r="P21" s="192"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="412"/>
-      <c r="B22" s="409"/>
-      <c r="C22" s="412"/>
-      <c r="D22" s="415"/>
-      <c r="E22" s="412"/>
-      <c r="F22" s="412"/>
+      <c r="A22" s="452"/>
+      <c r="B22" s="449"/>
+      <c r="C22" s="452"/>
+      <c r="D22" s="455"/>
+      <c r="E22" s="452"/>
+      <c r="F22" s="452"/>
       <c r="G22" s="195" t="s">
         <v>101</v>
       </c>
@@ -13058,14 +13106,14 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="215" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="406" t="s">
+      <c r="A24" s="443" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="406"/>
-      <c r="C24" s="406"/>
-      <c r="D24" s="406"/>
-      <c r="E24" s="406"/>
-      <c r="F24" s="406"/>
+      <c r="B24" s="443"/>
+      <c r="C24" s="443"/>
+      <c r="D24" s="443"/>
+      <c r="E24" s="443"/>
+      <c r="F24" s="443"/>
       <c r="G24" s="211"/>
       <c r="H24" s="212">
         <f>SUM(H7:H23)</f>
@@ -13131,21 +13179,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P7:P15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -13162,6 +13195,21 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P7:P15"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13224,17 +13272,17 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="459" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="459"/>
+      <c r="G4" s="459"/>
+      <c r="H4" s="459"/>
+      <c r="I4" s="459"/>
       <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13250,33 +13298,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="430" t="s">
+      <c r="A6" s="460" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="461" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="430" t="s">
+      <c r="C6" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="432" t="s">
+      <c r="D6" s="462" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="432"/>
-      <c r="F6" s="432"/>
-      <c r="G6" s="432"/>
-      <c r="H6" s="433"/>
-      <c r="I6" s="430" t="s">
+      <c r="E6" s="462"/>
+      <c r="F6" s="462"/>
+      <c r="G6" s="462"/>
+      <c r="H6" s="463"/>
+      <c r="I6" s="460" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="427" t="s">
+      <c r="J6" s="457" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="430"/>
-      <c r="B7" s="431"/>
-      <c r="C7" s="430"/>
+      <c r="A7" s="460"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="460"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13292,8 +13340,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="430"/>
-      <c r="J7" s="428"/>
+      <c r="I7" s="460"/>
+      <c r="J7" s="458"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
@@ -13329,10 +13377,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="125"/>
-      <c r="B9" s="426" t="s">
+      <c r="B9" s="456" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="426"/>
+      <c r="C9" s="456"/>
       <c r="D9" s="125"/>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
@@ -13348,17 +13396,17 @@
       <c r="J9" s="140"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="422" t="s">
+      <c r="A10" s="464" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="423"/>
-      <c r="C10" s="423"/>
-      <c r="D10" s="423"/>
-      <c r="E10" s="423"/>
-      <c r="F10" s="423"/>
-      <c r="G10" s="423"/>
-      <c r="H10" s="423"/>
-      <c r="I10" s="424"/>
+      <c r="B10" s="465"/>
+      <c r="C10" s="465"/>
+      <c r="D10" s="465"/>
+      <c r="E10" s="465"/>
+      <c r="F10" s="465"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="465"/>
+      <c r="I10" s="466"/>
       <c r="J10" s="141">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
@@ -13382,17 +13430,20 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="425"/>
-      <c r="B17" s="425"/>
-      <c r="C17" s="425"/>
-      <c r="E17" s="425"/>
-      <c r="F17" s="425"/>
-      <c r="G17" s="425"/>
-      <c r="H17" s="425"/>
-      <c r="I17" s="425"/>
+      <c r="A17" s="467"/>
+      <c r="B17" s="467"/>
+      <c r="C17" s="467"/>
+      <c r="E17" s="467"/>
+      <c r="F17" s="467"/>
+      <c r="G17" s="467"/>
+      <c r="H17" s="467"/>
+      <c r="I17" s="467"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -13401,9 +13452,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13467,18 +13515,18 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="459" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
-      <c r="J4" s="429"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="459"/>
+      <c r="G4" s="459"/>
+      <c r="H4" s="459"/>
+      <c r="I4" s="459"/>
+      <c r="J4" s="459"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="88"/>
@@ -13493,33 +13541,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="430" t="s">
+      <c r="A6" s="460" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="472" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="430" t="s">
+      <c r="C6" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="432" t="s">
+      <c r="D6" s="462" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="432"/>
-      <c r="F6" s="432"/>
-      <c r="G6" s="432"/>
-      <c r="H6" s="433"/>
-      <c r="I6" s="430" t="s">
+      <c r="E6" s="462"/>
+      <c r="F6" s="462"/>
+      <c r="G6" s="462"/>
+      <c r="H6" s="463"/>
+      <c r="I6" s="460" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="427" t="s">
+      <c r="J6" s="457" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="430"/>
-      <c r="B7" s="437"/>
-      <c r="C7" s="430"/>
+      <c r="A7" s="460"/>
+      <c r="B7" s="472"/>
+      <c r="C7" s="460"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13535,8 +13583,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="430"/>
-      <c r="J7" s="428"/>
+      <c r="I7" s="460"/>
+      <c r="J7" s="458"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
@@ -13603,13 +13651,13 @@
       <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="485">
+      <c r="A10" s="476">
         <v>1060</v>
       </c>
-      <c r="B10" s="486">
+      <c r="B10" s="479">
         <v>43900</v>
       </c>
-      <c r="C10" s="485" t="s">
+      <c r="C10" s="476" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="173" t="s">
@@ -13635,9 +13683,9 @@
       <c r="J10" s="174"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="490"/>
-      <c r="B11" s="491"/>
-      <c r="C11" s="490"/>
+      <c r="A11" s="477"/>
+      <c r="B11" s="480"/>
+      <c r="C11" s="477"/>
       <c r="D11" s="176" t="s">
         <v>93</v>
       </c>
@@ -13662,9 +13710,9 @@
       <c r="M11" s="142"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="487"/>
-      <c r="B12" s="488"/>
-      <c r="C12" s="487"/>
+      <c r="A12" s="478"/>
+      <c r="B12" s="481"/>
+      <c r="C12" s="478"/>
       <c r="D12" s="107" t="s">
         <v>94</v>
       </c>
@@ -13685,7 +13733,7 @@
         <f t="shared" si="1"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="J12" s="489"/>
+      <c r="J12" s="377"/>
       <c r="M12" s="142"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13817,13 +13865,13 @@
       <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:10" s="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="492">
+      <c r="A17" s="468">
         <v>1078</v>
       </c>
-      <c r="B17" s="493">
+      <c r="B17" s="470">
         <v>43907</v>
       </c>
-      <c r="C17" s="492" t="s">
+      <c r="C17" s="468" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="112" t="s">
@@ -13846,12 +13894,12 @@
         <f t="shared" si="1"/>
         <v>274350.00000000006</v>
       </c>
-      <c r="J17" s="494"/>
+      <c r="J17" s="378"/>
     </row>
     <row r="18" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="495"/>
-      <c r="B18" s="496"/>
-      <c r="C18" s="495"/>
+      <c r="A18" s="469"/>
+      <c r="B18" s="471"/>
+      <c r="C18" s="469"/>
       <c r="D18" s="162" t="s">
         <v>95</v>
       </c>
@@ -13872,16 +13920,16 @@
         <f t="shared" si="1"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="J18" s="497"/>
+      <c r="J18" s="379"/>
     </row>
     <row r="19" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="492">
+      <c r="A19" s="468">
         <v>1080</v>
       </c>
-      <c r="B19" s="493">
+      <c r="B19" s="470">
         <v>43908</v>
       </c>
-      <c r="C19" s="492"/>
+      <c r="C19" s="468"/>
       <c r="D19" s="112" t="s">
         <v>97</v>
       </c>
@@ -13902,12 +13950,12 @@
         <f t="shared" si="1"/>
         <v>168150.00000000003</v>
       </c>
-      <c r="J19" s="494"/>
+      <c r="J19" s="378"/>
     </row>
     <row r="20" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="495"/>
-      <c r="B20" s="496"/>
-      <c r="C20" s="495"/>
+      <c r="A20" s="469"/>
+      <c r="B20" s="471"/>
+      <c r="C20" s="469"/>
       <c r="D20" s="162" t="s">
         <v>98</v>
       </c>
@@ -13928,7 +13976,7 @@
         <f t="shared" si="1"/>
         <v>150450.00000000003</v>
       </c>
-      <c r="J20" s="497"/>
+      <c r="J20" s="379"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="338">
@@ -13963,13 +14011,13 @@
       <c r="J21" s="136"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="485">
+      <c r="A22" s="476">
         <v>1086</v>
       </c>
-      <c r="B22" s="486">
+      <c r="B22" s="479">
         <v>43909</v>
       </c>
-      <c r="C22" s="485" t="s">
+      <c r="C22" s="476" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="173" t="s">
@@ -13995,9 +14043,9 @@
       <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="490"/>
-      <c r="B23" s="491"/>
-      <c r="C23" s="490"/>
+      <c r="A23" s="477"/>
+      <c r="B23" s="480"/>
+      <c r="C23" s="477"/>
       <c r="D23" s="176" t="s">
         <v>93</v>
       </c>
@@ -14021,9 +14069,9 @@
       <c r="J23" s="177"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="487"/>
-      <c r="B24" s="488"/>
-      <c r="C24" s="487"/>
+      <c r="A24" s="478"/>
+      <c r="B24" s="481"/>
+      <c r="C24" s="478"/>
       <c r="D24" s="107" t="s">
         <v>100</v>
       </c>
@@ -14044,7 +14092,7 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="J24" s="489"/>
+      <c r="J24" s="377"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
@@ -14079,7 +14127,7 @@
       <c r="J25" s="125"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="482"/>
+      <c r="A26" s="374"/>
       <c r="B26" s="158"/>
       <c r="C26" s="91" t="s">
         <v>99</v>
@@ -14096,7 +14144,7 @@
       <c r="J26" s="97"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="482"/>
+      <c r="A27" s="374"/>
       <c r="B27" s="158"/>
       <c r="C27" s="91" t="s">
         <v>99</v>
@@ -14113,7 +14161,7 @@
       <c r="J27" s="98"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="483"/>
+      <c r="A28" s="375"/>
       <c r="B28" s="159"/>
       <c r="C28" s="91" t="s">
         <v>99</v>
@@ -14130,7 +14178,7 @@
       <c r="J28" s="98"/>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="482"/>
+      <c r="A29" s="374"/>
       <c r="B29" s="158"/>
       <c r="C29" s="91" t="s">
         <v>99</v>
@@ -14152,7 +14200,7 @@
       <c r="J29" s="98"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="483"/>
+      <c r="A30" s="375"/>
       <c r="B30" s="159"/>
       <c r="C30" s="91" t="s">
         <v>99</v>
@@ -14174,7 +14222,7 @@
       <c r="J30" s="98"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="483"/>
+      <c r="A31" s="375"/>
       <c r="B31" s="159"/>
       <c r="C31" s="91" t="s">
         <v>99</v>
@@ -14196,7 +14244,7 @@
       <c r="J31" s="98"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="483"/>
+      <c r="A32" s="375"/>
       <c r="B32" s="159"/>
       <c r="C32" s="91" t="s">
         <v>99</v>
@@ -14218,7 +14266,7 @@
       <c r="J32" s="98"/>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="483"/>
+      <c r="A33" s="375"/>
       <c r="B33" s="159"/>
       <c r="C33" s="91" t="s">
         <v>99</v>
@@ -14240,7 +14288,7 @@
       <c r="J33" s="98"/>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="484"/>
+      <c r="A34" s="376"/>
       <c r="B34" s="160"/>
       <c r="C34" s="91" t="s">
         <v>99</v>
@@ -14262,13 +14310,13 @@
       <c r="J34" s="123"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="485">
+      <c r="A35" s="476">
         <v>1122</v>
       </c>
-      <c r="B35" s="486">
+      <c r="B35" s="479">
         <v>43917</v>
       </c>
-      <c r="C35" s="485" t="s">
+      <c r="C35" s="476" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="173" t="s">
@@ -14294,9 +14342,9 @@
       <c r="J35" s="97"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="487"/>
-      <c r="B36" s="488"/>
-      <c r="C36" s="487"/>
+      <c r="A36" s="478"/>
+      <c r="B36" s="481"/>
+      <c r="C36" s="478"/>
       <c r="D36" s="107" t="s">
         <v>101</v>
       </c>
@@ -14317,46 +14365,46 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="J36" s="489"/>
+      <c r="J36" s="377"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="434" t="s">
+      <c r="A37" s="473" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="435"/>
-      <c r="C37" s="435"/>
-      <c r="D37" s="435"/>
-      <c r="E37" s="435"/>
-      <c r="F37" s="435"/>
-      <c r="G37" s="435"/>
-      <c r="H37" s="435"/>
-      <c r="I37" s="436"/>
+      <c r="B37" s="474"/>
+      <c r="C37" s="474"/>
+      <c r="D37" s="474"/>
+      <c r="E37" s="474"/>
+      <c r="F37" s="474"/>
+      <c r="G37" s="474"/>
+      <c r="H37" s="474"/>
+      <c r="I37" s="475"/>
       <c r="J37" s="137">
         <v>7000000</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="434" t="s">
+      <c r="A38" s="473" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="435"/>
-      <c r="C38" s="435"/>
-      <c r="D38" s="435"/>
-      <c r="E38" s="435"/>
-      <c r="F38" s="435"/>
-      <c r="G38" s="435"/>
-      <c r="H38" s="435"/>
-      <c r="I38" s="436"/>
+      <c r="B38" s="474"/>
+      <c r="C38" s="474"/>
+      <c r="D38" s="474"/>
+      <c r="E38" s="474"/>
+      <c r="F38" s="474"/>
+      <c r="G38" s="474"/>
+      <c r="H38" s="474"/>
+      <c r="I38" s="475"/>
       <c r="J38" s="137">
         <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="125"/>
-      <c r="B39" s="426" t="s">
+      <c r="B39" s="456" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="426"/>
+      <c r="C39" s="456"/>
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -14375,17 +14423,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="422" t="s">
+      <c r="A40" s="464" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="423"/>
-      <c r="C40" s="423"/>
-      <c r="D40" s="423"/>
-      <c r="E40" s="423"/>
-      <c r="F40" s="423"/>
-      <c r="G40" s="423"/>
-      <c r="H40" s="423"/>
-      <c r="I40" s="424"/>
+      <c r="B40" s="465"/>
+      <c r="C40" s="465"/>
+      <c r="D40" s="465"/>
+      <c r="E40" s="465"/>
+      <c r="F40" s="465"/>
+      <c r="G40" s="465"/>
+      <c r="H40" s="465"/>
+      <c r="I40" s="466"/>
       <c r="J40" s="141">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
@@ -14409,26 +14457,20 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="425"/>
-      <c r="B47" s="425"/>
-      <c r="C47" s="425"/>
-      <c r="E47" s="425"/>
-      <c r="F47" s="425"/>
-      <c r="G47" s="425"/>
-      <c r="H47" s="425"/>
-      <c r="I47" s="425"/>
+      <c r="A47" s="467"/>
+      <c r="B47" s="467"/>
+      <c r="C47" s="467"/>
+      <c r="E47" s="467"/>
+      <c r="F47" s="467"/>
+      <c r="G47" s="467"/>
+      <c r="H47" s="467"/>
+      <c r="I47" s="467"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="B39:C39"/>
@@ -14445,9 +14487,15 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.7" top="0.31" bottom="0.32" header="0.27" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14458,7 +14506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -15298,36 +15346,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="446" t="s">
+      <c r="A1" s="483" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="446"/>
-      <c r="C1" s="446"/>
-      <c r="D1" s="446"/>
-      <c r="F1" s="439" t="s">
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="483"/>
+      <c r="F1" s="484" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="439"/>
-      <c r="H1" s="439"/>
-      <c r="I1" s="439"/>
-      <c r="J1" s="439"/>
-      <c r="K1" s="439"/>
+      <c r="G1" s="484"/>
+      <c r="H1" s="484"/>
+      <c r="I1" s="484"/>
+      <c r="J1" s="484"/>
+      <c r="K1" s="484"/>
     </row>
     <row r="2" spans="1:12" s="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="440" t="s">
+      <c r="A2" s="485" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="F2" s="441" t="s">
+      <c r="B2" s="485"/>
+      <c r="C2" s="485"/>
+      <c r="D2" s="485"/>
+      <c r="F2" s="486" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="441"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="441"/>
-      <c r="J2" s="441"/>
-      <c r="K2" s="441"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
     </row>
     <row r="3" spans="1:12" s="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="144"/>
@@ -15340,401 +15388,401 @@
       <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:12" s="147" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="487" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="442"/>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
-      <c r="I4" s="442"/>
-      <c r="J4" s="442"/>
-      <c r="K4" s="442"/>
-      <c r="L4" s="442"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="487"/>
+      <c r="D4" s="487"/>
+      <c r="E4" s="487"/>
+      <c r="F4" s="487"/>
+      <c r="G4" s="487"/>
+      <c r="H4" s="487"/>
+      <c r="I4" s="487"/>
+      <c r="J4" s="487"/>
+      <c r="K4" s="487"/>
+      <c r="L4" s="487"/>
     </row>
     <row r="5" spans="1:12" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="443" t="s">
+      <c r="A5" s="488" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="443"/>
-      <c r="C5" s="443"/>
-      <c r="D5" s="443"/>
-      <c r="E5" s="443"/>
-      <c r="F5" s="443"/>
-      <c r="G5" s="443"/>
-      <c r="H5" s="443"/>
-      <c r="I5" s="443"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="443"/>
-      <c r="L5" s="443"/>
+      <c r="B5" s="488"/>
+      <c r="C5" s="488"/>
+      <c r="D5" s="488"/>
+      <c r="E5" s="488"/>
+      <c r="F5" s="488"/>
+      <c r="G5" s="488"/>
+      <c r="H5" s="488"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="488"/>
+      <c r="K5" s="488"/>
+      <c r="L5" s="488"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="444" t="s">
+      <c r="J6" s="489" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="444"/>
-      <c r="L6" s="444"/>
-    </row>
-    <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="451" t="s">
+      <c r="K6" s="489"/>
+      <c r="L6" s="489"/>
+    </row>
+    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="350" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="351" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="452" t="s">
+      <c r="C7" s="351" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="452" t="s">
+      <c r="D7" s="351" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="451" t="s">
+      <c r="E7" s="350" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="451" t="s">
+      <c r="F7" s="350" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="451" t="s">
+      <c r="G7" s="350" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="451" t="s">
+      <c r="H7" s="350" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="451" t="s">
+      <c r="I7" s="350" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="451" t="s">
+      <c r="J7" s="350" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="453" t="s">
+      <c r="K7" s="352" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="451" t="s">
+      <c r="L7" s="350" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="454"/>
-      <c r="B8" s="455"/>
-      <c r="C8" s="456"/>
-      <c r="D8" s="456"/>
-      <c r="E8" s="457"/>
-      <c r="F8" s="458" t="s">
+      <c r="A8" s="353"/>
+      <c r="B8" s="354"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="356"/>
+      <c r="F8" s="357" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="458" t="s">
+      <c r="G8" s="357" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="458" t="s">
+      <c r="H8" s="357" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="458" t="s">
+      <c r="I8" s="357" t="s">
         <v>223</v>
       </c>
-      <c r="J8" s="459" t="s">
+      <c r="J8" s="358" t="s">
         <v>224</v>
       </c>
-      <c r="K8" s="456"/>
-      <c r="L8" s="457"/>
+      <c r="K8" s="355"/>
+      <c r="L8" s="356"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="460" t="s">
+      <c r="A9" s="490" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="461"/>
-      <c r="C9" s="456"/>
-      <c r="D9" s="456"/>
-      <c r="E9" s="457"/>
-      <c r="F9" s="462">
+      <c r="B9" s="491"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="355"/>
+      <c r="E9" s="356"/>
+      <c r="F9" s="359">
         <f>SUM(F10:F13)</f>
         <v>40000000</v>
       </c>
-      <c r="G9" s="462">
+      <c r="G9" s="359">
         <f t="shared" ref="G9:J9" si="0">SUM(G10:G13)</f>
         <v>858450.00000000012</v>
       </c>
-      <c r="H9" s="462">
+      <c r="H9" s="359">
         <f t="shared" si="0"/>
         <v>14100000</v>
       </c>
-      <c r="I9" s="462">
+      <c r="I9" s="359">
         <f t="shared" si="0"/>
         <v>13584615</v>
       </c>
-      <c r="J9" s="462">
+      <c r="J9" s="359">
         <f t="shared" si="0"/>
         <v>38626165</v>
       </c>
-      <c r="K9" s="456"/>
-      <c r="L9" s="457"/>
+      <c r="K9" s="355"/>
+      <c r="L9" s="356"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="447">
+      <c r="A10" s="346">
         <v>1</v>
       </c>
-      <c r="B10" s="447" t="s">
+      <c r="B10" s="346" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="448" t="s">
+      <c r="C10" s="347" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="449">
+      <c r="D10" s="348">
         <v>15000000</v>
       </c>
-      <c r="E10" s="450">
+      <c r="E10" s="349">
         <v>26</v>
       </c>
-      <c r="F10" s="449">
+      <c r="F10" s="348">
         <f>D10/26*E10</f>
         <v>14999999.999999998</v>
       </c>
-      <c r="G10" s="450"/>
-      <c r="H10" s="450"/>
-      <c r="I10" s="450">
+      <c r="G10" s="349"/>
+      <c r="H10" s="349"/>
+      <c r="I10" s="349">
         <v>0</v>
       </c>
-      <c r="J10" s="450">
+      <c r="J10" s="349">
         <f>F10-G10-H10+I10</f>
         <v>14999999.999999998</v>
       </c>
-      <c r="K10" s="450"/>
-      <c r="L10" s="447"/>
+      <c r="K10" s="349"/>
+      <c r="L10" s="346"/>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="447">
+      <c r="A11" s="346">
         <v>2</v>
       </c>
-      <c r="B11" s="447" t="s">
+      <c r="B11" s="346" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="448" t="s">
+      <c r="C11" s="347" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="449">
+      <c r="D11" s="348">
         <v>10000000</v>
       </c>
-      <c r="E11" s="450">
+      <c r="E11" s="349">
         <v>26</v>
       </c>
-      <c r="F11" s="449">
+      <c r="F11" s="348">
         <f>D11/26*E11</f>
         <v>10000000</v>
       </c>
-      <c r="G11" s="450"/>
-      <c r="H11" s="450">
+      <c r="G11" s="349"/>
+      <c r="H11" s="349">
         <f>3000000+5000000+4100000</f>
         <v>12100000</v>
       </c>
-      <c r="I11" s="450">
+      <c r="I11" s="349">
         <v>2738461</v>
       </c>
-      <c r="J11" s="450">
+      <c r="J11" s="349">
         <f>F11-G11-H11+I11</f>
         <v>638461</v>
       </c>
-      <c r="K11" s="450"/>
-      <c r="L11" s="447"/>
+      <c r="K11" s="349"/>
+      <c r="L11" s="346"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="447">
+      <c r="A12" s="346">
         <v>3</v>
       </c>
-      <c r="B12" s="447" t="s">
+      <c r="B12" s="346" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="448" t="s">
+      <c r="C12" s="347" t="s">
         <v>320</v>
       </c>
-      <c r="D12" s="449">
+      <c r="D12" s="348">
         <v>10000000</v>
       </c>
-      <c r="E12" s="450">
+      <c r="E12" s="349">
         <v>26</v>
       </c>
-      <c r="F12" s="449">
+      <c r="F12" s="348">
         <f>D12/26*E12</f>
         <v>10000000</v>
       </c>
-      <c r="G12" s="450"/>
-      <c r="H12" s="450">
+      <c r="G12" s="349"/>
+      <c r="H12" s="349">
         <v>2000000</v>
       </c>
-      <c r="I12" s="450">
+      <c r="I12" s="349">
         <v>10846154</v>
       </c>
-      <c r="J12" s="450">
+      <c r="J12" s="349">
         <f>F12-H12+I12</f>
         <v>18846154</v>
       </c>
-      <c r="K12" s="450"/>
-      <c r="L12" s="447"/>
+      <c r="K12" s="349"/>
+      <c r="L12" s="346"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="447">
+      <c r="A13" s="346">
         <v>4</v>
       </c>
-      <c r="B13" s="447" t="s">
+      <c r="B13" s="346" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="448" t="s">
+      <c r="C13" s="347" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="449">
+      <c r="D13" s="348">
         <v>5000000</v>
       </c>
-      <c r="E13" s="450">
+      <c r="E13" s="349">
         <v>26</v>
       </c>
-      <c r="F13" s="449">
+      <c r="F13" s="348">
         <f>D13/26*E13</f>
         <v>5000000</v>
       </c>
-      <c r="G13" s="450">
+      <c r="G13" s="349">
         <f>'Tiền hàng Hằng'!J10</f>
         <v>858450.00000000012</v>
       </c>
-      <c r="H13" s="450"/>
-      <c r="I13" s="450">
+      <c r="H13" s="349"/>
+      <c r="I13" s="349">
         <v>0</v>
       </c>
-      <c r="J13" s="450">
+      <c r="J13" s="349">
         <f>F13-G13-H13</f>
         <v>4141550</v>
       </c>
-      <c r="K13" s="450"/>
-      <c r="L13" s="447"/>
+      <c r="K13" s="349"/>
+      <c r="L13" s="346"/>
     </row>
     <row r="14" spans="1:12" s="150" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="463" t="s">
+      <c r="A14" s="492" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="464"/>
-      <c r="C14" s="465"/>
-      <c r="D14" s="466"/>
-      <c r="E14" s="467"/>
-      <c r="F14" s="462">
+      <c r="B14" s="493"/>
+      <c r="C14" s="360"/>
+      <c r="D14" s="361"/>
+      <c r="E14" s="362"/>
+      <c r="F14" s="359">
         <f>SUM(F15:F16)</f>
         <v>14423076.923076924</v>
       </c>
-      <c r="G14" s="462">
+      <c r="G14" s="359">
         <f t="shared" ref="G14:J14" si="1">SUM(G15:G16)</f>
         <v>1738000.0000000019</v>
       </c>
-      <c r="H14" s="462">
+      <c r="H14" s="359">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="462">
+      <c r="I14" s="359">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="462">
+      <c r="J14" s="359">
         <f t="shared" si="1"/>
         <v>12685076.92307692</v>
       </c>
-      <c r="K14" s="467"/>
-      <c r="L14" s="468"/>
+      <c r="K14" s="362"/>
+      <c r="L14" s="363"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="469">
+      <c r="A15" s="364">
         <v>1</v>
       </c>
-      <c r="B15" s="469" t="s">
+      <c r="B15" s="364" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="470" t="s">
+      <c r="C15" s="365" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="471">
+      <c r="D15" s="366">
         <v>10000000</v>
       </c>
-      <c r="E15" s="472">
+      <c r="E15" s="367">
         <v>26</v>
       </c>
-      <c r="F15" s="449">
+      <c r="F15" s="348">
         <f>D15/26*E15</f>
         <v>10000000</v>
       </c>
-      <c r="G15" s="472"/>
-      <c r="H15" s="472"/>
-      <c r="I15" s="472">
+      <c r="G15" s="367"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367">
         <v>0</v>
       </c>
-      <c r="J15" s="450">
+      <c r="J15" s="349">
         <f>F15-G15-H15</f>
         <v>10000000</v>
       </c>
-      <c r="K15" s="472"/>
-      <c r="L15" s="469"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="473">
+      <c r="K15" s="367"/>
+      <c r="L15" s="364"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="368">
         <v>2</v>
       </c>
-      <c r="B16" s="473" t="s">
+      <c r="B16" s="368" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="474" t="s">
+      <c r="C16" s="369" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="475">
+      <c r="D16" s="370">
         <v>5000000</v>
       </c>
-      <c r="E16" s="476">
+      <c r="E16" s="371">
         <v>23</v>
       </c>
-      <c r="F16" s="475">
+      <c r="F16" s="370">
         <f>D16/26*E16</f>
         <v>4423076.923076923</v>
       </c>
-      <c r="G16" s="476">
+      <c r="G16" s="371">
         <f>'Tiền hàng Tâm'!J40</f>
         <v>1738000.0000000019</v>
       </c>
-      <c r="H16" s="476"/>
-      <c r="I16" s="476">
+      <c r="H16" s="371"/>
+      <c r="I16" s="371">
         <v>0</v>
       </c>
-      <c r="J16" s="476">
+      <c r="J16" s="371">
         <f>F16-G16-H16</f>
         <v>2685076.9230769211</v>
       </c>
-      <c r="K16" s="476"/>
-      <c r="L16" s="473"/>
+      <c r="K16" s="371"/>
+      <c r="L16" s="368"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="477" t="s">
+      <c r="A17" s="495" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="478"/>
-      <c r="C17" s="478"/>
-      <c r="D17" s="478"/>
-      <c r="E17" s="479"/>
-      <c r="F17" s="480">
+      <c r="B17" s="496"/>
+      <c r="C17" s="496"/>
+      <c r="D17" s="496"/>
+      <c r="E17" s="497"/>
+      <c r="F17" s="372">
         <f>F9+F14</f>
         <v>54423076.923076928</v>
       </c>
-      <c r="G17" s="480">
+      <c r="G17" s="372">
         <f t="shared" ref="G17:J17" si="2">G9+G14</f>
         <v>2596450.0000000019</v>
       </c>
-      <c r="H17" s="480">
+      <c r="H17" s="372">
         <f t="shared" si="2"/>
         <v>14100000</v>
       </c>
-      <c r="I17" s="480">
+      <c r="I17" s="372">
         <f t="shared" si="2"/>
         <v>13584615</v>
       </c>
-      <c r="J17" s="480">
+      <c r="J17" s="372">
         <f t="shared" si="2"/>
         <v>51311241.92307692</v>
       </c>
-      <c r="K17" s="481"/>
-      <c r="L17" s="481"/>
+      <c r="K17" s="373"/>
+      <c r="L17" s="373"/>
     </row>
     <row r="19" spans="1:12" s="151" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="341" t="s">
@@ -15746,12 +15794,12 @@
         <v>165</v>
       </c>
       <c r="G19" s="341"/>
-      <c r="H19" s="445" t="s">
+      <c r="H19" s="494" t="s">
         <v>318</v>
       </c>
-      <c r="I19" s="445"/>
-      <c r="J19" s="445"/>
-      <c r="K19" s="445"/>
+      <c r="I19" s="494"/>
+      <c r="J19" s="494"/>
+      <c r="K19" s="494"/>
     </row>
     <row r="20" spans="1:12" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
@@ -15763,12 +15811,12 @@
         <v>195</v>
       </c>
       <c r="G20" s="340"/>
-      <c r="H20" s="438" t="s">
+      <c r="H20" s="482" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="438"/>
-      <c r="J20" s="438"/>
-      <c r="K20" s="438"/>
+      <c r="I20" s="482"/>
+      <c r="J20" s="482"/>
+      <c r="K20" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 3_2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="341">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -433,9 +433,6 @@
     <t>Chị Quân</t>
   </si>
   <si>
-    <t>Dịch Vọng Hậu</t>
-  </si>
-  <si>
     <t>Chị Minh</t>
   </si>
   <si>
@@ -1043,6 +1040,12 @@
   </si>
   <si>
     <t>Chị Quân thanh toán tiền hàng 1126</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>ĐB</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1637,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2388,9 +2391,6 @@
     <xf numFmtId="165" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2478,9 +2478,6 @@
     <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2609,9 +2606,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2624,18 +2645,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2648,138 +2666,126 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2789,6 +2795,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2798,9 +2840,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2810,32 +2849,17 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2862,16 +2886,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2888,33 +2927,6 @@
     <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2962,6 +2974,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3273,11 +3291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +3335,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3357,16 +3374,16 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="393" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="393"/>
-      <c r="C4" s="393"/>
-      <c r="D4" s="393"/>
-      <c r="E4" s="393"/>
-      <c r="F4" s="393"/>
-      <c r="G4" s="393"/>
-      <c r="H4" s="393"/>
+      <c r="A4" s="391" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3378,51 +3395,51 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="381" t="s">
+      <c r="A5" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="381" t="s">
+      <c r="B5" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="383" t="s">
+      <c r="D5" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="385" t="s">
+      <c r="E5" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="386"/>
-      <c r="G5" s="385" t="s">
+      <c r="F5" s="393"/>
+      <c r="G5" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="386"/>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="382"/>
-      <c r="B6" s="388"/>
-      <c r="C6" s="382"/>
-      <c r="D6" s="384"/>
+      <c r="H5" s="393"/>
+    </row>
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="388"/>
+      <c r="B6" s="386"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="390"/>
       <c r="E6" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43774</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>46</v>
@@ -3437,12 +3454,12 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43867</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>47</v>
@@ -3457,12 +3474,12 @@
         <v>433000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43867</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>47</v>
@@ -3477,12 +3494,12 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43870</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>47</v>
@@ -3497,12 +3514,12 @@
         <v>3560000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43886</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>48</v>
@@ -3517,12 +3534,12 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43886</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>48</v>
@@ -3537,12 +3554,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43891</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>47</v>
@@ -3562,13 +3579,13 @@
         <v>43891</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
@@ -3577,12 +3594,12 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43892</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>47</v>
@@ -3597,12 +3614,12 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43893</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>49</v>
@@ -3617,12 +3634,12 @@
         <v>1153846</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43893</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>49</v>
@@ -3637,12 +3654,12 @@
         <v>846154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43893</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>47</v>
@@ -3657,12 +3674,12 @@
         <v>426000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43894</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>48</v>
@@ -3677,12 +3694,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>43894</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>46</v>
@@ -3697,12 +3714,12 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43895</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>48</v>
@@ -3717,12 +3734,12 @@
         <v>1013359.59879</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>43895</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>47</v>
@@ -3737,12 +3754,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43895</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>47</v>
@@ -3757,12 +3774,12 @@
         <v>1273000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43895</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>47</v>
@@ -3777,12 +3794,12 @@
         <v>1761800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43895</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>48</v>
@@ -3799,12 +3816,12 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43895</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>47</v>
@@ -3819,12 +3836,12 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43897</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>48</v>
@@ -3839,12 +3856,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43898</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>48</v>
@@ -3859,12 +3876,12 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43898</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>48</v>
@@ -3879,12 +3896,12 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43898</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>48</v>
@@ -3899,12 +3916,12 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43898</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>48</v>
@@ -3924,13 +3941,13 @@
         <v>43899</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16">
@@ -3939,12 +3956,12 @@
       <c r="G32" s="14"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43899</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>47</v>
@@ -3964,13 +3981,13 @@
         <v>43900</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -3979,12 +3996,12 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43900</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>47</v>
@@ -3999,12 +4016,12 @@
         <v>450000.1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43900</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>49</v>
@@ -4019,12 +4036,12 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43900</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>47</v>
@@ -4044,13 +4061,13 @@
         <v>43900</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16">
@@ -4059,12 +4076,12 @@
       <c r="G38" s="14"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43901</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>48</v>
@@ -4079,12 +4096,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>43901</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>50</v>
@@ -4098,12 +4115,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>43901</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>49</v>
@@ -4118,12 +4135,12 @@
       </c>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>43901</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>51</v>
@@ -4135,15 +4152,15 @@
       <c r="F42" s="16"/>
       <c r="G42" s="14"/>
       <c r="H42" s="17">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>43901</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>46</v>
@@ -4158,12 +4175,12 @@
       </c>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43901</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>46</v>
@@ -4183,7 +4200,7 @@
         <v>43901</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>52</v>
@@ -4203,13 +4220,13 @@
         <v>43901</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16">
@@ -4223,13 +4240,13 @@
         <v>43902</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16">
@@ -4238,12 +4255,12 @@
       <c r="G47" s="14"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>43902</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>53</v>
@@ -4258,12 +4275,12 @@
       </c>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>43902</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>47</v>
@@ -4278,12 +4295,12 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>43902</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>47</v>
@@ -4298,12 +4315,12 @@
         <v>487000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>43902</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>48</v>
@@ -4323,13 +4340,13 @@
         <v>43903</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16">
@@ -4338,12 +4355,12 @@
       <c r="G52" s="14"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>43903</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>47</v>
@@ -4358,12 +4375,12 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>43903</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>47</v>
@@ -4378,12 +4395,12 @@
         <v>532000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>43903</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -4398,12 +4415,12 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>43904</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>47</v>
@@ -4418,12 +4435,12 @@
         <v>399999.6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>43904</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>47</v>
@@ -4438,12 +4455,12 @@
         <v>450000.1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>43905</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>47</v>
@@ -4458,12 +4475,12 @@
         <v>982000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>43906</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>47</v>
@@ -4478,12 +4495,12 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>43906</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>47</v>
@@ -4498,12 +4515,12 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>43906</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>47</v>
@@ -4518,12 +4535,12 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>43906</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>47</v>
@@ -4538,12 +4555,12 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>43906</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>48</v>
@@ -4558,12 +4575,12 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>43906</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>48</v>
@@ -4578,12 +4595,12 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>43906</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>48</v>
@@ -4598,12 +4615,12 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43906</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>48</v>
@@ -4618,12 +4635,12 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43906</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>48</v>
@@ -4643,13 +4660,13 @@
         <v>43907</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E68" s="16">
         <v>910000</v>
@@ -4663,7 +4680,7 @@
         <v>43908</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>52</v>
@@ -4685,13 +4702,13 @@
         <v>43908</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E70" s="16">
         <v>268450</v>
@@ -4705,13 +4722,13 @@
         <v>43908</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E71" s="16">
         <v>3513450</v>
@@ -4720,12 +4737,12 @@
       <c r="G71" s="14"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>43908</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>50</v>
@@ -4740,12 +4757,12 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>43909</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>46</v>
@@ -4760,12 +4777,12 @@
         <v>3740000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>43910</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>50</v>
@@ -4785,7 +4802,7 @@
         <v>43910</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>52</v>
@@ -4800,12 +4817,12 @@
       <c r="G75" s="14"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>43910</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>48</v>
@@ -4820,12 +4837,12 @@
         <v>1014600</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>43911</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>46</v>
@@ -4845,13 +4862,13 @@
         <v>43912</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16">
@@ -4860,12 +4877,12 @@
       <c r="G78" s="14"/>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>43913</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>46</v>
@@ -4885,13 +4902,13 @@
         <v>43913</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E80" s="16">
         <v>858450</v>
@@ -4905,13 +4922,13 @@
         <v>43913</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E81" s="16">
         <v>4855700</v>
@@ -4920,12 +4937,12 @@
       <c r="G81" s="14"/>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>43915</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>50</v>
@@ -4940,12 +4957,12 @@
         <v>1153000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>43915</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>49</v>
@@ -4960,12 +4977,12 @@
         <v>2601111</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>43889</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>48</v>
@@ -4985,13 +5002,13 @@
         <v>43914</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16">
@@ -5005,13 +5022,13 @@
         <v>43914</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
@@ -5026,13 +5043,13 @@
         <v>43914</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E87" s="16">
         <v>1622500</v>
@@ -5041,18 +5058,18 @@
       <c r="G87" s="14"/>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>43914</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
@@ -5061,12 +5078,12 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>43917</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>46</v>
@@ -5081,12 +5098,12 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>43917</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>50</v>
@@ -5106,13 +5123,13 @@
         <v>43917</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="16">
@@ -5121,18 +5138,18 @@
       <c r="G91" s="14"/>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>43917</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
@@ -5141,12 +5158,12 @@
         <v>4423007</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>43918</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>46</v>
@@ -5161,18 +5178,18 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>43918</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
@@ -5181,18 +5198,18 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>43919</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
@@ -5201,18 +5218,18 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>43920</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
@@ -5226,13 +5243,13 @@
         <v>43921</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E97" s="16">
         <v>536900</v>
@@ -5246,13 +5263,13 @@
         <v>43921</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E98" s="16">
         <v>1738000</v>
@@ -5261,12 +5278,12 @@
       <c r="G98" s="14"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>43921</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>48</v>
@@ -5281,12 +5298,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>43921</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>48</v>
@@ -5301,12 +5318,12 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>43921</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>48</v>
@@ -5321,12 +5338,12 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>43921</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>48</v>
@@ -5341,12 +5358,12 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>43921</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>48</v>
@@ -5361,12 +5378,12 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>43921</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>46</v>
@@ -5381,12 +5398,12 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>43921</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>46</v>
@@ -5401,12 +5418,12 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>43921</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>47</v>
@@ -5421,12 +5438,12 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>43921</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>46</v>
@@ -5441,12 +5458,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>43921</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>53</v>
@@ -5462,13 +5479,13 @@
       </c>
       <c r="J108" s="79"/>
     </row>
-    <row r="109" spans="1:10" s="26" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="389" t="s">
+    <row r="109" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="390"/>
-      <c r="C109" s="390"/>
-      <c r="D109" s="391"/>
+      <c r="B109" s="395"/>
+      <c r="C109" s="395"/>
+      <c r="D109" s="396"/>
       <c r="E109" s="25">
         <f>SUM(E7:E108)</f>
         <v>14303450</v>
@@ -5483,75 +5500,75 @@
       </c>
       <c r="H109" s="25">
         <f t="shared" si="0"/>
-        <v>286028117.39879</v>
+        <v>285978117.39879</v>
       </c>
       <c r="J109" s="27"/>
     </row>
-    <row r="110" spans="1:10" s="1" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="392" t="s">
+    <row r="110" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="397" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="392"/>
-      <c r="C110" s="392"/>
+      <c r="B110" s="397"/>
+      <c r="C110" s="397"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="380" t="s">
+      <c r="A112" s="381" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="380"/>
-      <c r="C112" s="380"/>
-      <c r="D112" s="380"/>
+      <c r="B112" s="381"/>
+      <c r="C112" s="381"/>
+      <c r="D112" s="381"/>
     </row>
     <row r="113" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="381" t="s">
+      <c r="A113" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C113" s="381" t="s">
+      <c r="B113" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="383" t="s">
+      <c r="D113" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="385" t="s">
+      <c r="E113" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="386"/>
-      <c r="G113" s="385" t="s">
+      <c r="F113" s="393"/>
+      <c r="G113" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="386"/>
+      <c r="H113" s="393"/>
     </row>
     <row r="114" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="382"/>
-      <c r="B114" s="388"/>
-      <c r="C114" s="382"/>
-      <c r="D114" s="384"/>
+      <c r="A114" s="388"/>
+      <c r="B114" s="386"/>
+      <c r="C114" s="388"/>
+      <c r="D114" s="390"/>
       <c r="E114" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F114" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G114" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G114" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H114" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>43886</v>
       </c>
-      <c r="B115" s="394" t="s">
-        <v>302</v>
+      <c r="B115" s="382" t="s">
+        <v>301</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>48</v>
@@ -5570,7 +5587,7 @@
       <c r="A116" s="13">
         <v>43886</v>
       </c>
-      <c r="B116" s="395"/>
+      <c r="B116" s="383"/>
       <c r="C116" s="14" t="s">
         <v>48</v>
       </c>
@@ -5588,7 +5605,7 @@
       <c r="A117" s="13">
         <v>43894</v>
       </c>
-      <c r="B117" s="395"/>
+      <c r="B117" s="383"/>
       <c r="C117" s="14" t="s">
         <v>48</v>
       </c>
@@ -5606,7 +5623,7 @@
       <c r="A118" s="13">
         <v>43895</v>
       </c>
-      <c r="B118" s="395"/>
+      <c r="B118" s="383"/>
       <c r="C118" s="14" t="s">
         <v>48</v>
       </c>
@@ -5624,7 +5641,7 @@
       <c r="A119" s="13">
         <v>43895</v>
       </c>
-      <c r="B119" s="395"/>
+      <c r="B119" s="383"/>
       <c r="C119" s="14" t="s">
         <v>48</v>
       </c>
@@ -5634,7 +5651,7 @@
       <c r="E119" s="14"/>
       <c r="F119" s="16"/>
       <c r="G119" s="14"/>
-      <c r="H119" s="17">
+      <c r="H119" s="501">
         <v>35000</v>
       </c>
     </row>
@@ -5642,7 +5659,7 @@
       <c r="A120" s="13">
         <v>43897</v>
       </c>
-      <c r="B120" s="395"/>
+      <c r="B120" s="383"/>
       <c r="C120" s="14" t="s">
         <v>48</v>
       </c>
@@ -5660,7 +5677,7 @@
       <c r="A121" s="13">
         <v>43898</v>
       </c>
-      <c r="B121" s="395"/>
+      <c r="B121" s="383"/>
       <c r="C121" s="14" t="s">
         <v>48</v>
       </c>
@@ -5678,7 +5695,7 @@
       <c r="A122" s="13">
         <v>43898</v>
       </c>
-      <c r="B122" s="395"/>
+      <c r="B122" s="383"/>
       <c r="C122" s="14" t="s">
         <v>48</v>
       </c>
@@ -5696,7 +5713,7 @@
       <c r="A123" s="13">
         <v>43898</v>
       </c>
-      <c r="B123" s="395"/>
+      <c r="B123" s="383"/>
       <c r="C123" s="14" t="s">
         <v>48</v>
       </c>
@@ -5714,7 +5731,7 @@
       <c r="A124" s="13">
         <v>43898</v>
       </c>
-      <c r="B124" s="395"/>
+      <c r="B124" s="383"/>
       <c r="C124" s="14" t="s">
         <v>48</v>
       </c>
@@ -5732,7 +5749,7 @@
       <c r="A125" s="13">
         <v>43901</v>
       </c>
-      <c r="B125" s="395"/>
+      <c r="B125" s="383"/>
       <c r="C125" s="14" t="s">
         <v>48</v>
       </c>
@@ -5750,7 +5767,7 @@
       <c r="A126" s="13">
         <v>43902</v>
       </c>
-      <c r="B126" s="395"/>
+      <c r="B126" s="383"/>
       <c r="C126" s="14" t="s">
         <v>48</v>
       </c>
@@ -5768,7 +5785,7 @@
       <c r="A127" s="13">
         <v>43906</v>
       </c>
-      <c r="B127" s="395"/>
+      <c r="B127" s="383"/>
       <c r="C127" s="14" t="s">
         <v>48</v>
       </c>
@@ -5786,7 +5803,7 @@
       <c r="A128" s="13">
         <v>43906</v>
       </c>
-      <c r="B128" s="395"/>
+      <c r="B128" s="383"/>
       <c r="C128" s="14" t="s">
         <v>48</v>
       </c>
@@ -5804,7 +5821,7 @@
       <c r="A129" s="13">
         <v>43906</v>
       </c>
-      <c r="B129" s="395"/>
+      <c r="B129" s="383"/>
       <c r="C129" s="14" t="s">
         <v>48</v>
       </c>
@@ -5814,7 +5831,7 @@
       <c r="E129" s="14"/>
       <c r="F129" s="16"/>
       <c r="G129" s="14"/>
-      <c r="H129" s="17">
+      <c r="H129" s="501">
         <v>90000</v>
       </c>
     </row>
@@ -5822,7 +5839,7 @@
       <c r="A130" s="13">
         <v>43906</v>
       </c>
-      <c r="B130" s="395"/>
+      <c r="B130" s="383"/>
       <c r="C130" s="14" t="s">
         <v>48</v>
       </c>
@@ -5840,7 +5857,7 @@
       <c r="A131" s="13">
         <v>43906</v>
       </c>
-      <c r="B131" s="395"/>
+      <c r="B131" s="383"/>
       <c r="C131" s="14" t="s">
         <v>48</v>
       </c>
@@ -5858,7 +5875,7 @@
       <c r="A132" s="13">
         <v>43910</v>
       </c>
-      <c r="B132" s="395"/>
+      <c r="B132" s="383"/>
       <c r="C132" s="14" t="s">
         <v>48</v>
       </c>
@@ -5876,7 +5893,7 @@
       <c r="A133" s="13">
         <v>43889</v>
       </c>
-      <c r="B133" s="395"/>
+      <c r="B133" s="383"/>
       <c r="C133" s="14" t="s">
         <v>48</v>
       </c>
@@ -5894,7 +5911,7 @@
       <c r="A134" s="13">
         <v>43921</v>
       </c>
-      <c r="B134" s="395"/>
+      <c r="B134" s="383"/>
       <c r="C134" s="14" t="s">
         <v>48</v>
       </c>
@@ -5912,7 +5929,7 @@
       <c r="A135" s="13">
         <v>43921</v>
       </c>
-      <c r="B135" s="395"/>
+      <c r="B135" s="383"/>
       <c r="C135" s="14" t="s">
         <v>48</v>
       </c>
@@ -5930,7 +5947,7 @@
       <c r="A136" s="13">
         <v>43921</v>
       </c>
-      <c r="B136" s="395"/>
+      <c r="B136" s="383"/>
       <c r="C136" s="14" t="s">
         <v>48</v>
       </c>
@@ -5948,7 +5965,7 @@
       <c r="A137" s="13">
         <v>43921</v>
       </c>
-      <c r="B137" s="395"/>
+      <c r="B137" s="383"/>
       <c r="C137" s="14" t="s">
         <v>48</v>
       </c>
@@ -5966,7 +5983,7 @@
       <c r="A138" s="28">
         <v>43921</v>
       </c>
-      <c r="B138" s="396"/>
+      <c r="B138" s="384"/>
       <c r="C138" s="29" t="s">
         <v>48</v>
       </c>
@@ -5995,51 +6012,51 @@
     </row>
     <row r="140" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A141" s="380" t="s">
+      <c r="A141" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="B141" s="380"/>
-      <c r="C141" s="380"/>
-      <c r="D141" s="380"/>
+      <c r="B141" s="381"/>
+      <c r="C141" s="381"/>
+      <c r="D141" s="381"/>
     </row>
     <row r="142" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="381" t="s">
+      <c r="A142" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C142" s="381" t="s">
+      <c r="B142" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C142" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="383" t="s">
+      <c r="D142" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="385" t="s">
+      <c r="E142" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="386"/>
-      <c r="G142" s="385" t="s">
+      <c r="F142" s="393"/>
+      <c r="G142" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="386"/>
+      <c r="H142" s="393"/>
     </row>
     <row r="143" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="382"/>
-      <c r="B143" s="388"/>
-      <c r="C143" s="382"/>
-      <c r="D143" s="384"/>
+      <c r="A143" s="388"/>
+      <c r="B143" s="386"/>
+      <c r="C143" s="388"/>
+      <c r="D143" s="390"/>
       <c r="E143" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F143" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G143" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G143" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H143" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6047,13 +6064,13 @@
         <v>43891</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="16">
@@ -6067,13 +6084,13 @@
         <v>43899</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E145" s="16"/>
       <c r="F145" s="16">
@@ -6087,7 +6104,7 @@
         <v>43900</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>52</v>
@@ -6107,13 +6124,13 @@
         <v>43900</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
@@ -6127,7 +6144,7 @@
         <v>43901</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>52</v>
@@ -6147,13 +6164,13 @@
         <v>43901</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E149" s="16"/>
       <c r="F149" s="16">
@@ -6167,13 +6184,13 @@
         <v>43902</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="16">
@@ -6187,7 +6204,7 @@
         <v>43903</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C151" s="14" t="s">
         <v>52</v>
@@ -6207,13 +6224,13 @@
         <v>43907</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E152" s="16">
         <v>910000</v>
@@ -6227,7 +6244,7 @@
         <v>43908</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C153" s="14" t="s">
         <v>52</v>
@@ -6249,13 +6266,13 @@
         <v>43908</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C154" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E154" s="16">
         <v>268450</v>
@@ -6269,13 +6286,13 @@
         <v>43908</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E155" s="16">
         <v>3513450</v>
@@ -6289,7 +6306,7 @@
         <v>43910</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>52</v>
@@ -6309,13 +6326,13 @@
         <v>43912</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C157" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E157" s="16"/>
       <c r="F157" s="16">
@@ -6329,13 +6346,13 @@
         <v>43913</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E158" s="16">
         <v>858450</v>
@@ -6349,13 +6366,13 @@
         <v>43913</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E159" s="16">
         <v>4855700</v>
@@ -6369,7 +6386,7 @@
         <v>43914</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>52</v>
@@ -6389,13 +6406,13 @@
         <v>43914</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
@@ -6410,13 +6427,13 @@
         <v>43914</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E162" s="16">
         <v>1622500</v>
@@ -6430,7 +6447,7 @@
         <v>43917</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>52</v>
@@ -6450,13 +6467,13 @@
         <v>43921</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E164" s="16">
         <v>536900</v>
@@ -6466,24 +6483,24 @@
       <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="323">
+      <c r="A165" s="322">
         <v>43921</v>
       </c>
-      <c r="B165" s="323" t="s">
+      <c r="B165" s="322" t="s">
+        <v>305</v>
+      </c>
+      <c r="C165" s="323" t="s">
+        <v>52</v>
+      </c>
+      <c r="D165" s="324" t="s">
         <v>306</v>
       </c>
-      <c r="C165" s="324" t="s">
-        <v>52</v>
-      </c>
-      <c r="D165" s="325" t="s">
-        <v>307</v>
-      </c>
-      <c r="E165" s="326">
+      <c r="E165" s="325">
         <v>1738000</v>
       </c>
-      <c r="F165" s="326"/>
-      <c r="G165" s="324"/>
-      <c r="H165" s="327"/>
+      <c r="F165" s="325"/>
+      <c r="G165" s="323"/>
+      <c r="H165" s="326"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="34"/>
@@ -6508,51 +6525,51 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="380" t="s">
+      <c r="A167" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="B167" s="380"/>
-      <c r="C167" s="380"/>
-      <c r="D167" s="380"/>
+      <c r="B167" s="381"/>
+      <c r="C167" s="381"/>
+      <c r="D167" s="381"/>
     </row>
     <row r="168" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="381" t="s">
+      <c r="A168" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C168" s="381" t="s">
+      <c r="B168" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C168" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="383" t="s">
+      <c r="D168" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="385" t="s">
+      <c r="E168" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F168" s="386"/>
-      <c r="G168" s="385" t="s">
+      <c r="F168" s="393"/>
+      <c r="G168" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H168" s="386"/>
+      <c r="H168" s="393"/>
     </row>
     <row r="169" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="382"/>
-      <c r="B169" s="388"/>
-      <c r="C169" s="382"/>
-      <c r="D169" s="384"/>
+      <c r="A169" s="388"/>
+      <c r="B169" s="386"/>
+      <c r="C169" s="388"/>
+      <c r="D169" s="390"/>
       <c r="E169" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F169" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G169" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G169" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H169" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6560,7 +6577,7 @@
         <v>43893</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>49</v>
@@ -6580,7 +6597,7 @@
         <v>43893</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>49</v>
@@ -6600,7 +6617,7 @@
         <v>43900</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>49</v>
@@ -6620,7 +6637,7 @@
         <v>43901</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>49</v>
@@ -6640,7 +6657,7 @@
         <v>43915</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C174" s="29" t="s">
         <v>49</v>
@@ -6660,13 +6677,13 @@
         <v>43917</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="16"/>
@@ -6689,51 +6706,51 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="380" t="s">
+      <c r="A178" s="381" t="s">
         <v>56</v>
       </c>
-      <c r="B178" s="380"/>
-      <c r="C178" s="380"/>
-      <c r="D178" s="380"/>
+      <c r="B178" s="381"/>
+      <c r="C178" s="381"/>
+      <c r="D178" s="381"/>
     </row>
     <row r="179" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="381" t="s">
+      <c r="A179" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C179" s="381" t="s">
+      <c r="B179" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C179" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="383" t="s">
+      <c r="D179" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E179" s="385" t="s">
+      <c r="E179" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F179" s="386"/>
-      <c r="G179" s="385" t="s">
+      <c r="F179" s="393"/>
+      <c r="G179" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H179" s="386"/>
+      <c r="H179" s="393"/>
     </row>
     <row r="180" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="382"/>
-      <c r="B180" s="388"/>
-      <c r="C180" s="382"/>
-      <c r="D180" s="384"/>
+      <c r="A180" s="388"/>
+      <c r="B180" s="386"/>
+      <c r="C180" s="388"/>
+      <c r="D180" s="390"/>
       <c r="E180" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F180" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G180" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G180" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H180" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6741,7 +6758,7 @@
         <v>43902</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>53</v>
@@ -6761,7 +6778,7 @@
         <v>43921</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C182" s="21" t="s">
         <v>53</v>
@@ -6790,59 +6807,59 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="380" t="s">
+      <c r="A186" s="381" t="s">
         <v>57</v>
       </c>
-      <c r="B186" s="380"/>
-      <c r="C186" s="380"/>
-      <c r="D186" s="380"/>
+      <c r="B186" s="381"/>
+      <c r="C186" s="381"/>
+      <c r="D186" s="381"/>
     </row>
     <row r="187" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="381" t="s">
+      <c r="A187" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B187" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C187" s="381" t="s">
+      <c r="B187" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C187" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="383" t="s">
+      <c r="D187" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="385" t="s">
+      <c r="E187" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="386"/>
-      <c r="G187" s="385" t="s">
+      <c r="F187" s="393"/>
+      <c r="G187" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="386"/>
+      <c r="H187" s="393"/>
     </row>
     <row r="188" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="382"/>
-      <c r="B188" s="388"/>
-      <c r="C188" s="382"/>
-      <c r="D188" s="384"/>
+      <c r="A188" s="388"/>
+      <c r="B188" s="386"/>
+      <c r="C188" s="388"/>
+      <c r="D188" s="390"/>
       <c r="E188" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F188" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G188" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G188" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H188" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>43867</v>
       </c>
-      <c r="B189" s="394" t="s">
-        <v>303</v>
+      <c r="B189" s="382" t="s">
+        <v>302</v>
       </c>
       <c r="C189" s="14" t="s">
         <v>47</v>
@@ -6861,7 +6878,7 @@
       <c r="A190" s="13">
         <v>43867</v>
       </c>
-      <c r="B190" s="395"/>
+      <c r="B190" s="383"/>
       <c r="C190" s="14" t="s">
         <v>47</v>
       </c>
@@ -6879,7 +6896,7 @@
       <c r="A191" s="13">
         <v>43870</v>
       </c>
-      <c r="B191" s="395"/>
+      <c r="B191" s="383"/>
       <c r="C191" s="14" t="s">
         <v>47</v>
       </c>
@@ -6897,7 +6914,7 @@
       <c r="A192" s="13">
         <v>43891</v>
       </c>
-      <c r="B192" s="395"/>
+      <c r="B192" s="383"/>
       <c r="C192" s="14" t="s">
         <v>47</v>
       </c>
@@ -6915,7 +6932,7 @@
       <c r="A193" s="13">
         <v>43892</v>
       </c>
-      <c r="B193" s="395"/>
+      <c r="B193" s="383"/>
       <c r="C193" s="14" t="s">
         <v>47</v>
       </c>
@@ -6933,7 +6950,7 @@
       <c r="A194" s="13">
         <v>43893</v>
       </c>
-      <c r="B194" s="395"/>
+      <c r="B194" s="383"/>
       <c r="C194" s="14" t="s">
         <v>47</v>
       </c>
@@ -6951,7 +6968,7 @@
       <c r="A195" s="13">
         <v>43895</v>
       </c>
-      <c r="B195" s="395"/>
+      <c r="B195" s="383"/>
       <c r="C195" s="14" t="s">
         <v>47</v>
       </c>
@@ -6961,7 +6978,7 @@
       <c r="E195" s="14"/>
       <c r="F195" s="16"/>
       <c r="G195" s="14"/>
-      <c r="H195" s="17">
+      <c r="H195" s="502">
         <v>500000</v>
       </c>
     </row>
@@ -6969,7 +6986,7 @@
       <c r="A196" s="13">
         <v>43895</v>
       </c>
-      <c r="B196" s="395"/>
+      <c r="B196" s="383"/>
       <c r="C196" s="14" t="s">
         <v>47</v>
       </c>
@@ -6987,7 +7004,7 @@
       <c r="A197" s="13">
         <v>43895</v>
       </c>
-      <c r="B197" s="395"/>
+      <c r="B197" s="383"/>
       <c r="C197" s="14" t="s">
         <v>47</v>
       </c>
@@ -7005,7 +7022,7 @@
       <c r="A198" s="13">
         <v>43895</v>
       </c>
-      <c r="B198" s="395"/>
+      <c r="B198" s="383"/>
       <c r="C198" s="14" t="s">
         <v>47</v>
       </c>
@@ -7023,7 +7040,7 @@
       <c r="A199" s="13">
         <v>43899</v>
       </c>
-      <c r="B199" s="395"/>
+      <c r="B199" s="383"/>
       <c r="C199" s="14" t="s">
         <v>47</v>
       </c>
@@ -7041,7 +7058,7 @@
       <c r="A200" s="13">
         <v>43900</v>
       </c>
-      <c r="B200" s="395"/>
+      <c r="B200" s="383"/>
       <c r="C200" s="14" t="s">
         <v>47</v>
       </c>
@@ -7059,7 +7076,7 @@
       <c r="A201" s="13">
         <v>43900</v>
       </c>
-      <c r="B201" s="395"/>
+      <c r="B201" s="383"/>
       <c r="C201" s="14" t="s">
         <v>47</v>
       </c>
@@ -7077,7 +7094,7 @@
       <c r="A202" s="13">
         <v>43902</v>
       </c>
-      <c r="B202" s="395"/>
+      <c r="B202" s="383"/>
       <c r="C202" s="14" t="s">
         <v>47</v>
       </c>
@@ -7095,7 +7112,7 @@
       <c r="A203" s="13">
         <v>43902</v>
       </c>
-      <c r="B203" s="395"/>
+      <c r="B203" s="383"/>
       <c r="C203" s="14" t="s">
         <v>47</v>
       </c>
@@ -7113,7 +7130,7 @@
       <c r="A204" s="13">
         <v>43903</v>
       </c>
-      <c r="B204" s="395"/>
+      <c r="B204" s="383"/>
       <c r="C204" s="14" t="s">
         <v>47</v>
       </c>
@@ -7131,7 +7148,7 @@
       <c r="A205" s="13">
         <v>43903</v>
       </c>
-      <c r="B205" s="395"/>
+      <c r="B205" s="383"/>
       <c r="C205" s="14" t="s">
         <v>47</v>
       </c>
@@ -7149,7 +7166,7 @@
       <c r="A206" s="13">
         <v>43903</v>
       </c>
-      <c r="B206" s="395"/>
+      <c r="B206" s="383"/>
       <c r="C206" s="14" t="s">
         <v>47</v>
       </c>
@@ -7167,7 +7184,7 @@
       <c r="A207" s="13">
         <v>43904</v>
       </c>
-      <c r="B207" s="395"/>
+      <c r="B207" s="383"/>
       <c r="C207" s="14" t="s">
         <v>47</v>
       </c>
@@ -7185,7 +7202,7 @@
       <c r="A208" s="13">
         <v>43904</v>
       </c>
-      <c r="B208" s="395"/>
+      <c r="B208" s="383"/>
       <c r="C208" s="14" t="s">
         <v>47</v>
       </c>
@@ -7203,7 +7220,7 @@
       <c r="A209" s="13">
         <v>43905</v>
       </c>
-      <c r="B209" s="395"/>
+      <c r="B209" s="383"/>
       <c r="C209" s="14" t="s">
         <v>47</v>
       </c>
@@ -7221,7 +7238,7 @@
       <c r="A210" s="13">
         <v>43906</v>
       </c>
-      <c r="B210" s="395"/>
+      <c r="B210" s="383"/>
       <c r="C210" s="14" t="s">
         <v>47</v>
       </c>
@@ -7239,7 +7256,7 @@
       <c r="A211" s="13">
         <v>43906</v>
       </c>
-      <c r="B211" s="395"/>
+      <c r="B211" s="383"/>
       <c r="C211" s="14" t="s">
         <v>47</v>
       </c>
@@ -7257,7 +7274,7 @@
       <c r="A212" s="13">
         <v>43906</v>
       </c>
-      <c r="B212" s="395"/>
+      <c r="B212" s="383"/>
       <c r="C212" s="14" t="s">
         <v>47</v>
       </c>
@@ -7275,7 +7292,7 @@
       <c r="A213" s="13">
         <v>43906</v>
       </c>
-      <c r="B213" s="395"/>
+      <c r="B213" s="383"/>
       <c r="C213" s="14" t="s">
         <v>47</v>
       </c>
@@ -7293,7 +7310,7 @@
       <c r="A214" s="28">
         <v>43921</v>
       </c>
-      <c r="B214" s="396"/>
+      <c r="B214" s="384"/>
       <c r="C214" s="29" t="s">
         <v>47</v>
       </c>
@@ -7321,51 +7338,51 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A217" s="380" t="s">
+      <c r="A217" s="381" t="s">
         <v>58</v>
       </c>
-      <c r="B217" s="380"/>
-      <c r="C217" s="380"/>
-      <c r="D217" s="380"/>
+      <c r="B217" s="381"/>
+      <c r="C217" s="381"/>
+      <c r="D217" s="381"/>
     </row>
     <row r="218" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="381" t="s">
+      <c r="A218" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C218" s="381" t="s">
+      <c r="B218" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C218" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="383" t="s">
+      <c r="D218" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="385" t="s">
+      <c r="E218" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="386"/>
-      <c r="G218" s="385" t="s">
+      <c r="F218" s="393"/>
+      <c r="G218" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H218" s="386"/>
+      <c r="H218" s="393"/>
     </row>
     <row r="219" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="382"/>
-      <c r="B219" s="388"/>
-      <c r="C219" s="382"/>
-      <c r="D219" s="384"/>
+      <c r="A219" s="388"/>
+      <c r="B219" s="386"/>
+      <c r="C219" s="388"/>
+      <c r="D219" s="390"/>
       <c r="E219" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F219" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G219" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G219" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H219" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7373,7 +7390,7 @@
         <v>43901</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>50</v>
@@ -7393,7 +7410,7 @@
         <v>43908</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>50</v>
@@ -7413,7 +7430,7 @@
         <v>43910</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>50</v>
@@ -7433,7 +7450,7 @@
         <v>43915</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>50</v>
@@ -7453,7 +7470,7 @@
         <v>43917</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>50</v>
@@ -7473,13 +7490,13 @@
         <v>43918</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C225" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E225" s="14"/>
       <c r="F225" s="16"/>
@@ -7502,51 +7519,51 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A228" s="380" t="s">
+      <c r="A228" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="B228" s="380"/>
-      <c r="C228" s="380"/>
-      <c r="D228" s="380"/>
+      <c r="B228" s="381"/>
+      <c r="C228" s="381"/>
+      <c r="D228" s="381"/>
     </row>
     <row r="229" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="381" t="s">
+      <c r="A229" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C229" s="381" t="s">
+      <c r="B229" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C229" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="383" t="s">
+      <c r="D229" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E229" s="385" t="s">
+      <c r="E229" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F229" s="386"/>
-      <c r="G229" s="385" t="s">
+      <c r="F229" s="393"/>
+      <c r="G229" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H229" s="386"/>
+      <c r="H229" s="393"/>
     </row>
     <row r="230" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="382"/>
-      <c r="B230" s="388"/>
-      <c r="C230" s="382"/>
-      <c r="D230" s="384"/>
+      <c r="A230" s="388"/>
+      <c r="B230" s="386"/>
+      <c r="C230" s="388"/>
+      <c r="D230" s="390"/>
       <c r="E230" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F230" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G230" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G230" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H230" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7554,7 +7571,7 @@
         <v>43901</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C231" s="14" t="s">
         <v>51</v>
@@ -7566,7 +7583,7 @@
       <c r="F231" s="16"/>
       <c r="G231" s="14"/>
       <c r="H231" s="17">
-        <v>200000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7574,13 +7591,13 @@
         <v>43914</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C232" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E232" s="16"/>
       <c r="F232" s="16"/>
@@ -7597,60 +7614,60 @@
       <c r="E233" s="33"/>
       <c r="F233" s="38"/>
       <c r="G233" s="33"/>
-      <c r="H233" s="328">
+      <c r="H233" s="327">
         <f>H231+H232</f>
-        <v>450000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H234" s="35"/>
     </row>
     <row r="235" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A235" s="380" t="s">
+      <c r="A235" s="381" t="s">
         <v>60</v>
       </c>
-      <c r="B235" s="380"/>
-      <c r="C235" s="380"/>
-      <c r="D235" s="380"/>
+      <c r="B235" s="381"/>
+      <c r="C235" s="381"/>
+      <c r="D235" s="381"/>
     </row>
     <row r="236" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="381" t="s">
+      <c r="A236" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="387" t="s">
-        <v>249</v>
-      </c>
-      <c r="C236" s="381" t="s">
+      <c r="B236" s="385" t="s">
+        <v>248</v>
+      </c>
+      <c r="C236" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="383" t="s">
+      <c r="D236" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="E236" s="385" t="s">
+      <c r="E236" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="F236" s="386"/>
-      <c r="G236" s="385" t="s">
+      <c r="F236" s="393"/>
+      <c r="G236" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="H236" s="386"/>
+      <c r="H236" s="393"/>
     </row>
     <row r="237" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="382"/>
-      <c r="B237" s="388"/>
-      <c r="C237" s="382"/>
-      <c r="D237" s="384"/>
+      <c r="A237" s="388"/>
+      <c r="B237" s="386"/>
+      <c r="C237" s="388"/>
+      <c r="D237" s="390"/>
       <c r="E237" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F237" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G237" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G237" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H237" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7658,7 +7675,7 @@
         <v>43774</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C238" s="14" t="s">
         <v>46</v>
@@ -7678,7 +7695,7 @@
         <v>43894</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>46</v>
@@ -7698,7 +7715,7 @@
         <v>43901</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C240" s="14" t="s">
         <v>46</v>
@@ -7718,7 +7735,7 @@
         <v>43901</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C241" s="14" t="s">
         <v>46</v>
@@ -7738,7 +7755,7 @@
         <v>43909</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C242" s="14" t="s">
         <v>46</v>
@@ -7758,7 +7775,7 @@
         <v>43911</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>46</v>
@@ -7778,7 +7795,7 @@
         <v>43913</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C244" s="14" t="s">
         <v>46</v>
@@ -7798,7 +7815,7 @@
         <v>43917</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C245" s="14" t="s">
         <v>46</v>
@@ -7818,7 +7835,7 @@
         <v>43918</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C246" s="14" t="s">
         <v>46</v>
@@ -7838,13 +7855,13 @@
         <v>43919</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E247" s="14"/>
       <c r="F247" s="16"/>
@@ -7858,13 +7875,13 @@
         <v>43920</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C248" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E248" s="14"/>
       <c r="F248" s="16"/>
@@ -7878,7 +7895,7 @@
         <v>43921</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C249" s="14" t="s">
         <v>46</v>
@@ -7898,7 +7915,7 @@
         <v>43921</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C250" s="14" t="s">
         <v>46</v>
@@ -7918,7 +7935,7 @@
         <v>43921</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C251" s="14" t="s">
         <v>46</v>
@@ -7972,59 +7989,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:H110">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Hàng hóa"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="67">
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="B189:B214"/>
-    <mergeCell ref="B115:B138"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="B236:B237"/>
     <mergeCell ref="E218:F218"/>
     <mergeCell ref="G218:H218"/>
     <mergeCell ref="B218:B219"/>
@@ -8041,15 +8016,52 @@
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="C187:C188"/>
     <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="B189:B214"/>
+    <mergeCell ref="B115:B138"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
   </mergeCells>
-  <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
+  <pageMargins left="0.37" right="0.21" top="0.37" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -8058,20 +8070,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="222" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="314" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="222" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="222" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="222" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="222" customWidth="1"/>
-    <col min="7" max="7" width="5" style="222" customWidth="1"/>
-    <col min="8" max="8" width="9" style="222" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="313" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="222" customWidth="1"/>
+    <col min="4" max="4" width="9" style="222" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" style="222" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="222" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="222" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="222" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="222" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="222" bestFit="1" customWidth="1"/>
@@ -8101,7 +8112,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="229"/>
       <c r="C2" s="230"/>
@@ -8116,166 +8127,166 @@
       <c r="N2" s="232"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="419" t="s">
+      <c r="A3" s="417" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="419"/>
-      <c r="C3" s="419"/>
-      <c r="D3" s="419"/>
-      <c r="E3" s="419"/>
-      <c r="F3" s="419"/>
-      <c r="G3" s="419"/>
-      <c r="H3" s="419"/>
-      <c r="I3" s="419"/>
-      <c r="J3" s="419"/>
-      <c r="K3" s="419"/>
-      <c r="L3" s="419"/>
-      <c r="M3" s="419"/>
-      <c r="N3" s="419"/>
-      <c r="O3" s="419"/>
-      <c r="P3" s="419"/>
+      <c r="B3" s="417"/>
+      <c r="C3" s="417"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="417"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="417"/>
+      <c r="O3" s="417"/>
+      <c r="P3" s="417"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="419" t="s">
+      <c r="A4" s="417" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="419"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="419"/>
-      <c r="I4" s="419"/>
-      <c r="J4" s="419"/>
-      <c r="K4" s="419"/>
-      <c r="L4" s="419"/>
-      <c r="M4" s="419"/>
-      <c r="N4" s="419"/>
-      <c r="O4" s="419"/>
-      <c r="P4" s="419"/>
+      <c r="B4" s="417"/>
+      <c r="C4" s="417"/>
+      <c r="D4" s="417"/>
+      <c r="E4" s="417"/>
+      <c r="F4" s="417"/>
+      <c r="G4" s="417"/>
+      <c r="H4" s="417"/>
+      <c r="I4" s="417"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="417"/>
+      <c r="L4" s="417"/>
+      <c r="M4" s="417"/>
+      <c r="N4" s="417"/>
+      <c r="O4" s="417"/>
+      <c r="P4" s="417"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="419"/>
-      <c r="B5" s="419"/>
-      <c r="C5" s="419"/>
-      <c r="D5" s="419"/>
-      <c r="E5" s="419"/>
-      <c r="F5" s="419"/>
-      <c r="G5" s="419"/>
-      <c r="H5" s="419"/>
-      <c r="I5" s="419"/>
-      <c r="J5" s="419"/>
-      <c r="K5" s="420"/>
-      <c r="L5" s="420"/>
+      <c r="A5" s="417"/>
+      <c r="B5" s="417"/>
+      <c r="C5" s="417"/>
+      <c r="D5" s="417"/>
+      <c r="E5" s="417"/>
+      <c r="F5" s="417"/>
+      <c r="G5" s="417"/>
+      <c r="H5" s="417"/>
+      <c r="I5" s="417"/>
+      <c r="J5" s="417"/>
+      <c r="K5" s="418"/>
+      <c r="L5" s="418"/>
     </row>
     <row r="6" spans="1:16" s="233" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="421" t="s">
+      <c r="A6" s="419" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="424" t="s">
+      <c r="B6" s="422" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="421" t="s">
+      <c r="C6" s="419" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="427" t="s">
+      <c r="D6" s="425" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="428" t="s">
+      <c r="E6" s="425"/>
+      <c r="F6" s="426" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="428"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="428"/>
-      <c r="J6" s="428"/>
-      <c r="K6" s="428"/>
-      <c r="L6" s="428"/>
-      <c r="M6" s="429"/>
-      <c r="N6" s="429"/>
-      <c r="O6" s="429"/>
-      <c r="P6" s="397" t="s">
+      <c r="G6" s="426"/>
+      <c r="H6" s="426"/>
+      <c r="I6" s="426"/>
+      <c r="J6" s="426"/>
+      <c r="K6" s="426"/>
+      <c r="L6" s="426"/>
+      <c r="M6" s="427"/>
+      <c r="N6" s="427"/>
+      <c r="O6" s="427"/>
+      <c r="P6" s="401" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="233" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="422"/>
-      <c r="B7" s="425"/>
-      <c r="C7" s="422"/>
-      <c r="D7" s="421" t="s">
+      <c r="A7" s="420"/>
+      <c r="B7" s="423"/>
+      <c r="C7" s="420"/>
+      <c r="D7" s="419" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="421" t="s">
+      <c r="E7" s="419" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="421" t="s">
+      <c r="F7" s="419" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="421" t="s">
+      <c r="G7" s="419" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="421" t="s">
+      <c r="H7" s="419" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="421" t="s">
+      <c r="I7" s="419" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="430" t="s">
+      <c r="J7" s="428" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="430"/>
-      <c r="L7" s="431" t="s">
+      <c r="K7" s="428"/>
+      <c r="L7" s="429" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="433" t="s">
+      <c r="M7" s="431" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="433" t="s">
+      <c r="N7" s="431" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="433" t="s">
+      <c r="O7" s="431" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="400"/>
+      <c r="P7" s="402"/>
     </row>
     <row r="8" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="423"/>
-      <c r="B8" s="426"/>
-      <c r="C8" s="423"/>
-      <c r="D8" s="423"/>
-      <c r="E8" s="423"/>
-      <c r="F8" s="423"/>
-      <c r="G8" s="423"/>
-      <c r="H8" s="423"/>
-      <c r="I8" s="423"/>
+      <c r="A8" s="421"/>
+      <c r="B8" s="424"/>
+      <c r="C8" s="421"/>
+      <c r="D8" s="421"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="421"/>
+      <c r="G8" s="421"/>
+      <c r="H8" s="421"/>
+      <c r="I8" s="421"/>
       <c r="J8" s="234" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="235" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="432"/>
-      <c r="M8" s="434"/>
-      <c r="N8" s="434"/>
-      <c r="O8" s="434"/>
-      <c r="P8" s="398"/>
+      <c r="L8" s="430"/>
+      <c r="M8" s="432"/>
+      <c r="N8" s="432"/>
+      <c r="O8" s="432"/>
+      <c r="P8" s="403"/>
     </row>
     <row r="9" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="407">
+      <c r="A9" s="398">
         <v>1089</v>
       </c>
-      <c r="B9" s="414">
+      <c r="B9" s="404">
         <v>43891</v>
       </c>
-      <c r="C9" s="397" t="s">
+      <c r="C9" s="401" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="397" t="s">
+      <c r="D9" s="401" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="401" t="s">
         <v>137</v>
-      </c>
-      <c r="E9" s="397" t="s">
-        <v>138</v>
       </c>
       <c r="F9" s="236" t="s">
         <v>91</v>
@@ -8291,7 +8302,7 @@
         <v>2275000</v>
       </c>
       <c r="J9" s="236"/>
-      <c r="K9" s="315">
+      <c r="K9" s="314">
         <v>0.41</v>
       </c>
       <c r="L9" s="238">
@@ -8304,16 +8315,16 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O9" s="238"/>
-      <c r="P9" s="407" t="s">
+      <c r="P9" s="398" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="408"/>
-      <c r="B10" s="435"/>
-      <c r="C10" s="400"/>
-      <c r="D10" s="400"/>
-      <c r="E10" s="400"/>
+      <c r="A10" s="399"/>
+      <c r="B10" s="406"/>
+      <c r="C10" s="402"/>
+      <c r="D10" s="402"/>
+      <c r="E10" s="402"/>
       <c r="F10" s="239" t="s">
         <v>93</v>
       </c>
@@ -8328,7 +8339,7 @@
         <v>2325000</v>
       </c>
       <c r="J10" s="239"/>
-      <c r="K10" s="316">
+      <c r="K10" s="315">
         <v>0.41</v>
       </c>
       <c r="L10" s="241">
@@ -8341,14 +8352,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="241"/>
-      <c r="P10" s="408"/>
+      <c r="P10" s="399"/>
     </row>
     <row r="11" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="408"/>
-      <c r="B11" s="435"/>
-      <c r="C11" s="400"/>
-      <c r="D11" s="400"/>
-      <c r="E11" s="400"/>
+      <c r="A11" s="399"/>
+      <c r="B11" s="406"/>
+      <c r="C11" s="402"/>
+      <c r="D11" s="402"/>
+      <c r="E11" s="402"/>
       <c r="F11" s="239" t="s">
         <v>96</v>
       </c>
@@ -8363,7 +8374,7 @@
         <v>2375000</v>
       </c>
       <c r="J11" s="239"/>
-      <c r="K11" s="316">
+      <c r="K11" s="315">
         <v>0.41</v>
       </c>
       <c r="L11" s="241">
@@ -8376,14 +8387,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="241"/>
-      <c r="P11" s="408"/>
+      <c r="P11" s="399"/>
     </row>
     <row r="12" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="408"/>
-      <c r="B12" s="435"/>
-      <c r="C12" s="400"/>
-      <c r="D12" s="400"/>
-      <c r="E12" s="400"/>
+      <c r="A12" s="399"/>
+      <c r="B12" s="406"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="402"/>
       <c r="F12" s="239" t="s">
         <v>101</v>
       </c>
@@ -8398,7 +8409,7 @@
         <v>2425000</v>
       </c>
       <c r="J12" s="239"/>
-      <c r="K12" s="316">
+      <c r="K12" s="315">
         <v>0.41</v>
       </c>
       <c r="L12" s="241">
@@ -8411,14 +8422,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="241"/>
-      <c r="P12" s="408"/>
+      <c r="P12" s="399"/>
     </row>
     <row r="13" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="408"/>
-      <c r="B13" s="435"/>
-      <c r="C13" s="400"/>
-      <c r="D13" s="400"/>
-      <c r="E13" s="400"/>
+      <c r="A13" s="399"/>
+      <c r="B13" s="406"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
       <c r="F13" s="239" t="s">
         <v>100</v>
       </c>
@@ -8433,7 +8444,7 @@
         <v>2425000</v>
       </c>
       <c r="J13" s="239"/>
-      <c r="K13" s="316">
+      <c r="K13" s="315">
         <v>0.41</v>
       </c>
       <c r="L13" s="241">
@@ -8446,14 +8457,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="241"/>
-      <c r="P13" s="408"/>
+      <c r="P13" s="399"/>
     </row>
     <row r="14" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="408"/>
-      <c r="B14" s="435"/>
-      <c r="C14" s="400"/>
-      <c r="D14" s="400"/>
-      <c r="E14" s="400"/>
+      <c r="A14" s="399"/>
+      <c r="B14" s="406"/>
+      <c r="C14" s="402"/>
+      <c r="D14" s="402"/>
+      <c r="E14" s="402"/>
       <c r="F14" s="239" t="s">
         <v>94</v>
       </c>
@@ -8468,7 +8479,7 @@
         <v>2750000</v>
       </c>
       <c r="J14" s="239"/>
-      <c r="K14" s="316">
+      <c r="K14" s="315">
         <v>0.41</v>
       </c>
       <c r="L14" s="241">
@@ -8481,14 +8492,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="241"/>
-      <c r="P14" s="408"/>
+      <c r="P14" s="399"/>
     </row>
     <row r="15" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="408"/>
-      <c r="B15" s="435"/>
-      <c r="C15" s="400"/>
-      <c r="D15" s="400"/>
-      <c r="E15" s="400"/>
+      <c r="A15" s="399"/>
+      <c r="B15" s="406"/>
+      <c r="C15" s="402"/>
+      <c r="D15" s="402"/>
+      <c r="E15" s="402"/>
       <c r="F15" s="239" t="s">
         <v>95</v>
       </c>
@@ -8503,7 +8514,7 @@
         <v>2275000</v>
       </c>
       <c r="J15" s="239"/>
-      <c r="K15" s="316">
+      <c r="K15" s="315">
         <v>0.41</v>
       </c>
       <c r="L15" s="241">
@@ -8516,14 +8527,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="241"/>
-      <c r="P15" s="408"/>
+      <c r="P15" s="399"/>
     </row>
     <row r="16" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="409"/>
-      <c r="B16" s="415"/>
-      <c r="C16" s="398"/>
-      <c r="D16" s="398"/>
-      <c r="E16" s="398"/>
+      <c r="A16" s="400"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="403"/>
+      <c r="D16" s="403"/>
+      <c r="E16" s="403"/>
       <c r="F16" s="242" t="s">
         <v>124</v>
       </c>
@@ -8538,7 +8549,7 @@
         <v>2275000</v>
       </c>
       <c r="J16" s="242"/>
-      <c r="K16" s="317">
+      <c r="K16" s="316">
         <v>0.41</v>
       </c>
       <c r="L16" s="244">
@@ -8551,21 +8562,21 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="244"/>
-      <c r="P16" s="409"/>
+      <c r="P16" s="400"/>
     </row>
     <row r="17" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="407">
+      <c r="A17" s="398">
         <v>1102</v>
       </c>
-      <c r="B17" s="414">
+      <c r="B17" s="404">
         <v>43891</v>
       </c>
-      <c r="C17" s="397"/>
-      <c r="D17" s="397" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" s="397" t="s">
-        <v>160</v>
+      <c r="C17" s="401"/>
+      <c r="D17" s="401" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="401" t="s">
+        <v>159</v>
       </c>
       <c r="F17" s="245" t="s">
         <v>93</v>
@@ -8581,7 +8592,7 @@
         <v>5580000</v>
       </c>
       <c r="J17" s="245"/>
-      <c r="K17" s="318">
+      <c r="K17" s="317">
         <v>0.5</v>
       </c>
       <c r="L17" s="246">
@@ -8594,16 +8605,16 @@
         <f>L17</f>
         <v>2790000</v>
       </c>
-      <c r="P17" s="407" t="s">
-        <v>142</v>
+      <c r="P17" s="398" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="233" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="409"/>
-      <c r="B18" s="415"/>
-      <c r="C18" s="398"/>
-      <c r="D18" s="398"/>
-      <c r="E18" s="398"/>
+      <c r="A18" s="400"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="403"/>
+      <c r="D18" s="403"/>
+      <c r="E18" s="403"/>
       <c r="F18" s="247" t="s">
         <v>100</v>
       </c>
@@ -8618,7 +8629,7 @@
         <v>5820000</v>
       </c>
       <c r="J18" s="247"/>
-      <c r="K18" s="319">
+      <c r="K18" s="318">
         <v>0.5</v>
       </c>
       <c r="L18" s="248">
@@ -8631,9 +8642,9 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="408"/>
-    </row>
-    <row r="19" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="P18" s="399"/>
+    </row>
+    <row r="19" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="250">
         <v>1104</v>
       </c>
@@ -8642,10 +8653,10 @@
       </c>
       <c r="C19" s="252"/>
       <c r="D19" s="252" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="252" t="s">
-        <v>149</v>
+        <v>339</v>
       </c>
       <c r="F19" s="253" t="s">
         <v>100</v>
@@ -8661,7 +8672,7 @@
         <v>5820000</v>
       </c>
       <c r="J19" s="253"/>
-      <c r="K19" s="320">
+      <c r="K19" s="319">
         <v>0.41</v>
       </c>
       <c r="L19" s="254">
@@ -8675,22 +8686,22 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="P19" s="250" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="407">
+      <c r="A20" s="398">
         <v>1108</v>
       </c>
-      <c r="B20" s="414">
+      <c r="B20" s="404">
         <v>43893</v>
       </c>
-      <c r="C20" s="397"/>
-      <c r="D20" s="397" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="397" t="s">
-        <v>149</v>
+      <c r="C20" s="401"/>
+      <c r="D20" s="401" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="401" t="s">
+        <v>339</v>
       </c>
       <c r="F20" s="236" t="s">
         <v>93</v>
@@ -8706,7 +8717,7 @@
         <v>5580000</v>
       </c>
       <c r="J20" s="236"/>
-      <c r="K20" s="315">
+      <c r="K20" s="314">
         <v>0.41</v>
       </c>
       <c r="L20" s="238">
@@ -8719,16 +8730,16 @@
         <f>L20</f>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P20" s="407" t="s">
-        <v>142</v>
+      <c r="P20" s="398" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="408"/>
-      <c r="B21" s="435"/>
-      <c r="C21" s="400"/>
-      <c r="D21" s="400"/>
-      <c r="E21" s="400"/>
+      <c r="A21" s="399"/>
+      <c r="B21" s="406"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="402"/>
+      <c r="E21" s="402"/>
       <c r="F21" s="239" t="s">
         <v>96</v>
       </c>
@@ -8743,7 +8754,7 @@
         <v>5700000</v>
       </c>
       <c r="J21" s="239"/>
-      <c r="K21" s="316">
+      <c r="K21" s="315">
         <v>0.41</v>
       </c>
       <c r="L21" s="241">
@@ -8756,14 +8767,14 @@
         <f>L21</f>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P21" s="408"/>
+      <c r="P21" s="399"/>
     </row>
     <row r="22" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="409"/>
-      <c r="B22" s="415"/>
-      <c r="C22" s="398"/>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
+      <c r="A22" s="400"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="403"/>
+      <c r="D22" s="403"/>
+      <c r="E22" s="403"/>
       <c r="F22" s="242" t="s">
         <v>101</v>
       </c>
@@ -8778,7 +8789,7 @@
         <v>8730000</v>
       </c>
       <c r="J22" s="242"/>
-      <c r="K22" s="317">
+      <c r="K22" s="316">
         <v>0.41</v>
       </c>
       <c r="L22" s="244">
@@ -8791,20 +8802,20 @@
         <f>L22</f>
         <v>5150700.0000000009</v>
       </c>
-      <c r="P22" s="409"/>
+      <c r="P22" s="400"/>
     </row>
     <row r="23" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="330">
+      <c r="A23" s="329">
         <v>1061</v>
       </c>
-      <c r="B23" s="332">
+      <c r="B23" s="331">
         <v>43896</v>
       </c>
-      <c r="C23" s="331"/>
-      <c r="D23" s="331" t="s">
-        <v>313</v>
-      </c>
-      <c r="E23" s="331"/>
+      <c r="C23" s="330"/>
+      <c r="D23" s="330" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="330"/>
       <c r="F23" s="280" t="s">
         <v>94</v>
       </c>
@@ -8819,7 +8830,7 @@
         <v>550000</v>
       </c>
       <c r="J23" s="280"/>
-      <c r="K23" s="334">
+      <c r="K23" s="332">
         <v>1</v>
       </c>
       <c r="L23" s="249">
@@ -8827,27 +8838,27 @@
         <v>0</v>
       </c>
       <c r="M23" s="249"/>
-      <c r="N23" s="335"/>
+      <c r="N23" s="333"/>
       <c r="O23" s="249">
         <f>L23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="330"/>
+      <c r="P23" s="329"/>
     </row>
     <row r="24" spans="1:16" s="233" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="401">
+      <c r="A24" s="408">
         <v>1056</v>
       </c>
       <c r="B24" s="411">
         <v>43899</v>
       </c>
-      <c r="C24" s="404" t="s">
+      <c r="C24" s="414" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="404" t="s">
+      <c r="D24" s="414" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="404"/>
+      <c r="E24" s="414"/>
       <c r="F24" s="236" t="s">
         <v>96</v>
       </c>
@@ -8862,7 +8873,7 @@
         <v>1425000</v>
       </c>
       <c r="J24" s="237"/>
-      <c r="K24" s="315">
+      <c r="K24" s="314">
         <v>0.41</v>
       </c>
       <c r="L24" s="238">
@@ -8875,16 +8886,16 @@
         <v>840750.00000000012</v>
       </c>
       <c r="O24" s="236"/>
-      <c r="P24" s="407" t="s">
+      <c r="P24" s="398" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="410"/>
+      <c r="A25" s="409"/>
       <c r="B25" s="412"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="405"/>
-      <c r="E25" s="405"/>
+      <c r="C25" s="415"/>
+      <c r="D25" s="415"/>
+      <c r="E25" s="415"/>
       <c r="F25" s="239" t="s">
         <v>101</v>
       </c>
@@ -8899,7 +8910,7 @@
         <v>2910000</v>
       </c>
       <c r="J25" s="240"/>
-      <c r="K25" s="316">
+      <c r="K25" s="315">
         <v>0.41</v>
       </c>
       <c r="L25" s="241">
@@ -8912,14 +8923,14 @@
         <v>1716900.0000000002</v>
       </c>
       <c r="O25" s="239"/>
-      <c r="P25" s="408"/>
+      <c r="P25" s="399"/>
     </row>
     <row r="26" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="402"/>
+      <c r="A26" s="410"/>
       <c r="B26" s="413"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="406"/>
-      <c r="E26" s="406"/>
+      <c r="C26" s="416"/>
+      <c r="D26" s="416"/>
+      <c r="E26" s="416"/>
       <c r="F26" s="242" t="s">
         <v>124</v>
       </c>
@@ -8934,7 +8945,7 @@
         <v>455000</v>
       </c>
       <c r="J26" s="243"/>
-      <c r="K26" s="317">
+      <c r="K26" s="316">
         <v>0.41</v>
       </c>
       <c r="L26" s="244">
@@ -8947,7 +8958,7 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O26" s="242"/>
-      <c r="P26" s="409"/>
+      <c r="P26" s="400"/>
     </row>
     <row r="27" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="258">
@@ -8975,7 +8986,7 @@
         <v>455000</v>
       </c>
       <c r="J27" s="264"/>
-      <c r="K27" s="321">
+      <c r="K27" s="320">
         <v>0.41</v>
       </c>
       <c r="L27" s="249">
@@ -8989,7 +9000,7 @@
       </c>
       <c r="O27" s="262"/>
       <c r="P27" s="258" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9018,7 +9029,7 @@
         <v>455000</v>
       </c>
       <c r="J28" s="268"/>
-      <c r="K28" s="320">
+      <c r="K28" s="319">
         <v>0.41</v>
       </c>
       <c r="L28" s="238">
@@ -9036,17 +9047,17 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="407">
+      <c r="A29" s="398">
         <v>1060</v>
       </c>
-      <c r="B29" s="414">
+      <c r="B29" s="404">
         <v>43900</v>
       </c>
-      <c r="C29" s="397" t="s">
+      <c r="C29" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="397"/>
-      <c r="E29" s="397"/>
+      <c r="D29" s="401"/>
+      <c r="E29" s="401"/>
       <c r="F29" s="236" t="s">
         <v>92</v>
       </c>
@@ -9061,7 +9072,7 @@
         <v>265000</v>
       </c>
       <c r="J29" s="236"/>
-      <c r="K29" s="315">
+      <c r="K29" s="314">
         <v>0.41</v>
       </c>
       <c r="L29" s="238">
@@ -9074,16 +9085,16 @@
         <v>156350.00000000003</v>
       </c>
       <c r="O29" s="236"/>
-      <c r="P29" s="407" t="s">
+      <c r="P29" s="398" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="408"/>
-      <c r="B30" s="435"/>
-      <c r="C30" s="400"/>
-      <c r="D30" s="400"/>
-      <c r="E30" s="400"/>
+      <c r="A30" s="399"/>
+      <c r="B30" s="406"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="402"/>
+      <c r="E30" s="402"/>
       <c r="F30" s="239" t="s">
         <v>93</v>
       </c>
@@ -9098,7 +9109,7 @@
         <v>3720000</v>
       </c>
       <c r="J30" s="239"/>
-      <c r="K30" s="316">
+      <c r="K30" s="315">
         <v>0.41</v>
       </c>
       <c r="L30" s="241">
@@ -9111,14 +9122,14 @@
         <v>2194800.0000000005</v>
       </c>
       <c r="O30" s="239"/>
-      <c r="P30" s="408"/>
+      <c r="P30" s="399"/>
     </row>
     <row r="31" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="409"/>
-      <c r="B31" s="415"/>
-      <c r="C31" s="398"/>
-      <c r="D31" s="398"/>
-      <c r="E31" s="398"/>
+      <c r="A31" s="400"/>
+      <c r="B31" s="405"/>
+      <c r="C31" s="403"/>
+      <c r="D31" s="403"/>
+      <c r="E31" s="403"/>
       <c r="F31" s="242" t="s">
         <v>94</v>
       </c>
@@ -9133,7 +9144,7 @@
         <v>550000</v>
       </c>
       <c r="J31" s="242"/>
-      <c r="K31" s="317">
+      <c r="K31" s="316">
         <v>0.41</v>
       </c>
       <c r="L31" s="244">
@@ -9146,9 +9157,9 @@
         <v>324500.00000000006</v>
       </c>
       <c r="O31" s="242"/>
-      <c r="P31" s="409"/>
-    </row>
-    <row r="32" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="P31" s="400"/>
+    </row>
+    <row r="32" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="258">
         <v>1092</v>
       </c>
@@ -9160,7 +9171,7 @@
         <v>126</v>
       </c>
       <c r="E32" s="260" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="F32" s="262" t="s">
         <v>91</v>
@@ -9176,9 +9187,9 @@
         <v>16380000</v>
       </c>
       <c r="J32" s="265">
-        <v>200000</v>
-      </c>
-      <c r="K32" s="320">
+        <v>150000</v>
+      </c>
+      <c r="K32" s="319">
         <v>0.41</v>
       </c>
       <c r="L32" s="238">
@@ -9209,7 +9220,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="261" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" s="262" t="s">
         <v>101</v>
@@ -9225,7 +9236,7 @@
         <v>9700000</v>
       </c>
       <c r="J33" s="262"/>
-      <c r="K33" s="320">
+      <c r="K33" s="319">
         <v>0.41</v>
       </c>
       <c r="L33" s="238">
@@ -9269,7 +9280,7 @@
         <v>1350000</v>
       </c>
       <c r="J34" s="253"/>
-      <c r="K34" s="320">
+      <c r="K34" s="319">
         <v>0.41</v>
       </c>
       <c r="L34" s="238">
@@ -9286,7 +9297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="233" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="250">
         <v>1128</v>
       </c>
@@ -9300,7 +9311,7 @@
         <v>135</v>
       </c>
       <c r="E35" s="267" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="F35" s="253" t="s">
         <v>91</v>
@@ -9316,7 +9327,7 @@
         <v>910000</v>
       </c>
       <c r="J35" s="253"/>
-      <c r="K35" s="320">
+      <c r="K35" s="319">
         <v>0.41</v>
       </c>
       <c r="L35" s="238">
@@ -9359,7 +9370,7 @@
         <v>1365000</v>
       </c>
       <c r="J36" s="273"/>
-      <c r="K36" s="322">
+      <c r="K36" s="321">
         <v>0.41</v>
       </c>
       <c r="L36" s="277">
@@ -9400,7 +9411,7 @@
         <v>265000</v>
       </c>
       <c r="J37" s="253"/>
-      <c r="K37" s="320">
+      <c r="K37" s="319">
         <v>0.41</v>
       </c>
       <c r="L37" s="254">
@@ -9418,20 +9429,20 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="407">
+      <c r="A38" s="398">
         <v>1073</v>
       </c>
-      <c r="B38" s="414">
+      <c r="B38" s="404">
         <v>43905</v>
       </c>
-      <c r="C38" s="397" t="s">
+      <c r="C38" s="401" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="397" t="s">
+      <c r="D38" s="401" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="401" t="s">
         <v>140</v>
-      </c>
-      <c r="E38" s="397" t="s">
-        <v>141</v>
       </c>
       <c r="F38" s="236" t="s">
         <v>101</v>
@@ -9447,7 +9458,7 @@
         <v>11640000</v>
       </c>
       <c r="J38" s="236"/>
-      <c r="K38" s="315">
+      <c r="K38" s="314">
         <v>0.41</v>
       </c>
       <c r="L38" s="238">
@@ -9460,16 +9471,16 @@
         <v>6867600.0000000009</v>
       </c>
       <c r="O38" s="238"/>
-      <c r="P38" s="407" t="s">
-        <v>142</v>
+      <c r="P38" s="398" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="409"/>
-      <c r="B39" s="415"/>
-      <c r="C39" s="398"/>
-      <c r="D39" s="398"/>
-      <c r="E39" s="398"/>
+      <c r="A39" s="400"/>
+      <c r="B39" s="405"/>
+      <c r="C39" s="403"/>
+      <c r="D39" s="403"/>
+      <c r="E39" s="403"/>
       <c r="F39" s="242" t="s">
         <v>95</v>
       </c>
@@ -9484,7 +9495,7 @@
         <v>5460000</v>
       </c>
       <c r="J39" s="242"/>
-      <c r="K39" s="317">
+      <c r="K39" s="316">
         <v>0.41</v>
       </c>
       <c r="L39" s="244">
@@ -9497,7 +9508,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O39" s="244"/>
-      <c r="P39" s="409"/>
+      <c r="P39" s="400"/>
     </row>
     <row r="40" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="250">
@@ -9507,7 +9518,7 @@
         <v>43904</v>
       </c>
       <c r="C40" s="252" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40" s="252"/>
       <c r="E40" s="267"/>
@@ -9525,7 +9536,7 @@
         <v>475000</v>
       </c>
       <c r="J40" s="253"/>
-      <c r="K40" s="320">
+      <c r="K40" s="319">
         <v>0.41</v>
       </c>
       <c r="L40" s="238">
@@ -9541,18 +9552,18 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="233" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="407">
+      <c r="A41" s="398">
         <v>1069</v>
       </c>
-      <c r="B41" s="414">
+      <c r="B41" s="404">
         <v>43904</v>
       </c>
-      <c r="C41" s="397"/>
-      <c r="D41" s="397" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="397" t="s">
-        <v>205</v>
+      <c r="C41" s="401"/>
+      <c r="D41" s="401" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="401" t="s">
+        <v>204</v>
       </c>
       <c r="F41" s="236" t="s">
         <v>91</v>
@@ -9568,7 +9579,7 @@
         <v>10920000</v>
       </c>
       <c r="J41" s="236"/>
-      <c r="K41" s="315">
+      <c r="K41" s="314">
         <v>0.35</v>
       </c>
       <c r="L41" s="238">
@@ -9581,16 +9592,16 @@
         <f>L41</f>
         <v>7098000</v>
       </c>
-      <c r="P41" s="407" t="s">
+      <c r="P41" s="398" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="409"/>
-      <c r="B42" s="415"/>
-      <c r="C42" s="400"/>
-      <c r="D42" s="398"/>
-      <c r="E42" s="398"/>
+      <c r="A42" s="400"/>
+      <c r="B42" s="405"/>
+      <c r="C42" s="402"/>
+      <c r="D42" s="403"/>
+      <c r="E42" s="403"/>
       <c r="F42" s="242" t="s">
         <v>93</v>
       </c>
@@ -9605,7 +9616,7 @@
         <v>5580000</v>
       </c>
       <c r="J42" s="242"/>
-      <c r="K42" s="317">
+      <c r="K42" s="316">
         <v>0.35</v>
       </c>
       <c r="L42" s="244">
@@ -9618,21 +9629,21 @@
         <f t="shared" ref="O42:O47" si="12">L42</f>
         <v>3627000</v>
       </c>
-      <c r="P42" s="408"/>
+      <c r="P42" s="399"/>
     </row>
     <row r="43" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="407">
+      <c r="A43" s="398">
         <v>1070</v>
       </c>
-      <c r="B43" s="414">
+      <c r="B43" s="404">
         <v>43904</v>
       </c>
-      <c r="C43" s="397"/>
-      <c r="D43" s="397" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="397" t="s">
-        <v>205</v>
+      <c r="C43" s="401"/>
+      <c r="D43" s="401" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="401" t="s">
+        <v>204</v>
       </c>
       <c r="F43" s="236" t="s">
         <v>91</v>
@@ -9648,7 +9659,7 @@
         <v>10920000</v>
       </c>
       <c r="J43" s="236"/>
-      <c r="K43" s="315">
+      <c r="K43" s="314">
         <v>0.35</v>
       </c>
       <c r="L43" s="238">
@@ -9661,14 +9672,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P43" s="408"/>
+      <c r="P43" s="399"/>
     </row>
     <row r="44" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="409"/>
-      <c r="B44" s="415"/>
-      <c r="C44" s="400"/>
-      <c r="D44" s="398"/>
-      <c r="E44" s="398"/>
+      <c r="A44" s="400"/>
+      <c r="B44" s="405"/>
+      <c r="C44" s="402"/>
+      <c r="D44" s="403"/>
+      <c r="E44" s="403"/>
       <c r="F44" s="242" t="s">
         <v>93</v>
       </c>
@@ -9683,7 +9694,7 @@
         <v>5580000</v>
       </c>
       <c r="J44" s="242"/>
-      <c r="K44" s="317">
+      <c r="K44" s="316">
         <v>0.35</v>
       </c>
       <c r="L44" s="244">
@@ -9696,20 +9707,20 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P44" s="408"/>
+      <c r="P44" s="399"/>
     </row>
     <row r="45" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="407">
+      <c r="A45" s="398">
         <v>1072</v>
       </c>
-      <c r="B45" s="414">
+      <c r="B45" s="404">
         <v>43904</v>
       </c>
-      <c r="C45" s="397"/>
-      <c r="D45" s="397" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="397"/>
+      <c r="C45" s="401"/>
+      <c r="D45" s="401" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="401"/>
       <c r="F45" s="236" t="s">
         <v>93</v>
       </c>
@@ -9724,7 +9735,7 @@
         <v>5580000</v>
       </c>
       <c r="J45" s="236"/>
-      <c r="K45" s="315">
+      <c r="K45" s="314">
         <v>0.41</v>
       </c>
       <c r="L45" s="238">
@@ -9737,14 +9748,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P45" s="408"/>
+      <c r="P45" s="399"/>
     </row>
     <row r="46" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="408"/>
-      <c r="B46" s="435"/>
-      <c r="C46" s="400"/>
-      <c r="D46" s="400"/>
-      <c r="E46" s="400"/>
+      <c r="A46" s="399"/>
+      <c r="B46" s="406"/>
+      <c r="C46" s="402"/>
+      <c r="D46" s="402"/>
+      <c r="E46" s="402"/>
       <c r="F46" s="239" t="s">
         <v>101</v>
       </c>
@@ -9759,7 +9770,7 @@
         <v>5820000</v>
       </c>
       <c r="J46" s="239"/>
-      <c r="K46" s="316">
+      <c r="K46" s="315">
         <v>0.41</v>
       </c>
       <c r="L46" s="241">
@@ -9772,14 +9783,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P46" s="408"/>
+      <c r="P46" s="399"/>
     </row>
     <row r="47" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="409"/>
-      <c r="B47" s="415"/>
-      <c r="C47" s="398"/>
-      <c r="D47" s="398"/>
-      <c r="E47" s="398"/>
+      <c r="A47" s="400"/>
+      <c r="B47" s="405"/>
+      <c r="C47" s="403"/>
+      <c r="D47" s="403"/>
+      <c r="E47" s="403"/>
       <c r="F47" s="242" t="s">
         <v>95</v>
       </c>
@@ -9794,7 +9805,7 @@
         <v>5460000</v>
       </c>
       <c r="J47" s="242"/>
-      <c r="K47" s="317">
+      <c r="K47" s="316">
         <v>0.41</v>
       </c>
       <c r="L47" s="244">
@@ -9807,7 +9818,7 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P47" s="409"/>
+      <c r="P47" s="400"/>
     </row>
     <row r="48" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="250">
@@ -9817,10 +9828,10 @@
         <v>43906</v>
       </c>
       <c r="C48" s="252" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="252" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" s="267"/>
       <c r="F48" s="253" t="s">
@@ -9837,7 +9848,7 @@
         <v>5460000</v>
       </c>
       <c r="J48" s="253"/>
-      <c r="K48" s="320">
+      <c r="K48" s="319">
         <v>0.41</v>
       </c>
       <c r="L48" s="254">
@@ -9851,7 +9862,7 @@
       </c>
       <c r="O48" s="254"/>
       <c r="P48" s="250" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -9865,10 +9876,10 @@
         <v>121</v>
       </c>
       <c r="D49" s="252" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="267" t="s">
         <v>148</v>
-      </c>
-      <c r="E49" s="267" t="s">
-        <v>149</v>
       </c>
       <c r="F49" s="253" t="s">
         <v>95</v>
@@ -9884,7 +9895,7 @@
         <v>910000</v>
       </c>
       <c r="J49" s="253"/>
-      <c r="K49" s="320">
+      <c r="K49" s="319">
         <v>0.41</v>
       </c>
       <c r="L49" s="254">
@@ -9912,10 +9923,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="252" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="267" t="s">
         <v>150</v>
-      </c>
-      <c r="E50" s="267" t="s">
-        <v>151</v>
       </c>
       <c r="F50" s="253" t="s">
         <v>91</v>
@@ -9931,7 +9942,7 @@
         <v>10920000</v>
       </c>
       <c r="J50" s="253"/>
-      <c r="K50" s="320">
+      <c r="K50" s="319">
         <v>0.38</v>
       </c>
       <c r="L50" s="254">
@@ -9945,21 +9956,21 @@
         <v>6770400</v>
       </c>
       <c r="P50" s="252" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="407">
+      <c r="A51" s="398">
         <v>1078</v>
       </c>
-      <c r="B51" s="417">
+      <c r="B51" s="433">
         <v>43907</v>
       </c>
-      <c r="C51" s="418" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="397"/>
-      <c r="E51" s="397"/>
+      <c r="C51" s="434" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="401"/>
+      <c r="E51" s="401"/>
       <c r="F51" s="236" t="s">
         <v>93</v>
       </c>
@@ -9974,7 +9985,7 @@
         <v>465000</v>
       </c>
       <c r="J51" s="236"/>
-      <c r="K51" s="315">
+      <c r="K51" s="314">
         <v>0.41</v>
       </c>
       <c r="L51" s="238">
@@ -9987,16 +9998,16 @@
         <v>274350.00000000006</v>
       </c>
       <c r="O51" s="238"/>
-      <c r="P51" s="407" t="s">
-        <v>153</v>
+      <c r="P51" s="398" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="409"/>
-      <c r="B52" s="417"/>
-      <c r="C52" s="418"/>
-      <c r="D52" s="398"/>
-      <c r="E52" s="398"/>
+      <c r="A52" s="400"/>
+      <c r="B52" s="433"/>
+      <c r="C52" s="434"/>
+      <c r="D52" s="403"/>
+      <c r="E52" s="403"/>
       <c r="F52" s="242" t="s">
         <v>95</v>
       </c>
@@ -10011,7 +10022,7 @@
         <v>910000</v>
       </c>
       <c r="J52" s="242"/>
-      <c r="K52" s="317">
+      <c r="K52" s="316">
         <v>0.41</v>
       </c>
       <c r="L52" s="244">
@@ -10024,20 +10035,20 @@
         <v>536900.00000000012</v>
       </c>
       <c r="O52" s="244"/>
-      <c r="P52" s="408"/>
+      <c r="P52" s="399"/>
     </row>
     <row r="53" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="407">
+      <c r="A53" s="398">
         <v>1080</v>
       </c>
-      <c r="B53" s="414">
+      <c r="B53" s="404">
         <v>43908</v>
       </c>
-      <c r="C53" s="397" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="397"/>
-      <c r="E53" s="397"/>
+      <c r="C53" s="401" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="401"/>
+      <c r="E53" s="401"/>
       <c r="F53" s="236" t="s">
         <v>97</v>
       </c>
@@ -10052,7 +10063,7 @@
         <v>285000</v>
       </c>
       <c r="J53" s="236"/>
-      <c r="K53" s="315">
+      <c r="K53" s="314">
         <v>0.41</v>
       </c>
       <c r="L53" s="238">
@@ -10065,14 +10076,14 @@
         <v>168150.00000000003</v>
       </c>
       <c r="O53" s="238"/>
-      <c r="P53" s="408"/>
+      <c r="P53" s="399"/>
     </row>
     <row r="54" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="409"/>
-      <c r="B54" s="415"/>
-      <c r="C54" s="398"/>
-      <c r="D54" s="398"/>
-      <c r="E54" s="398"/>
+      <c r="A54" s="400"/>
+      <c r="B54" s="405"/>
+      <c r="C54" s="403"/>
+      <c r="D54" s="403"/>
+      <c r="E54" s="403"/>
       <c r="F54" s="242" t="s">
         <v>98</v>
       </c>
@@ -10087,7 +10098,7 @@
         <v>255000</v>
       </c>
       <c r="J54" s="242"/>
-      <c r="K54" s="317">
+      <c r="K54" s="316">
         <v>0.41</v>
       </c>
       <c r="L54" s="244">
@@ -10100,7 +10111,7 @@
         <v>150450.00000000003</v>
       </c>
       <c r="O54" s="244"/>
-      <c r="P54" s="409"/>
+      <c r="P54" s="400"/>
     </row>
     <row r="55" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="250">
@@ -10110,7 +10121,7 @@
         <v>43908</v>
       </c>
       <c r="C55" s="252" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D55" s="260"/>
       <c r="E55" s="261"/>
@@ -10128,7 +10139,7 @@
         <v>455000</v>
       </c>
       <c r="J55" s="262"/>
-      <c r="K55" s="321">
+      <c r="K55" s="320">
         <v>0.41</v>
       </c>
       <c r="L55" s="265">
@@ -10142,10 +10153,10 @@
       </c>
       <c r="O55" s="265"/>
       <c r="P55" s="250" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A56" s="250">
         <v>1082</v>
       </c>
@@ -10153,10 +10164,10 @@
         <v>43908</v>
       </c>
       <c r="C56" s="267" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" s="252" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="267"/>
       <c r="F56" s="253" t="s">
@@ -10173,7 +10184,7 @@
         <v>455000</v>
       </c>
       <c r="J56" s="253"/>
-      <c r="K56" s="320">
+      <c r="K56" s="319">
         <v>0.41</v>
       </c>
       <c r="L56" s="254">
@@ -10187,22 +10198,22 @@
       <c r="N56" s="254"/>
       <c r="O56" s="254"/>
       <c r="P56" s="250" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="398">
+        <v>1091</v>
+      </c>
+      <c r="B57" s="404">
+        <v>43908</v>
+      </c>
+      <c r="C57" s="281"/>
+      <c r="D57" s="401" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="407">
-        <v>1091</v>
-      </c>
-      <c r="B57" s="414">
-        <v>43908</v>
-      </c>
-      <c r="C57" s="281"/>
-      <c r="D57" s="397" t="s">
+      <c r="E57" s="401" t="s">
         <v>157</v>
-      </c>
-      <c r="E57" s="397" t="s">
-        <v>158</v>
       </c>
       <c r="F57" s="236" t="s">
         <v>98</v>
@@ -10218,7 +10229,7 @@
         <v>4590000</v>
       </c>
       <c r="J57" s="236"/>
-      <c r="K57" s="315">
+      <c r="K57" s="314">
         <v>0.41</v>
       </c>
       <c r="L57" s="238">
@@ -10231,18 +10242,18 @@
         <v>2708100.0000000005</v>
       </c>
       <c r="O57" s="282"/>
-      <c r="P57" s="401" t="s">
-        <v>153</v>
+      <c r="P57" s="408" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="409"/>
-      <c r="B58" s="415"/>
+      <c r="A58" s="400"/>
+      <c r="B58" s="405"/>
       <c r="C58" s="281" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="398"/>
-      <c r="E58" s="398"/>
+        <v>201</v>
+      </c>
+      <c r="D58" s="403"/>
+      <c r="E58" s="403"/>
       <c r="F58" s="242" t="s">
         <v>91</v>
       </c>
@@ -10257,7 +10268,7 @@
         <v>1365000</v>
       </c>
       <c r="J58" s="244"/>
-      <c r="K58" s="317">
+      <c r="K58" s="316">
         <v>0.41</v>
       </c>
       <c r="L58" s="244">
@@ -10270,20 +10281,20 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O58" s="283"/>
-      <c r="P58" s="402"/>
+      <c r="P58" s="410"/>
     </row>
     <row r="59" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="407">
+      <c r="A59" s="398">
         <v>1086</v>
       </c>
-      <c r="B59" s="414">
+      <c r="B59" s="404">
         <v>43909</v>
       </c>
-      <c r="C59" s="397" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="397"/>
-      <c r="E59" s="397"/>
+      <c r="C59" s="401" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="401"/>
+      <c r="E59" s="401"/>
       <c r="F59" s="245" t="s">
         <v>91</v>
       </c>
@@ -10298,7 +10309,7 @@
         <v>455000</v>
       </c>
       <c r="J59" s="245"/>
-      <c r="K59" s="318">
+      <c r="K59" s="317">
         <v>0.41</v>
       </c>
       <c r="L59" s="246">
@@ -10310,17 +10321,17 @@
         <v>268450.00000000006</v>
       </c>
       <c r="N59" s="246"/>
-      <c r="O59" s="254"/>
-      <c r="P59" s="407" t="s">
-        <v>153</v>
+      <c r="O59" s="246"/>
+      <c r="P59" s="398" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="408"/>
-      <c r="B60" s="435"/>
-      <c r="C60" s="400"/>
-      <c r="D60" s="400"/>
-      <c r="E60" s="400"/>
+      <c r="A60" s="399"/>
+      <c r="B60" s="406"/>
+      <c r="C60" s="402"/>
+      <c r="D60" s="402"/>
+      <c r="E60" s="402"/>
       <c r="F60" s="239" t="s">
         <v>93</v>
       </c>
@@ -10335,7 +10346,7 @@
         <v>465000</v>
       </c>
       <c r="J60" s="239"/>
-      <c r="K60" s="316">
+      <c r="K60" s="315">
         <v>0.41</v>
       </c>
       <c r="L60" s="241">
@@ -10347,15 +10358,15 @@
         <v>274350.00000000006</v>
       </c>
       <c r="N60" s="241"/>
-      <c r="O60" s="254"/>
-      <c r="P60" s="408"/>
+      <c r="O60" s="241"/>
+      <c r="P60" s="399"/>
     </row>
     <row r="61" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="409"/>
-      <c r="B61" s="415"/>
-      <c r="C61" s="398"/>
-      <c r="D61" s="398"/>
-      <c r="E61" s="398"/>
+      <c r="A61" s="400"/>
+      <c r="B61" s="405"/>
+      <c r="C61" s="403"/>
+      <c r="D61" s="403"/>
+      <c r="E61" s="403"/>
       <c r="F61" s="247" t="s">
         <v>100</v>
       </c>
@@ -10370,7 +10381,7 @@
         <v>485000</v>
       </c>
       <c r="J61" s="247"/>
-      <c r="K61" s="319">
+      <c r="K61" s="318">
         <v>0.41</v>
       </c>
       <c r="L61" s="248">
@@ -10382,8 +10393,8 @@
         <v>286150.00000000006</v>
       </c>
       <c r="N61" s="248"/>
-      <c r="O61" s="254"/>
-      <c r="P61" s="409"/>
+      <c r="O61" s="248"/>
+      <c r="P61" s="400"/>
     </row>
     <row r="62" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="250">
@@ -10393,7 +10404,7 @@
         <v>43909</v>
       </c>
       <c r="C62" s="252" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="252"/>
       <c r="E62" s="267"/>
@@ -10411,7 +10422,7 @@
         <v>455000</v>
       </c>
       <c r="J62" s="253"/>
-      <c r="K62" s="320">
+      <c r="K62" s="319">
         <v>0.41</v>
       </c>
       <c r="L62" s="254">
@@ -10425,22 +10436,22 @@
       <c r="N62" s="254"/>
       <c r="O62" s="254"/>
       <c r="P62" s="250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="401">
+      <c r="A63" s="408">
         <v>1094</v>
       </c>
       <c r="B63" s="411">
         <v>43912</v>
       </c>
-      <c r="C63" s="404"/>
-      <c r="D63" s="404" t="s">
+      <c r="C63" s="414"/>
+      <c r="D63" s="414" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="414" t="s">
         <v>161</v>
-      </c>
-      <c r="E63" s="404" t="s">
-        <v>162</v>
       </c>
       <c r="F63" s="236" t="s">
         <v>91</v>
@@ -10456,7 +10467,7 @@
         <v>2730000</v>
       </c>
       <c r="J63" s="237"/>
-      <c r="K63" s="315">
+      <c r="K63" s="314">
         <v>0.41</v>
       </c>
       <c r="L63" s="238">
@@ -10469,14 +10480,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O63" s="284"/>
-      <c r="P63" s="399"/>
+      <c r="P63" s="437"/>
     </row>
     <row r="64" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="410"/>
+      <c r="A64" s="409"/>
       <c r="B64" s="412"/>
-      <c r="C64" s="405"/>
-      <c r="D64" s="405"/>
-      <c r="E64" s="405"/>
+      <c r="C64" s="415"/>
+      <c r="D64" s="415"/>
+      <c r="E64" s="415"/>
       <c r="F64" s="239" t="s">
         <v>101</v>
       </c>
@@ -10491,7 +10502,7 @@
         <v>1455000</v>
       </c>
       <c r="J64" s="240"/>
-      <c r="K64" s="316">
+      <c r="K64" s="315">
         <v>0.41</v>
       </c>
       <c r="L64" s="241">
@@ -10504,14 +10515,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O64" s="285"/>
-      <c r="P64" s="399"/>
+      <c r="P64" s="437"/>
     </row>
     <row r="65" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="402"/>
+      <c r="A65" s="410"/>
       <c r="B65" s="413"/>
-      <c r="C65" s="406"/>
-      <c r="D65" s="406"/>
-      <c r="E65" s="406"/>
+      <c r="C65" s="416"/>
+      <c r="D65" s="416"/>
+      <c r="E65" s="416"/>
       <c r="F65" s="242" t="s">
         <v>124</v>
       </c>
@@ -10526,7 +10537,7 @@
         <v>1365000</v>
       </c>
       <c r="J65" s="243"/>
-      <c r="K65" s="317">
+      <c r="K65" s="316">
         <v>0.41</v>
       </c>
       <c r="L65" s="244">
@@ -10539,7 +10550,7 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O65" s="286"/>
-      <c r="P65" s="399"/>
+      <c r="P65" s="437"/>
     </row>
     <row r="66" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="258">
@@ -10549,13 +10560,13 @@
         <v>43913</v>
       </c>
       <c r="C66" s="260" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="260" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="260" t="s">
+      <c r="E66" s="260" t="s">
         <v>164</v>
-      </c>
-      <c r="E66" s="260" t="s">
-        <v>165</v>
       </c>
       <c r="F66" s="262" t="s">
         <v>101</v>
@@ -10571,7 +10582,7 @@
         <v>1455000</v>
       </c>
       <c r="J66" s="264"/>
-      <c r="K66" s="321">
+      <c r="K66" s="320">
         <v>0.41</v>
       </c>
       <c r="L66" s="249">
@@ -10587,20 +10598,20 @@
       <c r="P66" s="258"/>
     </row>
     <row r="67" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="407">
+      <c r="A67" s="398">
         <v>1095</v>
       </c>
-      <c r="B67" s="414">
+      <c r="B67" s="404">
         <v>43913</v>
       </c>
-      <c r="C67" s="397" t="s">
+      <c r="C67" s="401" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="397" t="s">
+      <c r="D67" s="401" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="401" t="s">
         <v>137</v>
-      </c>
-      <c r="E67" s="397" t="s">
-        <v>138</v>
       </c>
       <c r="F67" s="236" t="s">
         <v>91</v>
@@ -10616,7 +10627,7 @@
         <v>4550000</v>
       </c>
       <c r="J67" s="237"/>
-      <c r="K67" s="315">
+      <c r="K67" s="314">
         <v>0.41</v>
       </c>
       <c r="L67" s="238">
@@ -10632,11 +10643,11 @@
       <c r="P67" s="288"/>
     </row>
     <row r="68" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="408"/>
-      <c r="B68" s="435"/>
-      <c r="C68" s="400"/>
-      <c r="D68" s="400"/>
-      <c r="E68" s="400"/>
+      <c r="A68" s="399"/>
+      <c r="B68" s="406"/>
+      <c r="C68" s="402"/>
+      <c r="D68" s="402"/>
+      <c r="E68" s="402"/>
       <c r="F68" s="239" t="s">
         <v>93</v>
       </c>
@@ -10651,7 +10662,7 @@
         <v>930000</v>
       </c>
       <c r="J68" s="239"/>
-      <c r="K68" s="316">
+      <c r="K68" s="315">
         <v>0.41</v>
       </c>
       <c r="L68" s="241">
@@ -10667,11 +10678,11 @@
       <c r="P68" s="289"/>
     </row>
     <row r="69" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="409"/>
-      <c r="B69" s="415"/>
-      <c r="C69" s="398"/>
-      <c r="D69" s="398"/>
-      <c r="E69" s="398"/>
+      <c r="A69" s="400"/>
+      <c r="B69" s="405"/>
+      <c r="C69" s="403"/>
+      <c r="D69" s="403"/>
+      <c r="E69" s="403"/>
       <c r="F69" s="242" t="s">
         <v>94</v>
       </c>
@@ -10686,7 +10697,7 @@
         <v>2750000</v>
       </c>
       <c r="J69" s="242"/>
-      <c r="K69" s="317">
+      <c r="K69" s="316">
         <v>0.41</v>
       </c>
       <c r="L69" s="244">
@@ -10702,17 +10713,17 @@
       <c r="P69" s="290"/>
     </row>
     <row r="70" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="407">
+      <c r="A70" s="398">
         <v>1111</v>
       </c>
-      <c r="B70" s="414">
+      <c r="B70" s="404">
         <v>43914</v>
       </c>
-      <c r="C70" s="397"/>
-      <c r="D70" s="397" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" s="397" t="s">
+      <c r="C70" s="401"/>
+      <c r="D70" s="401" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="401" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="236" t="s">
@@ -10731,7 +10742,7 @@
       <c r="J70" s="236">
         <v>250000</v>
       </c>
-      <c r="K70" s="315">
+      <c r="K70" s="314">
         <v>0.41</v>
       </c>
       <c r="L70" s="238">
@@ -10747,11 +10758,11 @@
       <c r="P70" s="288"/>
     </row>
     <row r="71" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="408"/>
-      <c r="B71" s="435"/>
-      <c r="C71" s="400"/>
-      <c r="D71" s="400"/>
-      <c r="E71" s="400"/>
+      <c r="A71" s="399"/>
+      <c r="B71" s="406"/>
+      <c r="C71" s="402"/>
+      <c r="D71" s="402"/>
+      <c r="E71" s="402"/>
       <c r="F71" s="239" t="s">
         <v>93</v>
       </c>
@@ -10766,7 +10777,7 @@
         <v>5580000</v>
       </c>
       <c r="J71" s="239"/>
-      <c r="K71" s="316">
+      <c r="K71" s="315">
         <v>0.41</v>
       </c>
       <c r="L71" s="241">
@@ -10782,11 +10793,11 @@
       <c r="P71" s="289"/>
     </row>
     <row r="72" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="408"/>
-      <c r="B72" s="435"/>
-      <c r="C72" s="400"/>
-      <c r="D72" s="400"/>
-      <c r="E72" s="400"/>
+      <c r="A72" s="399"/>
+      <c r="B72" s="406"/>
+      <c r="C72" s="402"/>
+      <c r="D72" s="402"/>
+      <c r="E72" s="402"/>
       <c r="F72" s="239" t="s">
         <v>101</v>
       </c>
@@ -10801,7 +10812,7 @@
         <v>5820000</v>
       </c>
       <c r="J72" s="239"/>
-      <c r="K72" s="316">
+      <c r="K72" s="315">
         <v>0.41</v>
       </c>
       <c r="L72" s="241">
@@ -10817,11 +10828,11 @@
       <c r="P72" s="291"/>
     </row>
     <row r="73" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="408"/>
-      <c r="B73" s="415"/>
-      <c r="C73" s="398"/>
-      <c r="D73" s="398"/>
-      <c r="E73" s="398"/>
+      <c r="A73" s="399"/>
+      <c r="B73" s="405"/>
+      <c r="C73" s="403"/>
+      <c r="D73" s="403"/>
+      <c r="E73" s="403"/>
       <c r="F73" s="242" t="s">
         <v>100</v>
       </c>
@@ -10836,7 +10847,7 @@
         <v>5820000</v>
       </c>
       <c r="J73" s="242"/>
-      <c r="K73" s="317">
+      <c r="K73" s="316">
         <v>0.41</v>
       </c>
       <c r="L73" s="244">
@@ -10852,18 +10863,18 @@
       <c r="P73" s="292"/>
     </row>
     <row r="74" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="407">
+      <c r="A74" s="398">
         <v>1099</v>
       </c>
-      <c r="B74" s="414">
+      <c r="B74" s="404">
         <v>43913</v>
       </c>
-      <c r="C74" s="397"/>
-      <c r="D74" s="397" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" s="397" t="s">
-        <v>149</v>
+      <c r="C74" s="401"/>
+      <c r="D74" s="401" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="401" t="s">
+        <v>148</v>
       </c>
       <c r="F74" s="236" t="s">
         <v>93</v>
@@ -10879,7 +10890,7 @@
         <v>11160000</v>
       </c>
       <c r="J74" s="236"/>
-      <c r="K74" s="315">
+      <c r="K74" s="314">
         <v>0.41</v>
       </c>
       <c r="L74" s="238">
@@ -10895,11 +10906,11 @@
       <c r="P74" s="288"/>
     </row>
     <row r="75" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="409"/>
-      <c r="B75" s="415"/>
-      <c r="C75" s="398"/>
-      <c r="D75" s="398"/>
-      <c r="E75" s="398"/>
+      <c r="A75" s="400"/>
+      <c r="B75" s="405"/>
+      <c r="C75" s="403"/>
+      <c r="D75" s="403"/>
+      <c r="E75" s="403"/>
       <c r="F75" s="242" t="s">
         <v>101</v>
       </c>
@@ -10914,7 +10925,7 @@
         <v>11640000</v>
       </c>
       <c r="J75" s="242"/>
-      <c r="K75" s="317">
+      <c r="K75" s="316">
         <v>0.41</v>
       </c>
       <c r="L75" s="244">
@@ -10929,7 +10940,7 @@
       </c>
       <c r="P75" s="290"/>
     </row>
-    <row r="76" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A76" s="253">
         <v>1100</v>
       </c>
@@ -10940,7 +10951,7 @@
         <v>121</v>
       </c>
       <c r="D76" s="267" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E76" s="267"/>
       <c r="F76" s="253" t="s">
@@ -10957,7 +10968,7 @@
         <v>2750000</v>
       </c>
       <c r="J76" s="253"/>
-      <c r="K76" s="320">
+      <c r="K76" s="319">
         <v>0.41</v>
       </c>
       <c r="L76" s="254">
@@ -10980,7 +10991,7 @@
       </c>
       <c r="C77" s="252"/>
       <c r="D77" s="267" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" s="267"/>
       <c r="F77" s="273" t="s">
@@ -10997,7 +11008,7 @@
         <v>16380000</v>
       </c>
       <c r="J77" s="273"/>
-      <c r="K77" s="322">
+      <c r="K77" s="321">
         <v>0.41</v>
       </c>
       <c r="L77" s="277">
@@ -11013,18 +11024,18 @@
       <c r="P77" s="278"/>
     </row>
     <row r="78" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="407">
+      <c r="A78" s="398">
         <v>1118</v>
       </c>
-      <c r="B78" s="414">
+      <c r="B78" s="404">
         <v>43915</v>
       </c>
-      <c r="C78" s="397"/>
-      <c r="D78" s="397" t="s">
+      <c r="C78" s="401"/>
+      <c r="D78" s="401" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="401" t="s">
         <v>213</v>
-      </c>
-      <c r="E78" s="397" t="s">
-        <v>214</v>
       </c>
       <c r="F78" s="236" t="s">
         <v>91</v>
@@ -11040,7 +11051,7 @@
         <v>5460000</v>
       </c>
       <c r="J78" s="236"/>
-      <c r="K78" s="315">
+      <c r="K78" s="314">
         <v>0.5</v>
       </c>
       <c r="L78" s="238">
@@ -11056,11 +11067,11 @@
       <c r="P78" s="288"/>
     </row>
     <row r="79" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="408"/>
-      <c r="B79" s="435"/>
-      <c r="C79" s="400"/>
-      <c r="D79" s="400"/>
-      <c r="E79" s="400"/>
+      <c r="A79" s="399"/>
+      <c r="B79" s="406"/>
+      <c r="C79" s="402"/>
+      <c r="D79" s="402"/>
+      <c r="E79" s="402"/>
       <c r="F79" s="239" t="s">
         <v>92</v>
       </c>
@@ -11075,7 +11086,7 @@
         <v>6360000</v>
       </c>
       <c r="J79" s="239"/>
-      <c r="K79" s="315">
+      <c r="K79" s="314">
         <v>0.5</v>
       </c>
       <c r="L79" s="241">
@@ -11091,11 +11102,11 @@
       <c r="P79" s="289"/>
     </row>
     <row r="80" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="408"/>
-      <c r="B80" s="435"/>
-      <c r="C80" s="400"/>
-      <c r="D80" s="400"/>
-      <c r="E80" s="400"/>
+      <c r="A80" s="399"/>
+      <c r="B80" s="406"/>
+      <c r="C80" s="402"/>
+      <c r="D80" s="402"/>
+      <c r="E80" s="402"/>
       <c r="F80" s="239" t="s">
         <v>93</v>
       </c>
@@ -11110,7 +11121,7 @@
         <v>5580000</v>
       </c>
       <c r="J80" s="239"/>
-      <c r="K80" s="315">
+      <c r="K80" s="314">
         <v>0.5</v>
       </c>
       <c r="L80" s="241">
@@ -11126,11 +11137,11 @@
       <c r="P80" s="289"/>
     </row>
     <row r="81" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="408"/>
-      <c r="B81" s="435"/>
-      <c r="C81" s="400"/>
-      <c r="D81" s="400"/>
-      <c r="E81" s="400"/>
+      <c r="A81" s="399"/>
+      <c r="B81" s="406"/>
+      <c r="C81" s="402"/>
+      <c r="D81" s="402"/>
+      <c r="E81" s="402"/>
       <c r="F81" s="239" t="s">
         <v>96</v>
       </c>
@@ -11145,7 +11156,7 @@
         <v>11400000</v>
       </c>
       <c r="J81" s="239"/>
-      <c r="K81" s="315">
+      <c r="K81" s="314">
         <v>0.5</v>
       </c>
       <c r="L81" s="241">
@@ -11161,11 +11172,11 @@
       <c r="P81" s="289"/>
     </row>
     <row r="82" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="408"/>
-      <c r="B82" s="435"/>
-      <c r="C82" s="400"/>
-      <c r="D82" s="400"/>
-      <c r="E82" s="400"/>
+      <c r="A82" s="399"/>
+      <c r="B82" s="406"/>
+      <c r="C82" s="402"/>
+      <c r="D82" s="402"/>
+      <c r="E82" s="402"/>
       <c r="F82" s="239" t="s">
         <v>101</v>
       </c>
@@ -11180,7 +11191,7 @@
         <v>17460000</v>
       </c>
       <c r="J82" s="239"/>
-      <c r="K82" s="315">
+      <c r="K82" s="314">
         <v>0.5</v>
       </c>
       <c r="L82" s="241">
@@ -11196,11 +11207,11 @@
       <c r="P82" s="289"/>
     </row>
     <row r="83" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="408"/>
-      <c r="B83" s="435"/>
-      <c r="C83" s="400"/>
-      <c r="D83" s="400"/>
-      <c r="E83" s="400"/>
+      <c r="A83" s="399"/>
+      <c r="B83" s="406"/>
+      <c r="C83" s="402"/>
+      <c r="D83" s="402"/>
+      <c r="E83" s="402"/>
       <c r="F83" s="239" t="s">
         <v>100</v>
       </c>
@@ -11215,7 +11226,7 @@
         <v>11640000</v>
       </c>
       <c r="J83" s="239"/>
-      <c r="K83" s="315">
+      <c r="K83" s="314">
         <v>0.5</v>
       </c>
       <c r="L83" s="241">
@@ -11231,11 +11242,11 @@
       <c r="P83" s="289"/>
     </row>
     <row r="84" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="408"/>
-      <c r="B84" s="435"/>
-      <c r="C84" s="400"/>
-      <c r="D84" s="400"/>
-      <c r="E84" s="400"/>
+      <c r="A84" s="399"/>
+      <c r="B84" s="406"/>
+      <c r="C84" s="402"/>
+      <c r="D84" s="402"/>
+      <c r="E84" s="402"/>
       <c r="F84" s="239" t="s">
         <v>94</v>
       </c>
@@ -11250,7 +11261,7 @@
         <v>39600000</v>
       </c>
       <c r="J84" s="239"/>
-      <c r="K84" s="315">
+      <c r="K84" s="314">
         <v>0.5</v>
       </c>
       <c r="L84" s="241">
@@ -11266,11 +11277,11 @@
       <c r="P84" s="289"/>
     </row>
     <row r="85" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="408"/>
-      <c r="B85" s="435"/>
-      <c r="C85" s="400"/>
-      <c r="D85" s="400"/>
-      <c r="E85" s="400"/>
+      <c r="A85" s="399"/>
+      <c r="B85" s="406"/>
+      <c r="C85" s="402"/>
+      <c r="D85" s="402"/>
+      <c r="E85" s="402"/>
       <c r="F85" s="239" t="s">
         <v>133</v>
       </c>
@@ -11285,7 +11296,7 @@
         <v>25200000</v>
       </c>
       <c r="J85" s="239"/>
-      <c r="K85" s="315">
+      <c r="K85" s="314">
         <v>0.5</v>
       </c>
       <c r="L85" s="241">
@@ -11301,11 +11312,11 @@
       <c r="P85" s="289"/>
     </row>
     <row r="86" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="408"/>
-      <c r="B86" s="435"/>
-      <c r="C86" s="400"/>
-      <c r="D86" s="400"/>
-      <c r="E86" s="400"/>
+      <c r="A86" s="399"/>
+      <c r="B86" s="406"/>
+      <c r="C86" s="402"/>
+      <c r="D86" s="402"/>
+      <c r="E86" s="402"/>
       <c r="F86" s="239" t="s">
         <v>95</v>
       </c>
@@ -11320,7 +11331,7 @@
         <v>16380000</v>
       </c>
       <c r="J86" s="239"/>
-      <c r="K86" s="315">
+      <c r="K86" s="314">
         <v>0.5</v>
       </c>
       <c r="L86" s="241">
@@ -11336,11 +11347,11 @@
       <c r="P86" s="289"/>
     </row>
     <row r="87" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="409"/>
-      <c r="B87" s="415"/>
-      <c r="C87" s="398"/>
-      <c r="D87" s="398"/>
-      <c r="E87" s="398"/>
+      <c r="A87" s="400"/>
+      <c r="B87" s="405"/>
+      <c r="C87" s="403"/>
+      <c r="D87" s="403"/>
+      <c r="E87" s="403"/>
       <c r="F87" s="242" t="s">
         <v>124</v>
       </c>
@@ -11355,7 +11366,7 @@
         <v>5460000</v>
       </c>
       <c r="J87" s="242"/>
-      <c r="K87" s="315">
+      <c r="K87" s="314">
         <v>0.5</v>
       </c>
       <c r="L87" s="244">
@@ -11371,18 +11382,18 @@
       <c r="P87" s="290"/>
     </row>
     <row r="88" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="407">
+      <c r="A88" s="398">
         <v>1119</v>
       </c>
-      <c r="B88" s="414">
+      <c r="B88" s="404">
         <v>43915</v>
       </c>
-      <c r="C88" s="397"/>
-      <c r="D88" s="397" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="397" t="s">
-        <v>149</v>
+      <c r="C88" s="401"/>
+      <c r="D88" s="401" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="401" t="s">
+        <v>148</v>
       </c>
       <c r="F88" s="245" t="s">
         <v>94</v>
@@ -11398,7 +11409,7 @@
         <v>13200000</v>
       </c>
       <c r="J88" s="245"/>
-      <c r="K88" s="318">
+      <c r="K88" s="317">
         <v>0.41</v>
       </c>
       <c r="L88" s="246">
@@ -11414,11 +11425,11 @@
       <c r="P88" s="295"/>
     </row>
     <row r="89" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="409"/>
-      <c r="B89" s="415"/>
-      <c r="C89" s="398"/>
-      <c r="D89" s="398"/>
-      <c r="E89" s="398"/>
+      <c r="A89" s="400"/>
+      <c r="B89" s="405"/>
+      <c r="C89" s="403"/>
+      <c r="D89" s="403"/>
+      <c r="E89" s="403"/>
       <c r="F89" s="242" t="s">
         <v>124</v>
       </c>
@@ -11433,7 +11444,7 @@
         <v>5460000</v>
       </c>
       <c r="J89" s="242"/>
-      <c r="K89" s="317">
+      <c r="K89" s="316">
         <v>0.41</v>
       </c>
       <c r="L89" s="244">
@@ -11449,98 +11460,98 @@
       <c r="P89" s="290"/>
     </row>
     <row r="90" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="330">
+      <c r="A90" s="378">
         <v>1123</v>
       </c>
-      <c r="B90" s="332">
+      <c r="B90" s="379">
         <v>43916</v>
       </c>
-      <c r="C90" s="331"/>
-      <c r="D90" s="331" t="s">
+      <c r="C90" s="380"/>
+      <c r="D90" s="380" t="s">
+        <v>308</v>
+      </c>
+      <c r="E90" s="380" t="s">
         <v>309</v>
       </c>
-      <c r="E90" s="331" t="s">
-        <v>310</v>
-      </c>
-      <c r="F90" s="247" t="s">
+      <c r="F90" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="G90" s="247">
+      <c r="G90" s="253">
         <v>1</v>
       </c>
-      <c r="H90" s="263">
+      <c r="H90" s="268">
         <v>455000</v>
       </c>
-      <c r="I90" s="333">
+      <c r="I90" s="297">
         <f t="shared" si="20"/>
         <v>455000</v>
       </c>
-      <c r="J90" s="247"/>
+      <c r="J90" s="253"/>
       <c r="K90" s="319">
         <v>1</v>
       </c>
-      <c r="L90" s="248">
+      <c r="L90" s="254">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M90" s="248"/>
-      <c r="N90" s="248"/>
-      <c r="O90" s="249"/>
-      <c r="P90" s="330"/>
-    </row>
-    <row r="91" spans="1:16" s="233" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="247">
+      <c r="M90" s="254"/>
+      <c r="N90" s="254"/>
+      <c r="O90" s="254"/>
+      <c r="P90" s="378"/>
+    </row>
+    <row r="91" spans="1:16" s="233" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="253">
         <v>1120</v>
       </c>
-      <c r="B91" s="274">
+      <c r="B91" s="279">
         <v>43917</v>
       </c>
-      <c r="C91" s="297"/>
-      <c r="D91" s="297" t="s">
-        <v>168</v>
-      </c>
-      <c r="E91" s="297"/>
-      <c r="F91" s="247" t="s">
+      <c r="C91" s="267"/>
+      <c r="D91" s="267" t="s">
+        <v>167</v>
+      </c>
+      <c r="E91" s="267"/>
+      <c r="F91" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="G91" s="247">
+      <c r="G91" s="253">
         <v>2</v>
       </c>
       <c r="H91" s="268">
         <v>455000</v>
       </c>
-      <c r="I91" s="298">
+      <c r="I91" s="297">
         <f t="shared" si="20"/>
         <v>910000</v>
       </c>
-      <c r="J91" s="247"/>
+      <c r="J91" s="253"/>
       <c r="K91" s="319">
         <v>0.41</v>
       </c>
-      <c r="L91" s="248">
+      <c r="L91" s="254">
         <f t="shared" si="17"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M91" s="248">
+      <c r="M91" s="254">
         <f>L91</f>
         <v>536900.00000000012</v>
       </c>
-      <c r="N91" s="248"/>
-      <c r="O91" s="238"/>
-      <c r="P91" s="295"/>
+      <c r="N91" s="254"/>
+      <c r="O91" s="254"/>
+      <c r="P91" s="378"/>
     </row>
     <row r="92" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="407">
+      <c r="A92" s="398">
         <v>1122</v>
       </c>
-      <c r="B92" s="414">
+      <c r="B92" s="404">
         <v>43917</v>
       </c>
-      <c r="C92" s="397" t="s">
-        <v>169</v>
+      <c r="C92" s="401" t="s">
+        <v>168</v>
       </c>
       <c r="D92" s="275"/>
-      <c r="E92" s="397"/>
+      <c r="E92" s="401"/>
       <c r="F92" s="236" t="s">
         <v>96</v>
       </c>
@@ -11555,7 +11566,7 @@
         <v>475000</v>
       </c>
       <c r="J92" s="236"/>
-      <c r="K92" s="315">
+      <c r="K92" s="314">
         <v>0.41</v>
       </c>
       <c r="L92" s="238">
@@ -11571,11 +11582,11 @@
       <c r="P92" s="288"/>
     </row>
     <row r="93" spans="1:16" s="233" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="409"/>
-      <c r="B93" s="415"/>
-      <c r="C93" s="398"/>
+      <c r="A93" s="400"/>
+      <c r="B93" s="405"/>
+      <c r="C93" s="403"/>
       <c r="D93" s="281"/>
-      <c r="E93" s="398"/>
+      <c r="E93" s="403"/>
       <c r="F93" s="242" t="s">
         <v>101</v>
       </c>
@@ -11590,7 +11601,7 @@
         <v>485000</v>
       </c>
       <c r="J93" s="242"/>
-      <c r="K93" s="317">
+      <c r="K93" s="316">
         <v>0.41</v>
       </c>
       <c r="L93" s="244">
@@ -11606,20 +11617,20 @@
       <c r="P93" s="290"/>
     </row>
     <row r="94" spans="1:16" s="233" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="407">
+      <c r="A94" s="398">
         <v>1126</v>
       </c>
-      <c r="B94" s="414">
+      <c r="B94" s="404">
         <v>43921</v>
       </c>
-      <c r="C94" s="397" t="s">
+      <c r="C94" s="401" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="397" t="s">
+      <c r="D94" s="401" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="397" t="s">
-        <v>206</v>
+      <c r="E94" s="401" t="s">
+        <v>205</v>
       </c>
       <c r="F94" s="245" t="s">
         <v>91</v>
@@ -11635,7 +11646,7 @@
         <v>455000</v>
       </c>
       <c r="J94" s="245"/>
-      <c r="K94" s="318">
+      <c r="K94" s="317">
         <v>0.41</v>
       </c>
       <c r="L94" s="246">
@@ -11648,14 +11659,14 @@
       </c>
       <c r="N94" s="246"/>
       <c r="O94" s="244"/>
-      <c r="P94" s="299"/>
+      <c r="P94" s="298"/>
     </row>
     <row r="95" spans="1:16" s="233" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="409"/>
-      <c r="B95" s="415"/>
-      <c r="C95" s="398"/>
-      <c r="D95" s="398"/>
-      <c r="E95" s="398"/>
+      <c r="A95" s="400"/>
+      <c r="B95" s="405"/>
+      <c r="C95" s="403"/>
+      <c r="D95" s="403"/>
+      <c r="E95" s="403"/>
       <c r="F95" s="242" t="s">
         <v>95</v>
       </c>
@@ -11670,7 +11681,7 @@
         <v>455000</v>
       </c>
       <c r="J95" s="242"/>
-      <c r="K95" s="317">
+      <c r="K95" s="316">
         <v>0.41</v>
       </c>
       <c r="L95" s="244">
@@ -11685,160 +11696,249 @@
       <c r="O95" s="238"/>
       <c r="P95" s="290"/>
     </row>
-    <row r="96" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="416" t="s">
-        <v>208</v>
-      </c>
-      <c r="B96" s="416"/>
-      <c r="C96" s="416"/>
-      <c r="D96" s="416"/>
-      <c r="E96" s="416"/>
-      <c r="F96" s="416"/>
-      <c r="G96" s="300">
+    <row r="96" spans="1:16" s="306" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="436" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" s="436"/>
+      <c r="C96" s="436"/>
+      <c r="D96" s="436"/>
+      <c r="E96" s="436"/>
+      <c r="F96" s="436"/>
+      <c r="G96" s="299">
         <f>SUM(G9:G95)</f>
         <v>953</v>
       </c>
-      <c r="H96" s="301"/>
-      <c r="I96" s="302">
+      <c r="H96" s="300"/>
+      <c r="I96" s="301">
         <f>SUM(I9:I95)</f>
         <v>444215000</v>
       </c>
-      <c r="J96" s="303"/>
-      <c r="K96" s="302"/>
-      <c r="L96" s="304">
+      <c r="J96" s="302"/>
+      <c r="K96" s="301"/>
+      <c r="L96" s="303">
         <f>SUM(L9:L95)</f>
         <v>250140000</v>
       </c>
-      <c r="M96" s="305"/>
-      <c r="N96" s="305"/>
-      <c r="O96" s="305"/>
-      <c r="P96" s="306"/>
-    </row>
-    <row r="97" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="403" t="s">
-        <v>209</v>
-      </c>
-      <c r="B97" s="403"/>
-      <c r="C97" s="403"/>
-      <c r="D97" s="403"/>
-      <c r="E97" s="403"/>
-      <c r="F97" s="403"/>
-      <c r="G97" s="300">
+      <c r="M96" s="304"/>
+      <c r="N96" s="304"/>
+      <c r="O96" s="304"/>
+      <c r="P96" s="305"/>
+    </row>
+    <row r="97" spans="1:16" s="306" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="435" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="435"/>
+      <c r="C97" s="435"/>
+      <c r="D97" s="435"/>
+      <c r="E97" s="435"/>
+      <c r="F97" s="435"/>
+      <c r="G97" s="299">
         <f>G96</f>
         <v>953</v>
       </c>
-      <c r="H97" s="308"/>
-      <c r="I97" s="302"/>
-      <c r="J97" s="308"/>
-      <c r="K97" s="302"/>
-      <c r="L97" s="304">
+      <c r="H97" s="307"/>
+      <c r="I97" s="301"/>
+      <c r="J97" s="307"/>
+      <c r="K97" s="301"/>
+      <c r="L97" s="303">
         <f>L96</f>
         <v>250140000</v>
       </c>
-      <c r="M97" s="309"/>
-      <c r="N97" s="309"/>
-      <c r="O97" s="309"/>
-      <c r="P97" s="310"/>
-    </row>
-    <row r="98" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="403" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="403"/>
-      <c r="C98" s="403"/>
-      <c r="D98" s="403"/>
-      <c r="E98" s="403"/>
-      <c r="F98" s="403"/>
-      <c r="G98" s="311" t="s">
+      <c r="M97" s="308"/>
+      <c r="N97" s="308"/>
+      <c r="O97" s="308"/>
+      <c r="P97" s="309"/>
+    </row>
+    <row r="98" spans="1:16" s="306" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="435" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="435"/>
+      <c r="C98" s="435"/>
+      <c r="D98" s="435"/>
+      <c r="E98" s="435"/>
+      <c r="F98" s="435"/>
+      <c r="G98" s="310" t="s">
         <v>134</v>
       </c>
-      <c r="H98" s="311"/>
-      <c r="I98" s="311"/>
-      <c r="J98" s="311"/>
-      <c r="K98" s="311"/>
-      <c r="L98" s="304">
+      <c r="H98" s="310"/>
+      <c r="I98" s="310"/>
+      <c r="J98" s="310"/>
+      <c r="K98" s="310"/>
+      <c r="L98" s="303">
         <f>SUM(M9:M95)</f>
         <v>27741800.000000004</v>
       </c>
-      <c r="M98" s="309"/>
-      <c r="N98" s="309"/>
-      <c r="O98" s="309"/>
-      <c r="P98" s="310"/>
-    </row>
-    <row r="99" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="403" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="403"/>
-      <c r="C99" s="403"/>
-      <c r="D99" s="403"/>
-      <c r="E99" s="403"/>
-      <c r="F99" s="403"/>
-      <c r="G99" s="308"/>
-      <c r="H99" s="308"/>
-      <c r="I99" s="301"/>
-      <c r="J99" s="308"/>
-      <c r="K99" s="302"/>
-      <c r="L99" s="304">
+      <c r="M98" s="308"/>
+      <c r="N98" s="308"/>
+      <c r="O98" s="308"/>
+      <c r="P98" s="309"/>
+    </row>
+    <row r="99" spans="1:16" s="306" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="435" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="435"/>
+      <c r="C99" s="435"/>
+      <c r="D99" s="435"/>
+      <c r="E99" s="435"/>
+      <c r="F99" s="435"/>
+      <c r="G99" s="307"/>
+      <c r="H99" s="307"/>
+      <c r="I99" s="300"/>
+      <c r="J99" s="307"/>
+      <c r="K99" s="301"/>
+      <c r="L99" s="303">
         <f>SUM(N9:N95)</f>
         <v>51172100.000000007</v>
       </c>
-      <c r="M99" s="309"/>
-      <c r="N99" s="309"/>
-      <c r="O99" s="309"/>
-      <c r="P99" s="310"/>
-    </row>
-    <row r="100" spans="1:16" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="403" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="403"/>
-      <c r="C100" s="403"/>
-      <c r="D100" s="403"/>
-      <c r="E100" s="403"/>
-      <c r="F100" s="403"/>
-      <c r="G100" s="308"/>
-      <c r="H100" s="308"/>
-      <c r="I100" s="301"/>
-      <c r="J100" s="308"/>
-      <c r="K100" s="302"/>
-      <c r="L100" s="304">
+      <c r="M99" s="308"/>
+      <c r="N99" s="308"/>
+      <c r="O99" s="308"/>
+      <c r="P99" s="309"/>
+    </row>
+    <row r="100" spans="1:16" s="306" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="435" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="435"/>
+      <c r="C100" s="435"/>
+      <c r="D100" s="435"/>
+      <c r="E100" s="435"/>
+      <c r="F100" s="435"/>
+      <c r="G100" s="307"/>
+      <c r="H100" s="307"/>
+      <c r="I100" s="300"/>
+      <c r="J100" s="307"/>
+      <c r="K100" s="301"/>
+      <c r="L100" s="303">
         <f>SUM(O9:O95)</f>
         <v>165503100</v>
       </c>
-      <c r="M100" s="309"/>
-      <c r="N100" s="309"/>
-      <c r="O100" s="309"/>
-      <c r="P100" s="310"/>
+      <c r="M100" s="308"/>
+      <c r="N100" s="308"/>
+      <c r="O100" s="308"/>
+      <c r="P100" s="309"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B101" s="312"/>
-      <c r="C101" s="436"/>
-      <c r="D101" s="436"/>
-      <c r="L101" s="313"/>
+      <c r="B101" s="311"/>
+      <c r="C101" s="407"/>
+      <c r="D101" s="407"/>
+      <c r="L101" s="312"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L102" s="313"/>
+      <c r="L102" s="312"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L103" s="313"/>
+      <c r="L103" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="P63:P65"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="P41:P47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="D78:D87"/>
+    <mergeCell ref="E78:E87"/>
     <mergeCell ref="P51:P54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C101:D101"/>
@@ -11863,109 +11963,20 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="P41:P47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="P63:P65"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11976,8 +11987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12007,7 +12018,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -12028,24 +12039,24 @@
       <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="437" t="s">
+      <c r="A4" s="438" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="437"/>
-      <c r="C4" s="437"/>
-      <c r="D4" s="437"/>
-      <c r="E4" s="437"/>
+      <c r="B4" s="438"/>
+      <c r="C4" s="438"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="438"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="438" t="s">
+      <c r="A5" s="439" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="438"/>
-      <c r="C5" s="438"/>
-      <c r="D5" s="438"/>
-      <c r="E5" s="438"/>
+      <c r="B5" s="439"/>
+      <c r="C5" s="439"/>
+      <c r="D5" s="439"/>
+      <c r="E5" s="439"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
@@ -12059,19 +12070,19 @@
       <c r="G6" s="170"/>
     </row>
     <row r="7" spans="1:7" s="168" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="337" t="s">
+      <c r="A7" s="335" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="337" t="s">
-        <v>217</v>
+      <c r="C7" s="335" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="171" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="337" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="335" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="169"/>
@@ -12082,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="174" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="167">
         <f>'DOANH SỐ'!G96</f>
@@ -12097,13 +12108,13 @@
       <c r="G8" s="184"/>
     </row>
     <row r="9" spans="1:7" s="168" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="336">
+      <c r="A9" s="334">
         <v>2</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="342"/>
+        <v>315</v>
+      </c>
+      <c r="C9" s="340"/>
       <c r="D9" s="128">
         <f>'DOANH SỐ'!L96</f>
         <v>250140000</v>
@@ -12117,14 +12128,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="177"/>
       <c r="D10" s="178">
         <f>'DOANH SỐ'!L98</f>
         <v>27741800.000000004</v>
       </c>
-      <c r="E10" s="177"/>
+      <c r="E10" s="441">
+        <f>SUM(D10:D11)</f>
+        <v>78913900.000000015</v>
+      </c>
       <c r="F10" s="184"/>
       <c r="G10" s="184"/>
     </row>
@@ -12133,24 +12147,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="177"/>
       <c r="D11" s="178">
         <f>'DOANH SỐ'!L99</f>
         <v>51172100.000000007</v>
       </c>
-      <c r="E11" s="177"/>
+      <c r="E11" s="442"/>
       <c r="F11" s="184"/>
       <c r="G11" s="184"/>
     </row>
     <row r="12" spans="1:7" s="168" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="131"/>
-      <c r="B12" s="343" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="344"/>
-      <c r="D12" s="345">
+      <c r="B12" s="341" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="342"/>
+      <c r="D12" s="343">
         <f>'Hàng khách trả'!J24</f>
         <v>94505000</v>
       </c>
@@ -12160,11 +12174,11 @@
     </row>
     <row r="13" spans="1:7" s="168" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="131"/>
-      <c r="B13" s="343" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" s="344"/>
-      <c r="D13" s="345">
+      <c r="B13" s="341" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="342"/>
+      <c r="D13" s="343">
         <f>'Hàng khách trả'!L24</f>
         <v>50021050</v>
       </c>
@@ -12175,7 +12189,7 @@
     <row r="14" spans="1:7" s="168" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="182"/>
       <c r="D14" s="183">
@@ -12220,7 +12234,7 @@
       <c r="E17" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="329"/>
+      <c r="G17" s="328"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="69">
@@ -12317,7 +12331,7 @@
       <c r="C24" s="61"/>
       <c r="D24" s="62">
         <f>'THU CHI'!H233</f>
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="E24" s="77"/>
     </row>
@@ -12346,19 +12360,19 @@
       </c>
       <c r="D26" s="66">
         <f>SUM(D18:D25)</f>
-        <v>314773717.59878999</v>
+        <v>314723717.59878999</v>
       </c>
       <c r="E26" s="72"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="439" t="s">
+      <c r="A27" s="440" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="439"/>
+      <c r="B27" s="440"/>
       <c r="C27" s="72"/>
       <c r="D27" s="66">
         <f>C26-D26</f>
-        <v>-235859817.59878999</v>
+        <v>-235809817.59878999</v>
       </c>
       <c r="E27" s="72"/>
     </row>
@@ -12383,10 +12397,11 @@
       <c r="E31" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -12430,50 +12445,50 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="440" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
-      <c r="I3" s="440"/>
-      <c r="J3" s="440"/>
-      <c r="K3" s="440"/>
-      <c r="L3" s="440"/>
-      <c r="M3" s="440"/>
-      <c r="N3" s="440"/>
-      <c r="O3" s="440"/>
-      <c r="P3" s="440"/>
+      <c r="A3" s="453" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="453"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
+      <c r="G3" s="453"/>
+      <c r="H3" s="453"/>
+      <c r="I3" s="453"/>
+      <c r="J3" s="453"/>
+      <c r="K3" s="453"/>
+      <c r="L3" s="453"/>
+      <c r="M3" s="453"/>
+      <c r="N3" s="453"/>
+      <c r="O3" s="453"/>
+      <c r="P3" s="453"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="441" t="s">
+      <c r="A4" s="454" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="441"/>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="441"/>
-      <c r="H4" s="441"/>
-      <c r="I4" s="441"/>
-      <c r="J4" s="441"/>
-      <c r="K4" s="442"/>
-      <c r="L4" s="441"/>
-      <c r="M4" s="441"/>
-      <c r="N4" s="441"/>
-      <c r="O4" s="441"/>
-      <c r="P4" s="441"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="454"/>
+      <c r="H4" s="454"/>
+      <c r="I4" s="454"/>
+      <c r="J4" s="454"/>
+      <c r="K4" s="455"/>
+      <c r="L4" s="454"/>
+      <c r="M4" s="454"/>
+      <c r="N4" s="454"/>
+      <c r="O4" s="454"/>
+      <c r="P4" s="454"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="443" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="444" t="s">
+      <c r="B5" s="456" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="443" t="s">
@@ -12484,28 +12499,28 @@
       </c>
       <c r="E5" s="443"/>
       <c r="F5" s="443"/>
-      <c r="G5" s="445" t="s">
+      <c r="G5" s="457" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="445"/>
-      <c r="I5" s="445"/>
-      <c r="J5" s="445"/>
-      <c r="K5" s="446"/>
+      <c r="H5" s="457"/>
+      <c r="I5" s="457"/>
+      <c r="J5" s="457"/>
+      <c r="K5" s="458"/>
       <c r="L5" s="443" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="445" t="s">
-        <v>226</v>
-      </c>
-      <c r="N5" s="445"/>
-      <c r="O5" s="445"/>
+      <c r="M5" s="457" t="s">
+        <v>225</v>
+      </c>
+      <c r="N5" s="457"/>
+      <c r="O5" s="457"/>
       <c r="P5" s="443" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="443"/>
-      <c r="B6" s="444"/>
+      <c r="B6" s="456"/>
       <c r="C6" s="443"/>
       <c r="D6" s="187" t="s">
         <v>112</v>
@@ -12533,29 +12548,29 @@
       </c>
       <c r="L6" s="443"/>
       <c r="M6" s="188" t="s">
+        <v>234</v>
+      </c>
+      <c r="N6" s="188" t="s">
         <v>235</v>
       </c>
-      <c r="N6" s="188" t="s">
+      <c r="O6" s="188" t="s">
         <v>236</v>
       </c>
-      <c r="O6" s="188" t="s">
-        <v>237</v>
-      </c>
       <c r="P6" s="443"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="450">
+      <c r="A7" s="447">
         <v>1105</v>
       </c>
-      <c r="B7" s="447">
+      <c r="B7" s="444">
         <v>43899</v>
       </c>
-      <c r="C7" s="450"/>
-      <c r="D7" s="450" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="450"/>
-      <c r="F7" s="450"/>
+      <c r="C7" s="447"/>
+      <c r="D7" s="447" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="447"/>
+      <c r="F7" s="447"/>
       <c r="G7" s="70" t="s">
         <v>91</v>
       </c>
@@ -12578,17 +12593,17 @@
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="453" t="s">
-        <v>231</v>
+      <c r="P7" s="450" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="451"/>
-      <c r="B8" s="448"/>
-      <c r="C8" s="451"/>
-      <c r="D8" s="451"/>
-      <c r="E8" s="451"/>
-      <c r="F8" s="451"/>
+      <c r="A8" s="448"/>
+      <c r="B8" s="445"/>
+      <c r="C8" s="448"/>
+      <c r="D8" s="448"/>
+      <c r="E8" s="448"/>
+      <c r="F8" s="448"/>
       <c r="G8" s="192" t="s">
         <v>93</v>
       </c>
@@ -12611,15 +12626,15 @@
       <c r="M8" s="192"/>
       <c r="N8" s="192"/>
       <c r="O8" s="192"/>
-      <c r="P8" s="454"/>
+      <c r="P8" s="451"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="451"/>
-      <c r="B9" s="448"/>
-      <c r="C9" s="451"/>
-      <c r="D9" s="451"/>
-      <c r="E9" s="451"/>
-      <c r="F9" s="451"/>
+      <c r="A9" s="448"/>
+      <c r="B9" s="445"/>
+      <c r="C9" s="448"/>
+      <c r="D9" s="448"/>
+      <c r="E9" s="448"/>
+      <c r="F9" s="448"/>
       <c r="G9" s="192" t="s">
         <v>96</v>
       </c>
@@ -12642,15 +12657,15 @@
       <c r="M9" s="192"/>
       <c r="N9" s="192"/>
       <c r="O9" s="192"/>
-      <c r="P9" s="454"/>
+      <c r="P9" s="451"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="451"/>
-      <c r="B10" s="448"/>
-      <c r="C10" s="451"/>
-      <c r="D10" s="451"/>
-      <c r="E10" s="451"/>
-      <c r="F10" s="451"/>
+      <c r="A10" s="448"/>
+      <c r="B10" s="445"/>
+      <c r="C10" s="448"/>
+      <c r="D10" s="448"/>
+      <c r="E10" s="448"/>
+      <c r="F10" s="448"/>
       <c r="G10" s="192" t="s">
         <v>101</v>
       </c>
@@ -12673,15 +12688,15 @@
       <c r="M10" s="192"/>
       <c r="N10" s="192"/>
       <c r="O10" s="192"/>
-      <c r="P10" s="454"/>
+      <c r="P10" s="451"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="451"/>
-      <c r="B11" s="448"/>
-      <c r="C11" s="451"/>
-      <c r="D11" s="451"/>
-      <c r="E11" s="451"/>
-      <c r="F11" s="451"/>
+      <c r="A11" s="448"/>
+      <c r="B11" s="445"/>
+      <c r="C11" s="448"/>
+      <c r="D11" s="448"/>
+      <c r="E11" s="448"/>
+      <c r="F11" s="448"/>
       <c r="G11" s="192" t="s">
         <v>100</v>
       </c>
@@ -12704,15 +12719,15 @@
       <c r="M11" s="192"/>
       <c r="N11" s="192"/>
       <c r="O11" s="192"/>
-      <c r="P11" s="454"/>
+      <c r="P11" s="451"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="451"/>
-      <c r="B12" s="448"/>
-      <c r="C12" s="451"/>
-      <c r="D12" s="451"/>
-      <c r="E12" s="451"/>
-      <c r="F12" s="451"/>
+      <c r="A12" s="448"/>
+      <c r="B12" s="445"/>
+      <c r="C12" s="448"/>
+      <c r="D12" s="448"/>
+      <c r="E12" s="448"/>
+      <c r="F12" s="448"/>
       <c r="G12" s="192" t="s">
         <v>94</v>
       </c>
@@ -12735,15 +12750,15 @@
       <c r="M12" s="192"/>
       <c r="N12" s="192"/>
       <c r="O12" s="192"/>
-      <c r="P12" s="454"/>
+      <c r="P12" s="451"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="451"/>
-      <c r="B13" s="448"/>
-      <c r="C13" s="451"/>
-      <c r="D13" s="451"/>
-      <c r="E13" s="451"/>
-      <c r="F13" s="451"/>
+      <c r="A13" s="448"/>
+      <c r="B13" s="445"/>
+      <c r="C13" s="448"/>
+      <c r="D13" s="448"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="448"/>
       <c r="G13" s="192" t="s">
         <v>133</v>
       </c>
@@ -12766,15 +12781,15 @@
       <c r="M13" s="192"/>
       <c r="N13" s="192"/>
       <c r="O13" s="192"/>
-      <c r="P13" s="454"/>
+      <c r="P13" s="451"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="451"/>
-      <c r="B14" s="448"/>
-      <c r="C14" s="451"/>
-      <c r="D14" s="451"/>
-      <c r="E14" s="451"/>
-      <c r="F14" s="451"/>
+      <c r="A14" s="448"/>
+      <c r="B14" s="445"/>
+      <c r="C14" s="448"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="448"/>
+      <c r="F14" s="448"/>
       <c r="G14" s="192" t="s">
         <v>95</v>
       </c>
@@ -12797,15 +12812,15 @@
       <c r="M14" s="192"/>
       <c r="N14" s="192"/>
       <c r="O14" s="192"/>
-      <c r="P14" s="454"/>
+      <c r="P14" s="451"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="452"/>
-      <c r="B15" s="449"/>
-      <c r="C15" s="452"/>
-      <c r="D15" s="452"/>
-      <c r="E15" s="452"/>
-      <c r="F15" s="452"/>
+      <c r="A15" s="449"/>
+      <c r="B15" s="446"/>
+      <c r="C15" s="449"/>
+      <c r="D15" s="449"/>
+      <c r="E15" s="449"/>
+      <c r="F15" s="449"/>
       <c r="G15" s="195" t="s">
         <v>124</v>
       </c>
@@ -12828,23 +12843,23 @@
       <c r="M15" s="195"/>
       <c r="N15" s="195"/>
       <c r="O15" s="195"/>
-      <c r="P15" s="455"/>
+      <c r="P15" s="452"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="450">
+      <c r="A16" s="447">
         <v>1085</v>
       </c>
-      <c r="B16" s="447">
+      <c r="B16" s="444">
         <v>43908</v>
       </c>
-      <c r="C16" s="450"/>
-      <c r="D16" s="450" t="s">
+      <c r="C16" s="447"/>
+      <c r="D16" s="447" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="447" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="450" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="450"/>
+      <c r="F16" s="447"/>
       <c r="G16" s="198" t="s">
         <v>94</v>
       </c>
@@ -12867,17 +12882,17 @@
       <c r="M16" s="198"/>
       <c r="N16" s="198"/>
       <c r="O16" s="198"/>
-      <c r="P16" s="453" t="s">
-        <v>232</v>
+      <c r="P16" s="450" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="451"/>
-      <c r="B17" s="448"/>
-      <c r="C17" s="451"/>
-      <c r="D17" s="451"/>
-      <c r="E17" s="451"/>
-      <c r="F17" s="451"/>
+      <c r="A17" s="448"/>
+      <c r="B17" s="445"/>
+      <c r="C17" s="448"/>
+      <c r="D17" s="448"/>
+      <c r="E17" s="448"/>
+      <c r="F17" s="448"/>
       <c r="G17" s="198" t="s">
         <v>98</v>
       </c>
@@ -12901,15 +12916,15 @@
       <c r="M17" s="198"/>
       <c r="N17" s="198"/>
       <c r="O17" s="198"/>
-      <c r="P17" s="454"/>
+      <c r="P17" s="451"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="452"/>
-      <c r="B18" s="449"/>
-      <c r="C18" s="452"/>
-      <c r="D18" s="452"/>
-      <c r="E18" s="452"/>
-      <c r="F18" s="452"/>
+      <c r="A18" s="449"/>
+      <c r="B18" s="446"/>
+      <c r="C18" s="449"/>
+      <c r="D18" s="449"/>
+      <c r="E18" s="449"/>
+      <c r="F18" s="449"/>
       <c r="G18" s="195" t="s">
         <v>91</v>
       </c>
@@ -12933,21 +12948,21 @@
       <c r="M18" s="195"/>
       <c r="N18" s="195"/>
       <c r="O18" s="195"/>
-      <c r="P18" s="455"/>
+      <c r="P18" s="452"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="450">
+      <c r="A19" s="447">
         <v>1107</v>
       </c>
-      <c r="B19" s="447">
+      <c r="B19" s="444">
         <v>43864</v>
       </c>
-      <c r="C19" s="450"/>
-      <c r="D19" s="453" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="450"/>
-      <c r="F19" s="450"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="450" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="447"/>
+      <c r="F19" s="447"/>
       <c r="G19" s="70" t="s">
         <v>92</v>
       </c>
@@ -12973,12 +12988,12 @@
       <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="451"/>
-      <c r="B20" s="448"/>
-      <c r="C20" s="451"/>
-      <c r="D20" s="454"/>
-      <c r="E20" s="451"/>
-      <c r="F20" s="451"/>
+      <c r="A20" s="448"/>
+      <c r="B20" s="445"/>
+      <c r="C20" s="448"/>
+      <c r="D20" s="451"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="448"/>
       <c r="G20" s="192" t="s">
         <v>93</v>
       </c>
@@ -13004,12 +13019,12 @@
       <c r="P20" s="192"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="451"/>
-      <c r="B21" s="448"/>
-      <c r="C21" s="451"/>
-      <c r="D21" s="454"/>
-      <c r="E21" s="451"/>
-      <c r="F21" s="451"/>
+      <c r="A21" s="448"/>
+      <c r="B21" s="445"/>
+      <c r="C21" s="448"/>
+      <c r="D21" s="451"/>
+      <c r="E21" s="448"/>
+      <c r="F21" s="448"/>
       <c r="G21" s="192" t="s">
         <v>96</v>
       </c>
@@ -13035,12 +13050,12 @@
       <c r="P21" s="192"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="452"/>
-      <c r="B22" s="449"/>
-      <c r="C22" s="452"/>
-      <c r="D22" s="455"/>
-      <c r="E22" s="452"/>
-      <c r="F22" s="452"/>
+      <c r="A22" s="449"/>
+      <c r="B22" s="446"/>
+      <c r="C22" s="449"/>
+      <c r="D22" s="452"/>
+      <c r="E22" s="449"/>
+      <c r="F22" s="449"/>
       <c r="G22" s="195" t="s">
         <v>101</v>
       </c>
@@ -13074,7 +13089,7 @@
       </c>
       <c r="C23" s="206"/>
       <c r="D23" s="206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="206"/>
       <c r="F23" s="206"/>
@@ -13102,12 +13117,12 @@
       <c r="N23" s="206"/>
       <c r="O23" s="206"/>
       <c r="P23" s="206" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="215" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="443" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="443"/>
       <c r="C24" s="443"/>
@@ -13179,6 +13194,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P7:P15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -13195,21 +13225,6 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P7:P15"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13253,7 +13268,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="85"/>
       <c r="C2" s="86"/>
@@ -13272,17 +13287,17 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="459" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="459"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="459"/>
-      <c r="E4" s="459"/>
-      <c r="F4" s="459"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="459"/>
-      <c r="I4" s="459"/>
+      <c r="A4" s="466" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="466"/>
+      <c r="F4" s="466"/>
+      <c r="G4" s="466"/>
+      <c r="H4" s="466"/>
+      <c r="I4" s="466"/>
       <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13298,33 +13313,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="460" t="s">
+      <c r="A6" s="467" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="461" t="s">
+      <c r="B6" s="468" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="460" t="s">
+      <c r="C6" s="467" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="462" t="s">
+      <c r="D6" s="469" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="462"/>
-      <c r="F6" s="462"/>
-      <c r="G6" s="462"/>
-      <c r="H6" s="463"/>
-      <c r="I6" s="460" t="s">
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="467" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="457" t="s">
+      <c r="J6" s="464" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="460"/>
-      <c r="B7" s="461"/>
-      <c r="C7" s="460"/>
+      <c r="A7" s="467"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="467"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13340,8 +13355,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="460"/>
-      <c r="J7" s="458"/>
+      <c r="I7" s="467"/>
+      <c r="J7" s="465"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
@@ -13351,7 +13366,7 @@
         <v>43913</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>101</v>
@@ -13377,10 +13392,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="125"/>
-      <c r="B9" s="456" t="s">
+      <c r="B9" s="463" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="456"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="125"/>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
@@ -13396,17 +13411,17 @@
       <c r="J9" s="140"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="464" t="s">
+      <c r="A10" s="459" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="465"/>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="465"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="465"/>
-      <c r="I10" s="466"/>
+      <c r="B10" s="460"/>
+      <c r="C10" s="460"/>
+      <c r="D10" s="460"/>
+      <c r="E10" s="460"/>
+      <c r="F10" s="460"/>
+      <c r="G10" s="460"/>
+      <c r="H10" s="460"/>
+      <c r="I10" s="461"/>
       <c r="J10" s="141">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
@@ -13421,7 +13436,7 @@
       </c>
       <c r="C12" s="49"/>
       <c r="F12" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
@@ -13430,28 +13445,28 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="467"/>
-      <c r="B17" s="467"/>
-      <c r="C17" s="467"/>
-      <c r="E17" s="467"/>
-      <c r="F17" s="467"/>
-      <c r="G17" s="467"/>
-      <c r="H17" s="467"/>
-      <c r="I17" s="467"/>
+      <c r="A17" s="462"/>
+      <c r="B17" s="462"/>
+      <c r="C17" s="462"/>
+      <c r="E17" s="462"/>
+      <c r="F17" s="462"/>
+      <c r="G17" s="462"/>
+      <c r="H17" s="462"/>
+      <c r="I17" s="462"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13496,7 +13511,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="155"/>
       <c r="C2" s="86"/>
@@ -13515,18 +13530,18 @@
       <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="459" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="459"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="459"/>
-      <c r="E4" s="459"/>
-      <c r="F4" s="459"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="459"/>
-      <c r="I4" s="459"/>
-      <c r="J4" s="459"/>
+      <c r="A4" s="466" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="466"/>
+      <c r="F4" s="466"/>
+      <c r="G4" s="466"/>
+      <c r="H4" s="466"/>
+      <c r="I4" s="466"/>
+      <c r="J4" s="466"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="88"/>
@@ -13541,33 +13556,33 @@
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="460" t="s">
+      <c r="A6" s="467" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="484" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="460" t="s">
+      <c r="C6" s="467" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="462" t="s">
+      <c r="D6" s="469" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="462"/>
-      <c r="F6" s="462"/>
-      <c r="G6" s="462"/>
-      <c r="H6" s="463"/>
-      <c r="I6" s="460" t="s">
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="467" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="457" t="s">
+      <c r="J6" s="464" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="460"/>
-      <c r="B7" s="472"/>
-      <c r="C7" s="460"/>
+      <c r="A7" s="467"/>
+      <c r="B7" s="484"/>
+      <c r="C7" s="467"/>
       <c r="D7" s="89" t="s">
         <v>85</v>
       </c>
@@ -13583,8 +13598,8 @@
       <c r="H7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="460"/>
-      <c r="J7" s="458"/>
+      <c r="I7" s="467"/>
+      <c r="J7" s="465"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
@@ -13651,13 +13666,13 @@
       <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="476">
+      <c r="A10" s="474">
         <v>1060</v>
       </c>
-      <c r="B10" s="479">
+      <c r="B10" s="477">
         <v>43900</v>
       </c>
-      <c r="C10" s="476" t="s">
+      <c r="C10" s="474" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="173" t="s">
@@ -13683,9 +13698,9 @@
       <c r="J10" s="174"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="477"/>
-      <c r="B11" s="480"/>
-      <c r="C11" s="477"/>
+      <c r="A11" s="475"/>
+      <c r="B11" s="478"/>
+      <c r="C11" s="475"/>
       <c r="D11" s="176" t="s">
         <v>93</v>
       </c>
@@ -13710,9 +13725,9 @@
       <c r="M11" s="142"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="478"/>
-      <c r="B12" s="481"/>
-      <c r="C12" s="478"/>
+      <c r="A12" s="476"/>
+      <c r="B12" s="479"/>
+      <c r="C12" s="476"/>
       <c r="D12" s="107" t="s">
         <v>94</v>
       </c>
@@ -13733,7 +13748,7 @@
         <f t="shared" si="1"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="J12" s="377"/>
+      <c r="J12" s="375"/>
       <c r="M12" s="142"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13865,13 +13880,13 @@
       <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:10" s="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="468">
+      <c r="A17" s="480">
         <v>1078</v>
       </c>
-      <c r="B17" s="470">
+      <c r="B17" s="482">
         <v>43907</v>
       </c>
-      <c r="C17" s="468" t="s">
+      <c r="C17" s="480" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="112" t="s">
@@ -13894,12 +13909,12 @@
         <f t="shared" si="1"/>
         <v>274350.00000000006</v>
       </c>
-      <c r="J17" s="378"/>
+      <c r="J17" s="376"/>
     </row>
     <row r="18" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="469"/>
-      <c r="B18" s="471"/>
-      <c r="C18" s="469"/>
+      <c r="A18" s="481"/>
+      <c r="B18" s="483"/>
+      <c r="C18" s="481"/>
       <c r="D18" s="162" t="s">
         <v>95</v>
       </c>
@@ -13920,16 +13935,16 @@
         <f t="shared" si="1"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="J18" s="379"/>
+      <c r="J18" s="377"/>
     </row>
     <row r="19" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="468">
+      <c r="A19" s="480">
         <v>1080</v>
       </c>
-      <c r="B19" s="470">
+      <c r="B19" s="482">
         <v>43908</v>
       </c>
-      <c r="C19" s="468"/>
+      <c r="C19" s="480"/>
       <c r="D19" s="112" t="s">
         <v>97</v>
       </c>
@@ -13950,12 +13965,12 @@
         <f t="shared" si="1"/>
         <v>168150.00000000003</v>
       </c>
-      <c r="J19" s="378"/>
+      <c r="J19" s="376"/>
     </row>
     <row r="20" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="469"/>
-      <c r="B20" s="471"/>
-      <c r="C20" s="469"/>
+      <c r="A20" s="481"/>
+      <c r="B20" s="483"/>
+      <c r="C20" s="481"/>
       <c r="D20" s="162" t="s">
         <v>98</v>
       </c>
@@ -13976,16 +13991,16 @@
         <f t="shared" si="1"/>
         <v>150450.00000000003</v>
       </c>
-      <c r="J20" s="379"/>
+      <c r="J20" s="377"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="338">
+      <c r="A21" s="336">
         <v>1079</v>
       </c>
-      <c r="B21" s="339">
+      <c r="B21" s="337">
         <v>43908</v>
       </c>
-      <c r="C21" s="338" t="s">
+      <c r="C21" s="336" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="118" t="s">
@@ -14011,13 +14026,13 @@
       <c r="J21" s="136"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="476">
+      <c r="A22" s="474">
         <v>1086</v>
       </c>
-      <c r="B22" s="479">
+      <c r="B22" s="477">
         <v>43909</v>
       </c>
-      <c r="C22" s="476" t="s">
+      <c r="C22" s="474" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="173" t="s">
@@ -14043,9 +14058,9 @@
       <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="477"/>
-      <c r="B23" s="480"/>
-      <c r="C23" s="477"/>
+      <c r="A23" s="475"/>
+      <c r="B23" s="478"/>
+      <c r="C23" s="475"/>
       <c r="D23" s="176" t="s">
         <v>93</v>
       </c>
@@ -14069,9 +14084,9 @@
       <c r="J23" s="177"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="478"/>
-      <c r="B24" s="481"/>
-      <c r="C24" s="478"/>
+      <c r="A24" s="476"/>
+      <c r="B24" s="479"/>
+      <c r="C24" s="476"/>
       <c r="D24" s="107" t="s">
         <v>100</v>
       </c>
@@ -14092,7 +14107,7 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="J24" s="377"/>
+      <c r="J24" s="375"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
@@ -14127,7 +14142,7 @@
       <c r="J25" s="125"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="374"/>
+      <c r="A26" s="372"/>
       <c r="B26" s="158"/>
       <c r="C26" s="91" t="s">
         <v>99</v>
@@ -14144,7 +14159,7 @@
       <c r="J26" s="97"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="374"/>
+      <c r="A27" s="372"/>
       <c r="B27" s="158"/>
       <c r="C27" s="91" t="s">
         <v>99</v>
@@ -14161,7 +14176,7 @@
       <c r="J27" s="98"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="375"/>
+      <c r="A28" s="373"/>
       <c r="B28" s="159"/>
       <c r="C28" s="91" t="s">
         <v>99</v>
@@ -14178,7 +14193,7 @@
       <c r="J28" s="98"/>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="374"/>
+      <c r="A29" s="372"/>
       <c r="B29" s="158"/>
       <c r="C29" s="91" t="s">
         <v>99</v>
@@ -14200,7 +14215,7 @@
       <c r="J29" s="98"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="375"/>
+      <c r="A30" s="373"/>
       <c r="B30" s="159"/>
       <c r="C30" s="91" t="s">
         <v>99</v>
@@ -14222,7 +14237,7 @@
       <c r="J30" s="98"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="375"/>
+      <c r="A31" s="373"/>
       <c r="B31" s="159"/>
       <c r="C31" s="91" t="s">
         <v>99</v>
@@ -14244,7 +14259,7 @@
       <c r="J31" s="98"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="375"/>
+      <c r="A32" s="373"/>
       <c r="B32" s="159"/>
       <c r="C32" s="91" t="s">
         <v>99</v>
@@ -14266,7 +14281,7 @@
       <c r="J32" s="98"/>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="375"/>
+      <c r="A33" s="373"/>
       <c r="B33" s="159"/>
       <c r="C33" s="91" t="s">
         <v>99</v>
@@ -14288,7 +14303,7 @@
       <c r="J33" s="98"/>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="376"/>
+      <c r="A34" s="374"/>
       <c r="B34" s="160"/>
       <c r="C34" s="91" t="s">
         <v>99</v>
@@ -14310,13 +14325,13 @@
       <c r="J34" s="123"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="476">
+      <c r="A35" s="474">
         <v>1122</v>
       </c>
-      <c r="B35" s="479">
+      <c r="B35" s="477">
         <v>43917</v>
       </c>
-      <c r="C35" s="476" t="s">
+      <c r="C35" s="474" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="173" t="s">
@@ -14342,9 +14357,9 @@
       <c r="J35" s="97"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="478"/>
-      <c r="B36" s="481"/>
-      <c r="C36" s="478"/>
+      <c r="A36" s="476"/>
+      <c r="B36" s="479"/>
+      <c r="C36" s="476"/>
       <c r="D36" s="107" t="s">
         <v>101</v>
       </c>
@@ -14365,46 +14380,46 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="J36" s="377"/>
+      <c r="J36" s="375"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="473" t="s">
+      <c r="A37" s="471" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="474"/>
-      <c r="C37" s="474"/>
-      <c r="D37" s="474"/>
-      <c r="E37" s="474"/>
-      <c r="F37" s="474"/>
-      <c r="G37" s="474"/>
-      <c r="H37" s="474"/>
-      <c r="I37" s="475"/>
+      <c r="B37" s="472"/>
+      <c r="C37" s="472"/>
+      <c r="D37" s="472"/>
+      <c r="E37" s="472"/>
+      <c r="F37" s="472"/>
+      <c r="G37" s="472"/>
+      <c r="H37" s="472"/>
+      <c r="I37" s="473"/>
       <c r="J37" s="137">
         <v>7000000</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="473" t="s">
+      <c r="A38" s="471" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="474"/>
-      <c r="C38" s="474"/>
-      <c r="D38" s="474"/>
-      <c r="E38" s="474"/>
-      <c r="F38" s="474"/>
-      <c r="G38" s="474"/>
-      <c r="H38" s="474"/>
-      <c r="I38" s="475"/>
+      <c r="B38" s="472"/>
+      <c r="C38" s="472"/>
+      <c r="D38" s="472"/>
+      <c r="E38" s="472"/>
+      <c r="F38" s="472"/>
+      <c r="G38" s="472"/>
+      <c r="H38" s="472"/>
+      <c r="I38" s="473"/>
       <c r="J38" s="137">
         <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="125"/>
-      <c r="B39" s="456" t="s">
+      <c r="B39" s="463" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="456"/>
+      <c r="C39" s="463"/>
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -14423,17 +14438,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="464" t="s">
+      <c r="A40" s="459" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="465"/>
-      <c r="C40" s="465"/>
-      <c r="D40" s="465"/>
-      <c r="E40" s="465"/>
-      <c r="F40" s="465"/>
-      <c r="G40" s="465"/>
-      <c r="H40" s="465"/>
-      <c r="I40" s="466"/>
+      <c r="B40" s="460"/>
+      <c r="C40" s="460"/>
+      <c r="D40" s="460"/>
+      <c r="E40" s="460"/>
+      <c r="F40" s="460"/>
+      <c r="G40" s="460"/>
+      <c r="H40" s="460"/>
+      <c r="I40" s="461"/>
       <c r="J40" s="141">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
@@ -14448,7 +14463,7 @@
       </c>
       <c r="C42" s="49"/>
       <c r="F42" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G42" s="49"/>
       <c r="H42" s="49"/>
@@ -14457,23 +14472,23 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="467"/>
-      <c r="B47" s="467"/>
-      <c r="C47" s="467"/>
-      <c r="E47" s="467"/>
-      <c r="F47" s="467"/>
-      <c r="G47" s="467"/>
-      <c r="H47" s="467"/>
-      <c r="I47" s="467"/>
+      <c r="A47" s="462"/>
+      <c r="B47" s="462"/>
+      <c r="C47" s="462"/>
+      <c r="E47" s="462"/>
+      <c r="F47" s="462"/>
+      <c r="G47" s="462"/>
+      <c r="H47" s="462"/>
+      <c r="I47" s="462"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
@@ -14490,12 +14505,12 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.7" top="0.31" bottom="0.32" header="0.27" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -15346,36 +15361,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="486" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="483"/>
-      <c r="C1" s="483"/>
-      <c r="D1" s="483"/>
-      <c r="F1" s="484" t="s">
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="486"/>
+      <c r="F1" s="487" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
     </row>
     <row r="2" spans="1:12" s="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="485" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="485"/>
-      <c r="C2" s="485"/>
-      <c r="D2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="A2" s="488" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="F2" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
+      <c r="K2" s="489"/>
     </row>
     <row r="3" spans="1:12" s="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="144"/>
@@ -15388,435 +15403,435 @@
       <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:12" s="147" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="487" t="s">
+      <c r="A4" s="490" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="490"/>
+      <c r="I4" s="490"/>
+      <c r="J4" s="490"/>
+      <c r="K4" s="490"/>
+      <c r="L4" s="490"/>
+    </row>
+    <row r="5" spans="1:12" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="491" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="487"/>
-      <c r="C4" s="487"/>
-      <c r="D4" s="487"/>
-      <c r="E4" s="487"/>
-      <c r="F4" s="487"/>
-      <c r="G4" s="487"/>
-      <c r="H4" s="487"/>
-      <c r="I4" s="487"/>
-      <c r="J4" s="487"/>
-      <c r="K4" s="487"/>
-      <c r="L4" s="487"/>
-    </row>
-    <row r="5" spans="1:12" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="488" t="s">
+      <c r="B5" s="491"/>
+      <c r="C5" s="491"/>
+      <c r="D5" s="491"/>
+      <c r="E5" s="491"/>
+      <c r="F5" s="491"/>
+      <c r="G5" s="491"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="491"/>
+      <c r="J5" s="491"/>
+      <c r="K5" s="491"/>
+      <c r="L5" s="491"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="492" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="488"/>
-      <c r="C5" s="488"/>
-      <c r="D5" s="488"/>
-      <c r="E5" s="488"/>
-      <c r="F5" s="488"/>
-      <c r="G5" s="488"/>
-      <c r="H5" s="488"/>
-      <c r="I5" s="488"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="488"/>
-      <c r="L5" s="488"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="489" t="s">
+      <c r="K6" s="492"/>
+      <c r="L6" s="492"/>
+    </row>
+    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="348" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="349" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="489"/>
-      <c r="L6" s="489"/>
-    </row>
-    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="350" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="351" t="s">
+      <c r="C7" s="349" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="351" t="s">
+      <c r="D7" s="349" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="351" t="s">
+      <c r="E7" s="348" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="350" t="s">
+      <c r="F7" s="348" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="350" t="s">
+      <c r="G7" s="348" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="350" t="s">
+      <c r="H7" s="348" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="350" t="s">
+      <c r="I7" s="348" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="350" t="s">
+      <c r="J7" s="348" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="350" t="s">
+      <c r="K7" s="350" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="352" t="s">
+      <c r="L7" s="348" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="351"/>
+      <c r="B8" s="352"/>
+      <c r="C8" s="353"/>
+      <c r="D8" s="353"/>
+      <c r="E8" s="354"/>
+      <c r="F8" s="355" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="350" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="353"/>
-      <c r="B8" s="354"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="357" t="s">
+      <c r="G8" s="355" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="357" t="s">
+      <c r="H8" s="355" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="357" t="s">
+      <c r="I8" s="355" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="356" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="353"/>
+      <c r="L8" s="354"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="493" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="357" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="358" t="s">
-        <v>224</v>
-      </c>
-      <c r="K8" s="355"/>
-      <c r="L8" s="356"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="490" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="491"/>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="356"/>
-      <c r="F9" s="359">
+      <c r="B9" s="494"/>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="357">
         <f>SUM(F10:F13)</f>
         <v>40000000</v>
       </c>
-      <c r="G9" s="359">
+      <c r="G9" s="357">
         <f t="shared" ref="G9:J9" si="0">SUM(G10:G13)</f>
         <v>858450.00000000012</v>
       </c>
-      <c r="H9" s="359">
+      <c r="H9" s="357">
         <f t="shared" si="0"/>
         <v>14100000</v>
       </c>
-      <c r="I9" s="359">
+      <c r="I9" s="357">
         <f t="shared" si="0"/>
         <v>13584615</v>
       </c>
-      <c r="J9" s="359">
+      <c r="J9" s="357">
         <f t="shared" si="0"/>
         <v>38626165</v>
       </c>
-      <c r="K9" s="355"/>
-      <c r="L9" s="356"/>
+      <c r="K9" s="353"/>
+      <c r="L9" s="354"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="346">
+      <c r="A10" s="344">
         <v>1</v>
       </c>
-      <c r="B10" s="346" t="s">
+      <c r="B10" s="344" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="347" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="348">
+      <c r="C10" s="345" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="346">
         <v>15000000</v>
       </c>
-      <c r="E10" s="349">
+      <c r="E10" s="347">
         <v>26</v>
       </c>
-      <c r="F10" s="348">
+      <c r="F10" s="346">
         <f>D10/26*E10</f>
         <v>14999999.999999998</v>
       </c>
-      <c r="G10" s="349"/>
-      <c r="H10" s="349"/>
-      <c r="I10" s="349">
+      <c r="G10" s="347"/>
+      <c r="H10" s="347"/>
+      <c r="I10" s="347">
         <v>0</v>
       </c>
-      <c r="J10" s="349">
+      <c r="J10" s="347">
         <f>F10-G10-H10+I10</f>
         <v>14999999.999999998</v>
       </c>
-      <c r="K10" s="349"/>
-      <c r="L10" s="346"/>
+      <c r="K10" s="347"/>
+      <c r="L10" s="344"/>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="346">
+      <c r="A11" s="344">
         <v>2</v>
       </c>
-      <c r="B11" s="346" t="s">
+      <c r="B11" s="344" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="345" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="347" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="348">
+      <c r="D11" s="346">
         <v>10000000</v>
       </c>
-      <c r="E11" s="349">
+      <c r="E11" s="347">
         <v>26</v>
       </c>
-      <c r="F11" s="348">
+      <c r="F11" s="346">
         <f>D11/26*E11</f>
         <v>10000000</v>
       </c>
-      <c r="G11" s="349"/>
-      <c r="H11" s="349">
+      <c r="G11" s="347"/>
+      <c r="H11" s="347">
         <f>3000000+5000000+4100000</f>
         <v>12100000</v>
       </c>
-      <c r="I11" s="349">
+      <c r="I11" s="347">
         <v>2738461</v>
       </c>
-      <c r="J11" s="349">
+      <c r="J11" s="347">
         <f>F11-G11-H11+I11</f>
         <v>638461</v>
       </c>
-      <c r="K11" s="349"/>
-      <c r="L11" s="346"/>
+      <c r="K11" s="347"/>
+      <c r="L11" s="344"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="346">
+      <c r="A12" s="344">
         <v>3</v>
       </c>
-      <c r="B12" s="346" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="347" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="348">
+      <c r="B12" s="344" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="345" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="346">
         <v>10000000</v>
       </c>
-      <c r="E12" s="349">
+      <c r="E12" s="347">
         <v>26</v>
       </c>
-      <c r="F12" s="348">
+      <c r="F12" s="346">
         <f>D12/26*E12</f>
         <v>10000000</v>
       </c>
-      <c r="G12" s="349"/>
-      <c r="H12" s="349">
+      <c r="G12" s="347"/>
+      <c r="H12" s="347">
         <v>2000000</v>
       </c>
-      <c r="I12" s="349">
+      <c r="I12" s="347">
         <v>10846154</v>
       </c>
-      <c r="J12" s="349">
+      <c r="J12" s="347">
         <f>F12-H12+I12</f>
         <v>18846154</v>
       </c>
-      <c r="K12" s="349"/>
-      <c r="L12" s="346"/>
+      <c r="K12" s="347"/>
+      <c r="L12" s="344"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="346">
+      <c r="A13" s="344">
         <v>4</v>
       </c>
-      <c r="B13" s="346" t="s">
+      <c r="B13" s="344" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="347" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="348">
+      <c r="C13" s="345" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="346">
         <v>5000000</v>
       </c>
-      <c r="E13" s="349">
+      <c r="E13" s="347">
         <v>26</v>
       </c>
-      <c r="F13" s="348">
+      <c r="F13" s="346">
         <f>D13/26*E13</f>
         <v>5000000</v>
       </c>
-      <c r="G13" s="349">
+      <c r="G13" s="347">
         <f>'Tiền hàng Hằng'!J10</f>
         <v>858450.00000000012</v>
       </c>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349">
+      <c r="H13" s="347"/>
+      <c r="I13" s="347">
         <v>0</v>
       </c>
-      <c r="J13" s="349">
+      <c r="J13" s="347">
         <f>F13-G13-H13</f>
         <v>4141550</v>
       </c>
-      <c r="K13" s="349"/>
-      <c r="L13" s="346"/>
+      <c r="K13" s="347"/>
+      <c r="L13" s="344"/>
     </row>
     <row r="14" spans="1:12" s="150" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="492" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="493"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="361"/>
-      <c r="E14" s="362"/>
-      <c r="F14" s="359">
+      <c r="A14" s="495" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="496"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="360"/>
+      <c r="F14" s="357">
         <f>SUM(F15:F16)</f>
         <v>14423076.923076924</v>
       </c>
-      <c r="G14" s="359">
+      <c r="G14" s="357">
         <f t="shared" ref="G14:J14" si="1">SUM(G15:G16)</f>
         <v>1738000.0000000019</v>
       </c>
-      <c r="H14" s="359">
+      <c r="H14" s="357">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="359">
+      <c r="I14" s="357">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="359">
+      <c r="J14" s="357">
         <f t="shared" si="1"/>
         <v>12685076.92307692</v>
       </c>
-      <c r="K14" s="362"/>
-      <c r="L14" s="363"/>
+      <c r="K14" s="360"/>
+      <c r="L14" s="361"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="364">
+      <c r="A15" s="362">
         <v>1</v>
       </c>
-      <c r="B15" s="364" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="365" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="366">
+      <c r="B15" s="362" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="363" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="364">
         <v>10000000</v>
       </c>
-      <c r="E15" s="367">
+      <c r="E15" s="365">
         <v>26</v>
       </c>
-      <c r="F15" s="348">
+      <c r="F15" s="346">
         <f>D15/26*E15</f>
         <v>10000000</v>
       </c>
-      <c r="G15" s="367"/>
-      <c r="H15" s="367"/>
-      <c r="I15" s="367">
+      <c r="G15" s="365"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="365">
         <v>0</v>
       </c>
-      <c r="J15" s="349">
+      <c r="J15" s="347">
         <f>F15-G15-H15</f>
         <v>10000000</v>
       </c>
-      <c r="K15" s="367"/>
-      <c r="L15" s="364"/>
+      <c r="K15" s="365"/>
+      <c r="L15" s="362"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="368">
+      <c r="A16" s="366">
         <v>2</v>
       </c>
-      <c r="B16" s="368" t="s">
+      <c r="B16" s="366" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="367" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="369" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="370">
+      <c r="D16" s="368">
         <v>5000000</v>
       </c>
-      <c r="E16" s="371">
+      <c r="E16" s="369">
         <v>23</v>
       </c>
-      <c r="F16" s="370">
+      <c r="F16" s="368">
         <f>D16/26*E16</f>
         <v>4423076.923076923</v>
       </c>
-      <c r="G16" s="371">
+      <c r="G16" s="369">
         <f>'Tiền hàng Tâm'!J40</f>
         <v>1738000.0000000019</v>
       </c>
-      <c r="H16" s="371"/>
-      <c r="I16" s="371">
+      <c r="H16" s="369"/>
+      <c r="I16" s="369">
         <v>0</v>
       </c>
-      <c r="J16" s="371">
+      <c r="J16" s="369">
         <f>F16-G16-H16</f>
         <v>2685076.9230769211</v>
       </c>
-      <c r="K16" s="371"/>
-      <c r="L16" s="368"/>
+      <c r="K16" s="369"/>
+      <c r="L16" s="366"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="495" t="s">
+      <c r="A17" s="498" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="496"/>
-      <c r="C17" s="496"/>
-      <c r="D17" s="496"/>
-      <c r="E17" s="497"/>
-      <c r="F17" s="372">
+      <c r="B17" s="499"/>
+      <c r="C17" s="499"/>
+      <c r="D17" s="499"/>
+      <c r="E17" s="500"/>
+      <c r="F17" s="370">
         <f>F9+F14</f>
         <v>54423076.923076928</v>
       </c>
-      <c r="G17" s="372">
+      <c r="G17" s="370">
         <f t="shared" ref="G17:J17" si="2">G9+G14</f>
         <v>2596450.0000000019</v>
       </c>
-      <c r="H17" s="372">
+      <c r="H17" s="370">
         <f t="shared" si="2"/>
         <v>14100000</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="370">
         <f t="shared" si="2"/>
         <v>13584615</v>
       </c>
-      <c r="J17" s="372">
+      <c r="J17" s="370">
         <f t="shared" si="2"/>
         <v>51311241.92307692</v>
       </c>
-      <c r="K17" s="373"/>
-      <c r="L17" s="373"/>
+      <c r="K17" s="371"/>
+      <c r="L17" s="371"/>
     </row>
     <row r="19" spans="1:12" s="151" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="341" t="s">
+      <c r="B19" s="339" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="341"/>
-      <c r="D19" s="341"/>
-      <c r="F19" s="341" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="341"/>
-      <c r="H19" s="494" t="s">
-        <v>318</v>
-      </c>
-      <c r="I19" s="494"/>
-      <c r="J19" s="494"/>
-      <c r="K19" s="494"/>
+      <c r="C19" s="339"/>
+      <c r="D19" s="339"/>
+      <c r="F19" s="339" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="339"/>
+      <c r="H19" s="497" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" s="497"/>
+      <c r="J19" s="497"/>
+      <c r="K19" s="497"/>
     </row>
     <row r="20" spans="1:12" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B20" s="340" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="340"/>
-      <c r="D20" s="340"/>
-      <c r="F20" s="340" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="340"/>
-      <c r="H20" s="482" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="482"/>
-      <c r="J20" s="482"/>
-      <c r="K20" s="482"/>
+      <c r="B20" s="338" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="338"/>
+      <c r="D20" s="338"/>
+      <c r="F20" s="338" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="338"/>
+      <c r="H20" s="485" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="485"/>
+      <c r="J20" s="485"/>
+      <c r="K20" s="485"/>
     </row>
   </sheetData>
   <mergeCells count="12">
